--- a/AssetManagement/AssetManagement/bin/Debug/Finance forms/financial blank report.xlsx
+++ b/AssetManagement/AssetManagement/bin/Debug/Finance forms/financial blank report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C8D672-55EE-4116-A2FC-A32A331E740C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619B7129-309D-44C0-AEE0-A1B8521773D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="164">
   <si>
     <t xml:space="preserve">التقرير المالي  التفصيلي </t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>تأمين</t>
-  </si>
-  <si>
-    <t>ثانياً : المصاريف :</t>
   </si>
   <si>
     <t>لوازم كمبيوتر</t>
@@ -1489,8 +1486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X90"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A16" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.5"/>
@@ -2819,7 +2816,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
@@ -2851,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="13"/>
@@ -2883,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="13"/>
@@ -2915,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="13"/>
@@ -2947,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="13"/>
@@ -2979,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="13"/>
@@ -3004,14 +3001,14 @@
       <c r="E10" s="19"/>
       <c r="F10" s="18"/>
       <c r="G10" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J10" s="47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="13"/>
@@ -3043,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="13"/>
@@ -3098,7 +3095,7 @@
       <c r="E13" s="17"/>
       <c r="F13" s="18"/>
       <c r="G13" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>10</v>
@@ -3127,14 +3124,14 @@
       <c r="E14" s="17"/>
       <c r="F14" s="18"/>
       <c r="G14" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H14" s="20">
         <f t="shared" ref="H14:H58" si="1">SUMIF(E:E,G14,B:B)</f>
         <v>0</v>
       </c>
       <c r="J14" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="13"/>
@@ -3166,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="13"/>
@@ -3191,14 +3188,14 @@
       <c r="E16" s="17"/>
       <c r="F16" s="18"/>
       <c r="G16" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H16" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J16" s="47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="13"/>
@@ -3230,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="13"/>
@@ -3262,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="13"/>
@@ -3294,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="13"/>
@@ -3319,14 +3316,14 @@
       <c r="E20" s="24"/>
       <c r="F20" s="27"/>
       <c r="G20" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H20" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J20" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="13"/>
@@ -3351,14 +3348,14 @@
       <c r="E21" s="24"/>
       <c r="F21" s="27"/>
       <c r="G21" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H21" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J21" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="13"/>
@@ -3390,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="29"/>
@@ -3414,14 +3411,14 @@
       <c r="E23" s="24"/>
       <c r="F23" s="27"/>
       <c r="G23" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H23" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J23" s="47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="29"/>
@@ -3445,14 +3442,14 @@
       <c r="E24" s="24"/>
       <c r="F24" s="27"/>
       <c r="G24" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H24" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J24" s="47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="29"/>
@@ -3469,23 +3466,21 @@
       <c r="W24" s="29"/>
     </row>
     <row r="25" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A25" s="92" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="93"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="94"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="27"/>
       <c r="G25" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H25" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J25" s="47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="14"/>
@@ -3498,14 +3493,14 @@
       <c r="E26" s="19"/>
       <c r="F26" s="27"/>
       <c r="G26" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H26" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J26" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="14"/>
@@ -3518,14 +3513,14 @@
       <c r="E27" s="19"/>
       <c r="F27" s="27"/>
       <c r="G27" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H27" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J27" s="47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="14"/>
@@ -3538,14 +3533,14 @@
       <c r="E28" s="19"/>
       <c r="F28" s="27"/>
       <c r="G28" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H28" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J28" s="47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="14"/>
@@ -3558,14 +3553,14 @@
       <c r="E29" s="19"/>
       <c r="F29" s="27"/>
       <c r="G29" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H29" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J29" s="47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="14"/>
@@ -3578,14 +3573,14 @@
       <c r="E30" s="19"/>
       <c r="F30" s="27"/>
       <c r="G30" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H30" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J30" s="47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="14"/>
@@ -3598,14 +3593,14 @@
       <c r="E31" s="19"/>
       <c r="F31" s="27"/>
       <c r="G31" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H31" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J31" s="47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="14"/>
@@ -3618,7 +3613,7 @@
       <c r="E32" s="19"/>
       <c r="F32" s="27"/>
       <c r="G32" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H32" s="20">
         <f t="shared" si="1"/>
@@ -3626,7 +3621,7 @@
       </c>
       <c r="I32" s="32"/>
       <c r="J32" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K32" s="3"/>
     </row>
@@ -3638,14 +3633,14 @@
       <c r="E33" s="19"/>
       <c r="F33" s="33"/>
       <c r="G33" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H33" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J33" s="47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K33" s="3"/>
     </row>
@@ -3657,14 +3652,14 @@
       <c r="E34" s="19"/>
       <c r="F34" s="27"/>
       <c r="G34" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H34" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J34" s="47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K34" s="3"/>
     </row>
@@ -3676,14 +3671,14 @@
       <c r="E35" s="19"/>
       <c r="F35" s="27"/>
       <c r="G35" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H35" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J35" s="47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K35" s="3"/>
     </row>
@@ -3695,14 +3690,14 @@
       <c r="E36" s="19"/>
       <c r="F36" s="35"/>
       <c r="G36" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H36" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J36" s="47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K36" s="3"/>
     </row>
@@ -3714,14 +3709,14 @@
       <c r="E37" s="19"/>
       <c r="F37" s="35"/>
       <c r="G37" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H37" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J37" s="47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K37" s="3"/>
     </row>
@@ -3733,14 +3728,14 @@
       <c r="E38" s="19"/>
       <c r="F38" s="35"/>
       <c r="G38" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H38" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J38" s="47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K38" s="3"/>
     </row>
@@ -3752,14 +3747,14 @@
       <c r="E39" s="19"/>
       <c r="F39" s="35"/>
       <c r="G39" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H39" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J39" s="47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K39" s="3"/>
     </row>
@@ -3771,14 +3766,14 @@
       <c r="E40" s="19"/>
       <c r="F40" s="35"/>
       <c r="G40" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H40" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J40" s="47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K40" s="3"/>
     </row>
@@ -3790,14 +3785,14 @@
       <c r="E41" s="19"/>
       <c r="F41" s="35"/>
       <c r="G41" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H41" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J41" s="47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K41" s="3"/>
     </row>
@@ -3809,14 +3804,14 @@
       <c r="E42" s="19"/>
       <c r="F42" s="35"/>
       <c r="G42" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H42" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J42" s="47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="32"/>
@@ -3829,14 +3824,14 @@
       <c r="E43" s="19"/>
       <c r="F43" s="35"/>
       <c r="G43" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H43" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J43" s="47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K43" s="3"/>
     </row>
@@ -3848,7 +3843,7 @@
       <c r="E44" s="19"/>
       <c r="F44" s="35"/>
       <c r="G44" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H44" s="20">
         <f t="shared" si="1"/>
@@ -3856,7 +3851,7 @@
       </c>
       <c r="I44" s="35"/>
       <c r="J44" s="47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K44" s="3"/>
     </row>
@@ -3868,7 +3863,7 @@
       <c r="E45" s="19"/>
       <c r="F45" s="35"/>
       <c r="G45" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H45" s="20">
         <f t="shared" si="1"/>
@@ -3876,7 +3871,7 @@
       </c>
       <c r="I45" s="35"/>
       <c r="J45" s="47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K45" s="3"/>
     </row>
@@ -3888,7 +3883,7 @@
       <c r="E46" s="19"/>
       <c r="F46" s="35"/>
       <c r="G46" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H46" s="20">
         <f t="shared" si="1"/>
@@ -3896,7 +3891,7 @@
       </c>
       <c r="I46" s="35"/>
       <c r="J46" s="47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K46" s="3"/>
     </row>
@@ -3908,14 +3903,14 @@
       <c r="E47" s="19"/>
       <c r="F47" s="35"/>
       <c r="G47" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H47" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J47" s="47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K47" s="3"/>
     </row>
@@ -3927,14 +3922,14 @@
       <c r="E48" s="19"/>
       <c r="F48" s="35"/>
       <c r="G48" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H48" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J48" s="47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K48" s="3"/>
     </row>
@@ -3946,14 +3941,14 @@
       <c r="E49" s="19"/>
       <c r="F49" s="35"/>
       <c r="G49" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H49" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J49" s="47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K49" s="3"/>
     </row>
@@ -3965,14 +3960,14 @@
       <c r="E50" s="19"/>
       <c r="F50" s="35"/>
       <c r="G50" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H50" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J50" s="47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K50" s="3"/>
     </row>
@@ -3984,14 +3979,14 @@
       <c r="E51" s="19"/>
       <c r="F51" s="35"/>
       <c r="G51" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J51" s="47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K51" s="3"/>
     </row>
@@ -4003,14 +3998,14 @@
       <c r="E52" s="19"/>
       <c r="F52" s="35"/>
       <c r="G52" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H52" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J52" s="47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K52" s="3"/>
     </row>
@@ -4022,14 +4017,14 @@
       <c r="E53" s="24"/>
       <c r="F53" s="35"/>
       <c r="G53" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H53" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J53" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K53" s="3"/>
     </row>
@@ -4041,14 +4036,14 @@
       <c r="E54" s="24"/>
       <c r="F54" s="35"/>
       <c r="G54" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H54" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J54" s="47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K54" s="3"/>
     </row>
@@ -4060,14 +4055,14 @@
       <c r="E55" s="24"/>
       <c r="F55" s="35"/>
       <c r="G55" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H55" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J55" s="47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K55" s="3"/>
     </row>
@@ -4086,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="J56" s="47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K56" s="3"/>
     </row>
@@ -4098,14 +4093,14 @@
       <c r="E57" s="24"/>
       <c r="F57" s="35"/>
       <c r="G57" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H57" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J57" s="47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K57" s="3"/>
     </row>
@@ -4124,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K58" s="3"/>
     </row>
@@ -4136,7 +4131,7 @@
       <c r="E59" s="24"/>
       <c r="F59" s="35"/>
       <c r="G59" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H59" s="11" t="s">
         <v>10</v>
@@ -4159,7 +4154,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K60" s="3"/>
     </row>
@@ -4171,14 +4166,14 @@
       <c r="E61" s="24"/>
       <c r="F61" s="35"/>
       <c r="G61" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H61" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J61" s="47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K61" s="3"/>
     </row>
@@ -4197,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K62" s="3"/>
     </row>
@@ -4216,7 +4211,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K63" s="3"/>
     </row>
@@ -4228,14 +4223,14 @@
       <c r="E64" s="24"/>
       <c r="F64" s="35"/>
       <c r="G64" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H64" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J64" s="47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K64" s="3"/>
     </row>
@@ -4247,14 +4242,14 @@
       <c r="E65" s="24"/>
       <c r="F65" s="35"/>
       <c r="G65" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H65" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J65" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K65" s="3"/>
     </row>
@@ -4266,14 +4261,14 @@
       <c r="E66" s="24"/>
       <c r="F66" s="35"/>
       <c r="G66" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H66" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J66" s="47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K66" s="3"/>
     </row>
@@ -4285,7 +4280,7 @@
       <c r="E67" s="24"/>
       <c r="F67" s="35"/>
       <c r="G67" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H67" s="11" t="s">
         <v>10</v>
@@ -4301,14 +4296,14 @@
       <c r="E68" s="24"/>
       <c r="F68" s="35"/>
       <c r="G68" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H68" s="20">
         <f>SUMIF(E:E,G68,B:B)</f>
         <v>0</v>
       </c>
       <c r="J68" s="47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K68" s="3"/>
     </row>
@@ -4320,7 +4315,7 @@
       <c r="E69" s="24"/>
       <c r="F69" s="35"/>
       <c r="G69" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H69" s="22">
         <f>SUM(H14:H68)</f>
@@ -4348,7 +4343,7 @@
       <c r="E71" s="24"/>
       <c r="F71" s="35"/>
       <c r="G71" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H71" s="42"/>
       <c r="J71" s="47"/>
@@ -4379,7 +4374,7 @@
       <c r="E73" s="24"/>
       <c r="F73" s="35"/>
       <c r="G73" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H73" s="65">
         <f>H12-H72</f>
@@ -4396,7 +4391,7 @@
       <c r="E74" s="24"/>
       <c r="F74" s="35"/>
       <c r="G74" s="43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H74" s="65">
         <f>H69</f>
@@ -4413,7 +4408,7 @@
       <c r="E75" s="24"/>
       <c r="F75" s="27"/>
       <c r="G75" s="43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H75" s="65">
         <f>SUM(H72+H73-H74)</f>
@@ -4450,7 +4445,7 @@
       <c r="D78" s="34"/>
       <c r="E78" s="24"/>
       <c r="G78" s="54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H78" s="55">
         <f>H14+H15+H16+H17+H18+H19+H20+H21+H22+H23+H24+H25+H26+H27+H28+H29+H30+H31+H32+H33+H34+H35+H36+H37+H38+H39+H40+H41+H42+H43+H44+H45+H46+H47+H48+H49+H50+H51+H52+H53+H54+H55+H56+H57+H58</f>
@@ -4466,7 +4461,7 @@
       <c r="D79" s="34"/>
       <c r="E79" s="24"/>
       <c r="G79" s="56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H79" s="57">
         <f>H60+H61+H62+H63+H64+H65+H66</f>
@@ -4485,12 +4480,12 @@
         <v>0</v>
       </c>
       <c r="C80" s="45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D80" s="45"/>
       <c r="E80" s="45"/>
       <c r="G80" s="58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H80" s="59">
         <f>H68</f>
@@ -4501,14 +4496,14 @@
     </row>
     <row r="81" spans="1:11" ht="22.2" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A81" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B81" s="75">
         <f>A80-B80</f>
         <v>0</v>
       </c>
       <c r="G81" s="60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H81" s="61">
         <f>SUM(H78:H80)</f>
@@ -4554,15 +4549,14 @@
       <c r="B90" s="78"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A25:E25"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="A4:E4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E65517:E65541 JA65463:JA65487 SW65463:SW65487 ACS65463:ACS65487 AMO65463:AMO65487 AWK65463:AWK65487 BGG65463:BGG65487 BQC65463:BQC65487 BZY65463:BZY65487 CJU65463:CJU65487 CTQ65463:CTQ65487 DDM65463:DDM65487 DNI65463:DNI65487 DXE65463:DXE65487 EHA65463:EHA65487 EQW65463:EQW65487 FAS65463:FAS65487 FKO65463:FKO65487 FUK65463:FUK65487 GEG65463:GEG65487 GOC65463:GOC65487 GXY65463:GXY65487 HHU65463:HHU65487 HRQ65463:HRQ65487 IBM65463:IBM65487 ILI65463:ILI65487 IVE65463:IVE65487 JFA65463:JFA65487 JOW65463:JOW65487 JYS65463:JYS65487 KIO65463:KIO65487 KSK65463:KSK65487 LCG65463:LCG65487 LMC65463:LMC65487 LVY65463:LVY65487 MFU65463:MFU65487 MPQ65463:MPQ65487 MZM65463:MZM65487 NJI65463:NJI65487 NTE65463:NTE65487 ODA65463:ODA65487 OMW65463:OMW65487 OWS65463:OWS65487 PGO65463:PGO65487 PQK65463:PQK65487 QAG65463:QAG65487 QKC65463:QKC65487 QTY65463:QTY65487 RDU65463:RDU65487 RNQ65463:RNQ65487 RXM65463:RXM65487 SHI65463:SHI65487 SRE65463:SRE65487 TBA65463:TBA65487 TKW65463:TKW65487 TUS65463:TUS65487 UEO65463:UEO65487 UOK65463:UOK65487 UYG65463:UYG65487 VIC65463:VIC65487 VRY65463:VRY65487 WBU65463:WBU65487 WLQ65463:WLQ65487 WVM65463:WVM65487 E131053:E131077 JA130999:JA131023 SW130999:SW131023 ACS130999:ACS131023 AMO130999:AMO131023 AWK130999:AWK131023 BGG130999:BGG131023 BQC130999:BQC131023 BZY130999:BZY131023 CJU130999:CJU131023 CTQ130999:CTQ131023 DDM130999:DDM131023 DNI130999:DNI131023 DXE130999:DXE131023 EHA130999:EHA131023 EQW130999:EQW131023 FAS130999:FAS131023 FKO130999:FKO131023 FUK130999:FUK131023 GEG130999:GEG131023 GOC130999:GOC131023 GXY130999:GXY131023 HHU130999:HHU131023 HRQ130999:HRQ131023 IBM130999:IBM131023 ILI130999:ILI131023 IVE130999:IVE131023 JFA130999:JFA131023 JOW130999:JOW131023 JYS130999:JYS131023 KIO130999:KIO131023 KSK130999:KSK131023 LCG130999:LCG131023 LMC130999:LMC131023 LVY130999:LVY131023 MFU130999:MFU131023 MPQ130999:MPQ131023 MZM130999:MZM131023 NJI130999:NJI131023 NTE130999:NTE131023 ODA130999:ODA131023 OMW130999:OMW131023 OWS130999:OWS131023 PGO130999:PGO131023 PQK130999:PQK131023 QAG130999:QAG131023 QKC130999:QKC131023 QTY130999:QTY131023 RDU130999:RDU131023 RNQ130999:RNQ131023 RXM130999:RXM131023 SHI130999:SHI131023 SRE130999:SRE131023 TBA130999:TBA131023 TKW130999:TKW131023 TUS130999:TUS131023 UEO130999:UEO131023 UOK130999:UOK131023 UYG130999:UYG131023 VIC130999:VIC131023 VRY130999:VRY131023 WBU130999:WBU131023 WLQ130999:WLQ131023 WVM130999:WVM131023 E196589:E196613 JA196535:JA196559 SW196535:SW196559 ACS196535:ACS196559 AMO196535:AMO196559 AWK196535:AWK196559 BGG196535:BGG196559 BQC196535:BQC196559 BZY196535:BZY196559 CJU196535:CJU196559 CTQ196535:CTQ196559 DDM196535:DDM196559 DNI196535:DNI196559 DXE196535:DXE196559 EHA196535:EHA196559 EQW196535:EQW196559 FAS196535:FAS196559 FKO196535:FKO196559 FUK196535:FUK196559 GEG196535:GEG196559 GOC196535:GOC196559 GXY196535:GXY196559 HHU196535:HHU196559 HRQ196535:HRQ196559 IBM196535:IBM196559 ILI196535:ILI196559 IVE196535:IVE196559 JFA196535:JFA196559 JOW196535:JOW196559 JYS196535:JYS196559 KIO196535:KIO196559 KSK196535:KSK196559 LCG196535:LCG196559 LMC196535:LMC196559 LVY196535:LVY196559 MFU196535:MFU196559 MPQ196535:MPQ196559 MZM196535:MZM196559 NJI196535:NJI196559 NTE196535:NTE196559 ODA196535:ODA196559 OMW196535:OMW196559 OWS196535:OWS196559 PGO196535:PGO196559 PQK196535:PQK196559 QAG196535:QAG196559 QKC196535:QKC196559 QTY196535:QTY196559 RDU196535:RDU196559 RNQ196535:RNQ196559 RXM196535:RXM196559 SHI196535:SHI196559 SRE196535:SRE196559 TBA196535:TBA196559 TKW196535:TKW196559 TUS196535:TUS196559 UEO196535:UEO196559 UOK196535:UOK196559 UYG196535:UYG196559 VIC196535:VIC196559 VRY196535:VRY196559 WBU196535:WBU196559 WLQ196535:WLQ196559 WVM196535:WVM196559 E262125:E262149 JA262071:JA262095 SW262071:SW262095 ACS262071:ACS262095 AMO262071:AMO262095 AWK262071:AWK262095 BGG262071:BGG262095 BQC262071:BQC262095 BZY262071:BZY262095 CJU262071:CJU262095 CTQ262071:CTQ262095 DDM262071:DDM262095 DNI262071:DNI262095 DXE262071:DXE262095 EHA262071:EHA262095 EQW262071:EQW262095 FAS262071:FAS262095 FKO262071:FKO262095 FUK262071:FUK262095 GEG262071:GEG262095 GOC262071:GOC262095 GXY262071:GXY262095 HHU262071:HHU262095 HRQ262071:HRQ262095 IBM262071:IBM262095 ILI262071:ILI262095 IVE262071:IVE262095 JFA262071:JFA262095 JOW262071:JOW262095 JYS262071:JYS262095 KIO262071:KIO262095 KSK262071:KSK262095 LCG262071:LCG262095 LMC262071:LMC262095 LVY262071:LVY262095 MFU262071:MFU262095 MPQ262071:MPQ262095 MZM262071:MZM262095 NJI262071:NJI262095 NTE262071:NTE262095 ODA262071:ODA262095 OMW262071:OMW262095 OWS262071:OWS262095 PGO262071:PGO262095 PQK262071:PQK262095 QAG262071:QAG262095 QKC262071:QKC262095 QTY262071:QTY262095 RDU262071:RDU262095 RNQ262071:RNQ262095 RXM262071:RXM262095 SHI262071:SHI262095 SRE262071:SRE262095 TBA262071:TBA262095 TKW262071:TKW262095 TUS262071:TUS262095 UEO262071:UEO262095 UOK262071:UOK262095 UYG262071:UYG262095 VIC262071:VIC262095 VRY262071:VRY262095 WBU262071:WBU262095 WLQ262071:WLQ262095 WVM262071:WVM262095 E327661:E327685 JA327607:JA327631 SW327607:SW327631 ACS327607:ACS327631 AMO327607:AMO327631 AWK327607:AWK327631 BGG327607:BGG327631 BQC327607:BQC327631 BZY327607:BZY327631 CJU327607:CJU327631 CTQ327607:CTQ327631 DDM327607:DDM327631 DNI327607:DNI327631 DXE327607:DXE327631 EHA327607:EHA327631 EQW327607:EQW327631 FAS327607:FAS327631 FKO327607:FKO327631 FUK327607:FUK327631 GEG327607:GEG327631 GOC327607:GOC327631 GXY327607:GXY327631 HHU327607:HHU327631 HRQ327607:HRQ327631 IBM327607:IBM327631 ILI327607:ILI327631 IVE327607:IVE327631 JFA327607:JFA327631 JOW327607:JOW327631 JYS327607:JYS327631 KIO327607:KIO327631 KSK327607:KSK327631 LCG327607:LCG327631 LMC327607:LMC327631 LVY327607:LVY327631 MFU327607:MFU327631 MPQ327607:MPQ327631 MZM327607:MZM327631 NJI327607:NJI327631 NTE327607:NTE327631 ODA327607:ODA327631 OMW327607:OMW327631 OWS327607:OWS327631 PGO327607:PGO327631 PQK327607:PQK327631 QAG327607:QAG327631 QKC327607:QKC327631 QTY327607:QTY327631 RDU327607:RDU327631 RNQ327607:RNQ327631 RXM327607:RXM327631 SHI327607:SHI327631 SRE327607:SRE327631 TBA327607:TBA327631 TKW327607:TKW327631 TUS327607:TUS327631 UEO327607:UEO327631 UOK327607:UOK327631 UYG327607:UYG327631 VIC327607:VIC327631 VRY327607:VRY327631 WBU327607:WBU327631 WLQ327607:WLQ327631 WVM327607:WVM327631 E393197:E393221 JA393143:JA393167 SW393143:SW393167 ACS393143:ACS393167 AMO393143:AMO393167 AWK393143:AWK393167 BGG393143:BGG393167 BQC393143:BQC393167 BZY393143:BZY393167 CJU393143:CJU393167 CTQ393143:CTQ393167 DDM393143:DDM393167 DNI393143:DNI393167 DXE393143:DXE393167 EHA393143:EHA393167 EQW393143:EQW393167 FAS393143:FAS393167 FKO393143:FKO393167 FUK393143:FUK393167 GEG393143:GEG393167 GOC393143:GOC393167 GXY393143:GXY393167 HHU393143:HHU393167 HRQ393143:HRQ393167 IBM393143:IBM393167 ILI393143:ILI393167 IVE393143:IVE393167 JFA393143:JFA393167 JOW393143:JOW393167 JYS393143:JYS393167 KIO393143:KIO393167 KSK393143:KSK393167 LCG393143:LCG393167 LMC393143:LMC393167 LVY393143:LVY393167 MFU393143:MFU393167 MPQ393143:MPQ393167 MZM393143:MZM393167 NJI393143:NJI393167 NTE393143:NTE393167 ODA393143:ODA393167 OMW393143:OMW393167 OWS393143:OWS393167 PGO393143:PGO393167 PQK393143:PQK393167 QAG393143:QAG393167 QKC393143:QKC393167 QTY393143:QTY393167 RDU393143:RDU393167 RNQ393143:RNQ393167 RXM393143:RXM393167 SHI393143:SHI393167 SRE393143:SRE393167 TBA393143:TBA393167 TKW393143:TKW393167 TUS393143:TUS393167 UEO393143:UEO393167 UOK393143:UOK393167 UYG393143:UYG393167 VIC393143:VIC393167 VRY393143:VRY393167 WBU393143:WBU393167 WLQ393143:WLQ393167 WVM393143:WVM393167 E458733:E458757 JA458679:JA458703 SW458679:SW458703 ACS458679:ACS458703 AMO458679:AMO458703 AWK458679:AWK458703 BGG458679:BGG458703 BQC458679:BQC458703 BZY458679:BZY458703 CJU458679:CJU458703 CTQ458679:CTQ458703 DDM458679:DDM458703 DNI458679:DNI458703 DXE458679:DXE458703 EHA458679:EHA458703 EQW458679:EQW458703 FAS458679:FAS458703 FKO458679:FKO458703 FUK458679:FUK458703 GEG458679:GEG458703 GOC458679:GOC458703 GXY458679:GXY458703 HHU458679:HHU458703 HRQ458679:HRQ458703 IBM458679:IBM458703 ILI458679:ILI458703 IVE458679:IVE458703 JFA458679:JFA458703 JOW458679:JOW458703 JYS458679:JYS458703 KIO458679:KIO458703 KSK458679:KSK458703 LCG458679:LCG458703 LMC458679:LMC458703 LVY458679:LVY458703 MFU458679:MFU458703 MPQ458679:MPQ458703 MZM458679:MZM458703 NJI458679:NJI458703 NTE458679:NTE458703 ODA458679:ODA458703 OMW458679:OMW458703 OWS458679:OWS458703 PGO458679:PGO458703 PQK458679:PQK458703 QAG458679:QAG458703 QKC458679:QKC458703 QTY458679:QTY458703 RDU458679:RDU458703 RNQ458679:RNQ458703 RXM458679:RXM458703 SHI458679:SHI458703 SRE458679:SRE458703 TBA458679:TBA458703 TKW458679:TKW458703 TUS458679:TUS458703 UEO458679:UEO458703 UOK458679:UOK458703 UYG458679:UYG458703 VIC458679:VIC458703 VRY458679:VRY458703 WBU458679:WBU458703 WLQ458679:WLQ458703 WVM458679:WVM458703 E524269:E524293 JA524215:JA524239 SW524215:SW524239 ACS524215:ACS524239 AMO524215:AMO524239 AWK524215:AWK524239 BGG524215:BGG524239 BQC524215:BQC524239 BZY524215:BZY524239 CJU524215:CJU524239 CTQ524215:CTQ524239 DDM524215:DDM524239 DNI524215:DNI524239 DXE524215:DXE524239 EHA524215:EHA524239 EQW524215:EQW524239 FAS524215:FAS524239 FKO524215:FKO524239 FUK524215:FUK524239 GEG524215:GEG524239 GOC524215:GOC524239 GXY524215:GXY524239 HHU524215:HHU524239 HRQ524215:HRQ524239 IBM524215:IBM524239 ILI524215:ILI524239 IVE524215:IVE524239 JFA524215:JFA524239 JOW524215:JOW524239 JYS524215:JYS524239 KIO524215:KIO524239 KSK524215:KSK524239 LCG524215:LCG524239 LMC524215:LMC524239 LVY524215:LVY524239 MFU524215:MFU524239 MPQ524215:MPQ524239 MZM524215:MZM524239 NJI524215:NJI524239 NTE524215:NTE524239 ODA524215:ODA524239 OMW524215:OMW524239 OWS524215:OWS524239 PGO524215:PGO524239 PQK524215:PQK524239 QAG524215:QAG524239 QKC524215:QKC524239 QTY524215:QTY524239 RDU524215:RDU524239 RNQ524215:RNQ524239 RXM524215:RXM524239 SHI524215:SHI524239 SRE524215:SRE524239 TBA524215:TBA524239 TKW524215:TKW524239 TUS524215:TUS524239 UEO524215:UEO524239 UOK524215:UOK524239 UYG524215:UYG524239 VIC524215:VIC524239 VRY524215:VRY524239 WBU524215:WBU524239 WLQ524215:WLQ524239 WVM524215:WVM524239 E589805:E589829 JA589751:JA589775 SW589751:SW589775 ACS589751:ACS589775 AMO589751:AMO589775 AWK589751:AWK589775 BGG589751:BGG589775 BQC589751:BQC589775 BZY589751:BZY589775 CJU589751:CJU589775 CTQ589751:CTQ589775 DDM589751:DDM589775 DNI589751:DNI589775 DXE589751:DXE589775 EHA589751:EHA589775 EQW589751:EQW589775 FAS589751:FAS589775 FKO589751:FKO589775 FUK589751:FUK589775 GEG589751:GEG589775 GOC589751:GOC589775 GXY589751:GXY589775 HHU589751:HHU589775 HRQ589751:HRQ589775 IBM589751:IBM589775 ILI589751:ILI589775 IVE589751:IVE589775 JFA589751:JFA589775 JOW589751:JOW589775 JYS589751:JYS589775 KIO589751:KIO589775 KSK589751:KSK589775 LCG589751:LCG589775 LMC589751:LMC589775 LVY589751:LVY589775 MFU589751:MFU589775 MPQ589751:MPQ589775 MZM589751:MZM589775 NJI589751:NJI589775 NTE589751:NTE589775 ODA589751:ODA589775 OMW589751:OMW589775 OWS589751:OWS589775 PGO589751:PGO589775 PQK589751:PQK589775 QAG589751:QAG589775 QKC589751:QKC589775 QTY589751:QTY589775 RDU589751:RDU589775 RNQ589751:RNQ589775 RXM589751:RXM589775 SHI589751:SHI589775 SRE589751:SRE589775 TBA589751:TBA589775 TKW589751:TKW589775 TUS589751:TUS589775 UEO589751:UEO589775 UOK589751:UOK589775 UYG589751:UYG589775 VIC589751:VIC589775 VRY589751:VRY589775 WBU589751:WBU589775 WLQ589751:WLQ589775 WVM589751:WVM589775 E655341:E655365 JA655287:JA655311 SW655287:SW655311 ACS655287:ACS655311 AMO655287:AMO655311 AWK655287:AWK655311 BGG655287:BGG655311 BQC655287:BQC655311 BZY655287:BZY655311 CJU655287:CJU655311 CTQ655287:CTQ655311 DDM655287:DDM655311 DNI655287:DNI655311 DXE655287:DXE655311 EHA655287:EHA655311 EQW655287:EQW655311 FAS655287:FAS655311 FKO655287:FKO655311 FUK655287:FUK655311 GEG655287:GEG655311 GOC655287:GOC655311 GXY655287:GXY655311 HHU655287:HHU655311 HRQ655287:HRQ655311 IBM655287:IBM655311 ILI655287:ILI655311 IVE655287:IVE655311 JFA655287:JFA655311 JOW655287:JOW655311 JYS655287:JYS655311 KIO655287:KIO655311 KSK655287:KSK655311 LCG655287:LCG655311 LMC655287:LMC655311 LVY655287:LVY655311 MFU655287:MFU655311 MPQ655287:MPQ655311 MZM655287:MZM655311 NJI655287:NJI655311 NTE655287:NTE655311 ODA655287:ODA655311 OMW655287:OMW655311 OWS655287:OWS655311 PGO655287:PGO655311 PQK655287:PQK655311 QAG655287:QAG655311 QKC655287:QKC655311 QTY655287:QTY655311 RDU655287:RDU655311 RNQ655287:RNQ655311 RXM655287:RXM655311 SHI655287:SHI655311 SRE655287:SRE655311 TBA655287:TBA655311 TKW655287:TKW655311 TUS655287:TUS655311 UEO655287:UEO655311 UOK655287:UOK655311 UYG655287:UYG655311 VIC655287:VIC655311 VRY655287:VRY655311 WBU655287:WBU655311 WLQ655287:WLQ655311 WVM655287:WVM655311 E720877:E720901 JA720823:JA720847 SW720823:SW720847 ACS720823:ACS720847 AMO720823:AMO720847 AWK720823:AWK720847 BGG720823:BGG720847 BQC720823:BQC720847 BZY720823:BZY720847 CJU720823:CJU720847 CTQ720823:CTQ720847 DDM720823:DDM720847 DNI720823:DNI720847 DXE720823:DXE720847 EHA720823:EHA720847 EQW720823:EQW720847 FAS720823:FAS720847 FKO720823:FKO720847 FUK720823:FUK720847 GEG720823:GEG720847 GOC720823:GOC720847 GXY720823:GXY720847 HHU720823:HHU720847 HRQ720823:HRQ720847 IBM720823:IBM720847 ILI720823:ILI720847 IVE720823:IVE720847 JFA720823:JFA720847 JOW720823:JOW720847 JYS720823:JYS720847 KIO720823:KIO720847 KSK720823:KSK720847 LCG720823:LCG720847 LMC720823:LMC720847 LVY720823:LVY720847 MFU720823:MFU720847 MPQ720823:MPQ720847 MZM720823:MZM720847 NJI720823:NJI720847 NTE720823:NTE720847 ODA720823:ODA720847 OMW720823:OMW720847 OWS720823:OWS720847 PGO720823:PGO720847 PQK720823:PQK720847 QAG720823:QAG720847 QKC720823:QKC720847 QTY720823:QTY720847 RDU720823:RDU720847 RNQ720823:RNQ720847 RXM720823:RXM720847 SHI720823:SHI720847 SRE720823:SRE720847 TBA720823:TBA720847 TKW720823:TKW720847 TUS720823:TUS720847 UEO720823:UEO720847 UOK720823:UOK720847 UYG720823:UYG720847 VIC720823:VIC720847 VRY720823:VRY720847 WBU720823:WBU720847 WLQ720823:WLQ720847 WVM720823:WVM720847 E786413:E786437 JA786359:JA786383 SW786359:SW786383 ACS786359:ACS786383 AMO786359:AMO786383 AWK786359:AWK786383 BGG786359:BGG786383 BQC786359:BQC786383 BZY786359:BZY786383 CJU786359:CJU786383 CTQ786359:CTQ786383 DDM786359:DDM786383 DNI786359:DNI786383 DXE786359:DXE786383 EHA786359:EHA786383 EQW786359:EQW786383 FAS786359:FAS786383 FKO786359:FKO786383 FUK786359:FUK786383 GEG786359:GEG786383 GOC786359:GOC786383 GXY786359:GXY786383 HHU786359:HHU786383 HRQ786359:HRQ786383 IBM786359:IBM786383 ILI786359:ILI786383 IVE786359:IVE786383 JFA786359:JFA786383 JOW786359:JOW786383 JYS786359:JYS786383 KIO786359:KIO786383 KSK786359:KSK786383 LCG786359:LCG786383 LMC786359:LMC786383 LVY786359:LVY786383 MFU786359:MFU786383 MPQ786359:MPQ786383 MZM786359:MZM786383 NJI786359:NJI786383 NTE786359:NTE786383 ODA786359:ODA786383 OMW786359:OMW786383 OWS786359:OWS786383 PGO786359:PGO786383 PQK786359:PQK786383 QAG786359:QAG786383 QKC786359:QKC786383 QTY786359:QTY786383 RDU786359:RDU786383 RNQ786359:RNQ786383 RXM786359:RXM786383 SHI786359:SHI786383 SRE786359:SRE786383 TBA786359:TBA786383 TKW786359:TKW786383 TUS786359:TUS786383 UEO786359:UEO786383 UOK786359:UOK786383 UYG786359:UYG786383 VIC786359:VIC786383 VRY786359:VRY786383 WBU786359:WBU786383 WLQ786359:WLQ786383 WVM786359:WVM786383 E851949:E851973 JA851895:JA851919 SW851895:SW851919 ACS851895:ACS851919 AMO851895:AMO851919 AWK851895:AWK851919 BGG851895:BGG851919 BQC851895:BQC851919 BZY851895:BZY851919 CJU851895:CJU851919 CTQ851895:CTQ851919 DDM851895:DDM851919 DNI851895:DNI851919 DXE851895:DXE851919 EHA851895:EHA851919 EQW851895:EQW851919 FAS851895:FAS851919 FKO851895:FKO851919 FUK851895:FUK851919 GEG851895:GEG851919 GOC851895:GOC851919 GXY851895:GXY851919 HHU851895:HHU851919 HRQ851895:HRQ851919 IBM851895:IBM851919 ILI851895:ILI851919 IVE851895:IVE851919 JFA851895:JFA851919 JOW851895:JOW851919 JYS851895:JYS851919 KIO851895:KIO851919 KSK851895:KSK851919 LCG851895:LCG851919 LMC851895:LMC851919 LVY851895:LVY851919 MFU851895:MFU851919 MPQ851895:MPQ851919 MZM851895:MZM851919 NJI851895:NJI851919 NTE851895:NTE851919 ODA851895:ODA851919 OMW851895:OMW851919 OWS851895:OWS851919 PGO851895:PGO851919 PQK851895:PQK851919 QAG851895:QAG851919 QKC851895:QKC851919 QTY851895:QTY851919 RDU851895:RDU851919 RNQ851895:RNQ851919 RXM851895:RXM851919 SHI851895:SHI851919 SRE851895:SRE851919 TBA851895:TBA851919 TKW851895:TKW851919 TUS851895:TUS851919 UEO851895:UEO851919 UOK851895:UOK851919 UYG851895:UYG851919 VIC851895:VIC851919 VRY851895:VRY851919 WBU851895:WBU851919 WLQ851895:WLQ851919 WVM851895:WVM851919 E917485:E917509 JA917431:JA917455 SW917431:SW917455 ACS917431:ACS917455 AMO917431:AMO917455 AWK917431:AWK917455 BGG917431:BGG917455 BQC917431:BQC917455 BZY917431:BZY917455 CJU917431:CJU917455 CTQ917431:CTQ917455 DDM917431:DDM917455 DNI917431:DNI917455 DXE917431:DXE917455 EHA917431:EHA917455 EQW917431:EQW917455 FAS917431:FAS917455 FKO917431:FKO917455 FUK917431:FUK917455 GEG917431:GEG917455 GOC917431:GOC917455 GXY917431:GXY917455 HHU917431:HHU917455 HRQ917431:HRQ917455 IBM917431:IBM917455 ILI917431:ILI917455 IVE917431:IVE917455 JFA917431:JFA917455 JOW917431:JOW917455 JYS917431:JYS917455 KIO917431:KIO917455 KSK917431:KSK917455 LCG917431:LCG917455 LMC917431:LMC917455 LVY917431:LVY917455 MFU917431:MFU917455 MPQ917431:MPQ917455 MZM917431:MZM917455 NJI917431:NJI917455 NTE917431:NTE917455 ODA917431:ODA917455 OMW917431:OMW917455 OWS917431:OWS917455 PGO917431:PGO917455 PQK917431:PQK917455 QAG917431:QAG917455 QKC917431:QKC917455 QTY917431:QTY917455 RDU917431:RDU917455 RNQ917431:RNQ917455 RXM917431:RXM917455 SHI917431:SHI917455 SRE917431:SRE917455 TBA917431:TBA917455 TKW917431:TKW917455 TUS917431:TUS917455 UEO917431:UEO917455 UOK917431:UOK917455 UYG917431:UYG917455 VIC917431:VIC917455 VRY917431:VRY917455 WBU917431:WBU917455 WLQ917431:WLQ917455 WVM917431:WVM917455 E983021:E983045 JA982967:JA982991 SW982967:SW982991 ACS982967:ACS982991 AMO982967:AMO982991 AWK982967:AWK982991 BGG982967:BGG982991 BQC982967:BQC982991 BZY982967:BZY982991 CJU982967:CJU982991 CTQ982967:CTQ982991 DDM982967:DDM982991 DNI982967:DNI982991 DXE982967:DXE982991 EHA982967:EHA982991 EQW982967:EQW982991 FAS982967:FAS982991 FKO982967:FKO982991 FUK982967:FUK982991 GEG982967:GEG982991 GOC982967:GOC982991 GXY982967:GXY982991 HHU982967:HHU982991 HRQ982967:HRQ982991 IBM982967:IBM982991 ILI982967:ILI982991 IVE982967:IVE982991 JFA982967:JFA982991 JOW982967:JOW982991 JYS982967:JYS982991 KIO982967:KIO982991 KSK982967:KSK982991 LCG982967:LCG982991 LMC982967:LMC982991 LVY982967:LVY982991 MFU982967:MFU982991 MPQ982967:MPQ982991 MZM982967:MZM982991 NJI982967:NJI982991 NTE982967:NTE982991 ODA982967:ODA982991 OMW982967:OMW982991 OWS982967:OWS982991 PGO982967:PGO982991 PQK982967:PQK982991 QAG982967:QAG982991 QKC982967:QKC982991 QTY982967:QTY982991 RDU982967:RDU982991 RNQ982967:RNQ982991 RXM982967:RXM982991 SHI982967:SHI982991 SRE982967:SRE982991 TBA982967:TBA982991 TKW982967:TKW982991 TUS982967:TUS982991 UEO982967:UEO982991 UOK982967:UOK982991 UYG982967:UYG982991 VIC982967:VIC982991 VRY982967:VRY982991 WBU982967:WBU982991 WLQ982967:WLQ982991 WVM982967:WVM982991 WVM5:WVM24 WLQ5:WLQ24 WBU5:WBU24 VRY5:VRY24 VIC5:VIC24 UYG5:UYG24 UOK5:UOK24 UEO5:UEO24 TUS5:TUS24 TKW5:TKW24 TBA5:TBA24 SRE5:SRE24 SHI5:SHI24 RXM5:RXM24 RNQ5:RNQ24 RDU5:RDU24 QTY5:QTY24 QKC5:QKC24 QAG5:QAG24 PQK5:PQK24 PGO5:PGO24 OWS5:OWS24 OMW5:OMW24 ODA5:ODA24 NTE5:NTE24 NJI5:NJI24 MZM5:MZM24 MPQ5:MPQ24 MFU5:MFU24 LVY5:LVY24 LMC5:LMC24 LCG5:LCG24 KSK5:KSK24 KIO5:KIO24 JYS5:JYS24 JOW5:JOW24 JFA5:JFA24 IVE5:IVE24 ILI5:ILI24 IBM5:IBM24 HRQ5:HRQ24 HHU5:HHU24 GXY5:GXY24 GOC5:GOC24 GEG5:GEG24 FUK5:FUK24 FKO5:FKO24 FAS5:FAS24 EQW5:EQW24 EHA5:EHA24 DXE5:DXE24 DNI5:DNI24 DDM5:DDM24 CTQ5:CTQ24 CJU5:CJU24 BZY5:BZY24 BQC5:BQC24 BGG5:BGG24 AWK5:AWK24 AMO5:AMO24 ACS5:ACS24 SW5:SW24 JA5:JA24 E13:E24" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E65517:E65541 JA65463:JA65487 SW65463:SW65487 ACS65463:ACS65487 AMO65463:AMO65487 AWK65463:AWK65487 BGG65463:BGG65487 BQC65463:BQC65487 BZY65463:BZY65487 CJU65463:CJU65487 CTQ65463:CTQ65487 DDM65463:DDM65487 DNI65463:DNI65487 DXE65463:DXE65487 EHA65463:EHA65487 EQW65463:EQW65487 FAS65463:FAS65487 FKO65463:FKO65487 FUK65463:FUK65487 GEG65463:GEG65487 GOC65463:GOC65487 GXY65463:GXY65487 HHU65463:HHU65487 HRQ65463:HRQ65487 IBM65463:IBM65487 ILI65463:ILI65487 IVE65463:IVE65487 JFA65463:JFA65487 JOW65463:JOW65487 JYS65463:JYS65487 KIO65463:KIO65487 KSK65463:KSK65487 LCG65463:LCG65487 LMC65463:LMC65487 LVY65463:LVY65487 MFU65463:MFU65487 MPQ65463:MPQ65487 MZM65463:MZM65487 NJI65463:NJI65487 NTE65463:NTE65487 ODA65463:ODA65487 OMW65463:OMW65487 OWS65463:OWS65487 PGO65463:PGO65487 PQK65463:PQK65487 QAG65463:QAG65487 QKC65463:QKC65487 QTY65463:QTY65487 RDU65463:RDU65487 RNQ65463:RNQ65487 RXM65463:RXM65487 SHI65463:SHI65487 SRE65463:SRE65487 TBA65463:TBA65487 TKW65463:TKW65487 TUS65463:TUS65487 UEO65463:UEO65487 UOK65463:UOK65487 UYG65463:UYG65487 VIC65463:VIC65487 VRY65463:VRY65487 WBU65463:WBU65487 WLQ65463:WLQ65487 WVM65463:WVM65487 E131053:E131077 JA130999:JA131023 SW130999:SW131023 ACS130999:ACS131023 AMO130999:AMO131023 AWK130999:AWK131023 BGG130999:BGG131023 BQC130999:BQC131023 BZY130999:BZY131023 CJU130999:CJU131023 CTQ130999:CTQ131023 DDM130999:DDM131023 DNI130999:DNI131023 DXE130999:DXE131023 EHA130999:EHA131023 EQW130999:EQW131023 FAS130999:FAS131023 FKO130999:FKO131023 FUK130999:FUK131023 GEG130999:GEG131023 GOC130999:GOC131023 GXY130999:GXY131023 HHU130999:HHU131023 HRQ130999:HRQ131023 IBM130999:IBM131023 ILI130999:ILI131023 IVE130999:IVE131023 JFA130999:JFA131023 JOW130999:JOW131023 JYS130999:JYS131023 KIO130999:KIO131023 KSK130999:KSK131023 LCG130999:LCG131023 LMC130999:LMC131023 LVY130999:LVY131023 MFU130999:MFU131023 MPQ130999:MPQ131023 MZM130999:MZM131023 NJI130999:NJI131023 NTE130999:NTE131023 ODA130999:ODA131023 OMW130999:OMW131023 OWS130999:OWS131023 PGO130999:PGO131023 PQK130999:PQK131023 QAG130999:QAG131023 QKC130999:QKC131023 QTY130999:QTY131023 RDU130999:RDU131023 RNQ130999:RNQ131023 RXM130999:RXM131023 SHI130999:SHI131023 SRE130999:SRE131023 TBA130999:TBA131023 TKW130999:TKW131023 TUS130999:TUS131023 UEO130999:UEO131023 UOK130999:UOK131023 UYG130999:UYG131023 VIC130999:VIC131023 VRY130999:VRY131023 WBU130999:WBU131023 WLQ130999:WLQ131023 WVM130999:WVM131023 E196589:E196613 JA196535:JA196559 SW196535:SW196559 ACS196535:ACS196559 AMO196535:AMO196559 AWK196535:AWK196559 BGG196535:BGG196559 BQC196535:BQC196559 BZY196535:BZY196559 CJU196535:CJU196559 CTQ196535:CTQ196559 DDM196535:DDM196559 DNI196535:DNI196559 DXE196535:DXE196559 EHA196535:EHA196559 EQW196535:EQW196559 FAS196535:FAS196559 FKO196535:FKO196559 FUK196535:FUK196559 GEG196535:GEG196559 GOC196535:GOC196559 GXY196535:GXY196559 HHU196535:HHU196559 HRQ196535:HRQ196559 IBM196535:IBM196559 ILI196535:ILI196559 IVE196535:IVE196559 JFA196535:JFA196559 JOW196535:JOW196559 JYS196535:JYS196559 KIO196535:KIO196559 KSK196535:KSK196559 LCG196535:LCG196559 LMC196535:LMC196559 LVY196535:LVY196559 MFU196535:MFU196559 MPQ196535:MPQ196559 MZM196535:MZM196559 NJI196535:NJI196559 NTE196535:NTE196559 ODA196535:ODA196559 OMW196535:OMW196559 OWS196535:OWS196559 PGO196535:PGO196559 PQK196535:PQK196559 QAG196535:QAG196559 QKC196535:QKC196559 QTY196535:QTY196559 RDU196535:RDU196559 RNQ196535:RNQ196559 RXM196535:RXM196559 SHI196535:SHI196559 SRE196535:SRE196559 TBA196535:TBA196559 TKW196535:TKW196559 TUS196535:TUS196559 UEO196535:UEO196559 UOK196535:UOK196559 UYG196535:UYG196559 VIC196535:VIC196559 VRY196535:VRY196559 WBU196535:WBU196559 WLQ196535:WLQ196559 WVM196535:WVM196559 E262125:E262149 JA262071:JA262095 SW262071:SW262095 ACS262071:ACS262095 AMO262071:AMO262095 AWK262071:AWK262095 BGG262071:BGG262095 BQC262071:BQC262095 BZY262071:BZY262095 CJU262071:CJU262095 CTQ262071:CTQ262095 DDM262071:DDM262095 DNI262071:DNI262095 DXE262071:DXE262095 EHA262071:EHA262095 EQW262071:EQW262095 FAS262071:FAS262095 FKO262071:FKO262095 FUK262071:FUK262095 GEG262071:GEG262095 GOC262071:GOC262095 GXY262071:GXY262095 HHU262071:HHU262095 HRQ262071:HRQ262095 IBM262071:IBM262095 ILI262071:ILI262095 IVE262071:IVE262095 JFA262071:JFA262095 JOW262071:JOW262095 JYS262071:JYS262095 KIO262071:KIO262095 KSK262071:KSK262095 LCG262071:LCG262095 LMC262071:LMC262095 LVY262071:LVY262095 MFU262071:MFU262095 MPQ262071:MPQ262095 MZM262071:MZM262095 NJI262071:NJI262095 NTE262071:NTE262095 ODA262071:ODA262095 OMW262071:OMW262095 OWS262071:OWS262095 PGO262071:PGO262095 PQK262071:PQK262095 QAG262071:QAG262095 QKC262071:QKC262095 QTY262071:QTY262095 RDU262071:RDU262095 RNQ262071:RNQ262095 RXM262071:RXM262095 SHI262071:SHI262095 SRE262071:SRE262095 TBA262071:TBA262095 TKW262071:TKW262095 TUS262071:TUS262095 UEO262071:UEO262095 UOK262071:UOK262095 UYG262071:UYG262095 VIC262071:VIC262095 VRY262071:VRY262095 WBU262071:WBU262095 WLQ262071:WLQ262095 WVM262071:WVM262095 E327661:E327685 JA327607:JA327631 SW327607:SW327631 ACS327607:ACS327631 AMO327607:AMO327631 AWK327607:AWK327631 BGG327607:BGG327631 BQC327607:BQC327631 BZY327607:BZY327631 CJU327607:CJU327631 CTQ327607:CTQ327631 DDM327607:DDM327631 DNI327607:DNI327631 DXE327607:DXE327631 EHA327607:EHA327631 EQW327607:EQW327631 FAS327607:FAS327631 FKO327607:FKO327631 FUK327607:FUK327631 GEG327607:GEG327631 GOC327607:GOC327631 GXY327607:GXY327631 HHU327607:HHU327631 HRQ327607:HRQ327631 IBM327607:IBM327631 ILI327607:ILI327631 IVE327607:IVE327631 JFA327607:JFA327631 JOW327607:JOW327631 JYS327607:JYS327631 KIO327607:KIO327631 KSK327607:KSK327631 LCG327607:LCG327631 LMC327607:LMC327631 LVY327607:LVY327631 MFU327607:MFU327631 MPQ327607:MPQ327631 MZM327607:MZM327631 NJI327607:NJI327631 NTE327607:NTE327631 ODA327607:ODA327631 OMW327607:OMW327631 OWS327607:OWS327631 PGO327607:PGO327631 PQK327607:PQK327631 QAG327607:QAG327631 QKC327607:QKC327631 QTY327607:QTY327631 RDU327607:RDU327631 RNQ327607:RNQ327631 RXM327607:RXM327631 SHI327607:SHI327631 SRE327607:SRE327631 TBA327607:TBA327631 TKW327607:TKW327631 TUS327607:TUS327631 UEO327607:UEO327631 UOK327607:UOK327631 UYG327607:UYG327631 VIC327607:VIC327631 VRY327607:VRY327631 WBU327607:WBU327631 WLQ327607:WLQ327631 WVM327607:WVM327631 E393197:E393221 JA393143:JA393167 SW393143:SW393167 ACS393143:ACS393167 AMO393143:AMO393167 AWK393143:AWK393167 BGG393143:BGG393167 BQC393143:BQC393167 BZY393143:BZY393167 CJU393143:CJU393167 CTQ393143:CTQ393167 DDM393143:DDM393167 DNI393143:DNI393167 DXE393143:DXE393167 EHA393143:EHA393167 EQW393143:EQW393167 FAS393143:FAS393167 FKO393143:FKO393167 FUK393143:FUK393167 GEG393143:GEG393167 GOC393143:GOC393167 GXY393143:GXY393167 HHU393143:HHU393167 HRQ393143:HRQ393167 IBM393143:IBM393167 ILI393143:ILI393167 IVE393143:IVE393167 JFA393143:JFA393167 JOW393143:JOW393167 JYS393143:JYS393167 KIO393143:KIO393167 KSK393143:KSK393167 LCG393143:LCG393167 LMC393143:LMC393167 LVY393143:LVY393167 MFU393143:MFU393167 MPQ393143:MPQ393167 MZM393143:MZM393167 NJI393143:NJI393167 NTE393143:NTE393167 ODA393143:ODA393167 OMW393143:OMW393167 OWS393143:OWS393167 PGO393143:PGO393167 PQK393143:PQK393167 QAG393143:QAG393167 QKC393143:QKC393167 QTY393143:QTY393167 RDU393143:RDU393167 RNQ393143:RNQ393167 RXM393143:RXM393167 SHI393143:SHI393167 SRE393143:SRE393167 TBA393143:TBA393167 TKW393143:TKW393167 TUS393143:TUS393167 UEO393143:UEO393167 UOK393143:UOK393167 UYG393143:UYG393167 VIC393143:VIC393167 VRY393143:VRY393167 WBU393143:WBU393167 WLQ393143:WLQ393167 WVM393143:WVM393167 E458733:E458757 JA458679:JA458703 SW458679:SW458703 ACS458679:ACS458703 AMO458679:AMO458703 AWK458679:AWK458703 BGG458679:BGG458703 BQC458679:BQC458703 BZY458679:BZY458703 CJU458679:CJU458703 CTQ458679:CTQ458703 DDM458679:DDM458703 DNI458679:DNI458703 DXE458679:DXE458703 EHA458679:EHA458703 EQW458679:EQW458703 FAS458679:FAS458703 FKO458679:FKO458703 FUK458679:FUK458703 GEG458679:GEG458703 GOC458679:GOC458703 GXY458679:GXY458703 HHU458679:HHU458703 HRQ458679:HRQ458703 IBM458679:IBM458703 ILI458679:ILI458703 IVE458679:IVE458703 JFA458679:JFA458703 JOW458679:JOW458703 JYS458679:JYS458703 KIO458679:KIO458703 KSK458679:KSK458703 LCG458679:LCG458703 LMC458679:LMC458703 LVY458679:LVY458703 MFU458679:MFU458703 MPQ458679:MPQ458703 MZM458679:MZM458703 NJI458679:NJI458703 NTE458679:NTE458703 ODA458679:ODA458703 OMW458679:OMW458703 OWS458679:OWS458703 PGO458679:PGO458703 PQK458679:PQK458703 QAG458679:QAG458703 QKC458679:QKC458703 QTY458679:QTY458703 RDU458679:RDU458703 RNQ458679:RNQ458703 RXM458679:RXM458703 SHI458679:SHI458703 SRE458679:SRE458703 TBA458679:TBA458703 TKW458679:TKW458703 TUS458679:TUS458703 UEO458679:UEO458703 UOK458679:UOK458703 UYG458679:UYG458703 VIC458679:VIC458703 VRY458679:VRY458703 WBU458679:WBU458703 WLQ458679:WLQ458703 WVM458679:WVM458703 E524269:E524293 JA524215:JA524239 SW524215:SW524239 ACS524215:ACS524239 AMO524215:AMO524239 AWK524215:AWK524239 BGG524215:BGG524239 BQC524215:BQC524239 BZY524215:BZY524239 CJU524215:CJU524239 CTQ524215:CTQ524239 DDM524215:DDM524239 DNI524215:DNI524239 DXE524215:DXE524239 EHA524215:EHA524239 EQW524215:EQW524239 FAS524215:FAS524239 FKO524215:FKO524239 FUK524215:FUK524239 GEG524215:GEG524239 GOC524215:GOC524239 GXY524215:GXY524239 HHU524215:HHU524239 HRQ524215:HRQ524239 IBM524215:IBM524239 ILI524215:ILI524239 IVE524215:IVE524239 JFA524215:JFA524239 JOW524215:JOW524239 JYS524215:JYS524239 KIO524215:KIO524239 KSK524215:KSK524239 LCG524215:LCG524239 LMC524215:LMC524239 LVY524215:LVY524239 MFU524215:MFU524239 MPQ524215:MPQ524239 MZM524215:MZM524239 NJI524215:NJI524239 NTE524215:NTE524239 ODA524215:ODA524239 OMW524215:OMW524239 OWS524215:OWS524239 PGO524215:PGO524239 PQK524215:PQK524239 QAG524215:QAG524239 QKC524215:QKC524239 QTY524215:QTY524239 RDU524215:RDU524239 RNQ524215:RNQ524239 RXM524215:RXM524239 SHI524215:SHI524239 SRE524215:SRE524239 TBA524215:TBA524239 TKW524215:TKW524239 TUS524215:TUS524239 UEO524215:UEO524239 UOK524215:UOK524239 UYG524215:UYG524239 VIC524215:VIC524239 VRY524215:VRY524239 WBU524215:WBU524239 WLQ524215:WLQ524239 WVM524215:WVM524239 E589805:E589829 JA589751:JA589775 SW589751:SW589775 ACS589751:ACS589775 AMO589751:AMO589775 AWK589751:AWK589775 BGG589751:BGG589775 BQC589751:BQC589775 BZY589751:BZY589775 CJU589751:CJU589775 CTQ589751:CTQ589775 DDM589751:DDM589775 DNI589751:DNI589775 DXE589751:DXE589775 EHA589751:EHA589775 EQW589751:EQW589775 FAS589751:FAS589775 FKO589751:FKO589775 FUK589751:FUK589775 GEG589751:GEG589775 GOC589751:GOC589775 GXY589751:GXY589775 HHU589751:HHU589775 HRQ589751:HRQ589775 IBM589751:IBM589775 ILI589751:ILI589775 IVE589751:IVE589775 JFA589751:JFA589775 JOW589751:JOW589775 JYS589751:JYS589775 KIO589751:KIO589775 KSK589751:KSK589775 LCG589751:LCG589775 LMC589751:LMC589775 LVY589751:LVY589775 MFU589751:MFU589775 MPQ589751:MPQ589775 MZM589751:MZM589775 NJI589751:NJI589775 NTE589751:NTE589775 ODA589751:ODA589775 OMW589751:OMW589775 OWS589751:OWS589775 PGO589751:PGO589775 PQK589751:PQK589775 QAG589751:QAG589775 QKC589751:QKC589775 QTY589751:QTY589775 RDU589751:RDU589775 RNQ589751:RNQ589775 RXM589751:RXM589775 SHI589751:SHI589775 SRE589751:SRE589775 TBA589751:TBA589775 TKW589751:TKW589775 TUS589751:TUS589775 UEO589751:UEO589775 UOK589751:UOK589775 UYG589751:UYG589775 VIC589751:VIC589775 VRY589751:VRY589775 WBU589751:WBU589775 WLQ589751:WLQ589775 WVM589751:WVM589775 E655341:E655365 JA655287:JA655311 SW655287:SW655311 ACS655287:ACS655311 AMO655287:AMO655311 AWK655287:AWK655311 BGG655287:BGG655311 BQC655287:BQC655311 BZY655287:BZY655311 CJU655287:CJU655311 CTQ655287:CTQ655311 DDM655287:DDM655311 DNI655287:DNI655311 DXE655287:DXE655311 EHA655287:EHA655311 EQW655287:EQW655311 FAS655287:FAS655311 FKO655287:FKO655311 FUK655287:FUK655311 GEG655287:GEG655311 GOC655287:GOC655311 GXY655287:GXY655311 HHU655287:HHU655311 HRQ655287:HRQ655311 IBM655287:IBM655311 ILI655287:ILI655311 IVE655287:IVE655311 JFA655287:JFA655311 JOW655287:JOW655311 JYS655287:JYS655311 KIO655287:KIO655311 KSK655287:KSK655311 LCG655287:LCG655311 LMC655287:LMC655311 LVY655287:LVY655311 MFU655287:MFU655311 MPQ655287:MPQ655311 MZM655287:MZM655311 NJI655287:NJI655311 NTE655287:NTE655311 ODA655287:ODA655311 OMW655287:OMW655311 OWS655287:OWS655311 PGO655287:PGO655311 PQK655287:PQK655311 QAG655287:QAG655311 QKC655287:QKC655311 QTY655287:QTY655311 RDU655287:RDU655311 RNQ655287:RNQ655311 RXM655287:RXM655311 SHI655287:SHI655311 SRE655287:SRE655311 TBA655287:TBA655311 TKW655287:TKW655311 TUS655287:TUS655311 UEO655287:UEO655311 UOK655287:UOK655311 UYG655287:UYG655311 VIC655287:VIC655311 VRY655287:VRY655311 WBU655287:WBU655311 WLQ655287:WLQ655311 WVM655287:WVM655311 E720877:E720901 JA720823:JA720847 SW720823:SW720847 ACS720823:ACS720847 AMO720823:AMO720847 AWK720823:AWK720847 BGG720823:BGG720847 BQC720823:BQC720847 BZY720823:BZY720847 CJU720823:CJU720847 CTQ720823:CTQ720847 DDM720823:DDM720847 DNI720823:DNI720847 DXE720823:DXE720847 EHA720823:EHA720847 EQW720823:EQW720847 FAS720823:FAS720847 FKO720823:FKO720847 FUK720823:FUK720847 GEG720823:GEG720847 GOC720823:GOC720847 GXY720823:GXY720847 HHU720823:HHU720847 HRQ720823:HRQ720847 IBM720823:IBM720847 ILI720823:ILI720847 IVE720823:IVE720847 JFA720823:JFA720847 JOW720823:JOW720847 JYS720823:JYS720847 KIO720823:KIO720847 KSK720823:KSK720847 LCG720823:LCG720847 LMC720823:LMC720847 LVY720823:LVY720847 MFU720823:MFU720847 MPQ720823:MPQ720847 MZM720823:MZM720847 NJI720823:NJI720847 NTE720823:NTE720847 ODA720823:ODA720847 OMW720823:OMW720847 OWS720823:OWS720847 PGO720823:PGO720847 PQK720823:PQK720847 QAG720823:QAG720847 QKC720823:QKC720847 QTY720823:QTY720847 RDU720823:RDU720847 RNQ720823:RNQ720847 RXM720823:RXM720847 SHI720823:SHI720847 SRE720823:SRE720847 TBA720823:TBA720847 TKW720823:TKW720847 TUS720823:TUS720847 UEO720823:UEO720847 UOK720823:UOK720847 UYG720823:UYG720847 VIC720823:VIC720847 VRY720823:VRY720847 WBU720823:WBU720847 WLQ720823:WLQ720847 WVM720823:WVM720847 E786413:E786437 JA786359:JA786383 SW786359:SW786383 ACS786359:ACS786383 AMO786359:AMO786383 AWK786359:AWK786383 BGG786359:BGG786383 BQC786359:BQC786383 BZY786359:BZY786383 CJU786359:CJU786383 CTQ786359:CTQ786383 DDM786359:DDM786383 DNI786359:DNI786383 DXE786359:DXE786383 EHA786359:EHA786383 EQW786359:EQW786383 FAS786359:FAS786383 FKO786359:FKO786383 FUK786359:FUK786383 GEG786359:GEG786383 GOC786359:GOC786383 GXY786359:GXY786383 HHU786359:HHU786383 HRQ786359:HRQ786383 IBM786359:IBM786383 ILI786359:ILI786383 IVE786359:IVE786383 JFA786359:JFA786383 JOW786359:JOW786383 JYS786359:JYS786383 KIO786359:KIO786383 KSK786359:KSK786383 LCG786359:LCG786383 LMC786359:LMC786383 LVY786359:LVY786383 MFU786359:MFU786383 MPQ786359:MPQ786383 MZM786359:MZM786383 NJI786359:NJI786383 NTE786359:NTE786383 ODA786359:ODA786383 OMW786359:OMW786383 OWS786359:OWS786383 PGO786359:PGO786383 PQK786359:PQK786383 QAG786359:QAG786383 QKC786359:QKC786383 QTY786359:QTY786383 RDU786359:RDU786383 RNQ786359:RNQ786383 RXM786359:RXM786383 SHI786359:SHI786383 SRE786359:SRE786383 TBA786359:TBA786383 TKW786359:TKW786383 TUS786359:TUS786383 UEO786359:UEO786383 UOK786359:UOK786383 UYG786359:UYG786383 VIC786359:VIC786383 VRY786359:VRY786383 WBU786359:WBU786383 WLQ786359:WLQ786383 WVM786359:WVM786383 E851949:E851973 JA851895:JA851919 SW851895:SW851919 ACS851895:ACS851919 AMO851895:AMO851919 AWK851895:AWK851919 BGG851895:BGG851919 BQC851895:BQC851919 BZY851895:BZY851919 CJU851895:CJU851919 CTQ851895:CTQ851919 DDM851895:DDM851919 DNI851895:DNI851919 DXE851895:DXE851919 EHA851895:EHA851919 EQW851895:EQW851919 FAS851895:FAS851919 FKO851895:FKO851919 FUK851895:FUK851919 GEG851895:GEG851919 GOC851895:GOC851919 GXY851895:GXY851919 HHU851895:HHU851919 HRQ851895:HRQ851919 IBM851895:IBM851919 ILI851895:ILI851919 IVE851895:IVE851919 JFA851895:JFA851919 JOW851895:JOW851919 JYS851895:JYS851919 KIO851895:KIO851919 KSK851895:KSK851919 LCG851895:LCG851919 LMC851895:LMC851919 LVY851895:LVY851919 MFU851895:MFU851919 MPQ851895:MPQ851919 MZM851895:MZM851919 NJI851895:NJI851919 NTE851895:NTE851919 ODA851895:ODA851919 OMW851895:OMW851919 OWS851895:OWS851919 PGO851895:PGO851919 PQK851895:PQK851919 QAG851895:QAG851919 QKC851895:QKC851919 QTY851895:QTY851919 RDU851895:RDU851919 RNQ851895:RNQ851919 RXM851895:RXM851919 SHI851895:SHI851919 SRE851895:SRE851919 TBA851895:TBA851919 TKW851895:TKW851919 TUS851895:TUS851919 UEO851895:UEO851919 UOK851895:UOK851919 UYG851895:UYG851919 VIC851895:VIC851919 VRY851895:VRY851919 WBU851895:WBU851919 WLQ851895:WLQ851919 WVM851895:WVM851919 E917485:E917509 JA917431:JA917455 SW917431:SW917455 ACS917431:ACS917455 AMO917431:AMO917455 AWK917431:AWK917455 BGG917431:BGG917455 BQC917431:BQC917455 BZY917431:BZY917455 CJU917431:CJU917455 CTQ917431:CTQ917455 DDM917431:DDM917455 DNI917431:DNI917455 DXE917431:DXE917455 EHA917431:EHA917455 EQW917431:EQW917455 FAS917431:FAS917455 FKO917431:FKO917455 FUK917431:FUK917455 GEG917431:GEG917455 GOC917431:GOC917455 GXY917431:GXY917455 HHU917431:HHU917455 HRQ917431:HRQ917455 IBM917431:IBM917455 ILI917431:ILI917455 IVE917431:IVE917455 JFA917431:JFA917455 JOW917431:JOW917455 JYS917431:JYS917455 KIO917431:KIO917455 KSK917431:KSK917455 LCG917431:LCG917455 LMC917431:LMC917455 LVY917431:LVY917455 MFU917431:MFU917455 MPQ917431:MPQ917455 MZM917431:MZM917455 NJI917431:NJI917455 NTE917431:NTE917455 ODA917431:ODA917455 OMW917431:OMW917455 OWS917431:OWS917455 PGO917431:PGO917455 PQK917431:PQK917455 QAG917431:QAG917455 QKC917431:QKC917455 QTY917431:QTY917455 RDU917431:RDU917455 RNQ917431:RNQ917455 RXM917431:RXM917455 SHI917431:SHI917455 SRE917431:SRE917455 TBA917431:TBA917455 TKW917431:TKW917455 TUS917431:TUS917455 UEO917431:UEO917455 UOK917431:UOK917455 UYG917431:UYG917455 VIC917431:VIC917455 VRY917431:VRY917455 WBU917431:WBU917455 WLQ917431:WLQ917455 WVM917431:WVM917455 E983021:E983045 JA982967:JA982991 SW982967:SW982991 ACS982967:ACS982991 AMO982967:AMO982991 AWK982967:AWK982991 BGG982967:BGG982991 BQC982967:BQC982991 BZY982967:BZY982991 CJU982967:CJU982991 CTQ982967:CTQ982991 DDM982967:DDM982991 DNI982967:DNI982991 DXE982967:DXE982991 EHA982967:EHA982991 EQW982967:EQW982991 FAS982967:FAS982991 FKO982967:FKO982991 FUK982967:FUK982991 GEG982967:GEG982991 GOC982967:GOC982991 GXY982967:GXY982991 HHU982967:HHU982991 HRQ982967:HRQ982991 IBM982967:IBM982991 ILI982967:ILI982991 IVE982967:IVE982991 JFA982967:JFA982991 JOW982967:JOW982991 JYS982967:JYS982991 KIO982967:KIO982991 KSK982967:KSK982991 LCG982967:LCG982991 LMC982967:LMC982991 LVY982967:LVY982991 MFU982967:MFU982991 MPQ982967:MPQ982991 MZM982967:MZM982991 NJI982967:NJI982991 NTE982967:NTE982991 ODA982967:ODA982991 OMW982967:OMW982991 OWS982967:OWS982991 PGO982967:PGO982991 PQK982967:PQK982991 QAG982967:QAG982991 QKC982967:QKC982991 QTY982967:QTY982991 RDU982967:RDU982991 RNQ982967:RNQ982991 RXM982967:RXM982991 SHI982967:SHI982991 SRE982967:SRE982991 TBA982967:TBA982991 TKW982967:TKW982991 TUS982967:TUS982991 UEO982967:UEO982991 UOK982967:UOK982991 UYG982967:UYG982991 VIC982967:VIC982991 VRY982967:VRY982991 WBU982967:WBU982991 WLQ982967:WLQ982991 WVM982967:WVM982991 WVM5:WVM24 WLQ5:WLQ24 WBU5:WBU24 VRY5:VRY24 VIC5:VIC24 UYG5:UYG24 UOK5:UOK24 UEO5:UEO24 TUS5:TUS24 TKW5:TKW24 TBA5:TBA24 SRE5:SRE24 SHI5:SHI24 RXM5:RXM24 RNQ5:RNQ24 RDU5:RDU24 QTY5:QTY24 QKC5:QKC24 QAG5:QAG24 PQK5:PQK24 PGO5:PGO24 OWS5:OWS24 OMW5:OMW24 ODA5:ODA24 NTE5:NTE24 NJI5:NJI24 MZM5:MZM24 MPQ5:MPQ24 MFU5:MFU24 LVY5:LVY24 LMC5:LMC24 LCG5:LCG24 KSK5:KSK24 KIO5:KIO24 JYS5:JYS24 JOW5:JOW24 JFA5:JFA24 IVE5:IVE24 ILI5:ILI24 IBM5:IBM24 HRQ5:HRQ24 HHU5:HHU24 GXY5:GXY24 GOC5:GOC24 GEG5:GEG24 FUK5:FUK24 FKO5:FKO24 FAS5:FAS24 EQW5:EQW24 EHA5:EHA24 DXE5:DXE24 DNI5:DNI24 DDM5:DDM24 CTQ5:CTQ24 CJU5:CJU24 BZY5:BZY24 BQC5:BQC24 BGG5:BGG24 AWK5:AWK24 AMO5:AMO24 ACS5:ACS24 SW5:SW24 JA5:JA24 E13:E25" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$G$5:$G$11</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="ادخل المصروفات من الجدول" error="الرجاء ادخال المصروفات من النطاقات المحددة" sqref="WVM982993:WVM983060 JA26:JA74 SW26:SW74 ACS26:ACS74 AMO26:AMO74 AWK26:AWK74 BGG26:BGG74 BQC26:BQC74 BZY26:BZY74 CJU26:CJU74 CTQ26:CTQ74 DDM26:DDM74 DNI26:DNI74 DXE26:DXE74 EHA26:EHA74 EQW26:EQW74 FAS26:FAS74 FKO26:FKO74 FUK26:FUK74 GEG26:GEG74 GOC26:GOC74 GXY26:GXY74 HHU26:HHU74 HRQ26:HRQ74 IBM26:IBM74 ILI26:ILI74 IVE26:IVE74 JFA26:JFA74 JOW26:JOW74 JYS26:JYS74 KIO26:KIO74 KSK26:KSK74 LCG26:LCG74 LMC26:LMC74 LVY26:LVY74 MFU26:MFU74 MPQ26:MPQ74 MZM26:MZM74 NJI26:NJI74 NTE26:NTE74 ODA26:ODA74 OMW26:OMW74 OWS26:OWS74 PGO26:PGO74 PQK26:PQK74 QAG26:QAG74 QKC26:QKC74 QTY26:QTY74 RDU26:RDU74 RNQ26:RNQ74 RXM26:RXM74 SHI26:SHI74 SRE26:SRE74 TBA26:TBA74 TKW26:TKW74 TUS26:TUS74 UEO26:UEO74 UOK26:UOK74 UYG26:UYG74 VIC26:VIC74 VRY26:VRY74 WBU26:WBU74 WLQ26:WLQ74 WVM26:WVM74 E65543:E65610 JA65489:JA65556 SW65489:SW65556 ACS65489:ACS65556 AMO65489:AMO65556 AWK65489:AWK65556 BGG65489:BGG65556 BQC65489:BQC65556 BZY65489:BZY65556 CJU65489:CJU65556 CTQ65489:CTQ65556 DDM65489:DDM65556 DNI65489:DNI65556 DXE65489:DXE65556 EHA65489:EHA65556 EQW65489:EQW65556 FAS65489:FAS65556 FKO65489:FKO65556 FUK65489:FUK65556 GEG65489:GEG65556 GOC65489:GOC65556 GXY65489:GXY65556 HHU65489:HHU65556 HRQ65489:HRQ65556 IBM65489:IBM65556 ILI65489:ILI65556 IVE65489:IVE65556 JFA65489:JFA65556 JOW65489:JOW65556 JYS65489:JYS65556 KIO65489:KIO65556 KSK65489:KSK65556 LCG65489:LCG65556 LMC65489:LMC65556 LVY65489:LVY65556 MFU65489:MFU65556 MPQ65489:MPQ65556 MZM65489:MZM65556 NJI65489:NJI65556 NTE65489:NTE65556 ODA65489:ODA65556 OMW65489:OMW65556 OWS65489:OWS65556 PGO65489:PGO65556 PQK65489:PQK65556 QAG65489:QAG65556 QKC65489:QKC65556 QTY65489:QTY65556 RDU65489:RDU65556 RNQ65489:RNQ65556 RXM65489:RXM65556 SHI65489:SHI65556 SRE65489:SRE65556 TBA65489:TBA65556 TKW65489:TKW65556 TUS65489:TUS65556 UEO65489:UEO65556 UOK65489:UOK65556 UYG65489:UYG65556 VIC65489:VIC65556 VRY65489:VRY65556 WBU65489:WBU65556 WLQ65489:WLQ65556 WVM65489:WVM65556 E131079:E131146 JA131025:JA131092 SW131025:SW131092 ACS131025:ACS131092 AMO131025:AMO131092 AWK131025:AWK131092 BGG131025:BGG131092 BQC131025:BQC131092 BZY131025:BZY131092 CJU131025:CJU131092 CTQ131025:CTQ131092 DDM131025:DDM131092 DNI131025:DNI131092 DXE131025:DXE131092 EHA131025:EHA131092 EQW131025:EQW131092 FAS131025:FAS131092 FKO131025:FKO131092 FUK131025:FUK131092 GEG131025:GEG131092 GOC131025:GOC131092 GXY131025:GXY131092 HHU131025:HHU131092 HRQ131025:HRQ131092 IBM131025:IBM131092 ILI131025:ILI131092 IVE131025:IVE131092 JFA131025:JFA131092 JOW131025:JOW131092 JYS131025:JYS131092 KIO131025:KIO131092 KSK131025:KSK131092 LCG131025:LCG131092 LMC131025:LMC131092 LVY131025:LVY131092 MFU131025:MFU131092 MPQ131025:MPQ131092 MZM131025:MZM131092 NJI131025:NJI131092 NTE131025:NTE131092 ODA131025:ODA131092 OMW131025:OMW131092 OWS131025:OWS131092 PGO131025:PGO131092 PQK131025:PQK131092 QAG131025:QAG131092 QKC131025:QKC131092 QTY131025:QTY131092 RDU131025:RDU131092 RNQ131025:RNQ131092 RXM131025:RXM131092 SHI131025:SHI131092 SRE131025:SRE131092 TBA131025:TBA131092 TKW131025:TKW131092 TUS131025:TUS131092 UEO131025:UEO131092 UOK131025:UOK131092 UYG131025:UYG131092 VIC131025:VIC131092 VRY131025:VRY131092 WBU131025:WBU131092 WLQ131025:WLQ131092 WVM131025:WVM131092 E196615:E196682 JA196561:JA196628 SW196561:SW196628 ACS196561:ACS196628 AMO196561:AMO196628 AWK196561:AWK196628 BGG196561:BGG196628 BQC196561:BQC196628 BZY196561:BZY196628 CJU196561:CJU196628 CTQ196561:CTQ196628 DDM196561:DDM196628 DNI196561:DNI196628 DXE196561:DXE196628 EHA196561:EHA196628 EQW196561:EQW196628 FAS196561:FAS196628 FKO196561:FKO196628 FUK196561:FUK196628 GEG196561:GEG196628 GOC196561:GOC196628 GXY196561:GXY196628 HHU196561:HHU196628 HRQ196561:HRQ196628 IBM196561:IBM196628 ILI196561:ILI196628 IVE196561:IVE196628 JFA196561:JFA196628 JOW196561:JOW196628 JYS196561:JYS196628 KIO196561:KIO196628 KSK196561:KSK196628 LCG196561:LCG196628 LMC196561:LMC196628 LVY196561:LVY196628 MFU196561:MFU196628 MPQ196561:MPQ196628 MZM196561:MZM196628 NJI196561:NJI196628 NTE196561:NTE196628 ODA196561:ODA196628 OMW196561:OMW196628 OWS196561:OWS196628 PGO196561:PGO196628 PQK196561:PQK196628 QAG196561:QAG196628 QKC196561:QKC196628 QTY196561:QTY196628 RDU196561:RDU196628 RNQ196561:RNQ196628 RXM196561:RXM196628 SHI196561:SHI196628 SRE196561:SRE196628 TBA196561:TBA196628 TKW196561:TKW196628 TUS196561:TUS196628 UEO196561:UEO196628 UOK196561:UOK196628 UYG196561:UYG196628 VIC196561:VIC196628 VRY196561:VRY196628 WBU196561:WBU196628 WLQ196561:WLQ196628 WVM196561:WVM196628 E262151:E262218 JA262097:JA262164 SW262097:SW262164 ACS262097:ACS262164 AMO262097:AMO262164 AWK262097:AWK262164 BGG262097:BGG262164 BQC262097:BQC262164 BZY262097:BZY262164 CJU262097:CJU262164 CTQ262097:CTQ262164 DDM262097:DDM262164 DNI262097:DNI262164 DXE262097:DXE262164 EHA262097:EHA262164 EQW262097:EQW262164 FAS262097:FAS262164 FKO262097:FKO262164 FUK262097:FUK262164 GEG262097:GEG262164 GOC262097:GOC262164 GXY262097:GXY262164 HHU262097:HHU262164 HRQ262097:HRQ262164 IBM262097:IBM262164 ILI262097:ILI262164 IVE262097:IVE262164 JFA262097:JFA262164 JOW262097:JOW262164 JYS262097:JYS262164 KIO262097:KIO262164 KSK262097:KSK262164 LCG262097:LCG262164 LMC262097:LMC262164 LVY262097:LVY262164 MFU262097:MFU262164 MPQ262097:MPQ262164 MZM262097:MZM262164 NJI262097:NJI262164 NTE262097:NTE262164 ODA262097:ODA262164 OMW262097:OMW262164 OWS262097:OWS262164 PGO262097:PGO262164 PQK262097:PQK262164 QAG262097:QAG262164 QKC262097:QKC262164 QTY262097:QTY262164 RDU262097:RDU262164 RNQ262097:RNQ262164 RXM262097:RXM262164 SHI262097:SHI262164 SRE262097:SRE262164 TBA262097:TBA262164 TKW262097:TKW262164 TUS262097:TUS262164 UEO262097:UEO262164 UOK262097:UOK262164 UYG262097:UYG262164 VIC262097:VIC262164 VRY262097:VRY262164 WBU262097:WBU262164 WLQ262097:WLQ262164 WVM262097:WVM262164 E327687:E327754 JA327633:JA327700 SW327633:SW327700 ACS327633:ACS327700 AMO327633:AMO327700 AWK327633:AWK327700 BGG327633:BGG327700 BQC327633:BQC327700 BZY327633:BZY327700 CJU327633:CJU327700 CTQ327633:CTQ327700 DDM327633:DDM327700 DNI327633:DNI327700 DXE327633:DXE327700 EHA327633:EHA327700 EQW327633:EQW327700 FAS327633:FAS327700 FKO327633:FKO327700 FUK327633:FUK327700 GEG327633:GEG327700 GOC327633:GOC327700 GXY327633:GXY327700 HHU327633:HHU327700 HRQ327633:HRQ327700 IBM327633:IBM327700 ILI327633:ILI327700 IVE327633:IVE327700 JFA327633:JFA327700 JOW327633:JOW327700 JYS327633:JYS327700 KIO327633:KIO327700 KSK327633:KSK327700 LCG327633:LCG327700 LMC327633:LMC327700 LVY327633:LVY327700 MFU327633:MFU327700 MPQ327633:MPQ327700 MZM327633:MZM327700 NJI327633:NJI327700 NTE327633:NTE327700 ODA327633:ODA327700 OMW327633:OMW327700 OWS327633:OWS327700 PGO327633:PGO327700 PQK327633:PQK327700 QAG327633:QAG327700 QKC327633:QKC327700 QTY327633:QTY327700 RDU327633:RDU327700 RNQ327633:RNQ327700 RXM327633:RXM327700 SHI327633:SHI327700 SRE327633:SRE327700 TBA327633:TBA327700 TKW327633:TKW327700 TUS327633:TUS327700 UEO327633:UEO327700 UOK327633:UOK327700 UYG327633:UYG327700 VIC327633:VIC327700 VRY327633:VRY327700 WBU327633:WBU327700 WLQ327633:WLQ327700 WVM327633:WVM327700 E393223:E393290 JA393169:JA393236 SW393169:SW393236 ACS393169:ACS393236 AMO393169:AMO393236 AWK393169:AWK393236 BGG393169:BGG393236 BQC393169:BQC393236 BZY393169:BZY393236 CJU393169:CJU393236 CTQ393169:CTQ393236 DDM393169:DDM393236 DNI393169:DNI393236 DXE393169:DXE393236 EHA393169:EHA393236 EQW393169:EQW393236 FAS393169:FAS393236 FKO393169:FKO393236 FUK393169:FUK393236 GEG393169:GEG393236 GOC393169:GOC393236 GXY393169:GXY393236 HHU393169:HHU393236 HRQ393169:HRQ393236 IBM393169:IBM393236 ILI393169:ILI393236 IVE393169:IVE393236 JFA393169:JFA393236 JOW393169:JOW393236 JYS393169:JYS393236 KIO393169:KIO393236 KSK393169:KSK393236 LCG393169:LCG393236 LMC393169:LMC393236 LVY393169:LVY393236 MFU393169:MFU393236 MPQ393169:MPQ393236 MZM393169:MZM393236 NJI393169:NJI393236 NTE393169:NTE393236 ODA393169:ODA393236 OMW393169:OMW393236 OWS393169:OWS393236 PGO393169:PGO393236 PQK393169:PQK393236 QAG393169:QAG393236 QKC393169:QKC393236 QTY393169:QTY393236 RDU393169:RDU393236 RNQ393169:RNQ393236 RXM393169:RXM393236 SHI393169:SHI393236 SRE393169:SRE393236 TBA393169:TBA393236 TKW393169:TKW393236 TUS393169:TUS393236 UEO393169:UEO393236 UOK393169:UOK393236 UYG393169:UYG393236 VIC393169:VIC393236 VRY393169:VRY393236 WBU393169:WBU393236 WLQ393169:WLQ393236 WVM393169:WVM393236 E458759:E458826 JA458705:JA458772 SW458705:SW458772 ACS458705:ACS458772 AMO458705:AMO458772 AWK458705:AWK458772 BGG458705:BGG458772 BQC458705:BQC458772 BZY458705:BZY458772 CJU458705:CJU458772 CTQ458705:CTQ458772 DDM458705:DDM458772 DNI458705:DNI458772 DXE458705:DXE458772 EHA458705:EHA458772 EQW458705:EQW458772 FAS458705:FAS458772 FKO458705:FKO458772 FUK458705:FUK458772 GEG458705:GEG458772 GOC458705:GOC458772 GXY458705:GXY458772 HHU458705:HHU458772 HRQ458705:HRQ458772 IBM458705:IBM458772 ILI458705:ILI458772 IVE458705:IVE458772 JFA458705:JFA458772 JOW458705:JOW458772 JYS458705:JYS458772 KIO458705:KIO458772 KSK458705:KSK458772 LCG458705:LCG458772 LMC458705:LMC458772 LVY458705:LVY458772 MFU458705:MFU458772 MPQ458705:MPQ458772 MZM458705:MZM458772 NJI458705:NJI458772 NTE458705:NTE458772 ODA458705:ODA458772 OMW458705:OMW458772 OWS458705:OWS458772 PGO458705:PGO458772 PQK458705:PQK458772 QAG458705:QAG458772 QKC458705:QKC458772 QTY458705:QTY458772 RDU458705:RDU458772 RNQ458705:RNQ458772 RXM458705:RXM458772 SHI458705:SHI458772 SRE458705:SRE458772 TBA458705:TBA458772 TKW458705:TKW458772 TUS458705:TUS458772 UEO458705:UEO458772 UOK458705:UOK458772 UYG458705:UYG458772 VIC458705:VIC458772 VRY458705:VRY458772 WBU458705:WBU458772 WLQ458705:WLQ458772 WVM458705:WVM458772 E524295:E524362 JA524241:JA524308 SW524241:SW524308 ACS524241:ACS524308 AMO524241:AMO524308 AWK524241:AWK524308 BGG524241:BGG524308 BQC524241:BQC524308 BZY524241:BZY524308 CJU524241:CJU524308 CTQ524241:CTQ524308 DDM524241:DDM524308 DNI524241:DNI524308 DXE524241:DXE524308 EHA524241:EHA524308 EQW524241:EQW524308 FAS524241:FAS524308 FKO524241:FKO524308 FUK524241:FUK524308 GEG524241:GEG524308 GOC524241:GOC524308 GXY524241:GXY524308 HHU524241:HHU524308 HRQ524241:HRQ524308 IBM524241:IBM524308 ILI524241:ILI524308 IVE524241:IVE524308 JFA524241:JFA524308 JOW524241:JOW524308 JYS524241:JYS524308 KIO524241:KIO524308 KSK524241:KSK524308 LCG524241:LCG524308 LMC524241:LMC524308 LVY524241:LVY524308 MFU524241:MFU524308 MPQ524241:MPQ524308 MZM524241:MZM524308 NJI524241:NJI524308 NTE524241:NTE524308 ODA524241:ODA524308 OMW524241:OMW524308 OWS524241:OWS524308 PGO524241:PGO524308 PQK524241:PQK524308 QAG524241:QAG524308 QKC524241:QKC524308 QTY524241:QTY524308 RDU524241:RDU524308 RNQ524241:RNQ524308 RXM524241:RXM524308 SHI524241:SHI524308 SRE524241:SRE524308 TBA524241:TBA524308 TKW524241:TKW524308 TUS524241:TUS524308 UEO524241:UEO524308 UOK524241:UOK524308 UYG524241:UYG524308 VIC524241:VIC524308 VRY524241:VRY524308 WBU524241:WBU524308 WLQ524241:WLQ524308 WVM524241:WVM524308 E589831:E589898 JA589777:JA589844 SW589777:SW589844 ACS589777:ACS589844 AMO589777:AMO589844 AWK589777:AWK589844 BGG589777:BGG589844 BQC589777:BQC589844 BZY589777:BZY589844 CJU589777:CJU589844 CTQ589777:CTQ589844 DDM589777:DDM589844 DNI589777:DNI589844 DXE589777:DXE589844 EHA589777:EHA589844 EQW589777:EQW589844 FAS589777:FAS589844 FKO589777:FKO589844 FUK589777:FUK589844 GEG589777:GEG589844 GOC589777:GOC589844 GXY589777:GXY589844 HHU589777:HHU589844 HRQ589777:HRQ589844 IBM589777:IBM589844 ILI589777:ILI589844 IVE589777:IVE589844 JFA589777:JFA589844 JOW589777:JOW589844 JYS589777:JYS589844 KIO589777:KIO589844 KSK589777:KSK589844 LCG589777:LCG589844 LMC589777:LMC589844 LVY589777:LVY589844 MFU589777:MFU589844 MPQ589777:MPQ589844 MZM589777:MZM589844 NJI589777:NJI589844 NTE589777:NTE589844 ODA589777:ODA589844 OMW589777:OMW589844 OWS589777:OWS589844 PGO589777:PGO589844 PQK589777:PQK589844 QAG589777:QAG589844 QKC589777:QKC589844 QTY589777:QTY589844 RDU589777:RDU589844 RNQ589777:RNQ589844 RXM589777:RXM589844 SHI589777:SHI589844 SRE589777:SRE589844 TBA589777:TBA589844 TKW589777:TKW589844 TUS589777:TUS589844 UEO589777:UEO589844 UOK589777:UOK589844 UYG589777:UYG589844 VIC589777:VIC589844 VRY589777:VRY589844 WBU589777:WBU589844 WLQ589777:WLQ589844 WVM589777:WVM589844 E655367:E655434 JA655313:JA655380 SW655313:SW655380 ACS655313:ACS655380 AMO655313:AMO655380 AWK655313:AWK655380 BGG655313:BGG655380 BQC655313:BQC655380 BZY655313:BZY655380 CJU655313:CJU655380 CTQ655313:CTQ655380 DDM655313:DDM655380 DNI655313:DNI655380 DXE655313:DXE655380 EHA655313:EHA655380 EQW655313:EQW655380 FAS655313:FAS655380 FKO655313:FKO655380 FUK655313:FUK655380 GEG655313:GEG655380 GOC655313:GOC655380 GXY655313:GXY655380 HHU655313:HHU655380 HRQ655313:HRQ655380 IBM655313:IBM655380 ILI655313:ILI655380 IVE655313:IVE655380 JFA655313:JFA655380 JOW655313:JOW655380 JYS655313:JYS655380 KIO655313:KIO655380 KSK655313:KSK655380 LCG655313:LCG655380 LMC655313:LMC655380 LVY655313:LVY655380 MFU655313:MFU655380 MPQ655313:MPQ655380 MZM655313:MZM655380 NJI655313:NJI655380 NTE655313:NTE655380 ODA655313:ODA655380 OMW655313:OMW655380 OWS655313:OWS655380 PGO655313:PGO655380 PQK655313:PQK655380 QAG655313:QAG655380 QKC655313:QKC655380 QTY655313:QTY655380 RDU655313:RDU655380 RNQ655313:RNQ655380 RXM655313:RXM655380 SHI655313:SHI655380 SRE655313:SRE655380 TBA655313:TBA655380 TKW655313:TKW655380 TUS655313:TUS655380 UEO655313:UEO655380 UOK655313:UOK655380 UYG655313:UYG655380 VIC655313:VIC655380 VRY655313:VRY655380 WBU655313:WBU655380 WLQ655313:WLQ655380 WVM655313:WVM655380 E720903:E720970 JA720849:JA720916 SW720849:SW720916 ACS720849:ACS720916 AMO720849:AMO720916 AWK720849:AWK720916 BGG720849:BGG720916 BQC720849:BQC720916 BZY720849:BZY720916 CJU720849:CJU720916 CTQ720849:CTQ720916 DDM720849:DDM720916 DNI720849:DNI720916 DXE720849:DXE720916 EHA720849:EHA720916 EQW720849:EQW720916 FAS720849:FAS720916 FKO720849:FKO720916 FUK720849:FUK720916 GEG720849:GEG720916 GOC720849:GOC720916 GXY720849:GXY720916 HHU720849:HHU720916 HRQ720849:HRQ720916 IBM720849:IBM720916 ILI720849:ILI720916 IVE720849:IVE720916 JFA720849:JFA720916 JOW720849:JOW720916 JYS720849:JYS720916 KIO720849:KIO720916 KSK720849:KSK720916 LCG720849:LCG720916 LMC720849:LMC720916 LVY720849:LVY720916 MFU720849:MFU720916 MPQ720849:MPQ720916 MZM720849:MZM720916 NJI720849:NJI720916 NTE720849:NTE720916 ODA720849:ODA720916 OMW720849:OMW720916 OWS720849:OWS720916 PGO720849:PGO720916 PQK720849:PQK720916 QAG720849:QAG720916 QKC720849:QKC720916 QTY720849:QTY720916 RDU720849:RDU720916 RNQ720849:RNQ720916 RXM720849:RXM720916 SHI720849:SHI720916 SRE720849:SRE720916 TBA720849:TBA720916 TKW720849:TKW720916 TUS720849:TUS720916 UEO720849:UEO720916 UOK720849:UOK720916 UYG720849:UYG720916 VIC720849:VIC720916 VRY720849:VRY720916 WBU720849:WBU720916 WLQ720849:WLQ720916 WVM720849:WVM720916 E786439:E786506 JA786385:JA786452 SW786385:SW786452 ACS786385:ACS786452 AMO786385:AMO786452 AWK786385:AWK786452 BGG786385:BGG786452 BQC786385:BQC786452 BZY786385:BZY786452 CJU786385:CJU786452 CTQ786385:CTQ786452 DDM786385:DDM786452 DNI786385:DNI786452 DXE786385:DXE786452 EHA786385:EHA786452 EQW786385:EQW786452 FAS786385:FAS786452 FKO786385:FKO786452 FUK786385:FUK786452 GEG786385:GEG786452 GOC786385:GOC786452 GXY786385:GXY786452 HHU786385:HHU786452 HRQ786385:HRQ786452 IBM786385:IBM786452 ILI786385:ILI786452 IVE786385:IVE786452 JFA786385:JFA786452 JOW786385:JOW786452 JYS786385:JYS786452 KIO786385:KIO786452 KSK786385:KSK786452 LCG786385:LCG786452 LMC786385:LMC786452 LVY786385:LVY786452 MFU786385:MFU786452 MPQ786385:MPQ786452 MZM786385:MZM786452 NJI786385:NJI786452 NTE786385:NTE786452 ODA786385:ODA786452 OMW786385:OMW786452 OWS786385:OWS786452 PGO786385:PGO786452 PQK786385:PQK786452 QAG786385:QAG786452 QKC786385:QKC786452 QTY786385:QTY786452 RDU786385:RDU786452 RNQ786385:RNQ786452 RXM786385:RXM786452 SHI786385:SHI786452 SRE786385:SRE786452 TBA786385:TBA786452 TKW786385:TKW786452 TUS786385:TUS786452 UEO786385:UEO786452 UOK786385:UOK786452 UYG786385:UYG786452 VIC786385:VIC786452 VRY786385:VRY786452 WBU786385:WBU786452 WLQ786385:WLQ786452 WVM786385:WVM786452 E851975:E852042 JA851921:JA851988 SW851921:SW851988 ACS851921:ACS851988 AMO851921:AMO851988 AWK851921:AWK851988 BGG851921:BGG851988 BQC851921:BQC851988 BZY851921:BZY851988 CJU851921:CJU851988 CTQ851921:CTQ851988 DDM851921:DDM851988 DNI851921:DNI851988 DXE851921:DXE851988 EHA851921:EHA851988 EQW851921:EQW851988 FAS851921:FAS851988 FKO851921:FKO851988 FUK851921:FUK851988 GEG851921:GEG851988 GOC851921:GOC851988 GXY851921:GXY851988 HHU851921:HHU851988 HRQ851921:HRQ851988 IBM851921:IBM851988 ILI851921:ILI851988 IVE851921:IVE851988 JFA851921:JFA851988 JOW851921:JOW851988 JYS851921:JYS851988 KIO851921:KIO851988 KSK851921:KSK851988 LCG851921:LCG851988 LMC851921:LMC851988 LVY851921:LVY851988 MFU851921:MFU851988 MPQ851921:MPQ851988 MZM851921:MZM851988 NJI851921:NJI851988 NTE851921:NTE851988 ODA851921:ODA851988 OMW851921:OMW851988 OWS851921:OWS851988 PGO851921:PGO851988 PQK851921:PQK851988 QAG851921:QAG851988 QKC851921:QKC851988 QTY851921:QTY851988 RDU851921:RDU851988 RNQ851921:RNQ851988 RXM851921:RXM851988 SHI851921:SHI851988 SRE851921:SRE851988 TBA851921:TBA851988 TKW851921:TKW851988 TUS851921:TUS851988 UEO851921:UEO851988 UOK851921:UOK851988 UYG851921:UYG851988 VIC851921:VIC851988 VRY851921:VRY851988 WBU851921:WBU851988 WLQ851921:WLQ851988 WVM851921:WVM851988 E917511:E917578 JA917457:JA917524 SW917457:SW917524 ACS917457:ACS917524 AMO917457:AMO917524 AWK917457:AWK917524 BGG917457:BGG917524 BQC917457:BQC917524 BZY917457:BZY917524 CJU917457:CJU917524 CTQ917457:CTQ917524 DDM917457:DDM917524 DNI917457:DNI917524 DXE917457:DXE917524 EHA917457:EHA917524 EQW917457:EQW917524 FAS917457:FAS917524 FKO917457:FKO917524 FUK917457:FUK917524 GEG917457:GEG917524 GOC917457:GOC917524 GXY917457:GXY917524 HHU917457:HHU917524 HRQ917457:HRQ917524 IBM917457:IBM917524 ILI917457:ILI917524 IVE917457:IVE917524 JFA917457:JFA917524 JOW917457:JOW917524 JYS917457:JYS917524 KIO917457:KIO917524 KSK917457:KSK917524 LCG917457:LCG917524 LMC917457:LMC917524 LVY917457:LVY917524 MFU917457:MFU917524 MPQ917457:MPQ917524 MZM917457:MZM917524 NJI917457:NJI917524 NTE917457:NTE917524 ODA917457:ODA917524 OMW917457:OMW917524 OWS917457:OWS917524 PGO917457:PGO917524 PQK917457:PQK917524 QAG917457:QAG917524 QKC917457:QKC917524 QTY917457:QTY917524 RDU917457:RDU917524 RNQ917457:RNQ917524 RXM917457:RXM917524 SHI917457:SHI917524 SRE917457:SRE917524 TBA917457:TBA917524 TKW917457:TKW917524 TUS917457:TUS917524 UEO917457:UEO917524 UOK917457:UOK917524 UYG917457:UYG917524 VIC917457:VIC917524 VRY917457:VRY917524 WBU917457:WBU917524 WLQ917457:WLQ917524 WVM917457:WVM917524 E983047:E983114 JA982993:JA983060 SW982993:SW983060 ACS982993:ACS983060 AMO982993:AMO983060 AWK982993:AWK983060 BGG982993:BGG983060 BQC982993:BQC983060 BZY982993:BZY983060 CJU982993:CJU983060 CTQ982993:CTQ983060 DDM982993:DDM983060 DNI982993:DNI983060 DXE982993:DXE983060 EHA982993:EHA983060 EQW982993:EQW983060 FAS982993:FAS983060 FKO982993:FKO983060 FUK982993:FUK983060 GEG982993:GEG983060 GOC982993:GOC983060 GXY982993:GXY983060 HHU982993:HHU983060 HRQ982993:HRQ983060 IBM982993:IBM983060 ILI982993:ILI983060 IVE982993:IVE983060 JFA982993:JFA983060 JOW982993:JOW983060 JYS982993:JYS983060 KIO982993:KIO983060 KSK982993:KSK983060 LCG982993:LCG983060 LMC982993:LMC983060 LVY982993:LVY983060 MFU982993:MFU983060 MPQ982993:MPQ983060 MZM982993:MZM983060 NJI982993:NJI983060 NTE982993:NTE983060 ODA982993:ODA983060 OMW982993:OMW983060 OWS982993:OWS983060 PGO982993:PGO983060 PQK982993:PQK983060 QAG982993:QAG983060 QKC982993:QKC983060 QTY982993:QTY983060 RDU982993:RDU983060 RNQ982993:RNQ983060 RXM982993:RXM983060 SHI982993:SHI983060 SRE982993:SRE983060 TBA982993:TBA983060 TKW982993:TKW983060 TUS982993:TUS983060 UEO982993:UEO983060 UOK982993:UOK983060 UYG982993:UYG983060 VIC982993:VIC983060 VRY982993:VRY983060 WBU982993:WBU983060 WLQ982993:WLQ983060 E53:E79" xr:uid="{00000000-0002-0000-0000-000001000000}">
@@ -4594,13 +4588,13 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="91" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="91" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="D2" s="91" t="s">
         <v>163</v>
-      </c>
-      <c r="D2" s="91" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
@@ -4611,7 +4605,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="91" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
@@ -4622,7 +4616,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="91" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -4633,7 +4627,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="91" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -4644,7 +4638,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="91" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
@@ -4655,7 +4649,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="91" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
@@ -4663,10 +4657,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="91" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="91" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
@@ -4677,7 +4671,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="91" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
@@ -4685,10 +4679,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="91" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="91" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
@@ -4699,7 +4693,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="91" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -4710,7 +4704,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="91" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
@@ -4721,7 +4715,7 @@
         <v>24</v>
       </c>
       <c r="D13" s="91" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
@@ -4729,10 +4723,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="91" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="91" t="s">
         <v>84</v>
-      </c>
-      <c r="D14" s="91" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
@@ -4740,10 +4734,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="91" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="91" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
@@ -4754,7 +4748,7 @@
         <v>25</v>
       </c>
       <c r="D16" s="91" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
@@ -4762,10 +4756,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="91" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D17" s="91" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
@@ -4773,10 +4767,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="91" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D18" s="91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
@@ -4784,10 +4778,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="91" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
@@ -4795,10 +4789,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
@@ -4806,10 +4800,10 @@
         <v>19</v>
       </c>
       <c r="C21" s="91" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D21" s="91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
@@ -4817,10 +4811,10 @@
         <v>20</v>
       </c>
       <c r="C22" s="91" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" s="91" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
@@ -4828,10 +4822,10 @@
         <v>21</v>
       </c>
       <c r="C23" s="91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="91" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
@@ -4839,10 +4833,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="91" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D24" s="91" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
@@ -4850,10 +4844,10 @@
         <v>23</v>
       </c>
       <c r="C25" s="91" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D25" s="91" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
@@ -4861,10 +4855,10 @@
         <v>24</v>
       </c>
       <c r="C26" s="91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" s="91" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
@@ -4872,10 +4866,10 @@
         <v>25</v>
       </c>
       <c r="C27" s="91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" s="91" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
@@ -4883,10 +4877,10 @@
         <v>26</v>
       </c>
       <c r="C28" s="91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" s="91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
@@ -4894,10 +4888,10 @@
         <v>27</v>
       </c>
       <c r="C29" s="91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" s="91" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
@@ -4905,10 +4899,10 @@
         <v>28</v>
       </c>
       <c r="C30" s="91" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D30" s="91" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
@@ -4916,10 +4910,10 @@
         <v>29</v>
       </c>
       <c r="C31" s="91" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="91" t="s">
         <v>149</v>
-      </c>
-      <c r="D31" s="91" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
@@ -4927,10 +4921,10 @@
         <v>30</v>
       </c>
       <c r="C32" s="91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D32" s="91" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
@@ -4938,10 +4932,10 @@
         <v>31</v>
       </c>
       <c r="C33" s="91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D33" s="91" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
@@ -4949,10 +4943,10 @@
         <v>32</v>
       </c>
       <c r="C34" s="91" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="91" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
@@ -4960,10 +4954,10 @@
         <v>33</v>
       </c>
       <c r="C35" s="91" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D35" s="91" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
@@ -4971,10 +4965,10 @@
         <v>34</v>
       </c>
       <c r="C36" s="91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D36" s="91" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
@@ -4982,10 +4976,10 @@
         <v>35</v>
       </c>
       <c r="C37" s="91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D37" s="91" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
@@ -4993,10 +4987,10 @@
         <v>36</v>
       </c>
       <c r="C38" s="91" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D38" s="91" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
@@ -5004,10 +4998,10 @@
         <v>37</v>
       </c>
       <c r="C39" s="91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D39" s="91" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
@@ -5015,10 +5009,10 @@
         <v>38</v>
       </c>
       <c r="C40" s="91" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D40" s="91" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
@@ -5026,10 +5020,10 @@
         <v>39</v>
       </c>
       <c r="C41" s="91" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D41" s="91" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
@@ -5037,10 +5031,10 @@
         <v>40</v>
       </c>
       <c r="C42" s="91" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D42" s="91" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
@@ -5048,10 +5042,10 @@
         <v>41</v>
       </c>
       <c r="C43" s="91" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D43" s="91" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
@@ -5059,10 +5053,10 @@
         <v>42</v>
       </c>
       <c r="C44" s="91" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D44" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
@@ -5070,10 +5064,10 @@
         <v>43</v>
       </c>
       <c r="C45" s="91" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D45" s="91" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
@@ -5081,10 +5075,10 @@
         <v>44</v>
       </c>
       <c r="C46" s="91" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D46" s="91" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
@@ -5092,10 +5086,10 @@
         <v>45</v>
       </c>
       <c r="C47" s="91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D47" s="91" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
@@ -5103,10 +5097,10 @@
         <v>46</v>
       </c>
       <c r="C48" s="91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D48" s="91" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -5114,10 +5108,10 @@
         <v>47</v>
       </c>
       <c r="C49" s="91" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D49" s="91" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
@@ -5128,7 +5122,7 @@
         <v>14</v>
       </c>
       <c r="D50" s="91" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
@@ -5136,10 +5130,10 @@
         <v>49</v>
       </c>
       <c r="C51" s="91" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D51" s="91" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
@@ -5147,10 +5141,10 @@
         <v>50</v>
       </c>
       <c r="C52" s="91" t="s">
+        <v>157</v>
+      </c>
+      <c r="D52" s="91" t="s">
         <v>158</v>
-      </c>
-      <c r="D52" s="91" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
@@ -5161,7 +5155,7 @@
         <v>22</v>
       </c>
       <c r="D53" s="91" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
@@ -5169,10 +5163,10 @@
         <v>52</v>
       </c>
       <c r="C54" s="91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D54" s="91" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
@@ -5183,7 +5177,7 @@
         <v>21</v>
       </c>
       <c r="D55" s="91" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
@@ -5194,7 +5188,7 @@
         <v>23</v>
       </c>
       <c r="D56" s="91" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
@@ -5202,10 +5196,10 @@
         <v>55</v>
       </c>
       <c r="C57" s="91" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D57" s="91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
@@ -5213,10 +5207,10 @@
         <v>56</v>
       </c>
       <c r="C58" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="D58" s="91" t="s">
         <v>133</v>
-      </c>
-      <c r="D58" s="91" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
@@ -5224,10 +5218,10 @@
         <v>57</v>
       </c>
       <c r="C59" s="91" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D59" s="91" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.3">
@@ -5235,10 +5229,10 @@
         <v>58</v>
       </c>
       <c r="C60" s="91" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D60" s="91" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/AssetManagement/AssetManagement/bin/Debug/Finance forms/financial blank report.xlsx
+++ b/AssetManagement/AssetManagement/bin/Debug/Finance forms/financial blank report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619B7129-309D-44C0-AEE0-A1B8521773D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21E56A0-0D63-48F2-96B0-E532DD4F94B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Lists" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$G$4:$P$69</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$G$4:$P$81</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1083,6 +1083,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1091,30 +1115,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1484,10 +1484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X90"/>
+  <dimension ref="A1:X102"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A16" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.5"/>
@@ -2713,18 +2713,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="2" customFormat="1" ht="21.6" x14ac:dyDescent="0.65">
-      <c r="A1" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="98"/>
+      <c r="A1" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="99" t="s">
+      <c r="G1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="100"/>
+      <c r="H1" s="97"/>
       <c r="J1" s="47"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -2780,10 +2780,10 @@
         <v>6</v>
       </c>
       <c r="F3" s="8"/>
-      <c r="G3" s="101" t="s">
+      <c r="G3" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="102"/>
+      <c r="H3" s="99"/>
       <c r="J3" s="47"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -2801,13 +2801,13 @@
       <c r="X3" s="4"/>
     </row>
     <row r="4" spans="1:24" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="94"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="102"/>
       <c r="F4" s="9"/>
       <c r="G4" s="10" t="s">
         <v>9</v>
@@ -2844,7 +2844,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="20">
-        <f t="shared" ref="H5:H11" si="0">SUMIF(E:E,G5,A:A)</f>
+        <f>SUMIF(E:E,G5,A:A)</f>
         <v>0</v>
       </c>
       <c r="J5" s="49" t="s">
@@ -2876,7 +2876,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="20">
-        <f t="shared" si="0"/>
+        <f>SUMIF(E:E,G6,A:A)</f>
         <v>0</v>
       </c>
       <c r="J6" s="47" t="s">
@@ -2908,7 +2908,7 @@
         <v>13</v>
       </c>
       <c r="H7" s="20">
-        <f t="shared" si="0"/>
+        <f>SUMIF(E:E,G7,A:A)</f>
         <v>0</v>
       </c>
       <c r="J7" s="47" t="s">
@@ -2940,7 +2940,7 @@
         <v>14</v>
       </c>
       <c r="H8" s="20">
-        <f t="shared" si="0"/>
+        <f>SUMIF(E:E,G8,A:A)</f>
         <v>0</v>
       </c>
       <c r="J8" s="47" t="s">
@@ -2972,7 +2972,7 @@
         <v>15</v>
       </c>
       <c r="H9" s="20">
-        <f t="shared" si="0"/>
+        <f>SUMIF(E:E,G9,A:A)</f>
         <v>0</v>
       </c>
       <c r="J9" s="47" t="s">
@@ -3004,7 +3004,7 @@
         <v>50</v>
       </c>
       <c r="H10" s="20">
-        <f t="shared" si="0"/>
+        <f>SUMIF(E:E,G10,A:A)</f>
         <v>0</v>
       </c>
       <c r="J10" s="47" t="s">
@@ -3036,7 +3036,7 @@
         <v>17</v>
       </c>
       <c r="H11" s="20">
-        <f t="shared" si="0"/>
+        <f>SUMIF(E:E,G11,A:A)</f>
         <v>0</v>
       </c>
       <c r="J11" s="47" t="s">
@@ -3058,17 +3058,15 @@
       <c r="X11" s="14"/>
     </row>
     <row r="12" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A12" s="85"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="69"/>
       <c r="C12" s="63"/>
       <c r="D12" s="66"/>
       <c r="E12" s="19"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="22">
-        <f>SUM(H5:H11)</f>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20">
+        <f t="shared" ref="H12:H23" si="0">SUMIF(E:E,G12,A:A)</f>
         <v>0</v>
       </c>
       <c r="J12" s="47"/>
@@ -3088,17 +3086,16 @@
       <c r="X12" s="14"/>
     </row>
     <row r="13" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A13" s="15"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="69"/>
-      <c r="C13" s="16"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="66"/>
-      <c r="E13" s="17"/>
+      <c r="E13" s="19"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>10</v>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J13" s="47"/>
       <c r="K13" s="3"/>
@@ -3117,22 +3114,18 @@
       <c r="X13" s="14"/>
     </row>
     <row r="14" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A14" s="15"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="69"/>
-      <c r="C14" s="16"/>
+      <c r="C14" s="63"/>
       <c r="D14" s="66"/>
-      <c r="E14" s="17"/>
+      <c r="E14" s="19"/>
       <c r="F14" s="18"/>
-      <c r="G14" s="19" t="s">
-        <v>50</v>
-      </c>
+      <c r="G14" s="19"/>
       <c r="H14" s="20">
-        <f t="shared" ref="H14:H58" si="1">SUMIF(E:E,G14,B:B)</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="47" t="s">
-        <v>75</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="47"/>
       <c r="K14" s="3"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
@@ -3149,22 +3142,18 @@
       <c r="X14" s="14"/>
     </row>
     <row r="15" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A15" s="15"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="69"/>
-      <c r="C15" s="16"/>
+      <c r="C15" s="63"/>
       <c r="D15" s="66"/>
-      <c r="E15" s="17"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="19" t="s">
-        <v>19</v>
-      </c>
+      <c r="G15" s="19"/>
       <c r="H15" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="47" t="s">
-        <v>78</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="47"/>
       <c r="K15" s="3"/>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
@@ -3181,22 +3170,18 @@
       <c r="X15" s="14"/>
     </row>
     <row r="16" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A16" s="15"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="16"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="66"/>
-      <c r="E16" s="17"/>
+      <c r="E16" s="19"/>
       <c r="F16" s="18"/>
-      <c r="G16" s="19" t="s">
-        <v>66</v>
-      </c>
+      <c r="G16" s="19"/>
       <c r="H16" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="47" t="s">
-        <v>79</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="47"/>
       <c r="K16" s="3"/>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
@@ -3213,22 +3198,18 @@
       <c r="X16" s="14"/>
     </row>
     <row r="17" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A17" s="15"/>
+      <c r="A17" s="62"/>
       <c r="B17" s="69"/>
-      <c r="C17" s="23"/>
+      <c r="C17" s="63"/>
       <c r="D17" s="66"/>
-      <c r="E17" s="24"/>
+      <c r="E17" s="19"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="19" t="s">
-        <v>20</v>
-      </c>
+      <c r="G17" s="19"/>
       <c r="H17" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="47" t="s">
-        <v>80</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="47"/>
       <c r="K17" s="3"/>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
@@ -3245,22 +3226,18 @@
       <c r="X17" s="14"/>
     </row>
     <row r="18" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A18" s="15"/>
+      <c r="A18" s="62"/>
       <c r="B18" s="69"/>
-      <c r="C18" s="16"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="66"/>
-      <c r="E18" s="17"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="G18" s="19"/>
       <c r="H18" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="47" t="s">
-        <v>59</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="47"/>
       <c r="K18" s="3"/>
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
@@ -3277,22 +3254,18 @@
       <c r="X18" s="14"/>
     </row>
     <row r="19" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A19" s="28"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="25"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="63"/>
       <c r="D19" s="66"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="19" t="s">
-        <v>24</v>
-      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
       <c r="H19" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="47" t="s">
-        <v>82</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="47"/>
       <c r="K19" s="3"/>
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
@@ -3309,22 +3282,18 @@
       <c r="X19" s="14"/>
     </row>
     <row r="20" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A20" s="28"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="25"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="66"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="19" t="s">
-        <v>83</v>
-      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
       <c r="H20" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="47" t="s">
-        <v>84</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="47"/>
       <c r="K20" s="3"/>
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
@@ -3341,22 +3310,18 @@
       <c r="X20" s="14"/>
     </row>
     <row r="21" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A21" s="28"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="25"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="63"/>
       <c r="D21" s="66"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="19" t="s">
-        <v>58</v>
-      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
       <c r="H21" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="47" t="s">
-        <v>85</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="47"/>
       <c r="K21" s="3"/>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
@@ -3373,937 +3338,1086 @@
       <c r="X21" s="14"/>
     </row>
     <row r="22" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A22" s="28"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="25"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="63"/>
       <c r="D22" s="66"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="19" t="s">
-        <v>25</v>
-      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
       <c r="H22" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="47" t="s">
-        <v>86</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="47"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="14"/>
     </row>
     <row r="23" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A23" s="28"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="25"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="66"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="19" t="s">
-        <v>114</v>
-      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="19"/>
       <c r="H23" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="47" t="s">
-        <v>87</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="47"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="14"/>
     </row>
     <row r="24" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A24" s="28"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="25"/>
+      <c r="A24" s="85"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="66"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="H24" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="47" t="s">
-        <v>88</v>
-      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="22">
+        <f>SUM(H5:H23)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="47"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="14"/>
     </row>
     <row r="25" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A25" s="28"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="25"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="16"/>
       <c r="D25" s="66"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="47" t="s">
-        <v>89</v>
-      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" s="47"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="14"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="14"/>
     </row>
     <row r="26" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A26" s="30"/>
-      <c r="B26" s="90"/>
-      <c r="C26" s="64"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="66"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="27"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="18"/>
       <c r="G26" s="19" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="H26" s="20">
-        <f t="shared" si="1"/>
+        <f>SUMIF(E:E,G26,B:B)</f>
         <v>0</v>
       </c>
       <c r="J26" s="47" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="K26" s="3"/>
-      <c r="L26" s="14"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="14"/>
     </row>
     <row r="27" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A27" s="30"/>
-      <c r="B27" s="90"/>
-      <c r="C27" s="64"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="66"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="27"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="18"/>
       <c r="G27" s="19" t="s">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="H27" s="20">
-        <f t="shared" si="1"/>
+        <f>SUMIF(E:E,G27,B:B)</f>
         <v>0</v>
       </c>
       <c r="J27" s="47" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K27" s="3"/>
-      <c r="L27" s="14"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="14"/>
     </row>
     <row r="28" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A28" s="30"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="64"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="16"/>
       <c r="D28" s="66"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="27"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="18"/>
       <c r="G28" s="19" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H28" s="20">
-        <f t="shared" si="1"/>
+        <f>SUMIF(E:E,G28,B:B)</f>
         <v>0</v>
       </c>
       <c r="J28" s="47" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K28" s="3"/>
-      <c r="L28" s="14"/>
-    </row>
-    <row r="29" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A29" s="30"/>
-      <c r="B29" s="90"/>
-      <c r="C29" s="64"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="14"/>
+    </row>
+    <row r="29" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A29" s="15"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="23"/>
       <c r="D29" s="66"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="27"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="18"/>
       <c r="G29" s="19" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H29" s="20">
-        <f t="shared" si="1"/>
+        <f>SUMIF(E:E,G29,B:B)</f>
         <v>0</v>
       </c>
       <c r="J29" s="47" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K29" s="3"/>
-      <c r="L29" s="14"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="14"/>
     </row>
     <row r="30" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A30" s="86"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="64"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="66"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="27"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="18"/>
       <c r="G30" s="19" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="H30" s="20">
-        <f t="shared" si="1"/>
+        <f>SUMIF(E:E,G30,B:B)</f>
         <v>0</v>
       </c>
       <c r="J30" s="47" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="K30" s="3"/>
-      <c r="L30" s="14"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="14"/>
     </row>
     <row r="31" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A31" s="86"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="63"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="25"/>
       <c r="D31" s="66"/>
-      <c r="E31" s="19"/>
+      <c r="E31" s="24"/>
       <c r="F31" s="27"/>
       <c r="G31" s="19" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="H31" s="20">
-        <f t="shared" si="1"/>
+        <f>SUMIF(E:E,G31,B:B)</f>
         <v>0</v>
       </c>
       <c r="J31" s="47" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="K31" s="3"/>
-      <c r="L31" s="14"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="14"/>
     </row>
     <row r="32" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A32" s="86"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="64"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="25"/>
       <c r="D32" s="66"/>
-      <c r="E32" s="19"/>
+      <c r="E32" s="24"/>
       <c r="F32" s="27"/>
       <c r="G32" s="19" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="H32" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="32"/>
+        <f>SUMIF(E:E,G32,B:B)</f>
+        <v>0</v>
+      </c>
       <c r="J32" s="47" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A33" s="86"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="64"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="14"/>
+    </row>
+    <row r="33" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A33" s="28"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="66"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="33"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="27"/>
       <c r="G33" s="19" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="H33" s="20">
-        <f t="shared" si="1"/>
+        <f>SUMIF(E:E,G33,B:B)</f>
         <v>0</v>
       </c>
       <c r="J33" s="47" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A34" s="87"/>
-      <c r="B34" s="90"/>
-      <c r="C34" s="64"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="14"/>
+    </row>
+    <row r="34" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A34" s="28"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="25"/>
       <c r="D34" s="66"/>
-      <c r="E34" s="19"/>
+      <c r="E34" s="24"/>
       <c r="F34" s="27"/>
       <c r="G34" s="19" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H34" s="20">
-        <f t="shared" si="1"/>
+        <f>SUMIF(E:E,G34,B:B)</f>
         <v>0</v>
       </c>
       <c r="J34" s="47" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A35" s="87"/>
-      <c r="B35" s="90"/>
-      <c r="C35" s="64"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="29"/>
+    </row>
+    <row r="35" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A35" s="28"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="25"/>
       <c r="D35" s="66"/>
-      <c r="E35" s="19"/>
+      <c r="E35" s="24"/>
       <c r="F35" s="27"/>
       <c r="G35" s="19" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="H35" s="20">
-        <f t="shared" si="1"/>
+        <f>SUMIF(E:E,G35,B:B)</f>
         <v>0</v>
       </c>
       <c r="J35" s="47" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="K35" s="3"/>
-    </row>
-    <row r="36" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A36" s="87"/>
-      <c r="B36" s="90"/>
-      <c r="C36" s="64"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+    </row>
+    <row r="36" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A36" s="28"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="25"/>
       <c r="D36" s="66"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="35"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="27"/>
       <c r="G36" s="19" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="H36" s="20">
-        <f t="shared" si="1"/>
+        <f>SUMIF(E:E,G36,B:B)</f>
         <v>0</v>
       </c>
       <c r="J36" s="47" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="K36" s="3"/>
-    </row>
-    <row r="37" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A37" s="87"/>
-      <c r="B37" s="90"/>
-      <c r="C37" s="64"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="29"/>
+      <c r="W36" s="29"/>
+    </row>
+    <row r="37" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A37" s="28"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="66"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="35"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="27"/>
       <c r="G37" s="19" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="H37" s="20">
-        <f t="shared" si="1"/>
+        <f>SUMIF(E:E,G37,B:B)</f>
         <v>0</v>
       </c>
       <c r="J37" s="47" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="K37" s="3"/>
-    </row>
-    <row r="38" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A38" s="88"/>
+      <c r="L37" s="14"/>
+    </row>
+    <row r="38" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A38" s="30"/>
       <c r="B38" s="90"/>
       <c r="C38" s="64"/>
       <c r="D38" s="66"/>
       <c r="E38" s="19"/>
-      <c r="F38" s="35"/>
+      <c r="F38" s="27"/>
       <c r="G38" s="19" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H38" s="20">
-        <f t="shared" si="1"/>
+        <f>SUMIF(E:E,G38,B:B)</f>
         <v>0</v>
       </c>
       <c r="J38" s="47" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="K38" s="3"/>
-    </row>
-    <row r="39" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A39" s="89"/>
+      <c r="L38" s="14"/>
+    </row>
+    <row r="39" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A39" s="30"/>
       <c r="B39" s="90"/>
       <c r="C39" s="64"/>
       <c r="D39" s="66"/>
       <c r="E39" s="19"/>
-      <c r="F39" s="35"/>
+      <c r="F39" s="27"/>
       <c r="G39" s="19" t="s">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="H39" s="20">
-        <f t="shared" si="1"/>
+        <f>SUMIF(E:E,G39,B:B)</f>
         <v>0</v>
       </c>
       <c r="J39" s="47" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A40" s="89"/>
+      <c r="L39" s="14"/>
+    </row>
+    <row r="40" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A40" s="30"/>
       <c r="B40" s="90"/>
       <c r="C40" s="64"/>
       <c r="D40" s="66"/>
       <c r="E40" s="19"/>
-      <c r="F40" s="35"/>
+      <c r="F40" s="27"/>
       <c r="G40" s="19" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="H40" s="20">
-        <f t="shared" si="1"/>
+        <f>SUMIF(E:E,G40,B:B)</f>
         <v>0</v>
       </c>
       <c r="J40" s="47" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A41" s="89"/>
+      <c r="L40" s="14"/>
+    </row>
+    <row r="41" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A41" s="30"/>
       <c r="B41" s="90"/>
       <c r="C41" s="64"/>
       <c r="D41" s="66"/>
       <c r="E41" s="19"/>
-      <c r="F41" s="35"/>
+      <c r="F41" s="27"/>
       <c r="G41" s="19" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H41" s="20">
-        <f t="shared" si="1"/>
+        <f>SUMIF(E:E,G41,B:B)</f>
         <v>0</v>
       </c>
       <c r="J41" s="47" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A42" s="38"/>
+      <c r="L41" s="14"/>
+    </row>
+    <row r="42" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A42" s="86"/>
       <c r="B42" s="90"/>
       <c r="C42" s="64"/>
       <c r="D42" s="66"/>
       <c r="E42" s="19"/>
-      <c r="F42" s="35"/>
+      <c r="F42" s="27"/>
       <c r="G42" s="19" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="H42" s="20">
-        <f t="shared" si="1"/>
+        <f>SUMIF(E:E,G42,B:B)</f>
         <v>0</v>
       </c>
       <c r="J42" s="47" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="K42" s="3"/>
-      <c r="L42" s="32"/>
-    </row>
-    <row r="43" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A43" s="38"/>
+      <c r="L42" s="14"/>
+    </row>
+    <row r="43" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A43" s="86"/>
       <c r="B43" s="90"/>
-      <c r="C43" s="64"/>
+      <c r="C43" s="63"/>
       <c r="D43" s="66"/>
       <c r="E43" s="19"/>
-      <c r="F43" s="35"/>
+      <c r="F43" s="27"/>
       <c r="G43" s="19" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="H43" s="20">
-        <f t="shared" si="1"/>
+        <f>SUMIF(E:E,G43,B:B)</f>
         <v>0</v>
       </c>
       <c r="J43" s="47" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A44" s="38"/>
+      <c r="L43" s="14"/>
+    </row>
+    <row r="44" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A44" s="86"/>
       <c r="B44" s="90"/>
       <c r="C44" s="64"/>
       <c r="D44" s="66"/>
       <c r="E44" s="19"/>
-      <c r="F44" s="35"/>
+      <c r="F44" s="27"/>
       <c r="G44" s="19" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="H44" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="35"/>
+        <f>SUMIF(E:E,G44,B:B)</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="32"/>
       <c r="J44" s="47" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A45" s="36"/>
+    <row r="45" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A45" s="86"/>
       <c r="B45" s="90"/>
       <c r="C45" s="64"/>
       <c r="D45" s="66"/>
       <c r="E45" s="19"/>
-      <c r="F45" s="35"/>
+      <c r="F45" s="33"/>
       <c r="G45" s="19" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H45" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="35"/>
+        <f>SUMIF(E:E,G45,B:B)</f>
+        <v>0</v>
+      </c>
       <c r="J45" s="47" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A46" s="38"/>
+    <row r="46" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A46" s="87"/>
       <c r="B46" s="90"/>
       <c r="C46" s="64"/>
       <c r="D46" s="66"/>
       <c r="E46" s="19"/>
-      <c r="F46" s="35"/>
+      <c r="F46" s="27"/>
       <c r="G46" s="19" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="H46" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="35"/>
+        <f>SUMIF(E:E,G46,B:B)</f>
+        <v>0</v>
+      </c>
       <c r="J46" s="47" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A47" s="38"/>
+    <row r="47" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A47" s="87"/>
       <c r="B47" s="90"/>
       <c r="C47" s="64"/>
       <c r="D47" s="66"/>
       <c r="E47" s="19"/>
-      <c r="F47" s="35"/>
+      <c r="F47" s="27"/>
       <c r="G47" s="19" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="H47" s="20">
-        <f t="shared" si="1"/>
+        <f>SUMIF(E:E,G47,B:B)</f>
         <v>0</v>
       </c>
       <c r="J47" s="47" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A48" s="38"/>
+    <row r="48" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A48" s="87"/>
       <c r="B48" s="90"/>
       <c r="C48" s="64"/>
       <c r="D48" s="66"/>
       <c r="E48" s="19"/>
       <c r="F48" s="35"/>
       <c r="G48" s="19" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H48" s="20">
-        <f t="shared" si="1"/>
+        <f>SUMIF(E:E,G48,B:B)</f>
         <v>0</v>
       </c>
       <c r="J48" s="47" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A49" s="38"/>
+    <row r="49" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A49" s="87"/>
       <c r="B49" s="90"/>
       <c r="C49" s="64"/>
       <c r="D49" s="66"/>
       <c r="E49" s="19"/>
       <c r="F49" s="35"/>
       <c r="G49" s="19" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="H49" s="20">
-        <f t="shared" si="1"/>
+        <f>SUMIF(E:E,G49,B:B)</f>
         <v>0</v>
       </c>
       <c r="J49" s="47" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A50" s="38"/>
+    <row r="50" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A50" s="88"/>
       <c r="B50" s="90"/>
       <c r="C50" s="64"/>
       <c r="D50" s="66"/>
       <c r="E50" s="19"/>
       <c r="F50" s="35"/>
       <c r="G50" s="19" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H50" s="20">
-        <f t="shared" si="1"/>
+        <f>SUMIF(E:E,G50,B:B)</f>
         <v>0</v>
       </c>
       <c r="J50" s="47" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A51" s="38"/>
+    <row r="51" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A51" s="89"/>
       <c r="B51" s="90"/>
       <c r="C51" s="64"/>
       <c r="D51" s="66"/>
       <c r="E51" s="19"/>
       <c r="F51" s="35"/>
       <c r="G51" s="19" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H51" s="20">
-        <f t="shared" si="1"/>
+        <f>SUMIF(E:E,G51,B:B)</f>
         <v>0</v>
       </c>
       <c r="J51" s="47" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A52" s="38"/>
+    <row r="52" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A52" s="89"/>
       <c r="B52" s="90"/>
       <c r="C52" s="64"/>
       <c r="D52" s="66"/>
       <c r="E52" s="19"/>
       <c r="F52" s="35"/>
       <c r="G52" s="19" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="H52" s="20">
-        <f t="shared" si="1"/>
+        <f>SUMIF(E:E,G52,B:B)</f>
         <v>0</v>
       </c>
       <c r="J52" s="47" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A53" s="38"/>
+    <row r="53" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A53" s="89"/>
       <c r="B53" s="90"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="24"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="66"/>
+      <c r="E53" s="19"/>
       <c r="F53" s="35"/>
       <c r="G53" s="19" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H53" s="20">
-        <f t="shared" si="1"/>
+        <f>SUMIF(E:E,G53,B:B)</f>
         <v>0</v>
       </c>
       <c r="J53" s="47" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A54" s="36"/>
+    <row r="54" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A54" s="38"/>
       <c r="B54" s="90"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="24"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="19"/>
       <c r="F54" s="35"/>
       <c r="G54" s="19" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H54" s="20">
-        <f t="shared" si="1"/>
+        <f>SUMIF(E:E,G54,B:B)</f>
         <v>0</v>
       </c>
       <c r="J54" s="47" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="L54" s="32"/>
+    </row>
+    <row r="55" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A55" s="38"/>
-      <c r="B55" s="71"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="24"/>
+      <c r="B55" s="90"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="66"/>
+      <c r="E55" s="19"/>
       <c r="F55" s="35"/>
       <c r="G55" s="19" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H55" s="20">
-        <f t="shared" si="1"/>
+        <f>SUMIF(E:E,G55,B:B)</f>
         <v>0</v>
       </c>
       <c r="J55" s="47" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="56" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A56" s="38"/>
-      <c r="B56" s="71"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="24"/>
+      <c r="B56" s="90"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="19"/>
       <c r="F56" s="35"/>
       <c r="G56" s="19" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="H56" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <f>SUMIF(E:E,G56,B:B)</f>
+        <v>0</v>
+      </c>
+      <c r="I56" s="35"/>
       <c r="J56" s="47" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="57" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A57" s="36"/>
-      <c r="B57" s="71"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="24"/>
+      <c r="B57" s="90"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="19"/>
       <c r="F57" s="35"/>
       <c r="G57" s="19" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="H57" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <f>SUMIF(E:E,G57,B:B)</f>
+        <v>0</v>
+      </c>
+      <c r="I57" s="35"/>
       <c r="J57" s="47" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A58" s="36"/>
-      <c r="B58" s="71"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="41"/>
+    <row r="58" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A58" s="38"/>
+      <c r="B58" s="90"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="35"/>
       <c r="G58" s="19" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="H58" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <f>SUMIF(E:E,G58,B:B)</f>
+        <v>0</v>
+      </c>
+      <c r="I58" s="35"/>
       <c r="J58" s="47" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A59" s="36"/>
-      <c r="B59" s="71"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="24"/>
+    <row r="59" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A59" s="38"/>
+      <c r="B59" s="90"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="66"/>
+      <c r="E59" s="19"/>
       <c r="F59" s="35"/>
-      <c r="G59" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J59" s="47"/>
+      <c r="G59" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H59" s="20">
+        <f>SUMIF(E:E,G59,B:B)</f>
+        <v>0</v>
+      </c>
+      <c r="J59" s="47" t="s">
+        <v>115</v>
+      </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A60" s="36"/>
-      <c r="B60" s="71"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="24"/>
+    <row r="60" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A60" s="38"/>
+      <c r="B60" s="90"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="66"/>
+      <c r="E60" s="19"/>
       <c r="F60" s="35"/>
       <c r="G60" s="19" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="H60" s="20">
-        <f t="shared" ref="H60:H66" si="2">SUMIF(E:E,G60,B:B)</f>
+        <f>SUMIF(E:E,G60,B:B)</f>
         <v>0</v>
       </c>
       <c r="J60" s="47" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A61" s="36"/>
-      <c r="B61" s="71"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="24"/>
+    <row r="61" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A61" s="38"/>
+      <c r="B61" s="90"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="66"/>
+      <c r="E61" s="19"/>
       <c r="F61" s="35"/>
       <c r="G61" s="19" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H61" s="20">
-        <f t="shared" si="2"/>
+        <f>SUMIF(E:E,G61,B:B)</f>
         <v>0</v>
       </c>
       <c r="J61" s="47" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A62" s="36"/>
-      <c r="B62" s="71"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="24"/>
+    <row r="62" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A62" s="38"/>
+      <c r="B62" s="90"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="19"/>
       <c r="F62" s="35"/>
       <c r="G62" s="19" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="H62" s="20">
-        <f t="shared" si="2"/>
+        <f>SUMIF(E:E,G62,B:B)</f>
         <v>0</v>
       </c>
       <c r="J62" s="47" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A63" s="36"/>
-      <c r="B63" s="71"/>
-      <c r="C63" s="37"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="24"/>
+    <row r="63" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A63" s="38"/>
+      <c r="B63" s="90"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="66"/>
+      <c r="E63" s="19"/>
       <c r="F63" s="35"/>
       <c r="G63" s="19" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H63" s="20">
-        <f t="shared" si="2"/>
+        <f>SUMIF(E:E,G63,B:B)</f>
         <v>0</v>
       </c>
       <c r="J63" s="47" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A64" s="36"/>
-      <c r="B64" s="71"/>
-      <c r="C64" s="37"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="24"/>
+    <row r="64" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A64" s="38"/>
+      <c r="B64" s="90"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="19"/>
       <c r="F64" s="35"/>
       <c r="G64" s="19" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="H64" s="20">
-        <f t="shared" si="2"/>
+        <f>SUMIF(E:E,G64,B:B)</f>
         <v>0</v>
       </c>
       <c r="J64" s="47" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="K64" s="3"/>
     </row>
     <row r="65" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A65" s="36"/>
-      <c r="B65" s="71"/>
+      <c r="A65" s="38"/>
+      <c r="B65" s="90"/>
       <c r="C65" s="37"/>
       <c r="D65" s="34"/>
       <c r="E65" s="24"/>
       <c r="F65" s="35"/>
       <c r="G65" s="19" t="s">
-        <v>132</v>
+        <v>47</v>
       </c>
       <c r="H65" s="20">
-        <f t="shared" si="2"/>
+        <f>SUMIF(E:E,G65,B:B)</f>
         <v>0</v>
       </c>
       <c r="J65" s="47" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="K65" s="3"/>
     </row>
     <row r="66" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A66" s="36"/>
-      <c r="B66" s="71"/>
+      <c r="B66" s="90"/>
       <c r="C66" s="37"/>
       <c r="D66" s="34"/>
       <c r="E66" s="24"/>
       <c r="F66" s="35"/>
       <c r="G66" s="19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H66" s="20">
-        <f t="shared" si="2"/>
+        <f>SUMIF(E:E,G66,B:B)</f>
         <v>0</v>
       </c>
       <c r="J66" s="47" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="K66" s="3"/>
     </row>
     <row r="67" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A67" s="36"/>
+      <c r="A67" s="38"/>
       <c r="B67" s="71"/>
       <c r="C67" s="37"/>
       <c r="D67" s="34"/>
       <c r="E67" s="24"/>
       <c r="F67" s="35"/>
-      <c r="G67" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="H67" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J67" s="47"/>
+      <c r="G67" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H67" s="20">
+        <f>SUMIF(E:E,G67,B:B)</f>
+        <v>0</v>
+      </c>
+      <c r="J67" s="47" t="s">
+        <v>123</v>
+      </c>
       <c r="K67" s="3"/>
     </row>
     <row r="68" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A68" s="36"/>
+      <c r="A68" s="38"/>
       <c r="B68" s="71"/>
       <c r="C68" s="37"/>
       <c r="D68" s="34"/>
       <c r="E68" s="24"/>
       <c r="F68" s="35"/>
       <c r="G68" s="19" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="H68" s="20">
         <f>SUMIF(E:E,G68,B:B)</f>
         <v>0</v>
       </c>
       <c r="J68" s="47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K68" s="3"/>
     </row>
@@ -4314,14 +4428,16 @@
       <c r="D69" s="34"/>
       <c r="E69" s="24"/>
       <c r="F69" s="35"/>
-      <c r="G69" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="H69" s="22">
-        <f>SUM(H14:H68)</f>
-        <v>0</v>
-      </c>
-      <c r="J69" s="47"/>
+      <c r="G69" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="H69" s="20">
+        <f>SUMIF(E:E,G69,B:B)</f>
+        <v>0</v>
+      </c>
+      <c r="J69" s="47" t="s">
+        <v>125</v>
+      </c>
       <c r="K69" s="3"/>
     </row>
     <row r="70" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
@@ -4330,9 +4446,17 @@
       <c r="C70" s="37"/>
       <c r="D70" s="34"/>
       <c r="E70" s="24"/>
-      <c r="F70" s="35"/>
-      <c r="H70" s="12"/>
-      <c r="J70" s="47"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H70" s="20">
+        <f>SUMIF(E:E,G70,B:B)</f>
+        <v>0</v>
+      </c>
+      <c r="J70" s="47" t="s">
+        <v>127</v>
+      </c>
       <c r="K70" s="3"/>
     </row>
     <row r="71" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
@@ -4342,10 +4466,12 @@
       <c r="D71" s="34"/>
       <c r="E71" s="24"/>
       <c r="F71" s="35"/>
-      <c r="G71" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="H71" s="42"/>
+      <c r="G71" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="J71" s="47"/>
       <c r="K71" s="3"/>
     </row>
@@ -4356,14 +4482,16 @@
       <c r="D72" s="34"/>
       <c r="E72" s="24"/>
       <c r="F72" s="35"/>
-      <c r="G72" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H72" s="65">
-        <f>SUMIF(E:E,G72,A:A)</f>
-        <v>0</v>
-      </c>
-      <c r="J72" s="47"/>
+      <c r="G72" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H72" s="20">
+        <f>SUMIF(E:E,G72,B:B)</f>
+        <v>0</v>
+      </c>
+      <c r="J72" s="47" t="s">
+        <v>76</v>
+      </c>
       <c r="K72" s="3"/>
     </row>
     <row r="73" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
@@ -4373,14 +4501,16 @@
       <c r="D73" s="34"/>
       <c r="E73" s="24"/>
       <c r="F73" s="35"/>
-      <c r="G73" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="H73" s="65">
-        <f>H12-H72</f>
-        <v>0</v>
-      </c>
-      <c r="J73" s="47"/>
+      <c r="G73" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H73" s="20">
+        <f>SUMIF(E:E,G73,B:B)</f>
+        <v>0</v>
+      </c>
+      <c r="J73" s="47" t="s">
+        <v>77</v>
+      </c>
       <c r="K73" s="3"/>
     </row>
     <row r="74" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
@@ -4390,163 +4520,369 @@
       <c r="D74" s="34"/>
       <c r="E74" s="24"/>
       <c r="F74" s="35"/>
-      <c r="G74" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="H74" s="65">
-        <f>H69</f>
-        <v>0</v>
-      </c>
-      <c r="J74" s="47"/>
+      <c r="G74" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H74" s="20">
+        <f>SUMIF(E:E,G74,B:B)</f>
+        <v>0</v>
+      </c>
+      <c r="J74" s="47" t="s">
+        <v>81</v>
+      </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="1:11" ht="21.6" x14ac:dyDescent="0.65">
+    <row r="75" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A75" s="36"/>
       <c r="B75" s="71"/>
       <c r="C75" s="37"/>
       <c r="D75" s="34"/>
       <c r="E75" s="24"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="H75" s="65">
-        <f>SUM(H72+H73-H74)</f>
-        <v>0</v>
-      </c>
-      <c r="J75" s="47"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H75" s="20">
+        <f>SUMIF(E:E,G75,B:B)</f>
+        <v>0</v>
+      </c>
+      <c r="J75" s="47" t="s">
+        <v>60</v>
+      </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="1:11" ht="21.6" x14ac:dyDescent="0.65">
+    <row r="76" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A76" s="36"/>
       <c r="B76" s="71"/>
       <c r="C76" s="37"/>
       <c r="D76" s="34"/>
       <c r="E76" s="24"/>
-      <c r="G76" s="40"/>
-      <c r="H76" s="46"/>
-      <c r="J76" s="47"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H76" s="20">
+        <f>SUMIF(E:E,G76,B:B)</f>
+        <v>0</v>
+      </c>
+      <c r="J76" s="47" t="s">
+        <v>92</v>
+      </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="1:11" ht="22.2" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A77" s="36"/>
       <c r="B77" s="71"/>
       <c r="C77" s="37"/>
       <c r="D77" s="34"/>
       <c r="E77" s="24"/>
-      <c r="G77" s="40"/>
-      <c r="J77" s="47"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="H77" s="20">
+        <f>SUMIF(E:E,G77,B:B)</f>
+        <v>0</v>
+      </c>
+      <c r="J77" s="47" t="s">
+        <v>133</v>
+      </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="78" spans="1:11" ht="22.2" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A78" s="38"/>
-      <c r="B78" s="73"/>
-      <c r="C78" s="31"/>
+    <row r="78" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A78" s="36"/>
+      <c r="B78" s="71"/>
+      <c r="C78" s="37"/>
       <c r="D78" s="34"/>
       <c r="E78" s="24"/>
-      <c r="G78" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="H78" s="55">
-        <f>H14+H15+H16+H17+H18+H19+H20+H21+H22+H23+H24+H25+H26+H27+H28+H29+H30+H31+H32+H33+H34+H35+H36+H37+H38+H39+H40+H41+H42+H43+H44+H45+H46+H47+H48+H49+H50+H51+H52+H53+H54+H55+H56+H57+H58</f>
-        <v>0</v>
-      </c>
-      <c r="J78" s="47"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H78" s="20">
+        <f>SUMIF(E:E,G78,B:B)</f>
+        <v>0</v>
+      </c>
+      <c r="J78" s="47" t="s">
+        <v>128</v>
+      </c>
       <c r="K78" s="3"/>
     </row>
-    <row r="79" spans="1:11" ht="22.2" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A79" s="38"/>
-      <c r="B79" s="72"/>
-      <c r="C79" s="39"/>
+    <row r="79" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A79" s="36"/>
+      <c r="B79" s="71"/>
+      <c r="C79" s="37"/>
       <c r="D79" s="34"/>
       <c r="E79" s="24"/>
-      <c r="G79" s="56" t="s">
-        <v>140</v>
-      </c>
-      <c r="H79" s="57">
-        <f>H60+H61+H62+H63+H64+H65+H66</f>
-        <v>0</v>
+      <c r="F79" s="35"/>
+      <c r="G79" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="J79" s="47"/>
       <c r="K79" s="3"/>
     </row>
-    <row r="80" spans="1:11" ht="22.2" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A80" s="44">
-        <f>SUM(A5:A24)</f>
-        <v>0</v>
-      </c>
-      <c r="B80" s="75">
-        <f>SUM(B26:B79)</f>
-        <v>0</v>
-      </c>
-      <c r="C80" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="D80" s="45"/>
-      <c r="E80" s="45"/>
-      <c r="G80" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="H80" s="59">
-        <f>H68</f>
-        <v>0</v>
-      </c>
-      <c r="J80" s="47"/>
+    <row r="80" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A80" s="36"/>
+      <c r="B80" s="71"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="35"/>
+      <c r="G80" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H80" s="20">
+        <f>SUMIF(E:E,G80,B:B)</f>
+        <v>0</v>
+      </c>
+      <c r="J80" s="47" t="s">
+        <v>126</v>
+      </c>
       <c r="K80" s="3"/>
     </row>
-    <row r="81" spans="1:11" ht="22.2" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A81" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="B81" s="75">
-        <f>A80-B80</f>
-        <v>0</v>
-      </c>
-      <c r="G81" s="60" t="s">
+    <row r="81" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A81" s="36"/>
+      <c r="B81" s="71"/>
+      <c r="C81" s="37"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="H81" s="61">
-        <f>SUM(H78:H80)</f>
+      <c r="H81" s="22">
+        <f>SUM(H26:H80)</f>
         <v>0</v>
       </c>
       <c r="J81" s="47"/>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="G82" s="40"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="B83" s="76"/>
-      <c r="C83" s="77"/>
-      <c r="G83" s="40"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="B84" s="76"/>
-      <c r="C84" s="80"/>
-      <c r="G84" s="40"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="B85" s="76"/>
-      <c r="C85" s="81"/>
-      <c r="G85" s="40"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="B86" s="83"/>
-      <c r="C86" s="82"/>
-      <c r="G86" s="40"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="B87" s="76"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="B88" s="79"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="B89" s="78"/>
-      <c r="C89" s="82"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="B90" s="78"/>
+    <row r="82" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A82" s="36"/>
+      <c r="B82" s="71"/>
+      <c r="C82" s="37"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="35"/>
+      <c r="H82" s="12"/>
+      <c r="J82" s="47"/>
+      <c r="K82" s="3"/>
+    </row>
+    <row r="83" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A83" s="36"/>
+      <c r="B83" s="71"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H83" s="42"/>
+      <c r="J83" s="47"/>
+      <c r="K83" s="3"/>
+    </row>
+    <row r="84" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A84" s="36"/>
+      <c r="B84" s="71"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="35"/>
+      <c r="G84" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" s="65">
+        <f>SUMIF(E:E,G84,A:A)</f>
+        <v>0</v>
+      </c>
+      <c r="J84" s="47"/>
+      <c r="K84" s="3"/>
+    </row>
+    <row r="85" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A85" s="36"/>
+      <c r="B85" s="71"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="H85" s="65">
+        <f>H24-H84</f>
+        <v>0</v>
+      </c>
+      <c r="J85" s="47"/>
+      <c r="K85" s="3"/>
+    </row>
+    <row r="86" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A86" s="36"/>
+      <c r="B86" s="71"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="H86" s="65">
+        <f>H81</f>
+        <v>0</v>
+      </c>
+      <c r="J86" s="47"/>
+      <c r="K86" s="3"/>
+    </row>
+    <row r="87" spans="1:11" ht="21.6" x14ac:dyDescent="0.65">
+      <c r="A87" s="36"/>
+      <c r="B87" s="71"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="H87" s="65">
+        <f>SUM(H84+H85-H86)</f>
+        <v>0</v>
+      </c>
+      <c r="J87" s="47"/>
+      <c r="K87" s="3"/>
+    </row>
+    <row r="88" spans="1:11" ht="21.6" x14ac:dyDescent="0.65">
+      <c r="A88" s="36"/>
+      <c r="B88" s="71"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="24"/>
+      <c r="G88" s="40"/>
+      <c r="H88" s="46"/>
+      <c r="J88" s="47"/>
+      <c r="K88" s="3"/>
+    </row>
+    <row r="89" spans="1:11" ht="22.2" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A89" s="36"/>
+      <c r="B89" s="71"/>
+      <c r="C89" s="37"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="24"/>
+      <c r="G89" s="40"/>
+      <c r="J89" s="47"/>
+      <c r="K89" s="3"/>
+    </row>
+    <row r="90" spans="1:11" ht="22.2" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A90" s="38"/>
+      <c r="B90" s="73"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="34"/>
+      <c r="E90" s="24"/>
+      <c r="G90" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="H90" s="55">
+        <f>H26+H27+H28+H29+H30+H31+H32+H33+H34+H35+H36+H37+H38+H39+H40+H41+H42+H43+H44+H45+H46+H47+H48+H49+H50+H51+H52+H53+H54+H55+H56+H57+H58+H59+H60+H61+H62+H63+H64+H65+H66+H67+H68+H69+H70</f>
+        <v>0</v>
+      </c>
+      <c r="J90" s="47"/>
+      <c r="K90" s="3"/>
+    </row>
+    <row r="91" spans="1:11" ht="22.2" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A91" s="38"/>
+      <c r="B91" s="72"/>
+      <c r="C91" s="39"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="24"/>
+      <c r="G91" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="H91" s="57">
+        <f>H72+H73+H74+H75+H76+H77+H78</f>
+        <v>0</v>
+      </c>
+      <c r="J91" s="47"/>
+      <c r="K91" s="3"/>
+    </row>
+    <row r="92" spans="1:11" ht="22.2" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A92" s="44">
+        <f>SUM(A5:A36)</f>
+        <v>0</v>
+      </c>
+      <c r="B92" s="75">
+        <f>SUM(B38:B91)</f>
+        <v>0</v>
+      </c>
+      <c r="C92" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D92" s="45"/>
+      <c r="E92" s="45"/>
+      <c r="G92" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="H92" s="59">
+        <f>H80</f>
+        <v>0</v>
+      </c>
+      <c r="J92" s="47"/>
+      <c r="K92" s="3"/>
+    </row>
+    <row r="93" spans="1:11" ht="22.2" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A93" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B93" s="75">
+        <f>A92-B92</f>
+        <v>0</v>
+      </c>
+      <c r="G93" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="H93" s="61">
+        <f>SUM(H90:H92)</f>
+        <v>0</v>
+      </c>
+      <c r="J93" s="47"/>
+      <c r="K93" s="3"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="G94" s="40"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="B95" s="76"/>
+      <c r="C95" s="77"/>
+      <c r="G95" s="40"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="B96" s="76"/>
+      <c r="C96" s="80"/>
+      <c r="G96" s="40"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.5">
+      <c r="B97" s="76"/>
+      <c r="C97" s="81"/>
+      <c r="G97" s="40"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.5">
+      <c r="B98" s="83"/>
+      <c r="C98" s="82"/>
+      <c r="G98" s="40"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.5">
+      <c r="B99" s="76"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.5">
+      <c r="B100" s="79"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.5">
+      <c r="B101" s="78"/>
+      <c r="C101" s="82"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.5">
+      <c r="B102" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4556,14 +4892,14 @@
     <mergeCell ref="A4:E4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E65517:E65541 JA65463:JA65487 SW65463:SW65487 ACS65463:ACS65487 AMO65463:AMO65487 AWK65463:AWK65487 BGG65463:BGG65487 BQC65463:BQC65487 BZY65463:BZY65487 CJU65463:CJU65487 CTQ65463:CTQ65487 DDM65463:DDM65487 DNI65463:DNI65487 DXE65463:DXE65487 EHA65463:EHA65487 EQW65463:EQW65487 FAS65463:FAS65487 FKO65463:FKO65487 FUK65463:FUK65487 GEG65463:GEG65487 GOC65463:GOC65487 GXY65463:GXY65487 HHU65463:HHU65487 HRQ65463:HRQ65487 IBM65463:IBM65487 ILI65463:ILI65487 IVE65463:IVE65487 JFA65463:JFA65487 JOW65463:JOW65487 JYS65463:JYS65487 KIO65463:KIO65487 KSK65463:KSK65487 LCG65463:LCG65487 LMC65463:LMC65487 LVY65463:LVY65487 MFU65463:MFU65487 MPQ65463:MPQ65487 MZM65463:MZM65487 NJI65463:NJI65487 NTE65463:NTE65487 ODA65463:ODA65487 OMW65463:OMW65487 OWS65463:OWS65487 PGO65463:PGO65487 PQK65463:PQK65487 QAG65463:QAG65487 QKC65463:QKC65487 QTY65463:QTY65487 RDU65463:RDU65487 RNQ65463:RNQ65487 RXM65463:RXM65487 SHI65463:SHI65487 SRE65463:SRE65487 TBA65463:TBA65487 TKW65463:TKW65487 TUS65463:TUS65487 UEO65463:UEO65487 UOK65463:UOK65487 UYG65463:UYG65487 VIC65463:VIC65487 VRY65463:VRY65487 WBU65463:WBU65487 WLQ65463:WLQ65487 WVM65463:WVM65487 E131053:E131077 JA130999:JA131023 SW130999:SW131023 ACS130999:ACS131023 AMO130999:AMO131023 AWK130999:AWK131023 BGG130999:BGG131023 BQC130999:BQC131023 BZY130999:BZY131023 CJU130999:CJU131023 CTQ130999:CTQ131023 DDM130999:DDM131023 DNI130999:DNI131023 DXE130999:DXE131023 EHA130999:EHA131023 EQW130999:EQW131023 FAS130999:FAS131023 FKO130999:FKO131023 FUK130999:FUK131023 GEG130999:GEG131023 GOC130999:GOC131023 GXY130999:GXY131023 HHU130999:HHU131023 HRQ130999:HRQ131023 IBM130999:IBM131023 ILI130999:ILI131023 IVE130999:IVE131023 JFA130999:JFA131023 JOW130999:JOW131023 JYS130999:JYS131023 KIO130999:KIO131023 KSK130999:KSK131023 LCG130999:LCG131023 LMC130999:LMC131023 LVY130999:LVY131023 MFU130999:MFU131023 MPQ130999:MPQ131023 MZM130999:MZM131023 NJI130999:NJI131023 NTE130999:NTE131023 ODA130999:ODA131023 OMW130999:OMW131023 OWS130999:OWS131023 PGO130999:PGO131023 PQK130999:PQK131023 QAG130999:QAG131023 QKC130999:QKC131023 QTY130999:QTY131023 RDU130999:RDU131023 RNQ130999:RNQ131023 RXM130999:RXM131023 SHI130999:SHI131023 SRE130999:SRE131023 TBA130999:TBA131023 TKW130999:TKW131023 TUS130999:TUS131023 UEO130999:UEO131023 UOK130999:UOK131023 UYG130999:UYG131023 VIC130999:VIC131023 VRY130999:VRY131023 WBU130999:WBU131023 WLQ130999:WLQ131023 WVM130999:WVM131023 E196589:E196613 JA196535:JA196559 SW196535:SW196559 ACS196535:ACS196559 AMO196535:AMO196559 AWK196535:AWK196559 BGG196535:BGG196559 BQC196535:BQC196559 BZY196535:BZY196559 CJU196535:CJU196559 CTQ196535:CTQ196559 DDM196535:DDM196559 DNI196535:DNI196559 DXE196535:DXE196559 EHA196535:EHA196559 EQW196535:EQW196559 FAS196535:FAS196559 FKO196535:FKO196559 FUK196535:FUK196559 GEG196535:GEG196559 GOC196535:GOC196559 GXY196535:GXY196559 HHU196535:HHU196559 HRQ196535:HRQ196559 IBM196535:IBM196559 ILI196535:ILI196559 IVE196535:IVE196559 JFA196535:JFA196559 JOW196535:JOW196559 JYS196535:JYS196559 KIO196535:KIO196559 KSK196535:KSK196559 LCG196535:LCG196559 LMC196535:LMC196559 LVY196535:LVY196559 MFU196535:MFU196559 MPQ196535:MPQ196559 MZM196535:MZM196559 NJI196535:NJI196559 NTE196535:NTE196559 ODA196535:ODA196559 OMW196535:OMW196559 OWS196535:OWS196559 PGO196535:PGO196559 PQK196535:PQK196559 QAG196535:QAG196559 QKC196535:QKC196559 QTY196535:QTY196559 RDU196535:RDU196559 RNQ196535:RNQ196559 RXM196535:RXM196559 SHI196535:SHI196559 SRE196535:SRE196559 TBA196535:TBA196559 TKW196535:TKW196559 TUS196535:TUS196559 UEO196535:UEO196559 UOK196535:UOK196559 UYG196535:UYG196559 VIC196535:VIC196559 VRY196535:VRY196559 WBU196535:WBU196559 WLQ196535:WLQ196559 WVM196535:WVM196559 E262125:E262149 JA262071:JA262095 SW262071:SW262095 ACS262071:ACS262095 AMO262071:AMO262095 AWK262071:AWK262095 BGG262071:BGG262095 BQC262071:BQC262095 BZY262071:BZY262095 CJU262071:CJU262095 CTQ262071:CTQ262095 DDM262071:DDM262095 DNI262071:DNI262095 DXE262071:DXE262095 EHA262071:EHA262095 EQW262071:EQW262095 FAS262071:FAS262095 FKO262071:FKO262095 FUK262071:FUK262095 GEG262071:GEG262095 GOC262071:GOC262095 GXY262071:GXY262095 HHU262071:HHU262095 HRQ262071:HRQ262095 IBM262071:IBM262095 ILI262071:ILI262095 IVE262071:IVE262095 JFA262071:JFA262095 JOW262071:JOW262095 JYS262071:JYS262095 KIO262071:KIO262095 KSK262071:KSK262095 LCG262071:LCG262095 LMC262071:LMC262095 LVY262071:LVY262095 MFU262071:MFU262095 MPQ262071:MPQ262095 MZM262071:MZM262095 NJI262071:NJI262095 NTE262071:NTE262095 ODA262071:ODA262095 OMW262071:OMW262095 OWS262071:OWS262095 PGO262071:PGO262095 PQK262071:PQK262095 QAG262071:QAG262095 QKC262071:QKC262095 QTY262071:QTY262095 RDU262071:RDU262095 RNQ262071:RNQ262095 RXM262071:RXM262095 SHI262071:SHI262095 SRE262071:SRE262095 TBA262071:TBA262095 TKW262071:TKW262095 TUS262071:TUS262095 UEO262071:UEO262095 UOK262071:UOK262095 UYG262071:UYG262095 VIC262071:VIC262095 VRY262071:VRY262095 WBU262071:WBU262095 WLQ262071:WLQ262095 WVM262071:WVM262095 E327661:E327685 JA327607:JA327631 SW327607:SW327631 ACS327607:ACS327631 AMO327607:AMO327631 AWK327607:AWK327631 BGG327607:BGG327631 BQC327607:BQC327631 BZY327607:BZY327631 CJU327607:CJU327631 CTQ327607:CTQ327631 DDM327607:DDM327631 DNI327607:DNI327631 DXE327607:DXE327631 EHA327607:EHA327631 EQW327607:EQW327631 FAS327607:FAS327631 FKO327607:FKO327631 FUK327607:FUK327631 GEG327607:GEG327631 GOC327607:GOC327631 GXY327607:GXY327631 HHU327607:HHU327631 HRQ327607:HRQ327631 IBM327607:IBM327631 ILI327607:ILI327631 IVE327607:IVE327631 JFA327607:JFA327631 JOW327607:JOW327631 JYS327607:JYS327631 KIO327607:KIO327631 KSK327607:KSK327631 LCG327607:LCG327631 LMC327607:LMC327631 LVY327607:LVY327631 MFU327607:MFU327631 MPQ327607:MPQ327631 MZM327607:MZM327631 NJI327607:NJI327631 NTE327607:NTE327631 ODA327607:ODA327631 OMW327607:OMW327631 OWS327607:OWS327631 PGO327607:PGO327631 PQK327607:PQK327631 QAG327607:QAG327631 QKC327607:QKC327631 QTY327607:QTY327631 RDU327607:RDU327631 RNQ327607:RNQ327631 RXM327607:RXM327631 SHI327607:SHI327631 SRE327607:SRE327631 TBA327607:TBA327631 TKW327607:TKW327631 TUS327607:TUS327631 UEO327607:UEO327631 UOK327607:UOK327631 UYG327607:UYG327631 VIC327607:VIC327631 VRY327607:VRY327631 WBU327607:WBU327631 WLQ327607:WLQ327631 WVM327607:WVM327631 E393197:E393221 JA393143:JA393167 SW393143:SW393167 ACS393143:ACS393167 AMO393143:AMO393167 AWK393143:AWK393167 BGG393143:BGG393167 BQC393143:BQC393167 BZY393143:BZY393167 CJU393143:CJU393167 CTQ393143:CTQ393167 DDM393143:DDM393167 DNI393143:DNI393167 DXE393143:DXE393167 EHA393143:EHA393167 EQW393143:EQW393167 FAS393143:FAS393167 FKO393143:FKO393167 FUK393143:FUK393167 GEG393143:GEG393167 GOC393143:GOC393167 GXY393143:GXY393167 HHU393143:HHU393167 HRQ393143:HRQ393167 IBM393143:IBM393167 ILI393143:ILI393167 IVE393143:IVE393167 JFA393143:JFA393167 JOW393143:JOW393167 JYS393143:JYS393167 KIO393143:KIO393167 KSK393143:KSK393167 LCG393143:LCG393167 LMC393143:LMC393167 LVY393143:LVY393167 MFU393143:MFU393167 MPQ393143:MPQ393167 MZM393143:MZM393167 NJI393143:NJI393167 NTE393143:NTE393167 ODA393143:ODA393167 OMW393143:OMW393167 OWS393143:OWS393167 PGO393143:PGO393167 PQK393143:PQK393167 QAG393143:QAG393167 QKC393143:QKC393167 QTY393143:QTY393167 RDU393143:RDU393167 RNQ393143:RNQ393167 RXM393143:RXM393167 SHI393143:SHI393167 SRE393143:SRE393167 TBA393143:TBA393167 TKW393143:TKW393167 TUS393143:TUS393167 UEO393143:UEO393167 UOK393143:UOK393167 UYG393143:UYG393167 VIC393143:VIC393167 VRY393143:VRY393167 WBU393143:WBU393167 WLQ393143:WLQ393167 WVM393143:WVM393167 E458733:E458757 JA458679:JA458703 SW458679:SW458703 ACS458679:ACS458703 AMO458679:AMO458703 AWK458679:AWK458703 BGG458679:BGG458703 BQC458679:BQC458703 BZY458679:BZY458703 CJU458679:CJU458703 CTQ458679:CTQ458703 DDM458679:DDM458703 DNI458679:DNI458703 DXE458679:DXE458703 EHA458679:EHA458703 EQW458679:EQW458703 FAS458679:FAS458703 FKO458679:FKO458703 FUK458679:FUK458703 GEG458679:GEG458703 GOC458679:GOC458703 GXY458679:GXY458703 HHU458679:HHU458703 HRQ458679:HRQ458703 IBM458679:IBM458703 ILI458679:ILI458703 IVE458679:IVE458703 JFA458679:JFA458703 JOW458679:JOW458703 JYS458679:JYS458703 KIO458679:KIO458703 KSK458679:KSK458703 LCG458679:LCG458703 LMC458679:LMC458703 LVY458679:LVY458703 MFU458679:MFU458703 MPQ458679:MPQ458703 MZM458679:MZM458703 NJI458679:NJI458703 NTE458679:NTE458703 ODA458679:ODA458703 OMW458679:OMW458703 OWS458679:OWS458703 PGO458679:PGO458703 PQK458679:PQK458703 QAG458679:QAG458703 QKC458679:QKC458703 QTY458679:QTY458703 RDU458679:RDU458703 RNQ458679:RNQ458703 RXM458679:RXM458703 SHI458679:SHI458703 SRE458679:SRE458703 TBA458679:TBA458703 TKW458679:TKW458703 TUS458679:TUS458703 UEO458679:UEO458703 UOK458679:UOK458703 UYG458679:UYG458703 VIC458679:VIC458703 VRY458679:VRY458703 WBU458679:WBU458703 WLQ458679:WLQ458703 WVM458679:WVM458703 E524269:E524293 JA524215:JA524239 SW524215:SW524239 ACS524215:ACS524239 AMO524215:AMO524239 AWK524215:AWK524239 BGG524215:BGG524239 BQC524215:BQC524239 BZY524215:BZY524239 CJU524215:CJU524239 CTQ524215:CTQ524239 DDM524215:DDM524239 DNI524215:DNI524239 DXE524215:DXE524239 EHA524215:EHA524239 EQW524215:EQW524239 FAS524215:FAS524239 FKO524215:FKO524239 FUK524215:FUK524239 GEG524215:GEG524239 GOC524215:GOC524239 GXY524215:GXY524239 HHU524215:HHU524239 HRQ524215:HRQ524239 IBM524215:IBM524239 ILI524215:ILI524239 IVE524215:IVE524239 JFA524215:JFA524239 JOW524215:JOW524239 JYS524215:JYS524239 KIO524215:KIO524239 KSK524215:KSK524239 LCG524215:LCG524239 LMC524215:LMC524239 LVY524215:LVY524239 MFU524215:MFU524239 MPQ524215:MPQ524239 MZM524215:MZM524239 NJI524215:NJI524239 NTE524215:NTE524239 ODA524215:ODA524239 OMW524215:OMW524239 OWS524215:OWS524239 PGO524215:PGO524239 PQK524215:PQK524239 QAG524215:QAG524239 QKC524215:QKC524239 QTY524215:QTY524239 RDU524215:RDU524239 RNQ524215:RNQ524239 RXM524215:RXM524239 SHI524215:SHI524239 SRE524215:SRE524239 TBA524215:TBA524239 TKW524215:TKW524239 TUS524215:TUS524239 UEO524215:UEO524239 UOK524215:UOK524239 UYG524215:UYG524239 VIC524215:VIC524239 VRY524215:VRY524239 WBU524215:WBU524239 WLQ524215:WLQ524239 WVM524215:WVM524239 E589805:E589829 JA589751:JA589775 SW589751:SW589775 ACS589751:ACS589775 AMO589751:AMO589775 AWK589751:AWK589775 BGG589751:BGG589775 BQC589751:BQC589775 BZY589751:BZY589775 CJU589751:CJU589775 CTQ589751:CTQ589775 DDM589751:DDM589775 DNI589751:DNI589775 DXE589751:DXE589775 EHA589751:EHA589775 EQW589751:EQW589775 FAS589751:FAS589775 FKO589751:FKO589775 FUK589751:FUK589775 GEG589751:GEG589775 GOC589751:GOC589775 GXY589751:GXY589775 HHU589751:HHU589775 HRQ589751:HRQ589775 IBM589751:IBM589775 ILI589751:ILI589775 IVE589751:IVE589775 JFA589751:JFA589775 JOW589751:JOW589775 JYS589751:JYS589775 KIO589751:KIO589775 KSK589751:KSK589775 LCG589751:LCG589775 LMC589751:LMC589775 LVY589751:LVY589775 MFU589751:MFU589775 MPQ589751:MPQ589775 MZM589751:MZM589775 NJI589751:NJI589775 NTE589751:NTE589775 ODA589751:ODA589775 OMW589751:OMW589775 OWS589751:OWS589775 PGO589751:PGO589775 PQK589751:PQK589775 QAG589751:QAG589775 QKC589751:QKC589775 QTY589751:QTY589775 RDU589751:RDU589775 RNQ589751:RNQ589775 RXM589751:RXM589775 SHI589751:SHI589775 SRE589751:SRE589775 TBA589751:TBA589775 TKW589751:TKW589775 TUS589751:TUS589775 UEO589751:UEO589775 UOK589751:UOK589775 UYG589751:UYG589775 VIC589751:VIC589775 VRY589751:VRY589775 WBU589751:WBU589775 WLQ589751:WLQ589775 WVM589751:WVM589775 E655341:E655365 JA655287:JA655311 SW655287:SW655311 ACS655287:ACS655311 AMO655287:AMO655311 AWK655287:AWK655311 BGG655287:BGG655311 BQC655287:BQC655311 BZY655287:BZY655311 CJU655287:CJU655311 CTQ655287:CTQ655311 DDM655287:DDM655311 DNI655287:DNI655311 DXE655287:DXE655311 EHA655287:EHA655311 EQW655287:EQW655311 FAS655287:FAS655311 FKO655287:FKO655311 FUK655287:FUK655311 GEG655287:GEG655311 GOC655287:GOC655311 GXY655287:GXY655311 HHU655287:HHU655311 HRQ655287:HRQ655311 IBM655287:IBM655311 ILI655287:ILI655311 IVE655287:IVE655311 JFA655287:JFA655311 JOW655287:JOW655311 JYS655287:JYS655311 KIO655287:KIO655311 KSK655287:KSK655311 LCG655287:LCG655311 LMC655287:LMC655311 LVY655287:LVY655311 MFU655287:MFU655311 MPQ655287:MPQ655311 MZM655287:MZM655311 NJI655287:NJI655311 NTE655287:NTE655311 ODA655287:ODA655311 OMW655287:OMW655311 OWS655287:OWS655311 PGO655287:PGO655311 PQK655287:PQK655311 QAG655287:QAG655311 QKC655287:QKC655311 QTY655287:QTY655311 RDU655287:RDU655311 RNQ655287:RNQ655311 RXM655287:RXM655311 SHI655287:SHI655311 SRE655287:SRE655311 TBA655287:TBA655311 TKW655287:TKW655311 TUS655287:TUS655311 UEO655287:UEO655311 UOK655287:UOK655311 UYG655287:UYG655311 VIC655287:VIC655311 VRY655287:VRY655311 WBU655287:WBU655311 WLQ655287:WLQ655311 WVM655287:WVM655311 E720877:E720901 JA720823:JA720847 SW720823:SW720847 ACS720823:ACS720847 AMO720823:AMO720847 AWK720823:AWK720847 BGG720823:BGG720847 BQC720823:BQC720847 BZY720823:BZY720847 CJU720823:CJU720847 CTQ720823:CTQ720847 DDM720823:DDM720847 DNI720823:DNI720847 DXE720823:DXE720847 EHA720823:EHA720847 EQW720823:EQW720847 FAS720823:FAS720847 FKO720823:FKO720847 FUK720823:FUK720847 GEG720823:GEG720847 GOC720823:GOC720847 GXY720823:GXY720847 HHU720823:HHU720847 HRQ720823:HRQ720847 IBM720823:IBM720847 ILI720823:ILI720847 IVE720823:IVE720847 JFA720823:JFA720847 JOW720823:JOW720847 JYS720823:JYS720847 KIO720823:KIO720847 KSK720823:KSK720847 LCG720823:LCG720847 LMC720823:LMC720847 LVY720823:LVY720847 MFU720823:MFU720847 MPQ720823:MPQ720847 MZM720823:MZM720847 NJI720823:NJI720847 NTE720823:NTE720847 ODA720823:ODA720847 OMW720823:OMW720847 OWS720823:OWS720847 PGO720823:PGO720847 PQK720823:PQK720847 QAG720823:QAG720847 QKC720823:QKC720847 QTY720823:QTY720847 RDU720823:RDU720847 RNQ720823:RNQ720847 RXM720823:RXM720847 SHI720823:SHI720847 SRE720823:SRE720847 TBA720823:TBA720847 TKW720823:TKW720847 TUS720823:TUS720847 UEO720823:UEO720847 UOK720823:UOK720847 UYG720823:UYG720847 VIC720823:VIC720847 VRY720823:VRY720847 WBU720823:WBU720847 WLQ720823:WLQ720847 WVM720823:WVM720847 E786413:E786437 JA786359:JA786383 SW786359:SW786383 ACS786359:ACS786383 AMO786359:AMO786383 AWK786359:AWK786383 BGG786359:BGG786383 BQC786359:BQC786383 BZY786359:BZY786383 CJU786359:CJU786383 CTQ786359:CTQ786383 DDM786359:DDM786383 DNI786359:DNI786383 DXE786359:DXE786383 EHA786359:EHA786383 EQW786359:EQW786383 FAS786359:FAS786383 FKO786359:FKO786383 FUK786359:FUK786383 GEG786359:GEG786383 GOC786359:GOC786383 GXY786359:GXY786383 HHU786359:HHU786383 HRQ786359:HRQ786383 IBM786359:IBM786383 ILI786359:ILI786383 IVE786359:IVE786383 JFA786359:JFA786383 JOW786359:JOW786383 JYS786359:JYS786383 KIO786359:KIO786383 KSK786359:KSK786383 LCG786359:LCG786383 LMC786359:LMC786383 LVY786359:LVY786383 MFU786359:MFU786383 MPQ786359:MPQ786383 MZM786359:MZM786383 NJI786359:NJI786383 NTE786359:NTE786383 ODA786359:ODA786383 OMW786359:OMW786383 OWS786359:OWS786383 PGO786359:PGO786383 PQK786359:PQK786383 QAG786359:QAG786383 QKC786359:QKC786383 QTY786359:QTY786383 RDU786359:RDU786383 RNQ786359:RNQ786383 RXM786359:RXM786383 SHI786359:SHI786383 SRE786359:SRE786383 TBA786359:TBA786383 TKW786359:TKW786383 TUS786359:TUS786383 UEO786359:UEO786383 UOK786359:UOK786383 UYG786359:UYG786383 VIC786359:VIC786383 VRY786359:VRY786383 WBU786359:WBU786383 WLQ786359:WLQ786383 WVM786359:WVM786383 E851949:E851973 JA851895:JA851919 SW851895:SW851919 ACS851895:ACS851919 AMO851895:AMO851919 AWK851895:AWK851919 BGG851895:BGG851919 BQC851895:BQC851919 BZY851895:BZY851919 CJU851895:CJU851919 CTQ851895:CTQ851919 DDM851895:DDM851919 DNI851895:DNI851919 DXE851895:DXE851919 EHA851895:EHA851919 EQW851895:EQW851919 FAS851895:FAS851919 FKO851895:FKO851919 FUK851895:FUK851919 GEG851895:GEG851919 GOC851895:GOC851919 GXY851895:GXY851919 HHU851895:HHU851919 HRQ851895:HRQ851919 IBM851895:IBM851919 ILI851895:ILI851919 IVE851895:IVE851919 JFA851895:JFA851919 JOW851895:JOW851919 JYS851895:JYS851919 KIO851895:KIO851919 KSK851895:KSK851919 LCG851895:LCG851919 LMC851895:LMC851919 LVY851895:LVY851919 MFU851895:MFU851919 MPQ851895:MPQ851919 MZM851895:MZM851919 NJI851895:NJI851919 NTE851895:NTE851919 ODA851895:ODA851919 OMW851895:OMW851919 OWS851895:OWS851919 PGO851895:PGO851919 PQK851895:PQK851919 QAG851895:QAG851919 QKC851895:QKC851919 QTY851895:QTY851919 RDU851895:RDU851919 RNQ851895:RNQ851919 RXM851895:RXM851919 SHI851895:SHI851919 SRE851895:SRE851919 TBA851895:TBA851919 TKW851895:TKW851919 TUS851895:TUS851919 UEO851895:UEO851919 UOK851895:UOK851919 UYG851895:UYG851919 VIC851895:VIC851919 VRY851895:VRY851919 WBU851895:WBU851919 WLQ851895:WLQ851919 WVM851895:WVM851919 E917485:E917509 JA917431:JA917455 SW917431:SW917455 ACS917431:ACS917455 AMO917431:AMO917455 AWK917431:AWK917455 BGG917431:BGG917455 BQC917431:BQC917455 BZY917431:BZY917455 CJU917431:CJU917455 CTQ917431:CTQ917455 DDM917431:DDM917455 DNI917431:DNI917455 DXE917431:DXE917455 EHA917431:EHA917455 EQW917431:EQW917455 FAS917431:FAS917455 FKO917431:FKO917455 FUK917431:FUK917455 GEG917431:GEG917455 GOC917431:GOC917455 GXY917431:GXY917455 HHU917431:HHU917455 HRQ917431:HRQ917455 IBM917431:IBM917455 ILI917431:ILI917455 IVE917431:IVE917455 JFA917431:JFA917455 JOW917431:JOW917455 JYS917431:JYS917455 KIO917431:KIO917455 KSK917431:KSK917455 LCG917431:LCG917455 LMC917431:LMC917455 LVY917431:LVY917455 MFU917431:MFU917455 MPQ917431:MPQ917455 MZM917431:MZM917455 NJI917431:NJI917455 NTE917431:NTE917455 ODA917431:ODA917455 OMW917431:OMW917455 OWS917431:OWS917455 PGO917431:PGO917455 PQK917431:PQK917455 QAG917431:QAG917455 QKC917431:QKC917455 QTY917431:QTY917455 RDU917431:RDU917455 RNQ917431:RNQ917455 RXM917431:RXM917455 SHI917431:SHI917455 SRE917431:SRE917455 TBA917431:TBA917455 TKW917431:TKW917455 TUS917431:TUS917455 UEO917431:UEO917455 UOK917431:UOK917455 UYG917431:UYG917455 VIC917431:VIC917455 VRY917431:VRY917455 WBU917431:WBU917455 WLQ917431:WLQ917455 WVM917431:WVM917455 E983021:E983045 JA982967:JA982991 SW982967:SW982991 ACS982967:ACS982991 AMO982967:AMO982991 AWK982967:AWK982991 BGG982967:BGG982991 BQC982967:BQC982991 BZY982967:BZY982991 CJU982967:CJU982991 CTQ982967:CTQ982991 DDM982967:DDM982991 DNI982967:DNI982991 DXE982967:DXE982991 EHA982967:EHA982991 EQW982967:EQW982991 FAS982967:FAS982991 FKO982967:FKO982991 FUK982967:FUK982991 GEG982967:GEG982991 GOC982967:GOC982991 GXY982967:GXY982991 HHU982967:HHU982991 HRQ982967:HRQ982991 IBM982967:IBM982991 ILI982967:ILI982991 IVE982967:IVE982991 JFA982967:JFA982991 JOW982967:JOW982991 JYS982967:JYS982991 KIO982967:KIO982991 KSK982967:KSK982991 LCG982967:LCG982991 LMC982967:LMC982991 LVY982967:LVY982991 MFU982967:MFU982991 MPQ982967:MPQ982991 MZM982967:MZM982991 NJI982967:NJI982991 NTE982967:NTE982991 ODA982967:ODA982991 OMW982967:OMW982991 OWS982967:OWS982991 PGO982967:PGO982991 PQK982967:PQK982991 QAG982967:QAG982991 QKC982967:QKC982991 QTY982967:QTY982991 RDU982967:RDU982991 RNQ982967:RNQ982991 RXM982967:RXM982991 SHI982967:SHI982991 SRE982967:SRE982991 TBA982967:TBA982991 TKW982967:TKW982991 TUS982967:TUS982991 UEO982967:UEO982991 UOK982967:UOK982991 UYG982967:UYG982991 VIC982967:VIC982991 VRY982967:VRY982991 WBU982967:WBU982991 WLQ982967:WLQ982991 WVM982967:WVM982991 WVM5:WVM24 WLQ5:WLQ24 WBU5:WBU24 VRY5:VRY24 VIC5:VIC24 UYG5:UYG24 UOK5:UOK24 UEO5:UEO24 TUS5:TUS24 TKW5:TKW24 TBA5:TBA24 SRE5:SRE24 SHI5:SHI24 RXM5:RXM24 RNQ5:RNQ24 RDU5:RDU24 QTY5:QTY24 QKC5:QKC24 QAG5:QAG24 PQK5:PQK24 PGO5:PGO24 OWS5:OWS24 OMW5:OMW24 ODA5:ODA24 NTE5:NTE24 NJI5:NJI24 MZM5:MZM24 MPQ5:MPQ24 MFU5:MFU24 LVY5:LVY24 LMC5:LMC24 LCG5:LCG24 KSK5:KSK24 KIO5:KIO24 JYS5:JYS24 JOW5:JOW24 JFA5:JFA24 IVE5:IVE24 ILI5:ILI24 IBM5:IBM24 HRQ5:HRQ24 HHU5:HHU24 GXY5:GXY24 GOC5:GOC24 GEG5:GEG24 FUK5:FUK24 FKO5:FKO24 FAS5:FAS24 EQW5:EQW24 EHA5:EHA24 DXE5:DXE24 DNI5:DNI24 DDM5:DDM24 CTQ5:CTQ24 CJU5:CJU24 BZY5:BZY24 BQC5:BQC24 BGG5:BGG24 AWK5:AWK24 AMO5:AMO24 ACS5:ACS24 SW5:SW24 JA5:JA24 E13:E25" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E65529:E65553 JA65475:JA65499 SW65475:SW65499 ACS65475:ACS65499 AMO65475:AMO65499 AWK65475:AWK65499 BGG65475:BGG65499 BQC65475:BQC65499 BZY65475:BZY65499 CJU65475:CJU65499 CTQ65475:CTQ65499 DDM65475:DDM65499 DNI65475:DNI65499 DXE65475:DXE65499 EHA65475:EHA65499 EQW65475:EQW65499 FAS65475:FAS65499 FKO65475:FKO65499 FUK65475:FUK65499 GEG65475:GEG65499 GOC65475:GOC65499 GXY65475:GXY65499 HHU65475:HHU65499 HRQ65475:HRQ65499 IBM65475:IBM65499 ILI65475:ILI65499 IVE65475:IVE65499 JFA65475:JFA65499 JOW65475:JOW65499 JYS65475:JYS65499 KIO65475:KIO65499 KSK65475:KSK65499 LCG65475:LCG65499 LMC65475:LMC65499 LVY65475:LVY65499 MFU65475:MFU65499 MPQ65475:MPQ65499 MZM65475:MZM65499 NJI65475:NJI65499 NTE65475:NTE65499 ODA65475:ODA65499 OMW65475:OMW65499 OWS65475:OWS65499 PGO65475:PGO65499 PQK65475:PQK65499 QAG65475:QAG65499 QKC65475:QKC65499 QTY65475:QTY65499 RDU65475:RDU65499 RNQ65475:RNQ65499 RXM65475:RXM65499 SHI65475:SHI65499 SRE65475:SRE65499 TBA65475:TBA65499 TKW65475:TKW65499 TUS65475:TUS65499 UEO65475:UEO65499 UOK65475:UOK65499 UYG65475:UYG65499 VIC65475:VIC65499 VRY65475:VRY65499 WBU65475:WBU65499 WLQ65475:WLQ65499 WVM65475:WVM65499 E131065:E131089 JA131011:JA131035 SW131011:SW131035 ACS131011:ACS131035 AMO131011:AMO131035 AWK131011:AWK131035 BGG131011:BGG131035 BQC131011:BQC131035 BZY131011:BZY131035 CJU131011:CJU131035 CTQ131011:CTQ131035 DDM131011:DDM131035 DNI131011:DNI131035 DXE131011:DXE131035 EHA131011:EHA131035 EQW131011:EQW131035 FAS131011:FAS131035 FKO131011:FKO131035 FUK131011:FUK131035 GEG131011:GEG131035 GOC131011:GOC131035 GXY131011:GXY131035 HHU131011:HHU131035 HRQ131011:HRQ131035 IBM131011:IBM131035 ILI131011:ILI131035 IVE131011:IVE131035 JFA131011:JFA131035 JOW131011:JOW131035 JYS131011:JYS131035 KIO131011:KIO131035 KSK131011:KSK131035 LCG131011:LCG131035 LMC131011:LMC131035 LVY131011:LVY131035 MFU131011:MFU131035 MPQ131011:MPQ131035 MZM131011:MZM131035 NJI131011:NJI131035 NTE131011:NTE131035 ODA131011:ODA131035 OMW131011:OMW131035 OWS131011:OWS131035 PGO131011:PGO131035 PQK131011:PQK131035 QAG131011:QAG131035 QKC131011:QKC131035 QTY131011:QTY131035 RDU131011:RDU131035 RNQ131011:RNQ131035 RXM131011:RXM131035 SHI131011:SHI131035 SRE131011:SRE131035 TBA131011:TBA131035 TKW131011:TKW131035 TUS131011:TUS131035 UEO131011:UEO131035 UOK131011:UOK131035 UYG131011:UYG131035 VIC131011:VIC131035 VRY131011:VRY131035 WBU131011:WBU131035 WLQ131011:WLQ131035 WVM131011:WVM131035 E196601:E196625 JA196547:JA196571 SW196547:SW196571 ACS196547:ACS196571 AMO196547:AMO196571 AWK196547:AWK196571 BGG196547:BGG196571 BQC196547:BQC196571 BZY196547:BZY196571 CJU196547:CJU196571 CTQ196547:CTQ196571 DDM196547:DDM196571 DNI196547:DNI196571 DXE196547:DXE196571 EHA196547:EHA196571 EQW196547:EQW196571 FAS196547:FAS196571 FKO196547:FKO196571 FUK196547:FUK196571 GEG196547:GEG196571 GOC196547:GOC196571 GXY196547:GXY196571 HHU196547:HHU196571 HRQ196547:HRQ196571 IBM196547:IBM196571 ILI196547:ILI196571 IVE196547:IVE196571 JFA196547:JFA196571 JOW196547:JOW196571 JYS196547:JYS196571 KIO196547:KIO196571 KSK196547:KSK196571 LCG196547:LCG196571 LMC196547:LMC196571 LVY196547:LVY196571 MFU196547:MFU196571 MPQ196547:MPQ196571 MZM196547:MZM196571 NJI196547:NJI196571 NTE196547:NTE196571 ODA196547:ODA196571 OMW196547:OMW196571 OWS196547:OWS196571 PGO196547:PGO196571 PQK196547:PQK196571 QAG196547:QAG196571 QKC196547:QKC196571 QTY196547:QTY196571 RDU196547:RDU196571 RNQ196547:RNQ196571 RXM196547:RXM196571 SHI196547:SHI196571 SRE196547:SRE196571 TBA196547:TBA196571 TKW196547:TKW196571 TUS196547:TUS196571 UEO196547:UEO196571 UOK196547:UOK196571 UYG196547:UYG196571 VIC196547:VIC196571 VRY196547:VRY196571 WBU196547:WBU196571 WLQ196547:WLQ196571 WVM196547:WVM196571 E262137:E262161 JA262083:JA262107 SW262083:SW262107 ACS262083:ACS262107 AMO262083:AMO262107 AWK262083:AWK262107 BGG262083:BGG262107 BQC262083:BQC262107 BZY262083:BZY262107 CJU262083:CJU262107 CTQ262083:CTQ262107 DDM262083:DDM262107 DNI262083:DNI262107 DXE262083:DXE262107 EHA262083:EHA262107 EQW262083:EQW262107 FAS262083:FAS262107 FKO262083:FKO262107 FUK262083:FUK262107 GEG262083:GEG262107 GOC262083:GOC262107 GXY262083:GXY262107 HHU262083:HHU262107 HRQ262083:HRQ262107 IBM262083:IBM262107 ILI262083:ILI262107 IVE262083:IVE262107 JFA262083:JFA262107 JOW262083:JOW262107 JYS262083:JYS262107 KIO262083:KIO262107 KSK262083:KSK262107 LCG262083:LCG262107 LMC262083:LMC262107 LVY262083:LVY262107 MFU262083:MFU262107 MPQ262083:MPQ262107 MZM262083:MZM262107 NJI262083:NJI262107 NTE262083:NTE262107 ODA262083:ODA262107 OMW262083:OMW262107 OWS262083:OWS262107 PGO262083:PGO262107 PQK262083:PQK262107 QAG262083:QAG262107 QKC262083:QKC262107 QTY262083:QTY262107 RDU262083:RDU262107 RNQ262083:RNQ262107 RXM262083:RXM262107 SHI262083:SHI262107 SRE262083:SRE262107 TBA262083:TBA262107 TKW262083:TKW262107 TUS262083:TUS262107 UEO262083:UEO262107 UOK262083:UOK262107 UYG262083:UYG262107 VIC262083:VIC262107 VRY262083:VRY262107 WBU262083:WBU262107 WLQ262083:WLQ262107 WVM262083:WVM262107 E327673:E327697 JA327619:JA327643 SW327619:SW327643 ACS327619:ACS327643 AMO327619:AMO327643 AWK327619:AWK327643 BGG327619:BGG327643 BQC327619:BQC327643 BZY327619:BZY327643 CJU327619:CJU327643 CTQ327619:CTQ327643 DDM327619:DDM327643 DNI327619:DNI327643 DXE327619:DXE327643 EHA327619:EHA327643 EQW327619:EQW327643 FAS327619:FAS327643 FKO327619:FKO327643 FUK327619:FUK327643 GEG327619:GEG327643 GOC327619:GOC327643 GXY327619:GXY327643 HHU327619:HHU327643 HRQ327619:HRQ327643 IBM327619:IBM327643 ILI327619:ILI327643 IVE327619:IVE327643 JFA327619:JFA327643 JOW327619:JOW327643 JYS327619:JYS327643 KIO327619:KIO327643 KSK327619:KSK327643 LCG327619:LCG327643 LMC327619:LMC327643 LVY327619:LVY327643 MFU327619:MFU327643 MPQ327619:MPQ327643 MZM327619:MZM327643 NJI327619:NJI327643 NTE327619:NTE327643 ODA327619:ODA327643 OMW327619:OMW327643 OWS327619:OWS327643 PGO327619:PGO327643 PQK327619:PQK327643 QAG327619:QAG327643 QKC327619:QKC327643 QTY327619:QTY327643 RDU327619:RDU327643 RNQ327619:RNQ327643 RXM327619:RXM327643 SHI327619:SHI327643 SRE327619:SRE327643 TBA327619:TBA327643 TKW327619:TKW327643 TUS327619:TUS327643 UEO327619:UEO327643 UOK327619:UOK327643 UYG327619:UYG327643 VIC327619:VIC327643 VRY327619:VRY327643 WBU327619:WBU327643 WLQ327619:WLQ327643 WVM327619:WVM327643 E393209:E393233 JA393155:JA393179 SW393155:SW393179 ACS393155:ACS393179 AMO393155:AMO393179 AWK393155:AWK393179 BGG393155:BGG393179 BQC393155:BQC393179 BZY393155:BZY393179 CJU393155:CJU393179 CTQ393155:CTQ393179 DDM393155:DDM393179 DNI393155:DNI393179 DXE393155:DXE393179 EHA393155:EHA393179 EQW393155:EQW393179 FAS393155:FAS393179 FKO393155:FKO393179 FUK393155:FUK393179 GEG393155:GEG393179 GOC393155:GOC393179 GXY393155:GXY393179 HHU393155:HHU393179 HRQ393155:HRQ393179 IBM393155:IBM393179 ILI393155:ILI393179 IVE393155:IVE393179 JFA393155:JFA393179 JOW393155:JOW393179 JYS393155:JYS393179 KIO393155:KIO393179 KSK393155:KSK393179 LCG393155:LCG393179 LMC393155:LMC393179 LVY393155:LVY393179 MFU393155:MFU393179 MPQ393155:MPQ393179 MZM393155:MZM393179 NJI393155:NJI393179 NTE393155:NTE393179 ODA393155:ODA393179 OMW393155:OMW393179 OWS393155:OWS393179 PGO393155:PGO393179 PQK393155:PQK393179 QAG393155:QAG393179 QKC393155:QKC393179 QTY393155:QTY393179 RDU393155:RDU393179 RNQ393155:RNQ393179 RXM393155:RXM393179 SHI393155:SHI393179 SRE393155:SRE393179 TBA393155:TBA393179 TKW393155:TKW393179 TUS393155:TUS393179 UEO393155:UEO393179 UOK393155:UOK393179 UYG393155:UYG393179 VIC393155:VIC393179 VRY393155:VRY393179 WBU393155:WBU393179 WLQ393155:WLQ393179 WVM393155:WVM393179 E458745:E458769 JA458691:JA458715 SW458691:SW458715 ACS458691:ACS458715 AMO458691:AMO458715 AWK458691:AWK458715 BGG458691:BGG458715 BQC458691:BQC458715 BZY458691:BZY458715 CJU458691:CJU458715 CTQ458691:CTQ458715 DDM458691:DDM458715 DNI458691:DNI458715 DXE458691:DXE458715 EHA458691:EHA458715 EQW458691:EQW458715 FAS458691:FAS458715 FKO458691:FKO458715 FUK458691:FUK458715 GEG458691:GEG458715 GOC458691:GOC458715 GXY458691:GXY458715 HHU458691:HHU458715 HRQ458691:HRQ458715 IBM458691:IBM458715 ILI458691:ILI458715 IVE458691:IVE458715 JFA458691:JFA458715 JOW458691:JOW458715 JYS458691:JYS458715 KIO458691:KIO458715 KSK458691:KSK458715 LCG458691:LCG458715 LMC458691:LMC458715 LVY458691:LVY458715 MFU458691:MFU458715 MPQ458691:MPQ458715 MZM458691:MZM458715 NJI458691:NJI458715 NTE458691:NTE458715 ODA458691:ODA458715 OMW458691:OMW458715 OWS458691:OWS458715 PGO458691:PGO458715 PQK458691:PQK458715 QAG458691:QAG458715 QKC458691:QKC458715 QTY458691:QTY458715 RDU458691:RDU458715 RNQ458691:RNQ458715 RXM458691:RXM458715 SHI458691:SHI458715 SRE458691:SRE458715 TBA458691:TBA458715 TKW458691:TKW458715 TUS458691:TUS458715 UEO458691:UEO458715 UOK458691:UOK458715 UYG458691:UYG458715 VIC458691:VIC458715 VRY458691:VRY458715 WBU458691:WBU458715 WLQ458691:WLQ458715 WVM458691:WVM458715 E524281:E524305 JA524227:JA524251 SW524227:SW524251 ACS524227:ACS524251 AMO524227:AMO524251 AWK524227:AWK524251 BGG524227:BGG524251 BQC524227:BQC524251 BZY524227:BZY524251 CJU524227:CJU524251 CTQ524227:CTQ524251 DDM524227:DDM524251 DNI524227:DNI524251 DXE524227:DXE524251 EHA524227:EHA524251 EQW524227:EQW524251 FAS524227:FAS524251 FKO524227:FKO524251 FUK524227:FUK524251 GEG524227:GEG524251 GOC524227:GOC524251 GXY524227:GXY524251 HHU524227:HHU524251 HRQ524227:HRQ524251 IBM524227:IBM524251 ILI524227:ILI524251 IVE524227:IVE524251 JFA524227:JFA524251 JOW524227:JOW524251 JYS524227:JYS524251 KIO524227:KIO524251 KSK524227:KSK524251 LCG524227:LCG524251 LMC524227:LMC524251 LVY524227:LVY524251 MFU524227:MFU524251 MPQ524227:MPQ524251 MZM524227:MZM524251 NJI524227:NJI524251 NTE524227:NTE524251 ODA524227:ODA524251 OMW524227:OMW524251 OWS524227:OWS524251 PGO524227:PGO524251 PQK524227:PQK524251 QAG524227:QAG524251 QKC524227:QKC524251 QTY524227:QTY524251 RDU524227:RDU524251 RNQ524227:RNQ524251 RXM524227:RXM524251 SHI524227:SHI524251 SRE524227:SRE524251 TBA524227:TBA524251 TKW524227:TKW524251 TUS524227:TUS524251 UEO524227:UEO524251 UOK524227:UOK524251 UYG524227:UYG524251 VIC524227:VIC524251 VRY524227:VRY524251 WBU524227:WBU524251 WLQ524227:WLQ524251 WVM524227:WVM524251 E589817:E589841 JA589763:JA589787 SW589763:SW589787 ACS589763:ACS589787 AMO589763:AMO589787 AWK589763:AWK589787 BGG589763:BGG589787 BQC589763:BQC589787 BZY589763:BZY589787 CJU589763:CJU589787 CTQ589763:CTQ589787 DDM589763:DDM589787 DNI589763:DNI589787 DXE589763:DXE589787 EHA589763:EHA589787 EQW589763:EQW589787 FAS589763:FAS589787 FKO589763:FKO589787 FUK589763:FUK589787 GEG589763:GEG589787 GOC589763:GOC589787 GXY589763:GXY589787 HHU589763:HHU589787 HRQ589763:HRQ589787 IBM589763:IBM589787 ILI589763:ILI589787 IVE589763:IVE589787 JFA589763:JFA589787 JOW589763:JOW589787 JYS589763:JYS589787 KIO589763:KIO589787 KSK589763:KSK589787 LCG589763:LCG589787 LMC589763:LMC589787 LVY589763:LVY589787 MFU589763:MFU589787 MPQ589763:MPQ589787 MZM589763:MZM589787 NJI589763:NJI589787 NTE589763:NTE589787 ODA589763:ODA589787 OMW589763:OMW589787 OWS589763:OWS589787 PGO589763:PGO589787 PQK589763:PQK589787 QAG589763:QAG589787 QKC589763:QKC589787 QTY589763:QTY589787 RDU589763:RDU589787 RNQ589763:RNQ589787 RXM589763:RXM589787 SHI589763:SHI589787 SRE589763:SRE589787 TBA589763:TBA589787 TKW589763:TKW589787 TUS589763:TUS589787 UEO589763:UEO589787 UOK589763:UOK589787 UYG589763:UYG589787 VIC589763:VIC589787 VRY589763:VRY589787 WBU589763:WBU589787 WLQ589763:WLQ589787 WVM589763:WVM589787 E655353:E655377 JA655299:JA655323 SW655299:SW655323 ACS655299:ACS655323 AMO655299:AMO655323 AWK655299:AWK655323 BGG655299:BGG655323 BQC655299:BQC655323 BZY655299:BZY655323 CJU655299:CJU655323 CTQ655299:CTQ655323 DDM655299:DDM655323 DNI655299:DNI655323 DXE655299:DXE655323 EHA655299:EHA655323 EQW655299:EQW655323 FAS655299:FAS655323 FKO655299:FKO655323 FUK655299:FUK655323 GEG655299:GEG655323 GOC655299:GOC655323 GXY655299:GXY655323 HHU655299:HHU655323 HRQ655299:HRQ655323 IBM655299:IBM655323 ILI655299:ILI655323 IVE655299:IVE655323 JFA655299:JFA655323 JOW655299:JOW655323 JYS655299:JYS655323 KIO655299:KIO655323 KSK655299:KSK655323 LCG655299:LCG655323 LMC655299:LMC655323 LVY655299:LVY655323 MFU655299:MFU655323 MPQ655299:MPQ655323 MZM655299:MZM655323 NJI655299:NJI655323 NTE655299:NTE655323 ODA655299:ODA655323 OMW655299:OMW655323 OWS655299:OWS655323 PGO655299:PGO655323 PQK655299:PQK655323 QAG655299:QAG655323 QKC655299:QKC655323 QTY655299:QTY655323 RDU655299:RDU655323 RNQ655299:RNQ655323 RXM655299:RXM655323 SHI655299:SHI655323 SRE655299:SRE655323 TBA655299:TBA655323 TKW655299:TKW655323 TUS655299:TUS655323 UEO655299:UEO655323 UOK655299:UOK655323 UYG655299:UYG655323 VIC655299:VIC655323 VRY655299:VRY655323 WBU655299:WBU655323 WLQ655299:WLQ655323 WVM655299:WVM655323 E720889:E720913 JA720835:JA720859 SW720835:SW720859 ACS720835:ACS720859 AMO720835:AMO720859 AWK720835:AWK720859 BGG720835:BGG720859 BQC720835:BQC720859 BZY720835:BZY720859 CJU720835:CJU720859 CTQ720835:CTQ720859 DDM720835:DDM720859 DNI720835:DNI720859 DXE720835:DXE720859 EHA720835:EHA720859 EQW720835:EQW720859 FAS720835:FAS720859 FKO720835:FKO720859 FUK720835:FUK720859 GEG720835:GEG720859 GOC720835:GOC720859 GXY720835:GXY720859 HHU720835:HHU720859 HRQ720835:HRQ720859 IBM720835:IBM720859 ILI720835:ILI720859 IVE720835:IVE720859 JFA720835:JFA720859 JOW720835:JOW720859 JYS720835:JYS720859 KIO720835:KIO720859 KSK720835:KSK720859 LCG720835:LCG720859 LMC720835:LMC720859 LVY720835:LVY720859 MFU720835:MFU720859 MPQ720835:MPQ720859 MZM720835:MZM720859 NJI720835:NJI720859 NTE720835:NTE720859 ODA720835:ODA720859 OMW720835:OMW720859 OWS720835:OWS720859 PGO720835:PGO720859 PQK720835:PQK720859 QAG720835:QAG720859 QKC720835:QKC720859 QTY720835:QTY720859 RDU720835:RDU720859 RNQ720835:RNQ720859 RXM720835:RXM720859 SHI720835:SHI720859 SRE720835:SRE720859 TBA720835:TBA720859 TKW720835:TKW720859 TUS720835:TUS720859 UEO720835:UEO720859 UOK720835:UOK720859 UYG720835:UYG720859 VIC720835:VIC720859 VRY720835:VRY720859 WBU720835:WBU720859 WLQ720835:WLQ720859 WVM720835:WVM720859 E786425:E786449 JA786371:JA786395 SW786371:SW786395 ACS786371:ACS786395 AMO786371:AMO786395 AWK786371:AWK786395 BGG786371:BGG786395 BQC786371:BQC786395 BZY786371:BZY786395 CJU786371:CJU786395 CTQ786371:CTQ786395 DDM786371:DDM786395 DNI786371:DNI786395 DXE786371:DXE786395 EHA786371:EHA786395 EQW786371:EQW786395 FAS786371:FAS786395 FKO786371:FKO786395 FUK786371:FUK786395 GEG786371:GEG786395 GOC786371:GOC786395 GXY786371:GXY786395 HHU786371:HHU786395 HRQ786371:HRQ786395 IBM786371:IBM786395 ILI786371:ILI786395 IVE786371:IVE786395 JFA786371:JFA786395 JOW786371:JOW786395 JYS786371:JYS786395 KIO786371:KIO786395 KSK786371:KSK786395 LCG786371:LCG786395 LMC786371:LMC786395 LVY786371:LVY786395 MFU786371:MFU786395 MPQ786371:MPQ786395 MZM786371:MZM786395 NJI786371:NJI786395 NTE786371:NTE786395 ODA786371:ODA786395 OMW786371:OMW786395 OWS786371:OWS786395 PGO786371:PGO786395 PQK786371:PQK786395 QAG786371:QAG786395 QKC786371:QKC786395 QTY786371:QTY786395 RDU786371:RDU786395 RNQ786371:RNQ786395 RXM786371:RXM786395 SHI786371:SHI786395 SRE786371:SRE786395 TBA786371:TBA786395 TKW786371:TKW786395 TUS786371:TUS786395 UEO786371:UEO786395 UOK786371:UOK786395 UYG786371:UYG786395 VIC786371:VIC786395 VRY786371:VRY786395 WBU786371:WBU786395 WLQ786371:WLQ786395 WVM786371:WVM786395 E851961:E851985 JA851907:JA851931 SW851907:SW851931 ACS851907:ACS851931 AMO851907:AMO851931 AWK851907:AWK851931 BGG851907:BGG851931 BQC851907:BQC851931 BZY851907:BZY851931 CJU851907:CJU851931 CTQ851907:CTQ851931 DDM851907:DDM851931 DNI851907:DNI851931 DXE851907:DXE851931 EHA851907:EHA851931 EQW851907:EQW851931 FAS851907:FAS851931 FKO851907:FKO851931 FUK851907:FUK851931 GEG851907:GEG851931 GOC851907:GOC851931 GXY851907:GXY851931 HHU851907:HHU851931 HRQ851907:HRQ851931 IBM851907:IBM851931 ILI851907:ILI851931 IVE851907:IVE851931 JFA851907:JFA851931 JOW851907:JOW851931 JYS851907:JYS851931 KIO851907:KIO851931 KSK851907:KSK851931 LCG851907:LCG851931 LMC851907:LMC851931 LVY851907:LVY851931 MFU851907:MFU851931 MPQ851907:MPQ851931 MZM851907:MZM851931 NJI851907:NJI851931 NTE851907:NTE851931 ODA851907:ODA851931 OMW851907:OMW851931 OWS851907:OWS851931 PGO851907:PGO851931 PQK851907:PQK851931 QAG851907:QAG851931 QKC851907:QKC851931 QTY851907:QTY851931 RDU851907:RDU851931 RNQ851907:RNQ851931 RXM851907:RXM851931 SHI851907:SHI851931 SRE851907:SRE851931 TBA851907:TBA851931 TKW851907:TKW851931 TUS851907:TUS851931 UEO851907:UEO851931 UOK851907:UOK851931 UYG851907:UYG851931 VIC851907:VIC851931 VRY851907:VRY851931 WBU851907:WBU851931 WLQ851907:WLQ851931 WVM851907:WVM851931 E917497:E917521 JA917443:JA917467 SW917443:SW917467 ACS917443:ACS917467 AMO917443:AMO917467 AWK917443:AWK917467 BGG917443:BGG917467 BQC917443:BQC917467 BZY917443:BZY917467 CJU917443:CJU917467 CTQ917443:CTQ917467 DDM917443:DDM917467 DNI917443:DNI917467 DXE917443:DXE917467 EHA917443:EHA917467 EQW917443:EQW917467 FAS917443:FAS917467 FKO917443:FKO917467 FUK917443:FUK917467 GEG917443:GEG917467 GOC917443:GOC917467 GXY917443:GXY917467 HHU917443:HHU917467 HRQ917443:HRQ917467 IBM917443:IBM917467 ILI917443:ILI917467 IVE917443:IVE917467 JFA917443:JFA917467 JOW917443:JOW917467 JYS917443:JYS917467 KIO917443:KIO917467 KSK917443:KSK917467 LCG917443:LCG917467 LMC917443:LMC917467 LVY917443:LVY917467 MFU917443:MFU917467 MPQ917443:MPQ917467 MZM917443:MZM917467 NJI917443:NJI917467 NTE917443:NTE917467 ODA917443:ODA917467 OMW917443:OMW917467 OWS917443:OWS917467 PGO917443:PGO917467 PQK917443:PQK917467 QAG917443:QAG917467 QKC917443:QKC917467 QTY917443:QTY917467 RDU917443:RDU917467 RNQ917443:RNQ917467 RXM917443:RXM917467 SHI917443:SHI917467 SRE917443:SRE917467 TBA917443:TBA917467 TKW917443:TKW917467 TUS917443:TUS917467 UEO917443:UEO917467 UOK917443:UOK917467 UYG917443:UYG917467 VIC917443:VIC917467 VRY917443:VRY917467 WBU917443:WBU917467 WLQ917443:WLQ917467 WVM917443:WVM917467 E983033:E983057 JA982979:JA983003 SW982979:SW983003 ACS982979:ACS983003 AMO982979:AMO983003 AWK982979:AWK983003 BGG982979:BGG983003 BQC982979:BQC983003 BZY982979:BZY983003 CJU982979:CJU983003 CTQ982979:CTQ983003 DDM982979:DDM983003 DNI982979:DNI983003 DXE982979:DXE983003 EHA982979:EHA983003 EQW982979:EQW983003 FAS982979:FAS983003 FKO982979:FKO983003 FUK982979:FUK983003 GEG982979:GEG983003 GOC982979:GOC983003 GXY982979:GXY983003 HHU982979:HHU983003 HRQ982979:HRQ983003 IBM982979:IBM983003 ILI982979:ILI983003 IVE982979:IVE983003 JFA982979:JFA983003 JOW982979:JOW983003 JYS982979:JYS983003 KIO982979:KIO983003 KSK982979:KSK983003 LCG982979:LCG983003 LMC982979:LMC983003 LVY982979:LVY983003 MFU982979:MFU983003 MPQ982979:MPQ983003 MZM982979:MZM983003 NJI982979:NJI983003 NTE982979:NTE983003 ODA982979:ODA983003 OMW982979:OMW983003 OWS982979:OWS983003 PGO982979:PGO983003 PQK982979:PQK983003 QAG982979:QAG983003 QKC982979:QKC983003 QTY982979:QTY983003 RDU982979:RDU983003 RNQ982979:RNQ983003 RXM982979:RXM983003 SHI982979:SHI983003 SRE982979:SRE983003 TBA982979:TBA983003 TKW982979:TKW983003 TUS982979:TUS983003 UEO982979:UEO983003 UOK982979:UOK983003 UYG982979:UYG983003 VIC982979:VIC983003 VRY982979:VRY983003 WBU982979:WBU983003 WLQ982979:WLQ983003 WVM982979:WVM983003 WVM5:WVM36 WLQ5:WLQ36 WBU5:WBU36 VRY5:VRY36 VIC5:VIC36 UYG5:UYG36 UOK5:UOK36 UEO5:UEO36 TUS5:TUS36 TKW5:TKW36 TBA5:TBA36 SRE5:SRE36 SHI5:SHI36 RXM5:RXM36 RNQ5:RNQ36 RDU5:RDU36 QTY5:QTY36 QKC5:QKC36 QAG5:QAG36 PQK5:PQK36 PGO5:PGO36 OWS5:OWS36 OMW5:OMW36 ODA5:ODA36 NTE5:NTE36 NJI5:NJI36 MZM5:MZM36 MPQ5:MPQ36 MFU5:MFU36 LVY5:LVY36 LMC5:LMC36 LCG5:LCG36 KSK5:KSK36 KIO5:KIO36 JYS5:JYS36 JOW5:JOW36 JFA5:JFA36 IVE5:IVE36 ILI5:ILI36 IBM5:IBM36 HRQ5:HRQ36 HHU5:HHU36 GXY5:GXY36 GOC5:GOC36 GEG5:GEG36 FUK5:FUK36 FKO5:FKO36 FAS5:FAS36 EQW5:EQW36 EHA5:EHA36 DXE5:DXE36 DNI5:DNI36 DDM5:DDM36 CTQ5:CTQ36 CJU5:CJU36 BZY5:BZY36 BQC5:BQC36 BGG5:BGG36 AWK5:AWK36 AMO5:AMO36 ACS5:ACS36 SW5:SW36 JA5:JA36 E25:E37" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$G$5:$G$11</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="ادخل المصروفات من الجدول" error="الرجاء ادخال المصروفات من النطاقات المحددة" sqref="WVM982993:WVM983060 JA26:JA74 SW26:SW74 ACS26:ACS74 AMO26:AMO74 AWK26:AWK74 BGG26:BGG74 BQC26:BQC74 BZY26:BZY74 CJU26:CJU74 CTQ26:CTQ74 DDM26:DDM74 DNI26:DNI74 DXE26:DXE74 EHA26:EHA74 EQW26:EQW74 FAS26:FAS74 FKO26:FKO74 FUK26:FUK74 GEG26:GEG74 GOC26:GOC74 GXY26:GXY74 HHU26:HHU74 HRQ26:HRQ74 IBM26:IBM74 ILI26:ILI74 IVE26:IVE74 JFA26:JFA74 JOW26:JOW74 JYS26:JYS74 KIO26:KIO74 KSK26:KSK74 LCG26:LCG74 LMC26:LMC74 LVY26:LVY74 MFU26:MFU74 MPQ26:MPQ74 MZM26:MZM74 NJI26:NJI74 NTE26:NTE74 ODA26:ODA74 OMW26:OMW74 OWS26:OWS74 PGO26:PGO74 PQK26:PQK74 QAG26:QAG74 QKC26:QKC74 QTY26:QTY74 RDU26:RDU74 RNQ26:RNQ74 RXM26:RXM74 SHI26:SHI74 SRE26:SRE74 TBA26:TBA74 TKW26:TKW74 TUS26:TUS74 UEO26:UEO74 UOK26:UOK74 UYG26:UYG74 VIC26:VIC74 VRY26:VRY74 WBU26:WBU74 WLQ26:WLQ74 WVM26:WVM74 E65543:E65610 JA65489:JA65556 SW65489:SW65556 ACS65489:ACS65556 AMO65489:AMO65556 AWK65489:AWK65556 BGG65489:BGG65556 BQC65489:BQC65556 BZY65489:BZY65556 CJU65489:CJU65556 CTQ65489:CTQ65556 DDM65489:DDM65556 DNI65489:DNI65556 DXE65489:DXE65556 EHA65489:EHA65556 EQW65489:EQW65556 FAS65489:FAS65556 FKO65489:FKO65556 FUK65489:FUK65556 GEG65489:GEG65556 GOC65489:GOC65556 GXY65489:GXY65556 HHU65489:HHU65556 HRQ65489:HRQ65556 IBM65489:IBM65556 ILI65489:ILI65556 IVE65489:IVE65556 JFA65489:JFA65556 JOW65489:JOW65556 JYS65489:JYS65556 KIO65489:KIO65556 KSK65489:KSK65556 LCG65489:LCG65556 LMC65489:LMC65556 LVY65489:LVY65556 MFU65489:MFU65556 MPQ65489:MPQ65556 MZM65489:MZM65556 NJI65489:NJI65556 NTE65489:NTE65556 ODA65489:ODA65556 OMW65489:OMW65556 OWS65489:OWS65556 PGO65489:PGO65556 PQK65489:PQK65556 QAG65489:QAG65556 QKC65489:QKC65556 QTY65489:QTY65556 RDU65489:RDU65556 RNQ65489:RNQ65556 RXM65489:RXM65556 SHI65489:SHI65556 SRE65489:SRE65556 TBA65489:TBA65556 TKW65489:TKW65556 TUS65489:TUS65556 UEO65489:UEO65556 UOK65489:UOK65556 UYG65489:UYG65556 VIC65489:VIC65556 VRY65489:VRY65556 WBU65489:WBU65556 WLQ65489:WLQ65556 WVM65489:WVM65556 E131079:E131146 JA131025:JA131092 SW131025:SW131092 ACS131025:ACS131092 AMO131025:AMO131092 AWK131025:AWK131092 BGG131025:BGG131092 BQC131025:BQC131092 BZY131025:BZY131092 CJU131025:CJU131092 CTQ131025:CTQ131092 DDM131025:DDM131092 DNI131025:DNI131092 DXE131025:DXE131092 EHA131025:EHA131092 EQW131025:EQW131092 FAS131025:FAS131092 FKO131025:FKO131092 FUK131025:FUK131092 GEG131025:GEG131092 GOC131025:GOC131092 GXY131025:GXY131092 HHU131025:HHU131092 HRQ131025:HRQ131092 IBM131025:IBM131092 ILI131025:ILI131092 IVE131025:IVE131092 JFA131025:JFA131092 JOW131025:JOW131092 JYS131025:JYS131092 KIO131025:KIO131092 KSK131025:KSK131092 LCG131025:LCG131092 LMC131025:LMC131092 LVY131025:LVY131092 MFU131025:MFU131092 MPQ131025:MPQ131092 MZM131025:MZM131092 NJI131025:NJI131092 NTE131025:NTE131092 ODA131025:ODA131092 OMW131025:OMW131092 OWS131025:OWS131092 PGO131025:PGO131092 PQK131025:PQK131092 QAG131025:QAG131092 QKC131025:QKC131092 QTY131025:QTY131092 RDU131025:RDU131092 RNQ131025:RNQ131092 RXM131025:RXM131092 SHI131025:SHI131092 SRE131025:SRE131092 TBA131025:TBA131092 TKW131025:TKW131092 TUS131025:TUS131092 UEO131025:UEO131092 UOK131025:UOK131092 UYG131025:UYG131092 VIC131025:VIC131092 VRY131025:VRY131092 WBU131025:WBU131092 WLQ131025:WLQ131092 WVM131025:WVM131092 E196615:E196682 JA196561:JA196628 SW196561:SW196628 ACS196561:ACS196628 AMO196561:AMO196628 AWK196561:AWK196628 BGG196561:BGG196628 BQC196561:BQC196628 BZY196561:BZY196628 CJU196561:CJU196628 CTQ196561:CTQ196628 DDM196561:DDM196628 DNI196561:DNI196628 DXE196561:DXE196628 EHA196561:EHA196628 EQW196561:EQW196628 FAS196561:FAS196628 FKO196561:FKO196628 FUK196561:FUK196628 GEG196561:GEG196628 GOC196561:GOC196628 GXY196561:GXY196628 HHU196561:HHU196628 HRQ196561:HRQ196628 IBM196561:IBM196628 ILI196561:ILI196628 IVE196561:IVE196628 JFA196561:JFA196628 JOW196561:JOW196628 JYS196561:JYS196628 KIO196561:KIO196628 KSK196561:KSK196628 LCG196561:LCG196628 LMC196561:LMC196628 LVY196561:LVY196628 MFU196561:MFU196628 MPQ196561:MPQ196628 MZM196561:MZM196628 NJI196561:NJI196628 NTE196561:NTE196628 ODA196561:ODA196628 OMW196561:OMW196628 OWS196561:OWS196628 PGO196561:PGO196628 PQK196561:PQK196628 QAG196561:QAG196628 QKC196561:QKC196628 QTY196561:QTY196628 RDU196561:RDU196628 RNQ196561:RNQ196628 RXM196561:RXM196628 SHI196561:SHI196628 SRE196561:SRE196628 TBA196561:TBA196628 TKW196561:TKW196628 TUS196561:TUS196628 UEO196561:UEO196628 UOK196561:UOK196628 UYG196561:UYG196628 VIC196561:VIC196628 VRY196561:VRY196628 WBU196561:WBU196628 WLQ196561:WLQ196628 WVM196561:WVM196628 E262151:E262218 JA262097:JA262164 SW262097:SW262164 ACS262097:ACS262164 AMO262097:AMO262164 AWK262097:AWK262164 BGG262097:BGG262164 BQC262097:BQC262164 BZY262097:BZY262164 CJU262097:CJU262164 CTQ262097:CTQ262164 DDM262097:DDM262164 DNI262097:DNI262164 DXE262097:DXE262164 EHA262097:EHA262164 EQW262097:EQW262164 FAS262097:FAS262164 FKO262097:FKO262164 FUK262097:FUK262164 GEG262097:GEG262164 GOC262097:GOC262164 GXY262097:GXY262164 HHU262097:HHU262164 HRQ262097:HRQ262164 IBM262097:IBM262164 ILI262097:ILI262164 IVE262097:IVE262164 JFA262097:JFA262164 JOW262097:JOW262164 JYS262097:JYS262164 KIO262097:KIO262164 KSK262097:KSK262164 LCG262097:LCG262164 LMC262097:LMC262164 LVY262097:LVY262164 MFU262097:MFU262164 MPQ262097:MPQ262164 MZM262097:MZM262164 NJI262097:NJI262164 NTE262097:NTE262164 ODA262097:ODA262164 OMW262097:OMW262164 OWS262097:OWS262164 PGO262097:PGO262164 PQK262097:PQK262164 QAG262097:QAG262164 QKC262097:QKC262164 QTY262097:QTY262164 RDU262097:RDU262164 RNQ262097:RNQ262164 RXM262097:RXM262164 SHI262097:SHI262164 SRE262097:SRE262164 TBA262097:TBA262164 TKW262097:TKW262164 TUS262097:TUS262164 UEO262097:UEO262164 UOK262097:UOK262164 UYG262097:UYG262164 VIC262097:VIC262164 VRY262097:VRY262164 WBU262097:WBU262164 WLQ262097:WLQ262164 WVM262097:WVM262164 E327687:E327754 JA327633:JA327700 SW327633:SW327700 ACS327633:ACS327700 AMO327633:AMO327700 AWK327633:AWK327700 BGG327633:BGG327700 BQC327633:BQC327700 BZY327633:BZY327700 CJU327633:CJU327700 CTQ327633:CTQ327700 DDM327633:DDM327700 DNI327633:DNI327700 DXE327633:DXE327700 EHA327633:EHA327700 EQW327633:EQW327700 FAS327633:FAS327700 FKO327633:FKO327700 FUK327633:FUK327700 GEG327633:GEG327700 GOC327633:GOC327700 GXY327633:GXY327700 HHU327633:HHU327700 HRQ327633:HRQ327700 IBM327633:IBM327700 ILI327633:ILI327700 IVE327633:IVE327700 JFA327633:JFA327700 JOW327633:JOW327700 JYS327633:JYS327700 KIO327633:KIO327700 KSK327633:KSK327700 LCG327633:LCG327700 LMC327633:LMC327700 LVY327633:LVY327700 MFU327633:MFU327700 MPQ327633:MPQ327700 MZM327633:MZM327700 NJI327633:NJI327700 NTE327633:NTE327700 ODA327633:ODA327700 OMW327633:OMW327700 OWS327633:OWS327700 PGO327633:PGO327700 PQK327633:PQK327700 QAG327633:QAG327700 QKC327633:QKC327700 QTY327633:QTY327700 RDU327633:RDU327700 RNQ327633:RNQ327700 RXM327633:RXM327700 SHI327633:SHI327700 SRE327633:SRE327700 TBA327633:TBA327700 TKW327633:TKW327700 TUS327633:TUS327700 UEO327633:UEO327700 UOK327633:UOK327700 UYG327633:UYG327700 VIC327633:VIC327700 VRY327633:VRY327700 WBU327633:WBU327700 WLQ327633:WLQ327700 WVM327633:WVM327700 E393223:E393290 JA393169:JA393236 SW393169:SW393236 ACS393169:ACS393236 AMO393169:AMO393236 AWK393169:AWK393236 BGG393169:BGG393236 BQC393169:BQC393236 BZY393169:BZY393236 CJU393169:CJU393236 CTQ393169:CTQ393236 DDM393169:DDM393236 DNI393169:DNI393236 DXE393169:DXE393236 EHA393169:EHA393236 EQW393169:EQW393236 FAS393169:FAS393236 FKO393169:FKO393236 FUK393169:FUK393236 GEG393169:GEG393236 GOC393169:GOC393236 GXY393169:GXY393236 HHU393169:HHU393236 HRQ393169:HRQ393236 IBM393169:IBM393236 ILI393169:ILI393236 IVE393169:IVE393236 JFA393169:JFA393236 JOW393169:JOW393236 JYS393169:JYS393236 KIO393169:KIO393236 KSK393169:KSK393236 LCG393169:LCG393236 LMC393169:LMC393236 LVY393169:LVY393236 MFU393169:MFU393236 MPQ393169:MPQ393236 MZM393169:MZM393236 NJI393169:NJI393236 NTE393169:NTE393236 ODA393169:ODA393236 OMW393169:OMW393236 OWS393169:OWS393236 PGO393169:PGO393236 PQK393169:PQK393236 QAG393169:QAG393236 QKC393169:QKC393236 QTY393169:QTY393236 RDU393169:RDU393236 RNQ393169:RNQ393236 RXM393169:RXM393236 SHI393169:SHI393236 SRE393169:SRE393236 TBA393169:TBA393236 TKW393169:TKW393236 TUS393169:TUS393236 UEO393169:UEO393236 UOK393169:UOK393236 UYG393169:UYG393236 VIC393169:VIC393236 VRY393169:VRY393236 WBU393169:WBU393236 WLQ393169:WLQ393236 WVM393169:WVM393236 E458759:E458826 JA458705:JA458772 SW458705:SW458772 ACS458705:ACS458772 AMO458705:AMO458772 AWK458705:AWK458772 BGG458705:BGG458772 BQC458705:BQC458772 BZY458705:BZY458772 CJU458705:CJU458772 CTQ458705:CTQ458772 DDM458705:DDM458772 DNI458705:DNI458772 DXE458705:DXE458772 EHA458705:EHA458772 EQW458705:EQW458772 FAS458705:FAS458772 FKO458705:FKO458772 FUK458705:FUK458772 GEG458705:GEG458772 GOC458705:GOC458772 GXY458705:GXY458772 HHU458705:HHU458772 HRQ458705:HRQ458772 IBM458705:IBM458772 ILI458705:ILI458772 IVE458705:IVE458772 JFA458705:JFA458772 JOW458705:JOW458772 JYS458705:JYS458772 KIO458705:KIO458772 KSK458705:KSK458772 LCG458705:LCG458772 LMC458705:LMC458772 LVY458705:LVY458772 MFU458705:MFU458772 MPQ458705:MPQ458772 MZM458705:MZM458772 NJI458705:NJI458772 NTE458705:NTE458772 ODA458705:ODA458772 OMW458705:OMW458772 OWS458705:OWS458772 PGO458705:PGO458772 PQK458705:PQK458772 QAG458705:QAG458772 QKC458705:QKC458772 QTY458705:QTY458772 RDU458705:RDU458772 RNQ458705:RNQ458772 RXM458705:RXM458772 SHI458705:SHI458772 SRE458705:SRE458772 TBA458705:TBA458772 TKW458705:TKW458772 TUS458705:TUS458772 UEO458705:UEO458772 UOK458705:UOK458772 UYG458705:UYG458772 VIC458705:VIC458772 VRY458705:VRY458772 WBU458705:WBU458772 WLQ458705:WLQ458772 WVM458705:WVM458772 E524295:E524362 JA524241:JA524308 SW524241:SW524308 ACS524241:ACS524308 AMO524241:AMO524308 AWK524241:AWK524308 BGG524241:BGG524308 BQC524241:BQC524308 BZY524241:BZY524308 CJU524241:CJU524308 CTQ524241:CTQ524308 DDM524241:DDM524308 DNI524241:DNI524308 DXE524241:DXE524308 EHA524241:EHA524308 EQW524241:EQW524308 FAS524241:FAS524308 FKO524241:FKO524308 FUK524241:FUK524308 GEG524241:GEG524308 GOC524241:GOC524308 GXY524241:GXY524308 HHU524241:HHU524308 HRQ524241:HRQ524308 IBM524241:IBM524308 ILI524241:ILI524308 IVE524241:IVE524308 JFA524241:JFA524308 JOW524241:JOW524308 JYS524241:JYS524308 KIO524241:KIO524308 KSK524241:KSK524308 LCG524241:LCG524308 LMC524241:LMC524308 LVY524241:LVY524308 MFU524241:MFU524308 MPQ524241:MPQ524308 MZM524241:MZM524308 NJI524241:NJI524308 NTE524241:NTE524308 ODA524241:ODA524308 OMW524241:OMW524308 OWS524241:OWS524308 PGO524241:PGO524308 PQK524241:PQK524308 QAG524241:QAG524308 QKC524241:QKC524308 QTY524241:QTY524308 RDU524241:RDU524308 RNQ524241:RNQ524308 RXM524241:RXM524308 SHI524241:SHI524308 SRE524241:SRE524308 TBA524241:TBA524308 TKW524241:TKW524308 TUS524241:TUS524308 UEO524241:UEO524308 UOK524241:UOK524308 UYG524241:UYG524308 VIC524241:VIC524308 VRY524241:VRY524308 WBU524241:WBU524308 WLQ524241:WLQ524308 WVM524241:WVM524308 E589831:E589898 JA589777:JA589844 SW589777:SW589844 ACS589777:ACS589844 AMO589777:AMO589844 AWK589777:AWK589844 BGG589777:BGG589844 BQC589777:BQC589844 BZY589777:BZY589844 CJU589777:CJU589844 CTQ589777:CTQ589844 DDM589777:DDM589844 DNI589777:DNI589844 DXE589777:DXE589844 EHA589777:EHA589844 EQW589777:EQW589844 FAS589777:FAS589844 FKO589777:FKO589844 FUK589777:FUK589844 GEG589777:GEG589844 GOC589777:GOC589844 GXY589777:GXY589844 HHU589777:HHU589844 HRQ589777:HRQ589844 IBM589777:IBM589844 ILI589777:ILI589844 IVE589777:IVE589844 JFA589777:JFA589844 JOW589777:JOW589844 JYS589777:JYS589844 KIO589777:KIO589844 KSK589777:KSK589844 LCG589777:LCG589844 LMC589777:LMC589844 LVY589777:LVY589844 MFU589777:MFU589844 MPQ589777:MPQ589844 MZM589777:MZM589844 NJI589777:NJI589844 NTE589777:NTE589844 ODA589777:ODA589844 OMW589777:OMW589844 OWS589777:OWS589844 PGO589777:PGO589844 PQK589777:PQK589844 QAG589777:QAG589844 QKC589777:QKC589844 QTY589777:QTY589844 RDU589777:RDU589844 RNQ589777:RNQ589844 RXM589777:RXM589844 SHI589777:SHI589844 SRE589777:SRE589844 TBA589777:TBA589844 TKW589777:TKW589844 TUS589777:TUS589844 UEO589777:UEO589844 UOK589777:UOK589844 UYG589777:UYG589844 VIC589777:VIC589844 VRY589777:VRY589844 WBU589777:WBU589844 WLQ589777:WLQ589844 WVM589777:WVM589844 E655367:E655434 JA655313:JA655380 SW655313:SW655380 ACS655313:ACS655380 AMO655313:AMO655380 AWK655313:AWK655380 BGG655313:BGG655380 BQC655313:BQC655380 BZY655313:BZY655380 CJU655313:CJU655380 CTQ655313:CTQ655380 DDM655313:DDM655380 DNI655313:DNI655380 DXE655313:DXE655380 EHA655313:EHA655380 EQW655313:EQW655380 FAS655313:FAS655380 FKO655313:FKO655380 FUK655313:FUK655380 GEG655313:GEG655380 GOC655313:GOC655380 GXY655313:GXY655380 HHU655313:HHU655380 HRQ655313:HRQ655380 IBM655313:IBM655380 ILI655313:ILI655380 IVE655313:IVE655380 JFA655313:JFA655380 JOW655313:JOW655380 JYS655313:JYS655380 KIO655313:KIO655380 KSK655313:KSK655380 LCG655313:LCG655380 LMC655313:LMC655380 LVY655313:LVY655380 MFU655313:MFU655380 MPQ655313:MPQ655380 MZM655313:MZM655380 NJI655313:NJI655380 NTE655313:NTE655380 ODA655313:ODA655380 OMW655313:OMW655380 OWS655313:OWS655380 PGO655313:PGO655380 PQK655313:PQK655380 QAG655313:QAG655380 QKC655313:QKC655380 QTY655313:QTY655380 RDU655313:RDU655380 RNQ655313:RNQ655380 RXM655313:RXM655380 SHI655313:SHI655380 SRE655313:SRE655380 TBA655313:TBA655380 TKW655313:TKW655380 TUS655313:TUS655380 UEO655313:UEO655380 UOK655313:UOK655380 UYG655313:UYG655380 VIC655313:VIC655380 VRY655313:VRY655380 WBU655313:WBU655380 WLQ655313:WLQ655380 WVM655313:WVM655380 E720903:E720970 JA720849:JA720916 SW720849:SW720916 ACS720849:ACS720916 AMO720849:AMO720916 AWK720849:AWK720916 BGG720849:BGG720916 BQC720849:BQC720916 BZY720849:BZY720916 CJU720849:CJU720916 CTQ720849:CTQ720916 DDM720849:DDM720916 DNI720849:DNI720916 DXE720849:DXE720916 EHA720849:EHA720916 EQW720849:EQW720916 FAS720849:FAS720916 FKO720849:FKO720916 FUK720849:FUK720916 GEG720849:GEG720916 GOC720849:GOC720916 GXY720849:GXY720916 HHU720849:HHU720916 HRQ720849:HRQ720916 IBM720849:IBM720916 ILI720849:ILI720916 IVE720849:IVE720916 JFA720849:JFA720916 JOW720849:JOW720916 JYS720849:JYS720916 KIO720849:KIO720916 KSK720849:KSK720916 LCG720849:LCG720916 LMC720849:LMC720916 LVY720849:LVY720916 MFU720849:MFU720916 MPQ720849:MPQ720916 MZM720849:MZM720916 NJI720849:NJI720916 NTE720849:NTE720916 ODA720849:ODA720916 OMW720849:OMW720916 OWS720849:OWS720916 PGO720849:PGO720916 PQK720849:PQK720916 QAG720849:QAG720916 QKC720849:QKC720916 QTY720849:QTY720916 RDU720849:RDU720916 RNQ720849:RNQ720916 RXM720849:RXM720916 SHI720849:SHI720916 SRE720849:SRE720916 TBA720849:TBA720916 TKW720849:TKW720916 TUS720849:TUS720916 UEO720849:UEO720916 UOK720849:UOK720916 UYG720849:UYG720916 VIC720849:VIC720916 VRY720849:VRY720916 WBU720849:WBU720916 WLQ720849:WLQ720916 WVM720849:WVM720916 E786439:E786506 JA786385:JA786452 SW786385:SW786452 ACS786385:ACS786452 AMO786385:AMO786452 AWK786385:AWK786452 BGG786385:BGG786452 BQC786385:BQC786452 BZY786385:BZY786452 CJU786385:CJU786452 CTQ786385:CTQ786452 DDM786385:DDM786452 DNI786385:DNI786452 DXE786385:DXE786452 EHA786385:EHA786452 EQW786385:EQW786452 FAS786385:FAS786452 FKO786385:FKO786452 FUK786385:FUK786452 GEG786385:GEG786452 GOC786385:GOC786452 GXY786385:GXY786452 HHU786385:HHU786452 HRQ786385:HRQ786452 IBM786385:IBM786452 ILI786385:ILI786452 IVE786385:IVE786452 JFA786385:JFA786452 JOW786385:JOW786452 JYS786385:JYS786452 KIO786385:KIO786452 KSK786385:KSK786452 LCG786385:LCG786452 LMC786385:LMC786452 LVY786385:LVY786452 MFU786385:MFU786452 MPQ786385:MPQ786452 MZM786385:MZM786452 NJI786385:NJI786452 NTE786385:NTE786452 ODA786385:ODA786452 OMW786385:OMW786452 OWS786385:OWS786452 PGO786385:PGO786452 PQK786385:PQK786452 QAG786385:QAG786452 QKC786385:QKC786452 QTY786385:QTY786452 RDU786385:RDU786452 RNQ786385:RNQ786452 RXM786385:RXM786452 SHI786385:SHI786452 SRE786385:SRE786452 TBA786385:TBA786452 TKW786385:TKW786452 TUS786385:TUS786452 UEO786385:UEO786452 UOK786385:UOK786452 UYG786385:UYG786452 VIC786385:VIC786452 VRY786385:VRY786452 WBU786385:WBU786452 WLQ786385:WLQ786452 WVM786385:WVM786452 E851975:E852042 JA851921:JA851988 SW851921:SW851988 ACS851921:ACS851988 AMO851921:AMO851988 AWK851921:AWK851988 BGG851921:BGG851988 BQC851921:BQC851988 BZY851921:BZY851988 CJU851921:CJU851988 CTQ851921:CTQ851988 DDM851921:DDM851988 DNI851921:DNI851988 DXE851921:DXE851988 EHA851921:EHA851988 EQW851921:EQW851988 FAS851921:FAS851988 FKO851921:FKO851988 FUK851921:FUK851988 GEG851921:GEG851988 GOC851921:GOC851988 GXY851921:GXY851988 HHU851921:HHU851988 HRQ851921:HRQ851988 IBM851921:IBM851988 ILI851921:ILI851988 IVE851921:IVE851988 JFA851921:JFA851988 JOW851921:JOW851988 JYS851921:JYS851988 KIO851921:KIO851988 KSK851921:KSK851988 LCG851921:LCG851988 LMC851921:LMC851988 LVY851921:LVY851988 MFU851921:MFU851988 MPQ851921:MPQ851988 MZM851921:MZM851988 NJI851921:NJI851988 NTE851921:NTE851988 ODA851921:ODA851988 OMW851921:OMW851988 OWS851921:OWS851988 PGO851921:PGO851988 PQK851921:PQK851988 QAG851921:QAG851988 QKC851921:QKC851988 QTY851921:QTY851988 RDU851921:RDU851988 RNQ851921:RNQ851988 RXM851921:RXM851988 SHI851921:SHI851988 SRE851921:SRE851988 TBA851921:TBA851988 TKW851921:TKW851988 TUS851921:TUS851988 UEO851921:UEO851988 UOK851921:UOK851988 UYG851921:UYG851988 VIC851921:VIC851988 VRY851921:VRY851988 WBU851921:WBU851988 WLQ851921:WLQ851988 WVM851921:WVM851988 E917511:E917578 JA917457:JA917524 SW917457:SW917524 ACS917457:ACS917524 AMO917457:AMO917524 AWK917457:AWK917524 BGG917457:BGG917524 BQC917457:BQC917524 BZY917457:BZY917524 CJU917457:CJU917524 CTQ917457:CTQ917524 DDM917457:DDM917524 DNI917457:DNI917524 DXE917457:DXE917524 EHA917457:EHA917524 EQW917457:EQW917524 FAS917457:FAS917524 FKO917457:FKO917524 FUK917457:FUK917524 GEG917457:GEG917524 GOC917457:GOC917524 GXY917457:GXY917524 HHU917457:HHU917524 HRQ917457:HRQ917524 IBM917457:IBM917524 ILI917457:ILI917524 IVE917457:IVE917524 JFA917457:JFA917524 JOW917457:JOW917524 JYS917457:JYS917524 KIO917457:KIO917524 KSK917457:KSK917524 LCG917457:LCG917524 LMC917457:LMC917524 LVY917457:LVY917524 MFU917457:MFU917524 MPQ917457:MPQ917524 MZM917457:MZM917524 NJI917457:NJI917524 NTE917457:NTE917524 ODA917457:ODA917524 OMW917457:OMW917524 OWS917457:OWS917524 PGO917457:PGO917524 PQK917457:PQK917524 QAG917457:QAG917524 QKC917457:QKC917524 QTY917457:QTY917524 RDU917457:RDU917524 RNQ917457:RNQ917524 RXM917457:RXM917524 SHI917457:SHI917524 SRE917457:SRE917524 TBA917457:TBA917524 TKW917457:TKW917524 TUS917457:TUS917524 UEO917457:UEO917524 UOK917457:UOK917524 UYG917457:UYG917524 VIC917457:VIC917524 VRY917457:VRY917524 WBU917457:WBU917524 WLQ917457:WLQ917524 WVM917457:WVM917524 E983047:E983114 JA982993:JA983060 SW982993:SW983060 ACS982993:ACS983060 AMO982993:AMO983060 AWK982993:AWK983060 BGG982993:BGG983060 BQC982993:BQC983060 BZY982993:BZY983060 CJU982993:CJU983060 CTQ982993:CTQ983060 DDM982993:DDM983060 DNI982993:DNI983060 DXE982993:DXE983060 EHA982993:EHA983060 EQW982993:EQW983060 FAS982993:FAS983060 FKO982993:FKO983060 FUK982993:FUK983060 GEG982993:GEG983060 GOC982993:GOC983060 GXY982993:GXY983060 HHU982993:HHU983060 HRQ982993:HRQ983060 IBM982993:IBM983060 ILI982993:ILI983060 IVE982993:IVE983060 JFA982993:JFA983060 JOW982993:JOW983060 JYS982993:JYS983060 KIO982993:KIO983060 KSK982993:KSK983060 LCG982993:LCG983060 LMC982993:LMC983060 LVY982993:LVY983060 MFU982993:MFU983060 MPQ982993:MPQ983060 MZM982993:MZM983060 NJI982993:NJI983060 NTE982993:NTE983060 ODA982993:ODA983060 OMW982993:OMW983060 OWS982993:OWS983060 PGO982993:PGO983060 PQK982993:PQK983060 QAG982993:QAG983060 QKC982993:QKC983060 QTY982993:QTY983060 RDU982993:RDU983060 RNQ982993:RNQ983060 RXM982993:RXM983060 SHI982993:SHI983060 SRE982993:SRE983060 TBA982993:TBA983060 TKW982993:TKW983060 TUS982993:TUS983060 UEO982993:UEO983060 UOK982993:UOK983060 UYG982993:UYG983060 VIC982993:VIC983060 VRY982993:VRY983060 WBU982993:WBU983060 WLQ982993:WLQ983060 E53:E79" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>$G$15:$G$58</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="ادخل المصروفات من الجدول" error="الرجاء ادخال المصروفات من النطاقات المحددة" sqref="WVM983005:WVM983072 JA38:JA86 SW38:SW86 ACS38:ACS86 AMO38:AMO86 AWK38:AWK86 BGG38:BGG86 BQC38:BQC86 BZY38:BZY86 CJU38:CJU86 CTQ38:CTQ86 DDM38:DDM86 DNI38:DNI86 DXE38:DXE86 EHA38:EHA86 EQW38:EQW86 FAS38:FAS86 FKO38:FKO86 FUK38:FUK86 GEG38:GEG86 GOC38:GOC86 GXY38:GXY86 HHU38:HHU86 HRQ38:HRQ86 IBM38:IBM86 ILI38:ILI86 IVE38:IVE86 JFA38:JFA86 JOW38:JOW86 JYS38:JYS86 KIO38:KIO86 KSK38:KSK86 LCG38:LCG86 LMC38:LMC86 LVY38:LVY86 MFU38:MFU86 MPQ38:MPQ86 MZM38:MZM86 NJI38:NJI86 NTE38:NTE86 ODA38:ODA86 OMW38:OMW86 OWS38:OWS86 PGO38:PGO86 PQK38:PQK86 QAG38:QAG86 QKC38:QKC86 QTY38:QTY86 RDU38:RDU86 RNQ38:RNQ86 RXM38:RXM86 SHI38:SHI86 SRE38:SRE86 TBA38:TBA86 TKW38:TKW86 TUS38:TUS86 UEO38:UEO86 UOK38:UOK86 UYG38:UYG86 VIC38:VIC86 VRY38:VRY86 WBU38:WBU86 WLQ38:WLQ86 WVM38:WVM86 E65555:E65622 JA65501:JA65568 SW65501:SW65568 ACS65501:ACS65568 AMO65501:AMO65568 AWK65501:AWK65568 BGG65501:BGG65568 BQC65501:BQC65568 BZY65501:BZY65568 CJU65501:CJU65568 CTQ65501:CTQ65568 DDM65501:DDM65568 DNI65501:DNI65568 DXE65501:DXE65568 EHA65501:EHA65568 EQW65501:EQW65568 FAS65501:FAS65568 FKO65501:FKO65568 FUK65501:FUK65568 GEG65501:GEG65568 GOC65501:GOC65568 GXY65501:GXY65568 HHU65501:HHU65568 HRQ65501:HRQ65568 IBM65501:IBM65568 ILI65501:ILI65568 IVE65501:IVE65568 JFA65501:JFA65568 JOW65501:JOW65568 JYS65501:JYS65568 KIO65501:KIO65568 KSK65501:KSK65568 LCG65501:LCG65568 LMC65501:LMC65568 LVY65501:LVY65568 MFU65501:MFU65568 MPQ65501:MPQ65568 MZM65501:MZM65568 NJI65501:NJI65568 NTE65501:NTE65568 ODA65501:ODA65568 OMW65501:OMW65568 OWS65501:OWS65568 PGO65501:PGO65568 PQK65501:PQK65568 QAG65501:QAG65568 QKC65501:QKC65568 QTY65501:QTY65568 RDU65501:RDU65568 RNQ65501:RNQ65568 RXM65501:RXM65568 SHI65501:SHI65568 SRE65501:SRE65568 TBA65501:TBA65568 TKW65501:TKW65568 TUS65501:TUS65568 UEO65501:UEO65568 UOK65501:UOK65568 UYG65501:UYG65568 VIC65501:VIC65568 VRY65501:VRY65568 WBU65501:WBU65568 WLQ65501:WLQ65568 WVM65501:WVM65568 E131091:E131158 JA131037:JA131104 SW131037:SW131104 ACS131037:ACS131104 AMO131037:AMO131104 AWK131037:AWK131104 BGG131037:BGG131104 BQC131037:BQC131104 BZY131037:BZY131104 CJU131037:CJU131104 CTQ131037:CTQ131104 DDM131037:DDM131104 DNI131037:DNI131104 DXE131037:DXE131104 EHA131037:EHA131104 EQW131037:EQW131104 FAS131037:FAS131104 FKO131037:FKO131104 FUK131037:FUK131104 GEG131037:GEG131104 GOC131037:GOC131104 GXY131037:GXY131104 HHU131037:HHU131104 HRQ131037:HRQ131104 IBM131037:IBM131104 ILI131037:ILI131104 IVE131037:IVE131104 JFA131037:JFA131104 JOW131037:JOW131104 JYS131037:JYS131104 KIO131037:KIO131104 KSK131037:KSK131104 LCG131037:LCG131104 LMC131037:LMC131104 LVY131037:LVY131104 MFU131037:MFU131104 MPQ131037:MPQ131104 MZM131037:MZM131104 NJI131037:NJI131104 NTE131037:NTE131104 ODA131037:ODA131104 OMW131037:OMW131104 OWS131037:OWS131104 PGO131037:PGO131104 PQK131037:PQK131104 QAG131037:QAG131104 QKC131037:QKC131104 QTY131037:QTY131104 RDU131037:RDU131104 RNQ131037:RNQ131104 RXM131037:RXM131104 SHI131037:SHI131104 SRE131037:SRE131104 TBA131037:TBA131104 TKW131037:TKW131104 TUS131037:TUS131104 UEO131037:UEO131104 UOK131037:UOK131104 UYG131037:UYG131104 VIC131037:VIC131104 VRY131037:VRY131104 WBU131037:WBU131104 WLQ131037:WLQ131104 WVM131037:WVM131104 E196627:E196694 JA196573:JA196640 SW196573:SW196640 ACS196573:ACS196640 AMO196573:AMO196640 AWK196573:AWK196640 BGG196573:BGG196640 BQC196573:BQC196640 BZY196573:BZY196640 CJU196573:CJU196640 CTQ196573:CTQ196640 DDM196573:DDM196640 DNI196573:DNI196640 DXE196573:DXE196640 EHA196573:EHA196640 EQW196573:EQW196640 FAS196573:FAS196640 FKO196573:FKO196640 FUK196573:FUK196640 GEG196573:GEG196640 GOC196573:GOC196640 GXY196573:GXY196640 HHU196573:HHU196640 HRQ196573:HRQ196640 IBM196573:IBM196640 ILI196573:ILI196640 IVE196573:IVE196640 JFA196573:JFA196640 JOW196573:JOW196640 JYS196573:JYS196640 KIO196573:KIO196640 KSK196573:KSK196640 LCG196573:LCG196640 LMC196573:LMC196640 LVY196573:LVY196640 MFU196573:MFU196640 MPQ196573:MPQ196640 MZM196573:MZM196640 NJI196573:NJI196640 NTE196573:NTE196640 ODA196573:ODA196640 OMW196573:OMW196640 OWS196573:OWS196640 PGO196573:PGO196640 PQK196573:PQK196640 QAG196573:QAG196640 QKC196573:QKC196640 QTY196573:QTY196640 RDU196573:RDU196640 RNQ196573:RNQ196640 RXM196573:RXM196640 SHI196573:SHI196640 SRE196573:SRE196640 TBA196573:TBA196640 TKW196573:TKW196640 TUS196573:TUS196640 UEO196573:UEO196640 UOK196573:UOK196640 UYG196573:UYG196640 VIC196573:VIC196640 VRY196573:VRY196640 WBU196573:WBU196640 WLQ196573:WLQ196640 WVM196573:WVM196640 E262163:E262230 JA262109:JA262176 SW262109:SW262176 ACS262109:ACS262176 AMO262109:AMO262176 AWK262109:AWK262176 BGG262109:BGG262176 BQC262109:BQC262176 BZY262109:BZY262176 CJU262109:CJU262176 CTQ262109:CTQ262176 DDM262109:DDM262176 DNI262109:DNI262176 DXE262109:DXE262176 EHA262109:EHA262176 EQW262109:EQW262176 FAS262109:FAS262176 FKO262109:FKO262176 FUK262109:FUK262176 GEG262109:GEG262176 GOC262109:GOC262176 GXY262109:GXY262176 HHU262109:HHU262176 HRQ262109:HRQ262176 IBM262109:IBM262176 ILI262109:ILI262176 IVE262109:IVE262176 JFA262109:JFA262176 JOW262109:JOW262176 JYS262109:JYS262176 KIO262109:KIO262176 KSK262109:KSK262176 LCG262109:LCG262176 LMC262109:LMC262176 LVY262109:LVY262176 MFU262109:MFU262176 MPQ262109:MPQ262176 MZM262109:MZM262176 NJI262109:NJI262176 NTE262109:NTE262176 ODA262109:ODA262176 OMW262109:OMW262176 OWS262109:OWS262176 PGO262109:PGO262176 PQK262109:PQK262176 QAG262109:QAG262176 QKC262109:QKC262176 QTY262109:QTY262176 RDU262109:RDU262176 RNQ262109:RNQ262176 RXM262109:RXM262176 SHI262109:SHI262176 SRE262109:SRE262176 TBA262109:TBA262176 TKW262109:TKW262176 TUS262109:TUS262176 UEO262109:UEO262176 UOK262109:UOK262176 UYG262109:UYG262176 VIC262109:VIC262176 VRY262109:VRY262176 WBU262109:WBU262176 WLQ262109:WLQ262176 WVM262109:WVM262176 E327699:E327766 JA327645:JA327712 SW327645:SW327712 ACS327645:ACS327712 AMO327645:AMO327712 AWK327645:AWK327712 BGG327645:BGG327712 BQC327645:BQC327712 BZY327645:BZY327712 CJU327645:CJU327712 CTQ327645:CTQ327712 DDM327645:DDM327712 DNI327645:DNI327712 DXE327645:DXE327712 EHA327645:EHA327712 EQW327645:EQW327712 FAS327645:FAS327712 FKO327645:FKO327712 FUK327645:FUK327712 GEG327645:GEG327712 GOC327645:GOC327712 GXY327645:GXY327712 HHU327645:HHU327712 HRQ327645:HRQ327712 IBM327645:IBM327712 ILI327645:ILI327712 IVE327645:IVE327712 JFA327645:JFA327712 JOW327645:JOW327712 JYS327645:JYS327712 KIO327645:KIO327712 KSK327645:KSK327712 LCG327645:LCG327712 LMC327645:LMC327712 LVY327645:LVY327712 MFU327645:MFU327712 MPQ327645:MPQ327712 MZM327645:MZM327712 NJI327645:NJI327712 NTE327645:NTE327712 ODA327645:ODA327712 OMW327645:OMW327712 OWS327645:OWS327712 PGO327645:PGO327712 PQK327645:PQK327712 QAG327645:QAG327712 QKC327645:QKC327712 QTY327645:QTY327712 RDU327645:RDU327712 RNQ327645:RNQ327712 RXM327645:RXM327712 SHI327645:SHI327712 SRE327645:SRE327712 TBA327645:TBA327712 TKW327645:TKW327712 TUS327645:TUS327712 UEO327645:UEO327712 UOK327645:UOK327712 UYG327645:UYG327712 VIC327645:VIC327712 VRY327645:VRY327712 WBU327645:WBU327712 WLQ327645:WLQ327712 WVM327645:WVM327712 E393235:E393302 JA393181:JA393248 SW393181:SW393248 ACS393181:ACS393248 AMO393181:AMO393248 AWK393181:AWK393248 BGG393181:BGG393248 BQC393181:BQC393248 BZY393181:BZY393248 CJU393181:CJU393248 CTQ393181:CTQ393248 DDM393181:DDM393248 DNI393181:DNI393248 DXE393181:DXE393248 EHA393181:EHA393248 EQW393181:EQW393248 FAS393181:FAS393248 FKO393181:FKO393248 FUK393181:FUK393248 GEG393181:GEG393248 GOC393181:GOC393248 GXY393181:GXY393248 HHU393181:HHU393248 HRQ393181:HRQ393248 IBM393181:IBM393248 ILI393181:ILI393248 IVE393181:IVE393248 JFA393181:JFA393248 JOW393181:JOW393248 JYS393181:JYS393248 KIO393181:KIO393248 KSK393181:KSK393248 LCG393181:LCG393248 LMC393181:LMC393248 LVY393181:LVY393248 MFU393181:MFU393248 MPQ393181:MPQ393248 MZM393181:MZM393248 NJI393181:NJI393248 NTE393181:NTE393248 ODA393181:ODA393248 OMW393181:OMW393248 OWS393181:OWS393248 PGO393181:PGO393248 PQK393181:PQK393248 QAG393181:QAG393248 QKC393181:QKC393248 QTY393181:QTY393248 RDU393181:RDU393248 RNQ393181:RNQ393248 RXM393181:RXM393248 SHI393181:SHI393248 SRE393181:SRE393248 TBA393181:TBA393248 TKW393181:TKW393248 TUS393181:TUS393248 UEO393181:UEO393248 UOK393181:UOK393248 UYG393181:UYG393248 VIC393181:VIC393248 VRY393181:VRY393248 WBU393181:WBU393248 WLQ393181:WLQ393248 WVM393181:WVM393248 E458771:E458838 JA458717:JA458784 SW458717:SW458784 ACS458717:ACS458784 AMO458717:AMO458784 AWK458717:AWK458784 BGG458717:BGG458784 BQC458717:BQC458784 BZY458717:BZY458784 CJU458717:CJU458784 CTQ458717:CTQ458784 DDM458717:DDM458784 DNI458717:DNI458784 DXE458717:DXE458784 EHA458717:EHA458784 EQW458717:EQW458784 FAS458717:FAS458784 FKO458717:FKO458784 FUK458717:FUK458784 GEG458717:GEG458784 GOC458717:GOC458784 GXY458717:GXY458784 HHU458717:HHU458784 HRQ458717:HRQ458784 IBM458717:IBM458784 ILI458717:ILI458784 IVE458717:IVE458784 JFA458717:JFA458784 JOW458717:JOW458784 JYS458717:JYS458784 KIO458717:KIO458784 KSK458717:KSK458784 LCG458717:LCG458784 LMC458717:LMC458784 LVY458717:LVY458784 MFU458717:MFU458784 MPQ458717:MPQ458784 MZM458717:MZM458784 NJI458717:NJI458784 NTE458717:NTE458784 ODA458717:ODA458784 OMW458717:OMW458784 OWS458717:OWS458784 PGO458717:PGO458784 PQK458717:PQK458784 QAG458717:QAG458784 QKC458717:QKC458784 QTY458717:QTY458784 RDU458717:RDU458784 RNQ458717:RNQ458784 RXM458717:RXM458784 SHI458717:SHI458784 SRE458717:SRE458784 TBA458717:TBA458784 TKW458717:TKW458784 TUS458717:TUS458784 UEO458717:UEO458784 UOK458717:UOK458784 UYG458717:UYG458784 VIC458717:VIC458784 VRY458717:VRY458784 WBU458717:WBU458784 WLQ458717:WLQ458784 WVM458717:WVM458784 E524307:E524374 JA524253:JA524320 SW524253:SW524320 ACS524253:ACS524320 AMO524253:AMO524320 AWK524253:AWK524320 BGG524253:BGG524320 BQC524253:BQC524320 BZY524253:BZY524320 CJU524253:CJU524320 CTQ524253:CTQ524320 DDM524253:DDM524320 DNI524253:DNI524320 DXE524253:DXE524320 EHA524253:EHA524320 EQW524253:EQW524320 FAS524253:FAS524320 FKO524253:FKO524320 FUK524253:FUK524320 GEG524253:GEG524320 GOC524253:GOC524320 GXY524253:GXY524320 HHU524253:HHU524320 HRQ524253:HRQ524320 IBM524253:IBM524320 ILI524253:ILI524320 IVE524253:IVE524320 JFA524253:JFA524320 JOW524253:JOW524320 JYS524253:JYS524320 KIO524253:KIO524320 KSK524253:KSK524320 LCG524253:LCG524320 LMC524253:LMC524320 LVY524253:LVY524320 MFU524253:MFU524320 MPQ524253:MPQ524320 MZM524253:MZM524320 NJI524253:NJI524320 NTE524253:NTE524320 ODA524253:ODA524320 OMW524253:OMW524320 OWS524253:OWS524320 PGO524253:PGO524320 PQK524253:PQK524320 QAG524253:QAG524320 QKC524253:QKC524320 QTY524253:QTY524320 RDU524253:RDU524320 RNQ524253:RNQ524320 RXM524253:RXM524320 SHI524253:SHI524320 SRE524253:SRE524320 TBA524253:TBA524320 TKW524253:TKW524320 TUS524253:TUS524320 UEO524253:UEO524320 UOK524253:UOK524320 UYG524253:UYG524320 VIC524253:VIC524320 VRY524253:VRY524320 WBU524253:WBU524320 WLQ524253:WLQ524320 WVM524253:WVM524320 E589843:E589910 JA589789:JA589856 SW589789:SW589856 ACS589789:ACS589856 AMO589789:AMO589856 AWK589789:AWK589856 BGG589789:BGG589856 BQC589789:BQC589856 BZY589789:BZY589856 CJU589789:CJU589856 CTQ589789:CTQ589856 DDM589789:DDM589856 DNI589789:DNI589856 DXE589789:DXE589856 EHA589789:EHA589856 EQW589789:EQW589856 FAS589789:FAS589856 FKO589789:FKO589856 FUK589789:FUK589856 GEG589789:GEG589856 GOC589789:GOC589856 GXY589789:GXY589856 HHU589789:HHU589856 HRQ589789:HRQ589856 IBM589789:IBM589856 ILI589789:ILI589856 IVE589789:IVE589856 JFA589789:JFA589856 JOW589789:JOW589856 JYS589789:JYS589856 KIO589789:KIO589856 KSK589789:KSK589856 LCG589789:LCG589856 LMC589789:LMC589856 LVY589789:LVY589856 MFU589789:MFU589856 MPQ589789:MPQ589856 MZM589789:MZM589856 NJI589789:NJI589856 NTE589789:NTE589856 ODA589789:ODA589856 OMW589789:OMW589856 OWS589789:OWS589856 PGO589789:PGO589856 PQK589789:PQK589856 QAG589789:QAG589856 QKC589789:QKC589856 QTY589789:QTY589856 RDU589789:RDU589856 RNQ589789:RNQ589856 RXM589789:RXM589856 SHI589789:SHI589856 SRE589789:SRE589856 TBA589789:TBA589856 TKW589789:TKW589856 TUS589789:TUS589856 UEO589789:UEO589856 UOK589789:UOK589856 UYG589789:UYG589856 VIC589789:VIC589856 VRY589789:VRY589856 WBU589789:WBU589856 WLQ589789:WLQ589856 WVM589789:WVM589856 E655379:E655446 JA655325:JA655392 SW655325:SW655392 ACS655325:ACS655392 AMO655325:AMO655392 AWK655325:AWK655392 BGG655325:BGG655392 BQC655325:BQC655392 BZY655325:BZY655392 CJU655325:CJU655392 CTQ655325:CTQ655392 DDM655325:DDM655392 DNI655325:DNI655392 DXE655325:DXE655392 EHA655325:EHA655392 EQW655325:EQW655392 FAS655325:FAS655392 FKO655325:FKO655392 FUK655325:FUK655392 GEG655325:GEG655392 GOC655325:GOC655392 GXY655325:GXY655392 HHU655325:HHU655392 HRQ655325:HRQ655392 IBM655325:IBM655392 ILI655325:ILI655392 IVE655325:IVE655392 JFA655325:JFA655392 JOW655325:JOW655392 JYS655325:JYS655392 KIO655325:KIO655392 KSK655325:KSK655392 LCG655325:LCG655392 LMC655325:LMC655392 LVY655325:LVY655392 MFU655325:MFU655392 MPQ655325:MPQ655392 MZM655325:MZM655392 NJI655325:NJI655392 NTE655325:NTE655392 ODA655325:ODA655392 OMW655325:OMW655392 OWS655325:OWS655392 PGO655325:PGO655392 PQK655325:PQK655392 QAG655325:QAG655392 QKC655325:QKC655392 QTY655325:QTY655392 RDU655325:RDU655392 RNQ655325:RNQ655392 RXM655325:RXM655392 SHI655325:SHI655392 SRE655325:SRE655392 TBA655325:TBA655392 TKW655325:TKW655392 TUS655325:TUS655392 UEO655325:UEO655392 UOK655325:UOK655392 UYG655325:UYG655392 VIC655325:VIC655392 VRY655325:VRY655392 WBU655325:WBU655392 WLQ655325:WLQ655392 WVM655325:WVM655392 E720915:E720982 JA720861:JA720928 SW720861:SW720928 ACS720861:ACS720928 AMO720861:AMO720928 AWK720861:AWK720928 BGG720861:BGG720928 BQC720861:BQC720928 BZY720861:BZY720928 CJU720861:CJU720928 CTQ720861:CTQ720928 DDM720861:DDM720928 DNI720861:DNI720928 DXE720861:DXE720928 EHA720861:EHA720928 EQW720861:EQW720928 FAS720861:FAS720928 FKO720861:FKO720928 FUK720861:FUK720928 GEG720861:GEG720928 GOC720861:GOC720928 GXY720861:GXY720928 HHU720861:HHU720928 HRQ720861:HRQ720928 IBM720861:IBM720928 ILI720861:ILI720928 IVE720861:IVE720928 JFA720861:JFA720928 JOW720861:JOW720928 JYS720861:JYS720928 KIO720861:KIO720928 KSK720861:KSK720928 LCG720861:LCG720928 LMC720861:LMC720928 LVY720861:LVY720928 MFU720861:MFU720928 MPQ720861:MPQ720928 MZM720861:MZM720928 NJI720861:NJI720928 NTE720861:NTE720928 ODA720861:ODA720928 OMW720861:OMW720928 OWS720861:OWS720928 PGO720861:PGO720928 PQK720861:PQK720928 QAG720861:QAG720928 QKC720861:QKC720928 QTY720861:QTY720928 RDU720861:RDU720928 RNQ720861:RNQ720928 RXM720861:RXM720928 SHI720861:SHI720928 SRE720861:SRE720928 TBA720861:TBA720928 TKW720861:TKW720928 TUS720861:TUS720928 UEO720861:UEO720928 UOK720861:UOK720928 UYG720861:UYG720928 VIC720861:VIC720928 VRY720861:VRY720928 WBU720861:WBU720928 WLQ720861:WLQ720928 WVM720861:WVM720928 E786451:E786518 JA786397:JA786464 SW786397:SW786464 ACS786397:ACS786464 AMO786397:AMO786464 AWK786397:AWK786464 BGG786397:BGG786464 BQC786397:BQC786464 BZY786397:BZY786464 CJU786397:CJU786464 CTQ786397:CTQ786464 DDM786397:DDM786464 DNI786397:DNI786464 DXE786397:DXE786464 EHA786397:EHA786464 EQW786397:EQW786464 FAS786397:FAS786464 FKO786397:FKO786464 FUK786397:FUK786464 GEG786397:GEG786464 GOC786397:GOC786464 GXY786397:GXY786464 HHU786397:HHU786464 HRQ786397:HRQ786464 IBM786397:IBM786464 ILI786397:ILI786464 IVE786397:IVE786464 JFA786397:JFA786464 JOW786397:JOW786464 JYS786397:JYS786464 KIO786397:KIO786464 KSK786397:KSK786464 LCG786397:LCG786464 LMC786397:LMC786464 LVY786397:LVY786464 MFU786397:MFU786464 MPQ786397:MPQ786464 MZM786397:MZM786464 NJI786397:NJI786464 NTE786397:NTE786464 ODA786397:ODA786464 OMW786397:OMW786464 OWS786397:OWS786464 PGO786397:PGO786464 PQK786397:PQK786464 QAG786397:QAG786464 QKC786397:QKC786464 QTY786397:QTY786464 RDU786397:RDU786464 RNQ786397:RNQ786464 RXM786397:RXM786464 SHI786397:SHI786464 SRE786397:SRE786464 TBA786397:TBA786464 TKW786397:TKW786464 TUS786397:TUS786464 UEO786397:UEO786464 UOK786397:UOK786464 UYG786397:UYG786464 VIC786397:VIC786464 VRY786397:VRY786464 WBU786397:WBU786464 WLQ786397:WLQ786464 WVM786397:WVM786464 E851987:E852054 JA851933:JA852000 SW851933:SW852000 ACS851933:ACS852000 AMO851933:AMO852000 AWK851933:AWK852000 BGG851933:BGG852000 BQC851933:BQC852000 BZY851933:BZY852000 CJU851933:CJU852000 CTQ851933:CTQ852000 DDM851933:DDM852000 DNI851933:DNI852000 DXE851933:DXE852000 EHA851933:EHA852000 EQW851933:EQW852000 FAS851933:FAS852000 FKO851933:FKO852000 FUK851933:FUK852000 GEG851933:GEG852000 GOC851933:GOC852000 GXY851933:GXY852000 HHU851933:HHU852000 HRQ851933:HRQ852000 IBM851933:IBM852000 ILI851933:ILI852000 IVE851933:IVE852000 JFA851933:JFA852000 JOW851933:JOW852000 JYS851933:JYS852000 KIO851933:KIO852000 KSK851933:KSK852000 LCG851933:LCG852000 LMC851933:LMC852000 LVY851933:LVY852000 MFU851933:MFU852000 MPQ851933:MPQ852000 MZM851933:MZM852000 NJI851933:NJI852000 NTE851933:NTE852000 ODA851933:ODA852000 OMW851933:OMW852000 OWS851933:OWS852000 PGO851933:PGO852000 PQK851933:PQK852000 QAG851933:QAG852000 QKC851933:QKC852000 QTY851933:QTY852000 RDU851933:RDU852000 RNQ851933:RNQ852000 RXM851933:RXM852000 SHI851933:SHI852000 SRE851933:SRE852000 TBA851933:TBA852000 TKW851933:TKW852000 TUS851933:TUS852000 UEO851933:UEO852000 UOK851933:UOK852000 UYG851933:UYG852000 VIC851933:VIC852000 VRY851933:VRY852000 WBU851933:WBU852000 WLQ851933:WLQ852000 WVM851933:WVM852000 E917523:E917590 JA917469:JA917536 SW917469:SW917536 ACS917469:ACS917536 AMO917469:AMO917536 AWK917469:AWK917536 BGG917469:BGG917536 BQC917469:BQC917536 BZY917469:BZY917536 CJU917469:CJU917536 CTQ917469:CTQ917536 DDM917469:DDM917536 DNI917469:DNI917536 DXE917469:DXE917536 EHA917469:EHA917536 EQW917469:EQW917536 FAS917469:FAS917536 FKO917469:FKO917536 FUK917469:FUK917536 GEG917469:GEG917536 GOC917469:GOC917536 GXY917469:GXY917536 HHU917469:HHU917536 HRQ917469:HRQ917536 IBM917469:IBM917536 ILI917469:ILI917536 IVE917469:IVE917536 JFA917469:JFA917536 JOW917469:JOW917536 JYS917469:JYS917536 KIO917469:KIO917536 KSK917469:KSK917536 LCG917469:LCG917536 LMC917469:LMC917536 LVY917469:LVY917536 MFU917469:MFU917536 MPQ917469:MPQ917536 MZM917469:MZM917536 NJI917469:NJI917536 NTE917469:NTE917536 ODA917469:ODA917536 OMW917469:OMW917536 OWS917469:OWS917536 PGO917469:PGO917536 PQK917469:PQK917536 QAG917469:QAG917536 QKC917469:QKC917536 QTY917469:QTY917536 RDU917469:RDU917536 RNQ917469:RNQ917536 RXM917469:RXM917536 SHI917469:SHI917536 SRE917469:SRE917536 TBA917469:TBA917536 TKW917469:TKW917536 TUS917469:TUS917536 UEO917469:UEO917536 UOK917469:UOK917536 UYG917469:UYG917536 VIC917469:VIC917536 VRY917469:VRY917536 WBU917469:WBU917536 WLQ917469:WLQ917536 WVM917469:WVM917536 E983059:E983126 JA983005:JA983072 SW983005:SW983072 ACS983005:ACS983072 AMO983005:AMO983072 AWK983005:AWK983072 BGG983005:BGG983072 BQC983005:BQC983072 BZY983005:BZY983072 CJU983005:CJU983072 CTQ983005:CTQ983072 DDM983005:DDM983072 DNI983005:DNI983072 DXE983005:DXE983072 EHA983005:EHA983072 EQW983005:EQW983072 FAS983005:FAS983072 FKO983005:FKO983072 FUK983005:FUK983072 GEG983005:GEG983072 GOC983005:GOC983072 GXY983005:GXY983072 HHU983005:HHU983072 HRQ983005:HRQ983072 IBM983005:IBM983072 ILI983005:ILI983072 IVE983005:IVE983072 JFA983005:JFA983072 JOW983005:JOW983072 JYS983005:JYS983072 KIO983005:KIO983072 KSK983005:KSK983072 LCG983005:LCG983072 LMC983005:LMC983072 LVY983005:LVY983072 MFU983005:MFU983072 MPQ983005:MPQ983072 MZM983005:MZM983072 NJI983005:NJI983072 NTE983005:NTE983072 ODA983005:ODA983072 OMW983005:OMW983072 OWS983005:OWS983072 PGO983005:PGO983072 PQK983005:PQK983072 QAG983005:QAG983072 QKC983005:QKC983072 QTY983005:QTY983072 RDU983005:RDU983072 RNQ983005:RNQ983072 RXM983005:RXM983072 SHI983005:SHI983072 SRE983005:SRE983072 TBA983005:TBA983072 TKW983005:TKW983072 TUS983005:TUS983072 UEO983005:UEO983072 UOK983005:UOK983072 UYG983005:UYG983072 VIC983005:VIC983072 VRY983005:VRY983072 WBU983005:WBU983072 WLQ983005:WLQ983072 E65:E91" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>$G$27:$G$70</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G60:G66 E26:E52 G68 G14:G58" xr:uid="{00000000-0002-0000-0000-000002000000}">
-      <formula1>$G$15:$G$58</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G72:G78 E38:E64 G80 G26:G70" xr:uid="{00000000-0002-0000-0000-000002000000}">
+      <formula1>$G$27:$G$70</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.39" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AssetManagement/AssetManagement/bin/Debug/Finance forms/financial blank report.xlsx
+++ b/AssetManagement/AssetManagement/bin/Debug/Finance forms/financial blank report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2949F8-62AF-4AFB-8603-A848D5703DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCADCE09-6F68-4235-95C5-ADDEECD5742E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Lists" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$G$4:$P$81</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$G$4:$P$79</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="165">
   <si>
     <t xml:space="preserve">التقرير المالي  التفصيلي </t>
   </si>
@@ -521,6 +521,9 @@
   </si>
   <si>
     <t>تفصيل البند المالي</t>
+  </si>
+  <si>
+    <t>واردات بيع أصول</t>
   </si>
 </sst>
 </file>
@@ -1132,6 +1135,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1153,40 +1186,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1563,10 +1566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X102"/>
+  <dimension ref="A1:X100"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A49" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.5"/>
@@ -2792,18 +2795,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="2" customFormat="1" ht="22.2" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="95"/>
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="94"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="85" t="s">
+      <c r="G1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="86"/>
+      <c r="H1" s="96"/>
       <c r="J1" s="46"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -2821,9 +2824,9 @@
       <c r="X1" s="4"/>
     </row>
     <row r="2" spans="1:24" s="2" customFormat="1" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="101"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="103"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="104"/>
       <c r="E2" s="105"/>
       <c r="F2" s="1"/>
@@ -2846,26 +2849,26 @@
       <c r="X2" s="4"/>
     </row>
     <row r="3" spans="1:24" s="2" customFormat="1" ht="21.6" x14ac:dyDescent="0.65">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="98" t="s">
+      <c r="C3" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="99" t="s">
+      <c r="D3" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="100" t="s">
+      <c r="E3" s="89" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="7"/>
-      <c r="G3" s="87" t="s">
+      <c r="G3" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="88"/>
+      <c r="H3" s="98"/>
       <c r="J3" s="46"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -2883,13 +2886,13 @@
       <c r="X3" s="4"/>
     </row>
     <row r="4" spans="1:24" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="91"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="101"/>
       <c r="F4" s="8"/>
       <c r="G4" s="9" t="s">
         <v>9</v>
@@ -2926,7 +2929,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="19">
-        <f t="shared" ref="H5:H11" si="0">SUMIF(E:E,G5,A:A)</f>
+        <f>SUMIF(E:E,G5,A:A)</f>
         <v>0</v>
       </c>
       <c r="J5" s="48" t="s">
@@ -2958,7 +2961,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="19">
-        <f t="shared" si="0"/>
+        <f>SUMIF(E:E,G6,A:A)</f>
         <v>0</v>
       </c>
       <c r="J6" s="46" t="s">
@@ -2990,7 +2993,7 @@
         <v>13</v>
       </c>
       <c r="H7" s="19">
-        <f t="shared" si="0"/>
+        <f>SUMIF(E:E,G7,A:A)</f>
         <v>0</v>
       </c>
       <c r="J7" s="46" t="s">
@@ -3022,7 +3025,7 @@
         <v>14</v>
       </c>
       <c r="H8" s="19">
-        <f t="shared" si="0"/>
+        <f>SUMIF(E:E,G8,A:A)</f>
         <v>0</v>
       </c>
       <c r="J8" s="46" t="s">
@@ -3054,7 +3057,7 @@
         <v>15</v>
       </c>
       <c r="H9" s="19">
-        <f t="shared" si="0"/>
+        <f>SUMIF(E:E,G9,A:A)</f>
         <v>0</v>
       </c>
       <c r="J9" s="46" t="s">
@@ -3086,7 +3089,7 @@
         <v>50</v>
       </c>
       <c r="H10" s="19">
-        <f t="shared" si="0"/>
+        <f>SUMIF(E:E,G10,A:A)</f>
         <v>0</v>
       </c>
       <c r="J10" s="46" t="s">
@@ -3118,7 +3121,7 @@
         <v>17</v>
       </c>
       <c r="H11" s="19">
-        <f t="shared" si="0"/>
+        <f>SUMIF(E:E,G11,A:A)</f>
         <v>0</v>
       </c>
       <c r="J11" s="46" t="s">
@@ -3146,9 +3149,11 @@
       <c r="D12" s="61"/>
       <c r="E12" s="18"/>
       <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
+      <c r="G12" s="18" t="s">
+        <v>164</v>
+      </c>
       <c r="H12" s="19">
-        <f t="shared" ref="H12:H23" si="1">SUMIF(E:E,G12,A:A)</f>
+        <f>SUMIF(E:E,G12,A:A)</f>
         <v>0</v>
       </c>
       <c r="J12" s="46"/>
@@ -3168,15 +3173,17 @@
       <c r="X12" s="13"/>
     </row>
     <row r="13" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A13" s="57"/>
+      <c r="A13" s="78"/>
       <c r="B13" s="62"/>
       <c r="C13" s="58"/>
       <c r="D13" s="61"/>
       <c r="E13" s="18"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19">
-        <f t="shared" si="1"/>
+      <c r="G13" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="21">
+        <f>SUM(H5:H12)</f>
         <v>0</v>
       </c>
       <c r="J13" s="46"/>
@@ -3196,16 +3203,17 @@
       <c r="X13" s="13"/>
     </row>
     <row r="14" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A14" s="57"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="62"/>
-      <c r="C14" s="58"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="61"/>
-      <c r="E14" s="18"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G14" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="J14" s="46"/>
       <c r="K14" s="3"/>
@@ -3224,18 +3232,22 @@
       <c r="X14" s="13"/>
     </row>
     <row r="15" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A15" s="57"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="62"/>
-      <c r="C15" s="58"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="61"/>
-      <c r="E15" s="18"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
+      <c r="G15" s="18" t="s">
+        <v>50</v>
+      </c>
       <c r="H15" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="46"/>
+        <f>SUMIF(E:E,G15,B:B)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="46" t="s">
+        <v>75</v>
+      </c>
       <c r="K15" s="3"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
@@ -3252,18 +3264,22 @@
       <c r="X15" s="13"/>
     </row>
     <row r="16" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A16" s="57"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="62"/>
-      <c r="C16" s="58"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="61"/>
-      <c r="E16" s="18"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
+      <c r="G16" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="H16" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="46"/>
+        <f>SUMIF(E:E,G16,B:B)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="46" t="s">
+        <v>78</v>
+      </c>
       <c r="K16" s="3"/>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
@@ -3280,18 +3296,22 @@
       <c r="X16" s="13"/>
     </row>
     <row r="17" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A17" s="57"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="58"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="61"/>
-      <c r="E17" s="18"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
+      <c r="G17" s="18" t="s">
+        <v>66</v>
+      </c>
       <c r="H17" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="46"/>
+        <f>SUMIF(E:E,G17,B:B)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="46" t="s">
+        <v>79</v>
+      </c>
       <c r="K17" s="3"/>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
@@ -3308,18 +3328,22 @@
       <c r="X17" s="13"/>
     </row>
     <row r="18" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A18" s="57"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="62"/>
-      <c r="C18" s="58"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="61"/>
-      <c r="E18" s="18"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
+      <c r="G18" s="18" t="s">
+        <v>20</v>
+      </c>
       <c r="H18" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="46"/>
+        <f>SUMIF(E:E,G18,B:B)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="46" t="s">
+        <v>80</v>
+      </c>
       <c r="K18" s="3"/>
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
@@ -3336,18 +3360,22 @@
       <c r="X18" s="13"/>
     </row>
     <row r="19" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A19" s="57"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="62"/>
-      <c r="C19" s="58"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="61"/>
-      <c r="E19" s="18"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
+      <c r="G19" s="18" t="s">
+        <v>22</v>
+      </c>
       <c r="H19" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="46"/>
+        <f>SUMIF(E:E,G19,B:B)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="46" t="s">
+        <v>59</v>
+      </c>
       <c r="K19" s="3"/>
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
@@ -3364,18 +3392,22 @@
       <c r="X19" s="13"/>
     </row>
     <row r="20" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A20" s="57"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="58"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="61"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="H20" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="46"/>
+        <f>SUMIF(E:E,G20,B:B)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="46" t="s">
+        <v>82</v>
+      </c>
       <c r="K20" s="3"/>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
@@ -3392,18 +3424,22 @@
       <c r="X20" s="13"/>
     </row>
     <row r="21" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A21" s="57"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="58"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="61"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="18" t="s">
+        <v>83</v>
+      </c>
       <c r="H21" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="46"/>
+        <f>SUMIF(E:E,G21,B:B)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="46" t="s">
+        <v>84</v>
+      </c>
       <c r="K21" s="3"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
@@ -3420,18 +3456,22 @@
       <c r="X21" s="13"/>
     </row>
     <row r="22" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A22" s="57"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="58"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="61"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="18" t="s">
+        <v>58</v>
+      </c>
       <c r="H22" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="46"/>
+        <f>SUMIF(E:E,G22,B:B)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="46" t="s">
+        <v>85</v>
+      </c>
       <c r="K22" s="3"/>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
@@ -3448,1059 +3488,919 @@
       <c r="X22" s="13"/>
     </row>
     <row r="23" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A23" s="57"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="58"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="24"/>
       <c r="D23" s="61"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="18"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="H23" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="46"/>
+        <f>SUMIF(E:E,G23,B:B)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="46" t="s">
+        <v>86</v>
+      </c>
       <c r="K23" s="3"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="13"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
     </row>
     <row r="24" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A24" s="78"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="58"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="24"/>
       <c r="D24" s="61"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="21">
-        <f>SUM(H5:H23)</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="46"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H24" s="19">
+        <f>SUMIF(E:E,G24,B:B)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="46" t="s">
+        <v>87</v>
+      </c>
       <c r="K24" s="3"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="13"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
     </row>
     <row r="25" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A25" s="14"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="15"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="61"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J25" s="46"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="H25" s="19">
+        <f>SUMIF(E:E,G25,B:B)</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="46" t="s">
+        <v>88</v>
+      </c>
       <c r="K25" s="3"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="13"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
     </row>
     <row r="26" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A26" s="14"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="15"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="61"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="17"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="26"/>
       <c r="G26" s="18" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H26" s="19">
-        <f t="shared" ref="H26:H70" si="2">SUMIF(E:E,G26,B:B)</f>
+        <f>SUMIF(E:E,G26,B:B)</f>
         <v>0</v>
       </c>
       <c r="J26" s="46" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="K26" s="3"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="13"/>
+      <c r="L26" s="13"/>
     </row>
     <row r="27" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A27" s="14"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="15"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="59"/>
       <c r="D27" s="61"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="17"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="26"/>
       <c r="G27" s="18" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H27" s="19">
-        <f t="shared" si="2"/>
+        <f>SUMIF(E:E,G27,B:B)</f>
         <v>0</v>
       </c>
       <c r="J27" s="46" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K27" s="3"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="13"/>
+      <c r="L27" s="13"/>
     </row>
     <row r="28" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A28" s="14"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="15"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="59"/>
       <c r="D28" s="61"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="17"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="26"/>
       <c r="G28" s="18" t="s">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="H28" s="19">
-        <f t="shared" si="2"/>
+        <f>SUMIF(E:E,G28,B:B)</f>
         <v>0</v>
       </c>
       <c r="J28" s="46" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K28" s="3"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="13"/>
+      <c r="L28" s="13"/>
     </row>
     <row r="29" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A29" s="14"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="22"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="61"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="17"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="26"/>
       <c r="G29" s="18" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="H29" s="19">
-        <f t="shared" si="2"/>
+        <f>SUMIF(E:E,G29,B:B)</f>
         <v>0</v>
       </c>
       <c r="J29" s="46" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K29" s="3"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="13"/>
-    </row>
-    <row r="30" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A30" s="14"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="15"/>
+      <c r="L29" s="13"/>
+    </row>
+    <row r="30" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A30" s="29"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="59"/>
       <c r="D30" s="61"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="17"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="26"/>
       <c r="G30" s="18" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H30" s="19">
-        <f t="shared" si="2"/>
+        <f>SUMIF(E:E,G30,B:B)</f>
         <v>0</v>
       </c>
       <c r="J30" s="46" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="K30" s="3"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="13"/>
+      <c r="L30" s="13"/>
     </row>
     <row r="31" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A31" s="27"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="24"/>
+      <c r="A31" s="79"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="59"/>
       <c r="D31" s="61"/>
-      <c r="E31" s="23"/>
+      <c r="E31" s="18"/>
       <c r="F31" s="26"/>
       <c r="G31" s="18" t="s">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="H31" s="19">
-        <f t="shared" si="2"/>
+        <f>SUMIF(E:E,G31,B:B)</f>
         <v>0</v>
       </c>
       <c r="J31" s="46" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="K31" s="3"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="13"/>
+      <c r="L31" s="13"/>
     </row>
     <row r="32" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A32" s="27"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="24"/>
+      <c r="A32" s="79"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="58"/>
       <c r="D32" s="61"/>
-      <c r="E32" s="23"/>
+      <c r="E32" s="18"/>
       <c r="F32" s="26"/>
       <c r="G32" s="18" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="H32" s="19">
-        <f t="shared" si="2"/>
+        <f>SUMIF(E:E,G32,B:B)</f>
         <v>0</v>
       </c>
       <c r="J32" s="46" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K32" s="3"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12"/>
-      <c r="W32" s="12"/>
-      <c r="X32" s="13"/>
-    </row>
-    <row r="33" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A33" s="27"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="24"/>
+      <c r="L32" s="13"/>
+    </row>
+    <row r="33" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A33" s="79"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="59"/>
       <c r="D33" s="61"/>
-      <c r="E33" s="23"/>
+      <c r="E33" s="18"/>
       <c r="F33" s="26"/>
       <c r="G33" s="18" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="H33" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <f>SUMIF(E:E,G33,B:B)</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="31"/>
       <c r="J33" s="46" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K33" s="3"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="12"/>
-      <c r="W33" s="12"/>
-      <c r="X33" s="13"/>
-    </row>
-    <row r="34" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A34" s="27"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="24"/>
+    </row>
+    <row r="34" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A34" s="79"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="59"/>
       <c r="D34" s="61"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="26"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="32"/>
       <c r="G34" s="18" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H34" s="19">
-        <f t="shared" si="2"/>
+        <f>SUMIF(E:E,G34,B:B)</f>
         <v>0</v>
       </c>
       <c r="J34" s="46" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="K34" s="3"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="28"/>
-      <c r="S34" s="28"/>
-      <c r="T34" s="28"/>
-      <c r="U34" s="28"/>
-      <c r="V34" s="28"/>
-      <c r="W34" s="28"/>
-    </row>
-    <row r="35" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A35" s="27"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="24"/>
+    </row>
+    <row r="35" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A35" s="80"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="59"/>
       <c r="D35" s="61"/>
-      <c r="E35" s="23"/>
+      <c r="E35" s="18"/>
       <c r="F35" s="26"/>
       <c r="G35" s="18" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="H35" s="19">
-        <f t="shared" si="2"/>
+        <f>SUMIF(E:E,G35,B:B)</f>
         <v>0</v>
       </c>
       <c r="J35" s="46" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K35" s="3"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="28"/>
-      <c r="R35" s="28"/>
-      <c r="S35" s="28"/>
-      <c r="T35" s="28"/>
-      <c r="U35" s="28"/>
-      <c r="V35" s="28"/>
-      <c r="W35" s="28"/>
-    </row>
-    <row r="36" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A36" s="27"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="24"/>
+    </row>
+    <row r="36" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A36" s="80"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="59"/>
       <c r="D36" s="61"/>
-      <c r="E36" s="23"/>
+      <c r="E36" s="18"/>
       <c r="F36" s="26"/>
       <c r="G36" s="18" t="s">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="H36" s="19">
-        <f t="shared" si="2"/>
+        <f>SUMIF(E:E,G36,B:B)</f>
         <v>0</v>
       </c>
       <c r="J36" s="46" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="K36" s="3"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="28"/>
-      <c r="S36" s="28"/>
-      <c r="T36" s="28"/>
-      <c r="U36" s="28"/>
-      <c r="V36" s="28"/>
-      <c r="W36" s="28"/>
-    </row>
-    <row r="37" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A37" s="27"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="24"/>
+    </row>
+    <row r="37" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A37" s="80"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="59"/>
       <c r="D37" s="61"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="26"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="34"/>
       <c r="G37" s="18" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H37" s="19">
-        <f t="shared" si="2"/>
+        <f>SUMIF(E:E,G37,B:B)</f>
         <v>0</v>
       </c>
       <c r="J37" s="46" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K37" s="3"/>
-      <c r="L37" s="13"/>
-    </row>
-    <row r="38" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A38" s="29"/>
+    </row>
+    <row r="38" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A38" s="80"/>
       <c r="B38" s="83"/>
       <c r="C38" s="59"/>
       <c r="D38" s="61"/>
       <c r="E38" s="18"/>
-      <c r="F38" s="26"/>
+      <c r="F38" s="34"/>
       <c r="G38" s="18" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="H38" s="19">
-        <f t="shared" si="2"/>
+        <f>SUMIF(E:E,G38,B:B)</f>
         <v>0</v>
       </c>
       <c r="J38" s="46" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="K38" s="3"/>
-      <c r="L38" s="13"/>
-    </row>
-    <row r="39" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A39" s="29"/>
+    </row>
+    <row r="39" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A39" s="81"/>
       <c r="B39" s="83"/>
       <c r="C39" s="59"/>
       <c r="D39" s="61"/>
       <c r="E39" s="18"/>
-      <c r="F39" s="26"/>
+      <c r="F39" s="34"/>
       <c r="G39" s="18" t="s">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="H39" s="19">
-        <f t="shared" si="2"/>
+        <f>SUMIF(E:E,G39,B:B)</f>
         <v>0</v>
       </c>
       <c r="J39" s="46" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="K39" s="3"/>
-      <c r="L39" s="13"/>
-    </row>
-    <row r="40" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A40" s="29"/>
+    </row>
+    <row r="40" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A40" s="82"/>
       <c r="B40" s="83"/>
       <c r="C40" s="59"/>
       <c r="D40" s="61"/>
       <c r="E40" s="18"/>
-      <c r="F40" s="26"/>
+      <c r="F40" s="34"/>
       <c r="G40" s="18" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="H40" s="19">
-        <f t="shared" si="2"/>
+        <f>SUMIF(E:E,G40,B:B)</f>
         <v>0</v>
       </c>
       <c r="J40" s="46" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="K40" s="3"/>
-      <c r="L40" s="13"/>
-    </row>
-    <row r="41" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A41" s="29"/>
+    </row>
+    <row r="41" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A41" s="82"/>
       <c r="B41" s="83"/>
       <c r="C41" s="59"/>
       <c r="D41" s="61"/>
       <c r="E41" s="18"/>
-      <c r="F41" s="26"/>
+      <c r="F41" s="34"/>
       <c r="G41" s="18" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="H41" s="19">
-        <f t="shared" si="2"/>
+        <f>SUMIF(E:E,G41,B:B)</f>
         <v>0</v>
       </c>
       <c r="J41" s="46" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="K41" s="3"/>
-      <c r="L41" s="13"/>
-    </row>
-    <row r="42" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A42" s="79"/>
+    </row>
+    <row r="42" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A42" s="82"/>
       <c r="B42" s="83"/>
       <c r="C42" s="59"/>
       <c r="D42" s="61"/>
       <c r="E42" s="18"/>
-      <c r="F42" s="26"/>
+      <c r="F42" s="34"/>
       <c r="G42" s="18" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="H42" s="19">
-        <f t="shared" si="2"/>
+        <f>SUMIF(E:E,G42,B:B)</f>
         <v>0</v>
       </c>
       <c r="J42" s="46" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="K42" s="3"/>
-      <c r="L42" s="13"/>
-    </row>
-    <row r="43" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A43" s="79"/>
+    </row>
+    <row r="43" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A43" s="37"/>
       <c r="B43" s="83"/>
-      <c r="C43" s="58"/>
+      <c r="C43" s="59"/>
       <c r="D43" s="61"/>
       <c r="E43" s="18"/>
-      <c r="F43" s="26"/>
+      <c r="F43" s="34"/>
       <c r="G43" s="18" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="H43" s="19">
-        <f t="shared" si="2"/>
+        <f>SUMIF(E:E,G43,B:B)</f>
         <v>0</v>
       </c>
       <c r="J43" s="46" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="K43" s="3"/>
-      <c r="L43" s="13"/>
-    </row>
-    <row r="44" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A44" s="79"/>
+      <c r="L43" s="31"/>
+    </row>
+    <row r="44" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A44" s="37"/>
       <c r="B44" s="83"/>
       <c r="C44" s="59"/>
       <c r="D44" s="61"/>
       <c r="E44" s="18"/>
-      <c r="F44" s="26"/>
+      <c r="F44" s="34"/>
       <c r="G44" s="18" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H44" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="31"/>
+        <f>SUMIF(E:E,G44,B:B)</f>
+        <v>0</v>
+      </c>
       <c r="J44" s="46" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A45" s="79"/>
+    <row r="45" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A45" s="37"/>
       <c r="B45" s="83"/>
       <c r="C45" s="59"/>
       <c r="D45" s="61"/>
       <c r="E45" s="18"/>
-      <c r="F45" s="32"/>
+      <c r="F45" s="34"/>
       <c r="G45" s="18" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="H45" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <f>SUMIF(E:E,G45,B:B)</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="34"/>
       <c r="J45" s="46" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A46" s="80"/>
+    <row r="46" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A46" s="35"/>
       <c r="B46" s="83"/>
       <c r="C46" s="59"/>
       <c r="D46" s="61"/>
       <c r="E46" s="18"/>
-      <c r="F46" s="26"/>
+      <c r="F46" s="34"/>
       <c r="G46" s="18" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H46" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <f>SUMIF(E:E,G46,B:B)</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="34"/>
       <c r="J46" s="46" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A47" s="80"/>
+    <row r="47" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A47" s="37"/>
       <c r="B47" s="83"/>
       <c r="C47" s="59"/>
       <c r="D47" s="61"/>
       <c r="E47" s="18"/>
-      <c r="F47" s="26"/>
+      <c r="F47" s="34"/>
       <c r="G47" s="18" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="H47" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <f>SUMIF(E:E,G47,B:B)</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="34"/>
       <c r="J47" s="46" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A48" s="80"/>
+    <row r="48" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A48" s="37"/>
       <c r="B48" s="83"/>
       <c r="C48" s="59"/>
       <c r="D48" s="61"/>
       <c r="E48" s="18"/>
       <c r="F48" s="34"/>
       <c r="G48" s="18" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="H48" s="19">
-        <f t="shared" si="2"/>
+        <f>SUMIF(E:E,G48,B:B)</f>
         <v>0</v>
       </c>
       <c r="J48" s="46" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A49" s="80"/>
+    <row r="49" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A49" s="37"/>
       <c r="B49" s="83"/>
       <c r="C49" s="59"/>
       <c r="D49" s="61"/>
       <c r="E49" s="18"/>
       <c r="F49" s="34"/>
       <c r="G49" s="18" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="H49" s="19">
-        <f t="shared" si="2"/>
+        <f>SUMIF(E:E,G49,B:B)</f>
         <v>0</v>
       </c>
       <c r="J49" s="46" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A50" s="81"/>
+    <row r="50" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A50" s="37"/>
       <c r="B50" s="83"/>
       <c r="C50" s="59"/>
       <c r="D50" s="61"/>
       <c r="E50" s="18"/>
       <c r="F50" s="34"/>
       <c r="G50" s="18" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H50" s="19">
-        <f t="shared" si="2"/>
+        <f>SUMIF(E:E,G50,B:B)</f>
         <v>0</v>
       </c>
       <c r="J50" s="46" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A51" s="82"/>
+    <row r="51" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A51" s="37"/>
       <c r="B51" s="83"/>
       <c r="C51" s="59"/>
       <c r="D51" s="61"/>
       <c r="E51" s="18"/>
       <c r="F51" s="34"/>
       <c r="G51" s="18" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H51" s="19">
-        <f t="shared" si="2"/>
+        <f>SUMIF(E:E,G51,B:B)</f>
         <v>0</v>
       </c>
       <c r="J51" s="46" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A52" s="82"/>
+    <row r="52" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A52" s="37"/>
       <c r="B52" s="83"/>
       <c r="C52" s="59"/>
       <c r="D52" s="61"/>
       <c r="E52" s="18"/>
       <c r="F52" s="34"/>
       <c r="G52" s="18" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="H52" s="19">
-        <f t="shared" si="2"/>
+        <f>SUMIF(E:E,G52,B:B)</f>
         <v>0</v>
       </c>
       <c r="J52" s="46" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A53" s="82"/>
+    <row r="53" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A53" s="37"/>
       <c r="B53" s="83"/>
       <c r="C53" s="59"/>
       <c r="D53" s="61"/>
       <c r="E53" s="18"/>
       <c r="F53" s="34"/>
       <c r="G53" s="18" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="H53" s="19">
-        <f t="shared" si="2"/>
+        <f>SUMIF(E:E,G53,B:B)</f>
         <v>0</v>
       </c>
       <c r="J53" s="46" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="54" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A54" s="37"/>
       <c r="B54" s="83"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="61"/>
-      <c r="E54" s="18"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="23"/>
       <c r="F54" s="34"/>
       <c r="G54" s="18" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H54" s="19">
-        <f t="shared" si="2"/>
+        <f>SUMIF(E:E,G54,B:B)</f>
         <v>0</v>
       </c>
       <c r="J54" s="46" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="K54" s="3"/>
-      <c r="L54" s="31"/>
-    </row>
-    <row r="55" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A55" s="37"/>
+    </row>
+    <row r="55" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A55" s="35"/>
       <c r="B55" s="83"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="18"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="23"/>
       <c r="F55" s="34"/>
       <c r="G55" s="18" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H55" s="19">
-        <f t="shared" si="2"/>
+        <f>SUMIF(E:E,G55,B:B)</f>
         <v>0</v>
       </c>
       <c r="J55" s="46" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="56" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A56" s="37"/>
-      <c r="B56" s="83"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="61"/>
-      <c r="E56" s="18"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="23"/>
       <c r="F56" s="34"/>
       <c r="G56" s="18" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="H56" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I56" s="34"/>
+        <f>SUMIF(E:E,G56,B:B)</f>
+        <v>0</v>
+      </c>
       <c r="J56" s="46" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A57" s="35"/>
-      <c r="B57" s="83"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="61"/>
-      <c r="E57" s="18"/>
+    <row r="57" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A57" s="37"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="23"/>
       <c r="F57" s="34"/>
       <c r="G57" s="18" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="H57" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I57" s="34"/>
+        <f>SUMIF(E:E,G57,B:B)</f>
+        <v>0</v>
+      </c>
       <c r="J57" s="46" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A58" s="37"/>
-      <c r="B58" s="83"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="18"/>
+    <row r="58" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A58" s="35"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="23"/>
       <c r="F58" s="34"/>
       <c r="G58" s="18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H58" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I58" s="34"/>
+        <f>SUMIF(E:E,G58,B:B)</f>
+        <v>0</v>
+      </c>
       <c r="J58" s="46" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A59" s="37"/>
-      <c r="B59" s="83"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="34"/>
+    <row r="59" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A59" s="35"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="40"/>
       <c r="G59" s="18" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="H59" s="19">
-        <f t="shared" si="2"/>
+        <f>SUMIF(E:E,G59,B:B)</f>
         <v>0</v>
       </c>
       <c r="J59" s="46" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A60" s="37"/>
-      <c r="B60" s="83"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="61"/>
-      <c r="E60" s="18"/>
+    <row r="60" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A60" s="35"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="23"/>
       <c r="F60" s="34"/>
-      <c r="G60" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H60" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J60" s="46" t="s">
-        <v>116</v>
-      </c>
+      <c r="G60" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J60" s="46"/>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A61" s="37"/>
-      <c r="B61" s="83"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="61"/>
-      <c r="E61" s="18"/>
+    <row r="61" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A61" s="35"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="23"/>
       <c r="F61" s="34"/>
       <c r="G61" s="18" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="H61" s="19">
-        <f t="shared" si="2"/>
+        <f>SUMIF(E:E,G61,B:B)</f>
         <v>0</v>
       </c>
       <c r="J61" s="46" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A62" s="37"/>
-      <c r="B62" s="83"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="61"/>
-      <c r="E62" s="18"/>
+    <row r="62" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A62" s="35"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="23"/>
       <c r="F62" s="34"/>
       <c r="G62" s="18" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H62" s="19">
-        <f t="shared" si="2"/>
+        <f>SUMIF(E:E,G62,B:B)</f>
         <v>0</v>
       </c>
       <c r="J62" s="46" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A63" s="37"/>
-      <c r="B63" s="83"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="18"/>
+    <row r="63" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A63" s="35"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="23"/>
       <c r="F63" s="34"/>
       <c r="G63" s="18" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="H63" s="19">
-        <f t="shared" si="2"/>
+        <f>SUMIF(E:E,G63,B:B)</f>
         <v>0</v>
       </c>
       <c r="J63" s="46" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A64" s="37"/>
-      <c r="B64" s="83"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="18"/>
+    <row r="64" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A64" s="35"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="23"/>
       <c r="F64" s="34"/>
       <c r="G64" s="18" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="H64" s="19">
-        <f t="shared" si="2"/>
+        <f>SUMIF(E:E,G64,B:B)</f>
         <v>0</v>
       </c>
       <c r="J64" s="46" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="K64" s="3"/>
     </row>
     <row r="65" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A65" s="37"/>
-      <c r="B65" s="83"/>
+      <c r="A65" s="35"/>
+      <c r="B65" s="64"/>
       <c r="C65" s="36"/>
       <c r="D65" s="33"/>
       <c r="E65" s="23"/>
       <c r="F65" s="34"/>
       <c r="G65" s="18" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="H65" s="19">
-        <f t="shared" si="2"/>
+        <f>SUMIF(E:E,G65,B:B)</f>
         <v>0</v>
       </c>
       <c r="J65" s="46" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="K65" s="3"/>
     </row>
     <row r="66" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A66" s="35"/>
-      <c r="B66" s="83"/>
+      <c r="B66" s="64"/>
       <c r="C66" s="36"/>
       <c r="D66" s="33"/>
       <c r="E66" s="23"/>
       <c r="F66" s="34"/>
       <c r="G66" s="18" t="s">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="H66" s="19">
-        <f t="shared" si="2"/>
+        <f>SUMIF(E:E,G66,B:B)</f>
         <v>0</v>
       </c>
       <c r="J66" s="46" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="K66" s="3"/>
     </row>
     <row r="67" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A67" s="37"/>
+      <c r="A67" s="35"/>
       <c r="B67" s="64"/>
       <c r="C67" s="36"/>
       <c r="D67" s="33"/>
       <c r="E67" s="23"/>
       <c r="F67" s="34"/>
       <c r="G67" s="18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H67" s="19">
-        <f t="shared" si="2"/>
+        <f>SUMIF(E:E,G67,B:B)</f>
         <v>0</v>
       </c>
       <c r="J67" s="46" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K67" s="3"/>
     </row>
     <row r="68" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A68" s="37"/>
+      <c r="A68" s="35"/>
       <c r="B68" s="64"/>
       <c r="C68" s="36"/>
       <c r="D68" s="33"/>
       <c r="E68" s="23"/>
       <c r="F68" s="34"/>
-      <c r="G68" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H68" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J68" s="46" t="s">
-        <v>124</v>
-      </c>
+      <c r="G68" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J68" s="46"/>
       <c r="K68" s="3"/>
     </row>
     <row r="69" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
@@ -4511,14 +4411,14 @@
       <c r="E69" s="23"/>
       <c r="F69" s="34"/>
       <c r="G69" s="18" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="H69" s="19">
-        <f t="shared" si="2"/>
+        <f>SUMIF(E:E,G69,B:B)</f>
         <v>0</v>
       </c>
       <c r="J69" s="46" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K69" s="3"/>
     </row>
@@ -4528,17 +4428,13 @@
       <c r="C70" s="36"/>
       <c r="D70" s="33"/>
       <c r="E70" s="23"/>
-      <c r="F70" s="40"/>
-      <c r="G70" s="18" t="s">
-        <v>16</v>
-      </c>
+      <c r="F70" s="34"/>
+      <c r="G70" s="18"/>
       <c r="H70" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J70" s="46" t="s">
-        <v>127</v>
-      </c>
+        <f t="shared" ref="H70:H78" si="0">SUMIF(E:E,G70,B:B)</f>
+        <v>0</v>
+      </c>
+      <c r="J70" s="46"/>
       <c r="K70" s="3"/>
     </row>
     <row r="71" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
@@ -4548,11 +4444,10 @@
       <c r="D71" s="33"/>
       <c r="E71" s="23"/>
       <c r="F71" s="34"/>
-      <c r="G71" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="H71" s="10" t="s">
-        <v>10</v>
+      <c r="G71" s="18"/>
+      <c r="H71" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J71" s="46"/>
       <c r="K71" s="3"/>
@@ -4564,16 +4459,12 @@
       <c r="D72" s="33"/>
       <c r="E72" s="23"/>
       <c r="F72" s="34"/>
-      <c r="G72" s="18" t="s">
-        <v>22</v>
-      </c>
+      <c r="G72" s="18"/>
       <c r="H72" s="19">
-        <f t="shared" ref="H72:H78" si="3">SUMIF(E:E,G72,B:B)</f>
-        <v>0</v>
-      </c>
-      <c r="J72" s="46" t="s">
-        <v>76</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="46"/>
       <c r="K72" s="3"/>
     </row>
     <row r="73" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
@@ -4583,16 +4474,12 @@
       <c r="D73" s="33"/>
       <c r="E73" s="23"/>
       <c r="F73" s="34"/>
-      <c r="G73" s="18" t="s">
-        <v>38</v>
-      </c>
+      <c r="G73" s="18"/>
       <c r="H73" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J73" s="46" t="s">
-        <v>77</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J73" s="46"/>
       <c r="K73" s="3"/>
     </row>
     <row r="74" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
@@ -4602,16 +4489,12 @@
       <c r="D74" s="33"/>
       <c r="E74" s="23"/>
       <c r="F74" s="34"/>
-      <c r="G74" s="18" t="s">
-        <v>21</v>
-      </c>
+      <c r="G74" s="18"/>
       <c r="H74" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J74" s="46" t="s">
-        <v>81</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J74" s="46"/>
       <c r="K74" s="3"/>
     </row>
     <row r="75" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
@@ -4621,16 +4504,12 @@
       <c r="D75" s="33"/>
       <c r="E75" s="23"/>
       <c r="F75" s="34"/>
-      <c r="G75" s="18" t="s">
-        <v>23</v>
-      </c>
+      <c r="G75" s="18"/>
       <c r="H75" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J75" s="46" t="s">
-        <v>60</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="46"/>
       <c r="K75" s="3"/>
     </row>
     <row r="76" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
@@ -4640,16 +4519,12 @@
       <c r="D76" s="33"/>
       <c r="E76" s="23"/>
       <c r="F76" s="34"/>
-      <c r="G76" s="18" t="s">
-        <v>28</v>
-      </c>
+      <c r="G76" s="18"/>
       <c r="H76" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J76" s="46" t="s">
-        <v>92</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="46"/>
       <c r="K76" s="3"/>
     </row>
     <row r="77" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
@@ -4659,16 +4534,12 @@
       <c r="D77" s="33"/>
       <c r="E77" s="23"/>
       <c r="F77" s="34"/>
-      <c r="G77" s="18" t="s">
-        <v>132</v>
-      </c>
+      <c r="G77" s="18"/>
       <c r="H77" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="46" t="s">
-        <v>133</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="46"/>
       <c r="K77" s="3"/>
     </row>
     <row r="78" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
@@ -4678,16 +4549,12 @@
       <c r="D78" s="33"/>
       <c r="E78" s="23"/>
       <c r="F78" s="34"/>
-      <c r="G78" s="18" t="s">
-        <v>51</v>
-      </c>
+      <c r="G78" s="18"/>
       <c r="H78" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J78" s="46" t="s">
-        <v>128</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="46"/>
       <c r="K78" s="3"/>
     </row>
     <row r="79" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
@@ -4697,11 +4564,12 @@
       <c r="D79" s="33"/>
       <c r="E79" s="23"/>
       <c r="F79" s="34"/>
-      <c r="G79" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="H79" s="10" t="s">
-        <v>10</v>
+      <c r="G79" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="H79" s="21">
+        <f>SUM(H15:H78)</f>
+        <v>0</v>
       </c>
       <c r="J79" s="46"/>
       <c r="K79" s="3"/>
@@ -4713,16 +4581,8 @@
       <c r="D80" s="33"/>
       <c r="E80" s="23"/>
       <c r="F80" s="34"/>
-      <c r="G80" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H80" s="19">
-        <f>SUMIF(E:E,G80,B:B)</f>
-        <v>0</v>
-      </c>
-      <c r="J80" s="46" t="s">
-        <v>126</v>
-      </c>
+      <c r="H80" s="11"/>
+      <c r="J80" s="46"/>
       <c r="K80" s="3"/>
     </row>
     <row r="81" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
@@ -4732,13 +4592,10 @@
       <c r="D81" s="33"/>
       <c r="E81" s="23"/>
       <c r="F81" s="34"/>
-      <c r="G81" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="H81" s="21">
-        <f>SUM(H26:H80)</f>
-        <v>0</v>
-      </c>
+      <c r="G81" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H81" s="41"/>
       <c r="J81" s="46"/>
       <c r="K81" s="3"/>
     </row>
@@ -4749,7 +4606,13 @@
       <c r="D82" s="33"/>
       <c r="E82" s="23"/>
       <c r="F82" s="34"/>
-      <c r="H82" s="11"/>
+      <c r="G82" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" s="60">
+        <f>SUMIF(E:E,G82,A:A)</f>
+        <v>0</v>
+      </c>
       <c r="J82" s="46"/>
       <c r="K82" s="3"/>
     </row>
@@ -4760,10 +4623,13 @@
       <c r="D83" s="33"/>
       <c r="E83" s="23"/>
       <c r="F83" s="34"/>
-      <c r="G83" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="H83" s="41"/>
+      <c r="G83" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="H83" s="60">
+        <f>H13-H82</f>
+        <v>0</v>
+      </c>
       <c r="J83" s="46"/>
       <c r="K83" s="3"/>
     </row>
@@ -4775,196 +4641,162 @@
       <c r="E84" s="23"/>
       <c r="F84" s="34"/>
       <c r="G84" s="42" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="H84" s="60">
-        <f>SUMIF(E:E,G84,A:A)</f>
+        <f>H79</f>
         <v>0</v>
       </c>
       <c r="J84" s="46"/>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="85" spans="1:11" ht="21.6" x14ac:dyDescent="0.65">
       <c r="A85" s="35"/>
       <c r="B85" s="64"/>
       <c r="C85" s="36"/>
       <c r="D85" s="33"/>
       <c r="E85" s="23"/>
-      <c r="F85" s="34"/>
+      <c r="F85" s="26"/>
       <c r="G85" s="42" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H85" s="60">
-        <f>H24-H84</f>
+        <f>SUM(H82+H83-H84)</f>
         <v>0</v>
       </c>
       <c r="J85" s="46"/>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="86" spans="1:11" ht="21.6" x14ac:dyDescent="0.65">
       <c r="A86" s="35"/>
       <c r="B86" s="64"/>
       <c r="C86" s="36"/>
       <c r="D86" s="33"/>
       <c r="E86" s="23"/>
-      <c r="F86" s="34"/>
-      <c r="G86" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="H86" s="60">
-        <f>H81</f>
-        <v>0</v>
-      </c>
+      <c r="G86" s="39"/>
+      <c r="H86" s="45"/>
       <c r="J86" s="46"/>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="1:11" ht="21.6" x14ac:dyDescent="0.65">
+    <row r="87" spans="1:11" ht="22.2" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A87" s="35"/>
       <c r="B87" s="64"/>
       <c r="C87" s="36"/>
       <c r="D87" s="33"/>
       <c r="E87" s="23"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="H87" s="60">
-        <f>SUM(H84+H85-H86)</f>
-        <v>0</v>
-      </c>
+      <c r="G87" s="39"/>
       <c r="J87" s="46"/>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="1:11" ht="21.6" x14ac:dyDescent="0.65">
-      <c r="A88" s="35"/>
-      <c r="B88" s="64"/>
-      <c r="C88" s="36"/>
+    <row r="88" spans="1:11" ht="22.2" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A88" s="37"/>
+      <c r="B88" s="66"/>
+      <c r="C88" s="30"/>
       <c r="D88" s="33"/>
       <c r="E88" s="23"/>
-      <c r="G88" s="39"/>
-      <c r="H88" s="45"/>
+      <c r="G88" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="H88" s="50">
+        <f>H15+H16+H17+H18+H19+H20+H21+H22+H23+H24+H25+H26+H27+H28+H29+H30+H31+H32+H33+H34+H35+H36+H37+H38+H39+H40+H41+H42+H43+H44+H45+H46+H47+H48+H49+H50+H51+H52+H53+H54+H55+H56+H57+H58+H59</f>
+        <v>0</v>
+      </c>
       <c r="J88" s="46"/>
       <c r="K88" s="3"/>
     </row>
     <row r="89" spans="1:11" ht="22.2" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A89" s="35"/>
-      <c r="B89" s="64"/>
-      <c r="C89" s="36"/>
+      <c r="A89" s="37"/>
+      <c r="B89" s="65"/>
+      <c r="C89" s="38"/>
       <c r="D89" s="33"/>
       <c r="E89" s="23"/>
-      <c r="G89" s="39"/>
+      <c r="G89" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="H89" s="52">
+        <f>H61+H62+H63+H64+H65+H66+H67</f>
+        <v>0</v>
+      </c>
       <c r="J89" s="46"/>
       <c r="K89" s="3"/>
     </row>
     <row r="90" spans="1:11" ht="22.2" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A90" s="37"/>
-      <c r="B90" s="66"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="33"/>
-      <c r="E90" s="23"/>
-      <c r="G90" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="H90" s="50">
-        <f>H26+H27+H28+H29+H30+H31+H32+H33+H34+H35+H36+H37+H38+H39+H40+H41+H42+H43+H44+H45+H46+H47+H48+H49+H50+H51+H52+H53+H54+H55+H56+H57+H58+H59+H60+H61+H62+H63+H64+H65+H66+H67+H68+H69+H70</f>
+      <c r="A90" s="43">
+        <f>SUM(A5:A25)</f>
+        <v>0</v>
+      </c>
+      <c r="B90" s="68">
+        <f>SUM(B27:B89)</f>
+        <v>0</v>
+      </c>
+      <c r="C90" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D90" s="44"/>
+      <c r="E90" s="44"/>
+      <c r="G90" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="H90" s="54">
+        <f>H69</f>
         <v>0</v>
       </c>
       <c r="J90" s="46"/>
       <c r="K90" s="3"/>
     </row>
     <row r="91" spans="1:11" ht="22.2" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A91" s="37"/>
-      <c r="B91" s="65"/>
-      <c r="C91" s="38"/>
-      <c r="D91" s="33"/>
-      <c r="E91" s="23"/>
-      <c r="G91" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="H91" s="52">
-        <f>H72+H73+H74+H75+H76+H77+H78</f>
+      <c r="A91" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B91" s="68">
+        <f>A90-B90</f>
+        <v>0</v>
+      </c>
+      <c r="G91" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="H91" s="56">
+        <f>SUM(H88:H90)</f>
         <v>0</v>
       </c>
       <c r="J91" s="46"/>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="1:11" ht="22.2" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A92" s="43">
-        <f>SUM(A5:A36)</f>
-        <v>0</v>
-      </c>
-      <c r="B92" s="68">
-        <f>SUM(B38:B91)</f>
-        <v>0</v>
-      </c>
-      <c r="C92" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="D92" s="44"/>
-      <c r="E92" s="44"/>
-      <c r="G92" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="H92" s="54">
-        <f>H80</f>
-        <v>0</v>
-      </c>
-      <c r="J92" s="46"/>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="1:11" ht="22.2" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A93" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="B93" s="68">
-        <f>A92-B92</f>
-        <v>0</v>
-      </c>
-      <c r="G93" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="H93" s="56">
-        <f>SUM(H90:H92)</f>
-        <v>0</v>
-      </c>
-      <c r="J93" s="46"/>
-      <c r="K93" s="3"/>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="G92" s="39"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="B93" s="69"/>
+      <c r="C93" s="70"/>
+      <c r="G93" s="39"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="B94" s="69"/>
+      <c r="C94" s="73"/>
       <c r="G94" s="39"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B95" s="69"/>
-      <c r="C95" s="70"/>
+      <c r="C95" s="74"/>
       <c r="G95" s="39"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="B96" s="69"/>
-      <c r="C96" s="73"/>
+      <c r="B96" s="76"/>
+      <c r="C96" s="75"/>
       <c r="G96" s="39"/>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B97" s="69"/>
-      <c r="C97" s="74"/>
-      <c r="G97" s="39"/>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="B98" s="76"/>
-      <c r="C98" s="75"/>
-      <c r="G98" s="39"/>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="B99" s="69"/>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="B100" s="72"/>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="B101" s="71"/>
-      <c r="C101" s="75"/>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="B102" s="71"/>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B98" s="72"/>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B99" s="71"/>
+      <c r="C99" s="75"/>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B100" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4975,15 +4807,15 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E65529:E65553 JA65475:JA65499 SW65475:SW65499 ACS65475:ACS65499 AMO65475:AMO65499 AWK65475:AWK65499 BGG65475:BGG65499 BQC65475:BQC65499 BZY65475:BZY65499 CJU65475:CJU65499 CTQ65475:CTQ65499 DDM65475:DDM65499 DNI65475:DNI65499 DXE65475:DXE65499 EHA65475:EHA65499 EQW65475:EQW65499 FAS65475:FAS65499 FKO65475:FKO65499 FUK65475:FUK65499 GEG65475:GEG65499 GOC65475:GOC65499 GXY65475:GXY65499 HHU65475:HHU65499 HRQ65475:HRQ65499 IBM65475:IBM65499 ILI65475:ILI65499 IVE65475:IVE65499 JFA65475:JFA65499 JOW65475:JOW65499 JYS65475:JYS65499 KIO65475:KIO65499 KSK65475:KSK65499 LCG65475:LCG65499 LMC65475:LMC65499 LVY65475:LVY65499 MFU65475:MFU65499 MPQ65475:MPQ65499 MZM65475:MZM65499 NJI65475:NJI65499 NTE65475:NTE65499 ODA65475:ODA65499 OMW65475:OMW65499 OWS65475:OWS65499 PGO65475:PGO65499 PQK65475:PQK65499 QAG65475:QAG65499 QKC65475:QKC65499 QTY65475:QTY65499 RDU65475:RDU65499 RNQ65475:RNQ65499 RXM65475:RXM65499 SHI65475:SHI65499 SRE65475:SRE65499 TBA65475:TBA65499 TKW65475:TKW65499 TUS65475:TUS65499 UEO65475:UEO65499 UOK65475:UOK65499 UYG65475:UYG65499 VIC65475:VIC65499 VRY65475:VRY65499 WBU65475:WBU65499 WLQ65475:WLQ65499 WVM65475:WVM65499 E131065:E131089 JA131011:JA131035 SW131011:SW131035 ACS131011:ACS131035 AMO131011:AMO131035 AWK131011:AWK131035 BGG131011:BGG131035 BQC131011:BQC131035 BZY131011:BZY131035 CJU131011:CJU131035 CTQ131011:CTQ131035 DDM131011:DDM131035 DNI131011:DNI131035 DXE131011:DXE131035 EHA131011:EHA131035 EQW131011:EQW131035 FAS131011:FAS131035 FKO131011:FKO131035 FUK131011:FUK131035 GEG131011:GEG131035 GOC131011:GOC131035 GXY131011:GXY131035 HHU131011:HHU131035 HRQ131011:HRQ131035 IBM131011:IBM131035 ILI131011:ILI131035 IVE131011:IVE131035 JFA131011:JFA131035 JOW131011:JOW131035 JYS131011:JYS131035 KIO131011:KIO131035 KSK131011:KSK131035 LCG131011:LCG131035 LMC131011:LMC131035 LVY131011:LVY131035 MFU131011:MFU131035 MPQ131011:MPQ131035 MZM131011:MZM131035 NJI131011:NJI131035 NTE131011:NTE131035 ODA131011:ODA131035 OMW131011:OMW131035 OWS131011:OWS131035 PGO131011:PGO131035 PQK131011:PQK131035 QAG131011:QAG131035 QKC131011:QKC131035 QTY131011:QTY131035 RDU131011:RDU131035 RNQ131011:RNQ131035 RXM131011:RXM131035 SHI131011:SHI131035 SRE131011:SRE131035 TBA131011:TBA131035 TKW131011:TKW131035 TUS131011:TUS131035 UEO131011:UEO131035 UOK131011:UOK131035 UYG131011:UYG131035 VIC131011:VIC131035 VRY131011:VRY131035 WBU131011:WBU131035 WLQ131011:WLQ131035 WVM131011:WVM131035 E196601:E196625 JA196547:JA196571 SW196547:SW196571 ACS196547:ACS196571 AMO196547:AMO196571 AWK196547:AWK196571 BGG196547:BGG196571 BQC196547:BQC196571 BZY196547:BZY196571 CJU196547:CJU196571 CTQ196547:CTQ196571 DDM196547:DDM196571 DNI196547:DNI196571 DXE196547:DXE196571 EHA196547:EHA196571 EQW196547:EQW196571 FAS196547:FAS196571 FKO196547:FKO196571 FUK196547:FUK196571 GEG196547:GEG196571 GOC196547:GOC196571 GXY196547:GXY196571 HHU196547:HHU196571 HRQ196547:HRQ196571 IBM196547:IBM196571 ILI196547:ILI196571 IVE196547:IVE196571 JFA196547:JFA196571 JOW196547:JOW196571 JYS196547:JYS196571 KIO196547:KIO196571 KSK196547:KSK196571 LCG196547:LCG196571 LMC196547:LMC196571 LVY196547:LVY196571 MFU196547:MFU196571 MPQ196547:MPQ196571 MZM196547:MZM196571 NJI196547:NJI196571 NTE196547:NTE196571 ODA196547:ODA196571 OMW196547:OMW196571 OWS196547:OWS196571 PGO196547:PGO196571 PQK196547:PQK196571 QAG196547:QAG196571 QKC196547:QKC196571 QTY196547:QTY196571 RDU196547:RDU196571 RNQ196547:RNQ196571 RXM196547:RXM196571 SHI196547:SHI196571 SRE196547:SRE196571 TBA196547:TBA196571 TKW196547:TKW196571 TUS196547:TUS196571 UEO196547:UEO196571 UOK196547:UOK196571 UYG196547:UYG196571 VIC196547:VIC196571 VRY196547:VRY196571 WBU196547:WBU196571 WLQ196547:WLQ196571 WVM196547:WVM196571 E262137:E262161 JA262083:JA262107 SW262083:SW262107 ACS262083:ACS262107 AMO262083:AMO262107 AWK262083:AWK262107 BGG262083:BGG262107 BQC262083:BQC262107 BZY262083:BZY262107 CJU262083:CJU262107 CTQ262083:CTQ262107 DDM262083:DDM262107 DNI262083:DNI262107 DXE262083:DXE262107 EHA262083:EHA262107 EQW262083:EQW262107 FAS262083:FAS262107 FKO262083:FKO262107 FUK262083:FUK262107 GEG262083:GEG262107 GOC262083:GOC262107 GXY262083:GXY262107 HHU262083:HHU262107 HRQ262083:HRQ262107 IBM262083:IBM262107 ILI262083:ILI262107 IVE262083:IVE262107 JFA262083:JFA262107 JOW262083:JOW262107 JYS262083:JYS262107 KIO262083:KIO262107 KSK262083:KSK262107 LCG262083:LCG262107 LMC262083:LMC262107 LVY262083:LVY262107 MFU262083:MFU262107 MPQ262083:MPQ262107 MZM262083:MZM262107 NJI262083:NJI262107 NTE262083:NTE262107 ODA262083:ODA262107 OMW262083:OMW262107 OWS262083:OWS262107 PGO262083:PGO262107 PQK262083:PQK262107 QAG262083:QAG262107 QKC262083:QKC262107 QTY262083:QTY262107 RDU262083:RDU262107 RNQ262083:RNQ262107 RXM262083:RXM262107 SHI262083:SHI262107 SRE262083:SRE262107 TBA262083:TBA262107 TKW262083:TKW262107 TUS262083:TUS262107 UEO262083:UEO262107 UOK262083:UOK262107 UYG262083:UYG262107 VIC262083:VIC262107 VRY262083:VRY262107 WBU262083:WBU262107 WLQ262083:WLQ262107 WVM262083:WVM262107 E327673:E327697 JA327619:JA327643 SW327619:SW327643 ACS327619:ACS327643 AMO327619:AMO327643 AWK327619:AWK327643 BGG327619:BGG327643 BQC327619:BQC327643 BZY327619:BZY327643 CJU327619:CJU327643 CTQ327619:CTQ327643 DDM327619:DDM327643 DNI327619:DNI327643 DXE327619:DXE327643 EHA327619:EHA327643 EQW327619:EQW327643 FAS327619:FAS327643 FKO327619:FKO327643 FUK327619:FUK327643 GEG327619:GEG327643 GOC327619:GOC327643 GXY327619:GXY327643 HHU327619:HHU327643 HRQ327619:HRQ327643 IBM327619:IBM327643 ILI327619:ILI327643 IVE327619:IVE327643 JFA327619:JFA327643 JOW327619:JOW327643 JYS327619:JYS327643 KIO327619:KIO327643 KSK327619:KSK327643 LCG327619:LCG327643 LMC327619:LMC327643 LVY327619:LVY327643 MFU327619:MFU327643 MPQ327619:MPQ327643 MZM327619:MZM327643 NJI327619:NJI327643 NTE327619:NTE327643 ODA327619:ODA327643 OMW327619:OMW327643 OWS327619:OWS327643 PGO327619:PGO327643 PQK327619:PQK327643 QAG327619:QAG327643 QKC327619:QKC327643 QTY327619:QTY327643 RDU327619:RDU327643 RNQ327619:RNQ327643 RXM327619:RXM327643 SHI327619:SHI327643 SRE327619:SRE327643 TBA327619:TBA327643 TKW327619:TKW327643 TUS327619:TUS327643 UEO327619:UEO327643 UOK327619:UOK327643 UYG327619:UYG327643 VIC327619:VIC327643 VRY327619:VRY327643 WBU327619:WBU327643 WLQ327619:WLQ327643 WVM327619:WVM327643 E393209:E393233 JA393155:JA393179 SW393155:SW393179 ACS393155:ACS393179 AMO393155:AMO393179 AWK393155:AWK393179 BGG393155:BGG393179 BQC393155:BQC393179 BZY393155:BZY393179 CJU393155:CJU393179 CTQ393155:CTQ393179 DDM393155:DDM393179 DNI393155:DNI393179 DXE393155:DXE393179 EHA393155:EHA393179 EQW393155:EQW393179 FAS393155:FAS393179 FKO393155:FKO393179 FUK393155:FUK393179 GEG393155:GEG393179 GOC393155:GOC393179 GXY393155:GXY393179 HHU393155:HHU393179 HRQ393155:HRQ393179 IBM393155:IBM393179 ILI393155:ILI393179 IVE393155:IVE393179 JFA393155:JFA393179 JOW393155:JOW393179 JYS393155:JYS393179 KIO393155:KIO393179 KSK393155:KSK393179 LCG393155:LCG393179 LMC393155:LMC393179 LVY393155:LVY393179 MFU393155:MFU393179 MPQ393155:MPQ393179 MZM393155:MZM393179 NJI393155:NJI393179 NTE393155:NTE393179 ODA393155:ODA393179 OMW393155:OMW393179 OWS393155:OWS393179 PGO393155:PGO393179 PQK393155:PQK393179 QAG393155:QAG393179 QKC393155:QKC393179 QTY393155:QTY393179 RDU393155:RDU393179 RNQ393155:RNQ393179 RXM393155:RXM393179 SHI393155:SHI393179 SRE393155:SRE393179 TBA393155:TBA393179 TKW393155:TKW393179 TUS393155:TUS393179 UEO393155:UEO393179 UOK393155:UOK393179 UYG393155:UYG393179 VIC393155:VIC393179 VRY393155:VRY393179 WBU393155:WBU393179 WLQ393155:WLQ393179 WVM393155:WVM393179 E458745:E458769 JA458691:JA458715 SW458691:SW458715 ACS458691:ACS458715 AMO458691:AMO458715 AWK458691:AWK458715 BGG458691:BGG458715 BQC458691:BQC458715 BZY458691:BZY458715 CJU458691:CJU458715 CTQ458691:CTQ458715 DDM458691:DDM458715 DNI458691:DNI458715 DXE458691:DXE458715 EHA458691:EHA458715 EQW458691:EQW458715 FAS458691:FAS458715 FKO458691:FKO458715 FUK458691:FUK458715 GEG458691:GEG458715 GOC458691:GOC458715 GXY458691:GXY458715 HHU458691:HHU458715 HRQ458691:HRQ458715 IBM458691:IBM458715 ILI458691:ILI458715 IVE458691:IVE458715 JFA458691:JFA458715 JOW458691:JOW458715 JYS458691:JYS458715 KIO458691:KIO458715 KSK458691:KSK458715 LCG458691:LCG458715 LMC458691:LMC458715 LVY458691:LVY458715 MFU458691:MFU458715 MPQ458691:MPQ458715 MZM458691:MZM458715 NJI458691:NJI458715 NTE458691:NTE458715 ODA458691:ODA458715 OMW458691:OMW458715 OWS458691:OWS458715 PGO458691:PGO458715 PQK458691:PQK458715 QAG458691:QAG458715 QKC458691:QKC458715 QTY458691:QTY458715 RDU458691:RDU458715 RNQ458691:RNQ458715 RXM458691:RXM458715 SHI458691:SHI458715 SRE458691:SRE458715 TBA458691:TBA458715 TKW458691:TKW458715 TUS458691:TUS458715 UEO458691:UEO458715 UOK458691:UOK458715 UYG458691:UYG458715 VIC458691:VIC458715 VRY458691:VRY458715 WBU458691:WBU458715 WLQ458691:WLQ458715 WVM458691:WVM458715 E524281:E524305 JA524227:JA524251 SW524227:SW524251 ACS524227:ACS524251 AMO524227:AMO524251 AWK524227:AWK524251 BGG524227:BGG524251 BQC524227:BQC524251 BZY524227:BZY524251 CJU524227:CJU524251 CTQ524227:CTQ524251 DDM524227:DDM524251 DNI524227:DNI524251 DXE524227:DXE524251 EHA524227:EHA524251 EQW524227:EQW524251 FAS524227:FAS524251 FKO524227:FKO524251 FUK524227:FUK524251 GEG524227:GEG524251 GOC524227:GOC524251 GXY524227:GXY524251 HHU524227:HHU524251 HRQ524227:HRQ524251 IBM524227:IBM524251 ILI524227:ILI524251 IVE524227:IVE524251 JFA524227:JFA524251 JOW524227:JOW524251 JYS524227:JYS524251 KIO524227:KIO524251 KSK524227:KSK524251 LCG524227:LCG524251 LMC524227:LMC524251 LVY524227:LVY524251 MFU524227:MFU524251 MPQ524227:MPQ524251 MZM524227:MZM524251 NJI524227:NJI524251 NTE524227:NTE524251 ODA524227:ODA524251 OMW524227:OMW524251 OWS524227:OWS524251 PGO524227:PGO524251 PQK524227:PQK524251 QAG524227:QAG524251 QKC524227:QKC524251 QTY524227:QTY524251 RDU524227:RDU524251 RNQ524227:RNQ524251 RXM524227:RXM524251 SHI524227:SHI524251 SRE524227:SRE524251 TBA524227:TBA524251 TKW524227:TKW524251 TUS524227:TUS524251 UEO524227:UEO524251 UOK524227:UOK524251 UYG524227:UYG524251 VIC524227:VIC524251 VRY524227:VRY524251 WBU524227:WBU524251 WLQ524227:WLQ524251 WVM524227:WVM524251 E589817:E589841 JA589763:JA589787 SW589763:SW589787 ACS589763:ACS589787 AMO589763:AMO589787 AWK589763:AWK589787 BGG589763:BGG589787 BQC589763:BQC589787 BZY589763:BZY589787 CJU589763:CJU589787 CTQ589763:CTQ589787 DDM589763:DDM589787 DNI589763:DNI589787 DXE589763:DXE589787 EHA589763:EHA589787 EQW589763:EQW589787 FAS589763:FAS589787 FKO589763:FKO589787 FUK589763:FUK589787 GEG589763:GEG589787 GOC589763:GOC589787 GXY589763:GXY589787 HHU589763:HHU589787 HRQ589763:HRQ589787 IBM589763:IBM589787 ILI589763:ILI589787 IVE589763:IVE589787 JFA589763:JFA589787 JOW589763:JOW589787 JYS589763:JYS589787 KIO589763:KIO589787 KSK589763:KSK589787 LCG589763:LCG589787 LMC589763:LMC589787 LVY589763:LVY589787 MFU589763:MFU589787 MPQ589763:MPQ589787 MZM589763:MZM589787 NJI589763:NJI589787 NTE589763:NTE589787 ODA589763:ODA589787 OMW589763:OMW589787 OWS589763:OWS589787 PGO589763:PGO589787 PQK589763:PQK589787 QAG589763:QAG589787 QKC589763:QKC589787 QTY589763:QTY589787 RDU589763:RDU589787 RNQ589763:RNQ589787 RXM589763:RXM589787 SHI589763:SHI589787 SRE589763:SRE589787 TBA589763:TBA589787 TKW589763:TKW589787 TUS589763:TUS589787 UEO589763:UEO589787 UOK589763:UOK589787 UYG589763:UYG589787 VIC589763:VIC589787 VRY589763:VRY589787 WBU589763:WBU589787 WLQ589763:WLQ589787 WVM589763:WVM589787 E655353:E655377 JA655299:JA655323 SW655299:SW655323 ACS655299:ACS655323 AMO655299:AMO655323 AWK655299:AWK655323 BGG655299:BGG655323 BQC655299:BQC655323 BZY655299:BZY655323 CJU655299:CJU655323 CTQ655299:CTQ655323 DDM655299:DDM655323 DNI655299:DNI655323 DXE655299:DXE655323 EHA655299:EHA655323 EQW655299:EQW655323 FAS655299:FAS655323 FKO655299:FKO655323 FUK655299:FUK655323 GEG655299:GEG655323 GOC655299:GOC655323 GXY655299:GXY655323 HHU655299:HHU655323 HRQ655299:HRQ655323 IBM655299:IBM655323 ILI655299:ILI655323 IVE655299:IVE655323 JFA655299:JFA655323 JOW655299:JOW655323 JYS655299:JYS655323 KIO655299:KIO655323 KSK655299:KSK655323 LCG655299:LCG655323 LMC655299:LMC655323 LVY655299:LVY655323 MFU655299:MFU655323 MPQ655299:MPQ655323 MZM655299:MZM655323 NJI655299:NJI655323 NTE655299:NTE655323 ODA655299:ODA655323 OMW655299:OMW655323 OWS655299:OWS655323 PGO655299:PGO655323 PQK655299:PQK655323 QAG655299:QAG655323 QKC655299:QKC655323 QTY655299:QTY655323 RDU655299:RDU655323 RNQ655299:RNQ655323 RXM655299:RXM655323 SHI655299:SHI655323 SRE655299:SRE655323 TBA655299:TBA655323 TKW655299:TKW655323 TUS655299:TUS655323 UEO655299:UEO655323 UOK655299:UOK655323 UYG655299:UYG655323 VIC655299:VIC655323 VRY655299:VRY655323 WBU655299:WBU655323 WLQ655299:WLQ655323 WVM655299:WVM655323 E720889:E720913 JA720835:JA720859 SW720835:SW720859 ACS720835:ACS720859 AMO720835:AMO720859 AWK720835:AWK720859 BGG720835:BGG720859 BQC720835:BQC720859 BZY720835:BZY720859 CJU720835:CJU720859 CTQ720835:CTQ720859 DDM720835:DDM720859 DNI720835:DNI720859 DXE720835:DXE720859 EHA720835:EHA720859 EQW720835:EQW720859 FAS720835:FAS720859 FKO720835:FKO720859 FUK720835:FUK720859 GEG720835:GEG720859 GOC720835:GOC720859 GXY720835:GXY720859 HHU720835:HHU720859 HRQ720835:HRQ720859 IBM720835:IBM720859 ILI720835:ILI720859 IVE720835:IVE720859 JFA720835:JFA720859 JOW720835:JOW720859 JYS720835:JYS720859 KIO720835:KIO720859 KSK720835:KSK720859 LCG720835:LCG720859 LMC720835:LMC720859 LVY720835:LVY720859 MFU720835:MFU720859 MPQ720835:MPQ720859 MZM720835:MZM720859 NJI720835:NJI720859 NTE720835:NTE720859 ODA720835:ODA720859 OMW720835:OMW720859 OWS720835:OWS720859 PGO720835:PGO720859 PQK720835:PQK720859 QAG720835:QAG720859 QKC720835:QKC720859 QTY720835:QTY720859 RDU720835:RDU720859 RNQ720835:RNQ720859 RXM720835:RXM720859 SHI720835:SHI720859 SRE720835:SRE720859 TBA720835:TBA720859 TKW720835:TKW720859 TUS720835:TUS720859 UEO720835:UEO720859 UOK720835:UOK720859 UYG720835:UYG720859 VIC720835:VIC720859 VRY720835:VRY720859 WBU720835:WBU720859 WLQ720835:WLQ720859 WVM720835:WVM720859 E786425:E786449 JA786371:JA786395 SW786371:SW786395 ACS786371:ACS786395 AMO786371:AMO786395 AWK786371:AWK786395 BGG786371:BGG786395 BQC786371:BQC786395 BZY786371:BZY786395 CJU786371:CJU786395 CTQ786371:CTQ786395 DDM786371:DDM786395 DNI786371:DNI786395 DXE786371:DXE786395 EHA786371:EHA786395 EQW786371:EQW786395 FAS786371:FAS786395 FKO786371:FKO786395 FUK786371:FUK786395 GEG786371:GEG786395 GOC786371:GOC786395 GXY786371:GXY786395 HHU786371:HHU786395 HRQ786371:HRQ786395 IBM786371:IBM786395 ILI786371:ILI786395 IVE786371:IVE786395 JFA786371:JFA786395 JOW786371:JOW786395 JYS786371:JYS786395 KIO786371:KIO786395 KSK786371:KSK786395 LCG786371:LCG786395 LMC786371:LMC786395 LVY786371:LVY786395 MFU786371:MFU786395 MPQ786371:MPQ786395 MZM786371:MZM786395 NJI786371:NJI786395 NTE786371:NTE786395 ODA786371:ODA786395 OMW786371:OMW786395 OWS786371:OWS786395 PGO786371:PGO786395 PQK786371:PQK786395 QAG786371:QAG786395 QKC786371:QKC786395 QTY786371:QTY786395 RDU786371:RDU786395 RNQ786371:RNQ786395 RXM786371:RXM786395 SHI786371:SHI786395 SRE786371:SRE786395 TBA786371:TBA786395 TKW786371:TKW786395 TUS786371:TUS786395 UEO786371:UEO786395 UOK786371:UOK786395 UYG786371:UYG786395 VIC786371:VIC786395 VRY786371:VRY786395 WBU786371:WBU786395 WLQ786371:WLQ786395 WVM786371:WVM786395 E851961:E851985 JA851907:JA851931 SW851907:SW851931 ACS851907:ACS851931 AMO851907:AMO851931 AWK851907:AWK851931 BGG851907:BGG851931 BQC851907:BQC851931 BZY851907:BZY851931 CJU851907:CJU851931 CTQ851907:CTQ851931 DDM851907:DDM851931 DNI851907:DNI851931 DXE851907:DXE851931 EHA851907:EHA851931 EQW851907:EQW851931 FAS851907:FAS851931 FKO851907:FKO851931 FUK851907:FUK851931 GEG851907:GEG851931 GOC851907:GOC851931 GXY851907:GXY851931 HHU851907:HHU851931 HRQ851907:HRQ851931 IBM851907:IBM851931 ILI851907:ILI851931 IVE851907:IVE851931 JFA851907:JFA851931 JOW851907:JOW851931 JYS851907:JYS851931 KIO851907:KIO851931 KSK851907:KSK851931 LCG851907:LCG851931 LMC851907:LMC851931 LVY851907:LVY851931 MFU851907:MFU851931 MPQ851907:MPQ851931 MZM851907:MZM851931 NJI851907:NJI851931 NTE851907:NTE851931 ODA851907:ODA851931 OMW851907:OMW851931 OWS851907:OWS851931 PGO851907:PGO851931 PQK851907:PQK851931 QAG851907:QAG851931 QKC851907:QKC851931 QTY851907:QTY851931 RDU851907:RDU851931 RNQ851907:RNQ851931 RXM851907:RXM851931 SHI851907:SHI851931 SRE851907:SRE851931 TBA851907:TBA851931 TKW851907:TKW851931 TUS851907:TUS851931 UEO851907:UEO851931 UOK851907:UOK851931 UYG851907:UYG851931 VIC851907:VIC851931 VRY851907:VRY851931 WBU851907:WBU851931 WLQ851907:WLQ851931 WVM851907:WVM851931 E917497:E917521 JA917443:JA917467 SW917443:SW917467 ACS917443:ACS917467 AMO917443:AMO917467 AWK917443:AWK917467 BGG917443:BGG917467 BQC917443:BQC917467 BZY917443:BZY917467 CJU917443:CJU917467 CTQ917443:CTQ917467 DDM917443:DDM917467 DNI917443:DNI917467 DXE917443:DXE917467 EHA917443:EHA917467 EQW917443:EQW917467 FAS917443:FAS917467 FKO917443:FKO917467 FUK917443:FUK917467 GEG917443:GEG917467 GOC917443:GOC917467 GXY917443:GXY917467 HHU917443:HHU917467 HRQ917443:HRQ917467 IBM917443:IBM917467 ILI917443:ILI917467 IVE917443:IVE917467 JFA917443:JFA917467 JOW917443:JOW917467 JYS917443:JYS917467 KIO917443:KIO917467 KSK917443:KSK917467 LCG917443:LCG917467 LMC917443:LMC917467 LVY917443:LVY917467 MFU917443:MFU917467 MPQ917443:MPQ917467 MZM917443:MZM917467 NJI917443:NJI917467 NTE917443:NTE917467 ODA917443:ODA917467 OMW917443:OMW917467 OWS917443:OWS917467 PGO917443:PGO917467 PQK917443:PQK917467 QAG917443:QAG917467 QKC917443:QKC917467 QTY917443:QTY917467 RDU917443:RDU917467 RNQ917443:RNQ917467 RXM917443:RXM917467 SHI917443:SHI917467 SRE917443:SRE917467 TBA917443:TBA917467 TKW917443:TKW917467 TUS917443:TUS917467 UEO917443:UEO917467 UOK917443:UOK917467 UYG917443:UYG917467 VIC917443:VIC917467 VRY917443:VRY917467 WBU917443:WBU917467 WLQ917443:WLQ917467 WVM917443:WVM917467 E983033:E983057 JA982979:JA983003 SW982979:SW983003 ACS982979:ACS983003 AMO982979:AMO983003 AWK982979:AWK983003 BGG982979:BGG983003 BQC982979:BQC983003 BZY982979:BZY983003 CJU982979:CJU983003 CTQ982979:CTQ983003 DDM982979:DDM983003 DNI982979:DNI983003 DXE982979:DXE983003 EHA982979:EHA983003 EQW982979:EQW983003 FAS982979:FAS983003 FKO982979:FKO983003 FUK982979:FUK983003 GEG982979:GEG983003 GOC982979:GOC983003 GXY982979:GXY983003 HHU982979:HHU983003 HRQ982979:HRQ983003 IBM982979:IBM983003 ILI982979:ILI983003 IVE982979:IVE983003 JFA982979:JFA983003 JOW982979:JOW983003 JYS982979:JYS983003 KIO982979:KIO983003 KSK982979:KSK983003 LCG982979:LCG983003 LMC982979:LMC983003 LVY982979:LVY983003 MFU982979:MFU983003 MPQ982979:MPQ983003 MZM982979:MZM983003 NJI982979:NJI983003 NTE982979:NTE983003 ODA982979:ODA983003 OMW982979:OMW983003 OWS982979:OWS983003 PGO982979:PGO983003 PQK982979:PQK983003 QAG982979:QAG983003 QKC982979:QKC983003 QTY982979:QTY983003 RDU982979:RDU983003 RNQ982979:RNQ983003 RXM982979:RXM983003 SHI982979:SHI983003 SRE982979:SRE983003 TBA982979:TBA983003 TKW982979:TKW983003 TUS982979:TUS983003 UEO982979:UEO983003 UOK982979:UOK983003 UYG982979:UYG983003 VIC982979:VIC983003 VRY982979:VRY983003 WBU982979:WBU983003 WLQ982979:WLQ983003 WVM982979:WVM983003 WVM5:WVM36 WLQ5:WLQ36 WBU5:WBU36 VRY5:VRY36 VIC5:VIC36 UYG5:UYG36 UOK5:UOK36 UEO5:UEO36 TUS5:TUS36 TKW5:TKW36 TBA5:TBA36 SRE5:SRE36 SHI5:SHI36 RXM5:RXM36 RNQ5:RNQ36 RDU5:RDU36 QTY5:QTY36 QKC5:QKC36 QAG5:QAG36 PQK5:PQK36 PGO5:PGO36 OWS5:OWS36 OMW5:OMW36 ODA5:ODA36 NTE5:NTE36 NJI5:NJI36 MZM5:MZM36 MPQ5:MPQ36 MFU5:MFU36 LVY5:LVY36 LMC5:LMC36 LCG5:LCG36 KSK5:KSK36 KIO5:KIO36 JYS5:JYS36 JOW5:JOW36 JFA5:JFA36 IVE5:IVE36 ILI5:ILI36 IBM5:IBM36 HRQ5:HRQ36 HHU5:HHU36 GXY5:GXY36 GOC5:GOC36 GEG5:GEG36 FUK5:FUK36 FKO5:FKO36 FAS5:FAS36 EQW5:EQW36 EHA5:EHA36 DXE5:DXE36 DNI5:DNI36 DDM5:DDM36 CTQ5:CTQ36 CJU5:CJU36 BZY5:BZY36 BQC5:BQC36 BGG5:BGG36 AWK5:AWK36 AMO5:AMO36 ACS5:ACS36 SW5:SW36 JA5:JA36 E25:E37" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E65527:E65551 JA65473:JA65497 SW65473:SW65497 ACS65473:ACS65497 AMO65473:AMO65497 AWK65473:AWK65497 BGG65473:BGG65497 BQC65473:BQC65497 BZY65473:BZY65497 CJU65473:CJU65497 CTQ65473:CTQ65497 DDM65473:DDM65497 DNI65473:DNI65497 DXE65473:DXE65497 EHA65473:EHA65497 EQW65473:EQW65497 FAS65473:FAS65497 FKO65473:FKO65497 FUK65473:FUK65497 GEG65473:GEG65497 GOC65473:GOC65497 GXY65473:GXY65497 HHU65473:HHU65497 HRQ65473:HRQ65497 IBM65473:IBM65497 ILI65473:ILI65497 IVE65473:IVE65497 JFA65473:JFA65497 JOW65473:JOW65497 JYS65473:JYS65497 KIO65473:KIO65497 KSK65473:KSK65497 LCG65473:LCG65497 LMC65473:LMC65497 LVY65473:LVY65497 MFU65473:MFU65497 MPQ65473:MPQ65497 MZM65473:MZM65497 NJI65473:NJI65497 NTE65473:NTE65497 ODA65473:ODA65497 OMW65473:OMW65497 OWS65473:OWS65497 PGO65473:PGO65497 PQK65473:PQK65497 QAG65473:QAG65497 QKC65473:QKC65497 QTY65473:QTY65497 RDU65473:RDU65497 RNQ65473:RNQ65497 RXM65473:RXM65497 SHI65473:SHI65497 SRE65473:SRE65497 TBA65473:TBA65497 TKW65473:TKW65497 TUS65473:TUS65497 UEO65473:UEO65497 UOK65473:UOK65497 UYG65473:UYG65497 VIC65473:VIC65497 VRY65473:VRY65497 WBU65473:WBU65497 WLQ65473:WLQ65497 WVM65473:WVM65497 E131063:E131087 JA131009:JA131033 SW131009:SW131033 ACS131009:ACS131033 AMO131009:AMO131033 AWK131009:AWK131033 BGG131009:BGG131033 BQC131009:BQC131033 BZY131009:BZY131033 CJU131009:CJU131033 CTQ131009:CTQ131033 DDM131009:DDM131033 DNI131009:DNI131033 DXE131009:DXE131033 EHA131009:EHA131033 EQW131009:EQW131033 FAS131009:FAS131033 FKO131009:FKO131033 FUK131009:FUK131033 GEG131009:GEG131033 GOC131009:GOC131033 GXY131009:GXY131033 HHU131009:HHU131033 HRQ131009:HRQ131033 IBM131009:IBM131033 ILI131009:ILI131033 IVE131009:IVE131033 JFA131009:JFA131033 JOW131009:JOW131033 JYS131009:JYS131033 KIO131009:KIO131033 KSK131009:KSK131033 LCG131009:LCG131033 LMC131009:LMC131033 LVY131009:LVY131033 MFU131009:MFU131033 MPQ131009:MPQ131033 MZM131009:MZM131033 NJI131009:NJI131033 NTE131009:NTE131033 ODA131009:ODA131033 OMW131009:OMW131033 OWS131009:OWS131033 PGO131009:PGO131033 PQK131009:PQK131033 QAG131009:QAG131033 QKC131009:QKC131033 QTY131009:QTY131033 RDU131009:RDU131033 RNQ131009:RNQ131033 RXM131009:RXM131033 SHI131009:SHI131033 SRE131009:SRE131033 TBA131009:TBA131033 TKW131009:TKW131033 TUS131009:TUS131033 UEO131009:UEO131033 UOK131009:UOK131033 UYG131009:UYG131033 VIC131009:VIC131033 VRY131009:VRY131033 WBU131009:WBU131033 WLQ131009:WLQ131033 WVM131009:WVM131033 E196599:E196623 JA196545:JA196569 SW196545:SW196569 ACS196545:ACS196569 AMO196545:AMO196569 AWK196545:AWK196569 BGG196545:BGG196569 BQC196545:BQC196569 BZY196545:BZY196569 CJU196545:CJU196569 CTQ196545:CTQ196569 DDM196545:DDM196569 DNI196545:DNI196569 DXE196545:DXE196569 EHA196545:EHA196569 EQW196545:EQW196569 FAS196545:FAS196569 FKO196545:FKO196569 FUK196545:FUK196569 GEG196545:GEG196569 GOC196545:GOC196569 GXY196545:GXY196569 HHU196545:HHU196569 HRQ196545:HRQ196569 IBM196545:IBM196569 ILI196545:ILI196569 IVE196545:IVE196569 JFA196545:JFA196569 JOW196545:JOW196569 JYS196545:JYS196569 KIO196545:KIO196569 KSK196545:KSK196569 LCG196545:LCG196569 LMC196545:LMC196569 LVY196545:LVY196569 MFU196545:MFU196569 MPQ196545:MPQ196569 MZM196545:MZM196569 NJI196545:NJI196569 NTE196545:NTE196569 ODA196545:ODA196569 OMW196545:OMW196569 OWS196545:OWS196569 PGO196545:PGO196569 PQK196545:PQK196569 QAG196545:QAG196569 QKC196545:QKC196569 QTY196545:QTY196569 RDU196545:RDU196569 RNQ196545:RNQ196569 RXM196545:RXM196569 SHI196545:SHI196569 SRE196545:SRE196569 TBA196545:TBA196569 TKW196545:TKW196569 TUS196545:TUS196569 UEO196545:UEO196569 UOK196545:UOK196569 UYG196545:UYG196569 VIC196545:VIC196569 VRY196545:VRY196569 WBU196545:WBU196569 WLQ196545:WLQ196569 WVM196545:WVM196569 E262135:E262159 JA262081:JA262105 SW262081:SW262105 ACS262081:ACS262105 AMO262081:AMO262105 AWK262081:AWK262105 BGG262081:BGG262105 BQC262081:BQC262105 BZY262081:BZY262105 CJU262081:CJU262105 CTQ262081:CTQ262105 DDM262081:DDM262105 DNI262081:DNI262105 DXE262081:DXE262105 EHA262081:EHA262105 EQW262081:EQW262105 FAS262081:FAS262105 FKO262081:FKO262105 FUK262081:FUK262105 GEG262081:GEG262105 GOC262081:GOC262105 GXY262081:GXY262105 HHU262081:HHU262105 HRQ262081:HRQ262105 IBM262081:IBM262105 ILI262081:ILI262105 IVE262081:IVE262105 JFA262081:JFA262105 JOW262081:JOW262105 JYS262081:JYS262105 KIO262081:KIO262105 KSK262081:KSK262105 LCG262081:LCG262105 LMC262081:LMC262105 LVY262081:LVY262105 MFU262081:MFU262105 MPQ262081:MPQ262105 MZM262081:MZM262105 NJI262081:NJI262105 NTE262081:NTE262105 ODA262081:ODA262105 OMW262081:OMW262105 OWS262081:OWS262105 PGO262081:PGO262105 PQK262081:PQK262105 QAG262081:QAG262105 QKC262081:QKC262105 QTY262081:QTY262105 RDU262081:RDU262105 RNQ262081:RNQ262105 RXM262081:RXM262105 SHI262081:SHI262105 SRE262081:SRE262105 TBA262081:TBA262105 TKW262081:TKW262105 TUS262081:TUS262105 UEO262081:UEO262105 UOK262081:UOK262105 UYG262081:UYG262105 VIC262081:VIC262105 VRY262081:VRY262105 WBU262081:WBU262105 WLQ262081:WLQ262105 WVM262081:WVM262105 E327671:E327695 JA327617:JA327641 SW327617:SW327641 ACS327617:ACS327641 AMO327617:AMO327641 AWK327617:AWK327641 BGG327617:BGG327641 BQC327617:BQC327641 BZY327617:BZY327641 CJU327617:CJU327641 CTQ327617:CTQ327641 DDM327617:DDM327641 DNI327617:DNI327641 DXE327617:DXE327641 EHA327617:EHA327641 EQW327617:EQW327641 FAS327617:FAS327641 FKO327617:FKO327641 FUK327617:FUK327641 GEG327617:GEG327641 GOC327617:GOC327641 GXY327617:GXY327641 HHU327617:HHU327641 HRQ327617:HRQ327641 IBM327617:IBM327641 ILI327617:ILI327641 IVE327617:IVE327641 JFA327617:JFA327641 JOW327617:JOW327641 JYS327617:JYS327641 KIO327617:KIO327641 KSK327617:KSK327641 LCG327617:LCG327641 LMC327617:LMC327641 LVY327617:LVY327641 MFU327617:MFU327641 MPQ327617:MPQ327641 MZM327617:MZM327641 NJI327617:NJI327641 NTE327617:NTE327641 ODA327617:ODA327641 OMW327617:OMW327641 OWS327617:OWS327641 PGO327617:PGO327641 PQK327617:PQK327641 QAG327617:QAG327641 QKC327617:QKC327641 QTY327617:QTY327641 RDU327617:RDU327641 RNQ327617:RNQ327641 RXM327617:RXM327641 SHI327617:SHI327641 SRE327617:SRE327641 TBA327617:TBA327641 TKW327617:TKW327641 TUS327617:TUS327641 UEO327617:UEO327641 UOK327617:UOK327641 UYG327617:UYG327641 VIC327617:VIC327641 VRY327617:VRY327641 WBU327617:WBU327641 WLQ327617:WLQ327641 WVM327617:WVM327641 E393207:E393231 JA393153:JA393177 SW393153:SW393177 ACS393153:ACS393177 AMO393153:AMO393177 AWK393153:AWK393177 BGG393153:BGG393177 BQC393153:BQC393177 BZY393153:BZY393177 CJU393153:CJU393177 CTQ393153:CTQ393177 DDM393153:DDM393177 DNI393153:DNI393177 DXE393153:DXE393177 EHA393153:EHA393177 EQW393153:EQW393177 FAS393153:FAS393177 FKO393153:FKO393177 FUK393153:FUK393177 GEG393153:GEG393177 GOC393153:GOC393177 GXY393153:GXY393177 HHU393153:HHU393177 HRQ393153:HRQ393177 IBM393153:IBM393177 ILI393153:ILI393177 IVE393153:IVE393177 JFA393153:JFA393177 JOW393153:JOW393177 JYS393153:JYS393177 KIO393153:KIO393177 KSK393153:KSK393177 LCG393153:LCG393177 LMC393153:LMC393177 LVY393153:LVY393177 MFU393153:MFU393177 MPQ393153:MPQ393177 MZM393153:MZM393177 NJI393153:NJI393177 NTE393153:NTE393177 ODA393153:ODA393177 OMW393153:OMW393177 OWS393153:OWS393177 PGO393153:PGO393177 PQK393153:PQK393177 QAG393153:QAG393177 QKC393153:QKC393177 QTY393153:QTY393177 RDU393153:RDU393177 RNQ393153:RNQ393177 RXM393153:RXM393177 SHI393153:SHI393177 SRE393153:SRE393177 TBA393153:TBA393177 TKW393153:TKW393177 TUS393153:TUS393177 UEO393153:UEO393177 UOK393153:UOK393177 UYG393153:UYG393177 VIC393153:VIC393177 VRY393153:VRY393177 WBU393153:WBU393177 WLQ393153:WLQ393177 WVM393153:WVM393177 E458743:E458767 JA458689:JA458713 SW458689:SW458713 ACS458689:ACS458713 AMO458689:AMO458713 AWK458689:AWK458713 BGG458689:BGG458713 BQC458689:BQC458713 BZY458689:BZY458713 CJU458689:CJU458713 CTQ458689:CTQ458713 DDM458689:DDM458713 DNI458689:DNI458713 DXE458689:DXE458713 EHA458689:EHA458713 EQW458689:EQW458713 FAS458689:FAS458713 FKO458689:FKO458713 FUK458689:FUK458713 GEG458689:GEG458713 GOC458689:GOC458713 GXY458689:GXY458713 HHU458689:HHU458713 HRQ458689:HRQ458713 IBM458689:IBM458713 ILI458689:ILI458713 IVE458689:IVE458713 JFA458689:JFA458713 JOW458689:JOW458713 JYS458689:JYS458713 KIO458689:KIO458713 KSK458689:KSK458713 LCG458689:LCG458713 LMC458689:LMC458713 LVY458689:LVY458713 MFU458689:MFU458713 MPQ458689:MPQ458713 MZM458689:MZM458713 NJI458689:NJI458713 NTE458689:NTE458713 ODA458689:ODA458713 OMW458689:OMW458713 OWS458689:OWS458713 PGO458689:PGO458713 PQK458689:PQK458713 QAG458689:QAG458713 QKC458689:QKC458713 QTY458689:QTY458713 RDU458689:RDU458713 RNQ458689:RNQ458713 RXM458689:RXM458713 SHI458689:SHI458713 SRE458689:SRE458713 TBA458689:TBA458713 TKW458689:TKW458713 TUS458689:TUS458713 UEO458689:UEO458713 UOK458689:UOK458713 UYG458689:UYG458713 VIC458689:VIC458713 VRY458689:VRY458713 WBU458689:WBU458713 WLQ458689:WLQ458713 WVM458689:WVM458713 E524279:E524303 JA524225:JA524249 SW524225:SW524249 ACS524225:ACS524249 AMO524225:AMO524249 AWK524225:AWK524249 BGG524225:BGG524249 BQC524225:BQC524249 BZY524225:BZY524249 CJU524225:CJU524249 CTQ524225:CTQ524249 DDM524225:DDM524249 DNI524225:DNI524249 DXE524225:DXE524249 EHA524225:EHA524249 EQW524225:EQW524249 FAS524225:FAS524249 FKO524225:FKO524249 FUK524225:FUK524249 GEG524225:GEG524249 GOC524225:GOC524249 GXY524225:GXY524249 HHU524225:HHU524249 HRQ524225:HRQ524249 IBM524225:IBM524249 ILI524225:ILI524249 IVE524225:IVE524249 JFA524225:JFA524249 JOW524225:JOW524249 JYS524225:JYS524249 KIO524225:KIO524249 KSK524225:KSK524249 LCG524225:LCG524249 LMC524225:LMC524249 LVY524225:LVY524249 MFU524225:MFU524249 MPQ524225:MPQ524249 MZM524225:MZM524249 NJI524225:NJI524249 NTE524225:NTE524249 ODA524225:ODA524249 OMW524225:OMW524249 OWS524225:OWS524249 PGO524225:PGO524249 PQK524225:PQK524249 QAG524225:QAG524249 QKC524225:QKC524249 QTY524225:QTY524249 RDU524225:RDU524249 RNQ524225:RNQ524249 RXM524225:RXM524249 SHI524225:SHI524249 SRE524225:SRE524249 TBA524225:TBA524249 TKW524225:TKW524249 TUS524225:TUS524249 UEO524225:UEO524249 UOK524225:UOK524249 UYG524225:UYG524249 VIC524225:VIC524249 VRY524225:VRY524249 WBU524225:WBU524249 WLQ524225:WLQ524249 WVM524225:WVM524249 E589815:E589839 JA589761:JA589785 SW589761:SW589785 ACS589761:ACS589785 AMO589761:AMO589785 AWK589761:AWK589785 BGG589761:BGG589785 BQC589761:BQC589785 BZY589761:BZY589785 CJU589761:CJU589785 CTQ589761:CTQ589785 DDM589761:DDM589785 DNI589761:DNI589785 DXE589761:DXE589785 EHA589761:EHA589785 EQW589761:EQW589785 FAS589761:FAS589785 FKO589761:FKO589785 FUK589761:FUK589785 GEG589761:GEG589785 GOC589761:GOC589785 GXY589761:GXY589785 HHU589761:HHU589785 HRQ589761:HRQ589785 IBM589761:IBM589785 ILI589761:ILI589785 IVE589761:IVE589785 JFA589761:JFA589785 JOW589761:JOW589785 JYS589761:JYS589785 KIO589761:KIO589785 KSK589761:KSK589785 LCG589761:LCG589785 LMC589761:LMC589785 LVY589761:LVY589785 MFU589761:MFU589785 MPQ589761:MPQ589785 MZM589761:MZM589785 NJI589761:NJI589785 NTE589761:NTE589785 ODA589761:ODA589785 OMW589761:OMW589785 OWS589761:OWS589785 PGO589761:PGO589785 PQK589761:PQK589785 QAG589761:QAG589785 QKC589761:QKC589785 QTY589761:QTY589785 RDU589761:RDU589785 RNQ589761:RNQ589785 RXM589761:RXM589785 SHI589761:SHI589785 SRE589761:SRE589785 TBA589761:TBA589785 TKW589761:TKW589785 TUS589761:TUS589785 UEO589761:UEO589785 UOK589761:UOK589785 UYG589761:UYG589785 VIC589761:VIC589785 VRY589761:VRY589785 WBU589761:WBU589785 WLQ589761:WLQ589785 WVM589761:WVM589785 E655351:E655375 JA655297:JA655321 SW655297:SW655321 ACS655297:ACS655321 AMO655297:AMO655321 AWK655297:AWK655321 BGG655297:BGG655321 BQC655297:BQC655321 BZY655297:BZY655321 CJU655297:CJU655321 CTQ655297:CTQ655321 DDM655297:DDM655321 DNI655297:DNI655321 DXE655297:DXE655321 EHA655297:EHA655321 EQW655297:EQW655321 FAS655297:FAS655321 FKO655297:FKO655321 FUK655297:FUK655321 GEG655297:GEG655321 GOC655297:GOC655321 GXY655297:GXY655321 HHU655297:HHU655321 HRQ655297:HRQ655321 IBM655297:IBM655321 ILI655297:ILI655321 IVE655297:IVE655321 JFA655297:JFA655321 JOW655297:JOW655321 JYS655297:JYS655321 KIO655297:KIO655321 KSK655297:KSK655321 LCG655297:LCG655321 LMC655297:LMC655321 LVY655297:LVY655321 MFU655297:MFU655321 MPQ655297:MPQ655321 MZM655297:MZM655321 NJI655297:NJI655321 NTE655297:NTE655321 ODA655297:ODA655321 OMW655297:OMW655321 OWS655297:OWS655321 PGO655297:PGO655321 PQK655297:PQK655321 QAG655297:QAG655321 QKC655297:QKC655321 QTY655297:QTY655321 RDU655297:RDU655321 RNQ655297:RNQ655321 RXM655297:RXM655321 SHI655297:SHI655321 SRE655297:SRE655321 TBA655297:TBA655321 TKW655297:TKW655321 TUS655297:TUS655321 UEO655297:UEO655321 UOK655297:UOK655321 UYG655297:UYG655321 VIC655297:VIC655321 VRY655297:VRY655321 WBU655297:WBU655321 WLQ655297:WLQ655321 WVM655297:WVM655321 E720887:E720911 JA720833:JA720857 SW720833:SW720857 ACS720833:ACS720857 AMO720833:AMO720857 AWK720833:AWK720857 BGG720833:BGG720857 BQC720833:BQC720857 BZY720833:BZY720857 CJU720833:CJU720857 CTQ720833:CTQ720857 DDM720833:DDM720857 DNI720833:DNI720857 DXE720833:DXE720857 EHA720833:EHA720857 EQW720833:EQW720857 FAS720833:FAS720857 FKO720833:FKO720857 FUK720833:FUK720857 GEG720833:GEG720857 GOC720833:GOC720857 GXY720833:GXY720857 HHU720833:HHU720857 HRQ720833:HRQ720857 IBM720833:IBM720857 ILI720833:ILI720857 IVE720833:IVE720857 JFA720833:JFA720857 JOW720833:JOW720857 JYS720833:JYS720857 KIO720833:KIO720857 KSK720833:KSK720857 LCG720833:LCG720857 LMC720833:LMC720857 LVY720833:LVY720857 MFU720833:MFU720857 MPQ720833:MPQ720857 MZM720833:MZM720857 NJI720833:NJI720857 NTE720833:NTE720857 ODA720833:ODA720857 OMW720833:OMW720857 OWS720833:OWS720857 PGO720833:PGO720857 PQK720833:PQK720857 QAG720833:QAG720857 QKC720833:QKC720857 QTY720833:QTY720857 RDU720833:RDU720857 RNQ720833:RNQ720857 RXM720833:RXM720857 SHI720833:SHI720857 SRE720833:SRE720857 TBA720833:TBA720857 TKW720833:TKW720857 TUS720833:TUS720857 UEO720833:UEO720857 UOK720833:UOK720857 UYG720833:UYG720857 VIC720833:VIC720857 VRY720833:VRY720857 WBU720833:WBU720857 WLQ720833:WLQ720857 WVM720833:WVM720857 E786423:E786447 JA786369:JA786393 SW786369:SW786393 ACS786369:ACS786393 AMO786369:AMO786393 AWK786369:AWK786393 BGG786369:BGG786393 BQC786369:BQC786393 BZY786369:BZY786393 CJU786369:CJU786393 CTQ786369:CTQ786393 DDM786369:DDM786393 DNI786369:DNI786393 DXE786369:DXE786393 EHA786369:EHA786393 EQW786369:EQW786393 FAS786369:FAS786393 FKO786369:FKO786393 FUK786369:FUK786393 GEG786369:GEG786393 GOC786369:GOC786393 GXY786369:GXY786393 HHU786369:HHU786393 HRQ786369:HRQ786393 IBM786369:IBM786393 ILI786369:ILI786393 IVE786369:IVE786393 JFA786369:JFA786393 JOW786369:JOW786393 JYS786369:JYS786393 KIO786369:KIO786393 KSK786369:KSK786393 LCG786369:LCG786393 LMC786369:LMC786393 LVY786369:LVY786393 MFU786369:MFU786393 MPQ786369:MPQ786393 MZM786369:MZM786393 NJI786369:NJI786393 NTE786369:NTE786393 ODA786369:ODA786393 OMW786369:OMW786393 OWS786369:OWS786393 PGO786369:PGO786393 PQK786369:PQK786393 QAG786369:QAG786393 QKC786369:QKC786393 QTY786369:QTY786393 RDU786369:RDU786393 RNQ786369:RNQ786393 RXM786369:RXM786393 SHI786369:SHI786393 SRE786369:SRE786393 TBA786369:TBA786393 TKW786369:TKW786393 TUS786369:TUS786393 UEO786369:UEO786393 UOK786369:UOK786393 UYG786369:UYG786393 VIC786369:VIC786393 VRY786369:VRY786393 WBU786369:WBU786393 WLQ786369:WLQ786393 WVM786369:WVM786393 E851959:E851983 JA851905:JA851929 SW851905:SW851929 ACS851905:ACS851929 AMO851905:AMO851929 AWK851905:AWK851929 BGG851905:BGG851929 BQC851905:BQC851929 BZY851905:BZY851929 CJU851905:CJU851929 CTQ851905:CTQ851929 DDM851905:DDM851929 DNI851905:DNI851929 DXE851905:DXE851929 EHA851905:EHA851929 EQW851905:EQW851929 FAS851905:FAS851929 FKO851905:FKO851929 FUK851905:FUK851929 GEG851905:GEG851929 GOC851905:GOC851929 GXY851905:GXY851929 HHU851905:HHU851929 HRQ851905:HRQ851929 IBM851905:IBM851929 ILI851905:ILI851929 IVE851905:IVE851929 JFA851905:JFA851929 JOW851905:JOW851929 JYS851905:JYS851929 KIO851905:KIO851929 KSK851905:KSK851929 LCG851905:LCG851929 LMC851905:LMC851929 LVY851905:LVY851929 MFU851905:MFU851929 MPQ851905:MPQ851929 MZM851905:MZM851929 NJI851905:NJI851929 NTE851905:NTE851929 ODA851905:ODA851929 OMW851905:OMW851929 OWS851905:OWS851929 PGO851905:PGO851929 PQK851905:PQK851929 QAG851905:QAG851929 QKC851905:QKC851929 QTY851905:QTY851929 RDU851905:RDU851929 RNQ851905:RNQ851929 RXM851905:RXM851929 SHI851905:SHI851929 SRE851905:SRE851929 TBA851905:TBA851929 TKW851905:TKW851929 TUS851905:TUS851929 UEO851905:UEO851929 UOK851905:UOK851929 UYG851905:UYG851929 VIC851905:VIC851929 VRY851905:VRY851929 WBU851905:WBU851929 WLQ851905:WLQ851929 WVM851905:WVM851929 E917495:E917519 JA917441:JA917465 SW917441:SW917465 ACS917441:ACS917465 AMO917441:AMO917465 AWK917441:AWK917465 BGG917441:BGG917465 BQC917441:BQC917465 BZY917441:BZY917465 CJU917441:CJU917465 CTQ917441:CTQ917465 DDM917441:DDM917465 DNI917441:DNI917465 DXE917441:DXE917465 EHA917441:EHA917465 EQW917441:EQW917465 FAS917441:FAS917465 FKO917441:FKO917465 FUK917441:FUK917465 GEG917441:GEG917465 GOC917441:GOC917465 GXY917441:GXY917465 HHU917441:HHU917465 HRQ917441:HRQ917465 IBM917441:IBM917465 ILI917441:ILI917465 IVE917441:IVE917465 JFA917441:JFA917465 JOW917441:JOW917465 JYS917441:JYS917465 KIO917441:KIO917465 KSK917441:KSK917465 LCG917441:LCG917465 LMC917441:LMC917465 LVY917441:LVY917465 MFU917441:MFU917465 MPQ917441:MPQ917465 MZM917441:MZM917465 NJI917441:NJI917465 NTE917441:NTE917465 ODA917441:ODA917465 OMW917441:OMW917465 OWS917441:OWS917465 PGO917441:PGO917465 PQK917441:PQK917465 QAG917441:QAG917465 QKC917441:QKC917465 QTY917441:QTY917465 RDU917441:RDU917465 RNQ917441:RNQ917465 RXM917441:RXM917465 SHI917441:SHI917465 SRE917441:SRE917465 TBA917441:TBA917465 TKW917441:TKW917465 TUS917441:TUS917465 UEO917441:UEO917465 UOK917441:UOK917465 UYG917441:UYG917465 VIC917441:VIC917465 VRY917441:VRY917465 WBU917441:WBU917465 WLQ917441:WLQ917465 WVM917441:WVM917465 E983031:E983055 JA982977:JA983001 SW982977:SW983001 ACS982977:ACS983001 AMO982977:AMO983001 AWK982977:AWK983001 BGG982977:BGG983001 BQC982977:BQC983001 BZY982977:BZY983001 CJU982977:CJU983001 CTQ982977:CTQ983001 DDM982977:DDM983001 DNI982977:DNI983001 DXE982977:DXE983001 EHA982977:EHA983001 EQW982977:EQW983001 FAS982977:FAS983001 FKO982977:FKO983001 FUK982977:FUK983001 GEG982977:GEG983001 GOC982977:GOC983001 GXY982977:GXY983001 HHU982977:HHU983001 HRQ982977:HRQ983001 IBM982977:IBM983001 ILI982977:ILI983001 IVE982977:IVE983001 JFA982977:JFA983001 JOW982977:JOW983001 JYS982977:JYS983001 KIO982977:KIO983001 KSK982977:KSK983001 LCG982977:LCG983001 LMC982977:LMC983001 LVY982977:LVY983001 MFU982977:MFU983001 MPQ982977:MPQ983001 MZM982977:MZM983001 NJI982977:NJI983001 NTE982977:NTE983001 ODA982977:ODA983001 OMW982977:OMW983001 OWS982977:OWS983001 PGO982977:PGO983001 PQK982977:PQK983001 QAG982977:QAG983001 QKC982977:QKC983001 QTY982977:QTY983001 RDU982977:RDU983001 RNQ982977:RNQ983001 RXM982977:RXM983001 SHI982977:SHI983001 SRE982977:SRE983001 TBA982977:TBA983001 TKW982977:TKW983001 TUS982977:TUS983001 UEO982977:UEO983001 UOK982977:UOK983001 UYG982977:UYG983001 VIC982977:VIC983001 VRY982977:VRY983001 WBU982977:WBU983001 WLQ982977:WLQ983001 WVM982977:WVM983001 E14:E26 JA5:JA25 SW5:SW25 ACS5:ACS25 AMO5:AMO25 AWK5:AWK25 BGG5:BGG25 BQC5:BQC25 BZY5:BZY25 CJU5:CJU25 CTQ5:CTQ25 DDM5:DDM25 DNI5:DNI25 DXE5:DXE25 EHA5:EHA25 EQW5:EQW25 FAS5:FAS25 FKO5:FKO25 FUK5:FUK25 GEG5:GEG25 GOC5:GOC25 GXY5:GXY25 HHU5:HHU25 HRQ5:HRQ25 IBM5:IBM25 ILI5:ILI25 IVE5:IVE25 JFA5:JFA25 JOW5:JOW25 JYS5:JYS25 KIO5:KIO25 KSK5:KSK25 LCG5:LCG25 LMC5:LMC25 LVY5:LVY25 MFU5:MFU25 MPQ5:MPQ25 MZM5:MZM25 NJI5:NJI25 NTE5:NTE25 ODA5:ODA25 OMW5:OMW25 OWS5:OWS25 PGO5:PGO25 PQK5:PQK25 QAG5:QAG25 QKC5:QKC25 QTY5:QTY25 RDU5:RDU25 RNQ5:RNQ25 RXM5:RXM25 SHI5:SHI25 SRE5:SRE25 TBA5:TBA25 TKW5:TKW25 TUS5:TUS25 UEO5:UEO25 UOK5:UOK25 UYG5:UYG25 VIC5:VIC25 VRY5:VRY25 WBU5:WBU25 WLQ5:WLQ25 WVM5:WVM25" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$G$5:$G$11</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="ادخل المصروفات من الجدول" error="الرجاء ادخال المصروفات من النطاقات المحددة" sqref="WVM983005:WVM983072 JA38:JA86 SW38:SW86 ACS38:ACS86 AMO38:AMO86 AWK38:AWK86 BGG38:BGG86 BQC38:BQC86 BZY38:BZY86 CJU38:CJU86 CTQ38:CTQ86 DDM38:DDM86 DNI38:DNI86 DXE38:DXE86 EHA38:EHA86 EQW38:EQW86 FAS38:FAS86 FKO38:FKO86 FUK38:FUK86 GEG38:GEG86 GOC38:GOC86 GXY38:GXY86 HHU38:HHU86 HRQ38:HRQ86 IBM38:IBM86 ILI38:ILI86 IVE38:IVE86 JFA38:JFA86 JOW38:JOW86 JYS38:JYS86 KIO38:KIO86 KSK38:KSK86 LCG38:LCG86 LMC38:LMC86 LVY38:LVY86 MFU38:MFU86 MPQ38:MPQ86 MZM38:MZM86 NJI38:NJI86 NTE38:NTE86 ODA38:ODA86 OMW38:OMW86 OWS38:OWS86 PGO38:PGO86 PQK38:PQK86 QAG38:QAG86 QKC38:QKC86 QTY38:QTY86 RDU38:RDU86 RNQ38:RNQ86 RXM38:RXM86 SHI38:SHI86 SRE38:SRE86 TBA38:TBA86 TKW38:TKW86 TUS38:TUS86 UEO38:UEO86 UOK38:UOK86 UYG38:UYG86 VIC38:VIC86 VRY38:VRY86 WBU38:WBU86 WLQ38:WLQ86 WVM38:WVM86 E65555:E65622 JA65501:JA65568 SW65501:SW65568 ACS65501:ACS65568 AMO65501:AMO65568 AWK65501:AWK65568 BGG65501:BGG65568 BQC65501:BQC65568 BZY65501:BZY65568 CJU65501:CJU65568 CTQ65501:CTQ65568 DDM65501:DDM65568 DNI65501:DNI65568 DXE65501:DXE65568 EHA65501:EHA65568 EQW65501:EQW65568 FAS65501:FAS65568 FKO65501:FKO65568 FUK65501:FUK65568 GEG65501:GEG65568 GOC65501:GOC65568 GXY65501:GXY65568 HHU65501:HHU65568 HRQ65501:HRQ65568 IBM65501:IBM65568 ILI65501:ILI65568 IVE65501:IVE65568 JFA65501:JFA65568 JOW65501:JOW65568 JYS65501:JYS65568 KIO65501:KIO65568 KSK65501:KSK65568 LCG65501:LCG65568 LMC65501:LMC65568 LVY65501:LVY65568 MFU65501:MFU65568 MPQ65501:MPQ65568 MZM65501:MZM65568 NJI65501:NJI65568 NTE65501:NTE65568 ODA65501:ODA65568 OMW65501:OMW65568 OWS65501:OWS65568 PGO65501:PGO65568 PQK65501:PQK65568 QAG65501:QAG65568 QKC65501:QKC65568 QTY65501:QTY65568 RDU65501:RDU65568 RNQ65501:RNQ65568 RXM65501:RXM65568 SHI65501:SHI65568 SRE65501:SRE65568 TBA65501:TBA65568 TKW65501:TKW65568 TUS65501:TUS65568 UEO65501:UEO65568 UOK65501:UOK65568 UYG65501:UYG65568 VIC65501:VIC65568 VRY65501:VRY65568 WBU65501:WBU65568 WLQ65501:WLQ65568 WVM65501:WVM65568 E131091:E131158 JA131037:JA131104 SW131037:SW131104 ACS131037:ACS131104 AMO131037:AMO131104 AWK131037:AWK131104 BGG131037:BGG131104 BQC131037:BQC131104 BZY131037:BZY131104 CJU131037:CJU131104 CTQ131037:CTQ131104 DDM131037:DDM131104 DNI131037:DNI131104 DXE131037:DXE131104 EHA131037:EHA131104 EQW131037:EQW131104 FAS131037:FAS131104 FKO131037:FKO131104 FUK131037:FUK131104 GEG131037:GEG131104 GOC131037:GOC131104 GXY131037:GXY131104 HHU131037:HHU131104 HRQ131037:HRQ131104 IBM131037:IBM131104 ILI131037:ILI131104 IVE131037:IVE131104 JFA131037:JFA131104 JOW131037:JOW131104 JYS131037:JYS131104 KIO131037:KIO131104 KSK131037:KSK131104 LCG131037:LCG131104 LMC131037:LMC131104 LVY131037:LVY131104 MFU131037:MFU131104 MPQ131037:MPQ131104 MZM131037:MZM131104 NJI131037:NJI131104 NTE131037:NTE131104 ODA131037:ODA131104 OMW131037:OMW131104 OWS131037:OWS131104 PGO131037:PGO131104 PQK131037:PQK131104 QAG131037:QAG131104 QKC131037:QKC131104 QTY131037:QTY131104 RDU131037:RDU131104 RNQ131037:RNQ131104 RXM131037:RXM131104 SHI131037:SHI131104 SRE131037:SRE131104 TBA131037:TBA131104 TKW131037:TKW131104 TUS131037:TUS131104 UEO131037:UEO131104 UOK131037:UOK131104 UYG131037:UYG131104 VIC131037:VIC131104 VRY131037:VRY131104 WBU131037:WBU131104 WLQ131037:WLQ131104 WVM131037:WVM131104 E196627:E196694 JA196573:JA196640 SW196573:SW196640 ACS196573:ACS196640 AMO196573:AMO196640 AWK196573:AWK196640 BGG196573:BGG196640 BQC196573:BQC196640 BZY196573:BZY196640 CJU196573:CJU196640 CTQ196573:CTQ196640 DDM196573:DDM196640 DNI196573:DNI196640 DXE196573:DXE196640 EHA196573:EHA196640 EQW196573:EQW196640 FAS196573:FAS196640 FKO196573:FKO196640 FUK196573:FUK196640 GEG196573:GEG196640 GOC196573:GOC196640 GXY196573:GXY196640 HHU196573:HHU196640 HRQ196573:HRQ196640 IBM196573:IBM196640 ILI196573:ILI196640 IVE196573:IVE196640 JFA196573:JFA196640 JOW196573:JOW196640 JYS196573:JYS196640 KIO196573:KIO196640 KSK196573:KSK196640 LCG196573:LCG196640 LMC196573:LMC196640 LVY196573:LVY196640 MFU196573:MFU196640 MPQ196573:MPQ196640 MZM196573:MZM196640 NJI196573:NJI196640 NTE196573:NTE196640 ODA196573:ODA196640 OMW196573:OMW196640 OWS196573:OWS196640 PGO196573:PGO196640 PQK196573:PQK196640 QAG196573:QAG196640 QKC196573:QKC196640 QTY196573:QTY196640 RDU196573:RDU196640 RNQ196573:RNQ196640 RXM196573:RXM196640 SHI196573:SHI196640 SRE196573:SRE196640 TBA196573:TBA196640 TKW196573:TKW196640 TUS196573:TUS196640 UEO196573:UEO196640 UOK196573:UOK196640 UYG196573:UYG196640 VIC196573:VIC196640 VRY196573:VRY196640 WBU196573:WBU196640 WLQ196573:WLQ196640 WVM196573:WVM196640 E262163:E262230 JA262109:JA262176 SW262109:SW262176 ACS262109:ACS262176 AMO262109:AMO262176 AWK262109:AWK262176 BGG262109:BGG262176 BQC262109:BQC262176 BZY262109:BZY262176 CJU262109:CJU262176 CTQ262109:CTQ262176 DDM262109:DDM262176 DNI262109:DNI262176 DXE262109:DXE262176 EHA262109:EHA262176 EQW262109:EQW262176 FAS262109:FAS262176 FKO262109:FKO262176 FUK262109:FUK262176 GEG262109:GEG262176 GOC262109:GOC262176 GXY262109:GXY262176 HHU262109:HHU262176 HRQ262109:HRQ262176 IBM262109:IBM262176 ILI262109:ILI262176 IVE262109:IVE262176 JFA262109:JFA262176 JOW262109:JOW262176 JYS262109:JYS262176 KIO262109:KIO262176 KSK262109:KSK262176 LCG262109:LCG262176 LMC262109:LMC262176 LVY262109:LVY262176 MFU262109:MFU262176 MPQ262109:MPQ262176 MZM262109:MZM262176 NJI262109:NJI262176 NTE262109:NTE262176 ODA262109:ODA262176 OMW262109:OMW262176 OWS262109:OWS262176 PGO262109:PGO262176 PQK262109:PQK262176 QAG262109:QAG262176 QKC262109:QKC262176 QTY262109:QTY262176 RDU262109:RDU262176 RNQ262109:RNQ262176 RXM262109:RXM262176 SHI262109:SHI262176 SRE262109:SRE262176 TBA262109:TBA262176 TKW262109:TKW262176 TUS262109:TUS262176 UEO262109:UEO262176 UOK262109:UOK262176 UYG262109:UYG262176 VIC262109:VIC262176 VRY262109:VRY262176 WBU262109:WBU262176 WLQ262109:WLQ262176 WVM262109:WVM262176 E327699:E327766 JA327645:JA327712 SW327645:SW327712 ACS327645:ACS327712 AMO327645:AMO327712 AWK327645:AWK327712 BGG327645:BGG327712 BQC327645:BQC327712 BZY327645:BZY327712 CJU327645:CJU327712 CTQ327645:CTQ327712 DDM327645:DDM327712 DNI327645:DNI327712 DXE327645:DXE327712 EHA327645:EHA327712 EQW327645:EQW327712 FAS327645:FAS327712 FKO327645:FKO327712 FUK327645:FUK327712 GEG327645:GEG327712 GOC327645:GOC327712 GXY327645:GXY327712 HHU327645:HHU327712 HRQ327645:HRQ327712 IBM327645:IBM327712 ILI327645:ILI327712 IVE327645:IVE327712 JFA327645:JFA327712 JOW327645:JOW327712 JYS327645:JYS327712 KIO327645:KIO327712 KSK327645:KSK327712 LCG327645:LCG327712 LMC327645:LMC327712 LVY327645:LVY327712 MFU327645:MFU327712 MPQ327645:MPQ327712 MZM327645:MZM327712 NJI327645:NJI327712 NTE327645:NTE327712 ODA327645:ODA327712 OMW327645:OMW327712 OWS327645:OWS327712 PGO327645:PGO327712 PQK327645:PQK327712 QAG327645:QAG327712 QKC327645:QKC327712 QTY327645:QTY327712 RDU327645:RDU327712 RNQ327645:RNQ327712 RXM327645:RXM327712 SHI327645:SHI327712 SRE327645:SRE327712 TBA327645:TBA327712 TKW327645:TKW327712 TUS327645:TUS327712 UEO327645:UEO327712 UOK327645:UOK327712 UYG327645:UYG327712 VIC327645:VIC327712 VRY327645:VRY327712 WBU327645:WBU327712 WLQ327645:WLQ327712 WVM327645:WVM327712 E393235:E393302 JA393181:JA393248 SW393181:SW393248 ACS393181:ACS393248 AMO393181:AMO393248 AWK393181:AWK393248 BGG393181:BGG393248 BQC393181:BQC393248 BZY393181:BZY393248 CJU393181:CJU393248 CTQ393181:CTQ393248 DDM393181:DDM393248 DNI393181:DNI393248 DXE393181:DXE393248 EHA393181:EHA393248 EQW393181:EQW393248 FAS393181:FAS393248 FKO393181:FKO393248 FUK393181:FUK393248 GEG393181:GEG393248 GOC393181:GOC393248 GXY393181:GXY393248 HHU393181:HHU393248 HRQ393181:HRQ393248 IBM393181:IBM393248 ILI393181:ILI393248 IVE393181:IVE393248 JFA393181:JFA393248 JOW393181:JOW393248 JYS393181:JYS393248 KIO393181:KIO393248 KSK393181:KSK393248 LCG393181:LCG393248 LMC393181:LMC393248 LVY393181:LVY393248 MFU393181:MFU393248 MPQ393181:MPQ393248 MZM393181:MZM393248 NJI393181:NJI393248 NTE393181:NTE393248 ODA393181:ODA393248 OMW393181:OMW393248 OWS393181:OWS393248 PGO393181:PGO393248 PQK393181:PQK393248 QAG393181:QAG393248 QKC393181:QKC393248 QTY393181:QTY393248 RDU393181:RDU393248 RNQ393181:RNQ393248 RXM393181:RXM393248 SHI393181:SHI393248 SRE393181:SRE393248 TBA393181:TBA393248 TKW393181:TKW393248 TUS393181:TUS393248 UEO393181:UEO393248 UOK393181:UOK393248 UYG393181:UYG393248 VIC393181:VIC393248 VRY393181:VRY393248 WBU393181:WBU393248 WLQ393181:WLQ393248 WVM393181:WVM393248 E458771:E458838 JA458717:JA458784 SW458717:SW458784 ACS458717:ACS458784 AMO458717:AMO458784 AWK458717:AWK458784 BGG458717:BGG458784 BQC458717:BQC458784 BZY458717:BZY458784 CJU458717:CJU458784 CTQ458717:CTQ458784 DDM458717:DDM458784 DNI458717:DNI458784 DXE458717:DXE458784 EHA458717:EHA458784 EQW458717:EQW458784 FAS458717:FAS458784 FKO458717:FKO458784 FUK458717:FUK458784 GEG458717:GEG458784 GOC458717:GOC458784 GXY458717:GXY458784 HHU458717:HHU458784 HRQ458717:HRQ458784 IBM458717:IBM458784 ILI458717:ILI458784 IVE458717:IVE458784 JFA458717:JFA458784 JOW458717:JOW458784 JYS458717:JYS458784 KIO458717:KIO458784 KSK458717:KSK458784 LCG458717:LCG458784 LMC458717:LMC458784 LVY458717:LVY458784 MFU458717:MFU458784 MPQ458717:MPQ458784 MZM458717:MZM458784 NJI458717:NJI458784 NTE458717:NTE458784 ODA458717:ODA458784 OMW458717:OMW458784 OWS458717:OWS458784 PGO458717:PGO458784 PQK458717:PQK458784 QAG458717:QAG458784 QKC458717:QKC458784 QTY458717:QTY458784 RDU458717:RDU458784 RNQ458717:RNQ458784 RXM458717:RXM458784 SHI458717:SHI458784 SRE458717:SRE458784 TBA458717:TBA458784 TKW458717:TKW458784 TUS458717:TUS458784 UEO458717:UEO458784 UOK458717:UOK458784 UYG458717:UYG458784 VIC458717:VIC458784 VRY458717:VRY458784 WBU458717:WBU458784 WLQ458717:WLQ458784 WVM458717:WVM458784 E524307:E524374 JA524253:JA524320 SW524253:SW524320 ACS524253:ACS524320 AMO524253:AMO524320 AWK524253:AWK524320 BGG524253:BGG524320 BQC524253:BQC524320 BZY524253:BZY524320 CJU524253:CJU524320 CTQ524253:CTQ524320 DDM524253:DDM524320 DNI524253:DNI524320 DXE524253:DXE524320 EHA524253:EHA524320 EQW524253:EQW524320 FAS524253:FAS524320 FKO524253:FKO524320 FUK524253:FUK524320 GEG524253:GEG524320 GOC524253:GOC524320 GXY524253:GXY524320 HHU524253:HHU524320 HRQ524253:HRQ524320 IBM524253:IBM524320 ILI524253:ILI524320 IVE524253:IVE524320 JFA524253:JFA524320 JOW524253:JOW524320 JYS524253:JYS524320 KIO524253:KIO524320 KSK524253:KSK524320 LCG524253:LCG524320 LMC524253:LMC524320 LVY524253:LVY524320 MFU524253:MFU524320 MPQ524253:MPQ524320 MZM524253:MZM524320 NJI524253:NJI524320 NTE524253:NTE524320 ODA524253:ODA524320 OMW524253:OMW524320 OWS524253:OWS524320 PGO524253:PGO524320 PQK524253:PQK524320 QAG524253:QAG524320 QKC524253:QKC524320 QTY524253:QTY524320 RDU524253:RDU524320 RNQ524253:RNQ524320 RXM524253:RXM524320 SHI524253:SHI524320 SRE524253:SRE524320 TBA524253:TBA524320 TKW524253:TKW524320 TUS524253:TUS524320 UEO524253:UEO524320 UOK524253:UOK524320 UYG524253:UYG524320 VIC524253:VIC524320 VRY524253:VRY524320 WBU524253:WBU524320 WLQ524253:WLQ524320 WVM524253:WVM524320 E589843:E589910 JA589789:JA589856 SW589789:SW589856 ACS589789:ACS589856 AMO589789:AMO589856 AWK589789:AWK589856 BGG589789:BGG589856 BQC589789:BQC589856 BZY589789:BZY589856 CJU589789:CJU589856 CTQ589789:CTQ589856 DDM589789:DDM589856 DNI589789:DNI589856 DXE589789:DXE589856 EHA589789:EHA589856 EQW589789:EQW589856 FAS589789:FAS589856 FKO589789:FKO589856 FUK589789:FUK589856 GEG589789:GEG589856 GOC589789:GOC589856 GXY589789:GXY589856 HHU589789:HHU589856 HRQ589789:HRQ589856 IBM589789:IBM589856 ILI589789:ILI589856 IVE589789:IVE589856 JFA589789:JFA589856 JOW589789:JOW589856 JYS589789:JYS589856 KIO589789:KIO589856 KSK589789:KSK589856 LCG589789:LCG589856 LMC589789:LMC589856 LVY589789:LVY589856 MFU589789:MFU589856 MPQ589789:MPQ589856 MZM589789:MZM589856 NJI589789:NJI589856 NTE589789:NTE589856 ODA589789:ODA589856 OMW589789:OMW589856 OWS589789:OWS589856 PGO589789:PGO589856 PQK589789:PQK589856 QAG589789:QAG589856 QKC589789:QKC589856 QTY589789:QTY589856 RDU589789:RDU589856 RNQ589789:RNQ589856 RXM589789:RXM589856 SHI589789:SHI589856 SRE589789:SRE589856 TBA589789:TBA589856 TKW589789:TKW589856 TUS589789:TUS589856 UEO589789:UEO589856 UOK589789:UOK589856 UYG589789:UYG589856 VIC589789:VIC589856 VRY589789:VRY589856 WBU589789:WBU589856 WLQ589789:WLQ589856 WVM589789:WVM589856 E655379:E655446 JA655325:JA655392 SW655325:SW655392 ACS655325:ACS655392 AMO655325:AMO655392 AWK655325:AWK655392 BGG655325:BGG655392 BQC655325:BQC655392 BZY655325:BZY655392 CJU655325:CJU655392 CTQ655325:CTQ655392 DDM655325:DDM655392 DNI655325:DNI655392 DXE655325:DXE655392 EHA655325:EHA655392 EQW655325:EQW655392 FAS655325:FAS655392 FKO655325:FKO655392 FUK655325:FUK655392 GEG655325:GEG655392 GOC655325:GOC655392 GXY655325:GXY655392 HHU655325:HHU655392 HRQ655325:HRQ655392 IBM655325:IBM655392 ILI655325:ILI655392 IVE655325:IVE655392 JFA655325:JFA655392 JOW655325:JOW655392 JYS655325:JYS655392 KIO655325:KIO655392 KSK655325:KSK655392 LCG655325:LCG655392 LMC655325:LMC655392 LVY655325:LVY655392 MFU655325:MFU655392 MPQ655325:MPQ655392 MZM655325:MZM655392 NJI655325:NJI655392 NTE655325:NTE655392 ODA655325:ODA655392 OMW655325:OMW655392 OWS655325:OWS655392 PGO655325:PGO655392 PQK655325:PQK655392 QAG655325:QAG655392 QKC655325:QKC655392 QTY655325:QTY655392 RDU655325:RDU655392 RNQ655325:RNQ655392 RXM655325:RXM655392 SHI655325:SHI655392 SRE655325:SRE655392 TBA655325:TBA655392 TKW655325:TKW655392 TUS655325:TUS655392 UEO655325:UEO655392 UOK655325:UOK655392 UYG655325:UYG655392 VIC655325:VIC655392 VRY655325:VRY655392 WBU655325:WBU655392 WLQ655325:WLQ655392 WVM655325:WVM655392 E720915:E720982 JA720861:JA720928 SW720861:SW720928 ACS720861:ACS720928 AMO720861:AMO720928 AWK720861:AWK720928 BGG720861:BGG720928 BQC720861:BQC720928 BZY720861:BZY720928 CJU720861:CJU720928 CTQ720861:CTQ720928 DDM720861:DDM720928 DNI720861:DNI720928 DXE720861:DXE720928 EHA720861:EHA720928 EQW720861:EQW720928 FAS720861:FAS720928 FKO720861:FKO720928 FUK720861:FUK720928 GEG720861:GEG720928 GOC720861:GOC720928 GXY720861:GXY720928 HHU720861:HHU720928 HRQ720861:HRQ720928 IBM720861:IBM720928 ILI720861:ILI720928 IVE720861:IVE720928 JFA720861:JFA720928 JOW720861:JOW720928 JYS720861:JYS720928 KIO720861:KIO720928 KSK720861:KSK720928 LCG720861:LCG720928 LMC720861:LMC720928 LVY720861:LVY720928 MFU720861:MFU720928 MPQ720861:MPQ720928 MZM720861:MZM720928 NJI720861:NJI720928 NTE720861:NTE720928 ODA720861:ODA720928 OMW720861:OMW720928 OWS720861:OWS720928 PGO720861:PGO720928 PQK720861:PQK720928 QAG720861:QAG720928 QKC720861:QKC720928 QTY720861:QTY720928 RDU720861:RDU720928 RNQ720861:RNQ720928 RXM720861:RXM720928 SHI720861:SHI720928 SRE720861:SRE720928 TBA720861:TBA720928 TKW720861:TKW720928 TUS720861:TUS720928 UEO720861:UEO720928 UOK720861:UOK720928 UYG720861:UYG720928 VIC720861:VIC720928 VRY720861:VRY720928 WBU720861:WBU720928 WLQ720861:WLQ720928 WVM720861:WVM720928 E786451:E786518 JA786397:JA786464 SW786397:SW786464 ACS786397:ACS786464 AMO786397:AMO786464 AWK786397:AWK786464 BGG786397:BGG786464 BQC786397:BQC786464 BZY786397:BZY786464 CJU786397:CJU786464 CTQ786397:CTQ786464 DDM786397:DDM786464 DNI786397:DNI786464 DXE786397:DXE786464 EHA786397:EHA786464 EQW786397:EQW786464 FAS786397:FAS786464 FKO786397:FKO786464 FUK786397:FUK786464 GEG786397:GEG786464 GOC786397:GOC786464 GXY786397:GXY786464 HHU786397:HHU786464 HRQ786397:HRQ786464 IBM786397:IBM786464 ILI786397:ILI786464 IVE786397:IVE786464 JFA786397:JFA786464 JOW786397:JOW786464 JYS786397:JYS786464 KIO786397:KIO786464 KSK786397:KSK786464 LCG786397:LCG786464 LMC786397:LMC786464 LVY786397:LVY786464 MFU786397:MFU786464 MPQ786397:MPQ786464 MZM786397:MZM786464 NJI786397:NJI786464 NTE786397:NTE786464 ODA786397:ODA786464 OMW786397:OMW786464 OWS786397:OWS786464 PGO786397:PGO786464 PQK786397:PQK786464 QAG786397:QAG786464 QKC786397:QKC786464 QTY786397:QTY786464 RDU786397:RDU786464 RNQ786397:RNQ786464 RXM786397:RXM786464 SHI786397:SHI786464 SRE786397:SRE786464 TBA786397:TBA786464 TKW786397:TKW786464 TUS786397:TUS786464 UEO786397:UEO786464 UOK786397:UOK786464 UYG786397:UYG786464 VIC786397:VIC786464 VRY786397:VRY786464 WBU786397:WBU786464 WLQ786397:WLQ786464 WVM786397:WVM786464 E851987:E852054 JA851933:JA852000 SW851933:SW852000 ACS851933:ACS852000 AMO851933:AMO852000 AWK851933:AWK852000 BGG851933:BGG852000 BQC851933:BQC852000 BZY851933:BZY852000 CJU851933:CJU852000 CTQ851933:CTQ852000 DDM851933:DDM852000 DNI851933:DNI852000 DXE851933:DXE852000 EHA851933:EHA852000 EQW851933:EQW852000 FAS851933:FAS852000 FKO851933:FKO852000 FUK851933:FUK852000 GEG851933:GEG852000 GOC851933:GOC852000 GXY851933:GXY852000 HHU851933:HHU852000 HRQ851933:HRQ852000 IBM851933:IBM852000 ILI851933:ILI852000 IVE851933:IVE852000 JFA851933:JFA852000 JOW851933:JOW852000 JYS851933:JYS852000 KIO851933:KIO852000 KSK851933:KSK852000 LCG851933:LCG852000 LMC851933:LMC852000 LVY851933:LVY852000 MFU851933:MFU852000 MPQ851933:MPQ852000 MZM851933:MZM852000 NJI851933:NJI852000 NTE851933:NTE852000 ODA851933:ODA852000 OMW851933:OMW852000 OWS851933:OWS852000 PGO851933:PGO852000 PQK851933:PQK852000 QAG851933:QAG852000 QKC851933:QKC852000 QTY851933:QTY852000 RDU851933:RDU852000 RNQ851933:RNQ852000 RXM851933:RXM852000 SHI851933:SHI852000 SRE851933:SRE852000 TBA851933:TBA852000 TKW851933:TKW852000 TUS851933:TUS852000 UEO851933:UEO852000 UOK851933:UOK852000 UYG851933:UYG852000 VIC851933:VIC852000 VRY851933:VRY852000 WBU851933:WBU852000 WLQ851933:WLQ852000 WVM851933:WVM852000 E917523:E917590 JA917469:JA917536 SW917469:SW917536 ACS917469:ACS917536 AMO917469:AMO917536 AWK917469:AWK917536 BGG917469:BGG917536 BQC917469:BQC917536 BZY917469:BZY917536 CJU917469:CJU917536 CTQ917469:CTQ917536 DDM917469:DDM917536 DNI917469:DNI917536 DXE917469:DXE917536 EHA917469:EHA917536 EQW917469:EQW917536 FAS917469:FAS917536 FKO917469:FKO917536 FUK917469:FUK917536 GEG917469:GEG917536 GOC917469:GOC917536 GXY917469:GXY917536 HHU917469:HHU917536 HRQ917469:HRQ917536 IBM917469:IBM917536 ILI917469:ILI917536 IVE917469:IVE917536 JFA917469:JFA917536 JOW917469:JOW917536 JYS917469:JYS917536 KIO917469:KIO917536 KSK917469:KSK917536 LCG917469:LCG917536 LMC917469:LMC917536 LVY917469:LVY917536 MFU917469:MFU917536 MPQ917469:MPQ917536 MZM917469:MZM917536 NJI917469:NJI917536 NTE917469:NTE917536 ODA917469:ODA917536 OMW917469:OMW917536 OWS917469:OWS917536 PGO917469:PGO917536 PQK917469:PQK917536 QAG917469:QAG917536 QKC917469:QKC917536 QTY917469:QTY917536 RDU917469:RDU917536 RNQ917469:RNQ917536 RXM917469:RXM917536 SHI917469:SHI917536 SRE917469:SRE917536 TBA917469:TBA917536 TKW917469:TKW917536 TUS917469:TUS917536 UEO917469:UEO917536 UOK917469:UOK917536 UYG917469:UYG917536 VIC917469:VIC917536 VRY917469:VRY917536 WBU917469:WBU917536 WLQ917469:WLQ917536 WVM917469:WVM917536 E983059:E983126 JA983005:JA983072 SW983005:SW983072 ACS983005:ACS983072 AMO983005:AMO983072 AWK983005:AWK983072 BGG983005:BGG983072 BQC983005:BQC983072 BZY983005:BZY983072 CJU983005:CJU983072 CTQ983005:CTQ983072 DDM983005:DDM983072 DNI983005:DNI983072 DXE983005:DXE983072 EHA983005:EHA983072 EQW983005:EQW983072 FAS983005:FAS983072 FKO983005:FKO983072 FUK983005:FUK983072 GEG983005:GEG983072 GOC983005:GOC983072 GXY983005:GXY983072 HHU983005:HHU983072 HRQ983005:HRQ983072 IBM983005:IBM983072 ILI983005:ILI983072 IVE983005:IVE983072 JFA983005:JFA983072 JOW983005:JOW983072 JYS983005:JYS983072 KIO983005:KIO983072 KSK983005:KSK983072 LCG983005:LCG983072 LMC983005:LMC983072 LVY983005:LVY983072 MFU983005:MFU983072 MPQ983005:MPQ983072 MZM983005:MZM983072 NJI983005:NJI983072 NTE983005:NTE983072 ODA983005:ODA983072 OMW983005:OMW983072 OWS983005:OWS983072 PGO983005:PGO983072 PQK983005:PQK983072 QAG983005:QAG983072 QKC983005:QKC983072 QTY983005:QTY983072 RDU983005:RDU983072 RNQ983005:RNQ983072 RXM983005:RXM983072 SHI983005:SHI983072 SRE983005:SRE983072 TBA983005:TBA983072 TKW983005:TKW983072 TUS983005:TUS983072 UEO983005:UEO983072 UOK983005:UOK983072 UYG983005:UYG983072 VIC983005:VIC983072 VRY983005:VRY983072 WBU983005:WBU983072 WLQ983005:WLQ983072 E65:E91" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>$G$27:$G$70</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="ادخل المصروفات من الجدول" error="الرجاء ادخال المصروفات من النطاقات المحددة" sqref="WVM983003:WVM983070 E54:E89 WLQ983003:WLQ983070 WBU983003:WBU983070 VRY983003:VRY983070 VIC983003:VIC983070 UYG983003:UYG983070 UOK983003:UOK983070 UEO983003:UEO983070 TUS983003:TUS983070 TKW983003:TKW983070 TBA983003:TBA983070 SRE983003:SRE983070 SHI983003:SHI983070 RXM983003:RXM983070 RNQ983003:RNQ983070 RDU983003:RDU983070 QTY983003:QTY983070 QKC983003:QKC983070 QAG983003:QAG983070 PQK983003:PQK983070 PGO983003:PGO983070 OWS983003:OWS983070 OMW983003:OMW983070 ODA983003:ODA983070 NTE983003:NTE983070 NJI983003:NJI983070 MZM983003:MZM983070 MPQ983003:MPQ983070 MFU983003:MFU983070 LVY983003:LVY983070 LMC983003:LMC983070 LCG983003:LCG983070 KSK983003:KSK983070 KIO983003:KIO983070 JYS983003:JYS983070 JOW983003:JOW983070 JFA983003:JFA983070 IVE983003:IVE983070 ILI983003:ILI983070 IBM983003:IBM983070 HRQ983003:HRQ983070 HHU983003:HHU983070 GXY983003:GXY983070 GOC983003:GOC983070 GEG983003:GEG983070 FUK983003:FUK983070 FKO983003:FKO983070 FAS983003:FAS983070 EQW983003:EQW983070 EHA983003:EHA983070 DXE983003:DXE983070 DNI983003:DNI983070 DDM983003:DDM983070 CTQ983003:CTQ983070 CJU983003:CJU983070 BZY983003:BZY983070 BQC983003:BQC983070 BGG983003:BGG983070 AWK983003:AWK983070 AMO983003:AMO983070 ACS983003:ACS983070 SW983003:SW983070 JA983003:JA983070 E983057:E983124 WVM917467:WVM917534 WLQ917467:WLQ917534 WBU917467:WBU917534 VRY917467:VRY917534 VIC917467:VIC917534 UYG917467:UYG917534 UOK917467:UOK917534 UEO917467:UEO917534 TUS917467:TUS917534 TKW917467:TKW917534 TBA917467:TBA917534 SRE917467:SRE917534 SHI917467:SHI917534 RXM917467:RXM917534 RNQ917467:RNQ917534 RDU917467:RDU917534 QTY917467:QTY917534 QKC917467:QKC917534 QAG917467:QAG917534 PQK917467:PQK917534 PGO917467:PGO917534 OWS917467:OWS917534 OMW917467:OMW917534 ODA917467:ODA917534 NTE917467:NTE917534 NJI917467:NJI917534 MZM917467:MZM917534 MPQ917467:MPQ917534 MFU917467:MFU917534 LVY917467:LVY917534 LMC917467:LMC917534 LCG917467:LCG917534 KSK917467:KSK917534 KIO917467:KIO917534 JYS917467:JYS917534 JOW917467:JOW917534 JFA917467:JFA917534 IVE917467:IVE917534 ILI917467:ILI917534 IBM917467:IBM917534 HRQ917467:HRQ917534 HHU917467:HHU917534 GXY917467:GXY917534 GOC917467:GOC917534 GEG917467:GEG917534 FUK917467:FUK917534 FKO917467:FKO917534 FAS917467:FAS917534 EQW917467:EQW917534 EHA917467:EHA917534 DXE917467:DXE917534 DNI917467:DNI917534 DDM917467:DDM917534 CTQ917467:CTQ917534 CJU917467:CJU917534 BZY917467:BZY917534 BQC917467:BQC917534 BGG917467:BGG917534 AWK917467:AWK917534 AMO917467:AMO917534 ACS917467:ACS917534 SW917467:SW917534 JA917467:JA917534 E917521:E917588 WVM851931:WVM851998 WLQ851931:WLQ851998 WBU851931:WBU851998 VRY851931:VRY851998 VIC851931:VIC851998 UYG851931:UYG851998 UOK851931:UOK851998 UEO851931:UEO851998 TUS851931:TUS851998 TKW851931:TKW851998 TBA851931:TBA851998 SRE851931:SRE851998 SHI851931:SHI851998 RXM851931:RXM851998 RNQ851931:RNQ851998 RDU851931:RDU851998 QTY851931:QTY851998 QKC851931:QKC851998 QAG851931:QAG851998 PQK851931:PQK851998 PGO851931:PGO851998 OWS851931:OWS851998 OMW851931:OMW851998 ODA851931:ODA851998 NTE851931:NTE851998 NJI851931:NJI851998 MZM851931:MZM851998 MPQ851931:MPQ851998 MFU851931:MFU851998 LVY851931:LVY851998 LMC851931:LMC851998 LCG851931:LCG851998 KSK851931:KSK851998 KIO851931:KIO851998 JYS851931:JYS851998 JOW851931:JOW851998 JFA851931:JFA851998 IVE851931:IVE851998 ILI851931:ILI851998 IBM851931:IBM851998 HRQ851931:HRQ851998 HHU851931:HHU851998 GXY851931:GXY851998 GOC851931:GOC851998 GEG851931:GEG851998 FUK851931:FUK851998 FKO851931:FKO851998 FAS851931:FAS851998 EQW851931:EQW851998 EHA851931:EHA851998 DXE851931:DXE851998 DNI851931:DNI851998 DDM851931:DDM851998 CTQ851931:CTQ851998 CJU851931:CJU851998 BZY851931:BZY851998 BQC851931:BQC851998 BGG851931:BGG851998 AWK851931:AWK851998 AMO851931:AMO851998 ACS851931:ACS851998 SW851931:SW851998 JA851931:JA851998 E851985:E852052 WVM786395:WVM786462 WLQ786395:WLQ786462 WBU786395:WBU786462 VRY786395:VRY786462 VIC786395:VIC786462 UYG786395:UYG786462 UOK786395:UOK786462 UEO786395:UEO786462 TUS786395:TUS786462 TKW786395:TKW786462 TBA786395:TBA786462 SRE786395:SRE786462 SHI786395:SHI786462 RXM786395:RXM786462 RNQ786395:RNQ786462 RDU786395:RDU786462 QTY786395:QTY786462 QKC786395:QKC786462 QAG786395:QAG786462 PQK786395:PQK786462 PGO786395:PGO786462 OWS786395:OWS786462 OMW786395:OMW786462 ODA786395:ODA786462 NTE786395:NTE786462 NJI786395:NJI786462 MZM786395:MZM786462 MPQ786395:MPQ786462 MFU786395:MFU786462 LVY786395:LVY786462 LMC786395:LMC786462 LCG786395:LCG786462 KSK786395:KSK786462 KIO786395:KIO786462 JYS786395:JYS786462 JOW786395:JOW786462 JFA786395:JFA786462 IVE786395:IVE786462 ILI786395:ILI786462 IBM786395:IBM786462 HRQ786395:HRQ786462 HHU786395:HHU786462 GXY786395:GXY786462 GOC786395:GOC786462 GEG786395:GEG786462 FUK786395:FUK786462 FKO786395:FKO786462 FAS786395:FAS786462 EQW786395:EQW786462 EHA786395:EHA786462 DXE786395:DXE786462 DNI786395:DNI786462 DDM786395:DDM786462 CTQ786395:CTQ786462 CJU786395:CJU786462 BZY786395:BZY786462 BQC786395:BQC786462 BGG786395:BGG786462 AWK786395:AWK786462 AMO786395:AMO786462 ACS786395:ACS786462 SW786395:SW786462 JA786395:JA786462 E786449:E786516 WVM720859:WVM720926 WLQ720859:WLQ720926 WBU720859:WBU720926 VRY720859:VRY720926 VIC720859:VIC720926 UYG720859:UYG720926 UOK720859:UOK720926 UEO720859:UEO720926 TUS720859:TUS720926 TKW720859:TKW720926 TBA720859:TBA720926 SRE720859:SRE720926 SHI720859:SHI720926 RXM720859:RXM720926 RNQ720859:RNQ720926 RDU720859:RDU720926 QTY720859:QTY720926 QKC720859:QKC720926 QAG720859:QAG720926 PQK720859:PQK720926 PGO720859:PGO720926 OWS720859:OWS720926 OMW720859:OMW720926 ODA720859:ODA720926 NTE720859:NTE720926 NJI720859:NJI720926 MZM720859:MZM720926 MPQ720859:MPQ720926 MFU720859:MFU720926 LVY720859:LVY720926 LMC720859:LMC720926 LCG720859:LCG720926 KSK720859:KSK720926 KIO720859:KIO720926 JYS720859:JYS720926 JOW720859:JOW720926 JFA720859:JFA720926 IVE720859:IVE720926 ILI720859:ILI720926 IBM720859:IBM720926 HRQ720859:HRQ720926 HHU720859:HHU720926 GXY720859:GXY720926 GOC720859:GOC720926 GEG720859:GEG720926 FUK720859:FUK720926 FKO720859:FKO720926 FAS720859:FAS720926 EQW720859:EQW720926 EHA720859:EHA720926 DXE720859:DXE720926 DNI720859:DNI720926 DDM720859:DDM720926 CTQ720859:CTQ720926 CJU720859:CJU720926 BZY720859:BZY720926 BQC720859:BQC720926 BGG720859:BGG720926 AWK720859:AWK720926 AMO720859:AMO720926 ACS720859:ACS720926 SW720859:SW720926 JA720859:JA720926 E720913:E720980 WVM655323:WVM655390 WLQ655323:WLQ655390 WBU655323:WBU655390 VRY655323:VRY655390 VIC655323:VIC655390 UYG655323:UYG655390 UOK655323:UOK655390 UEO655323:UEO655390 TUS655323:TUS655390 TKW655323:TKW655390 TBA655323:TBA655390 SRE655323:SRE655390 SHI655323:SHI655390 RXM655323:RXM655390 RNQ655323:RNQ655390 RDU655323:RDU655390 QTY655323:QTY655390 QKC655323:QKC655390 QAG655323:QAG655390 PQK655323:PQK655390 PGO655323:PGO655390 OWS655323:OWS655390 OMW655323:OMW655390 ODA655323:ODA655390 NTE655323:NTE655390 NJI655323:NJI655390 MZM655323:MZM655390 MPQ655323:MPQ655390 MFU655323:MFU655390 LVY655323:LVY655390 LMC655323:LMC655390 LCG655323:LCG655390 KSK655323:KSK655390 KIO655323:KIO655390 JYS655323:JYS655390 JOW655323:JOW655390 JFA655323:JFA655390 IVE655323:IVE655390 ILI655323:ILI655390 IBM655323:IBM655390 HRQ655323:HRQ655390 HHU655323:HHU655390 GXY655323:GXY655390 GOC655323:GOC655390 GEG655323:GEG655390 FUK655323:FUK655390 FKO655323:FKO655390 FAS655323:FAS655390 EQW655323:EQW655390 EHA655323:EHA655390 DXE655323:DXE655390 DNI655323:DNI655390 DDM655323:DDM655390 CTQ655323:CTQ655390 CJU655323:CJU655390 BZY655323:BZY655390 BQC655323:BQC655390 BGG655323:BGG655390 AWK655323:AWK655390 AMO655323:AMO655390 ACS655323:ACS655390 SW655323:SW655390 JA655323:JA655390 E655377:E655444 WVM589787:WVM589854 WLQ589787:WLQ589854 WBU589787:WBU589854 VRY589787:VRY589854 VIC589787:VIC589854 UYG589787:UYG589854 UOK589787:UOK589854 UEO589787:UEO589854 TUS589787:TUS589854 TKW589787:TKW589854 TBA589787:TBA589854 SRE589787:SRE589854 SHI589787:SHI589854 RXM589787:RXM589854 RNQ589787:RNQ589854 RDU589787:RDU589854 QTY589787:QTY589854 QKC589787:QKC589854 QAG589787:QAG589854 PQK589787:PQK589854 PGO589787:PGO589854 OWS589787:OWS589854 OMW589787:OMW589854 ODA589787:ODA589854 NTE589787:NTE589854 NJI589787:NJI589854 MZM589787:MZM589854 MPQ589787:MPQ589854 MFU589787:MFU589854 LVY589787:LVY589854 LMC589787:LMC589854 LCG589787:LCG589854 KSK589787:KSK589854 KIO589787:KIO589854 JYS589787:JYS589854 JOW589787:JOW589854 JFA589787:JFA589854 IVE589787:IVE589854 ILI589787:ILI589854 IBM589787:IBM589854 HRQ589787:HRQ589854 HHU589787:HHU589854 GXY589787:GXY589854 GOC589787:GOC589854 GEG589787:GEG589854 FUK589787:FUK589854 FKO589787:FKO589854 FAS589787:FAS589854 EQW589787:EQW589854 EHA589787:EHA589854 DXE589787:DXE589854 DNI589787:DNI589854 DDM589787:DDM589854 CTQ589787:CTQ589854 CJU589787:CJU589854 BZY589787:BZY589854 BQC589787:BQC589854 BGG589787:BGG589854 AWK589787:AWK589854 AMO589787:AMO589854 ACS589787:ACS589854 SW589787:SW589854 JA589787:JA589854 E589841:E589908 WVM524251:WVM524318 WLQ524251:WLQ524318 WBU524251:WBU524318 VRY524251:VRY524318 VIC524251:VIC524318 UYG524251:UYG524318 UOK524251:UOK524318 UEO524251:UEO524318 TUS524251:TUS524318 TKW524251:TKW524318 TBA524251:TBA524318 SRE524251:SRE524318 SHI524251:SHI524318 RXM524251:RXM524318 RNQ524251:RNQ524318 RDU524251:RDU524318 QTY524251:QTY524318 QKC524251:QKC524318 QAG524251:QAG524318 PQK524251:PQK524318 PGO524251:PGO524318 OWS524251:OWS524318 OMW524251:OMW524318 ODA524251:ODA524318 NTE524251:NTE524318 NJI524251:NJI524318 MZM524251:MZM524318 MPQ524251:MPQ524318 MFU524251:MFU524318 LVY524251:LVY524318 LMC524251:LMC524318 LCG524251:LCG524318 KSK524251:KSK524318 KIO524251:KIO524318 JYS524251:JYS524318 JOW524251:JOW524318 JFA524251:JFA524318 IVE524251:IVE524318 ILI524251:ILI524318 IBM524251:IBM524318 HRQ524251:HRQ524318 HHU524251:HHU524318 GXY524251:GXY524318 GOC524251:GOC524318 GEG524251:GEG524318 FUK524251:FUK524318 FKO524251:FKO524318 FAS524251:FAS524318 EQW524251:EQW524318 EHA524251:EHA524318 DXE524251:DXE524318 DNI524251:DNI524318 DDM524251:DDM524318 CTQ524251:CTQ524318 CJU524251:CJU524318 BZY524251:BZY524318 BQC524251:BQC524318 BGG524251:BGG524318 AWK524251:AWK524318 AMO524251:AMO524318 ACS524251:ACS524318 SW524251:SW524318 JA524251:JA524318 E524305:E524372 WVM458715:WVM458782 WLQ458715:WLQ458782 WBU458715:WBU458782 VRY458715:VRY458782 VIC458715:VIC458782 UYG458715:UYG458782 UOK458715:UOK458782 UEO458715:UEO458782 TUS458715:TUS458782 TKW458715:TKW458782 TBA458715:TBA458782 SRE458715:SRE458782 SHI458715:SHI458782 RXM458715:RXM458782 RNQ458715:RNQ458782 RDU458715:RDU458782 QTY458715:QTY458782 QKC458715:QKC458782 QAG458715:QAG458782 PQK458715:PQK458782 PGO458715:PGO458782 OWS458715:OWS458782 OMW458715:OMW458782 ODA458715:ODA458782 NTE458715:NTE458782 NJI458715:NJI458782 MZM458715:MZM458782 MPQ458715:MPQ458782 MFU458715:MFU458782 LVY458715:LVY458782 LMC458715:LMC458782 LCG458715:LCG458782 KSK458715:KSK458782 KIO458715:KIO458782 JYS458715:JYS458782 JOW458715:JOW458782 JFA458715:JFA458782 IVE458715:IVE458782 ILI458715:ILI458782 IBM458715:IBM458782 HRQ458715:HRQ458782 HHU458715:HHU458782 GXY458715:GXY458782 GOC458715:GOC458782 GEG458715:GEG458782 FUK458715:FUK458782 FKO458715:FKO458782 FAS458715:FAS458782 EQW458715:EQW458782 EHA458715:EHA458782 DXE458715:DXE458782 DNI458715:DNI458782 DDM458715:DDM458782 CTQ458715:CTQ458782 CJU458715:CJU458782 BZY458715:BZY458782 BQC458715:BQC458782 BGG458715:BGG458782 AWK458715:AWK458782 AMO458715:AMO458782 ACS458715:ACS458782 SW458715:SW458782 JA458715:JA458782 E458769:E458836 WVM393179:WVM393246 WLQ393179:WLQ393246 WBU393179:WBU393246 VRY393179:VRY393246 VIC393179:VIC393246 UYG393179:UYG393246 UOK393179:UOK393246 UEO393179:UEO393246 TUS393179:TUS393246 TKW393179:TKW393246 TBA393179:TBA393246 SRE393179:SRE393246 SHI393179:SHI393246 RXM393179:RXM393246 RNQ393179:RNQ393246 RDU393179:RDU393246 QTY393179:QTY393246 QKC393179:QKC393246 QAG393179:QAG393246 PQK393179:PQK393246 PGO393179:PGO393246 OWS393179:OWS393246 OMW393179:OMW393246 ODA393179:ODA393246 NTE393179:NTE393246 NJI393179:NJI393246 MZM393179:MZM393246 MPQ393179:MPQ393246 MFU393179:MFU393246 LVY393179:LVY393246 LMC393179:LMC393246 LCG393179:LCG393246 KSK393179:KSK393246 KIO393179:KIO393246 JYS393179:JYS393246 JOW393179:JOW393246 JFA393179:JFA393246 IVE393179:IVE393246 ILI393179:ILI393246 IBM393179:IBM393246 HRQ393179:HRQ393246 HHU393179:HHU393246 GXY393179:GXY393246 GOC393179:GOC393246 GEG393179:GEG393246 FUK393179:FUK393246 FKO393179:FKO393246 FAS393179:FAS393246 EQW393179:EQW393246 EHA393179:EHA393246 DXE393179:DXE393246 DNI393179:DNI393246 DDM393179:DDM393246 CTQ393179:CTQ393246 CJU393179:CJU393246 BZY393179:BZY393246 BQC393179:BQC393246 BGG393179:BGG393246 AWK393179:AWK393246 AMO393179:AMO393246 ACS393179:ACS393246 SW393179:SW393246 JA393179:JA393246 E393233:E393300 WVM327643:WVM327710 WLQ327643:WLQ327710 WBU327643:WBU327710 VRY327643:VRY327710 VIC327643:VIC327710 UYG327643:UYG327710 UOK327643:UOK327710 UEO327643:UEO327710 TUS327643:TUS327710 TKW327643:TKW327710 TBA327643:TBA327710 SRE327643:SRE327710 SHI327643:SHI327710 RXM327643:RXM327710 RNQ327643:RNQ327710 RDU327643:RDU327710 QTY327643:QTY327710 QKC327643:QKC327710 QAG327643:QAG327710 PQK327643:PQK327710 PGO327643:PGO327710 OWS327643:OWS327710 OMW327643:OMW327710 ODA327643:ODA327710 NTE327643:NTE327710 NJI327643:NJI327710 MZM327643:MZM327710 MPQ327643:MPQ327710 MFU327643:MFU327710 LVY327643:LVY327710 LMC327643:LMC327710 LCG327643:LCG327710 KSK327643:KSK327710 KIO327643:KIO327710 JYS327643:JYS327710 JOW327643:JOW327710 JFA327643:JFA327710 IVE327643:IVE327710 ILI327643:ILI327710 IBM327643:IBM327710 HRQ327643:HRQ327710 HHU327643:HHU327710 GXY327643:GXY327710 GOC327643:GOC327710 GEG327643:GEG327710 FUK327643:FUK327710 FKO327643:FKO327710 FAS327643:FAS327710 EQW327643:EQW327710 EHA327643:EHA327710 DXE327643:DXE327710 DNI327643:DNI327710 DDM327643:DDM327710 CTQ327643:CTQ327710 CJU327643:CJU327710 BZY327643:BZY327710 BQC327643:BQC327710 BGG327643:BGG327710 AWK327643:AWK327710 AMO327643:AMO327710 ACS327643:ACS327710 SW327643:SW327710 JA327643:JA327710 E327697:E327764 WVM262107:WVM262174 WLQ262107:WLQ262174 WBU262107:WBU262174 VRY262107:VRY262174 VIC262107:VIC262174 UYG262107:UYG262174 UOK262107:UOK262174 UEO262107:UEO262174 TUS262107:TUS262174 TKW262107:TKW262174 TBA262107:TBA262174 SRE262107:SRE262174 SHI262107:SHI262174 RXM262107:RXM262174 RNQ262107:RNQ262174 RDU262107:RDU262174 QTY262107:QTY262174 QKC262107:QKC262174 QAG262107:QAG262174 PQK262107:PQK262174 PGO262107:PGO262174 OWS262107:OWS262174 OMW262107:OMW262174 ODA262107:ODA262174 NTE262107:NTE262174 NJI262107:NJI262174 MZM262107:MZM262174 MPQ262107:MPQ262174 MFU262107:MFU262174 LVY262107:LVY262174 LMC262107:LMC262174 LCG262107:LCG262174 KSK262107:KSK262174 KIO262107:KIO262174 JYS262107:JYS262174 JOW262107:JOW262174 JFA262107:JFA262174 IVE262107:IVE262174 ILI262107:ILI262174 IBM262107:IBM262174 HRQ262107:HRQ262174 HHU262107:HHU262174 GXY262107:GXY262174 GOC262107:GOC262174 GEG262107:GEG262174 FUK262107:FUK262174 FKO262107:FKO262174 FAS262107:FAS262174 EQW262107:EQW262174 EHA262107:EHA262174 DXE262107:DXE262174 DNI262107:DNI262174 DDM262107:DDM262174 CTQ262107:CTQ262174 CJU262107:CJU262174 BZY262107:BZY262174 BQC262107:BQC262174 BGG262107:BGG262174 AWK262107:AWK262174 AMO262107:AMO262174 ACS262107:ACS262174 SW262107:SW262174 JA262107:JA262174 E262161:E262228 WVM196571:WVM196638 WLQ196571:WLQ196638 WBU196571:WBU196638 VRY196571:VRY196638 VIC196571:VIC196638 UYG196571:UYG196638 UOK196571:UOK196638 UEO196571:UEO196638 TUS196571:TUS196638 TKW196571:TKW196638 TBA196571:TBA196638 SRE196571:SRE196638 SHI196571:SHI196638 RXM196571:RXM196638 RNQ196571:RNQ196638 RDU196571:RDU196638 QTY196571:QTY196638 QKC196571:QKC196638 QAG196571:QAG196638 PQK196571:PQK196638 PGO196571:PGO196638 OWS196571:OWS196638 OMW196571:OMW196638 ODA196571:ODA196638 NTE196571:NTE196638 NJI196571:NJI196638 MZM196571:MZM196638 MPQ196571:MPQ196638 MFU196571:MFU196638 LVY196571:LVY196638 LMC196571:LMC196638 LCG196571:LCG196638 KSK196571:KSK196638 KIO196571:KIO196638 JYS196571:JYS196638 JOW196571:JOW196638 JFA196571:JFA196638 IVE196571:IVE196638 ILI196571:ILI196638 IBM196571:IBM196638 HRQ196571:HRQ196638 HHU196571:HHU196638 GXY196571:GXY196638 GOC196571:GOC196638 GEG196571:GEG196638 FUK196571:FUK196638 FKO196571:FKO196638 FAS196571:FAS196638 EQW196571:EQW196638 EHA196571:EHA196638 DXE196571:DXE196638 DNI196571:DNI196638 DDM196571:DDM196638 CTQ196571:CTQ196638 CJU196571:CJU196638 BZY196571:BZY196638 BQC196571:BQC196638 BGG196571:BGG196638 AWK196571:AWK196638 AMO196571:AMO196638 ACS196571:ACS196638 SW196571:SW196638 JA196571:JA196638 E196625:E196692 WVM131035:WVM131102 WLQ131035:WLQ131102 WBU131035:WBU131102 VRY131035:VRY131102 VIC131035:VIC131102 UYG131035:UYG131102 UOK131035:UOK131102 UEO131035:UEO131102 TUS131035:TUS131102 TKW131035:TKW131102 TBA131035:TBA131102 SRE131035:SRE131102 SHI131035:SHI131102 RXM131035:RXM131102 RNQ131035:RNQ131102 RDU131035:RDU131102 QTY131035:QTY131102 QKC131035:QKC131102 QAG131035:QAG131102 PQK131035:PQK131102 PGO131035:PGO131102 OWS131035:OWS131102 OMW131035:OMW131102 ODA131035:ODA131102 NTE131035:NTE131102 NJI131035:NJI131102 MZM131035:MZM131102 MPQ131035:MPQ131102 MFU131035:MFU131102 LVY131035:LVY131102 LMC131035:LMC131102 LCG131035:LCG131102 KSK131035:KSK131102 KIO131035:KIO131102 JYS131035:JYS131102 JOW131035:JOW131102 JFA131035:JFA131102 IVE131035:IVE131102 ILI131035:ILI131102 IBM131035:IBM131102 HRQ131035:HRQ131102 HHU131035:HHU131102 GXY131035:GXY131102 GOC131035:GOC131102 GEG131035:GEG131102 FUK131035:FUK131102 FKO131035:FKO131102 FAS131035:FAS131102 EQW131035:EQW131102 EHA131035:EHA131102 DXE131035:DXE131102 DNI131035:DNI131102 DDM131035:DDM131102 CTQ131035:CTQ131102 CJU131035:CJU131102 BZY131035:BZY131102 BQC131035:BQC131102 BGG131035:BGG131102 AWK131035:AWK131102 AMO131035:AMO131102 ACS131035:ACS131102 SW131035:SW131102 JA131035:JA131102 E131089:E131156 WVM65499:WVM65566 WLQ65499:WLQ65566 WBU65499:WBU65566 VRY65499:VRY65566 VIC65499:VIC65566 UYG65499:UYG65566 UOK65499:UOK65566 UEO65499:UEO65566 TUS65499:TUS65566 TKW65499:TKW65566 TBA65499:TBA65566 SRE65499:SRE65566 SHI65499:SHI65566 RXM65499:RXM65566 RNQ65499:RNQ65566 RDU65499:RDU65566 QTY65499:QTY65566 QKC65499:QKC65566 QAG65499:QAG65566 PQK65499:PQK65566 PGO65499:PGO65566 OWS65499:OWS65566 OMW65499:OMW65566 ODA65499:ODA65566 NTE65499:NTE65566 NJI65499:NJI65566 MZM65499:MZM65566 MPQ65499:MPQ65566 MFU65499:MFU65566 LVY65499:LVY65566 LMC65499:LMC65566 LCG65499:LCG65566 KSK65499:KSK65566 KIO65499:KIO65566 JYS65499:JYS65566 JOW65499:JOW65566 JFA65499:JFA65566 IVE65499:IVE65566 ILI65499:ILI65566 IBM65499:IBM65566 HRQ65499:HRQ65566 HHU65499:HHU65566 GXY65499:GXY65566 GOC65499:GOC65566 GEG65499:GEG65566 FUK65499:FUK65566 FKO65499:FKO65566 FAS65499:FAS65566 EQW65499:EQW65566 EHA65499:EHA65566 DXE65499:DXE65566 DNI65499:DNI65566 DDM65499:DDM65566 CTQ65499:CTQ65566 CJU65499:CJU65566 BZY65499:BZY65566 BQC65499:BQC65566 BGG65499:BGG65566 AWK65499:AWK65566 AMO65499:AMO65566 ACS65499:ACS65566 SW65499:SW65566 JA65499:JA65566 E65553:E65620 WVM27:WVM84 WLQ27:WLQ84 WBU27:WBU84 VRY27:VRY84 VIC27:VIC84 UYG27:UYG84 UOK27:UOK84 UEO27:UEO84 TUS27:TUS84 TKW27:TKW84 TBA27:TBA84 SRE27:SRE84 SHI27:SHI84 RXM27:RXM84 RNQ27:RNQ84 RDU27:RDU84 QTY27:QTY84 QKC27:QKC84 QAG27:QAG84 PQK27:PQK84 PGO27:PGO84 OWS27:OWS84 OMW27:OMW84 ODA27:ODA84 NTE27:NTE84 NJI27:NJI84 MZM27:MZM84 MPQ27:MPQ84 MFU27:MFU84 LVY27:LVY84 LMC27:LMC84 LCG27:LCG84 KSK27:KSK84 KIO27:KIO84 JYS27:JYS84 JOW27:JOW84 JFA27:JFA84 IVE27:IVE84 ILI27:ILI84 IBM27:IBM84 HRQ27:HRQ84 HHU27:HHU84 GXY27:GXY84 GOC27:GOC84 GEG27:GEG84 FUK27:FUK84 FKO27:FKO84 FAS27:FAS84 EQW27:EQW84 EHA27:EHA84 DXE27:DXE84 DNI27:DNI84 DDM27:DDM84 CTQ27:CTQ84 CJU27:CJU84 BZY27:BZY84 BQC27:BQC84 BGG27:BGG84 AWK27:AWK84 AMO27:AMO84 ACS27:ACS84 SW27:SW84 JA27:JA84" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>$G$16:$G$59</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G72:G78 E38:E64 G80 G26:G70" xr:uid="{00000000-0002-0000-0000-000002000000}">
-      <formula1>$G$27:$G$70</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G61:G67 G15:G59 G69:G78 E27:E53" xr:uid="{00000000-0002-0000-0000-000002000000}">
+      <formula1>$G$16:$G$59</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.39" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AssetManagement/AssetManagement/bin/Debug/Finance forms/financial blank report.xlsx
+++ b/AssetManagement/AssetManagement/bin/Debug/Finance forms/financial blank report.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCADCE09-6F68-4235-95C5-ADDEECD5742E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A23FE0B-C919-4D00-A391-B044FB865487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1568,8 +1568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X100"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A49" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A69" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.5"/>
@@ -2929,7 +2929,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="19">
-        <f>SUMIF(E:E,G5,A:A)</f>
+        <f t="shared" ref="H5:H12" si="0">SUMIF(E:E,G5,A:A)</f>
         <v>0</v>
       </c>
       <c r="J5" s="48" t="s">
@@ -2961,7 +2961,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="19">
-        <f>SUMIF(E:E,G6,A:A)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J6" s="46" t="s">
@@ -2993,7 +2993,7 @@
         <v>13</v>
       </c>
       <c r="H7" s="19">
-        <f>SUMIF(E:E,G7,A:A)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J7" s="46" t="s">
@@ -3025,7 +3025,7 @@
         <v>14</v>
       </c>
       <c r="H8" s="19">
-        <f>SUMIF(E:E,G8,A:A)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J8" s="46" t="s">
@@ -3057,7 +3057,7 @@
         <v>15</v>
       </c>
       <c r="H9" s="19">
-        <f>SUMIF(E:E,G9,A:A)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J9" s="46" t="s">
@@ -3089,7 +3089,7 @@
         <v>50</v>
       </c>
       <c r="H10" s="19">
-        <f>SUMIF(E:E,G10,A:A)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J10" s="46" t="s">
@@ -3121,7 +3121,7 @@
         <v>17</v>
       </c>
       <c r="H11" s="19">
-        <f>SUMIF(E:E,G11,A:A)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J11" s="46" t="s">
@@ -3153,7 +3153,7 @@
         <v>164</v>
       </c>
       <c r="H12" s="19">
-        <f>SUMIF(E:E,G12,A:A)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J12" s="46"/>
@@ -3242,7 +3242,7 @@
         <v>50</v>
       </c>
       <c r="H15" s="19">
-        <f>SUMIF(E:E,G15,B:B)</f>
+        <f t="shared" ref="H15:H59" si="1">SUMIF(E:E,G15,B:B)</f>
         <v>0</v>
       </c>
       <c r="J15" s="46" t="s">
@@ -3274,7 +3274,7 @@
         <v>19</v>
       </c>
       <c r="H16" s="19">
-        <f>SUMIF(E:E,G16,B:B)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J16" s="46" t="s">
@@ -3306,7 +3306,7 @@
         <v>66</v>
       </c>
       <c r="H17" s="19">
-        <f>SUMIF(E:E,G17,B:B)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J17" s="46" t="s">
@@ -3338,7 +3338,7 @@
         <v>20</v>
       </c>
       <c r="H18" s="19">
-        <f>SUMIF(E:E,G18,B:B)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J18" s="46" t="s">
@@ -3370,7 +3370,7 @@
         <v>22</v>
       </c>
       <c r="H19" s="19">
-        <f>SUMIF(E:E,G19,B:B)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J19" s="46" t="s">
@@ -3402,7 +3402,7 @@
         <v>24</v>
       </c>
       <c r="H20" s="19">
-        <f>SUMIF(E:E,G20,B:B)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J20" s="46" t="s">
@@ -3434,7 +3434,7 @@
         <v>83</v>
       </c>
       <c r="H21" s="19">
-        <f>SUMIF(E:E,G21,B:B)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J21" s="46" t="s">
@@ -3466,7 +3466,7 @@
         <v>58</v>
       </c>
       <c r="H22" s="19">
-        <f>SUMIF(E:E,G22,B:B)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J22" s="46" t="s">
@@ -3498,7 +3498,7 @@
         <v>25</v>
       </c>
       <c r="H23" s="19">
-        <f>SUMIF(E:E,G23,B:B)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J23" s="46" t="s">
@@ -3529,7 +3529,7 @@
         <v>114</v>
       </c>
       <c r="H24" s="19">
-        <f>SUMIF(E:E,G24,B:B)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J24" s="46" t="s">
@@ -3560,7 +3560,7 @@
         <v>142</v>
       </c>
       <c r="H25" s="19">
-        <f>SUMIF(E:E,G25,B:B)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J25" s="46" t="s">
@@ -3591,7 +3591,7 @@
         <v>26</v>
       </c>
       <c r="H26" s="19">
-        <f>SUMIF(E:E,G26,B:B)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J26" s="46" t="s">
@@ -3611,7 +3611,7 @@
         <v>27</v>
       </c>
       <c r="H27" s="19">
-        <f>SUMIF(E:E,G27,B:B)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J27" s="46" t="s">
@@ -3631,7 +3631,7 @@
         <v>141</v>
       </c>
       <c r="H28" s="19">
-        <f>SUMIF(E:E,G28,B:B)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J28" s="46" t="s">
@@ -3651,7 +3651,7 @@
         <v>61</v>
       </c>
       <c r="H29" s="19">
-        <f>SUMIF(E:E,G29,B:B)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J29" s="46" t="s">
@@ -3671,7 +3671,7 @@
         <v>29</v>
       </c>
       <c r="H30" s="19">
-        <f>SUMIF(E:E,G30,B:B)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J30" s="46" t="s">
@@ -3691,7 +3691,7 @@
         <v>130</v>
       </c>
       <c r="H31" s="19">
-        <f>SUMIF(E:E,G31,B:B)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J31" s="46" t="s">
@@ -3711,7 +3711,7 @@
         <v>129</v>
       </c>
       <c r="H32" s="19">
-        <f>SUMIF(E:E,G32,B:B)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J32" s="46" t="s">
@@ -3731,7 +3731,7 @@
         <v>30</v>
       </c>
       <c r="H33" s="19">
-        <f>SUMIF(E:E,G33,B:B)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I33" s="31"/>
@@ -3751,7 +3751,7 @@
         <v>31</v>
       </c>
       <c r="H34" s="19">
-        <f>SUMIF(E:E,G34,B:B)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J34" s="46" t="s">
@@ -3770,7 +3770,7 @@
         <v>32</v>
       </c>
       <c r="H35" s="19">
-        <f>SUMIF(E:E,G35,B:B)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J35" s="46" t="s">
@@ -3789,7 +3789,7 @@
         <v>33</v>
       </c>
       <c r="H36" s="19">
-        <f>SUMIF(E:E,G36,B:B)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J36" s="46" t="s">
@@ -3808,7 +3808,7 @@
         <v>34</v>
       </c>
       <c r="H37" s="19">
-        <f>SUMIF(E:E,G37,B:B)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J37" s="46" t="s">
@@ -3827,7 +3827,7 @@
         <v>102</v>
       </c>
       <c r="H38" s="19">
-        <f>SUMIF(E:E,G38,B:B)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J38" s="46" t="s">
@@ -3846,7 +3846,7 @@
         <v>35</v>
       </c>
       <c r="H39" s="19">
-        <f>SUMIF(E:E,G39,B:B)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J39" s="46" t="s">
@@ -3865,7 +3865,7 @@
         <v>36</v>
       </c>
       <c r="H40" s="19">
-        <f>SUMIF(E:E,G40,B:B)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J40" s="46" t="s">
@@ -3884,7 +3884,7 @@
         <v>106</v>
       </c>
       <c r="H41" s="19">
-        <f>SUMIF(E:E,G41,B:B)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J41" s="46" t="s">
@@ -3903,7 +3903,7 @@
         <v>39</v>
       </c>
       <c r="H42" s="19">
-        <f>SUMIF(E:E,G42,B:B)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J42" s="46" t="s">
@@ -3922,7 +3922,7 @@
         <v>40</v>
       </c>
       <c r="H43" s="19">
-        <f>SUMIF(E:E,G43,B:B)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J43" s="46" t="s">
@@ -3942,7 +3942,7 @@
         <v>41</v>
       </c>
       <c r="H44" s="19">
-        <f>SUMIF(E:E,G44,B:B)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J44" s="46" t="s">
@@ -3961,7 +3961,7 @@
         <v>62</v>
       </c>
       <c r="H45" s="19">
-        <f>SUMIF(E:E,G45,B:B)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I45" s="34"/>
@@ -3981,7 +3981,7 @@
         <v>42</v>
       </c>
       <c r="H46" s="19">
-        <f>SUMIF(E:E,G46,B:B)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I46" s="34"/>
@@ -4001,7 +4001,7 @@
         <v>63</v>
       </c>
       <c r="H47" s="19">
-        <f>SUMIF(E:E,G47,B:B)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I47" s="34"/>
@@ -4021,7 +4021,7 @@
         <v>64</v>
       </c>
       <c r="H48" s="19">
-        <f>SUMIF(E:E,G48,B:B)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J48" s="46" t="s">
@@ -4040,7 +4040,7 @@
         <v>43</v>
       </c>
       <c r="H49" s="19">
-        <f>SUMIF(E:E,G49,B:B)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J49" s="46" t="s">
@@ -4059,7 +4059,7 @@
         <v>44</v>
       </c>
       <c r="H50" s="19">
-        <f>SUMIF(E:E,G50,B:B)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J50" s="46" t="s">
@@ -4078,7 +4078,7 @@
         <v>45</v>
       </c>
       <c r="H51" s="19">
-        <f>SUMIF(E:E,G51,B:B)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J51" s="46" t="s">
@@ -4097,7 +4097,7 @@
         <v>46</v>
       </c>
       <c r="H52" s="19">
-        <f>SUMIF(E:E,G52,B:B)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J52" s="46" t="s">
@@ -4116,7 +4116,7 @@
         <v>131</v>
       </c>
       <c r="H53" s="19">
-        <f>SUMIF(E:E,G53,B:B)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J53" s="46" t="s">
@@ -4135,7 +4135,7 @@
         <v>47</v>
       </c>
       <c r="H54" s="19">
-        <f>SUMIF(E:E,G54,B:B)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J54" s="46" t="s">
@@ -4154,7 +4154,7 @@
         <v>48</v>
       </c>
       <c r="H55" s="19">
-        <f>SUMIF(E:E,G55,B:B)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J55" s="46" t="s">
@@ -4173,7 +4173,7 @@
         <v>49</v>
       </c>
       <c r="H56" s="19">
-        <f>SUMIF(E:E,G56,B:B)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J56" s="46" t="s">
@@ -4192,7 +4192,7 @@
         <v>14</v>
       </c>
       <c r="H57" s="19">
-        <f>SUMIF(E:E,G57,B:B)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J57" s="46" t="s">
@@ -4211,7 +4211,7 @@
         <v>65</v>
       </c>
       <c r="H58" s="19">
-        <f>SUMIF(E:E,G58,B:B)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J58" s="46" t="s">
@@ -4230,7 +4230,7 @@
         <v>16</v>
       </c>
       <c r="H59" s="19">
-        <f>SUMIF(E:E,G59,B:B)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J59" s="46" t="s">
@@ -4265,7 +4265,7 @@
         <v>22</v>
       </c>
       <c r="H61" s="19">
-        <f>SUMIF(E:E,G61,B:B)</f>
+        <f t="shared" ref="H61:H67" si="2">SUMIF(E:E,G61,B:B)</f>
         <v>0</v>
       </c>
       <c r="J61" s="46" t="s">
@@ -4284,7 +4284,7 @@
         <v>38</v>
       </c>
       <c r="H62" s="19">
-        <f>SUMIF(E:E,G62,B:B)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J62" s="46" t="s">
@@ -4303,7 +4303,7 @@
         <v>21</v>
       </c>
       <c r="H63" s="19">
-        <f>SUMIF(E:E,G63,B:B)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J63" s="46" t="s">
@@ -4322,7 +4322,7 @@
         <v>23</v>
       </c>
       <c r="H64" s="19">
-        <f>SUMIF(E:E,G64,B:B)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J64" s="46" t="s">
@@ -4341,7 +4341,7 @@
         <v>28</v>
       </c>
       <c r="H65" s="19">
-        <f>SUMIF(E:E,G65,B:B)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J65" s="46" t="s">
@@ -4360,7 +4360,7 @@
         <v>132</v>
       </c>
       <c r="H66" s="19">
-        <f>SUMIF(E:E,G66,B:B)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J66" s="46" t="s">
@@ -4379,7 +4379,7 @@
         <v>51</v>
       </c>
       <c r="H67" s="19">
-        <f>SUMIF(E:E,G67,B:B)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J67" s="46" t="s">
@@ -4431,7 +4431,7 @@
       <c r="F70" s="34"/>
       <c r="G70" s="18"/>
       <c r="H70" s="19">
-        <f t="shared" ref="H70:H78" si="0">SUMIF(E:E,G70,B:B)</f>
+        <f t="shared" ref="H70:H78" si="3">SUMIF(E:E,G70,B:B)</f>
         <v>0</v>
       </c>
       <c r="J70" s="46"/>
@@ -4446,7 +4446,7 @@
       <c r="F71" s="34"/>
       <c r="G71" s="18"/>
       <c r="H71" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J71" s="46"/>
@@ -4461,7 +4461,7 @@
       <c r="F72" s="34"/>
       <c r="G72" s="18"/>
       <c r="H72" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J72" s="46"/>
@@ -4476,7 +4476,7 @@
       <c r="F73" s="34"/>
       <c r="G73" s="18"/>
       <c r="H73" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J73" s="46"/>
@@ -4491,7 +4491,7 @@
       <c r="F74" s="34"/>
       <c r="G74" s="18"/>
       <c r="H74" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J74" s="46"/>
@@ -4506,7 +4506,7 @@
       <c r="F75" s="34"/>
       <c r="G75" s="18"/>
       <c r="H75" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J75" s="46"/>
@@ -4521,7 +4521,7 @@
       <c r="F76" s="34"/>
       <c r="G76" s="18"/>
       <c r="H76" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J76" s="46"/>
@@ -4536,7 +4536,7 @@
       <c r="F77" s="34"/>
       <c r="G77" s="18"/>
       <c r="H77" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J77" s="46"/>
@@ -4551,7 +4551,7 @@
       <c r="F78" s="34"/>
       <c r="G78" s="18"/>
       <c r="H78" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J78" s="46"/>
@@ -4722,11 +4722,11 @@
     </row>
     <row r="90" spans="1:11" ht="22.2" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A90" s="43">
-        <f>SUM(A5:A25)</f>
+        <f>SUM(A5:A89)</f>
         <v>0</v>
       </c>
       <c r="B90" s="68">
-        <f>SUM(B27:B89)</f>
+        <f>SUM(B5:B89)</f>
         <v>0</v>
       </c>
       <c r="C90" s="44" t="s">

--- a/AssetManagement/AssetManagement/bin/Debug/Finance forms/financial blank report.xlsx
+++ b/AssetManagement/AssetManagement/bin/Debug/Finance forms/financial blank report.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A23FE0B-C919-4D00-A391-B044FB865487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659622A3-6408-47FE-9508-D283891FD129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1568,8 +1568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X100"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A69" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.5"/>

--- a/AssetManagement/AssetManagement/bin/Debug/Finance forms/financial blank report.xlsx
+++ b/AssetManagement/AssetManagement/bin/Debug/Finance forms/financial blank report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CB7E42-8228-438B-A830-52792E5ECD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5171E093-FB15-4307-ADA8-BE7B89B31413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Lists" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">FR!$K$4:$AA$80</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">FR!$K$4:$AB$80</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1647,10 +1647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AH104"/>
+  <dimension ref="B1:AI104"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.5"/>
@@ -1664,1220 +1664,1219 @@
     <col min="10" max="10" width="3.77734375" style="7" customWidth="1"/>
     <col min="11" max="11" width="22.77734375" style="7" bestFit="1" customWidth="1"/>
     <col min="12" max="19" width="18.77734375" style="8" customWidth="1"/>
-    <col min="20" max="20" width="8.109375" style="7" customWidth="1"/>
-    <col min="21" max="21" width="65" style="28" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="10.5546875" style="7" customWidth="1"/>
-    <col min="25" max="25" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.77734375" style="7" customWidth="1"/>
-    <col min="29" max="29" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.77734375" style="7" customWidth="1"/>
-    <col min="33" max="33" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.6640625" style="7" customWidth="1"/>
-    <col min="35" max="267" width="9.109375" style="7"/>
-    <col min="268" max="268" width="9" style="7" customWidth="1"/>
-    <col min="269" max="269" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="270" max="270" width="40.109375" style="7" customWidth="1"/>
-    <col min="271" max="271" width="10.77734375" style="7" customWidth="1"/>
-    <col min="272" max="272" width="20.109375" style="7" customWidth="1"/>
-    <col min="273" max="273" width="3.77734375" style="7" customWidth="1"/>
-    <col min="274" max="275" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="276" max="276" width="8.109375" style="7" customWidth="1"/>
-    <col min="277" max="280" width="10.5546875" style="7" customWidth="1"/>
-    <col min="281" max="281" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="282" max="283" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="284" max="284" width="8.77734375" style="7" customWidth="1"/>
-    <col min="285" max="285" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="286" max="286" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="287" max="287" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="288" max="288" width="12.77734375" style="7" customWidth="1"/>
-    <col min="289" max="289" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="290" max="290" width="9.6640625" style="7" customWidth="1"/>
-    <col min="291" max="523" width="9.109375" style="7"/>
-    <col min="524" max="524" width="9" style="7" customWidth="1"/>
-    <col min="525" max="525" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="526" max="526" width="40.109375" style="7" customWidth="1"/>
-    <col min="527" max="527" width="10.77734375" style="7" customWidth="1"/>
-    <col min="528" max="528" width="20.109375" style="7" customWidth="1"/>
-    <col min="529" max="529" width="3.77734375" style="7" customWidth="1"/>
-    <col min="530" max="531" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="532" max="532" width="8.109375" style="7" customWidth="1"/>
-    <col min="533" max="536" width="10.5546875" style="7" customWidth="1"/>
-    <col min="537" max="537" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="538" max="539" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="540" max="540" width="8.77734375" style="7" customWidth="1"/>
-    <col min="541" max="541" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="542" max="542" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="543" max="543" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="544" max="544" width="12.77734375" style="7" customWidth="1"/>
-    <col min="545" max="545" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="546" max="546" width="9.6640625" style="7" customWidth="1"/>
-    <col min="547" max="779" width="9.109375" style="7"/>
-    <col min="780" max="780" width="9" style="7" customWidth="1"/>
-    <col min="781" max="781" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="782" max="782" width="40.109375" style="7" customWidth="1"/>
-    <col min="783" max="783" width="10.77734375" style="7" customWidth="1"/>
-    <col min="784" max="784" width="20.109375" style="7" customWidth="1"/>
-    <col min="785" max="785" width="3.77734375" style="7" customWidth="1"/>
-    <col min="786" max="787" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="788" max="788" width="8.109375" style="7" customWidth="1"/>
-    <col min="789" max="792" width="10.5546875" style="7" customWidth="1"/>
-    <col min="793" max="793" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="794" max="795" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="796" max="796" width="8.77734375" style="7" customWidth="1"/>
-    <col min="797" max="797" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="798" max="798" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="799" max="799" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="800" max="800" width="12.77734375" style="7" customWidth="1"/>
-    <col min="801" max="801" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="802" max="802" width="9.6640625" style="7" customWidth="1"/>
-    <col min="803" max="1035" width="9.109375" style="7"/>
-    <col min="1036" max="1036" width="9" style="7" customWidth="1"/>
-    <col min="1037" max="1037" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="1038" max="1038" width="40.109375" style="7" customWidth="1"/>
-    <col min="1039" max="1039" width="10.77734375" style="7" customWidth="1"/>
-    <col min="1040" max="1040" width="20.109375" style="7" customWidth="1"/>
-    <col min="1041" max="1041" width="3.77734375" style="7" customWidth="1"/>
-    <col min="1042" max="1043" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="1044" max="1044" width="8.109375" style="7" customWidth="1"/>
-    <col min="1045" max="1048" width="10.5546875" style="7" customWidth="1"/>
-    <col min="1049" max="1049" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="1050" max="1051" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="1052" max="1052" width="8.77734375" style="7" customWidth="1"/>
-    <col min="1053" max="1053" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="1054" max="1054" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="1055" max="1055" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="1056" max="1056" width="12.77734375" style="7" customWidth="1"/>
-    <col min="1057" max="1057" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="1058" max="1058" width="9.6640625" style="7" customWidth="1"/>
-    <col min="1059" max="1291" width="9.109375" style="7"/>
-    <col min="1292" max="1292" width="9" style="7" customWidth="1"/>
-    <col min="1293" max="1293" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="1294" max="1294" width="40.109375" style="7" customWidth="1"/>
-    <col min="1295" max="1295" width="10.77734375" style="7" customWidth="1"/>
-    <col min="1296" max="1296" width="20.109375" style="7" customWidth="1"/>
-    <col min="1297" max="1297" width="3.77734375" style="7" customWidth="1"/>
-    <col min="1298" max="1299" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="1300" max="1300" width="8.109375" style="7" customWidth="1"/>
-    <col min="1301" max="1304" width="10.5546875" style="7" customWidth="1"/>
-    <col min="1305" max="1305" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="1306" max="1307" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="1308" max="1308" width="8.77734375" style="7" customWidth="1"/>
-    <col min="1309" max="1309" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="1310" max="1310" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="1311" max="1311" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="1312" max="1312" width="12.77734375" style="7" customWidth="1"/>
-    <col min="1313" max="1313" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="1314" max="1314" width="9.6640625" style="7" customWidth="1"/>
-    <col min="1315" max="1547" width="9.109375" style="7"/>
-    <col min="1548" max="1548" width="9" style="7" customWidth="1"/>
-    <col min="1549" max="1549" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="1550" max="1550" width="40.109375" style="7" customWidth="1"/>
-    <col min="1551" max="1551" width="10.77734375" style="7" customWidth="1"/>
-    <col min="1552" max="1552" width="20.109375" style="7" customWidth="1"/>
-    <col min="1553" max="1553" width="3.77734375" style="7" customWidth="1"/>
-    <col min="1554" max="1555" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="1556" max="1556" width="8.109375" style="7" customWidth="1"/>
-    <col min="1557" max="1560" width="10.5546875" style="7" customWidth="1"/>
-    <col min="1561" max="1561" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="1562" max="1563" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="1564" max="1564" width="8.77734375" style="7" customWidth="1"/>
-    <col min="1565" max="1565" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="1566" max="1566" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="1567" max="1567" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="1568" max="1568" width="12.77734375" style="7" customWidth="1"/>
-    <col min="1569" max="1569" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="1570" max="1570" width="9.6640625" style="7" customWidth="1"/>
-    <col min="1571" max="1803" width="9.109375" style="7"/>
-    <col min="1804" max="1804" width="9" style="7" customWidth="1"/>
-    <col min="1805" max="1805" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="1806" max="1806" width="40.109375" style="7" customWidth="1"/>
-    <col min="1807" max="1807" width="10.77734375" style="7" customWidth="1"/>
-    <col min="1808" max="1808" width="20.109375" style="7" customWidth="1"/>
-    <col min="1809" max="1809" width="3.77734375" style="7" customWidth="1"/>
-    <col min="1810" max="1811" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="1812" max="1812" width="8.109375" style="7" customWidth="1"/>
-    <col min="1813" max="1816" width="10.5546875" style="7" customWidth="1"/>
-    <col min="1817" max="1817" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="1818" max="1819" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="1820" max="1820" width="8.77734375" style="7" customWidth="1"/>
-    <col min="1821" max="1821" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="1822" max="1822" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="1823" max="1823" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="1824" max="1824" width="12.77734375" style="7" customWidth="1"/>
-    <col min="1825" max="1825" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="1826" max="1826" width="9.6640625" style="7" customWidth="1"/>
-    <col min="1827" max="2059" width="9.109375" style="7"/>
-    <col min="2060" max="2060" width="9" style="7" customWidth="1"/>
-    <col min="2061" max="2061" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="2062" max="2062" width="40.109375" style="7" customWidth="1"/>
-    <col min="2063" max="2063" width="10.77734375" style="7" customWidth="1"/>
-    <col min="2064" max="2064" width="20.109375" style="7" customWidth="1"/>
-    <col min="2065" max="2065" width="3.77734375" style="7" customWidth="1"/>
-    <col min="2066" max="2067" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2068" max="2068" width="8.109375" style="7" customWidth="1"/>
-    <col min="2069" max="2072" width="10.5546875" style="7" customWidth="1"/>
-    <col min="2073" max="2073" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="2074" max="2075" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2076" max="2076" width="8.77734375" style="7" customWidth="1"/>
-    <col min="2077" max="2077" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2078" max="2078" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2079" max="2079" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2080" max="2080" width="12.77734375" style="7" customWidth="1"/>
-    <col min="2081" max="2081" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2082" max="2082" width="9.6640625" style="7" customWidth="1"/>
-    <col min="2083" max="2315" width="9.109375" style="7"/>
-    <col min="2316" max="2316" width="9" style="7" customWidth="1"/>
-    <col min="2317" max="2317" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="2318" max="2318" width="40.109375" style="7" customWidth="1"/>
-    <col min="2319" max="2319" width="10.77734375" style="7" customWidth="1"/>
-    <col min="2320" max="2320" width="20.109375" style="7" customWidth="1"/>
-    <col min="2321" max="2321" width="3.77734375" style="7" customWidth="1"/>
-    <col min="2322" max="2323" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2324" max="2324" width="8.109375" style="7" customWidth="1"/>
-    <col min="2325" max="2328" width="10.5546875" style="7" customWidth="1"/>
-    <col min="2329" max="2329" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="2330" max="2331" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2332" max="2332" width="8.77734375" style="7" customWidth="1"/>
-    <col min="2333" max="2333" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2334" max="2334" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2335" max="2335" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2336" max="2336" width="12.77734375" style="7" customWidth="1"/>
-    <col min="2337" max="2337" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2338" max="2338" width="9.6640625" style="7" customWidth="1"/>
-    <col min="2339" max="2571" width="9.109375" style="7"/>
-    <col min="2572" max="2572" width="9" style="7" customWidth="1"/>
-    <col min="2573" max="2573" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="2574" max="2574" width="40.109375" style="7" customWidth="1"/>
-    <col min="2575" max="2575" width="10.77734375" style="7" customWidth="1"/>
-    <col min="2576" max="2576" width="20.109375" style="7" customWidth="1"/>
-    <col min="2577" max="2577" width="3.77734375" style="7" customWidth="1"/>
-    <col min="2578" max="2579" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2580" max="2580" width="8.109375" style="7" customWidth="1"/>
-    <col min="2581" max="2584" width="10.5546875" style="7" customWidth="1"/>
-    <col min="2585" max="2585" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="2586" max="2587" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2588" max="2588" width="8.77734375" style="7" customWidth="1"/>
-    <col min="2589" max="2589" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2590" max="2590" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2591" max="2591" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2592" max="2592" width="12.77734375" style="7" customWidth="1"/>
-    <col min="2593" max="2593" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2594" max="2594" width="9.6640625" style="7" customWidth="1"/>
-    <col min="2595" max="2827" width="9.109375" style="7"/>
-    <col min="2828" max="2828" width="9" style="7" customWidth="1"/>
-    <col min="2829" max="2829" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="2830" max="2830" width="40.109375" style="7" customWidth="1"/>
-    <col min="2831" max="2831" width="10.77734375" style="7" customWidth="1"/>
-    <col min="2832" max="2832" width="20.109375" style="7" customWidth="1"/>
-    <col min="2833" max="2833" width="3.77734375" style="7" customWidth="1"/>
-    <col min="2834" max="2835" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2836" max="2836" width="8.109375" style="7" customWidth="1"/>
-    <col min="2837" max="2840" width="10.5546875" style="7" customWidth="1"/>
-    <col min="2841" max="2841" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="2842" max="2843" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2844" max="2844" width="8.77734375" style="7" customWidth="1"/>
-    <col min="2845" max="2845" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2846" max="2846" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2847" max="2847" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2848" max="2848" width="12.77734375" style="7" customWidth="1"/>
-    <col min="2849" max="2849" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2850" max="2850" width="9.6640625" style="7" customWidth="1"/>
-    <col min="2851" max="3083" width="9.109375" style="7"/>
-    <col min="3084" max="3084" width="9" style="7" customWidth="1"/>
-    <col min="3085" max="3085" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="3086" max="3086" width="40.109375" style="7" customWidth="1"/>
-    <col min="3087" max="3087" width="10.77734375" style="7" customWidth="1"/>
-    <col min="3088" max="3088" width="20.109375" style="7" customWidth="1"/>
-    <col min="3089" max="3089" width="3.77734375" style="7" customWidth="1"/>
-    <col min="3090" max="3091" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3092" max="3092" width="8.109375" style="7" customWidth="1"/>
-    <col min="3093" max="3096" width="10.5546875" style="7" customWidth="1"/>
-    <col min="3097" max="3097" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="3098" max="3099" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3100" max="3100" width="8.77734375" style="7" customWidth="1"/>
-    <col min="3101" max="3101" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3102" max="3102" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3103" max="3103" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3104" max="3104" width="12.77734375" style="7" customWidth="1"/>
-    <col min="3105" max="3105" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3106" max="3106" width="9.6640625" style="7" customWidth="1"/>
-    <col min="3107" max="3339" width="9.109375" style="7"/>
-    <col min="3340" max="3340" width="9" style="7" customWidth="1"/>
-    <col min="3341" max="3341" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="3342" max="3342" width="40.109375" style="7" customWidth="1"/>
-    <col min="3343" max="3343" width="10.77734375" style="7" customWidth="1"/>
-    <col min="3344" max="3344" width="20.109375" style="7" customWidth="1"/>
-    <col min="3345" max="3345" width="3.77734375" style="7" customWidth="1"/>
-    <col min="3346" max="3347" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3348" max="3348" width="8.109375" style="7" customWidth="1"/>
-    <col min="3349" max="3352" width="10.5546875" style="7" customWidth="1"/>
-    <col min="3353" max="3353" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="3354" max="3355" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3356" max="3356" width="8.77734375" style="7" customWidth="1"/>
-    <col min="3357" max="3357" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3358" max="3358" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3359" max="3359" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3360" max="3360" width="12.77734375" style="7" customWidth="1"/>
-    <col min="3361" max="3361" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3362" max="3362" width="9.6640625" style="7" customWidth="1"/>
-    <col min="3363" max="3595" width="9.109375" style="7"/>
-    <col min="3596" max="3596" width="9" style="7" customWidth="1"/>
-    <col min="3597" max="3597" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="3598" max="3598" width="40.109375" style="7" customWidth="1"/>
-    <col min="3599" max="3599" width="10.77734375" style="7" customWidth="1"/>
-    <col min="3600" max="3600" width="20.109375" style="7" customWidth="1"/>
-    <col min="3601" max="3601" width="3.77734375" style="7" customWidth="1"/>
-    <col min="3602" max="3603" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3604" max="3604" width="8.109375" style="7" customWidth="1"/>
-    <col min="3605" max="3608" width="10.5546875" style="7" customWidth="1"/>
-    <col min="3609" max="3609" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="3610" max="3611" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3612" max="3612" width="8.77734375" style="7" customWidth="1"/>
-    <col min="3613" max="3613" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3614" max="3614" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3615" max="3615" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3616" max="3616" width="12.77734375" style="7" customWidth="1"/>
-    <col min="3617" max="3617" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3618" max="3618" width="9.6640625" style="7" customWidth="1"/>
-    <col min="3619" max="3851" width="9.109375" style="7"/>
-    <col min="3852" max="3852" width="9" style="7" customWidth="1"/>
-    <col min="3853" max="3853" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="3854" max="3854" width="40.109375" style="7" customWidth="1"/>
-    <col min="3855" max="3855" width="10.77734375" style="7" customWidth="1"/>
-    <col min="3856" max="3856" width="20.109375" style="7" customWidth="1"/>
-    <col min="3857" max="3857" width="3.77734375" style="7" customWidth="1"/>
-    <col min="3858" max="3859" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3860" max="3860" width="8.109375" style="7" customWidth="1"/>
-    <col min="3861" max="3864" width="10.5546875" style="7" customWidth="1"/>
-    <col min="3865" max="3865" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="3866" max="3867" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3868" max="3868" width="8.77734375" style="7" customWidth="1"/>
-    <col min="3869" max="3869" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3870" max="3870" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3871" max="3871" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3872" max="3872" width="12.77734375" style="7" customWidth="1"/>
-    <col min="3873" max="3873" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3874" max="3874" width="9.6640625" style="7" customWidth="1"/>
-    <col min="3875" max="4107" width="9.109375" style="7"/>
-    <col min="4108" max="4108" width="9" style="7" customWidth="1"/>
-    <col min="4109" max="4109" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="4110" max="4110" width="40.109375" style="7" customWidth="1"/>
-    <col min="4111" max="4111" width="10.77734375" style="7" customWidth="1"/>
-    <col min="4112" max="4112" width="20.109375" style="7" customWidth="1"/>
-    <col min="4113" max="4113" width="3.77734375" style="7" customWidth="1"/>
-    <col min="4114" max="4115" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4116" max="4116" width="8.109375" style="7" customWidth="1"/>
-    <col min="4117" max="4120" width="10.5546875" style="7" customWidth="1"/>
-    <col min="4121" max="4121" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="4122" max="4123" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4124" max="4124" width="8.77734375" style="7" customWidth="1"/>
-    <col min="4125" max="4125" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4126" max="4126" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4127" max="4127" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4128" max="4128" width="12.77734375" style="7" customWidth="1"/>
-    <col min="4129" max="4129" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4130" max="4130" width="9.6640625" style="7" customWidth="1"/>
-    <col min="4131" max="4363" width="9.109375" style="7"/>
-    <col min="4364" max="4364" width="9" style="7" customWidth="1"/>
-    <col min="4365" max="4365" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="4366" max="4366" width="40.109375" style="7" customWidth="1"/>
-    <col min="4367" max="4367" width="10.77734375" style="7" customWidth="1"/>
-    <col min="4368" max="4368" width="20.109375" style="7" customWidth="1"/>
-    <col min="4369" max="4369" width="3.77734375" style="7" customWidth="1"/>
-    <col min="4370" max="4371" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4372" max="4372" width="8.109375" style="7" customWidth="1"/>
-    <col min="4373" max="4376" width="10.5546875" style="7" customWidth="1"/>
-    <col min="4377" max="4377" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="4378" max="4379" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4380" max="4380" width="8.77734375" style="7" customWidth="1"/>
-    <col min="4381" max="4381" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4382" max="4382" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4383" max="4383" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4384" max="4384" width="12.77734375" style="7" customWidth="1"/>
-    <col min="4385" max="4385" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4386" max="4386" width="9.6640625" style="7" customWidth="1"/>
-    <col min="4387" max="4619" width="9.109375" style="7"/>
-    <col min="4620" max="4620" width="9" style="7" customWidth="1"/>
-    <col min="4621" max="4621" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="4622" max="4622" width="40.109375" style="7" customWidth="1"/>
-    <col min="4623" max="4623" width="10.77734375" style="7" customWidth="1"/>
-    <col min="4624" max="4624" width="20.109375" style="7" customWidth="1"/>
-    <col min="4625" max="4625" width="3.77734375" style="7" customWidth="1"/>
-    <col min="4626" max="4627" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4628" max="4628" width="8.109375" style="7" customWidth="1"/>
-    <col min="4629" max="4632" width="10.5546875" style="7" customWidth="1"/>
-    <col min="4633" max="4633" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="4634" max="4635" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4636" max="4636" width="8.77734375" style="7" customWidth="1"/>
-    <col min="4637" max="4637" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4638" max="4638" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4639" max="4639" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4640" max="4640" width="12.77734375" style="7" customWidth="1"/>
-    <col min="4641" max="4641" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4642" max="4642" width="9.6640625" style="7" customWidth="1"/>
-    <col min="4643" max="4875" width="9.109375" style="7"/>
-    <col min="4876" max="4876" width="9" style="7" customWidth="1"/>
-    <col min="4877" max="4877" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="4878" max="4878" width="40.109375" style="7" customWidth="1"/>
-    <col min="4879" max="4879" width="10.77734375" style="7" customWidth="1"/>
-    <col min="4880" max="4880" width="20.109375" style="7" customWidth="1"/>
-    <col min="4881" max="4881" width="3.77734375" style="7" customWidth="1"/>
-    <col min="4882" max="4883" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4884" max="4884" width="8.109375" style="7" customWidth="1"/>
-    <col min="4885" max="4888" width="10.5546875" style="7" customWidth="1"/>
-    <col min="4889" max="4889" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="4890" max="4891" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4892" max="4892" width="8.77734375" style="7" customWidth="1"/>
-    <col min="4893" max="4893" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4894" max="4894" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4895" max="4895" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4896" max="4896" width="12.77734375" style="7" customWidth="1"/>
-    <col min="4897" max="4897" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4898" max="4898" width="9.6640625" style="7" customWidth="1"/>
-    <col min="4899" max="5131" width="9.109375" style="7"/>
-    <col min="5132" max="5132" width="9" style="7" customWidth="1"/>
-    <col min="5133" max="5133" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="5134" max="5134" width="40.109375" style="7" customWidth="1"/>
-    <col min="5135" max="5135" width="10.77734375" style="7" customWidth="1"/>
-    <col min="5136" max="5136" width="20.109375" style="7" customWidth="1"/>
-    <col min="5137" max="5137" width="3.77734375" style="7" customWidth="1"/>
-    <col min="5138" max="5139" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5140" max="5140" width="8.109375" style="7" customWidth="1"/>
-    <col min="5141" max="5144" width="10.5546875" style="7" customWidth="1"/>
-    <col min="5145" max="5145" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="5146" max="5147" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5148" max="5148" width="8.77734375" style="7" customWidth="1"/>
-    <col min="5149" max="5149" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5150" max="5150" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5151" max="5151" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5152" max="5152" width="12.77734375" style="7" customWidth="1"/>
-    <col min="5153" max="5153" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5154" max="5154" width="9.6640625" style="7" customWidth="1"/>
-    <col min="5155" max="5387" width="9.109375" style="7"/>
-    <col min="5388" max="5388" width="9" style="7" customWidth="1"/>
-    <col min="5389" max="5389" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="5390" max="5390" width="40.109375" style="7" customWidth="1"/>
-    <col min="5391" max="5391" width="10.77734375" style="7" customWidth="1"/>
-    <col min="5392" max="5392" width="20.109375" style="7" customWidth="1"/>
-    <col min="5393" max="5393" width="3.77734375" style="7" customWidth="1"/>
-    <col min="5394" max="5395" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5396" max="5396" width="8.109375" style="7" customWidth="1"/>
-    <col min="5397" max="5400" width="10.5546875" style="7" customWidth="1"/>
-    <col min="5401" max="5401" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="5402" max="5403" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5404" max="5404" width="8.77734375" style="7" customWidth="1"/>
-    <col min="5405" max="5405" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5406" max="5406" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5407" max="5407" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5408" max="5408" width="12.77734375" style="7" customWidth="1"/>
-    <col min="5409" max="5409" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5410" max="5410" width="9.6640625" style="7" customWidth="1"/>
-    <col min="5411" max="5643" width="9.109375" style="7"/>
-    <col min="5644" max="5644" width="9" style="7" customWidth="1"/>
-    <col min="5645" max="5645" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="5646" max="5646" width="40.109375" style="7" customWidth="1"/>
-    <col min="5647" max="5647" width="10.77734375" style="7" customWidth="1"/>
-    <col min="5648" max="5648" width="20.109375" style="7" customWidth="1"/>
-    <col min="5649" max="5649" width="3.77734375" style="7" customWidth="1"/>
-    <col min="5650" max="5651" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5652" max="5652" width="8.109375" style="7" customWidth="1"/>
-    <col min="5653" max="5656" width="10.5546875" style="7" customWidth="1"/>
-    <col min="5657" max="5657" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="5658" max="5659" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5660" max="5660" width="8.77734375" style="7" customWidth="1"/>
-    <col min="5661" max="5661" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5662" max="5662" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5663" max="5663" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5664" max="5664" width="12.77734375" style="7" customWidth="1"/>
-    <col min="5665" max="5665" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5666" max="5666" width="9.6640625" style="7" customWidth="1"/>
-    <col min="5667" max="5899" width="9.109375" style="7"/>
-    <col min="5900" max="5900" width="9" style="7" customWidth="1"/>
-    <col min="5901" max="5901" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="5902" max="5902" width="40.109375" style="7" customWidth="1"/>
-    <col min="5903" max="5903" width="10.77734375" style="7" customWidth="1"/>
-    <col min="5904" max="5904" width="20.109375" style="7" customWidth="1"/>
-    <col min="5905" max="5905" width="3.77734375" style="7" customWidth="1"/>
-    <col min="5906" max="5907" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5908" max="5908" width="8.109375" style="7" customWidth="1"/>
-    <col min="5909" max="5912" width="10.5546875" style="7" customWidth="1"/>
-    <col min="5913" max="5913" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="5914" max="5915" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5916" max="5916" width="8.77734375" style="7" customWidth="1"/>
-    <col min="5917" max="5917" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5918" max="5918" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5919" max="5919" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5920" max="5920" width="12.77734375" style="7" customWidth="1"/>
-    <col min="5921" max="5921" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5922" max="5922" width="9.6640625" style="7" customWidth="1"/>
-    <col min="5923" max="6155" width="9.109375" style="7"/>
-    <col min="6156" max="6156" width="9" style="7" customWidth="1"/>
-    <col min="6157" max="6157" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="6158" max="6158" width="40.109375" style="7" customWidth="1"/>
-    <col min="6159" max="6159" width="10.77734375" style="7" customWidth="1"/>
-    <col min="6160" max="6160" width="20.109375" style="7" customWidth="1"/>
-    <col min="6161" max="6161" width="3.77734375" style="7" customWidth="1"/>
-    <col min="6162" max="6163" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6164" max="6164" width="8.109375" style="7" customWidth="1"/>
-    <col min="6165" max="6168" width="10.5546875" style="7" customWidth="1"/>
-    <col min="6169" max="6169" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="6170" max="6171" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6172" max="6172" width="8.77734375" style="7" customWidth="1"/>
-    <col min="6173" max="6173" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6174" max="6174" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6175" max="6175" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6176" max="6176" width="12.77734375" style="7" customWidth="1"/>
-    <col min="6177" max="6177" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6178" max="6178" width="9.6640625" style="7" customWidth="1"/>
-    <col min="6179" max="6411" width="9.109375" style="7"/>
-    <col min="6412" max="6412" width="9" style="7" customWidth="1"/>
-    <col min="6413" max="6413" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="6414" max="6414" width="40.109375" style="7" customWidth="1"/>
-    <col min="6415" max="6415" width="10.77734375" style="7" customWidth="1"/>
-    <col min="6416" max="6416" width="20.109375" style="7" customWidth="1"/>
-    <col min="6417" max="6417" width="3.77734375" style="7" customWidth="1"/>
-    <col min="6418" max="6419" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6420" max="6420" width="8.109375" style="7" customWidth="1"/>
-    <col min="6421" max="6424" width="10.5546875" style="7" customWidth="1"/>
-    <col min="6425" max="6425" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="6426" max="6427" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6428" max="6428" width="8.77734375" style="7" customWidth="1"/>
-    <col min="6429" max="6429" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6430" max="6430" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6431" max="6431" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6432" max="6432" width="12.77734375" style="7" customWidth="1"/>
-    <col min="6433" max="6433" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6434" max="6434" width="9.6640625" style="7" customWidth="1"/>
-    <col min="6435" max="6667" width="9.109375" style="7"/>
-    <col min="6668" max="6668" width="9" style="7" customWidth="1"/>
-    <col min="6669" max="6669" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="6670" max="6670" width="40.109375" style="7" customWidth="1"/>
-    <col min="6671" max="6671" width="10.77734375" style="7" customWidth="1"/>
-    <col min="6672" max="6672" width="20.109375" style="7" customWidth="1"/>
-    <col min="6673" max="6673" width="3.77734375" style="7" customWidth="1"/>
-    <col min="6674" max="6675" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6676" max="6676" width="8.109375" style="7" customWidth="1"/>
-    <col min="6677" max="6680" width="10.5546875" style="7" customWidth="1"/>
-    <col min="6681" max="6681" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="6682" max="6683" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6684" max="6684" width="8.77734375" style="7" customWidth="1"/>
-    <col min="6685" max="6685" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6686" max="6686" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6687" max="6687" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6688" max="6688" width="12.77734375" style="7" customWidth="1"/>
-    <col min="6689" max="6689" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6690" max="6690" width="9.6640625" style="7" customWidth="1"/>
-    <col min="6691" max="6923" width="9.109375" style="7"/>
-    <col min="6924" max="6924" width="9" style="7" customWidth="1"/>
-    <col min="6925" max="6925" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="6926" max="6926" width="40.109375" style="7" customWidth="1"/>
-    <col min="6927" max="6927" width="10.77734375" style="7" customWidth="1"/>
-    <col min="6928" max="6928" width="20.109375" style="7" customWidth="1"/>
-    <col min="6929" max="6929" width="3.77734375" style="7" customWidth="1"/>
-    <col min="6930" max="6931" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6932" max="6932" width="8.109375" style="7" customWidth="1"/>
-    <col min="6933" max="6936" width="10.5546875" style="7" customWidth="1"/>
-    <col min="6937" max="6937" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="6938" max="6939" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6940" max="6940" width="8.77734375" style="7" customWidth="1"/>
-    <col min="6941" max="6941" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6942" max="6942" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6943" max="6943" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6944" max="6944" width="12.77734375" style="7" customWidth="1"/>
-    <col min="6945" max="6945" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6946" max="6946" width="9.6640625" style="7" customWidth="1"/>
-    <col min="6947" max="7179" width="9.109375" style="7"/>
-    <col min="7180" max="7180" width="9" style="7" customWidth="1"/>
-    <col min="7181" max="7181" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="7182" max="7182" width="40.109375" style="7" customWidth="1"/>
-    <col min="7183" max="7183" width="10.77734375" style="7" customWidth="1"/>
-    <col min="7184" max="7184" width="20.109375" style="7" customWidth="1"/>
-    <col min="7185" max="7185" width="3.77734375" style="7" customWidth="1"/>
-    <col min="7186" max="7187" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7188" max="7188" width="8.109375" style="7" customWidth="1"/>
-    <col min="7189" max="7192" width="10.5546875" style="7" customWidth="1"/>
-    <col min="7193" max="7193" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="7194" max="7195" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7196" max="7196" width="8.77734375" style="7" customWidth="1"/>
-    <col min="7197" max="7197" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7198" max="7198" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7199" max="7199" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7200" max="7200" width="12.77734375" style="7" customWidth="1"/>
-    <col min="7201" max="7201" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7202" max="7202" width="9.6640625" style="7" customWidth="1"/>
-    <col min="7203" max="7435" width="9.109375" style="7"/>
-    <col min="7436" max="7436" width="9" style="7" customWidth="1"/>
-    <col min="7437" max="7437" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="7438" max="7438" width="40.109375" style="7" customWidth="1"/>
-    <col min="7439" max="7439" width="10.77734375" style="7" customWidth="1"/>
-    <col min="7440" max="7440" width="20.109375" style="7" customWidth="1"/>
-    <col min="7441" max="7441" width="3.77734375" style="7" customWidth="1"/>
-    <col min="7442" max="7443" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7444" max="7444" width="8.109375" style="7" customWidth="1"/>
-    <col min="7445" max="7448" width="10.5546875" style="7" customWidth="1"/>
-    <col min="7449" max="7449" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="7450" max="7451" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7452" max="7452" width="8.77734375" style="7" customWidth="1"/>
-    <col min="7453" max="7453" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7454" max="7454" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7455" max="7455" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7456" max="7456" width="12.77734375" style="7" customWidth="1"/>
-    <col min="7457" max="7457" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7458" max="7458" width="9.6640625" style="7" customWidth="1"/>
-    <col min="7459" max="7691" width="9.109375" style="7"/>
-    <col min="7692" max="7692" width="9" style="7" customWidth="1"/>
-    <col min="7693" max="7693" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="7694" max="7694" width="40.109375" style="7" customWidth="1"/>
-    <col min="7695" max="7695" width="10.77734375" style="7" customWidth="1"/>
-    <col min="7696" max="7696" width="20.109375" style="7" customWidth="1"/>
-    <col min="7697" max="7697" width="3.77734375" style="7" customWidth="1"/>
-    <col min="7698" max="7699" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7700" max="7700" width="8.109375" style="7" customWidth="1"/>
-    <col min="7701" max="7704" width="10.5546875" style="7" customWidth="1"/>
-    <col min="7705" max="7705" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="7706" max="7707" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7708" max="7708" width="8.77734375" style="7" customWidth="1"/>
-    <col min="7709" max="7709" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7710" max="7710" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7711" max="7711" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7712" max="7712" width="12.77734375" style="7" customWidth="1"/>
-    <col min="7713" max="7713" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7714" max="7714" width="9.6640625" style="7" customWidth="1"/>
-    <col min="7715" max="7947" width="9.109375" style="7"/>
-    <col min="7948" max="7948" width="9" style="7" customWidth="1"/>
-    <col min="7949" max="7949" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="7950" max="7950" width="40.109375" style="7" customWidth="1"/>
-    <col min="7951" max="7951" width="10.77734375" style="7" customWidth="1"/>
-    <col min="7952" max="7952" width="20.109375" style="7" customWidth="1"/>
-    <col min="7953" max="7953" width="3.77734375" style="7" customWidth="1"/>
-    <col min="7954" max="7955" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7956" max="7956" width="8.109375" style="7" customWidth="1"/>
-    <col min="7957" max="7960" width="10.5546875" style="7" customWidth="1"/>
-    <col min="7961" max="7961" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="7962" max="7963" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7964" max="7964" width="8.77734375" style="7" customWidth="1"/>
-    <col min="7965" max="7965" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7966" max="7966" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7967" max="7967" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7968" max="7968" width="12.77734375" style="7" customWidth="1"/>
-    <col min="7969" max="7969" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7970" max="7970" width="9.6640625" style="7" customWidth="1"/>
-    <col min="7971" max="8203" width="9.109375" style="7"/>
-    <col min="8204" max="8204" width="9" style="7" customWidth="1"/>
-    <col min="8205" max="8205" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="8206" max="8206" width="40.109375" style="7" customWidth="1"/>
-    <col min="8207" max="8207" width="10.77734375" style="7" customWidth="1"/>
-    <col min="8208" max="8208" width="20.109375" style="7" customWidth="1"/>
-    <col min="8209" max="8209" width="3.77734375" style="7" customWidth="1"/>
-    <col min="8210" max="8211" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8212" max="8212" width="8.109375" style="7" customWidth="1"/>
-    <col min="8213" max="8216" width="10.5546875" style="7" customWidth="1"/>
-    <col min="8217" max="8217" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="8218" max="8219" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8220" max="8220" width="8.77734375" style="7" customWidth="1"/>
-    <col min="8221" max="8221" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8222" max="8222" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8223" max="8223" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8224" max="8224" width="12.77734375" style="7" customWidth="1"/>
-    <col min="8225" max="8225" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8226" max="8226" width="9.6640625" style="7" customWidth="1"/>
-    <col min="8227" max="8459" width="9.109375" style="7"/>
-    <col min="8460" max="8460" width="9" style="7" customWidth="1"/>
-    <col min="8461" max="8461" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="8462" max="8462" width="40.109375" style="7" customWidth="1"/>
-    <col min="8463" max="8463" width="10.77734375" style="7" customWidth="1"/>
-    <col min="8464" max="8464" width="20.109375" style="7" customWidth="1"/>
-    <col min="8465" max="8465" width="3.77734375" style="7" customWidth="1"/>
-    <col min="8466" max="8467" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8468" max="8468" width="8.109375" style="7" customWidth="1"/>
-    <col min="8469" max="8472" width="10.5546875" style="7" customWidth="1"/>
-    <col min="8473" max="8473" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="8474" max="8475" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8476" max="8476" width="8.77734375" style="7" customWidth="1"/>
-    <col min="8477" max="8477" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8478" max="8478" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8479" max="8479" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8480" max="8480" width="12.77734375" style="7" customWidth="1"/>
-    <col min="8481" max="8481" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8482" max="8482" width="9.6640625" style="7" customWidth="1"/>
-    <col min="8483" max="8715" width="9.109375" style="7"/>
-    <col min="8716" max="8716" width="9" style="7" customWidth="1"/>
-    <col min="8717" max="8717" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="8718" max="8718" width="40.109375" style="7" customWidth="1"/>
-    <col min="8719" max="8719" width="10.77734375" style="7" customWidth="1"/>
-    <col min="8720" max="8720" width="20.109375" style="7" customWidth="1"/>
-    <col min="8721" max="8721" width="3.77734375" style="7" customWidth="1"/>
-    <col min="8722" max="8723" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8724" max="8724" width="8.109375" style="7" customWidth="1"/>
-    <col min="8725" max="8728" width="10.5546875" style="7" customWidth="1"/>
-    <col min="8729" max="8729" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="8730" max="8731" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8732" max="8732" width="8.77734375" style="7" customWidth="1"/>
-    <col min="8733" max="8733" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8734" max="8734" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8735" max="8735" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8736" max="8736" width="12.77734375" style="7" customWidth="1"/>
-    <col min="8737" max="8737" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8738" max="8738" width="9.6640625" style="7" customWidth="1"/>
-    <col min="8739" max="8971" width="9.109375" style="7"/>
-    <col min="8972" max="8972" width="9" style="7" customWidth="1"/>
-    <col min="8973" max="8973" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="8974" max="8974" width="40.109375" style="7" customWidth="1"/>
-    <col min="8975" max="8975" width="10.77734375" style="7" customWidth="1"/>
-    <col min="8976" max="8976" width="20.109375" style="7" customWidth="1"/>
-    <col min="8977" max="8977" width="3.77734375" style="7" customWidth="1"/>
-    <col min="8978" max="8979" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8980" max="8980" width="8.109375" style="7" customWidth="1"/>
-    <col min="8981" max="8984" width="10.5546875" style="7" customWidth="1"/>
-    <col min="8985" max="8985" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="8986" max="8987" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8988" max="8988" width="8.77734375" style="7" customWidth="1"/>
-    <col min="8989" max="8989" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8990" max="8990" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8991" max="8991" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8992" max="8992" width="12.77734375" style="7" customWidth="1"/>
-    <col min="8993" max="8993" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8994" max="8994" width="9.6640625" style="7" customWidth="1"/>
-    <col min="8995" max="9227" width="9.109375" style="7"/>
-    <col min="9228" max="9228" width="9" style="7" customWidth="1"/>
-    <col min="9229" max="9229" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="9230" max="9230" width="40.109375" style="7" customWidth="1"/>
-    <col min="9231" max="9231" width="10.77734375" style="7" customWidth="1"/>
-    <col min="9232" max="9232" width="20.109375" style="7" customWidth="1"/>
-    <col min="9233" max="9233" width="3.77734375" style="7" customWidth="1"/>
-    <col min="9234" max="9235" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9236" max="9236" width="8.109375" style="7" customWidth="1"/>
-    <col min="9237" max="9240" width="10.5546875" style="7" customWidth="1"/>
-    <col min="9241" max="9241" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="9242" max="9243" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9244" max="9244" width="8.77734375" style="7" customWidth="1"/>
-    <col min="9245" max="9245" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9246" max="9246" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9247" max="9247" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9248" max="9248" width="12.77734375" style="7" customWidth="1"/>
-    <col min="9249" max="9249" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9250" max="9250" width="9.6640625" style="7" customWidth="1"/>
-    <col min="9251" max="9483" width="9.109375" style="7"/>
-    <col min="9484" max="9484" width="9" style="7" customWidth="1"/>
-    <col min="9485" max="9485" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="9486" max="9486" width="40.109375" style="7" customWidth="1"/>
-    <col min="9487" max="9487" width="10.77734375" style="7" customWidth="1"/>
-    <col min="9488" max="9488" width="20.109375" style="7" customWidth="1"/>
-    <col min="9489" max="9489" width="3.77734375" style="7" customWidth="1"/>
-    <col min="9490" max="9491" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9492" max="9492" width="8.109375" style="7" customWidth="1"/>
-    <col min="9493" max="9496" width="10.5546875" style="7" customWidth="1"/>
-    <col min="9497" max="9497" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="9498" max="9499" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9500" max="9500" width="8.77734375" style="7" customWidth="1"/>
-    <col min="9501" max="9501" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9502" max="9502" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9503" max="9503" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9504" max="9504" width="12.77734375" style="7" customWidth="1"/>
-    <col min="9505" max="9505" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9506" max="9506" width="9.6640625" style="7" customWidth="1"/>
-    <col min="9507" max="9739" width="9.109375" style="7"/>
-    <col min="9740" max="9740" width="9" style="7" customWidth="1"/>
-    <col min="9741" max="9741" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="9742" max="9742" width="40.109375" style="7" customWidth="1"/>
-    <col min="9743" max="9743" width="10.77734375" style="7" customWidth="1"/>
-    <col min="9744" max="9744" width="20.109375" style="7" customWidth="1"/>
-    <col min="9745" max="9745" width="3.77734375" style="7" customWidth="1"/>
-    <col min="9746" max="9747" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9748" max="9748" width="8.109375" style="7" customWidth="1"/>
-    <col min="9749" max="9752" width="10.5546875" style="7" customWidth="1"/>
-    <col min="9753" max="9753" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="9754" max="9755" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9756" max="9756" width="8.77734375" style="7" customWidth="1"/>
-    <col min="9757" max="9757" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9758" max="9758" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9759" max="9759" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9760" max="9760" width="12.77734375" style="7" customWidth="1"/>
-    <col min="9761" max="9761" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9762" max="9762" width="9.6640625" style="7" customWidth="1"/>
-    <col min="9763" max="9995" width="9.109375" style="7"/>
-    <col min="9996" max="9996" width="9" style="7" customWidth="1"/>
-    <col min="9997" max="9997" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="9998" max="9998" width="40.109375" style="7" customWidth="1"/>
-    <col min="9999" max="9999" width="10.77734375" style="7" customWidth="1"/>
-    <col min="10000" max="10000" width="20.109375" style="7" customWidth="1"/>
-    <col min="10001" max="10001" width="3.77734375" style="7" customWidth="1"/>
-    <col min="10002" max="10003" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10004" max="10004" width="8.109375" style="7" customWidth="1"/>
-    <col min="10005" max="10008" width="10.5546875" style="7" customWidth="1"/>
-    <col min="10009" max="10009" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="10010" max="10011" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10012" max="10012" width="8.77734375" style="7" customWidth="1"/>
-    <col min="10013" max="10013" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10014" max="10014" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10015" max="10015" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10016" max="10016" width="12.77734375" style="7" customWidth="1"/>
-    <col min="10017" max="10017" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10018" max="10018" width="9.6640625" style="7" customWidth="1"/>
-    <col min="10019" max="10251" width="9.109375" style="7"/>
-    <col min="10252" max="10252" width="9" style="7" customWidth="1"/>
-    <col min="10253" max="10253" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="10254" max="10254" width="40.109375" style="7" customWidth="1"/>
-    <col min="10255" max="10255" width="10.77734375" style="7" customWidth="1"/>
-    <col min="10256" max="10256" width="20.109375" style="7" customWidth="1"/>
-    <col min="10257" max="10257" width="3.77734375" style="7" customWidth="1"/>
-    <col min="10258" max="10259" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10260" max="10260" width="8.109375" style="7" customWidth="1"/>
-    <col min="10261" max="10264" width="10.5546875" style="7" customWidth="1"/>
-    <col min="10265" max="10265" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="10266" max="10267" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10268" max="10268" width="8.77734375" style="7" customWidth="1"/>
-    <col min="10269" max="10269" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10270" max="10270" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10271" max="10271" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10272" max="10272" width="12.77734375" style="7" customWidth="1"/>
-    <col min="10273" max="10273" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10274" max="10274" width="9.6640625" style="7" customWidth="1"/>
-    <col min="10275" max="10507" width="9.109375" style="7"/>
-    <col min="10508" max="10508" width="9" style="7" customWidth="1"/>
-    <col min="10509" max="10509" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="10510" max="10510" width="40.109375" style="7" customWidth="1"/>
-    <col min="10511" max="10511" width="10.77734375" style="7" customWidth="1"/>
-    <col min="10512" max="10512" width="20.109375" style="7" customWidth="1"/>
-    <col min="10513" max="10513" width="3.77734375" style="7" customWidth="1"/>
-    <col min="10514" max="10515" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10516" max="10516" width="8.109375" style="7" customWidth="1"/>
-    <col min="10517" max="10520" width="10.5546875" style="7" customWidth="1"/>
-    <col min="10521" max="10521" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="10522" max="10523" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10524" max="10524" width="8.77734375" style="7" customWidth="1"/>
-    <col min="10525" max="10525" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10526" max="10526" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10527" max="10527" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10528" max="10528" width="12.77734375" style="7" customWidth="1"/>
-    <col min="10529" max="10529" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10530" max="10530" width="9.6640625" style="7" customWidth="1"/>
-    <col min="10531" max="10763" width="9.109375" style="7"/>
-    <col min="10764" max="10764" width="9" style="7" customWidth="1"/>
-    <col min="10765" max="10765" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="10766" max="10766" width="40.109375" style="7" customWidth="1"/>
-    <col min="10767" max="10767" width="10.77734375" style="7" customWidth="1"/>
-    <col min="10768" max="10768" width="20.109375" style="7" customWidth="1"/>
-    <col min="10769" max="10769" width="3.77734375" style="7" customWidth="1"/>
-    <col min="10770" max="10771" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10772" max="10772" width="8.109375" style="7" customWidth="1"/>
-    <col min="10773" max="10776" width="10.5546875" style="7" customWidth="1"/>
-    <col min="10777" max="10777" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="10778" max="10779" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10780" max="10780" width="8.77734375" style="7" customWidth="1"/>
-    <col min="10781" max="10781" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10782" max="10782" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10783" max="10783" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10784" max="10784" width="12.77734375" style="7" customWidth="1"/>
-    <col min="10785" max="10785" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10786" max="10786" width="9.6640625" style="7" customWidth="1"/>
-    <col min="10787" max="11019" width="9.109375" style="7"/>
-    <col min="11020" max="11020" width="9" style="7" customWidth="1"/>
-    <col min="11021" max="11021" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="11022" max="11022" width="40.109375" style="7" customWidth="1"/>
-    <col min="11023" max="11023" width="10.77734375" style="7" customWidth="1"/>
-    <col min="11024" max="11024" width="20.109375" style="7" customWidth="1"/>
-    <col min="11025" max="11025" width="3.77734375" style="7" customWidth="1"/>
-    <col min="11026" max="11027" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11028" max="11028" width="8.109375" style="7" customWidth="1"/>
-    <col min="11029" max="11032" width="10.5546875" style="7" customWidth="1"/>
-    <col min="11033" max="11033" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="11034" max="11035" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11036" max="11036" width="8.77734375" style="7" customWidth="1"/>
-    <col min="11037" max="11037" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11038" max="11038" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11039" max="11039" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11040" max="11040" width="12.77734375" style="7" customWidth="1"/>
-    <col min="11041" max="11041" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11042" max="11042" width="9.6640625" style="7" customWidth="1"/>
-    <col min="11043" max="11275" width="9.109375" style="7"/>
-    <col min="11276" max="11276" width="9" style="7" customWidth="1"/>
-    <col min="11277" max="11277" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="11278" max="11278" width="40.109375" style="7" customWidth="1"/>
-    <col min="11279" max="11279" width="10.77734375" style="7" customWidth="1"/>
-    <col min="11280" max="11280" width="20.109375" style="7" customWidth="1"/>
-    <col min="11281" max="11281" width="3.77734375" style="7" customWidth="1"/>
-    <col min="11282" max="11283" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11284" max="11284" width="8.109375" style="7" customWidth="1"/>
-    <col min="11285" max="11288" width="10.5546875" style="7" customWidth="1"/>
-    <col min="11289" max="11289" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="11290" max="11291" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11292" max="11292" width="8.77734375" style="7" customWidth="1"/>
-    <col min="11293" max="11293" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11294" max="11294" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11295" max="11295" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11296" max="11296" width="12.77734375" style="7" customWidth="1"/>
-    <col min="11297" max="11297" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11298" max="11298" width="9.6640625" style="7" customWidth="1"/>
-    <col min="11299" max="11531" width="9.109375" style="7"/>
-    <col min="11532" max="11532" width="9" style="7" customWidth="1"/>
-    <col min="11533" max="11533" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="11534" max="11534" width="40.109375" style="7" customWidth="1"/>
-    <col min="11535" max="11535" width="10.77734375" style="7" customWidth="1"/>
-    <col min="11536" max="11536" width="20.109375" style="7" customWidth="1"/>
-    <col min="11537" max="11537" width="3.77734375" style="7" customWidth="1"/>
-    <col min="11538" max="11539" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11540" max="11540" width="8.109375" style="7" customWidth="1"/>
-    <col min="11541" max="11544" width="10.5546875" style="7" customWidth="1"/>
-    <col min="11545" max="11545" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="11546" max="11547" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11548" max="11548" width="8.77734375" style="7" customWidth="1"/>
-    <col min="11549" max="11549" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11550" max="11550" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11551" max="11551" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11552" max="11552" width="12.77734375" style="7" customWidth="1"/>
-    <col min="11553" max="11553" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11554" max="11554" width="9.6640625" style="7" customWidth="1"/>
-    <col min="11555" max="11787" width="9.109375" style="7"/>
-    <col min="11788" max="11788" width="9" style="7" customWidth="1"/>
-    <col min="11789" max="11789" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="11790" max="11790" width="40.109375" style="7" customWidth="1"/>
-    <col min="11791" max="11791" width="10.77734375" style="7" customWidth="1"/>
-    <col min="11792" max="11792" width="20.109375" style="7" customWidth="1"/>
-    <col min="11793" max="11793" width="3.77734375" style="7" customWidth="1"/>
-    <col min="11794" max="11795" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11796" max="11796" width="8.109375" style="7" customWidth="1"/>
-    <col min="11797" max="11800" width="10.5546875" style="7" customWidth="1"/>
-    <col min="11801" max="11801" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="11802" max="11803" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11804" max="11804" width="8.77734375" style="7" customWidth="1"/>
-    <col min="11805" max="11805" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11806" max="11806" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11807" max="11807" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11808" max="11808" width="12.77734375" style="7" customWidth="1"/>
-    <col min="11809" max="11809" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11810" max="11810" width="9.6640625" style="7" customWidth="1"/>
-    <col min="11811" max="12043" width="9.109375" style="7"/>
-    <col min="12044" max="12044" width="9" style="7" customWidth="1"/>
-    <col min="12045" max="12045" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="12046" max="12046" width="40.109375" style="7" customWidth="1"/>
-    <col min="12047" max="12047" width="10.77734375" style="7" customWidth="1"/>
-    <col min="12048" max="12048" width="20.109375" style="7" customWidth="1"/>
-    <col min="12049" max="12049" width="3.77734375" style="7" customWidth="1"/>
-    <col min="12050" max="12051" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12052" max="12052" width="8.109375" style="7" customWidth="1"/>
-    <col min="12053" max="12056" width="10.5546875" style="7" customWidth="1"/>
-    <col min="12057" max="12057" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="12058" max="12059" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12060" max="12060" width="8.77734375" style="7" customWidth="1"/>
-    <col min="12061" max="12061" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12062" max="12062" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12063" max="12063" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12064" max="12064" width="12.77734375" style="7" customWidth="1"/>
-    <col min="12065" max="12065" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12066" max="12066" width="9.6640625" style="7" customWidth="1"/>
-    <col min="12067" max="12299" width="9.109375" style="7"/>
-    <col min="12300" max="12300" width="9" style="7" customWidth="1"/>
-    <col min="12301" max="12301" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="12302" max="12302" width="40.109375" style="7" customWidth="1"/>
-    <col min="12303" max="12303" width="10.77734375" style="7" customWidth="1"/>
-    <col min="12304" max="12304" width="20.109375" style="7" customWidth="1"/>
-    <col min="12305" max="12305" width="3.77734375" style="7" customWidth="1"/>
-    <col min="12306" max="12307" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12308" max="12308" width="8.109375" style="7" customWidth="1"/>
-    <col min="12309" max="12312" width="10.5546875" style="7" customWidth="1"/>
-    <col min="12313" max="12313" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="12314" max="12315" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12316" max="12316" width="8.77734375" style="7" customWidth="1"/>
-    <col min="12317" max="12317" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12318" max="12318" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12319" max="12319" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12320" max="12320" width="12.77734375" style="7" customWidth="1"/>
-    <col min="12321" max="12321" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12322" max="12322" width="9.6640625" style="7" customWidth="1"/>
-    <col min="12323" max="12555" width="9.109375" style="7"/>
-    <col min="12556" max="12556" width="9" style="7" customWidth="1"/>
-    <col min="12557" max="12557" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="12558" max="12558" width="40.109375" style="7" customWidth="1"/>
-    <col min="12559" max="12559" width="10.77734375" style="7" customWidth="1"/>
-    <col min="12560" max="12560" width="20.109375" style="7" customWidth="1"/>
-    <col min="12561" max="12561" width="3.77734375" style="7" customWidth="1"/>
-    <col min="12562" max="12563" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12564" max="12564" width="8.109375" style="7" customWidth="1"/>
-    <col min="12565" max="12568" width="10.5546875" style="7" customWidth="1"/>
-    <col min="12569" max="12569" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="12570" max="12571" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12572" max="12572" width="8.77734375" style="7" customWidth="1"/>
-    <col min="12573" max="12573" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12574" max="12574" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12575" max="12575" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12576" max="12576" width="12.77734375" style="7" customWidth="1"/>
-    <col min="12577" max="12577" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12578" max="12578" width="9.6640625" style="7" customWidth="1"/>
-    <col min="12579" max="12811" width="9.109375" style="7"/>
-    <col min="12812" max="12812" width="9" style="7" customWidth="1"/>
-    <col min="12813" max="12813" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="12814" max="12814" width="40.109375" style="7" customWidth="1"/>
-    <col min="12815" max="12815" width="10.77734375" style="7" customWidth="1"/>
-    <col min="12816" max="12816" width="20.109375" style="7" customWidth="1"/>
-    <col min="12817" max="12817" width="3.77734375" style="7" customWidth="1"/>
-    <col min="12818" max="12819" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12820" max="12820" width="8.109375" style="7" customWidth="1"/>
-    <col min="12821" max="12824" width="10.5546875" style="7" customWidth="1"/>
-    <col min="12825" max="12825" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="12826" max="12827" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12828" max="12828" width="8.77734375" style="7" customWidth="1"/>
-    <col min="12829" max="12829" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12830" max="12830" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12831" max="12831" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12832" max="12832" width="12.77734375" style="7" customWidth="1"/>
-    <col min="12833" max="12833" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12834" max="12834" width="9.6640625" style="7" customWidth="1"/>
-    <col min="12835" max="13067" width="9.109375" style="7"/>
-    <col min="13068" max="13068" width="9" style="7" customWidth="1"/>
-    <col min="13069" max="13069" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="13070" max="13070" width="40.109375" style="7" customWidth="1"/>
-    <col min="13071" max="13071" width="10.77734375" style="7" customWidth="1"/>
-    <col min="13072" max="13072" width="20.109375" style="7" customWidth="1"/>
-    <col min="13073" max="13073" width="3.77734375" style="7" customWidth="1"/>
-    <col min="13074" max="13075" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="13076" max="13076" width="8.109375" style="7" customWidth="1"/>
-    <col min="13077" max="13080" width="10.5546875" style="7" customWidth="1"/>
-    <col min="13081" max="13081" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="13082" max="13083" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13084" max="13084" width="8.77734375" style="7" customWidth="1"/>
-    <col min="13085" max="13085" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="13086" max="13086" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="13087" max="13087" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="13088" max="13088" width="12.77734375" style="7" customWidth="1"/>
-    <col min="13089" max="13089" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13090" max="13090" width="9.6640625" style="7" customWidth="1"/>
-    <col min="13091" max="13323" width="9.109375" style="7"/>
-    <col min="13324" max="13324" width="9" style="7" customWidth="1"/>
-    <col min="13325" max="13325" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="13326" max="13326" width="40.109375" style="7" customWidth="1"/>
-    <col min="13327" max="13327" width="10.77734375" style="7" customWidth="1"/>
-    <col min="13328" max="13328" width="20.109375" style="7" customWidth="1"/>
-    <col min="13329" max="13329" width="3.77734375" style="7" customWidth="1"/>
-    <col min="13330" max="13331" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="13332" max="13332" width="8.109375" style="7" customWidth="1"/>
-    <col min="13333" max="13336" width="10.5546875" style="7" customWidth="1"/>
-    <col min="13337" max="13337" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="13338" max="13339" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13340" max="13340" width="8.77734375" style="7" customWidth="1"/>
-    <col min="13341" max="13341" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="13342" max="13342" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="13343" max="13343" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="13344" max="13344" width="12.77734375" style="7" customWidth="1"/>
-    <col min="13345" max="13345" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13346" max="13346" width="9.6640625" style="7" customWidth="1"/>
-    <col min="13347" max="13579" width="9.109375" style="7"/>
-    <col min="13580" max="13580" width="9" style="7" customWidth="1"/>
-    <col min="13581" max="13581" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="13582" max="13582" width="40.109375" style="7" customWidth="1"/>
-    <col min="13583" max="13583" width="10.77734375" style="7" customWidth="1"/>
-    <col min="13584" max="13584" width="20.109375" style="7" customWidth="1"/>
-    <col min="13585" max="13585" width="3.77734375" style="7" customWidth="1"/>
-    <col min="13586" max="13587" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="13588" max="13588" width="8.109375" style="7" customWidth="1"/>
-    <col min="13589" max="13592" width="10.5546875" style="7" customWidth="1"/>
-    <col min="13593" max="13593" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="13594" max="13595" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13596" max="13596" width="8.77734375" style="7" customWidth="1"/>
-    <col min="13597" max="13597" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="13598" max="13598" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="13599" max="13599" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="13600" max="13600" width="12.77734375" style="7" customWidth="1"/>
-    <col min="13601" max="13601" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13602" max="13602" width="9.6640625" style="7" customWidth="1"/>
-    <col min="13603" max="13835" width="9.109375" style="7"/>
-    <col min="13836" max="13836" width="9" style="7" customWidth="1"/>
-    <col min="13837" max="13837" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="13838" max="13838" width="40.109375" style="7" customWidth="1"/>
-    <col min="13839" max="13839" width="10.77734375" style="7" customWidth="1"/>
-    <col min="13840" max="13840" width="20.109375" style="7" customWidth="1"/>
-    <col min="13841" max="13841" width="3.77734375" style="7" customWidth="1"/>
-    <col min="13842" max="13843" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="13844" max="13844" width="8.109375" style="7" customWidth="1"/>
-    <col min="13845" max="13848" width="10.5546875" style="7" customWidth="1"/>
-    <col min="13849" max="13849" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="13850" max="13851" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13852" max="13852" width="8.77734375" style="7" customWidth="1"/>
-    <col min="13853" max="13853" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="13854" max="13854" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="13855" max="13855" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="13856" max="13856" width="12.77734375" style="7" customWidth="1"/>
-    <col min="13857" max="13857" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13858" max="13858" width="9.6640625" style="7" customWidth="1"/>
-    <col min="13859" max="14091" width="9.109375" style="7"/>
-    <col min="14092" max="14092" width="9" style="7" customWidth="1"/>
-    <col min="14093" max="14093" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="14094" max="14094" width="40.109375" style="7" customWidth="1"/>
-    <col min="14095" max="14095" width="10.77734375" style="7" customWidth="1"/>
-    <col min="14096" max="14096" width="20.109375" style="7" customWidth="1"/>
-    <col min="14097" max="14097" width="3.77734375" style="7" customWidth="1"/>
-    <col min="14098" max="14099" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="14100" max="14100" width="8.109375" style="7" customWidth="1"/>
-    <col min="14101" max="14104" width="10.5546875" style="7" customWidth="1"/>
-    <col min="14105" max="14105" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="14106" max="14107" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14108" max="14108" width="8.77734375" style="7" customWidth="1"/>
-    <col min="14109" max="14109" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="14110" max="14110" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="14111" max="14111" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14112" max="14112" width="12.77734375" style="7" customWidth="1"/>
-    <col min="14113" max="14113" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14114" max="14114" width="9.6640625" style="7" customWidth="1"/>
-    <col min="14115" max="14347" width="9.109375" style="7"/>
-    <col min="14348" max="14348" width="9" style="7" customWidth="1"/>
-    <col min="14349" max="14349" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="14350" max="14350" width="40.109375" style="7" customWidth="1"/>
-    <col min="14351" max="14351" width="10.77734375" style="7" customWidth="1"/>
-    <col min="14352" max="14352" width="20.109375" style="7" customWidth="1"/>
-    <col min="14353" max="14353" width="3.77734375" style="7" customWidth="1"/>
-    <col min="14354" max="14355" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="14356" max="14356" width="8.109375" style="7" customWidth="1"/>
-    <col min="14357" max="14360" width="10.5546875" style="7" customWidth="1"/>
-    <col min="14361" max="14361" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="14362" max="14363" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14364" max="14364" width="8.77734375" style="7" customWidth="1"/>
-    <col min="14365" max="14365" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="14366" max="14366" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="14367" max="14367" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14368" max="14368" width="12.77734375" style="7" customWidth="1"/>
-    <col min="14369" max="14369" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14370" max="14370" width="9.6640625" style="7" customWidth="1"/>
-    <col min="14371" max="14603" width="9.109375" style="7"/>
-    <col min="14604" max="14604" width="9" style="7" customWidth="1"/>
-    <col min="14605" max="14605" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="14606" max="14606" width="40.109375" style="7" customWidth="1"/>
-    <col min="14607" max="14607" width="10.77734375" style="7" customWidth="1"/>
-    <col min="14608" max="14608" width="20.109375" style="7" customWidth="1"/>
-    <col min="14609" max="14609" width="3.77734375" style="7" customWidth="1"/>
-    <col min="14610" max="14611" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="14612" max="14612" width="8.109375" style="7" customWidth="1"/>
-    <col min="14613" max="14616" width="10.5546875" style="7" customWidth="1"/>
-    <col min="14617" max="14617" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="14618" max="14619" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14620" max="14620" width="8.77734375" style="7" customWidth="1"/>
-    <col min="14621" max="14621" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="14622" max="14622" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="14623" max="14623" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14624" max="14624" width="12.77734375" style="7" customWidth="1"/>
-    <col min="14625" max="14625" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14626" max="14626" width="9.6640625" style="7" customWidth="1"/>
-    <col min="14627" max="14859" width="9.109375" style="7"/>
-    <col min="14860" max="14860" width="9" style="7" customWidth="1"/>
-    <col min="14861" max="14861" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="14862" max="14862" width="40.109375" style="7" customWidth="1"/>
-    <col min="14863" max="14863" width="10.77734375" style="7" customWidth="1"/>
-    <col min="14864" max="14864" width="20.109375" style="7" customWidth="1"/>
-    <col min="14865" max="14865" width="3.77734375" style="7" customWidth="1"/>
-    <col min="14866" max="14867" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="14868" max="14868" width="8.109375" style="7" customWidth="1"/>
-    <col min="14869" max="14872" width="10.5546875" style="7" customWidth="1"/>
-    <col min="14873" max="14873" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="14874" max="14875" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14876" max="14876" width="8.77734375" style="7" customWidth="1"/>
-    <col min="14877" max="14877" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="14878" max="14878" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="14879" max="14879" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14880" max="14880" width="12.77734375" style="7" customWidth="1"/>
-    <col min="14881" max="14881" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14882" max="14882" width="9.6640625" style="7" customWidth="1"/>
-    <col min="14883" max="15115" width="9.109375" style="7"/>
-    <col min="15116" max="15116" width="9" style="7" customWidth="1"/>
-    <col min="15117" max="15117" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="15118" max="15118" width="40.109375" style="7" customWidth="1"/>
-    <col min="15119" max="15119" width="10.77734375" style="7" customWidth="1"/>
-    <col min="15120" max="15120" width="20.109375" style="7" customWidth="1"/>
-    <col min="15121" max="15121" width="3.77734375" style="7" customWidth="1"/>
-    <col min="15122" max="15123" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15124" max="15124" width="8.109375" style="7" customWidth="1"/>
-    <col min="15125" max="15128" width="10.5546875" style="7" customWidth="1"/>
-    <col min="15129" max="15129" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="15130" max="15131" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15132" max="15132" width="8.77734375" style="7" customWidth="1"/>
-    <col min="15133" max="15133" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15134" max="15134" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15135" max="15135" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15136" max="15136" width="12.77734375" style="7" customWidth="1"/>
-    <col min="15137" max="15137" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15138" max="15138" width="9.6640625" style="7" customWidth="1"/>
-    <col min="15139" max="15371" width="9.109375" style="7"/>
-    <col min="15372" max="15372" width="9" style="7" customWidth="1"/>
-    <col min="15373" max="15373" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="15374" max="15374" width="40.109375" style="7" customWidth="1"/>
-    <col min="15375" max="15375" width="10.77734375" style="7" customWidth="1"/>
-    <col min="15376" max="15376" width="20.109375" style="7" customWidth="1"/>
-    <col min="15377" max="15377" width="3.77734375" style="7" customWidth="1"/>
-    <col min="15378" max="15379" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15380" max="15380" width="8.109375" style="7" customWidth="1"/>
-    <col min="15381" max="15384" width="10.5546875" style="7" customWidth="1"/>
-    <col min="15385" max="15385" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="15386" max="15387" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15388" max="15388" width="8.77734375" style="7" customWidth="1"/>
-    <col min="15389" max="15389" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15390" max="15390" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15391" max="15391" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15392" max="15392" width="12.77734375" style="7" customWidth="1"/>
-    <col min="15393" max="15393" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15394" max="15394" width="9.6640625" style="7" customWidth="1"/>
-    <col min="15395" max="15627" width="9.109375" style="7"/>
-    <col min="15628" max="15628" width="9" style="7" customWidth="1"/>
-    <col min="15629" max="15629" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="15630" max="15630" width="40.109375" style="7" customWidth="1"/>
-    <col min="15631" max="15631" width="10.77734375" style="7" customWidth="1"/>
-    <col min="15632" max="15632" width="20.109375" style="7" customWidth="1"/>
-    <col min="15633" max="15633" width="3.77734375" style="7" customWidth="1"/>
-    <col min="15634" max="15635" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15636" max="15636" width="8.109375" style="7" customWidth="1"/>
-    <col min="15637" max="15640" width="10.5546875" style="7" customWidth="1"/>
-    <col min="15641" max="15641" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="15642" max="15643" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15644" max="15644" width="8.77734375" style="7" customWidth="1"/>
-    <col min="15645" max="15645" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15646" max="15646" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15647" max="15647" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15648" max="15648" width="12.77734375" style="7" customWidth="1"/>
-    <col min="15649" max="15649" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15650" max="15650" width="9.6640625" style="7" customWidth="1"/>
-    <col min="15651" max="15883" width="9.109375" style="7"/>
-    <col min="15884" max="15884" width="9" style="7" customWidth="1"/>
-    <col min="15885" max="15885" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="15886" max="15886" width="40.109375" style="7" customWidth="1"/>
-    <col min="15887" max="15887" width="10.77734375" style="7" customWidth="1"/>
-    <col min="15888" max="15888" width="20.109375" style="7" customWidth="1"/>
-    <col min="15889" max="15889" width="3.77734375" style="7" customWidth="1"/>
-    <col min="15890" max="15891" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15892" max="15892" width="8.109375" style="7" customWidth="1"/>
-    <col min="15893" max="15896" width="10.5546875" style="7" customWidth="1"/>
-    <col min="15897" max="15897" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="15898" max="15899" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15900" max="15900" width="8.77734375" style="7" customWidth="1"/>
-    <col min="15901" max="15901" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15902" max="15902" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15903" max="15903" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15904" max="15904" width="12.77734375" style="7" customWidth="1"/>
-    <col min="15905" max="15905" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15906" max="15906" width="9.6640625" style="7" customWidth="1"/>
-    <col min="15907" max="16139" width="9.109375" style="7"/>
-    <col min="16140" max="16140" width="9" style="7" customWidth="1"/>
-    <col min="16141" max="16141" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="16142" max="16142" width="40.109375" style="7" customWidth="1"/>
-    <col min="16143" max="16143" width="10.77734375" style="7" customWidth="1"/>
-    <col min="16144" max="16144" width="20.109375" style="7" customWidth="1"/>
-    <col min="16145" max="16145" width="3.77734375" style="7" customWidth="1"/>
-    <col min="16146" max="16147" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="16148" max="16148" width="8.109375" style="7" customWidth="1"/>
-    <col min="16149" max="16152" width="10.5546875" style="7" customWidth="1"/>
-    <col min="16153" max="16153" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="16154" max="16155" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16156" max="16156" width="8.77734375" style="7" customWidth="1"/>
-    <col min="16157" max="16157" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="16158" max="16158" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="16159" max="16159" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="16160" max="16160" width="12.77734375" style="7" customWidth="1"/>
-    <col min="16161" max="16161" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16162" max="16162" width="9.6640625" style="7" customWidth="1"/>
-    <col min="16163" max="16383" width="9.109375" style="7"/>
-    <col min="16384" max="16384" width="9.109375" style="7" customWidth="1"/>
+    <col min="20" max="21" width="8.109375" style="7" customWidth="1"/>
+    <col min="22" max="22" width="65" style="28" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="10.5546875" style="7" customWidth="1"/>
+    <col min="26" max="26" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.77734375" style="7" customWidth="1"/>
+    <col min="30" max="30" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.77734375" style="7" customWidth="1"/>
+    <col min="34" max="34" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.6640625" style="7" customWidth="1"/>
+    <col min="36" max="268" width="9.109375" style="7"/>
+    <col min="269" max="269" width="9" style="7" customWidth="1"/>
+    <col min="270" max="270" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="40.109375" style="7" customWidth="1"/>
+    <col min="272" max="272" width="10.77734375" style="7" customWidth="1"/>
+    <col min="273" max="273" width="20.109375" style="7" customWidth="1"/>
+    <col min="274" max="274" width="3.77734375" style="7" customWidth="1"/>
+    <col min="275" max="276" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="277" max="277" width="8.109375" style="7" customWidth="1"/>
+    <col min="278" max="281" width="10.5546875" style="7" customWidth="1"/>
+    <col min="282" max="282" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="283" max="284" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="285" max="285" width="8.77734375" style="7" customWidth="1"/>
+    <col min="286" max="286" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="287" max="287" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="288" max="288" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="289" max="289" width="12.77734375" style="7" customWidth="1"/>
+    <col min="290" max="290" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="291" max="291" width="9.6640625" style="7" customWidth="1"/>
+    <col min="292" max="524" width="9.109375" style="7"/>
+    <col min="525" max="525" width="9" style="7" customWidth="1"/>
+    <col min="526" max="526" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="527" max="527" width="40.109375" style="7" customWidth="1"/>
+    <col min="528" max="528" width="10.77734375" style="7" customWidth="1"/>
+    <col min="529" max="529" width="20.109375" style="7" customWidth="1"/>
+    <col min="530" max="530" width="3.77734375" style="7" customWidth="1"/>
+    <col min="531" max="532" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="533" max="533" width="8.109375" style="7" customWidth="1"/>
+    <col min="534" max="537" width="10.5546875" style="7" customWidth="1"/>
+    <col min="538" max="538" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="539" max="540" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="541" max="541" width="8.77734375" style="7" customWidth="1"/>
+    <col min="542" max="542" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="543" max="543" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="544" max="544" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="545" max="545" width="12.77734375" style="7" customWidth="1"/>
+    <col min="546" max="546" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="547" max="547" width="9.6640625" style="7" customWidth="1"/>
+    <col min="548" max="780" width="9.109375" style="7"/>
+    <col min="781" max="781" width="9" style="7" customWidth="1"/>
+    <col min="782" max="782" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="783" max="783" width="40.109375" style="7" customWidth="1"/>
+    <col min="784" max="784" width="10.77734375" style="7" customWidth="1"/>
+    <col min="785" max="785" width="20.109375" style="7" customWidth="1"/>
+    <col min="786" max="786" width="3.77734375" style="7" customWidth="1"/>
+    <col min="787" max="788" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="789" max="789" width="8.109375" style="7" customWidth="1"/>
+    <col min="790" max="793" width="10.5546875" style="7" customWidth="1"/>
+    <col min="794" max="794" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="795" max="796" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="797" max="797" width="8.77734375" style="7" customWidth="1"/>
+    <col min="798" max="798" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="799" max="799" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="800" max="800" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="801" max="801" width="12.77734375" style="7" customWidth="1"/>
+    <col min="802" max="802" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="803" max="803" width="9.6640625" style="7" customWidth="1"/>
+    <col min="804" max="1036" width="9.109375" style="7"/>
+    <col min="1037" max="1037" width="9" style="7" customWidth="1"/>
+    <col min="1038" max="1038" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="1039" max="1039" width="40.109375" style="7" customWidth="1"/>
+    <col min="1040" max="1040" width="10.77734375" style="7" customWidth="1"/>
+    <col min="1041" max="1041" width="20.109375" style="7" customWidth="1"/>
+    <col min="1042" max="1042" width="3.77734375" style="7" customWidth="1"/>
+    <col min="1043" max="1044" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1045" max="1045" width="8.109375" style="7" customWidth="1"/>
+    <col min="1046" max="1049" width="10.5546875" style="7" customWidth="1"/>
+    <col min="1050" max="1050" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="1051" max="1052" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1053" max="1053" width="8.77734375" style="7" customWidth="1"/>
+    <col min="1054" max="1054" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1055" max="1055" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1056" max="1056" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1057" max="1057" width="12.77734375" style="7" customWidth="1"/>
+    <col min="1058" max="1058" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1059" max="1059" width="9.6640625" style="7" customWidth="1"/>
+    <col min="1060" max="1292" width="9.109375" style="7"/>
+    <col min="1293" max="1293" width="9" style="7" customWidth="1"/>
+    <col min="1294" max="1294" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="1295" max="1295" width="40.109375" style="7" customWidth="1"/>
+    <col min="1296" max="1296" width="10.77734375" style="7" customWidth="1"/>
+    <col min="1297" max="1297" width="20.109375" style="7" customWidth="1"/>
+    <col min="1298" max="1298" width="3.77734375" style="7" customWidth="1"/>
+    <col min="1299" max="1300" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1301" max="1301" width="8.109375" style="7" customWidth="1"/>
+    <col min="1302" max="1305" width="10.5546875" style="7" customWidth="1"/>
+    <col min="1306" max="1306" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="1307" max="1308" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1309" max="1309" width="8.77734375" style="7" customWidth="1"/>
+    <col min="1310" max="1310" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1311" max="1311" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1312" max="1312" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1313" max="1313" width="12.77734375" style="7" customWidth="1"/>
+    <col min="1314" max="1314" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1315" max="1315" width="9.6640625" style="7" customWidth="1"/>
+    <col min="1316" max="1548" width="9.109375" style="7"/>
+    <col min="1549" max="1549" width="9" style="7" customWidth="1"/>
+    <col min="1550" max="1550" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="1551" max="1551" width="40.109375" style="7" customWidth="1"/>
+    <col min="1552" max="1552" width="10.77734375" style="7" customWidth="1"/>
+    <col min="1553" max="1553" width="20.109375" style="7" customWidth="1"/>
+    <col min="1554" max="1554" width="3.77734375" style="7" customWidth="1"/>
+    <col min="1555" max="1556" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1557" max="1557" width="8.109375" style="7" customWidth="1"/>
+    <col min="1558" max="1561" width="10.5546875" style="7" customWidth="1"/>
+    <col min="1562" max="1562" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="1563" max="1564" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1565" max="1565" width="8.77734375" style="7" customWidth="1"/>
+    <col min="1566" max="1566" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1567" max="1567" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1568" max="1568" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1569" max="1569" width="12.77734375" style="7" customWidth="1"/>
+    <col min="1570" max="1570" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1571" max="1571" width="9.6640625" style="7" customWidth="1"/>
+    <col min="1572" max="1804" width="9.109375" style="7"/>
+    <col min="1805" max="1805" width="9" style="7" customWidth="1"/>
+    <col min="1806" max="1806" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="1807" max="1807" width="40.109375" style="7" customWidth="1"/>
+    <col min="1808" max="1808" width="10.77734375" style="7" customWidth="1"/>
+    <col min="1809" max="1809" width="20.109375" style="7" customWidth="1"/>
+    <col min="1810" max="1810" width="3.77734375" style="7" customWidth="1"/>
+    <col min="1811" max="1812" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1813" max="1813" width="8.109375" style="7" customWidth="1"/>
+    <col min="1814" max="1817" width="10.5546875" style="7" customWidth="1"/>
+    <col min="1818" max="1818" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="1819" max="1820" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1821" max="1821" width="8.77734375" style="7" customWidth="1"/>
+    <col min="1822" max="1822" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1823" max="1823" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1824" max="1824" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1825" max="1825" width="12.77734375" style="7" customWidth="1"/>
+    <col min="1826" max="1826" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1827" max="1827" width="9.6640625" style="7" customWidth="1"/>
+    <col min="1828" max="2060" width="9.109375" style="7"/>
+    <col min="2061" max="2061" width="9" style="7" customWidth="1"/>
+    <col min="2062" max="2062" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="2063" max="2063" width="40.109375" style="7" customWidth="1"/>
+    <col min="2064" max="2064" width="10.77734375" style="7" customWidth="1"/>
+    <col min="2065" max="2065" width="20.109375" style="7" customWidth="1"/>
+    <col min="2066" max="2066" width="3.77734375" style="7" customWidth="1"/>
+    <col min="2067" max="2068" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2069" max="2069" width="8.109375" style="7" customWidth="1"/>
+    <col min="2070" max="2073" width="10.5546875" style="7" customWidth="1"/>
+    <col min="2074" max="2074" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="2075" max="2076" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2077" max="2077" width="8.77734375" style="7" customWidth="1"/>
+    <col min="2078" max="2078" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2079" max="2079" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2080" max="2080" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2081" max="2081" width="12.77734375" style="7" customWidth="1"/>
+    <col min="2082" max="2082" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2083" max="2083" width="9.6640625" style="7" customWidth="1"/>
+    <col min="2084" max="2316" width="9.109375" style="7"/>
+    <col min="2317" max="2317" width="9" style="7" customWidth="1"/>
+    <col min="2318" max="2318" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="2319" max="2319" width="40.109375" style="7" customWidth="1"/>
+    <col min="2320" max="2320" width="10.77734375" style="7" customWidth="1"/>
+    <col min="2321" max="2321" width="20.109375" style="7" customWidth="1"/>
+    <col min="2322" max="2322" width="3.77734375" style="7" customWidth="1"/>
+    <col min="2323" max="2324" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2325" max="2325" width="8.109375" style="7" customWidth="1"/>
+    <col min="2326" max="2329" width="10.5546875" style="7" customWidth="1"/>
+    <col min="2330" max="2330" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="2331" max="2332" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2333" max="2333" width="8.77734375" style="7" customWidth="1"/>
+    <col min="2334" max="2334" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2335" max="2335" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2336" max="2336" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2337" max="2337" width="12.77734375" style="7" customWidth="1"/>
+    <col min="2338" max="2338" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2339" max="2339" width="9.6640625" style="7" customWidth="1"/>
+    <col min="2340" max="2572" width="9.109375" style="7"/>
+    <col min="2573" max="2573" width="9" style="7" customWidth="1"/>
+    <col min="2574" max="2574" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="2575" max="2575" width="40.109375" style="7" customWidth="1"/>
+    <col min="2576" max="2576" width="10.77734375" style="7" customWidth="1"/>
+    <col min="2577" max="2577" width="20.109375" style="7" customWidth="1"/>
+    <col min="2578" max="2578" width="3.77734375" style="7" customWidth="1"/>
+    <col min="2579" max="2580" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2581" max="2581" width="8.109375" style="7" customWidth="1"/>
+    <col min="2582" max="2585" width="10.5546875" style="7" customWidth="1"/>
+    <col min="2586" max="2586" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="2587" max="2588" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2589" max="2589" width="8.77734375" style="7" customWidth="1"/>
+    <col min="2590" max="2590" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2591" max="2591" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2592" max="2592" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2593" max="2593" width="12.77734375" style="7" customWidth="1"/>
+    <col min="2594" max="2594" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2595" max="2595" width="9.6640625" style="7" customWidth="1"/>
+    <col min="2596" max="2828" width="9.109375" style="7"/>
+    <col min="2829" max="2829" width="9" style="7" customWidth="1"/>
+    <col min="2830" max="2830" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="2831" max="2831" width="40.109375" style="7" customWidth="1"/>
+    <col min="2832" max="2832" width="10.77734375" style="7" customWidth="1"/>
+    <col min="2833" max="2833" width="20.109375" style="7" customWidth="1"/>
+    <col min="2834" max="2834" width="3.77734375" style="7" customWidth="1"/>
+    <col min="2835" max="2836" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2837" max="2837" width="8.109375" style="7" customWidth="1"/>
+    <col min="2838" max="2841" width="10.5546875" style="7" customWidth="1"/>
+    <col min="2842" max="2842" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="2843" max="2844" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2845" max="2845" width="8.77734375" style="7" customWidth="1"/>
+    <col min="2846" max="2846" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2847" max="2847" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2848" max="2848" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2849" max="2849" width="12.77734375" style="7" customWidth="1"/>
+    <col min="2850" max="2850" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2851" max="2851" width="9.6640625" style="7" customWidth="1"/>
+    <col min="2852" max="3084" width="9.109375" style="7"/>
+    <col min="3085" max="3085" width="9" style="7" customWidth="1"/>
+    <col min="3086" max="3086" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="3087" max="3087" width="40.109375" style="7" customWidth="1"/>
+    <col min="3088" max="3088" width="10.77734375" style="7" customWidth="1"/>
+    <col min="3089" max="3089" width="20.109375" style="7" customWidth="1"/>
+    <col min="3090" max="3090" width="3.77734375" style="7" customWidth="1"/>
+    <col min="3091" max="3092" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3093" max="3093" width="8.109375" style="7" customWidth="1"/>
+    <col min="3094" max="3097" width="10.5546875" style="7" customWidth="1"/>
+    <col min="3098" max="3098" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="3099" max="3100" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3101" max="3101" width="8.77734375" style="7" customWidth="1"/>
+    <col min="3102" max="3102" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3103" max="3103" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3104" max="3104" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3105" max="3105" width="12.77734375" style="7" customWidth="1"/>
+    <col min="3106" max="3106" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3107" max="3107" width="9.6640625" style="7" customWidth="1"/>
+    <col min="3108" max="3340" width="9.109375" style="7"/>
+    <col min="3341" max="3341" width="9" style="7" customWidth="1"/>
+    <col min="3342" max="3342" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="3343" max="3343" width="40.109375" style="7" customWidth="1"/>
+    <col min="3344" max="3344" width="10.77734375" style="7" customWidth="1"/>
+    <col min="3345" max="3345" width="20.109375" style="7" customWidth="1"/>
+    <col min="3346" max="3346" width="3.77734375" style="7" customWidth="1"/>
+    <col min="3347" max="3348" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3349" max="3349" width="8.109375" style="7" customWidth="1"/>
+    <col min="3350" max="3353" width="10.5546875" style="7" customWidth="1"/>
+    <col min="3354" max="3354" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="3355" max="3356" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3357" max="3357" width="8.77734375" style="7" customWidth="1"/>
+    <col min="3358" max="3358" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3359" max="3359" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3360" max="3360" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3361" max="3361" width="12.77734375" style="7" customWidth="1"/>
+    <col min="3362" max="3362" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3363" max="3363" width="9.6640625" style="7" customWidth="1"/>
+    <col min="3364" max="3596" width="9.109375" style="7"/>
+    <col min="3597" max="3597" width="9" style="7" customWidth="1"/>
+    <col min="3598" max="3598" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="3599" max="3599" width="40.109375" style="7" customWidth="1"/>
+    <col min="3600" max="3600" width="10.77734375" style="7" customWidth="1"/>
+    <col min="3601" max="3601" width="20.109375" style="7" customWidth="1"/>
+    <col min="3602" max="3602" width="3.77734375" style="7" customWidth="1"/>
+    <col min="3603" max="3604" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3605" max="3605" width="8.109375" style="7" customWidth="1"/>
+    <col min="3606" max="3609" width="10.5546875" style="7" customWidth="1"/>
+    <col min="3610" max="3610" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="3611" max="3612" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3613" max="3613" width="8.77734375" style="7" customWidth="1"/>
+    <col min="3614" max="3614" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3615" max="3615" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3616" max="3616" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3617" max="3617" width="12.77734375" style="7" customWidth="1"/>
+    <col min="3618" max="3618" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3619" max="3619" width="9.6640625" style="7" customWidth="1"/>
+    <col min="3620" max="3852" width="9.109375" style="7"/>
+    <col min="3853" max="3853" width="9" style="7" customWidth="1"/>
+    <col min="3854" max="3854" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="3855" max="3855" width="40.109375" style="7" customWidth="1"/>
+    <col min="3856" max="3856" width="10.77734375" style="7" customWidth="1"/>
+    <col min="3857" max="3857" width="20.109375" style="7" customWidth="1"/>
+    <col min="3858" max="3858" width="3.77734375" style="7" customWidth="1"/>
+    <col min="3859" max="3860" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3861" max="3861" width="8.109375" style="7" customWidth="1"/>
+    <col min="3862" max="3865" width="10.5546875" style="7" customWidth="1"/>
+    <col min="3866" max="3866" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="3867" max="3868" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3869" max="3869" width="8.77734375" style="7" customWidth="1"/>
+    <col min="3870" max="3870" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3871" max="3871" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3872" max="3872" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3873" max="3873" width="12.77734375" style="7" customWidth="1"/>
+    <col min="3874" max="3874" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3875" max="3875" width="9.6640625" style="7" customWidth="1"/>
+    <col min="3876" max="4108" width="9.109375" style="7"/>
+    <col min="4109" max="4109" width="9" style="7" customWidth="1"/>
+    <col min="4110" max="4110" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="4111" max="4111" width="40.109375" style="7" customWidth="1"/>
+    <col min="4112" max="4112" width="10.77734375" style="7" customWidth="1"/>
+    <col min="4113" max="4113" width="20.109375" style="7" customWidth="1"/>
+    <col min="4114" max="4114" width="3.77734375" style="7" customWidth="1"/>
+    <col min="4115" max="4116" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4117" max="4117" width="8.109375" style="7" customWidth="1"/>
+    <col min="4118" max="4121" width="10.5546875" style="7" customWidth="1"/>
+    <col min="4122" max="4122" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="4123" max="4124" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4125" max="4125" width="8.77734375" style="7" customWidth="1"/>
+    <col min="4126" max="4126" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4127" max="4127" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4128" max="4128" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4129" max="4129" width="12.77734375" style="7" customWidth="1"/>
+    <col min="4130" max="4130" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4131" max="4131" width="9.6640625" style="7" customWidth="1"/>
+    <col min="4132" max="4364" width="9.109375" style="7"/>
+    <col min="4365" max="4365" width="9" style="7" customWidth="1"/>
+    <col min="4366" max="4366" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="4367" max="4367" width="40.109375" style="7" customWidth="1"/>
+    <col min="4368" max="4368" width="10.77734375" style="7" customWidth="1"/>
+    <col min="4369" max="4369" width="20.109375" style="7" customWidth="1"/>
+    <col min="4370" max="4370" width="3.77734375" style="7" customWidth="1"/>
+    <col min="4371" max="4372" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4373" max="4373" width="8.109375" style="7" customWidth="1"/>
+    <col min="4374" max="4377" width="10.5546875" style="7" customWidth="1"/>
+    <col min="4378" max="4378" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="4379" max="4380" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4381" max="4381" width="8.77734375" style="7" customWidth="1"/>
+    <col min="4382" max="4382" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4383" max="4383" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4384" max="4384" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4385" max="4385" width="12.77734375" style="7" customWidth="1"/>
+    <col min="4386" max="4386" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4387" max="4387" width="9.6640625" style="7" customWidth="1"/>
+    <col min="4388" max="4620" width="9.109375" style="7"/>
+    <col min="4621" max="4621" width="9" style="7" customWidth="1"/>
+    <col min="4622" max="4622" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="4623" max="4623" width="40.109375" style="7" customWidth="1"/>
+    <col min="4624" max="4624" width="10.77734375" style="7" customWidth="1"/>
+    <col min="4625" max="4625" width="20.109375" style="7" customWidth="1"/>
+    <col min="4626" max="4626" width="3.77734375" style="7" customWidth="1"/>
+    <col min="4627" max="4628" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4629" max="4629" width="8.109375" style="7" customWidth="1"/>
+    <col min="4630" max="4633" width="10.5546875" style="7" customWidth="1"/>
+    <col min="4634" max="4634" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="4635" max="4636" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4637" max="4637" width="8.77734375" style="7" customWidth="1"/>
+    <col min="4638" max="4638" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4639" max="4639" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4640" max="4640" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4641" max="4641" width="12.77734375" style="7" customWidth="1"/>
+    <col min="4642" max="4642" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4643" max="4643" width="9.6640625" style="7" customWidth="1"/>
+    <col min="4644" max="4876" width="9.109375" style="7"/>
+    <col min="4877" max="4877" width="9" style="7" customWidth="1"/>
+    <col min="4878" max="4878" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="4879" max="4879" width="40.109375" style="7" customWidth="1"/>
+    <col min="4880" max="4880" width="10.77734375" style="7" customWidth="1"/>
+    <col min="4881" max="4881" width="20.109375" style="7" customWidth="1"/>
+    <col min="4882" max="4882" width="3.77734375" style="7" customWidth="1"/>
+    <col min="4883" max="4884" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4885" max="4885" width="8.109375" style="7" customWidth="1"/>
+    <col min="4886" max="4889" width="10.5546875" style="7" customWidth="1"/>
+    <col min="4890" max="4890" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="4891" max="4892" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4893" max="4893" width="8.77734375" style="7" customWidth="1"/>
+    <col min="4894" max="4894" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4895" max="4895" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4896" max="4896" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4897" max="4897" width="12.77734375" style="7" customWidth="1"/>
+    <col min="4898" max="4898" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4899" max="4899" width="9.6640625" style="7" customWidth="1"/>
+    <col min="4900" max="5132" width="9.109375" style="7"/>
+    <col min="5133" max="5133" width="9" style="7" customWidth="1"/>
+    <col min="5134" max="5134" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="5135" max="5135" width="40.109375" style="7" customWidth="1"/>
+    <col min="5136" max="5136" width="10.77734375" style="7" customWidth="1"/>
+    <col min="5137" max="5137" width="20.109375" style="7" customWidth="1"/>
+    <col min="5138" max="5138" width="3.77734375" style="7" customWidth="1"/>
+    <col min="5139" max="5140" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5141" max="5141" width="8.109375" style="7" customWidth="1"/>
+    <col min="5142" max="5145" width="10.5546875" style="7" customWidth="1"/>
+    <col min="5146" max="5146" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="5147" max="5148" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5149" max="5149" width="8.77734375" style="7" customWidth="1"/>
+    <col min="5150" max="5150" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5151" max="5151" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5152" max="5152" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5153" max="5153" width="12.77734375" style="7" customWidth="1"/>
+    <col min="5154" max="5154" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5155" max="5155" width="9.6640625" style="7" customWidth="1"/>
+    <col min="5156" max="5388" width="9.109375" style="7"/>
+    <col min="5389" max="5389" width="9" style="7" customWidth="1"/>
+    <col min="5390" max="5390" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="5391" max="5391" width="40.109375" style="7" customWidth="1"/>
+    <col min="5392" max="5392" width="10.77734375" style="7" customWidth="1"/>
+    <col min="5393" max="5393" width="20.109375" style="7" customWidth="1"/>
+    <col min="5394" max="5394" width="3.77734375" style="7" customWidth="1"/>
+    <col min="5395" max="5396" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5397" max="5397" width="8.109375" style="7" customWidth="1"/>
+    <col min="5398" max="5401" width="10.5546875" style="7" customWidth="1"/>
+    <col min="5402" max="5402" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="5403" max="5404" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5405" max="5405" width="8.77734375" style="7" customWidth="1"/>
+    <col min="5406" max="5406" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5407" max="5407" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5408" max="5408" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5409" max="5409" width="12.77734375" style="7" customWidth="1"/>
+    <col min="5410" max="5410" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5411" max="5411" width="9.6640625" style="7" customWidth="1"/>
+    <col min="5412" max="5644" width="9.109375" style="7"/>
+    <col min="5645" max="5645" width="9" style="7" customWidth="1"/>
+    <col min="5646" max="5646" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="5647" max="5647" width="40.109375" style="7" customWidth="1"/>
+    <col min="5648" max="5648" width="10.77734375" style="7" customWidth="1"/>
+    <col min="5649" max="5649" width="20.109375" style="7" customWidth="1"/>
+    <col min="5650" max="5650" width="3.77734375" style="7" customWidth="1"/>
+    <col min="5651" max="5652" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5653" max="5653" width="8.109375" style="7" customWidth="1"/>
+    <col min="5654" max="5657" width="10.5546875" style="7" customWidth="1"/>
+    <col min="5658" max="5658" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="5659" max="5660" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5661" max="5661" width="8.77734375" style="7" customWidth="1"/>
+    <col min="5662" max="5662" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5663" max="5663" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5664" max="5664" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5665" max="5665" width="12.77734375" style="7" customWidth="1"/>
+    <col min="5666" max="5666" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5667" max="5667" width="9.6640625" style="7" customWidth="1"/>
+    <col min="5668" max="5900" width="9.109375" style="7"/>
+    <col min="5901" max="5901" width="9" style="7" customWidth="1"/>
+    <col min="5902" max="5902" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="5903" max="5903" width="40.109375" style="7" customWidth="1"/>
+    <col min="5904" max="5904" width="10.77734375" style="7" customWidth="1"/>
+    <col min="5905" max="5905" width="20.109375" style="7" customWidth="1"/>
+    <col min="5906" max="5906" width="3.77734375" style="7" customWidth="1"/>
+    <col min="5907" max="5908" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5909" max="5909" width="8.109375" style="7" customWidth="1"/>
+    <col min="5910" max="5913" width="10.5546875" style="7" customWidth="1"/>
+    <col min="5914" max="5914" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="5915" max="5916" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5917" max="5917" width="8.77734375" style="7" customWidth="1"/>
+    <col min="5918" max="5918" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5919" max="5919" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5920" max="5920" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5921" max="5921" width="12.77734375" style="7" customWidth="1"/>
+    <col min="5922" max="5922" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5923" max="5923" width="9.6640625" style="7" customWidth="1"/>
+    <col min="5924" max="6156" width="9.109375" style="7"/>
+    <col min="6157" max="6157" width="9" style="7" customWidth="1"/>
+    <col min="6158" max="6158" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="6159" max="6159" width="40.109375" style="7" customWidth="1"/>
+    <col min="6160" max="6160" width="10.77734375" style="7" customWidth="1"/>
+    <col min="6161" max="6161" width="20.109375" style="7" customWidth="1"/>
+    <col min="6162" max="6162" width="3.77734375" style="7" customWidth="1"/>
+    <col min="6163" max="6164" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6165" max="6165" width="8.109375" style="7" customWidth="1"/>
+    <col min="6166" max="6169" width="10.5546875" style="7" customWidth="1"/>
+    <col min="6170" max="6170" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="6171" max="6172" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6173" max="6173" width="8.77734375" style="7" customWidth="1"/>
+    <col min="6174" max="6174" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6175" max="6175" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6176" max="6176" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6177" max="6177" width="12.77734375" style="7" customWidth="1"/>
+    <col min="6178" max="6178" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6179" max="6179" width="9.6640625" style="7" customWidth="1"/>
+    <col min="6180" max="6412" width="9.109375" style="7"/>
+    <col min="6413" max="6413" width="9" style="7" customWidth="1"/>
+    <col min="6414" max="6414" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="6415" max="6415" width="40.109375" style="7" customWidth="1"/>
+    <col min="6416" max="6416" width="10.77734375" style="7" customWidth="1"/>
+    <col min="6417" max="6417" width="20.109375" style="7" customWidth="1"/>
+    <col min="6418" max="6418" width="3.77734375" style="7" customWidth="1"/>
+    <col min="6419" max="6420" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6421" max="6421" width="8.109375" style="7" customWidth="1"/>
+    <col min="6422" max="6425" width="10.5546875" style="7" customWidth="1"/>
+    <col min="6426" max="6426" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="6427" max="6428" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6429" max="6429" width="8.77734375" style="7" customWidth="1"/>
+    <col min="6430" max="6430" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6431" max="6431" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6432" max="6432" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6433" max="6433" width="12.77734375" style="7" customWidth="1"/>
+    <col min="6434" max="6434" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6435" max="6435" width="9.6640625" style="7" customWidth="1"/>
+    <col min="6436" max="6668" width="9.109375" style="7"/>
+    <col min="6669" max="6669" width="9" style="7" customWidth="1"/>
+    <col min="6670" max="6670" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="6671" max="6671" width="40.109375" style="7" customWidth="1"/>
+    <col min="6672" max="6672" width="10.77734375" style="7" customWidth="1"/>
+    <col min="6673" max="6673" width="20.109375" style="7" customWidth="1"/>
+    <col min="6674" max="6674" width="3.77734375" style="7" customWidth="1"/>
+    <col min="6675" max="6676" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6677" max="6677" width="8.109375" style="7" customWidth="1"/>
+    <col min="6678" max="6681" width="10.5546875" style="7" customWidth="1"/>
+    <col min="6682" max="6682" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="6683" max="6684" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6685" max="6685" width="8.77734375" style="7" customWidth="1"/>
+    <col min="6686" max="6686" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6687" max="6687" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6688" max="6688" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6689" max="6689" width="12.77734375" style="7" customWidth="1"/>
+    <col min="6690" max="6690" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6691" max="6691" width="9.6640625" style="7" customWidth="1"/>
+    <col min="6692" max="6924" width="9.109375" style="7"/>
+    <col min="6925" max="6925" width="9" style="7" customWidth="1"/>
+    <col min="6926" max="6926" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="6927" max="6927" width="40.109375" style="7" customWidth="1"/>
+    <col min="6928" max="6928" width="10.77734375" style="7" customWidth="1"/>
+    <col min="6929" max="6929" width="20.109375" style="7" customWidth="1"/>
+    <col min="6930" max="6930" width="3.77734375" style="7" customWidth="1"/>
+    <col min="6931" max="6932" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6933" max="6933" width="8.109375" style="7" customWidth="1"/>
+    <col min="6934" max="6937" width="10.5546875" style="7" customWidth="1"/>
+    <col min="6938" max="6938" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="6939" max="6940" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6941" max="6941" width="8.77734375" style="7" customWidth="1"/>
+    <col min="6942" max="6942" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6943" max="6943" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6944" max="6944" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6945" max="6945" width="12.77734375" style="7" customWidth="1"/>
+    <col min="6946" max="6946" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6947" max="6947" width="9.6640625" style="7" customWidth="1"/>
+    <col min="6948" max="7180" width="9.109375" style="7"/>
+    <col min="7181" max="7181" width="9" style="7" customWidth="1"/>
+    <col min="7182" max="7182" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="7183" max="7183" width="40.109375" style="7" customWidth="1"/>
+    <col min="7184" max="7184" width="10.77734375" style="7" customWidth="1"/>
+    <col min="7185" max="7185" width="20.109375" style="7" customWidth="1"/>
+    <col min="7186" max="7186" width="3.77734375" style="7" customWidth="1"/>
+    <col min="7187" max="7188" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7189" max="7189" width="8.109375" style="7" customWidth="1"/>
+    <col min="7190" max="7193" width="10.5546875" style="7" customWidth="1"/>
+    <col min="7194" max="7194" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="7195" max="7196" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7197" max="7197" width="8.77734375" style="7" customWidth="1"/>
+    <col min="7198" max="7198" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7199" max="7199" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7200" max="7200" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7201" max="7201" width="12.77734375" style="7" customWidth="1"/>
+    <col min="7202" max="7202" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7203" max="7203" width="9.6640625" style="7" customWidth="1"/>
+    <col min="7204" max="7436" width="9.109375" style="7"/>
+    <col min="7437" max="7437" width="9" style="7" customWidth="1"/>
+    <col min="7438" max="7438" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="7439" max="7439" width="40.109375" style="7" customWidth="1"/>
+    <col min="7440" max="7440" width="10.77734375" style="7" customWidth="1"/>
+    <col min="7441" max="7441" width="20.109375" style="7" customWidth="1"/>
+    <col min="7442" max="7442" width="3.77734375" style="7" customWidth="1"/>
+    <col min="7443" max="7444" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7445" max="7445" width="8.109375" style="7" customWidth="1"/>
+    <col min="7446" max="7449" width="10.5546875" style="7" customWidth="1"/>
+    <col min="7450" max="7450" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="7451" max="7452" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7453" max="7453" width="8.77734375" style="7" customWidth="1"/>
+    <col min="7454" max="7454" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7455" max="7455" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7456" max="7456" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7457" max="7457" width="12.77734375" style="7" customWidth="1"/>
+    <col min="7458" max="7458" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7459" max="7459" width="9.6640625" style="7" customWidth="1"/>
+    <col min="7460" max="7692" width="9.109375" style="7"/>
+    <col min="7693" max="7693" width="9" style="7" customWidth="1"/>
+    <col min="7694" max="7694" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="7695" max="7695" width="40.109375" style="7" customWidth="1"/>
+    <col min="7696" max="7696" width="10.77734375" style="7" customWidth="1"/>
+    <col min="7697" max="7697" width="20.109375" style="7" customWidth="1"/>
+    <col min="7698" max="7698" width="3.77734375" style="7" customWidth="1"/>
+    <col min="7699" max="7700" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7701" max="7701" width="8.109375" style="7" customWidth="1"/>
+    <col min="7702" max="7705" width="10.5546875" style="7" customWidth="1"/>
+    <col min="7706" max="7706" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="7707" max="7708" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7709" max="7709" width="8.77734375" style="7" customWidth="1"/>
+    <col min="7710" max="7710" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7711" max="7711" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7712" max="7712" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7713" max="7713" width="12.77734375" style="7" customWidth="1"/>
+    <col min="7714" max="7714" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7715" max="7715" width="9.6640625" style="7" customWidth="1"/>
+    <col min="7716" max="7948" width="9.109375" style="7"/>
+    <col min="7949" max="7949" width="9" style="7" customWidth="1"/>
+    <col min="7950" max="7950" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="7951" max="7951" width="40.109375" style="7" customWidth="1"/>
+    <col min="7952" max="7952" width="10.77734375" style="7" customWidth="1"/>
+    <col min="7953" max="7953" width="20.109375" style="7" customWidth="1"/>
+    <col min="7954" max="7954" width="3.77734375" style="7" customWidth="1"/>
+    <col min="7955" max="7956" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7957" max="7957" width="8.109375" style="7" customWidth="1"/>
+    <col min="7958" max="7961" width="10.5546875" style="7" customWidth="1"/>
+    <col min="7962" max="7962" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="7963" max="7964" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7965" max="7965" width="8.77734375" style="7" customWidth="1"/>
+    <col min="7966" max="7966" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7967" max="7967" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7968" max="7968" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7969" max="7969" width="12.77734375" style="7" customWidth="1"/>
+    <col min="7970" max="7970" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7971" max="7971" width="9.6640625" style="7" customWidth="1"/>
+    <col min="7972" max="8204" width="9.109375" style="7"/>
+    <col min="8205" max="8205" width="9" style="7" customWidth="1"/>
+    <col min="8206" max="8206" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="8207" max="8207" width="40.109375" style="7" customWidth="1"/>
+    <col min="8208" max="8208" width="10.77734375" style="7" customWidth="1"/>
+    <col min="8209" max="8209" width="20.109375" style="7" customWidth="1"/>
+    <col min="8210" max="8210" width="3.77734375" style="7" customWidth="1"/>
+    <col min="8211" max="8212" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8213" max="8213" width="8.109375" style="7" customWidth="1"/>
+    <col min="8214" max="8217" width="10.5546875" style="7" customWidth="1"/>
+    <col min="8218" max="8218" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="8219" max="8220" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8221" max="8221" width="8.77734375" style="7" customWidth="1"/>
+    <col min="8222" max="8222" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8223" max="8223" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8224" max="8224" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8225" max="8225" width="12.77734375" style="7" customWidth="1"/>
+    <col min="8226" max="8226" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8227" max="8227" width="9.6640625" style="7" customWidth="1"/>
+    <col min="8228" max="8460" width="9.109375" style="7"/>
+    <col min="8461" max="8461" width="9" style="7" customWidth="1"/>
+    <col min="8462" max="8462" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="8463" max="8463" width="40.109375" style="7" customWidth="1"/>
+    <col min="8464" max="8464" width="10.77734375" style="7" customWidth="1"/>
+    <col min="8465" max="8465" width="20.109375" style="7" customWidth="1"/>
+    <col min="8466" max="8466" width="3.77734375" style="7" customWidth="1"/>
+    <col min="8467" max="8468" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8469" max="8469" width="8.109375" style="7" customWidth="1"/>
+    <col min="8470" max="8473" width="10.5546875" style="7" customWidth="1"/>
+    <col min="8474" max="8474" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="8475" max="8476" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8477" max="8477" width="8.77734375" style="7" customWidth="1"/>
+    <col min="8478" max="8478" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8479" max="8479" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8480" max="8480" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8481" max="8481" width="12.77734375" style="7" customWidth="1"/>
+    <col min="8482" max="8482" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8483" max="8483" width="9.6640625" style="7" customWidth="1"/>
+    <col min="8484" max="8716" width="9.109375" style="7"/>
+    <col min="8717" max="8717" width="9" style="7" customWidth="1"/>
+    <col min="8718" max="8718" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="8719" max="8719" width="40.109375" style="7" customWidth="1"/>
+    <col min="8720" max="8720" width="10.77734375" style="7" customWidth="1"/>
+    <col min="8721" max="8721" width="20.109375" style="7" customWidth="1"/>
+    <col min="8722" max="8722" width="3.77734375" style="7" customWidth="1"/>
+    <col min="8723" max="8724" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8725" max="8725" width="8.109375" style="7" customWidth="1"/>
+    <col min="8726" max="8729" width="10.5546875" style="7" customWidth="1"/>
+    <col min="8730" max="8730" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="8731" max="8732" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8733" max="8733" width="8.77734375" style="7" customWidth="1"/>
+    <col min="8734" max="8734" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8735" max="8735" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8736" max="8736" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8737" max="8737" width="12.77734375" style="7" customWidth="1"/>
+    <col min="8738" max="8738" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8739" max="8739" width="9.6640625" style="7" customWidth="1"/>
+    <col min="8740" max="8972" width="9.109375" style="7"/>
+    <col min="8973" max="8973" width="9" style="7" customWidth="1"/>
+    <col min="8974" max="8974" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="8975" max="8975" width="40.109375" style="7" customWidth="1"/>
+    <col min="8976" max="8976" width="10.77734375" style="7" customWidth="1"/>
+    <col min="8977" max="8977" width="20.109375" style="7" customWidth="1"/>
+    <col min="8978" max="8978" width="3.77734375" style="7" customWidth="1"/>
+    <col min="8979" max="8980" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8981" max="8981" width="8.109375" style="7" customWidth="1"/>
+    <col min="8982" max="8985" width="10.5546875" style="7" customWidth="1"/>
+    <col min="8986" max="8986" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="8987" max="8988" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8989" max="8989" width="8.77734375" style="7" customWidth="1"/>
+    <col min="8990" max="8990" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8991" max="8991" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8992" max="8992" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8993" max="8993" width="12.77734375" style="7" customWidth="1"/>
+    <col min="8994" max="8994" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8995" max="8995" width="9.6640625" style="7" customWidth="1"/>
+    <col min="8996" max="9228" width="9.109375" style="7"/>
+    <col min="9229" max="9229" width="9" style="7" customWidth="1"/>
+    <col min="9230" max="9230" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="9231" max="9231" width="40.109375" style="7" customWidth="1"/>
+    <col min="9232" max="9232" width="10.77734375" style="7" customWidth="1"/>
+    <col min="9233" max="9233" width="20.109375" style="7" customWidth="1"/>
+    <col min="9234" max="9234" width="3.77734375" style="7" customWidth="1"/>
+    <col min="9235" max="9236" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9237" max="9237" width="8.109375" style="7" customWidth="1"/>
+    <col min="9238" max="9241" width="10.5546875" style="7" customWidth="1"/>
+    <col min="9242" max="9242" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="9243" max="9244" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9245" max="9245" width="8.77734375" style="7" customWidth="1"/>
+    <col min="9246" max="9246" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9247" max="9247" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9248" max="9248" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9249" max="9249" width="12.77734375" style="7" customWidth="1"/>
+    <col min="9250" max="9250" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9251" max="9251" width="9.6640625" style="7" customWidth="1"/>
+    <col min="9252" max="9484" width="9.109375" style="7"/>
+    <col min="9485" max="9485" width="9" style="7" customWidth="1"/>
+    <col min="9486" max="9486" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="9487" max="9487" width="40.109375" style="7" customWidth="1"/>
+    <col min="9488" max="9488" width="10.77734375" style="7" customWidth="1"/>
+    <col min="9489" max="9489" width="20.109375" style="7" customWidth="1"/>
+    <col min="9490" max="9490" width="3.77734375" style="7" customWidth="1"/>
+    <col min="9491" max="9492" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9493" max="9493" width="8.109375" style="7" customWidth="1"/>
+    <col min="9494" max="9497" width="10.5546875" style="7" customWidth="1"/>
+    <col min="9498" max="9498" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="9499" max="9500" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9501" max="9501" width="8.77734375" style="7" customWidth="1"/>
+    <col min="9502" max="9502" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9503" max="9503" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9504" max="9504" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9505" max="9505" width="12.77734375" style="7" customWidth="1"/>
+    <col min="9506" max="9506" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9507" max="9507" width="9.6640625" style="7" customWidth="1"/>
+    <col min="9508" max="9740" width="9.109375" style="7"/>
+    <col min="9741" max="9741" width="9" style="7" customWidth="1"/>
+    <col min="9742" max="9742" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="9743" max="9743" width="40.109375" style="7" customWidth="1"/>
+    <col min="9744" max="9744" width="10.77734375" style="7" customWidth="1"/>
+    <col min="9745" max="9745" width="20.109375" style="7" customWidth="1"/>
+    <col min="9746" max="9746" width="3.77734375" style="7" customWidth="1"/>
+    <col min="9747" max="9748" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9749" max="9749" width="8.109375" style="7" customWidth="1"/>
+    <col min="9750" max="9753" width="10.5546875" style="7" customWidth="1"/>
+    <col min="9754" max="9754" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="9755" max="9756" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9757" max="9757" width="8.77734375" style="7" customWidth="1"/>
+    <col min="9758" max="9758" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9759" max="9759" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9760" max="9760" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9761" max="9761" width="12.77734375" style="7" customWidth="1"/>
+    <col min="9762" max="9762" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9763" max="9763" width="9.6640625" style="7" customWidth="1"/>
+    <col min="9764" max="9996" width="9.109375" style="7"/>
+    <col min="9997" max="9997" width="9" style="7" customWidth="1"/>
+    <col min="9998" max="9998" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="9999" max="9999" width="40.109375" style="7" customWidth="1"/>
+    <col min="10000" max="10000" width="10.77734375" style="7" customWidth="1"/>
+    <col min="10001" max="10001" width="20.109375" style="7" customWidth="1"/>
+    <col min="10002" max="10002" width="3.77734375" style="7" customWidth="1"/>
+    <col min="10003" max="10004" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10005" max="10005" width="8.109375" style="7" customWidth="1"/>
+    <col min="10006" max="10009" width="10.5546875" style="7" customWidth="1"/>
+    <col min="10010" max="10010" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="10011" max="10012" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10013" max="10013" width="8.77734375" style="7" customWidth="1"/>
+    <col min="10014" max="10014" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10015" max="10015" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10016" max="10016" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10017" max="10017" width="12.77734375" style="7" customWidth="1"/>
+    <col min="10018" max="10018" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10019" max="10019" width="9.6640625" style="7" customWidth="1"/>
+    <col min="10020" max="10252" width="9.109375" style="7"/>
+    <col min="10253" max="10253" width="9" style="7" customWidth="1"/>
+    <col min="10254" max="10254" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="10255" max="10255" width="40.109375" style="7" customWidth="1"/>
+    <col min="10256" max="10256" width="10.77734375" style="7" customWidth="1"/>
+    <col min="10257" max="10257" width="20.109375" style="7" customWidth="1"/>
+    <col min="10258" max="10258" width="3.77734375" style="7" customWidth="1"/>
+    <col min="10259" max="10260" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10261" max="10261" width="8.109375" style="7" customWidth="1"/>
+    <col min="10262" max="10265" width="10.5546875" style="7" customWidth="1"/>
+    <col min="10266" max="10266" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="10267" max="10268" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10269" max="10269" width="8.77734375" style="7" customWidth="1"/>
+    <col min="10270" max="10270" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10271" max="10271" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10272" max="10272" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10273" max="10273" width="12.77734375" style="7" customWidth="1"/>
+    <col min="10274" max="10274" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10275" max="10275" width="9.6640625" style="7" customWidth="1"/>
+    <col min="10276" max="10508" width="9.109375" style="7"/>
+    <col min="10509" max="10509" width="9" style="7" customWidth="1"/>
+    <col min="10510" max="10510" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="10511" max="10511" width="40.109375" style="7" customWidth="1"/>
+    <col min="10512" max="10512" width="10.77734375" style="7" customWidth="1"/>
+    <col min="10513" max="10513" width="20.109375" style="7" customWidth="1"/>
+    <col min="10514" max="10514" width="3.77734375" style="7" customWidth="1"/>
+    <col min="10515" max="10516" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10517" max="10517" width="8.109375" style="7" customWidth="1"/>
+    <col min="10518" max="10521" width="10.5546875" style="7" customWidth="1"/>
+    <col min="10522" max="10522" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="10523" max="10524" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10525" max="10525" width="8.77734375" style="7" customWidth="1"/>
+    <col min="10526" max="10526" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10527" max="10527" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10528" max="10528" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10529" max="10529" width="12.77734375" style="7" customWidth="1"/>
+    <col min="10530" max="10530" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10531" max="10531" width="9.6640625" style="7" customWidth="1"/>
+    <col min="10532" max="10764" width="9.109375" style="7"/>
+    <col min="10765" max="10765" width="9" style="7" customWidth="1"/>
+    <col min="10766" max="10766" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="10767" max="10767" width="40.109375" style="7" customWidth="1"/>
+    <col min="10768" max="10768" width="10.77734375" style="7" customWidth="1"/>
+    <col min="10769" max="10769" width="20.109375" style="7" customWidth="1"/>
+    <col min="10770" max="10770" width="3.77734375" style="7" customWidth="1"/>
+    <col min="10771" max="10772" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10773" max="10773" width="8.109375" style="7" customWidth="1"/>
+    <col min="10774" max="10777" width="10.5546875" style="7" customWidth="1"/>
+    <col min="10778" max="10778" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="10779" max="10780" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10781" max="10781" width="8.77734375" style="7" customWidth="1"/>
+    <col min="10782" max="10782" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10783" max="10783" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10784" max="10784" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10785" max="10785" width="12.77734375" style="7" customWidth="1"/>
+    <col min="10786" max="10786" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10787" max="10787" width="9.6640625" style="7" customWidth="1"/>
+    <col min="10788" max="11020" width="9.109375" style="7"/>
+    <col min="11021" max="11021" width="9" style="7" customWidth="1"/>
+    <col min="11022" max="11022" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="11023" max="11023" width="40.109375" style="7" customWidth="1"/>
+    <col min="11024" max="11024" width="10.77734375" style="7" customWidth="1"/>
+    <col min="11025" max="11025" width="20.109375" style="7" customWidth="1"/>
+    <col min="11026" max="11026" width="3.77734375" style="7" customWidth="1"/>
+    <col min="11027" max="11028" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11029" max="11029" width="8.109375" style="7" customWidth="1"/>
+    <col min="11030" max="11033" width="10.5546875" style="7" customWidth="1"/>
+    <col min="11034" max="11034" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="11035" max="11036" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11037" max="11037" width="8.77734375" style="7" customWidth="1"/>
+    <col min="11038" max="11038" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11039" max="11039" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11040" max="11040" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11041" max="11041" width="12.77734375" style="7" customWidth="1"/>
+    <col min="11042" max="11042" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11043" max="11043" width="9.6640625" style="7" customWidth="1"/>
+    <col min="11044" max="11276" width="9.109375" style="7"/>
+    <col min="11277" max="11277" width="9" style="7" customWidth="1"/>
+    <col min="11278" max="11278" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="11279" max="11279" width="40.109375" style="7" customWidth="1"/>
+    <col min="11280" max="11280" width="10.77734375" style="7" customWidth="1"/>
+    <col min="11281" max="11281" width="20.109375" style="7" customWidth="1"/>
+    <col min="11282" max="11282" width="3.77734375" style="7" customWidth="1"/>
+    <col min="11283" max="11284" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11285" max="11285" width="8.109375" style="7" customWidth="1"/>
+    <col min="11286" max="11289" width="10.5546875" style="7" customWidth="1"/>
+    <col min="11290" max="11290" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="11291" max="11292" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11293" max="11293" width="8.77734375" style="7" customWidth="1"/>
+    <col min="11294" max="11294" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11295" max="11295" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11296" max="11296" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11297" max="11297" width="12.77734375" style="7" customWidth="1"/>
+    <col min="11298" max="11298" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11299" max="11299" width="9.6640625" style="7" customWidth="1"/>
+    <col min="11300" max="11532" width="9.109375" style="7"/>
+    <col min="11533" max="11533" width="9" style="7" customWidth="1"/>
+    <col min="11534" max="11534" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="11535" max="11535" width="40.109375" style="7" customWidth="1"/>
+    <col min="11536" max="11536" width="10.77734375" style="7" customWidth="1"/>
+    <col min="11537" max="11537" width="20.109375" style="7" customWidth="1"/>
+    <col min="11538" max="11538" width="3.77734375" style="7" customWidth="1"/>
+    <col min="11539" max="11540" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11541" max="11541" width="8.109375" style="7" customWidth="1"/>
+    <col min="11542" max="11545" width="10.5546875" style="7" customWidth="1"/>
+    <col min="11546" max="11546" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="11547" max="11548" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11549" max="11549" width="8.77734375" style="7" customWidth="1"/>
+    <col min="11550" max="11550" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11551" max="11551" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11552" max="11552" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11553" max="11553" width="12.77734375" style="7" customWidth="1"/>
+    <col min="11554" max="11554" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11555" max="11555" width="9.6640625" style="7" customWidth="1"/>
+    <col min="11556" max="11788" width="9.109375" style="7"/>
+    <col min="11789" max="11789" width="9" style="7" customWidth="1"/>
+    <col min="11790" max="11790" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="11791" max="11791" width="40.109375" style="7" customWidth="1"/>
+    <col min="11792" max="11792" width="10.77734375" style="7" customWidth="1"/>
+    <col min="11793" max="11793" width="20.109375" style="7" customWidth="1"/>
+    <col min="11794" max="11794" width="3.77734375" style="7" customWidth="1"/>
+    <col min="11795" max="11796" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11797" max="11797" width="8.109375" style="7" customWidth="1"/>
+    <col min="11798" max="11801" width="10.5546875" style="7" customWidth="1"/>
+    <col min="11802" max="11802" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="11803" max="11804" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11805" max="11805" width="8.77734375" style="7" customWidth="1"/>
+    <col min="11806" max="11806" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11807" max="11807" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11808" max="11808" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11809" max="11809" width="12.77734375" style="7" customWidth="1"/>
+    <col min="11810" max="11810" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11811" max="11811" width="9.6640625" style="7" customWidth="1"/>
+    <col min="11812" max="12044" width="9.109375" style="7"/>
+    <col min="12045" max="12045" width="9" style="7" customWidth="1"/>
+    <col min="12046" max="12046" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="12047" max="12047" width="40.109375" style="7" customWidth="1"/>
+    <col min="12048" max="12048" width="10.77734375" style="7" customWidth="1"/>
+    <col min="12049" max="12049" width="20.109375" style="7" customWidth="1"/>
+    <col min="12050" max="12050" width="3.77734375" style="7" customWidth="1"/>
+    <col min="12051" max="12052" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12053" max="12053" width="8.109375" style="7" customWidth="1"/>
+    <col min="12054" max="12057" width="10.5546875" style="7" customWidth="1"/>
+    <col min="12058" max="12058" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="12059" max="12060" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12061" max="12061" width="8.77734375" style="7" customWidth="1"/>
+    <col min="12062" max="12062" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12063" max="12063" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12064" max="12064" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12065" max="12065" width="12.77734375" style="7" customWidth="1"/>
+    <col min="12066" max="12066" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12067" max="12067" width="9.6640625" style="7" customWidth="1"/>
+    <col min="12068" max="12300" width="9.109375" style="7"/>
+    <col min="12301" max="12301" width="9" style="7" customWidth="1"/>
+    <col min="12302" max="12302" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="12303" max="12303" width="40.109375" style="7" customWidth="1"/>
+    <col min="12304" max="12304" width="10.77734375" style="7" customWidth="1"/>
+    <col min="12305" max="12305" width="20.109375" style="7" customWidth="1"/>
+    <col min="12306" max="12306" width="3.77734375" style="7" customWidth="1"/>
+    <col min="12307" max="12308" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12309" max="12309" width="8.109375" style="7" customWidth="1"/>
+    <col min="12310" max="12313" width="10.5546875" style="7" customWidth="1"/>
+    <col min="12314" max="12314" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="12315" max="12316" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12317" max="12317" width="8.77734375" style="7" customWidth="1"/>
+    <col min="12318" max="12318" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12319" max="12319" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12320" max="12320" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12321" max="12321" width="12.77734375" style="7" customWidth="1"/>
+    <col min="12322" max="12322" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12323" max="12323" width="9.6640625" style="7" customWidth="1"/>
+    <col min="12324" max="12556" width="9.109375" style="7"/>
+    <col min="12557" max="12557" width="9" style="7" customWidth="1"/>
+    <col min="12558" max="12558" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="12559" max="12559" width="40.109375" style="7" customWidth="1"/>
+    <col min="12560" max="12560" width="10.77734375" style="7" customWidth="1"/>
+    <col min="12561" max="12561" width="20.109375" style="7" customWidth="1"/>
+    <col min="12562" max="12562" width="3.77734375" style="7" customWidth="1"/>
+    <col min="12563" max="12564" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12565" max="12565" width="8.109375" style="7" customWidth="1"/>
+    <col min="12566" max="12569" width="10.5546875" style="7" customWidth="1"/>
+    <col min="12570" max="12570" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="12571" max="12572" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12573" max="12573" width="8.77734375" style="7" customWidth="1"/>
+    <col min="12574" max="12574" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12575" max="12575" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12576" max="12576" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12577" max="12577" width="12.77734375" style="7" customWidth="1"/>
+    <col min="12578" max="12578" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12579" max="12579" width="9.6640625" style="7" customWidth="1"/>
+    <col min="12580" max="12812" width="9.109375" style="7"/>
+    <col min="12813" max="12813" width="9" style="7" customWidth="1"/>
+    <col min="12814" max="12814" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="12815" max="12815" width="40.109375" style="7" customWidth="1"/>
+    <col min="12816" max="12816" width="10.77734375" style="7" customWidth="1"/>
+    <col min="12817" max="12817" width="20.109375" style="7" customWidth="1"/>
+    <col min="12818" max="12818" width="3.77734375" style="7" customWidth="1"/>
+    <col min="12819" max="12820" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12821" max="12821" width="8.109375" style="7" customWidth="1"/>
+    <col min="12822" max="12825" width="10.5546875" style="7" customWidth="1"/>
+    <col min="12826" max="12826" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="12827" max="12828" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12829" max="12829" width="8.77734375" style="7" customWidth="1"/>
+    <col min="12830" max="12830" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12831" max="12831" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12832" max="12832" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12833" max="12833" width="12.77734375" style="7" customWidth="1"/>
+    <col min="12834" max="12834" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12835" max="12835" width="9.6640625" style="7" customWidth="1"/>
+    <col min="12836" max="13068" width="9.109375" style="7"/>
+    <col min="13069" max="13069" width="9" style="7" customWidth="1"/>
+    <col min="13070" max="13070" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="13071" max="13071" width="40.109375" style="7" customWidth="1"/>
+    <col min="13072" max="13072" width="10.77734375" style="7" customWidth="1"/>
+    <col min="13073" max="13073" width="20.109375" style="7" customWidth="1"/>
+    <col min="13074" max="13074" width="3.77734375" style="7" customWidth="1"/>
+    <col min="13075" max="13076" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13077" max="13077" width="8.109375" style="7" customWidth="1"/>
+    <col min="13078" max="13081" width="10.5546875" style="7" customWidth="1"/>
+    <col min="13082" max="13082" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="13083" max="13084" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13085" max="13085" width="8.77734375" style="7" customWidth="1"/>
+    <col min="13086" max="13086" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13087" max="13087" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13088" max="13088" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="13089" max="13089" width="12.77734375" style="7" customWidth="1"/>
+    <col min="13090" max="13090" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13091" max="13091" width="9.6640625" style="7" customWidth="1"/>
+    <col min="13092" max="13324" width="9.109375" style="7"/>
+    <col min="13325" max="13325" width="9" style="7" customWidth="1"/>
+    <col min="13326" max="13326" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="13327" max="13327" width="40.109375" style="7" customWidth="1"/>
+    <col min="13328" max="13328" width="10.77734375" style="7" customWidth="1"/>
+    <col min="13329" max="13329" width="20.109375" style="7" customWidth="1"/>
+    <col min="13330" max="13330" width="3.77734375" style="7" customWidth="1"/>
+    <col min="13331" max="13332" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13333" max="13333" width="8.109375" style="7" customWidth="1"/>
+    <col min="13334" max="13337" width="10.5546875" style="7" customWidth="1"/>
+    <col min="13338" max="13338" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="13339" max="13340" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13341" max="13341" width="8.77734375" style="7" customWidth="1"/>
+    <col min="13342" max="13342" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13343" max="13343" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13344" max="13344" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="13345" max="13345" width="12.77734375" style="7" customWidth="1"/>
+    <col min="13346" max="13346" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13347" max="13347" width="9.6640625" style="7" customWidth="1"/>
+    <col min="13348" max="13580" width="9.109375" style="7"/>
+    <col min="13581" max="13581" width="9" style="7" customWidth="1"/>
+    <col min="13582" max="13582" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="13583" max="13583" width="40.109375" style="7" customWidth="1"/>
+    <col min="13584" max="13584" width="10.77734375" style="7" customWidth="1"/>
+    <col min="13585" max="13585" width="20.109375" style="7" customWidth="1"/>
+    <col min="13586" max="13586" width="3.77734375" style="7" customWidth="1"/>
+    <col min="13587" max="13588" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13589" max="13589" width="8.109375" style="7" customWidth="1"/>
+    <col min="13590" max="13593" width="10.5546875" style="7" customWidth="1"/>
+    <col min="13594" max="13594" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="13595" max="13596" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13597" max="13597" width="8.77734375" style="7" customWidth="1"/>
+    <col min="13598" max="13598" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13599" max="13599" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13600" max="13600" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="13601" max="13601" width="12.77734375" style="7" customWidth="1"/>
+    <col min="13602" max="13602" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13603" max="13603" width="9.6640625" style="7" customWidth="1"/>
+    <col min="13604" max="13836" width="9.109375" style="7"/>
+    <col min="13837" max="13837" width="9" style="7" customWidth="1"/>
+    <col min="13838" max="13838" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="13839" max="13839" width="40.109375" style="7" customWidth="1"/>
+    <col min="13840" max="13840" width="10.77734375" style="7" customWidth="1"/>
+    <col min="13841" max="13841" width="20.109375" style="7" customWidth="1"/>
+    <col min="13842" max="13842" width="3.77734375" style="7" customWidth="1"/>
+    <col min="13843" max="13844" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13845" max="13845" width="8.109375" style="7" customWidth="1"/>
+    <col min="13846" max="13849" width="10.5546875" style="7" customWidth="1"/>
+    <col min="13850" max="13850" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="13851" max="13852" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13853" max="13853" width="8.77734375" style="7" customWidth="1"/>
+    <col min="13854" max="13854" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13855" max="13855" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13856" max="13856" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="13857" max="13857" width="12.77734375" style="7" customWidth="1"/>
+    <col min="13858" max="13858" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13859" max="13859" width="9.6640625" style="7" customWidth="1"/>
+    <col min="13860" max="14092" width="9.109375" style="7"/>
+    <col min="14093" max="14093" width="9" style="7" customWidth="1"/>
+    <col min="14094" max="14094" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="14095" max="14095" width="40.109375" style="7" customWidth="1"/>
+    <col min="14096" max="14096" width="10.77734375" style="7" customWidth="1"/>
+    <col min="14097" max="14097" width="20.109375" style="7" customWidth="1"/>
+    <col min="14098" max="14098" width="3.77734375" style="7" customWidth="1"/>
+    <col min="14099" max="14100" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14101" max="14101" width="8.109375" style="7" customWidth="1"/>
+    <col min="14102" max="14105" width="10.5546875" style="7" customWidth="1"/>
+    <col min="14106" max="14106" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="14107" max="14108" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14109" max="14109" width="8.77734375" style="7" customWidth="1"/>
+    <col min="14110" max="14110" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14111" max="14111" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14112" max="14112" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="14113" max="14113" width="12.77734375" style="7" customWidth="1"/>
+    <col min="14114" max="14114" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14115" max="14115" width="9.6640625" style="7" customWidth="1"/>
+    <col min="14116" max="14348" width="9.109375" style="7"/>
+    <col min="14349" max="14349" width="9" style="7" customWidth="1"/>
+    <col min="14350" max="14350" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="14351" max="14351" width="40.109375" style="7" customWidth="1"/>
+    <col min="14352" max="14352" width="10.77734375" style="7" customWidth="1"/>
+    <col min="14353" max="14353" width="20.109375" style="7" customWidth="1"/>
+    <col min="14354" max="14354" width="3.77734375" style="7" customWidth="1"/>
+    <col min="14355" max="14356" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14357" max="14357" width="8.109375" style="7" customWidth="1"/>
+    <col min="14358" max="14361" width="10.5546875" style="7" customWidth="1"/>
+    <col min="14362" max="14362" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="14363" max="14364" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14365" max="14365" width="8.77734375" style="7" customWidth="1"/>
+    <col min="14366" max="14366" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14367" max="14367" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14368" max="14368" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="14369" max="14369" width="12.77734375" style="7" customWidth="1"/>
+    <col min="14370" max="14370" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14371" max="14371" width="9.6640625" style="7" customWidth="1"/>
+    <col min="14372" max="14604" width="9.109375" style="7"/>
+    <col min="14605" max="14605" width="9" style="7" customWidth="1"/>
+    <col min="14606" max="14606" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="14607" max="14607" width="40.109375" style="7" customWidth="1"/>
+    <col min="14608" max="14608" width="10.77734375" style="7" customWidth="1"/>
+    <col min="14609" max="14609" width="20.109375" style="7" customWidth="1"/>
+    <col min="14610" max="14610" width="3.77734375" style="7" customWidth="1"/>
+    <col min="14611" max="14612" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14613" max="14613" width="8.109375" style="7" customWidth="1"/>
+    <col min="14614" max="14617" width="10.5546875" style="7" customWidth="1"/>
+    <col min="14618" max="14618" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="14619" max="14620" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14621" max="14621" width="8.77734375" style="7" customWidth="1"/>
+    <col min="14622" max="14622" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14623" max="14623" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14624" max="14624" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="14625" max="14625" width="12.77734375" style="7" customWidth="1"/>
+    <col min="14626" max="14626" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14627" max="14627" width="9.6640625" style="7" customWidth="1"/>
+    <col min="14628" max="14860" width="9.109375" style="7"/>
+    <col min="14861" max="14861" width="9" style="7" customWidth="1"/>
+    <col min="14862" max="14862" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="14863" max="14863" width="40.109375" style="7" customWidth="1"/>
+    <col min="14864" max="14864" width="10.77734375" style="7" customWidth="1"/>
+    <col min="14865" max="14865" width="20.109375" style="7" customWidth="1"/>
+    <col min="14866" max="14866" width="3.77734375" style="7" customWidth="1"/>
+    <col min="14867" max="14868" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14869" max="14869" width="8.109375" style="7" customWidth="1"/>
+    <col min="14870" max="14873" width="10.5546875" style="7" customWidth="1"/>
+    <col min="14874" max="14874" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="14875" max="14876" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14877" max="14877" width="8.77734375" style="7" customWidth="1"/>
+    <col min="14878" max="14878" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14879" max="14879" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14880" max="14880" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="14881" max="14881" width="12.77734375" style="7" customWidth="1"/>
+    <col min="14882" max="14882" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14883" max="14883" width="9.6640625" style="7" customWidth="1"/>
+    <col min="14884" max="15116" width="9.109375" style="7"/>
+    <col min="15117" max="15117" width="9" style="7" customWidth="1"/>
+    <col min="15118" max="15118" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="15119" max="15119" width="40.109375" style="7" customWidth="1"/>
+    <col min="15120" max="15120" width="10.77734375" style="7" customWidth="1"/>
+    <col min="15121" max="15121" width="20.109375" style="7" customWidth="1"/>
+    <col min="15122" max="15122" width="3.77734375" style="7" customWidth="1"/>
+    <col min="15123" max="15124" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15125" max="15125" width="8.109375" style="7" customWidth="1"/>
+    <col min="15126" max="15129" width="10.5546875" style="7" customWidth="1"/>
+    <col min="15130" max="15130" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="15131" max="15132" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15133" max="15133" width="8.77734375" style="7" customWidth="1"/>
+    <col min="15134" max="15134" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15135" max="15135" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15136" max="15136" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15137" max="15137" width="12.77734375" style="7" customWidth="1"/>
+    <col min="15138" max="15138" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15139" max="15139" width="9.6640625" style="7" customWidth="1"/>
+    <col min="15140" max="15372" width="9.109375" style="7"/>
+    <col min="15373" max="15373" width="9" style="7" customWidth="1"/>
+    <col min="15374" max="15374" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="15375" max="15375" width="40.109375" style="7" customWidth="1"/>
+    <col min="15376" max="15376" width="10.77734375" style="7" customWidth="1"/>
+    <col min="15377" max="15377" width="20.109375" style="7" customWidth="1"/>
+    <col min="15378" max="15378" width="3.77734375" style="7" customWidth="1"/>
+    <col min="15379" max="15380" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15381" max="15381" width="8.109375" style="7" customWidth="1"/>
+    <col min="15382" max="15385" width="10.5546875" style="7" customWidth="1"/>
+    <col min="15386" max="15386" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="15387" max="15388" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15389" max="15389" width="8.77734375" style="7" customWidth="1"/>
+    <col min="15390" max="15390" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15391" max="15391" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15392" max="15392" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15393" max="15393" width="12.77734375" style="7" customWidth="1"/>
+    <col min="15394" max="15394" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15395" max="15395" width="9.6640625" style="7" customWidth="1"/>
+    <col min="15396" max="15628" width="9.109375" style="7"/>
+    <col min="15629" max="15629" width="9" style="7" customWidth="1"/>
+    <col min="15630" max="15630" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="15631" max="15631" width="40.109375" style="7" customWidth="1"/>
+    <col min="15632" max="15632" width="10.77734375" style="7" customWidth="1"/>
+    <col min="15633" max="15633" width="20.109375" style="7" customWidth="1"/>
+    <col min="15634" max="15634" width="3.77734375" style="7" customWidth="1"/>
+    <col min="15635" max="15636" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15637" max="15637" width="8.109375" style="7" customWidth="1"/>
+    <col min="15638" max="15641" width="10.5546875" style="7" customWidth="1"/>
+    <col min="15642" max="15642" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="15643" max="15644" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15645" max="15645" width="8.77734375" style="7" customWidth="1"/>
+    <col min="15646" max="15646" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15647" max="15647" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15648" max="15648" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15649" max="15649" width="12.77734375" style="7" customWidth="1"/>
+    <col min="15650" max="15650" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15651" max="15651" width="9.6640625" style="7" customWidth="1"/>
+    <col min="15652" max="15884" width="9.109375" style="7"/>
+    <col min="15885" max="15885" width="9" style="7" customWidth="1"/>
+    <col min="15886" max="15886" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="15887" max="15887" width="40.109375" style="7" customWidth="1"/>
+    <col min="15888" max="15888" width="10.77734375" style="7" customWidth="1"/>
+    <col min="15889" max="15889" width="20.109375" style="7" customWidth="1"/>
+    <col min="15890" max="15890" width="3.77734375" style="7" customWidth="1"/>
+    <col min="15891" max="15892" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15893" max="15893" width="8.109375" style="7" customWidth="1"/>
+    <col min="15894" max="15897" width="10.5546875" style="7" customWidth="1"/>
+    <col min="15898" max="15898" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="15899" max="15900" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15901" max="15901" width="8.77734375" style="7" customWidth="1"/>
+    <col min="15902" max="15902" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15903" max="15903" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15904" max="15904" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15905" max="15905" width="12.77734375" style="7" customWidth="1"/>
+    <col min="15906" max="15906" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15907" max="15907" width="9.6640625" style="7" customWidth="1"/>
+    <col min="15908" max="16140" width="9.109375" style="7"/>
+    <col min="16141" max="16141" width="9" style="7" customWidth="1"/>
+    <col min="16142" max="16142" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="16143" max="16143" width="40.109375" style="7" customWidth="1"/>
+    <col min="16144" max="16144" width="10.77734375" style="7" customWidth="1"/>
+    <col min="16145" max="16145" width="20.109375" style="7" customWidth="1"/>
+    <col min="16146" max="16146" width="3.77734375" style="7" customWidth="1"/>
+    <col min="16147" max="16148" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="16149" max="16149" width="8.109375" style="7" customWidth="1"/>
+    <col min="16150" max="16153" width="10.5546875" style="7" customWidth="1"/>
+    <col min="16154" max="16154" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="16155" max="16156" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16157" max="16157" width="8.77734375" style="7" customWidth="1"/>
+    <col min="16158" max="16158" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="16159" max="16159" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="16160" max="16160" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="16161" max="16161" width="12.77734375" style="7" customWidth="1"/>
+    <col min="16162" max="16162" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16163" max="16163" width="9.6640625" style="7" customWidth="1"/>
+    <col min="16164" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:34" s="1" customFormat="1" ht="22.2" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="2:35" s="1" customFormat="1" ht="22.2" thickBot="1" x14ac:dyDescent="0.7">
       <c r="B1" s="89" t="s">
         <v>0</v>
       </c>
@@ -2899,8 +2898,7 @@
       <c r="Q1" s="103"/>
       <c r="R1" s="103"/>
       <c r="S1" s="103"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="2"/>
+      <c r="V1" s="26"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
@@ -2913,8 +2911,9 @@
       <c r="AF1" s="2"/>
       <c r="AG1" s="2"/>
       <c r="AH1" s="2"/>
-    </row>
-    <row r="2" spans="2:34" s="1" customFormat="1" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="AI1" s="2"/>
+    </row>
+    <row r="2" spans="2:35" s="1" customFormat="1" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="B2" s="100"/>
       <c r="C2" s="101"/>
       <c r="D2" s="101"/>
@@ -2932,8 +2931,7 @@
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
-      <c r="U2" s="26"/>
-      <c r="W2" s="2"/>
+      <c r="V2" s="26"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
@@ -2945,8 +2943,9 @@
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
-    </row>
-    <row r="3" spans="2:34" s="1" customFormat="1" ht="21.6" x14ac:dyDescent="0.65">
+      <c r="AI2" s="2"/>
+    </row>
+    <row r="3" spans="2:35" s="1" customFormat="1" ht="21.6" x14ac:dyDescent="0.65">
       <c r="B3" s="46" t="s">
         <v>2</v>
       </c>
@@ -2983,8 +2982,7 @@
       <c r="Q3" s="52"/>
       <c r="R3" s="52"/>
       <c r="S3" s="52"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="2"/>
+      <c r="V3" s="26"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
@@ -2997,8 +2995,9 @@
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
-    </row>
-    <row r="4" spans="2:34" ht="21.6" x14ac:dyDescent="0.5">
+      <c r="AI3" s="2"/>
+    </row>
+    <row r="4" spans="2:35" ht="21.6" x14ac:dyDescent="0.5">
       <c r="B4" s="95" t="s">
         <v>8</v>
       </c>
@@ -3023,10 +3022,9 @@
       <c r="Q4" s="57"/>
       <c r="R4" s="57"/>
       <c r="S4" s="57"/>
-      <c r="U4" s="27" t="s">
+      <c r="V4" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="V4" s="8"/>
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
@@ -3039,8 +3037,9 @@
       <c r="AF4" s="8"/>
       <c r="AG4" s="8"/>
       <c r="AH4" s="8"/>
-    </row>
-    <row r="5" spans="2:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AI4" s="8"/>
+    </row>
+    <row r="5" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B5" s="69"/>
       <c r="C5" s="70"/>
       <c r="D5" s="15"/>
@@ -3054,42 +3053,41 @@
         <v>153</v>
       </c>
       <c r="L5" s="65">
-        <f>SUMIFS(B:B,I:I,K5,D:D,$L$4)</f>
+        <f t="shared" ref="L5:L12" si="0">SUMIFS(B:B,I:I,K5,D:D,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M5" s="65">
-        <f>SUMIFS(B:B,I:I,K5,D:D,$M$4)</f>
+        <f t="shared" ref="M5:M12" si="1">SUMIFS(B:B,I:I,K5,D:D,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N5" s="65">
-        <f>SUMIFS(B:B,I:I,K5,D:D,$N$4)</f>
+        <f t="shared" ref="N5:N12" si="2">SUMIFS(B:B,I:I,K5,D:D,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O5" s="65">
-        <f>SUMIFS(B:B,I:I,K5,D:D,$O$4)</f>
+        <f t="shared" ref="O5:O12" si="3">SUMIFS(B:B,I:I,K5,D:D,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P5" s="65">
-        <f>SUMIFS(B:B,I:I,K5,D:D,$P$4)</f>
+        <f t="shared" ref="P5:P12" si="4">SUMIFS(B:B,I:I,K5,D:D,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q5" s="65">
-        <f>SUMIFS(B:B,I:I,K5,D:D,$Q$4)</f>
+        <f t="shared" ref="Q5:Q12" si="5">SUMIFS(B:B,I:I,K5,D:D,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R5" s="65">
-        <f>SUMIFS(B:B,I:I,K5,D:D,$R$4)</f>
+        <f t="shared" ref="R5:R12" si="6">SUMIFS(B:B,I:I,K5,D:D,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S5" s="65">
-        <f>SUMIFS(B:B,I:I,K5,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U5" s="28" t="s">
+        <f t="shared" ref="S5:S12" si="7">SUMIFS(B:B,I:I,K5,D:D,$S$4)</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="V5" s="2"/>
-      <c r="W5" s="8"/>
+      <c r="W5" s="2"/>
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
@@ -3101,8 +3099,9 @@
       <c r="AF5" s="8"/>
       <c r="AG5" s="8"/>
       <c r="AH5" s="8"/>
-    </row>
-    <row r="6" spans="2:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AI5" s="8"/>
+    </row>
+    <row r="6" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B6" s="71"/>
       <c r="C6" s="70"/>
       <c r="D6" s="15"/>
@@ -3116,42 +3115,41 @@
         <v>11</v>
       </c>
       <c r="L6" s="65">
-        <f>SUMIFS(B:B,I:I,K6,D:D,$L$4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M6" s="65">
-        <f>SUMIFS(B:B,I:I,K6,D:D,$M$4)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N6" s="65">
-        <f>SUMIFS(B:B,I:I,K6,D:D,$N$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O6" s="65">
-        <f>SUMIFS(B:B,I:I,K6,D:D,$O$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P6" s="65">
-        <f>SUMIFS(B:B,I:I,K6,D:D,$P$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q6" s="65">
-        <f>SUMIFS(B:B,I:I,K6,D:D,$Q$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R6" s="65">
-        <f>SUMIFS(B:B,I:I,K6,D:D,$R$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S6" s="65">
-        <f>SUMIFS(B:B,I:I,K6,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U6" s="26" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="V6" s="2"/>
-      <c r="W6" s="8"/>
+      <c r="W6" s="2"/>
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
@@ -3163,8 +3161,9 @@
       <c r="AF6" s="8"/>
       <c r="AG6" s="8"/>
       <c r="AH6" s="8"/>
-    </row>
-    <row r="7" spans="2:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AI6" s="8"/>
+    </row>
+    <row r="7" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B7" s="69"/>
       <c r="C7" s="70"/>
       <c r="D7" s="15"/>
@@ -3178,42 +3177,41 @@
         <v>12</v>
       </c>
       <c r="L7" s="65">
-        <f>SUMIFS(B:B,I:I,K7,D:D,$L$4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M7" s="65">
-        <f>SUMIFS(B:B,I:I,K7,D:D,$M$4)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N7" s="65">
-        <f>SUMIFS(B:B,I:I,K7,D:D,$N$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O7" s="65">
-        <f>SUMIFS(B:B,I:I,K7,D:D,$O$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P7" s="65">
-        <f>SUMIFS(B:B,I:I,K7,D:D,$P$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q7" s="65">
-        <f>SUMIFS(B:B,I:I,K7,D:D,$Q$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R7" s="65">
-        <f>SUMIFS(B:B,I:I,K7,D:D,$R$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S7" s="65">
-        <f>SUMIFS(B:B,I:I,K7,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U7" s="26" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="V7" s="2"/>
-      <c r="W7" s="8"/>
+      <c r="W7" s="2"/>
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
@@ -3225,8 +3223,9 @@
       <c r="AF7" s="8"/>
       <c r="AG7" s="8"/>
       <c r="AH7" s="8"/>
-    </row>
-    <row r="8" spans="2:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AI7" s="8"/>
+    </row>
+    <row r="8" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B8" s="69"/>
       <c r="C8" s="70"/>
       <c r="D8" s="15"/>
@@ -3240,42 +3239,41 @@
         <v>13</v>
       </c>
       <c r="L8" s="65">
-        <f>SUMIFS(B:B,I:I,K8,D:D,$L$4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M8" s="65">
-        <f>SUMIFS(B:B,I:I,K8,D:D,$M$4)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N8" s="65">
-        <f>SUMIFS(B:B,I:I,K8,D:D,$N$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O8" s="65">
-        <f>SUMIFS(B:B,I:I,K8,D:D,$O$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P8" s="65">
-        <f>SUMIFS(B:B,I:I,K8,D:D,$P$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q8" s="65">
-        <f>SUMIFS(B:B,I:I,K8,D:D,$Q$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R8" s="65">
-        <f>SUMIFS(B:B,I:I,K8,D:D,$R$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S8" s="65">
-        <f>SUMIFS(B:B,I:I,K8,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U8" s="26" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="V8" s="2"/>
-      <c r="W8" s="8"/>
+      <c r="W8" s="2"/>
       <c r="X8" s="8"/>
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
@@ -3287,8 +3285,9 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
       <c r="AH8" s="8"/>
-    </row>
-    <row r="9" spans="2:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AI8" s="8"/>
+    </row>
+    <row r="9" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B9" s="71"/>
       <c r="C9" s="70"/>
       <c r="D9" s="15"/>
@@ -3302,42 +3301,41 @@
         <v>14</v>
       </c>
       <c r="L9" s="65">
-        <f>SUMIFS(B:B,I:I,K9,D:D,$L$4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M9" s="65">
-        <f>SUMIFS(B:B,I:I,K9,D:D,$M$4)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N9" s="65">
-        <f>SUMIFS(B:B,I:I,K9,D:D,$N$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O9" s="65">
-        <f>SUMIFS(B:B,I:I,K9,D:D,$O$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P9" s="65">
-        <f>SUMIFS(B:B,I:I,K9,D:D,$P$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q9" s="65">
-        <f>SUMIFS(B:B,I:I,K9,D:D,$Q$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R9" s="65">
-        <f>SUMIFS(B:B,I:I,K9,D:D,$R$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S9" s="65">
-        <f>SUMIFS(B:B,I:I,K9,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U9" s="26" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="V9" s="2"/>
-      <c r="W9" s="8"/>
+      <c r="W9" s="2"/>
       <c r="X9" s="8"/>
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
@@ -3349,8 +3347,9 @@
       <c r="AF9" s="8"/>
       <c r="AG9" s="8"/>
       <c r="AH9" s="8"/>
-    </row>
-    <row r="10" spans="2:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AI9" s="8"/>
+    </row>
+    <row r="10" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B10" s="71"/>
       <c r="C10" s="70"/>
       <c r="D10" s="15"/>
@@ -3364,42 +3363,41 @@
         <v>49</v>
       </c>
       <c r="L10" s="65">
-        <f>SUMIFS(B:B,I:I,K10,D:D,$L$4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M10" s="65">
-        <f>SUMIFS(B:B,I:I,K10,D:D,$M$4)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N10" s="65">
-        <f>SUMIFS(B:B,I:I,K10,D:D,$N$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O10" s="65">
-        <f>SUMIFS(B:B,I:I,K10,D:D,$O$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P10" s="65">
-        <f>SUMIFS(B:B,I:I,K10,D:D,$P$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q10" s="65">
-        <f>SUMIFS(B:B,I:I,K10,D:D,$Q$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R10" s="65">
-        <f>SUMIFS(B:B,I:I,K10,D:D,$R$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S10" s="65">
-        <f>SUMIFS(B:B,I:I,K10,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U10" s="26" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="V10" s="2"/>
-      <c r="W10" s="8"/>
+      <c r="W10" s="2"/>
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
@@ -3411,8 +3409,9 @@
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
       <c r="AH10" s="8"/>
-    </row>
-    <row r="11" spans="2:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AI10" s="8"/>
+    </row>
+    <row r="11" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B11" s="71"/>
       <c r="C11" s="70"/>
       <c r="D11" s="15"/>
@@ -3426,42 +3425,41 @@
         <v>16</v>
       </c>
       <c r="L11" s="65">
-        <f>SUMIFS(B:B,I:I,K11,D:D,$L$4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M11" s="65">
-        <f>SUMIFS(B:B,I:I,K11,D:D,$M$4)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N11" s="65">
-        <f>SUMIFS(B:B,I:I,K11,D:D,$N$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O11" s="65">
-        <f>SUMIFS(B:B,I:I,K11,D:D,$O$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P11" s="65">
-        <f>SUMIFS(B:B,I:I,K11,D:D,$P$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q11" s="65">
-        <f>SUMIFS(B:B,I:I,K11,D:D,$Q$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R11" s="65">
-        <f>SUMIFS(B:B,I:I,K11,D:D,$R$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S11" s="65">
-        <f>SUMIFS(B:B,I:I,K11,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U11" s="26" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="V11" s="2"/>
-      <c r="W11" s="8"/>
+      <c r="W11" s="2"/>
       <c r="X11" s="8"/>
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
@@ -3473,8 +3471,9 @@
       <c r="AF11" s="8"/>
       <c r="AG11" s="8"/>
       <c r="AH11" s="8"/>
-    </row>
-    <row r="12" spans="2:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AI11" s="8"/>
+    </row>
+    <row r="12" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B12" s="71"/>
       <c r="C12" s="70"/>
       <c r="D12" s="15"/>
@@ -3488,40 +3487,39 @@
         <v>145</v>
       </c>
       <c r="L12" s="65">
-        <f>SUMIFS(B:B,I:I,K12,D:D,$L$4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M12" s="65">
-        <f>SUMIFS(B:B,I:I,K12,D:D,$M$4)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N12" s="65">
-        <f>SUMIFS(B:B,I:I,K12,D:D,$N$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O12" s="65">
-        <f>SUMIFS(B:B,I:I,K12,D:D,$O$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P12" s="65">
-        <f>SUMIFS(B:B,I:I,K12,D:D,$P$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q12" s="65">
-        <f>SUMIFS(B:B,I:I,K12,D:D,$Q$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R12" s="65">
-        <f>SUMIFS(B:B,I:I,K12,D:D,$R$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S12" s="65">
-        <f>SUMIFS(B:B,I:I,K12,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U12" s="26"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="8"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="26"/>
+      <c r="W12" s="2"/>
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
@@ -3533,8 +3531,9 @@
       <c r="AF12" s="8"/>
       <c r="AG12" s="8"/>
       <c r="AH12" s="8"/>
-    </row>
-    <row r="13" spans="2:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AI12" s="8"/>
+    </row>
+    <row r="13" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B13" s="69"/>
       <c r="C13" s="70"/>
       <c r="D13" s="15"/>
@@ -3552,36 +3551,35 @@
         <v>0</v>
       </c>
       <c r="M13" s="58">
-        <f t="shared" ref="M13:S13" si="0">SUM(M5:M12)</f>
+        <f t="shared" ref="M13:S13" si="8">SUM(M5:M12)</f>
         <v>0</v>
       </c>
       <c r="N13" s="58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O13" s="58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P13" s="58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q13" s="58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R13" s="58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S13" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U13" s="26"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="8"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="26"/>
+      <c r="W13" s="2"/>
       <c r="X13" s="8"/>
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
@@ -3593,8 +3591,9 @@
       <c r="AF13" s="8"/>
       <c r="AG13" s="8"/>
       <c r="AH13" s="8"/>
-    </row>
-    <row r="14" spans="2:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AI13" s="8"/>
+    </row>
+    <row r="14" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B14" s="71"/>
       <c r="C14" s="70"/>
       <c r="D14" s="15"/>
@@ -3612,36 +3611,35 @@
         <v>دولار</v>
       </c>
       <c r="M14" s="57">
-        <f t="shared" ref="M14:S14" si="1">M4</f>
+        <f t="shared" ref="M14:S14" si="9">M4</f>
         <v>0</v>
       </c>
       <c r="N14" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O14" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P14" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q14" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R14" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S14" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="26"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="8"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="26"/>
+      <c r="W14" s="2"/>
       <c r="X14" s="8"/>
       <c r="Y14" s="8"/>
       <c r="Z14" s="8"/>
@@ -3653,8 +3651,9 @@
       <c r="AF14" s="8"/>
       <c r="AG14" s="8"/>
       <c r="AH14" s="8"/>
-    </row>
-    <row r="15" spans="2:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AI14" s="8"/>
+    </row>
+    <row r="15" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B15" s="71"/>
       <c r="C15" s="70"/>
       <c r="D15" s="15"/>
@@ -3668,42 +3667,41 @@
         <v>49</v>
       </c>
       <c r="L15" s="65">
-        <f>SUMIFS(C:C,I:I,K15,D:D,$L$4)</f>
+        <f t="shared" ref="L15:L60" si="10">SUMIFS(C:C,I:I,K15,D:D,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M15" s="65">
-        <f>SUMIFS(C:C,I:I,K15,D:D,$M$4)</f>
+        <f t="shared" ref="M15:M60" si="11">SUMIFS(C:C,I:I,K15,D:D,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N15" s="65">
-        <f>SUMIFS(C:C,I:I,K15,D:D,$N$4)</f>
+        <f t="shared" ref="N15:N60" si="12">SUMIFS(C:C,I:I,K15,D:D,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O15" s="65">
-        <f>SUMIFS(C:C,I:I,K15,D:D,$O$4)</f>
+        <f t="shared" ref="O15:O60" si="13">SUMIFS(C:C,I:I,K15,D:D,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P15" s="65">
-        <f>SUMIFS(C:C,I:I,K15,D:D,$P$4)</f>
+        <f t="shared" ref="P15:P60" si="14">SUMIFS(C:C,I:I,K15,D:D,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q15" s="65">
-        <f>SUMIFS(C:C,I:I,K15,D:D,$Q$4)</f>
+        <f t="shared" ref="Q15:Q60" si="15">SUMIFS(C:C,I:I,K15,D:D,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R15" s="65">
-        <f>SUMIFS(C:C,I:I,K15,D:D,$R$4)</f>
+        <f t="shared" ref="R15:R60" si="16">SUMIFS(C:C,I:I,K15,D:D,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S15" s="65">
-        <f>SUMIFS(C:C,I:I,K15,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U15" s="26" t="s">
+        <f t="shared" ref="S15:S60" si="17">SUMIFS(C:C,I:I,K15,D:D,$S$4)</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="V15" s="2"/>
-      <c r="W15" s="8"/>
+      <c r="W15" s="2"/>
       <c r="X15" s="8"/>
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
@@ -3715,8 +3713,9 @@
       <c r="AF15" s="8"/>
       <c r="AG15" s="8"/>
       <c r="AH15" s="8"/>
-    </row>
-    <row r="16" spans="2:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AI15" s="8"/>
+    </row>
+    <row r="16" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B16" s="71"/>
       <c r="C16" s="70"/>
       <c r="D16" s="15"/>
@@ -3730,42 +3729,41 @@
         <v>18</v>
       </c>
       <c r="L16" s="65">
-        <f>SUMIFS(C:C,I:I,K16,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M16" s="65">
-        <f>SUMIFS(C:C,I:I,K16,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N16" s="65">
-        <f>SUMIFS(C:C,I:I,K16,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O16" s="65">
-        <f>SUMIFS(C:C,I:I,K16,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P16" s="65">
-        <f>SUMIFS(C:C,I:I,K16,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q16" s="65">
-        <f>SUMIFS(C:C,I:I,K16,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R16" s="65">
-        <f>SUMIFS(C:C,I:I,K16,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S16" s="65">
-        <f>SUMIFS(C:C,I:I,K16,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U16" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="V16" s="2"/>
-      <c r="W16" s="8"/>
+      <c r="W16" s="2"/>
       <c r="X16" s="8"/>
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
@@ -3777,8 +3775,9 @@
       <c r="AF16" s="8"/>
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
-    </row>
-    <row r="17" spans="2:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AI16" s="8"/>
+    </row>
+    <row r="17" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B17" s="71"/>
       <c r="C17" s="70"/>
       <c r="D17" s="79"/>
@@ -3792,42 +3791,41 @@
         <v>65</v>
       </c>
       <c r="L17" s="65">
-        <f>SUMIFS(C:C,I:I,K17,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M17" s="65">
-        <f>SUMIFS(C:C,I:I,K17,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N17" s="65">
-        <f>SUMIFS(C:C,I:I,K17,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O17" s="65">
-        <f>SUMIFS(C:C,I:I,K17,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P17" s="65">
-        <f>SUMIFS(C:C,I:I,K17,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q17" s="65">
-        <f>SUMIFS(C:C,I:I,K17,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R17" s="65">
-        <f>SUMIFS(C:C,I:I,K17,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S17" s="65">
-        <f>SUMIFS(C:C,I:I,K17,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U17" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="V17" s="2"/>
-      <c r="W17" s="8"/>
+      <c r="W17" s="2"/>
       <c r="X17" s="8"/>
       <c r="Y17" s="8"/>
       <c r="Z17" s="8"/>
@@ -3839,8 +3837,9 @@
       <c r="AF17" s="8"/>
       <c r="AG17" s="8"/>
       <c r="AH17" s="8"/>
-    </row>
-    <row r="18" spans="2:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AI17" s="8"/>
+    </row>
+    <row r="18" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B18" s="71"/>
       <c r="C18" s="70"/>
       <c r="D18" s="15"/>
@@ -3854,42 +3853,41 @@
         <v>19</v>
       </c>
       <c r="L18" s="65">
-        <f>SUMIFS(C:C,I:I,K18,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M18" s="65">
-        <f>SUMIFS(C:C,I:I,K18,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N18" s="65">
-        <f>SUMIFS(C:C,I:I,K18,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O18" s="65">
-        <f>SUMIFS(C:C,I:I,K18,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P18" s="65">
-        <f>SUMIFS(C:C,I:I,K18,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q18" s="65">
-        <f>SUMIFS(C:C,I:I,K18,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R18" s="65">
-        <f>SUMIFS(C:C,I:I,K18,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S18" s="65">
-        <f>SUMIFS(C:C,I:I,K18,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U18" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="V18" s="2"/>
-      <c r="W18" s="8"/>
+      <c r="W18" s="2"/>
       <c r="X18" s="8"/>
       <c r="Y18" s="8"/>
       <c r="Z18" s="8"/>
@@ -3901,8 +3899,9 @@
       <c r="AF18" s="8"/>
       <c r="AG18" s="8"/>
       <c r="AH18" s="8"/>
-    </row>
-    <row r="19" spans="2:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AI18" s="8"/>
+    </row>
+    <row r="19" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B19" s="71"/>
       <c r="C19" s="70"/>
       <c r="D19" s="15"/>
@@ -3916,42 +3915,41 @@
         <v>21</v>
       </c>
       <c r="L19" s="65">
-        <f>SUMIFS(C:C,I:I,K19,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M19" s="65">
-        <f>SUMIFS(C:C,I:I,K19,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N19" s="65">
-        <f>SUMIFS(C:C,I:I,K19,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O19" s="65">
-        <f>SUMIFS(C:C,I:I,K19,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P19" s="65">
-        <f>SUMIFS(C:C,I:I,K19,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q19" s="65">
-        <f>SUMIFS(C:C,I:I,K19,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R19" s="65">
-        <f>SUMIFS(C:C,I:I,K19,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S19" s="65">
-        <f>SUMIFS(C:C,I:I,K19,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U19" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="V19" s="2"/>
-      <c r="W19" s="8"/>
+      <c r="W19" s="2"/>
       <c r="X19" s="8"/>
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
@@ -3963,8 +3961,9 @@
       <c r="AF19" s="8"/>
       <c r="AG19" s="8"/>
       <c r="AH19" s="8"/>
-    </row>
-    <row r="20" spans="2:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AI19" s="8"/>
+    </row>
+    <row r="20" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B20" s="72"/>
       <c r="C20" s="70"/>
       <c r="D20" s="15"/>
@@ -3978,42 +3977,41 @@
         <v>23</v>
       </c>
       <c r="L20" s="65">
-        <f>SUMIFS(C:C,I:I,K20,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M20" s="65">
-        <f>SUMIFS(C:C,I:I,K20,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N20" s="65">
-        <f>SUMIFS(C:C,I:I,K20,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O20" s="65">
-        <f>SUMIFS(C:C,I:I,K20,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P20" s="65">
-        <f>SUMIFS(C:C,I:I,K20,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q20" s="65">
-        <f>SUMIFS(C:C,I:I,K20,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R20" s="65">
-        <f>SUMIFS(C:C,I:I,K20,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S20" s="65">
-        <f>SUMIFS(C:C,I:I,K20,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U20" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="V20" s="2"/>
-      <c r="W20" s="8"/>
+      <c r="W20" s="2"/>
       <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
@@ -4025,8 +4023,9 @@
       <c r="AF20" s="8"/>
       <c r="AG20" s="8"/>
       <c r="AH20" s="8"/>
-    </row>
-    <row r="21" spans="2:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AI20" s="8"/>
+    </row>
+    <row r="21" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B21" s="72"/>
       <c r="C21" s="70"/>
       <c r="D21" s="15"/>
@@ -4040,42 +4039,41 @@
         <v>82</v>
       </c>
       <c r="L21" s="65">
-        <f>SUMIFS(C:C,I:I,K21,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M21" s="65">
-        <f>SUMIFS(C:C,I:I,K21,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N21" s="65">
-        <f>SUMIFS(C:C,I:I,K21,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O21" s="65">
-        <f>SUMIFS(C:C,I:I,K21,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P21" s="65">
-        <f>SUMIFS(C:C,I:I,K21,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q21" s="65">
-        <f>SUMIFS(C:C,I:I,K21,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R21" s="65">
-        <f>SUMIFS(C:C,I:I,K21,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S21" s="65">
-        <f>SUMIFS(C:C,I:I,K21,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U21" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="V21" s="2"/>
-      <c r="W21" s="8"/>
+      <c r="W21" s="2"/>
       <c r="X21" s="8"/>
       <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
@@ -4087,8 +4085,9 @@
       <c r="AF21" s="8"/>
       <c r="AG21" s="8"/>
       <c r="AH21" s="8"/>
-    </row>
-    <row r="22" spans="2:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AI21" s="8"/>
+    </row>
+    <row r="22" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B22" s="72"/>
       <c r="C22" s="70"/>
       <c r="D22" s="15"/>
@@ -4102,42 +4101,41 @@
         <v>57</v>
       </c>
       <c r="L22" s="65">
-        <f>SUMIFS(C:C,I:I,K22,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M22" s="65">
-        <f>SUMIFS(C:C,I:I,K22,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N22" s="65">
-        <f>SUMIFS(C:C,I:I,K22,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O22" s="65">
-        <f>SUMIFS(C:C,I:I,K22,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P22" s="65">
-        <f>SUMIFS(C:C,I:I,K22,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q22" s="65">
-        <f>SUMIFS(C:C,I:I,K22,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R22" s="65">
-        <f>SUMIFS(C:C,I:I,K22,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S22" s="65">
-        <f>SUMIFS(C:C,I:I,K22,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U22" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="V22" s="2"/>
-      <c r="W22" s="8"/>
+      <c r="W22" s="2"/>
       <c r="X22" s="8"/>
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
@@ -4149,8 +4147,9 @@
       <c r="AF22" s="8"/>
       <c r="AG22" s="8"/>
       <c r="AH22" s="8"/>
-    </row>
-    <row r="23" spans="2:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AI22" s="8"/>
+    </row>
+    <row r="23" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B23" s="72"/>
       <c r="C23" s="70"/>
       <c r="D23" s="15"/>
@@ -4164,42 +4163,41 @@
         <v>24</v>
       </c>
       <c r="L23" s="65">
-        <f>SUMIFS(C:C,I:I,K23,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M23" s="65">
-        <f>SUMIFS(C:C,I:I,K23,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N23" s="65">
-        <f>SUMIFS(C:C,I:I,K23,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O23" s="65">
-        <f>SUMIFS(C:C,I:I,K23,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P23" s="65">
-        <f>SUMIFS(C:C,I:I,K23,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q23" s="65">
-        <f>SUMIFS(C:C,I:I,K23,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R23" s="65">
-        <f>SUMIFS(C:C,I:I,K23,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S23" s="65">
-        <f>SUMIFS(C:C,I:I,K23,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U23" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V23" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="V23" s="2"/>
-      <c r="W23" s="8"/>
+      <c r="W23" s="2"/>
       <c r="X23" s="8"/>
       <c r="Y23" s="8"/>
       <c r="Z23" s="8"/>
@@ -4211,8 +4209,9 @@
       <c r="AF23" s="8"/>
       <c r="AG23" s="8"/>
       <c r="AH23" s="8"/>
-    </row>
-    <row r="24" spans="2:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AI23" s="8"/>
+    </row>
+    <row r="24" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B24" s="72"/>
       <c r="C24" s="70"/>
       <c r="D24" s="15"/>
@@ -4226,42 +4225,41 @@
         <v>113</v>
       </c>
       <c r="L24" s="65">
-        <f>SUMIFS(C:C,I:I,K24,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M24" s="65">
-        <f>SUMIFS(C:C,I:I,K24,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N24" s="65">
-        <f>SUMIFS(C:C,I:I,K24,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O24" s="65">
-        <f>SUMIFS(C:C,I:I,K24,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P24" s="65">
-        <f>SUMIFS(C:C,I:I,K24,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q24" s="65">
-        <f>SUMIFS(C:C,I:I,K24,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R24" s="65">
-        <f>SUMIFS(C:C,I:I,K24,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S24" s="65">
-        <f>SUMIFS(C:C,I:I,K24,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U24" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="V24" s="2"/>
-      <c r="W24" s="8"/>
+      <c r="W24" s="2"/>
       <c r="X24" s="8"/>
       <c r="Y24" s="8"/>
       <c r="Z24" s="8"/>
@@ -4273,8 +4271,9 @@
       <c r="AF24" s="8"/>
       <c r="AG24" s="8"/>
       <c r="AH24" s="8"/>
-    </row>
-    <row r="25" spans="2:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AI24" s="8"/>
+    </row>
+    <row r="25" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B25" s="72"/>
       <c r="C25" s="70"/>
       <c r="D25" s="15"/>
@@ -4288,42 +4287,41 @@
         <v>141</v>
       </c>
       <c r="L25" s="65">
-        <f>SUMIFS(C:C,I:I,K25,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M25" s="65">
-        <f>SUMIFS(C:C,I:I,K25,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N25" s="65">
-        <f>SUMIFS(C:C,I:I,K25,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O25" s="65">
-        <f>SUMIFS(C:C,I:I,K25,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P25" s="65">
-        <f>SUMIFS(C:C,I:I,K25,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q25" s="65">
-        <f>SUMIFS(C:C,I:I,K25,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R25" s="65">
-        <f>SUMIFS(C:C,I:I,K25,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S25" s="65">
-        <f>SUMIFS(C:C,I:I,K25,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U25" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="V25" s="2"/>
-      <c r="W25" s="8"/>
+      <c r="W25" s="2"/>
       <c r="X25" s="8"/>
       <c r="Y25" s="8"/>
       <c r="Z25" s="8"/>
@@ -4335,8 +4333,9 @@
       <c r="AF25" s="8"/>
       <c r="AG25" s="8"/>
       <c r="AH25" s="8"/>
-    </row>
-    <row r="26" spans="2:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AI25" s="8"/>
+    </row>
+    <row r="26" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B26" s="72"/>
       <c r="C26" s="70"/>
       <c r="D26" s="15"/>
@@ -4350,43 +4349,43 @@
         <v>25</v>
       </c>
       <c r="L26" s="65">
-        <f>SUMIFS(C:C,I:I,K26,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M26" s="65">
-        <f>SUMIFS(C:C,I:I,K26,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N26" s="65">
-        <f>SUMIFS(C:C,I:I,K26,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O26" s="65">
-        <f>SUMIFS(C:C,I:I,K26,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P26" s="65">
-        <f>SUMIFS(C:C,I:I,K26,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q26" s="65">
-        <f>SUMIFS(C:C,I:I,K26,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R26" s="65">
-        <f>SUMIFS(C:C,I:I,K26,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S26" s="65">
-        <f>SUMIFS(C:C,I:I,K26,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U26" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="V26" s="2"/>
-    </row>
-    <row r="27" spans="2:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W26" s="2"/>
+    </row>
+    <row r="27" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B27" s="73"/>
       <c r="C27" s="70"/>
       <c r="D27" s="45"/>
@@ -4400,43 +4399,43 @@
         <v>26</v>
       </c>
       <c r="L27" s="65">
-        <f>SUMIFS(C:C,I:I,K27,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M27" s="65">
-        <f>SUMIFS(C:C,I:I,K27,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N27" s="65">
-        <f>SUMIFS(C:C,I:I,K27,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O27" s="65">
-        <f>SUMIFS(C:C,I:I,K27,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P27" s="65">
-        <f>SUMIFS(C:C,I:I,K27,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q27" s="65">
-        <f>SUMIFS(C:C,I:I,K27,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R27" s="65">
-        <f>SUMIFS(C:C,I:I,K27,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S27" s="65">
-        <f>SUMIFS(C:C,I:I,K27,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U27" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V27" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="V27" s="2"/>
-    </row>
-    <row r="28" spans="2:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W27" s="2"/>
+    </row>
+    <row r="28" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B28" s="73"/>
       <c r="C28" s="70"/>
       <c r="D28" s="45"/>
@@ -4450,43 +4449,43 @@
         <v>140</v>
       </c>
       <c r="L28" s="65">
-        <f>SUMIFS(C:C,I:I,K28,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M28" s="65">
-        <f>SUMIFS(C:C,I:I,K28,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N28" s="65">
-        <f>SUMIFS(C:C,I:I,K28,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O28" s="65">
-        <f>SUMIFS(C:C,I:I,K28,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P28" s="65">
-        <f>SUMIFS(C:C,I:I,K28,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q28" s="65">
-        <f>SUMIFS(C:C,I:I,K28,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R28" s="65">
-        <f>SUMIFS(C:C,I:I,K28,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S28" s="65">
-        <f>SUMIFS(C:C,I:I,K28,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U28" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V28" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="V28" s="2"/>
-    </row>
-    <row r="29" spans="2:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W28" s="2"/>
+    </row>
+    <row r="29" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B29" s="73"/>
       <c r="C29" s="70"/>
       <c r="D29" s="45"/>
@@ -4500,43 +4499,43 @@
         <v>60</v>
       </c>
       <c r="L29" s="65">
-        <f>SUMIFS(C:C,I:I,K29,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M29" s="65">
-        <f>SUMIFS(C:C,I:I,K29,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N29" s="65">
-        <f>SUMIFS(C:C,I:I,K29,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O29" s="65">
-        <f>SUMIFS(C:C,I:I,K29,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P29" s="65">
-        <f>SUMIFS(C:C,I:I,K29,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q29" s="65">
-        <f>SUMIFS(C:C,I:I,K29,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R29" s="65">
-        <f>SUMIFS(C:C,I:I,K29,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S29" s="65">
-        <f>SUMIFS(C:C,I:I,K29,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U29" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V29" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="V29" s="2"/>
-    </row>
-    <row r="30" spans="2:34" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W29" s="2"/>
+    </row>
+    <row r="30" spans="2:35" ht="21" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B30" s="73"/>
       <c r="C30" s="70"/>
       <c r="D30" s="45"/>
@@ -4550,43 +4549,43 @@
         <v>28</v>
       </c>
       <c r="L30" s="65">
-        <f>SUMIFS(C:C,I:I,K30,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M30" s="65">
-        <f>SUMIFS(C:C,I:I,K30,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N30" s="65">
-        <f>SUMIFS(C:C,I:I,K30,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O30" s="65">
-        <f>SUMIFS(C:C,I:I,K30,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P30" s="65">
-        <f>SUMIFS(C:C,I:I,K30,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q30" s="65">
-        <f>SUMIFS(C:C,I:I,K30,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R30" s="65">
-        <f>SUMIFS(C:C,I:I,K30,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S30" s="65">
-        <f>SUMIFS(C:C,I:I,K30,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U30" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V30" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="V30" s="2"/>
-    </row>
-    <row r="31" spans="2:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W30" s="2"/>
+    </row>
+    <row r="31" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B31" s="74"/>
       <c r="C31" s="70"/>
       <c r="D31" s="45"/>
@@ -4600,43 +4599,43 @@
         <v>129</v>
       </c>
       <c r="L31" s="65">
-        <f>SUMIFS(C:C,I:I,K31,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M31" s="65">
-        <f>SUMIFS(C:C,I:I,K31,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N31" s="65">
-        <f>SUMIFS(C:C,I:I,K31,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O31" s="65">
-        <f>SUMIFS(C:C,I:I,K31,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P31" s="65">
-        <f>SUMIFS(C:C,I:I,K31,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q31" s="65">
-        <f>SUMIFS(C:C,I:I,K31,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R31" s="65">
-        <f>SUMIFS(C:C,I:I,K31,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S31" s="65">
-        <f>SUMIFS(C:C,I:I,K31,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U31" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V31" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="V31" s="2"/>
-    </row>
-    <row r="32" spans="2:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W31" s="2"/>
+    </row>
+    <row r="32" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B32" s="74"/>
       <c r="C32" s="70"/>
       <c r="D32" s="45"/>
@@ -4650,43 +4649,43 @@
         <v>128</v>
       </c>
       <c r="L32" s="65">
-        <f>SUMIFS(C:C,I:I,K32,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M32" s="65">
-        <f>SUMIFS(C:C,I:I,K32,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N32" s="65">
-        <f>SUMIFS(C:C,I:I,K32,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O32" s="65">
-        <f>SUMIFS(C:C,I:I,K32,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P32" s="65">
-        <f>SUMIFS(C:C,I:I,K32,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q32" s="65">
-        <f>SUMIFS(C:C,I:I,K32,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R32" s="65">
-        <f>SUMIFS(C:C,I:I,K32,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S32" s="65">
-        <f>SUMIFS(C:C,I:I,K32,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U32" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V32" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="V32" s="2"/>
-    </row>
-    <row r="33" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W32" s="2"/>
+    </row>
+    <row r="33" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B33" s="74"/>
       <c r="C33" s="70"/>
       <c r="D33" s="45"/>
@@ -4700,44 +4699,45 @@
         <v>29</v>
       </c>
       <c r="L33" s="65">
-        <f>SUMIFS(C:C,I:I,K33,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M33" s="65">
-        <f>SUMIFS(C:C,I:I,K33,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N33" s="65">
-        <f>SUMIFS(C:C,I:I,K33,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O33" s="65">
-        <f>SUMIFS(C:C,I:I,K33,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P33" s="65">
-        <f>SUMIFS(C:C,I:I,K33,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q33" s="65">
-        <f>SUMIFS(C:C,I:I,K33,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R33" s="65">
-        <f>SUMIFS(C:C,I:I,K33,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S33" s="65">
-        <f>SUMIFS(C:C,I:I,K33,D:D,$S$4)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T33" s="18"/>
-      <c r="U33" s="26" t="s">
+      <c r="U33" s="18"/>
+      <c r="V33" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="V33" s="2"/>
-    </row>
-    <row r="34" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W33" s="2"/>
+    </row>
+    <row r="34" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B34" s="74"/>
       <c r="C34" s="70"/>
       <c r="D34" s="45"/>
@@ -4751,43 +4751,43 @@
         <v>30</v>
       </c>
       <c r="L34" s="65">
-        <f>SUMIFS(C:C,I:I,K34,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M34" s="65">
-        <f>SUMIFS(C:C,I:I,K34,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N34" s="65">
-        <f>SUMIFS(C:C,I:I,K34,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O34" s="65">
-        <f>SUMIFS(C:C,I:I,K34,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P34" s="65">
-        <f>SUMIFS(C:C,I:I,K34,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q34" s="65">
-        <f>SUMIFS(C:C,I:I,K34,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R34" s="65">
-        <f>SUMIFS(C:C,I:I,K34,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S34" s="65">
-        <f>SUMIFS(C:C,I:I,K34,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U34" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V34" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="V34" s="2"/>
-    </row>
-    <row r="35" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W34" s="2"/>
+    </row>
+    <row r="35" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B35" s="75"/>
       <c r="C35" s="70"/>
       <c r="D35" s="45"/>
@@ -4801,43 +4801,43 @@
         <v>31</v>
       </c>
       <c r="L35" s="65">
-        <f>SUMIFS(C:C,I:I,K35,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M35" s="65">
-        <f>SUMIFS(C:C,I:I,K35,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N35" s="65">
-        <f>SUMIFS(C:C,I:I,K35,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O35" s="65">
-        <f>SUMIFS(C:C,I:I,K35,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P35" s="65">
-        <f>SUMIFS(C:C,I:I,K35,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q35" s="65">
-        <f>SUMIFS(C:C,I:I,K35,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R35" s="65">
-        <f>SUMIFS(C:C,I:I,K35,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S35" s="65">
-        <f>SUMIFS(C:C,I:I,K35,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U35" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V35" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="V35" s="2"/>
-    </row>
-    <row r="36" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W35" s="2"/>
+    </row>
+    <row r="36" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B36" s="75"/>
       <c r="C36" s="70"/>
       <c r="D36" s="45"/>
@@ -4851,43 +4851,43 @@
         <v>32</v>
       </c>
       <c r="L36" s="65">
-        <f>SUMIFS(C:C,I:I,K36,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M36" s="65">
-        <f>SUMIFS(C:C,I:I,K36,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N36" s="65">
-        <f>SUMIFS(C:C,I:I,K36,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O36" s="65">
-        <f>SUMIFS(C:C,I:I,K36,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P36" s="65">
-        <f>SUMIFS(C:C,I:I,K36,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q36" s="65">
-        <f>SUMIFS(C:C,I:I,K36,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R36" s="65">
-        <f>SUMIFS(C:C,I:I,K36,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S36" s="65">
-        <f>SUMIFS(C:C,I:I,K36,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U36" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V36" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="V36" s="2"/>
-    </row>
-    <row r="37" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W36" s="2"/>
+    </row>
+    <row r="37" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B37" s="75"/>
       <c r="C37" s="70"/>
       <c r="D37" s="45"/>
@@ -4900,43 +4900,43 @@
         <v>33</v>
       </c>
       <c r="L37" s="65">
-        <f>SUMIFS(C:C,I:I,K37,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M37" s="65">
-        <f>SUMIFS(C:C,I:I,K37,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N37" s="65">
-        <f>SUMIFS(C:C,I:I,K37,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O37" s="65">
-        <f>SUMIFS(C:C,I:I,K37,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P37" s="65">
-        <f>SUMIFS(C:C,I:I,K37,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q37" s="65">
-        <f>SUMIFS(C:C,I:I,K37,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R37" s="65">
-        <f>SUMIFS(C:C,I:I,K37,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S37" s="65">
-        <f>SUMIFS(C:C,I:I,K37,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U37" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V37" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="V37" s="2"/>
-    </row>
-    <row r="38" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W37" s="2"/>
+    </row>
+    <row r="38" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B38" s="75"/>
       <c r="C38" s="70"/>
       <c r="D38" s="45"/>
@@ -4949,43 +4949,43 @@
         <v>101</v>
       </c>
       <c r="L38" s="65">
-        <f>SUMIFS(C:C,I:I,K38,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M38" s="65">
-        <f>SUMIFS(C:C,I:I,K38,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N38" s="65">
-        <f>SUMIFS(C:C,I:I,K38,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O38" s="65">
-        <f>SUMIFS(C:C,I:I,K38,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P38" s="65">
-        <f>SUMIFS(C:C,I:I,K38,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q38" s="65">
-        <f>SUMIFS(C:C,I:I,K38,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R38" s="65">
-        <f>SUMIFS(C:C,I:I,K38,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S38" s="65">
-        <f>SUMIFS(C:C,I:I,K38,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U38" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V38" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="V38" s="2"/>
-    </row>
-    <row r="39" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W38" s="2"/>
+    </row>
+    <row r="39" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B39" s="76"/>
       <c r="C39" s="70"/>
       <c r="D39" s="45"/>
@@ -4998,43 +4998,43 @@
         <v>34</v>
       </c>
       <c r="L39" s="65">
-        <f>SUMIFS(C:C,I:I,K39,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M39" s="65">
-        <f>SUMIFS(C:C,I:I,K39,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N39" s="65">
-        <f>SUMIFS(C:C,I:I,K39,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O39" s="65">
-        <f>SUMIFS(C:C,I:I,K39,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P39" s="65">
-        <f>SUMIFS(C:C,I:I,K39,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q39" s="65">
-        <f>SUMIFS(C:C,I:I,K39,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R39" s="65">
-        <f>SUMIFS(C:C,I:I,K39,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S39" s="65">
-        <f>SUMIFS(C:C,I:I,K39,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U39" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V39" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="V39" s="2"/>
-    </row>
-    <row r="40" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W39" s="2"/>
+    </row>
+    <row r="40" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B40" s="76"/>
       <c r="C40" s="70"/>
       <c r="D40" s="45"/>
@@ -5047,43 +5047,43 @@
         <v>35</v>
       </c>
       <c r="L40" s="65">
-        <f>SUMIFS(C:C,I:I,K40,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M40" s="65">
-        <f>SUMIFS(C:C,I:I,K40,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N40" s="65">
-        <f>SUMIFS(C:C,I:I,K40,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O40" s="65">
-        <f>SUMIFS(C:C,I:I,K40,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P40" s="65">
-        <f>SUMIFS(C:C,I:I,K40,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q40" s="65">
-        <f>SUMIFS(C:C,I:I,K40,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R40" s="65">
-        <f>SUMIFS(C:C,I:I,K40,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S40" s="65">
-        <f>SUMIFS(C:C,I:I,K40,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U40" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V40" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="V40" s="2"/>
-    </row>
-    <row r="41" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W40" s="2"/>
+    </row>
+    <row r="41" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B41" s="76"/>
       <c r="C41" s="70"/>
       <c r="D41" s="45"/>
@@ -5096,43 +5096,43 @@
         <v>105</v>
       </c>
       <c r="L41" s="65">
-        <f>SUMIFS(C:C,I:I,K41,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M41" s="65">
-        <f>SUMIFS(C:C,I:I,K41,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N41" s="65">
-        <f>SUMIFS(C:C,I:I,K41,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O41" s="65">
-        <f>SUMIFS(C:C,I:I,K41,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P41" s="65">
-        <f>SUMIFS(C:C,I:I,K41,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q41" s="65">
-        <f>SUMIFS(C:C,I:I,K41,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R41" s="65">
-        <f>SUMIFS(C:C,I:I,K41,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S41" s="65">
-        <f>SUMIFS(C:C,I:I,K41,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U41" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V41" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="V41" s="2"/>
-    </row>
-    <row r="42" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B42" s="76"/>
       <c r="C42" s="70"/>
       <c r="D42" s="45"/>
@@ -5145,43 +5145,43 @@
         <v>38</v>
       </c>
       <c r="L42" s="65">
-        <f>SUMIFS(C:C,I:I,K42,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M42" s="65">
-        <f>SUMIFS(C:C,I:I,K42,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N42" s="65">
-        <f>SUMIFS(C:C,I:I,K42,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O42" s="65">
-        <f>SUMIFS(C:C,I:I,K42,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P42" s="65">
-        <f>SUMIFS(C:C,I:I,K42,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q42" s="65">
-        <f>SUMIFS(C:C,I:I,K42,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R42" s="65">
-        <f>SUMIFS(C:C,I:I,K42,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S42" s="65">
-        <f>SUMIFS(C:C,I:I,K42,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U42" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V42" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="V42" s="2"/>
-    </row>
-    <row r="43" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B43" s="77"/>
       <c r="C43" s="70"/>
       <c r="D43" s="45"/>
@@ -5194,44 +5194,44 @@
         <v>39</v>
       </c>
       <c r="L43" s="65">
-        <f>SUMIFS(C:C,I:I,K43,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M43" s="65">
-        <f>SUMIFS(C:C,I:I,K43,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N43" s="65">
-        <f>SUMIFS(C:C,I:I,K43,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O43" s="65">
-        <f>SUMIFS(C:C,I:I,K43,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P43" s="65">
-        <f>SUMIFS(C:C,I:I,K43,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q43" s="65">
-        <f>SUMIFS(C:C,I:I,K43,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R43" s="65">
-        <f>SUMIFS(C:C,I:I,K43,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S43" s="65">
-        <f>SUMIFS(C:C,I:I,K43,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U43" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V43" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="V43" s="2"/>
-      <c r="W43" s="18"/>
-    </row>
-    <row r="44" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W43" s="2"/>
+      <c r="X43" s="18"/>
+    </row>
+    <row r="44" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B44" s="77"/>
       <c r="C44" s="70"/>
       <c r="D44" s="45"/>
@@ -5244,43 +5244,43 @@
         <v>40</v>
       </c>
       <c r="L44" s="65">
-        <f>SUMIFS(C:C,I:I,K44,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M44" s="65">
-        <f>SUMIFS(C:C,I:I,K44,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N44" s="65">
-        <f>SUMIFS(C:C,I:I,K44,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O44" s="65">
-        <f>SUMIFS(C:C,I:I,K44,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P44" s="65">
-        <f>SUMIFS(C:C,I:I,K44,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q44" s="65">
-        <f>SUMIFS(C:C,I:I,K44,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R44" s="65">
-        <f>SUMIFS(C:C,I:I,K44,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S44" s="65">
-        <f>SUMIFS(C:C,I:I,K44,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U44" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V44" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="V44" s="2"/>
-    </row>
-    <row r="45" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W44" s="2"/>
+    </row>
+    <row r="45" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B45" s="77"/>
       <c r="C45" s="70"/>
       <c r="D45" s="45"/>
@@ -5293,43 +5293,43 @@
         <v>61</v>
       </c>
       <c r="L45" s="65">
-        <f>SUMIFS(C:C,I:I,K45,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M45" s="65">
-        <f>SUMIFS(C:C,I:I,K45,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N45" s="65">
-        <f>SUMIFS(C:C,I:I,K45,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O45" s="65">
-        <f>SUMIFS(C:C,I:I,K45,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P45" s="65">
-        <f>SUMIFS(C:C,I:I,K45,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q45" s="65">
-        <f>SUMIFS(C:C,I:I,K45,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R45" s="65">
-        <f>SUMIFS(C:C,I:I,K45,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S45" s="65">
-        <f>SUMIFS(C:C,I:I,K45,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U45" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V45" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="V45" s="2"/>
-    </row>
-    <row r="46" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W45" s="2"/>
+    </row>
+    <row r="46" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B46" s="78"/>
       <c r="C46" s="70"/>
       <c r="D46" s="45"/>
@@ -5342,43 +5342,43 @@
         <v>41</v>
       </c>
       <c r="L46" s="65">
-        <f>SUMIFS(C:C,I:I,K46,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M46" s="65">
-        <f>SUMIFS(C:C,I:I,K46,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N46" s="65">
-        <f>SUMIFS(C:C,I:I,K46,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O46" s="65">
-        <f>SUMIFS(C:C,I:I,K46,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P46" s="65">
-        <f>SUMIFS(C:C,I:I,K46,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q46" s="65">
-        <f>SUMIFS(C:C,I:I,K46,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R46" s="65">
-        <f>SUMIFS(C:C,I:I,K46,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S46" s="65">
-        <f>SUMIFS(C:C,I:I,K46,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U46" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V46" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="V46" s="2"/>
-    </row>
-    <row r="47" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W46" s="2"/>
+    </row>
+    <row r="47" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B47" s="77"/>
       <c r="C47" s="70"/>
       <c r="D47" s="45"/>
@@ -5391,43 +5391,43 @@
         <v>62</v>
       </c>
       <c r="L47" s="65">
-        <f>SUMIFS(C:C,I:I,K47,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M47" s="65">
-        <f>SUMIFS(C:C,I:I,K47,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N47" s="65">
-        <f>SUMIFS(C:C,I:I,K47,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O47" s="65">
-        <f>SUMIFS(C:C,I:I,K47,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P47" s="65">
-        <f>SUMIFS(C:C,I:I,K47,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q47" s="65">
-        <f>SUMIFS(C:C,I:I,K47,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R47" s="65">
-        <f>SUMIFS(C:C,I:I,K47,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S47" s="65">
-        <f>SUMIFS(C:C,I:I,K47,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U47" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V47" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="V47" s="2"/>
-    </row>
-    <row r="48" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W47" s="2"/>
+    </row>
+    <row r="48" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B48" s="77"/>
       <c r="C48" s="70"/>
       <c r="D48" s="45"/>
@@ -5440,43 +5440,43 @@
         <v>63</v>
       </c>
       <c r="L48" s="65">
-        <f>SUMIFS(C:C,I:I,K48,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M48" s="65">
-        <f>SUMIFS(C:C,I:I,K48,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N48" s="65">
-        <f>SUMIFS(C:C,I:I,K48,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O48" s="65">
-        <f>SUMIFS(C:C,I:I,K48,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P48" s="65">
-        <f>SUMIFS(C:C,I:I,K48,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q48" s="65">
-        <f>SUMIFS(C:C,I:I,K48,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R48" s="65">
-        <f>SUMIFS(C:C,I:I,K48,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S48" s="65">
-        <f>SUMIFS(C:C,I:I,K48,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U48" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V48" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="V48" s="2"/>
-    </row>
-    <row r="49" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W48" s="2"/>
+    </row>
+    <row r="49" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B49" s="77"/>
       <c r="C49" s="70"/>
       <c r="D49" s="45"/>
@@ -5489,43 +5489,43 @@
         <v>42</v>
       </c>
       <c r="L49" s="65">
-        <f>SUMIFS(C:C,I:I,K49,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M49" s="65">
-        <f>SUMIFS(C:C,I:I,K49,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N49" s="65">
-        <f>SUMIFS(C:C,I:I,K49,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O49" s="65">
-        <f>SUMIFS(C:C,I:I,K49,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P49" s="65">
-        <f>SUMIFS(C:C,I:I,K49,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q49" s="65">
-        <f>SUMIFS(C:C,I:I,K49,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R49" s="65">
-        <f>SUMIFS(C:C,I:I,K49,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S49" s="65">
-        <f>SUMIFS(C:C,I:I,K49,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U49" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V49" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="V49" s="2"/>
-    </row>
-    <row r="50" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W49" s="2"/>
+    </row>
+    <row r="50" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B50" s="77"/>
       <c r="C50" s="70"/>
       <c r="D50" s="45"/>
@@ -5538,43 +5538,43 @@
         <v>43</v>
       </c>
       <c r="L50" s="65">
-        <f>SUMIFS(C:C,I:I,K50,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M50" s="65">
-        <f>SUMIFS(C:C,I:I,K50,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N50" s="65">
-        <f>SUMIFS(C:C,I:I,K50,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O50" s="65">
-        <f>SUMIFS(C:C,I:I,K50,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P50" s="65">
-        <f>SUMIFS(C:C,I:I,K50,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q50" s="65">
-        <f>SUMIFS(C:C,I:I,K50,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R50" s="65">
-        <f>SUMIFS(C:C,I:I,K50,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S50" s="65">
-        <f>SUMIFS(C:C,I:I,K50,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U50" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V50" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="V50" s="2"/>
-    </row>
-    <row r="51" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W50" s="2"/>
+    </row>
+    <row r="51" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B51" s="77"/>
       <c r="C51" s="70"/>
       <c r="D51" s="45"/>
@@ -5587,43 +5587,43 @@
         <v>44</v>
       </c>
       <c r="L51" s="65">
-        <f>SUMIFS(C:C,I:I,K51,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M51" s="65">
-        <f>SUMIFS(C:C,I:I,K51,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N51" s="65">
-        <f>SUMIFS(C:C,I:I,K51,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O51" s="65">
-        <f>SUMIFS(C:C,I:I,K51,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P51" s="65">
-        <f>SUMIFS(C:C,I:I,K51,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q51" s="65">
-        <f>SUMIFS(C:C,I:I,K51,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R51" s="65">
-        <f>SUMIFS(C:C,I:I,K51,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S51" s="65">
-        <f>SUMIFS(C:C,I:I,K51,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U51" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V51" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="V51" s="2"/>
-    </row>
-    <row r="52" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W51" s="2"/>
+    </row>
+    <row r="52" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B52" s="77"/>
       <c r="C52" s="70"/>
       <c r="D52" s="45"/>
@@ -5636,43 +5636,43 @@
         <v>45</v>
       </c>
       <c r="L52" s="65">
-        <f>SUMIFS(C:C,I:I,K52,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M52" s="65">
-        <f>SUMIFS(C:C,I:I,K52,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N52" s="65">
-        <f>SUMIFS(C:C,I:I,K52,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O52" s="65">
-        <f>SUMIFS(C:C,I:I,K52,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P52" s="65">
-        <f>SUMIFS(C:C,I:I,K52,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q52" s="65">
-        <f>SUMIFS(C:C,I:I,K52,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R52" s="65">
-        <f>SUMIFS(C:C,I:I,K52,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S52" s="65">
-        <f>SUMIFS(C:C,I:I,K52,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U52" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V52" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="V52" s="2"/>
-    </row>
-    <row r="53" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W52" s="2"/>
+    </row>
+    <row r="53" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B53" s="77"/>
       <c r="C53" s="70"/>
       <c r="D53" s="45"/>
@@ -5685,43 +5685,43 @@
         <v>130</v>
       </c>
       <c r="L53" s="65">
-        <f>SUMIFS(C:C,I:I,K53,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M53" s="65">
-        <f>SUMIFS(C:C,I:I,K53,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N53" s="65">
-        <f>SUMIFS(C:C,I:I,K53,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O53" s="65">
-        <f>SUMIFS(C:C,I:I,K53,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P53" s="65">
-        <f>SUMIFS(C:C,I:I,K53,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q53" s="65">
-        <f>SUMIFS(C:C,I:I,K53,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R53" s="65">
-        <f>SUMIFS(C:C,I:I,K53,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S53" s="65">
-        <f>SUMIFS(C:C,I:I,K53,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U53" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V53" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="V53" s="2"/>
-    </row>
-    <row r="54" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W53" s="2"/>
+    </row>
+    <row r="54" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B54" s="77"/>
       <c r="C54" s="70"/>
       <c r="D54" s="45"/>
@@ -5734,43 +5734,43 @@
         <v>46</v>
       </c>
       <c r="L54" s="65">
-        <f>SUMIFS(C:C,I:I,K54,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M54" s="65">
-        <f>SUMIFS(C:C,I:I,K54,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N54" s="65">
-        <f>SUMIFS(C:C,I:I,K54,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O54" s="65">
-        <f>SUMIFS(C:C,I:I,K54,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P54" s="65">
-        <f>SUMIFS(C:C,I:I,K54,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q54" s="65">
-        <f>SUMIFS(C:C,I:I,K54,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R54" s="65">
-        <f>SUMIFS(C:C,I:I,K54,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S54" s="65">
-        <f>SUMIFS(C:C,I:I,K54,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U54" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V54" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="V54" s="2"/>
-    </row>
-    <row r="55" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W54" s="2"/>
+    </row>
+    <row r="55" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B55" s="78"/>
       <c r="C55" s="70"/>
       <c r="D55" s="45"/>
@@ -5783,43 +5783,43 @@
         <v>47</v>
       </c>
       <c r="L55" s="65">
-        <f>SUMIFS(C:C,I:I,K55,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M55" s="65">
-        <f>SUMIFS(C:C,I:I,K55,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N55" s="65">
-        <f>SUMIFS(C:C,I:I,K55,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O55" s="65">
-        <f>SUMIFS(C:C,I:I,K55,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P55" s="65">
-        <f>SUMIFS(C:C,I:I,K55,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q55" s="65">
-        <f>SUMIFS(C:C,I:I,K55,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R55" s="65">
-        <f>SUMIFS(C:C,I:I,K55,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S55" s="65">
-        <f>SUMIFS(C:C,I:I,K55,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U55" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V55" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="V55" s="2"/>
-    </row>
-    <row r="56" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W55" s="2"/>
+    </row>
+    <row r="56" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B56" s="77"/>
       <c r="C56" s="70"/>
       <c r="D56" s="33"/>
@@ -5832,43 +5832,43 @@
         <v>48</v>
       </c>
       <c r="L56" s="65">
-        <f>SUMIFS(C:C,I:I,K56,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M56" s="65">
-        <f>SUMIFS(C:C,I:I,K56,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N56" s="65">
-        <f>SUMIFS(C:C,I:I,K56,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O56" s="65">
-        <f>SUMIFS(C:C,I:I,K56,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P56" s="65">
-        <f>SUMIFS(C:C,I:I,K56,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q56" s="65">
-        <f>SUMIFS(C:C,I:I,K56,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R56" s="65">
-        <f>SUMIFS(C:C,I:I,K56,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S56" s="65">
-        <f>SUMIFS(C:C,I:I,K56,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U56" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V56" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="V56" s="2"/>
-    </row>
-    <row r="57" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W56" s="2"/>
+    </row>
+    <row r="57" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B57" s="77"/>
       <c r="C57" s="70"/>
       <c r="D57" s="33"/>
@@ -5881,43 +5881,43 @@
         <v>13</v>
       </c>
       <c r="L57" s="65">
-        <f>SUMIFS(C:C,I:I,K57,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M57" s="65">
-        <f>SUMIFS(C:C,I:I,K57,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N57" s="65">
-        <f>SUMIFS(C:C,I:I,K57,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O57" s="65">
-        <f>SUMIFS(C:C,I:I,K57,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P57" s="65">
-        <f>SUMIFS(C:C,I:I,K57,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q57" s="65">
-        <f>SUMIFS(C:C,I:I,K57,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R57" s="65">
-        <f>SUMIFS(C:C,I:I,K57,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S57" s="65">
-        <f>SUMIFS(C:C,I:I,K57,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U57" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V57" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="V57" s="2"/>
-    </row>
-    <row r="58" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W57" s="2"/>
+    </row>
+    <row r="58" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B58" s="78"/>
       <c r="C58" s="70"/>
       <c r="D58" s="33"/>
@@ -5930,43 +5930,43 @@
         <v>64</v>
       </c>
       <c r="L58" s="65">
-        <f>SUMIFS(C:C,I:I,K58,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M58" s="65">
-        <f>SUMIFS(C:C,I:I,K58,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N58" s="65">
-        <f>SUMIFS(C:C,I:I,K58,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O58" s="65">
-        <f>SUMIFS(C:C,I:I,K58,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P58" s="65">
-        <f>SUMIFS(C:C,I:I,K58,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q58" s="65">
-        <f>SUMIFS(C:C,I:I,K58,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R58" s="65">
-        <f>SUMIFS(C:C,I:I,K58,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S58" s="65">
-        <f>SUMIFS(C:C,I:I,K58,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U58" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V58" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="V58" s="2"/>
-    </row>
-    <row r="59" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W58" s="2"/>
+    </row>
+    <row r="59" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B59" s="78"/>
       <c r="C59" s="70"/>
       <c r="D59" s="33"/>
@@ -5980,43 +5980,43 @@
         <v>15</v>
       </c>
       <c r="L59" s="65">
-        <f>SUMIFS(C:C,I:I,K59,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M59" s="65">
-        <f>SUMIFS(C:C,I:I,K59,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N59" s="65">
-        <f>SUMIFS(C:C,I:I,K59,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O59" s="65">
-        <f>SUMIFS(C:C,I:I,K59,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P59" s="65">
-        <f>SUMIFS(C:C,I:I,K59,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q59" s="65">
-        <f>SUMIFS(C:C,I:I,K59,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R59" s="65">
-        <f>SUMIFS(C:C,I:I,K59,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S59" s="65">
-        <f>SUMIFS(C:C,I:I,K59,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U59" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V59" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="V59" s="2"/>
-    </row>
-    <row r="60" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W59" s="2"/>
+    </row>
+    <row r="60" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B60" s="78"/>
       <c r="C60" s="70"/>
       <c r="D60" s="33"/>
@@ -6029,41 +6029,41 @@
         <v>154</v>
       </c>
       <c r="L60" s="65">
-        <f>SUMIFS(C:C,I:I,K60,D:D,$L$4)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M60" s="65">
-        <f>SUMIFS(C:C,I:I,K60,D:D,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N60" s="65">
-        <f>SUMIFS(C:C,I:I,K60,D:D,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O60" s="65">
-        <f>SUMIFS(C:C,I:I,K60,D:D,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P60" s="65">
-        <f>SUMIFS(C:C,I:I,K60,D:D,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q60" s="65">
-        <f>SUMIFS(C:C,I:I,K60,D:D,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R60" s="65">
-        <f>SUMIFS(C:C,I:I,K60,D:D,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S60" s="65">
-        <f>SUMIFS(C:C,I:I,K60,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U60" s="26"/>
-      <c r="V60" s="2"/>
-    </row>
-    <row r="61" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V60" s="26"/>
+      <c r="W60" s="2"/>
+    </row>
+    <row r="61" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B61" s="78"/>
       <c r="C61" s="70"/>
       <c r="D61" s="33"/>
@@ -6076,41 +6076,41 @@
         <v>134</v>
       </c>
       <c r="L61" s="57" t="str">
-        <f t="shared" ref="L61:S61" si="2">L4</f>
+        <f t="shared" ref="L61:S61" si="18">L4</f>
         <v>دولار</v>
       </c>
       <c r="M61" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N61" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O61" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P61" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q61" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R61" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="S61" s="57">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U61" s="26"/>
-      <c r="V61" s="2"/>
-    </row>
-    <row r="62" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V61" s="26"/>
+      <c r="W61" s="2"/>
+    </row>
+    <row r="62" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B62" s="78"/>
       <c r="C62" s="70"/>
       <c r="D62" s="33"/>
@@ -6123,43 +6123,43 @@
         <v>21</v>
       </c>
       <c r="L62" s="65">
-        <f>SUMIFS(C:C,I:I,K62,D:D,$L$4)</f>
+        <f t="shared" ref="L62:L68" si="19">SUMIFS(C:C,I:I,K62,D:D,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M62" s="65">
-        <f>SUMIFS(C:C,I:I,K62,D:D,$M$4)</f>
+        <f t="shared" ref="M62:M68" si="20">SUMIFS(C:C,I:I,K62,D:D,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N62" s="65">
-        <f>SUMIFS(C:C,I:I,K62,D:D,$N$4)</f>
+        <f t="shared" ref="N62:N68" si="21">SUMIFS(C:C,I:I,K62,D:D,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O62" s="65">
-        <f>SUMIFS(C:C,I:I,K62,D:D,$O$4)</f>
+        <f t="shared" ref="O62:O68" si="22">SUMIFS(C:C,I:I,K62,D:D,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P62" s="65">
-        <f>SUMIFS(C:C,I:I,K62,D:D,$P$4)</f>
+        <f t="shared" ref="P62:P68" si="23">SUMIFS(C:C,I:I,K62,D:D,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q62" s="65">
-        <f>SUMIFS(C:C,I:I,K62,D:D,$Q$4)</f>
+        <f t="shared" ref="Q62:Q68" si="24">SUMIFS(C:C,I:I,K62,D:D,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R62" s="65">
-        <f>SUMIFS(C:C,I:I,K62,D:D,$R$4)</f>
+        <f t="shared" ref="R62:R68" si="25">SUMIFS(C:C,I:I,K62,D:D,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S62" s="65">
-        <f>SUMIFS(C:C,I:I,K62,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U62" s="26" t="s">
+        <f t="shared" ref="S62:S68" si="26">SUMIFS(C:C,I:I,K62,D:D,$S$4)</f>
+        <v>0</v>
+      </c>
+      <c r="V62" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="V62" s="2"/>
-    </row>
-    <row r="63" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W62" s="2"/>
+    </row>
+    <row r="63" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B63" s="78"/>
       <c r="C63" s="70"/>
       <c r="D63" s="33"/>
@@ -6172,43 +6172,43 @@
         <v>37</v>
       </c>
       <c r="L63" s="65">
-        <f>SUMIFS(C:C,I:I,K63,D:D,$L$4)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M63" s="65">
-        <f>SUMIFS(C:C,I:I,K63,D:D,$M$4)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N63" s="65">
-        <f>SUMIFS(C:C,I:I,K63,D:D,$N$4)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O63" s="65">
-        <f>SUMIFS(C:C,I:I,K63,D:D,$O$4)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P63" s="65">
-        <f>SUMIFS(C:C,I:I,K63,D:D,$P$4)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q63" s="65">
-        <f>SUMIFS(C:C,I:I,K63,D:D,$Q$4)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R63" s="65">
-        <f>SUMIFS(C:C,I:I,K63,D:D,$R$4)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S63" s="65">
-        <f>SUMIFS(C:C,I:I,K63,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U63" s="26" t="s">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="V63" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="V63" s="2"/>
-    </row>
-    <row r="64" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W63" s="2"/>
+    </row>
+    <row r="64" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B64" s="78"/>
       <c r="C64" s="70"/>
       <c r="D64" s="33"/>
@@ -6221,43 +6221,43 @@
         <v>20</v>
       </c>
       <c r="L64" s="65">
-        <f>SUMIFS(C:C,I:I,K64,D:D,$L$4)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M64" s="65">
-        <f>SUMIFS(C:C,I:I,K64,D:D,$M$4)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N64" s="65">
-        <f>SUMIFS(C:C,I:I,K64,D:D,$N$4)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O64" s="65">
-        <f>SUMIFS(C:C,I:I,K64,D:D,$O$4)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P64" s="65">
-        <f>SUMIFS(C:C,I:I,K64,D:D,$P$4)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q64" s="65">
-        <f>SUMIFS(C:C,I:I,K64,D:D,$Q$4)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R64" s="65">
-        <f>SUMIFS(C:C,I:I,K64,D:D,$R$4)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S64" s="65">
-        <f>SUMIFS(C:C,I:I,K64,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U64" s="26" t="s">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="V64" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="V64" s="2"/>
-    </row>
-    <row r="65" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W64" s="2"/>
+    </row>
+    <row r="65" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B65" s="78"/>
       <c r="C65" s="70"/>
       <c r="D65" s="33"/>
@@ -6270,43 +6270,43 @@
         <v>22</v>
       </c>
       <c r="L65" s="65">
-        <f>SUMIFS(C:C,I:I,K65,D:D,$L$4)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M65" s="65">
-        <f>SUMIFS(C:C,I:I,K65,D:D,$M$4)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N65" s="65">
-        <f>SUMIFS(C:C,I:I,K65,D:D,$N$4)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O65" s="65">
-        <f>SUMIFS(C:C,I:I,K65,D:D,$O$4)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P65" s="65">
-        <f>SUMIFS(C:C,I:I,K65,D:D,$P$4)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q65" s="65">
-        <f>SUMIFS(C:C,I:I,K65,D:D,$Q$4)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R65" s="65">
-        <f>SUMIFS(C:C,I:I,K65,D:D,$R$4)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S65" s="65">
-        <f>SUMIFS(C:C,I:I,K65,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U65" s="26" t="s">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="V65" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="V65" s="2"/>
-    </row>
-    <row r="66" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W65" s="2"/>
+    </row>
+    <row r="66" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B66" s="78"/>
       <c r="C66" s="70"/>
       <c r="D66" s="33"/>
@@ -6319,43 +6319,43 @@
         <v>27</v>
       </c>
       <c r="L66" s="65">
-        <f>SUMIFS(C:C,I:I,K66,D:D,$L$4)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M66" s="65">
-        <f>SUMIFS(C:C,I:I,K66,D:D,$M$4)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N66" s="65">
-        <f>SUMIFS(C:C,I:I,K66,D:D,$N$4)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O66" s="65">
-        <f>SUMIFS(C:C,I:I,K66,D:D,$O$4)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P66" s="65">
-        <f>SUMIFS(C:C,I:I,K66,D:D,$P$4)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q66" s="65">
-        <f>SUMIFS(C:C,I:I,K66,D:D,$Q$4)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R66" s="65">
-        <f>SUMIFS(C:C,I:I,K66,D:D,$R$4)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S66" s="65">
-        <f>SUMIFS(C:C,I:I,K66,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U66" s="26" t="s">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="V66" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="V66" s="2"/>
-    </row>
-    <row r="67" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W66" s="2"/>
+    </row>
+    <row r="67" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B67" s="78"/>
       <c r="C67" s="70"/>
       <c r="D67" s="33"/>
@@ -6368,43 +6368,43 @@
         <v>131</v>
       </c>
       <c r="L67" s="65">
-        <f>SUMIFS(C:C,I:I,K67,D:D,$L$4)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M67" s="65">
-        <f>SUMIFS(C:C,I:I,K67,D:D,$M$4)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N67" s="65">
-        <f>SUMIFS(C:C,I:I,K67,D:D,$N$4)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O67" s="65">
-        <f>SUMIFS(C:C,I:I,K67,D:D,$O$4)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P67" s="65">
-        <f>SUMIFS(C:C,I:I,K67,D:D,$P$4)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q67" s="65">
-        <f>SUMIFS(C:C,I:I,K67,D:D,$Q$4)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R67" s="65">
-        <f>SUMIFS(C:C,I:I,K67,D:D,$R$4)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S67" s="65">
-        <f>SUMIFS(C:C,I:I,K67,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U67" s="26" t="s">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="V67" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="V67" s="2"/>
-    </row>
-    <row r="68" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W67" s="2"/>
+    </row>
+    <row r="68" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B68" s="78"/>
       <c r="C68" s="70"/>
       <c r="D68" s="33"/>
@@ -6417,43 +6417,43 @@
         <v>50</v>
       </c>
       <c r="L68" s="65">
-        <f>SUMIFS(C:C,I:I,K68,D:D,$L$4)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M68" s="65">
-        <f>SUMIFS(C:C,I:I,K68,D:D,$M$4)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N68" s="65">
-        <f>SUMIFS(C:C,I:I,K68,D:D,$N$4)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O68" s="65">
-        <f>SUMIFS(C:C,I:I,K68,D:D,$O$4)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P68" s="65">
-        <f>SUMIFS(C:C,I:I,K68,D:D,$P$4)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q68" s="65">
-        <f>SUMIFS(C:C,I:I,K68,D:D,$Q$4)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R68" s="65">
-        <f>SUMIFS(C:C,I:I,K68,D:D,$R$4)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S68" s="65">
-        <f>SUMIFS(C:C,I:I,K68,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U68" s="26" t="s">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="V68" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="V68" s="2"/>
-    </row>
-    <row r="69" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W68" s="2"/>
+    </row>
+    <row r="69" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B69" s="78"/>
       <c r="C69" s="70"/>
       <c r="D69" s="33"/>
@@ -6466,41 +6466,41 @@
         <v>135</v>
       </c>
       <c r="L69" s="57" t="str">
-        <f t="shared" ref="L69:S69" si="3">L4</f>
+        <f t="shared" ref="L69:S69" si="27">L4</f>
         <v>دولار</v>
       </c>
       <c r="M69" s="57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N69" s="57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="O69" s="57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P69" s="57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q69" s="57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="R69" s="57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S69" s="57">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U69" s="26"/>
-      <c r="V69" s="2"/>
-    </row>
-    <row r="70" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="V69" s="26"/>
+      <c r="W69" s="2"/>
+    </row>
+    <row r="70" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B70" s="78"/>
       <c r="C70" s="70"/>
       <c r="D70" s="33"/>
@@ -6513,43 +6513,43 @@
         <v>36</v>
       </c>
       <c r="L70" s="65">
-        <f>SUMIFS(C:C,I:I,K70,D:D,$L$4)</f>
+        <f t="shared" ref="L70:L79" si="28">SUMIFS(C:C,I:I,K70,D:D,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M70" s="65">
-        <f>SUMIFS(C:C,I:I,K70,D:D,$M$4)</f>
+        <f t="shared" ref="M70:M79" si="29">SUMIFS(C:C,I:I,K70,D:D,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N70" s="65">
-        <f>SUMIFS(C:C,I:I,K70,D:D,$N$4)</f>
+        <f t="shared" ref="N70:N79" si="30">SUMIFS(C:C,I:I,K70,D:D,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O70" s="65">
-        <f>SUMIFS(C:C,I:I,K70,D:D,$O$4)</f>
+        <f t="shared" ref="O70:O79" si="31">SUMIFS(C:C,I:I,K70,D:D,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P70" s="65">
-        <f>SUMIFS(C:C,I:I,K70,D:D,$P$4)</f>
+        <f t="shared" ref="P70:P79" si="32">SUMIFS(C:C,I:I,K70,D:D,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q70" s="65">
-        <f>SUMIFS(C:C,I:I,K70,D:D,$Q$4)</f>
+        <f t="shared" ref="Q70:Q79" si="33">SUMIFS(C:C,I:I,K70,D:D,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R70" s="65">
-        <f>SUMIFS(C:C,I:I,K70,D:D,$R$4)</f>
+        <f t="shared" ref="R70:R79" si="34">SUMIFS(C:C,I:I,K70,D:D,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S70" s="65">
-        <f>SUMIFS(C:C,I:I,K70,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U70" s="26" t="s">
+        <f t="shared" ref="S70:S79" si="35">SUMIFS(C:C,I:I,K70,D:D,$S$4)</f>
+        <v>0</v>
+      </c>
+      <c r="V70" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="V70" s="2"/>
-    </row>
-    <row r="71" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W70" s="2"/>
+    </row>
+    <row r="71" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B71" s="78"/>
       <c r="C71" s="70"/>
       <c r="D71" s="33"/>
@@ -6560,41 +6560,41 @@
       <c r="I71" s="13"/>
       <c r="K71" s="11"/>
       <c r="L71" s="65">
-        <f>SUMIFS(C:C,I:I,K71,D:D,$L$4)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M71" s="65">
-        <f>SUMIFS(C:C,I:I,K71,D:D,$M$4)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N71" s="65">
-        <f>SUMIFS(C:C,I:I,K71,D:D,$N$4)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O71" s="65">
-        <f>SUMIFS(C:C,I:I,K71,D:D,$O$4)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="P71" s="65">
-        <f>SUMIFS(C:C,I:I,K71,D:D,$P$4)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q71" s="65">
-        <f>SUMIFS(C:C,I:I,K71,D:D,$Q$4)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R71" s="65">
-        <f>SUMIFS(C:C,I:I,K71,D:D,$R$4)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="S71" s="65">
-        <f>SUMIFS(C:C,I:I,K71,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U71" s="26"/>
-      <c r="V71" s="2"/>
-    </row>
-    <row r="72" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="V71" s="26"/>
+      <c r="W71" s="2"/>
+    </row>
+    <row r="72" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B72" s="78"/>
       <c r="C72" s="70"/>
       <c r="D72" s="33"/>
@@ -6605,41 +6605,41 @@
       <c r="I72" s="13"/>
       <c r="K72" s="11"/>
       <c r="L72" s="65">
-        <f>SUMIFS(C:C,I:I,K72,D:D,$L$4)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M72" s="65">
-        <f>SUMIFS(C:C,I:I,K72,D:D,$M$4)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N72" s="65">
-        <f>SUMIFS(C:C,I:I,K72,D:D,$N$4)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O72" s="65">
-        <f>SUMIFS(C:C,I:I,K72,D:D,$O$4)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="P72" s="65">
-        <f>SUMIFS(C:C,I:I,K72,D:D,$P$4)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q72" s="65">
-        <f>SUMIFS(C:C,I:I,K72,D:D,$Q$4)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R72" s="65">
-        <f>SUMIFS(C:C,I:I,K72,D:D,$R$4)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="S72" s="65">
-        <f>SUMIFS(C:C,I:I,K72,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U72" s="26"/>
-      <c r="V72" s="2"/>
-    </row>
-    <row r="73" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="V72" s="26"/>
+      <c r="W72" s="2"/>
+    </row>
+    <row r="73" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B73" s="78"/>
       <c r="C73" s="70"/>
       <c r="D73" s="33"/>
@@ -6650,41 +6650,41 @@
       <c r="I73" s="13"/>
       <c r="K73" s="11"/>
       <c r="L73" s="65">
-        <f>SUMIFS(C:C,I:I,K73,D:D,$L$4)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M73" s="65">
-        <f>SUMIFS(C:C,I:I,K73,D:D,$M$4)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N73" s="65">
-        <f>SUMIFS(C:C,I:I,K73,D:D,$N$4)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O73" s="65">
-        <f>SUMIFS(C:C,I:I,K73,D:D,$O$4)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="P73" s="65">
-        <f>SUMIFS(C:C,I:I,K73,D:D,$P$4)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q73" s="65">
-        <f>SUMIFS(C:C,I:I,K73,D:D,$Q$4)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R73" s="65">
-        <f>SUMIFS(C:C,I:I,K73,D:D,$R$4)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="S73" s="65">
-        <f>SUMIFS(C:C,I:I,K73,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U73" s="26"/>
-      <c r="V73" s="2"/>
-    </row>
-    <row r="74" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="V73" s="26"/>
+      <c r="W73" s="2"/>
+    </row>
+    <row r="74" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B74" s="78"/>
       <c r="C74" s="70"/>
       <c r="D74" s="33"/>
@@ -6695,41 +6695,41 @@
       <c r="I74" s="13"/>
       <c r="K74" s="11"/>
       <c r="L74" s="65">
-        <f>SUMIFS(C:C,I:I,K74,D:D,$L$4)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M74" s="65">
-        <f>SUMIFS(C:C,I:I,K74,D:D,$M$4)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N74" s="65">
-        <f>SUMIFS(C:C,I:I,K74,D:D,$N$4)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O74" s="65">
-        <f>SUMIFS(C:C,I:I,K74,D:D,$O$4)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="P74" s="65">
-        <f>SUMIFS(C:C,I:I,K74,D:D,$P$4)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q74" s="65">
-        <f>SUMIFS(C:C,I:I,K74,D:D,$Q$4)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R74" s="65">
-        <f>SUMIFS(C:C,I:I,K74,D:D,$R$4)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="S74" s="65">
-        <f>SUMIFS(C:C,I:I,K74,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U74" s="26"/>
-      <c r="V74" s="2"/>
-    </row>
-    <row r="75" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="V74" s="26"/>
+      <c r="W74" s="2"/>
+    </row>
+    <row r="75" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B75" s="78"/>
       <c r="C75" s="70"/>
       <c r="D75" s="33"/>
@@ -6740,41 +6740,41 @@
       <c r="I75" s="13"/>
       <c r="K75" s="11"/>
       <c r="L75" s="65">
-        <f>SUMIFS(C:C,I:I,K75,D:D,$L$4)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M75" s="65">
-        <f>SUMIFS(C:C,I:I,K75,D:D,$M$4)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N75" s="65">
-        <f>SUMIFS(C:C,I:I,K75,D:D,$N$4)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O75" s="65">
-        <f>SUMIFS(C:C,I:I,K75,D:D,$O$4)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="P75" s="65">
-        <f>SUMIFS(C:C,I:I,K75,D:D,$P$4)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q75" s="65">
-        <f>SUMIFS(C:C,I:I,K75,D:D,$Q$4)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R75" s="65">
-        <f>SUMIFS(C:C,I:I,K75,D:D,$R$4)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="S75" s="65">
-        <f>SUMIFS(C:C,I:I,K75,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U75" s="26"/>
-      <c r="V75" s="2"/>
-    </row>
-    <row r="76" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="V75" s="26"/>
+      <c r="W75" s="2"/>
+    </row>
+    <row r="76" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B76" s="78"/>
       <c r="C76" s="70"/>
       <c r="D76" s="33"/>
@@ -6785,41 +6785,41 @@
       <c r="I76" s="13"/>
       <c r="K76" s="11"/>
       <c r="L76" s="65">
-        <f>SUMIFS(C:C,I:I,K76,D:D,$L$4)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M76" s="65">
-        <f>SUMIFS(C:C,I:I,K76,D:D,$M$4)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N76" s="65">
-        <f>SUMIFS(C:C,I:I,K76,D:D,$N$4)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O76" s="65">
-        <f>SUMIFS(C:C,I:I,K76,D:D,$O$4)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="P76" s="65">
-        <f>SUMIFS(C:C,I:I,K76,D:D,$P$4)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q76" s="65">
-        <f>SUMIFS(C:C,I:I,K76,D:D,$Q$4)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R76" s="65">
-        <f>SUMIFS(C:C,I:I,K76,D:D,$R$4)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="S76" s="65">
-        <f>SUMIFS(C:C,I:I,K76,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U76" s="26"/>
-      <c r="V76" s="2"/>
-    </row>
-    <row r="77" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="V76" s="26"/>
+      <c r="W76" s="2"/>
+    </row>
+    <row r="77" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B77" s="78"/>
       <c r="C77" s="70"/>
       <c r="D77" s="33"/>
@@ -6830,41 +6830,41 @@
       <c r="I77" s="13"/>
       <c r="K77" s="11"/>
       <c r="L77" s="65">
-        <f>SUMIFS(C:C,I:I,K77,D:D,$L$4)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M77" s="65">
-        <f>SUMIFS(C:C,I:I,K77,D:D,$M$4)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N77" s="65">
-        <f>SUMIFS(C:C,I:I,K77,D:D,$N$4)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O77" s="65">
-        <f>SUMIFS(C:C,I:I,K77,D:D,$O$4)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="P77" s="65">
-        <f>SUMIFS(C:C,I:I,K77,D:D,$P$4)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q77" s="65">
-        <f>SUMIFS(C:C,I:I,K77,D:D,$Q$4)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R77" s="65">
-        <f>SUMIFS(C:C,I:I,K77,D:D,$R$4)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="S77" s="65">
-        <f>SUMIFS(C:C,I:I,K77,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U77" s="26"/>
-      <c r="V77" s="2"/>
-    </row>
-    <row r="78" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="V77" s="26"/>
+      <c r="W77" s="2"/>
+    </row>
+    <row r="78" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B78" s="78"/>
       <c r="C78" s="70"/>
       <c r="D78" s="33"/>
@@ -6875,41 +6875,41 @@
       <c r="I78" s="13"/>
       <c r="K78" s="11"/>
       <c r="L78" s="65">
-        <f>SUMIFS(C:C,I:I,K78,D:D,$L$4)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M78" s="65">
-        <f>SUMIFS(C:C,I:I,K78,D:D,$M$4)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N78" s="65">
-        <f>SUMIFS(C:C,I:I,K78,D:D,$N$4)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O78" s="65">
-        <f>SUMIFS(C:C,I:I,K78,D:D,$O$4)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="P78" s="65">
-        <f>SUMIFS(C:C,I:I,K78,D:D,$P$4)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q78" s="65">
-        <f>SUMIFS(C:C,I:I,K78,D:D,$Q$4)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R78" s="65">
-        <f>SUMIFS(C:C,I:I,K78,D:D,$R$4)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="S78" s="65">
-        <f>SUMIFS(C:C,I:I,K78,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U78" s="26"/>
-      <c r="V78" s="2"/>
-    </row>
-    <row r="79" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="V78" s="26"/>
+      <c r="W78" s="2"/>
+    </row>
+    <row r="79" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B79" s="78"/>
       <c r="C79" s="70"/>
       <c r="D79" s="33"/>
@@ -6920,41 +6920,41 @@
       <c r="I79" s="13"/>
       <c r="K79" s="11"/>
       <c r="L79" s="65">
-        <f>SUMIFS(C:C,I:I,K79,D:D,$L$4)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M79" s="65">
-        <f>SUMIFS(C:C,I:I,K79,D:D,$M$4)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N79" s="65">
-        <f>SUMIFS(C:C,I:I,K79,D:D,$N$4)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O79" s="65">
-        <f>SUMIFS(C:C,I:I,K79,D:D,$O$4)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="P79" s="65">
-        <f>SUMIFS(C:C,I:I,K79,D:D,$P$4)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q79" s="65">
-        <f>SUMIFS(C:C,I:I,K79,D:D,$Q$4)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R79" s="65">
-        <f>SUMIFS(C:C,I:I,K79,D:D,$R$4)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="S79" s="65">
-        <f>SUMIFS(C:C,I:I,K79,D:D,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U79" s="26"/>
-      <c r="V79" s="2"/>
-    </row>
-    <row r="80" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="V79" s="26"/>
+      <c r="W79" s="2"/>
+    </row>
+    <row r="80" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B80" s="78"/>
       <c r="C80" s="70"/>
       <c r="D80" s="33"/>
@@ -6967,41 +6967,41 @@
         <v>137</v>
       </c>
       <c r="L80" s="58">
-        <f t="shared" ref="L80:S80" si="4">SUM(L15:L79)</f>
+        <f t="shared" ref="L80:S80" si="36">SUM(L15:L79)</f>
         <v>0</v>
       </c>
       <c r="M80" s="58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="N80" s="58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O80" s="58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="P80" s="58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Q80" s="58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="R80" s="58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="S80" s="58">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U80" s="26"/>
-      <c r="V80" s="2"/>
-    </row>
-    <row r="81" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="V80" s="26"/>
+      <c r="W80" s="2"/>
+    </row>
+    <row r="81" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B81" s="78"/>
       <c r="C81" s="70"/>
       <c r="D81" s="33"/>
@@ -7018,10 +7018,10 @@
       <c r="Q81" s="59"/>
       <c r="R81" s="59"/>
       <c r="S81" s="59"/>
-      <c r="U81" s="26"/>
-      <c r="V81" s="2"/>
-    </row>
-    <row r="82" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="V81" s="26"/>
+      <c r="W81" s="2"/>
+    </row>
+    <row r="82" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B82" s="78"/>
       <c r="C82" s="70"/>
       <c r="D82" s="33"/>
@@ -7034,41 +7034,41 @@
         <v>51</v>
       </c>
       <c r="L82" s="57" t="str">
-        <f t="shared" ref="L82:S82" si="5">L4</f>
+        <f t="shared" ref="L82:S82" si="37">L4</f>
         <v>دولار</v>
       </c>
       <c r="M82" s="57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N82" s="57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="O82" s="57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="P82" s="57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Q82" s="57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="R82" s="57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="S82" s="57">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U82" s="26"/>
-      <c r="V82" s="2"/>
-    </row>
-    <row r="83" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="V82" s="26"/>
+      <c r="W82" s="2"/>
+    </row>
+    <row r="83" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B83" s="78"/>
       <c r="C83" s="70"/>
       <c r="D83" s="33"/>
@@ -7112,10 +7112,10 @@
         <f>SUMIFS(C:C,I:I,K83,D:D,$S$4)</f>
         <v>0</v>
       </c>
-      <c r="U83" s="26"/>
-      <c r="V83" s="2"/>
-    </row>
-    <row r="84" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="V83" s="26"/>
+      <c r="W83" s="2"/>
+    </row>
+    <row r="84" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B84" s="78"/>
       <c r="C84" s="70"/>
       <c r="D84" s="33"/>
@@ -7159,10 +7159,10 @@
         <f>SUMIFS(C:C,I:I,K84,D:D,$S$4)</f>
         <v>0</v>
       </c>
-      <c r="U84" s="26"/>
-      <c r="V84" s="2"/>
-    </row>
-    <row r="85" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="V84" s="26"/>
+      <c r="W84" s="2"/>
+    </row>
+    <row r="85" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B85" s="78"/>
       <c r="C85" s="70"/>
       <c r="D85" s="33"/>
@@ -7206,10 +7206,10 @@
         <f>SUMIFS(C:C,I:I,K85,D:D,$S$4)</f>
         <v>0</v>
       </c>
-      <c r="U85" s="26"/>
-      <c r="V85" s="2"/>
-    </row>
-    <row r="86" spans="2:22" ht="21.6" x14ac:dyDescent="0.65">
+      <c r="V85" s="26"/>
+      <c r="W85" s="2"/>
+    </row>
+    <row r="86" spans="2:23" ht="21.6" x14ac:dyDescent="0.65">
       <c r="B86" s="78"/>
       <c r="C86" s="70"/>
       <c r="D86" s="33"/>
@@ -7254,10 +7254,10 @@
         <f>SUMIFS(C:C,I:I,K86,D:D,$S$4)</f>
         <v>0</v>
       </c>
-      <c r="U86" s="26"/>
-      <c r="V86" s="2"/>
-    </row>
-    <row r="87" spans="2:22" ht="21.6" x14ac:dyDescent="0.65">
+      <c r="V86" s="26"/>
+      <c r="W86" s="2"/>
+    </row>
+    <row r="87" spans="2:23" ht="21.6" x14ac:dyDescent="0.65">
       <c r="B87" s="78"/>
       <c r="C87" s="70"/>
       <c r="D87" s="33"/>
@@ -7274,10 +7274,10 @@
       <c r="Q87" s="60"/>
       <c r="R87" s="60"/>
       <c r="S87" s="60"/>
-      <c r="U87" s="26"/>
-      <c r="V87" s="2"/>
-    </row>
-    <row r="88" spans="2:22" ht="21.6" x14ac:dyDescent="0.65">
+      <c r="V87" s="26"/>
+      <c r="W87" s="2"/>
+    </row>
+    <row r="88" spans="2:23" ht="21.6" x14ac:dyDescent="0.65">
       <c r="B88" s="78"/>
       <c r="C88" s="70"/>
       <c r="D88" s="33"/>
@@ -7294,10 +7294,10 @@
       <c r="Q88" s="60"/>
       <c r="R88" s="60"/>
       <c r="S88" s="60"/>
-      <c r="U88" s="26"/>
-      <c r="V88" s="2"/>
-    </row>
-    <row r="89" spans="2:22" ht="21.6" x14ac:dyDescent="0.65">
+      <c r="V88" s="26"/>
+      <c r="W88" s="2"/>
+    </row>
+    <row r="89" spans="2:23" ht="21.6" x14ac:dyDescent="0.65">
       <c r="B89" s="78"/>
       <c r="C89" s="70"/>
       <c r="D89" s="33"/>
@@ -7310,41 +7310,41 @@
         <v>149</v>
       </c>
       <c r="L89" s="57" t="str">
-        <f t="shared" ref="L89:S89" si="6">L4</f>
+        <f t="shared" ref="L89:S89" si="38">L4</f>
         <v>دولار</v>
       </c>
       <c r="M89" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="N89" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O89" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="P89" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="Q89" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="R89" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="S89" s="57">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U89" s="26"/>
-      <c r="V89" s="2"/>
-    </row>
-    <row r="90" spans="2:22" ht="21.6" x14ac:dyDescent="0.65">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="V89" s="26"/>
+      <c r="W89" s="2"/>
+    </row>
+    <row r="90" spans="2:23" ht="21.6" x14ac:dyDescent="0.65">
       <c r="B90" s="77"/>
       <c r="C90" s="70"/>
       <c r="D90" s="33"/>
@@ -7388,10 +7388,10 @@
         <f>SUMIFS(C:C,I:I,K90,D:D,$S$4)</f>
         <v>0</v>
       </c>
-      <c r="U90" s="26"/>
-      <c r="V90" s="2"/>
-    </row>
-    <row r="91" spans="2:22" ht="21.6" x14ac:dyDescent="0.65">
+      <c r="V90" s="26"/>
+      <c r="W90" s="2"/>
+    </row>
+    <row r="91" spans="2:23" ht="21.6" x14ac:dyDescent="0.65">
       <c r="B91" s="77"/>
       <c r="C91" s="70"/>
       <c r="D91" s="34"/>
@@ -7404,41 +7404,41 @@
         <v>139</v>
       </c>
       <c r="L91" s="62">
-        <f t="shared" ref="L91:S91" si="7">SUM(L62:L68)</f>
+        <f t="shared" ref="L91:S91" si="39">SUM(L62:L68)</f>
         <v>0</v>
       </c>
       <c r="M91" s="62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N91" s="62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="O91" s="62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="P91" s="62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Q91" s="62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="R91" s="62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="S91" s="62">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U91" s="26"/>
-      <c r="V91" s="2"/>
-    </row>
-    <row r="92" spans="2:22" ht="21.6" x14ac:dyDescent="0.65">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="V91" s="26"/>
+      <c r="W91" s="2"/>
+    </row>
+    <row r="92" spans="2:23" ht="21.6" x14ac:dyDescent="0.65">
       <c r="B92" s="24"/>
       <c r="C92" s="36"/>
       <c r="D92" s="36"/>
@@ -7457,37 +7457,37 @@
         <v>0</v>
       </c>
       <c r="M92" s="63">
-        <f t="shared" ref="M92:S92" si="8">SUM(M70:M79)</f>
+        <f t="shared" ref="M92:S92" si="40">SUM(M70:M79)</f>
         <v>0</v>
       </c>
       <c r="N92" s="63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="O92" s="63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="P92" s="63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Q92" s="63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R92" s="63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="S92" s="63">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U92" s="26"/>
-      <c r="V92" s="2"/>
-    </row>
-    <row r="93" spans="2:22" ht="21.6" x14ac:dyDescent="0.65">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="V92" s="26"/>
+      <c r="W92" s="2"/>
+    </row>
+    <row r="93" spans="2:23" ht="21.6" x14ac:dyDescent="0.65">
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -7501,44 +7501,44 @@
         <v>0</v>
       </c>
       <c r="M93" s="64">
-        <f t="shared" ref="M93:S93" si="9">SUM(M90:M92)</f>
+        <f t="shared" ref="M93:S93" si="41">SUM(M90:M92)</f>
         <v>0</v>
       </c>
       <c r="N93" s="64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="O93" s="64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="P93" s="64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Q93" s="64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="R93" s="64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="S93" s="64">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U93" s="26"/>
-      <c r="V93" s="2"/>
-    </row>
-    <row r="95" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="V93" s="26"/>
+      <c r="W93" s="2"/>
+    </row>
+    <row r="95" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C95" s="37"/>
       <c r="D95" s="37"/>
       <c r="E95" s="37"/>
       <c r="F95" s="37"/>
       <c r="G95" s="38"/>
     </row>
-    <row r="96" spans="2:22" ht="21.6" x14ac:dyDescent="0.5">
+    <row r="96" spans="2:23" ht="21.6" x14ac:dyDescent="0.5">
       <c r="B96" s="82"/>
       <c r="C96" s="83" t="s">
         <v>150</v>
@@ -7555,11 +7555,11 @@
     <row r="97" spans="2:7" ht="21.6" x14ac:dyDescent="0.5">
       <c r="B97" s="85"/>
       <c r="C97" s="81">
-        <f t="shared" ref="C97:C104" si="10">SUMIF(D5:D91,B97,B5:B91)</f>
+        <f t="shared" ref="C97:C104" si="42">SUMIF(D5:D91,B97,B5:B91)</f>
         <v>0</v>
       </c>
       <c r="D97" s="81">
-        <f t="shared" ref="D97:D104" si="11">SUMIF(D5:D91,B97,C5:C91)</f>
+        <f t="shared" ref="D97:D104" si="43">SUMIF(D5:D91,B97,C5:C91)</f>
         <v>0</v>
       </c>
       <c r="E97" s="86">
@@ -7572,15 +7572,15 @@
     <row r="98" spans="2:7" ht="21.6" x14ac:dyDescent="0.5">
       <c r="B98" s="85"/>
       <c r="C98" s="81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="D98" s="81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="E98" s="86">
-        <f t="shared" ref="E98:E104" si="12">C98-D98</f>
+        <f t="shared" ref="E98:E104" si="44">C98-D98</f>
         <v>0</v>
       </c>
       <c r="F98" s="44"/>
@@ -7589,15 +7589,15 @@
     <row r="99" spans="2:7" ht="21.6" x14ac:dyDescent="0.5">
       <c r="B99" s="85"/>
       <c r="C99" s="81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="D99" s="81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="E99" s="86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F99" s="40"/>
@@ -7605,15 +7605,15 @@
     <row r="100" spans="2:7" ht="21.6" x14ac:dyDescent="0.5">
       <c r="B100" s="85"/>
       <c r="C100" s="81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="D100" s="81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="E100" s="86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F100" s="39"/>
@@ -7622,15 +7622,15 @@
     <row r="101" spans="2:7" ht="21.6" x14ac:dyDescent="0.5">
       <c r="B101" s="85"/>
       <c r="C101" s="81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="D101" s="81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="E101" s="86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F101" s="39"/>
@@ -7638,45 +7638,45 @@
     <row r="102" spans="2:7" ht="21.6" x14ac:dyDescent="0.5">
       <c r="B102" s="85"/>
       <c r="C102" s="81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="D102" s="81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="E102" s="86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="2:7" ht="21.6" x14ac:dyDescent="0.5">
       <c r="B103" s="85"/>
       <c r="C103" s="81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="D103" s="81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="E103" s="86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="2:7" ht="22.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B104" s="85"/>
       <c r="C104" s="87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="D104" s="87">
-        <f t="shared" si="11"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="E104" s="88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -7691,10 +7691,10 @@
     <mergeCell ref="K1:S1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I65528:I65552 JL65474:JL65498 TH65474:TH65498 ADD65474:ADD65498 AMZ65474:AMZ65498 AWV65474:AWV65498 BGR65474:BGR65498 BQN65474:BQN65498 CAJ65474:CAJ65498 CKF65474:CKF65498 CUB65474:CUB65498 DDX65474:DDX65498 DNT65474:DNT65498 DXP65474:DXP65498 EHL65474:EHL65498 ERH65474:ERH65498 FBD65474:FBD65498 FKZ65474:FKZ65498 FUV65474:FUV65498 GER65474:GER65498 GON65474:GON65498 GYJ65474:GYJ65498 HIF65474:HIF65498 HSB65474:HSB65498 IBX65474:IBX65498 ILT65474:ILT65498 IVP65474:IVP65498 JFL65474:JFL65498 JPH65474:JPH65498 JZD65474:JZD65498 KIZ65474:KIZ65498 KSV65474:KSV65498 LCR65474:LCR65498 LMN65474:LMN65498 LWJ65474:LWJ65498 MGF65474:MGF65498 MQB65474:MQB65498 MZX65474:MZX65498 NJT65474:NJT65498 NTP65474:NTP65498 ODL65474:ODL65498 ONH65474:ONH65498 OXD65474:OXD65498 PGZ65474:PGZ65498 PQV65474:PQV65498 QAR65474:QAR65498 QKN65474:QKN65498 QUJ65474:QUJ65498 REF65474:REF65498 ROB65474:ROB65498 RXX65474:RXX65498 SHT65474:SHT65498 SRP65474:SRP65498 TBL65474:TBL65498 TLH65474:TLH65498 TVD65474:TVD65498 UEZ65474:UEZ65498 UOV65474:UOV65498 UYR65474:UYR65498 VIN65474:VIN65498 VSJ65474:VSJ65498 WCF65474:WCF65498 WMB65474:WMB65498 WVX65474:WVX65498 I131064:I131088 JL131010:JL131034 TH131010:TH131034 ADD131010:ADD131034 AMZ131010:AMZ131034 AWV131010:AWV131034 BGR131010:BGR131034 BQN131010:BQN131034 CAJ131010:CAJ131034 CKF131010:CKF131034 CUB131010:CUB131034 DDX131010:DDX131034 DNT131010:DNT131034 DXP131010:DXP131034 EHL131010:EHL131034 ERH131010:ERH131034 FBD131010:FBD131034 FKZ131010:FKZ131034 FUV131010:FUV131034 GER131010:GER131034 GON131010:GON131034 GYJ131010:GYJ131034 HIF131010:HIF131034 HSB131010:HSB131034 IBX131010:IBX131034 ILT131010:ILT131034 IVP131010:IVP131034 JFL131010:JFL131034 JPH131010:JPH131034 JZD131010:JZD131034 KIZ131010:KIZ131034 KSV131010:KSV131034 LCR131010:LCR131034 LMN131010:LMN131034 LWJ131010:LWJ131034 MGF131010:MGF131034 MQB131010:MQB131034 MZX131010:MZX131034 NJT131010:NJT131034 NTP131010:NTP131034 ODL131010:ODL131034 ONH131010:ONH131034 OXD131010:OXD131034 PGZ131010:PGZ131034 PQV131010:PQV131034 QAR131010:QAR131034 QKN131010:QKN131034 QUJ131010:QUJ131034 REF131010:REF131034 ROB131010:ROB131034 RXX131010:RXX131034 SHT131010:SHT131034 SRP131010:SRP131034 TBL131010:TBL131034 TLH131010:TLH131034 TVD131010:TVD131034 UEZ131010:UEZ131034 UOV131010:UOV131034 UYR131010:UYR131034 VIN131010:VIN131034 VSJ131010:VSJ131034 WCF131010:WCF131034 WMB131010:WMB131034 WVX131010:WVX131034 I196600:I196624 JL196546:JL196570 TH196546:TH196570 ADD196546:ADD196570 AMZ196546:AMZ196570 AWV196546:AWV196570 BGR196546:BGR196570 BQN196546:BQN196570 CAJ196546:CAJ196570 CKF196546:CKF196570 CUB196546:CUB196570 DDX196546:DDX196570 DNT196546:DNT196570 DXP196546:DXP196570 EHL196546:EHL196570 ERH196546:ERH196570 FBD196546:FBD196570 FKZ196546:FKZ196570 FUV196546:FUV196570 GER196546:GER196570 GON196546:GON196570 GYJ196546:GYJ196570 HIF196546:HIF196570 HSB196546:HSB196570 IBX196546:IBX196570 ILT196546:ILT196570 IVP196546:IVP196570 JFL196546:JFL196570 JPH196546:JPH196570 JZD196546:JZD196570 KIZ196546:KIZ196570 KSV196546:KSV196570 LCR196546:LCR196570 LMN196546:LMN196570 LWJ196546:LWJ196570 MGF196546:MGF196570 MQB196546:MQB196570 MZX196546:MZX196570 NJT196546:NJT196570 NTP196546:NTP196570 ODL196546:ODL196570 ONH196546:ONH196570 OXD196546:OXD196570 PGZ196546:PGZ196570 PQV196546:PQV196570 QAR196546:QAR196570 QKN196546:QKN196570 QUJ196546:QUJ196570 REF196546:REF196570 ROB196546:ROB196570 RXX196546:RXX196570 SHT196546:SHT196570 SRP196546:SRP196570 TBL196546:TBL196570 TLH196546:TLH196570 TVD196546:TVD196570 UEZ196546:UEZ196570 UOV196546:UOV196570 UYR196546:UYR196570 VIN196546:VIN196570 VSJ196546:VSJ196570 WCF196546:WCF196570 WMB196546:WMB196570 WVX196546:WVX196570 I262136:I262160 JL262082:JL262106 TH262082:TH262106 ADD262082:ADD262106 AMZ262082:AMZ262106 AWV262082:AWV262106 BGR262082:BGR262106 BQN262082:BQN262106 CAJ262082:CAJ262106 CKF262082:CKF262106 CUB262082:CUB262106 DDX262082:DDX262106 DNT262082:DNT262106 DXP262082:DXP262106 EHL262082:EHL262106 ERH262082:ERH262106 FBD262082:FBD262106 FKZ262082:FKZ262106 FUV262082:FUV262106 GER262082:GER262106 GON262082:GON262106 GYJ262082:GYJ262106 HIF262082:HIF262106 HSB262082:HSB262106 IBX262082:IBX262106 ILT262082:ILT262106 IVP262082:IVP262106 JFL262082:JFL262106 JPH262082:JPH262106 JZD262082:JZD262106 KIZ262082:KIZ262106 KSV262082:KSV262106 LCR262082:LCR262106 LMN262082:LMN262106 LWJ262082:LWJ262106 MGF262082:MGF262106 MQB262082:MQB262106 MZX262082:MZX262106 NJT262082:NJT262106 NTP262082:NTP262106 ODL262082:ODL262106 ONH262082:ONH262106 OXD262082:OXD262106 PGZ262082:PGZ262106 PQV262082:PQV262106 QAR262082:QAR262106 QKN262082:QKN262106 QUJ262082:QUJ262106 REF262082:REF262106 ROB262082:ROB262106 RXX262082:RXX262106 SHT262082:SHT262106 SRP262082:SRP262106 TBL262082:TBL262106 TLH262082:TLH262106 TVD262082:TVD262106 UEZ262082:UEZ262106 UOV262082:UOV262106 UYR262082:UYR262106 VIN262082:VIN262106 VSJ262082:VSJ262106 WCF262082:WCF262106 WMB262082:WMB262106 WVX262082:WVX262106 I327672:I327696 JL327618:JL327642 TH327618:TH327642 ADD327618:ADD327642 AMZ327618:AMZ327642 AWV327618:AWV327642 BGR327618:BGR327642 BQN327618:BQN327642 CAJ327618:CAJ327642 CKF327618:CKF327642 CUB327618:CUB327642 DDX327618:DDX327642 DNT327618:DNT327642 DXP327618:DXP327642 EHL327618:EHL327642 ERH327618:ERH327642 FBD327618:FBD327642 FKZ327618:FKZ327642 FUV327618:FUV327642 GER327618:GER327642 GON327618:GON327642 GYJ327618:GYJ327642 HIF327618:HIF327642 HSB327618:HSB327642 IBX327618:IBX327642 ILT327618:ILT327642 IVP327618:IVP327642 JFL327618:JFL327642 JPH327618:JPH327642 JZD327618:JZD327642 KIZ327618:KIZ327642 KSV327618:KSV327642 LCR327618:LCR327642 LMN327618:LMN327642 LWJ327618:LWJ327642 MGF327618:MGF327642 MQB327618:MQB327642 MZX327618:MZX327642 NJT327618:NJT327642 NTP327618:NTP327642 ODL327618:ODL327642 ONH327618:ONH327642 OXD327618:OXD327642 PGZ327618:PGZ327642 PQV327618:PQV327642 QAR327618:QAR327642 QKN327618:QKN327642 QUJ327618:QUJ327642 REF327618:REF327642 ROB327618:ROB327642 RXX327618:RXX327642 SHT327618:SHT327642 SRP327618:SRP327642 TBL327618:TBL327642 TLH327618:TLH327642 TVD327618:TVD327642 UEZ327618:UEZ327642 UOV327618:UOV327642 UYR327618:UYR327642 VIN327618:VIN327642 VSJ327618:VSJ327642 WCF327618:WCF327642 WMB327618:WMB327642 WVX327618:WVX327642 I393208:I393232 JL393154:JL393178 TH393154:TH393178 ADD393154:ADD393178 AMZ393154:AMZ393178 AWV393154:AWV393178 BGR393154:BGR393178 BQN393154:BQN393178 CAJ393154:CAJ393178 CKF393154:CKF393178 CUB393154:CUB393178 DDX393154:DDX393178 DNT393154:DNT393178 DXP393154:DXP393178 EHL393154:EHL393178 ERH393154:ERH393178 FBD393154:FBD393178 FKZ393154:FKZ393178 FUV393154:FUV393178 GER393154:GER393178 GON393154:GON393178 GYJ393154:GYJ393178 HIF393154:HIF393178 HSB393154:HSB393178 IBX393154:IBX393178 ILT393154:ILT393178 IVP393154:IVP393178 JFL393154:JFL393178 JPH393154:JPH393178 JZD393154:JZD393178 KIZ393154:KIZ393178 KSV393154:KSV393178 LCR393154:LCR393178 LMN393154:LMN393178 LWJ393154:LWJ393178 MGF393154:MGF393178 MQB393154:MQB393178 MZX393154:MZX393178 NJT393154:NJT393178 NTP393154:NTP393178 ODL393154:ODL393178 ONH393154:ONH393178 OXD393154:OXD393178 PGZ393154:PGZ393178 PQV393154:PQV393178 QAR393154:QAR393178 QKN393154:QKN393178 QUJ393154:QUJ393178 REF393154:REF393178 ROB393154:ROB393178 RXX393154:RXX393178 SHT393154:SHT393178 SRP393154:SRP393178 TBL393154:TBL393178 TLH393154:TLH393178 TVD393154:TVD393178 UEZ393154:UEZ393178 UOV393154:UOV393178 UYR393154:UYR393178 VIN393154:VIN393178 VSJ393154:VSJ393178 WCF393154:WCF393178 WMB393154:WMB393178 WVX393154:WVX393178 I458744:I458768 JL458690:JL458714 TH458690:TH458714 ADD458690:ADD458714 AMZ458690:AMZ458714 AWV458690:AWV458714 BGR458690:BGR458714 BQN458690:BQN458714 CAJ458690:CAJ458714 CKF458690:CKF458714 CUB458690:CUB458714 DDX458690:DDX458714 DNT458690:DNT458714 DXP458690:DXP458714 EHL458690:EHL458714 ERH458690:ERH458714 FBD458690:FBD458714 FKZ458690:FKZ458714 FUV458690:FUV458714 GER458690:GER458714 GON458690:GON458714 GYJ458690:GYJ458714 HIF458690:HIF458714 HSB458690:HSB458714 IBX458690:IBX458714 ILT458690:ILT458714 IVP458690:IVP458714 JFL458690:JFL458714 JPH458690:JPH458714 JZD458690:JZD458714 KIZ458690:KIZ458714 KSV458690:KSV458714 LCR458690:LCR458714 LMN458690:LMN458714 LWJ458690:LWJ458714 MGF458690:MGF458714 MQB458690:MQB458714 MZX458690:MZX458714 NJT458690:NJT458714 NTP458690:NTP458714 ODL458690:ODL458714 ONH458690:ONH458714 OXD458690:OXD458714 PGZ458690:PGZ458714 PQV458690:PQV458714 QAR458690:QAR458714 QKN458690:QKN458714 QUJ458690:QUJ458714 REF458690:REF458714 ROB458690:ROB458714 RXX458690:RXX458714 SHT458690:SHT458714 SRP458690:SRP458714 TBL458690:TBL458714 TLH458690:TLH458714 TVD458690:TVD458714 UEZ458690:UEZ458714 UOV458690:UOV458714 UYR458690:UYR458714 VIN458690:VIN458714 VSJ458690:VSJ458714 WCF458690:WCF458714 WMB458690:WMB458714 WVX458690:WVX458714 I524280:I524304 JL524226:JL524250 TH524226:TH524250 ADD524226:ADD524250 AMZ524226:AMZ524250 AWV524226:AWV524250 BGR524226:BGR524250 BQN524226:BQN524250 CAJ524226:CAJ524250 CKF524226:CKF524250 CUB524226:CUB524250 DDX524226:DDX524250 DNT524226:DNT524250 DXP524226:DXP524250 EHL524226:EHL524250 ERH524226:ERH524250 FBD524226:FBD524250 FKZ524226:FKZ524250 FUV524226:FUV524250 GER524226:GER524250 GON524226:GON524250 GYJ524226:GYJ524250 HIF524226:HIF524250 HSB524226:HSB524250 IBX524226:IBX524250 ILT524226:ILT524250 IVP524226:IVP524250 JFL524226:JFL524250 JPH524226:JPH524250 JZD524226:JZD524250 KIZ524226:KIZ524250 KSV524226:KSV524250 LCR524226:LCR524250 LMN524226:LMN524250 LWJ524226:LWJ524250 MGF524226:MGF524250 MQB524226:MQB524250 MZX524226:MZX524250 NJT524226:NJT524250 NTP524226:NTP524250 ODL524226:ODL524250 ONH524226:ONH524250 OXD524226:OXD524250 PGZ524226:PGZ524250 PQV524226:PQV524250 QAR524226:QAR524250 QKN524226:QKN524250 QUJ524226:QUJ524250 REF524226:REF524250 ROB524226:ROB524250 RXX524226:RXX524250 SHT524226:SHT524250 SRP524226:SRP524250 TBL524226:TBL524250 TLH524226:TLH524250 TVD524226:TVD524250 UEZ524226:UEZ524250 UOV524226:UOV524250 UYR524226:UYR524250 VIN524226:VIN524250 VSJ524226:VSJ524250 WCF524226:WCF524250 WMB524226:WMB524250 WVX524226:WVX524250 I589816:I589840 JL589762:JL589786 TH589762:TH589786 ADD589762:ADD589786 AMZ589762:AMZ589786 AWV589762:AWV589786 BGR589762:BGR589786 BQN589762:BQN589786 CAJ589762:CAJ589786 CKF589762:CKF589786 CUB589762:CUB589786 DDX589762:DDX589786 DNT589762:DNT589786 DXP589762:DXP589786 EHL589762:EHL589786 ERH589762:ERH589786 FBD589762:FBD589786 FKZ589762:FKZ589786 FUV589762:FUV589786 GER589762:GER589786 GON589762:GON589786 GYJ589762:GYJ589786 HIF589762:HIF589786 HSB589762:HSB589786 IBX589762:IBX589786 ILT589762:ILT589786 IVP589762:IVP589786 JFL589762:JFL589786 JPH589762:JPH589786 JZD589762:JZD589786 KIZ589762:KIZ589786 KSV589762:KSV589786 LCR589762:LCR589786 LMN589762:LMN589786 LWJ589762:LWJ589786 MGF589762:MGF589786 MQB589762:MQB589786 MZX589762:MZX589786 NJT589762:NJT589786 NTP589762:NTP589786 ODL589762:ODL589786 ONH589762:ONH589786 OXD589762:OXD589786 PGZ589762:PGZ589786 PQV589762:PQV589786 QAR589762:QAR589786 QKN589762:QKN589786 QUJ589762:QUJ589786 REF589762:REF589786 ROB589762:ROB589786 RXX589762:RXX589786 SHT589762:SHT589786 SRP589762:SRP589786 TBL589762:TBL589786 TLH589762:TLH589786 TVD589762:TVD589786 UEZ589762:UEZ589786 UOV589762:UOV589786 UYR589762:UYR589786 VIN589762:VIN589786 VSJ589762:VSJ589786 WCF589762:WCF589786 WMB589762:WMB589786 WVX589762:WVX589786 I655352:I655376 JL655298:JL655322 TH655298:TH655322 ADD655298:ADD655322 AMZ655298:AMZ655322 AWV655298:AWV655322 BGR655298:BGR655322 BQN655298:BQN655322 CAJ655298:CAJ655322 CKF655298:CKF655322 CUB655298:CUB655322 DDX655298:DDX655322 DNT655298:DNT655322 DXP655298:DXP655322 EHL655298:EHL655322 ERH655298:ERH655322 FBD655298:FBD655322 FKZ655298:FKZ655322 FUV655298:FUV655322 GER655298:GER655322 GON655298:GON655322 GYJ655298:GYJ655322 HIF655298:HIF655322 HSB655298:HSB655322 IBX655298:IBX655322 ILT655298:ILT655322 IVP655298:IVP655322 JFL655298:JFL655322 JPH655298:JPH655322 JZD655298:JZD655322 KIZ655298:KIZ655322 KSV655298:KSV655322 LCR655298:LCR655322 LMN655298:LMN655322 LWJ655298:LWJ655322 MGF655298:MGF655322 MQB655298:MQB655322 MZX655298:MZX655322 NJT655298:NJT655322 NTP655298:NTP655322 ODL655298:ODL655322 ONH655298:ONH655322 OXD655298:OXD655322 PGZ655298:PGZ655322 PQV655298:PQV655322 QAR655298:QAR655322 QKN655298:QKN655322 QUJ655298:QUJ655322 REF655298:REF655322 ROB655298:ROB655322 RXX655298:RXX655322 SHT655298:SHT655322 SRP655298:SRP655322 TBL655298:TBL655322 TLH655298:TLH655322 TVD655298:TVD655322 UEZ655298:UEZ655322 UOV655298:UOV655322 UYR655298:UYR655322 VIN655298:VIN655322 VSJ655298:VSJ655322 WCF655298:WCF655322 WMB655298:WMB655322 WVX655298:WVX655322 I720888:I720912 JL720834:JL720858 TH720834:TH720858 ADD720834:ADD720858 AMZ720834:AMZ720858 AWV720834:AWV720858 BGR720834:BGR720858 BQN720834:BQN720858 CAJ720834:CAJ720858 CKF720834:CKF720858 CUB720834:CUB720858 DDX720834:DDX720858 DNT720834:DNT720858 DXP720834:DXP720858 EHL720834:EHL720858 ERH720834:ERH720858 FBD720834:FBD720858 FKZ720834:FKZ720858 FUV720834:FUV720858 GER720834:GER720858 GON720834:GON720858 GYJ720834:GYJ720858 HIF720834:HIF720858 HSB720834:HSB720858 IBX720834:IBX720858 ILT720834:ILT720858 IVP720834:IVP720858 JFL720834:JFL720858 JPH720834:JPH720858 JZD720834:JZD720858 KIZ720834:KIZ720858 KSV720834:KSV720858 LCR720834:LCR720858 LMN720834:LMN720858 LWJ720834:LWJ720858 MGF720834:MGF720858 MQB720834:MQB720858 MZX720834:MZX720858 NJT720834:NJT720858 NTP720834:NTP720858 ODL720834:ODL720858 ONH720834:ONH720858 OXD720834:OXD720858 PGZ720834:PGZ720858 PQV720834:PQV720858 QAR720834:QAR720858 QKN720834:QKN720858 QUJ720834:QUJ720858 REF720834:REF720858 ROB720834:ROB720858 RXX720834:RXX720858 SHT720834:SHT720858 SRP720834:SRP720858 TBL720834:TBL720858 TLH720834:TLH720858 TVD720834:TVD720858 UEZ720834:UEZ720858 UOV720834:UOV720858 UYR720834:UYR720858 VIN720834:VIN720858 VSJ720834:VSJ720858 WCF720834:WCF720858 WMB720834:WMB720858 WVX720834:WVX720858 I786424:I786448 JL786370:JL786394 TH786370:TH786394 ADD786370:ADD786394 AMZ786370:AMZ786394 AWV786370:AWV786394 BGR786370:BGR786394 BQN786370:BQN786394 CAJ786370:CAJ786394 CKF786370:CKF786394 CUB786370:CUB786394 DDX786370:DDX786394 DNT786370:DNT786394 DXP786370:DXP786394 EHL786370:EHL786394 ERH786370:ERH786394 FBD786370:FBD786394 FKZ786370:FKZ786394 FUV786370:FUV786394 GER786370:GER786394 GON786370:GON786394 GYJ786370:GYJ786394 HIF786370:HIF786394 HSB786370:HSB786394 IBX786370:IBX786394 ILT786370:ILT786394 IVP786370:IVP786394 JFL786370:JFL786394 JPH786370:JPH786394 JZD786370:JZD786394 KIZ786370:KIZ786394 KSV786370:KSV786394 LCR786370:LCR786394 LMN786370:LMN786394 LWJ786370:LWJ786394 MGF786370:MGF786394 MQB786370:MQB786394 MZX786370:MZX786394 NJT786370:NJT786394 NTP786370:NTP786394 ODL786370:ODL786394 ONH786370:ONH786394 OXD786370:OXD786394 PGZ786370:PGZ786394 PQV786370:PQV786394 QAR786370:QAR786394 QKN786370:QKN786394 QUJ786370:QUJ786394 REF786370:REF786394 ROB786370:ROB786394 RXX786370:RXX786394 SHT786370:SHT786394 SRP786370:SRP786394 TBL786370:TBL786394 TLH786370:TLH786394 TVD786370:TVD786394 UEZ786370:UEZ786394 UOV786370:UOV786394 UYR786370:UYR786394 VIN786370:VIN786394 VSJ786370:VSJ786394 WCF786370:WCF786394 WMB786370:WMB786394 WVX786370:WVX786394 I851960:I851984 JL851906:JL851930 TH851906:TH851930 ADD851906:ADD851930 AMZ851906:AMZ851930 AWV851906:AWV851930 BGR851906:BGR851930 BQN851906:BQN851930 CAJ851906:CAJ851930 CKF851906:CKF851930 CUB851906:CUB851930 DDX851906:DDX851930 DNT851906:DNT851930 DXP851906:DXP851930 EHL851906:EHL851930 ERH851906:ERH851930 FBD851906:FBD851930 FKZ851906:FKZ851930 FUV851906:FUV851930 GER851906:GER851930 GON851906:GON851930 GYJ851906:GYJ851930 HIF851906:HIF851930 HSB851906:HSB851930 IBX851906:IBX851930 ILT851906:ILT851930 IVP851906:IVP851930 JFL851906:JFL851930 JPH851906:JPH851930 JZD851906:JZD851930 KIZ851906:KIZ851930 KSV851906:KSV851930 LCR851906:LCR851930 LMN851906:LMN851930 LWJ851906:LWJ851930 MGF851906:MGF851930 MQB851906:MQB851930 MZX851906:MZX851930 NJT851906:NJT851930 NTP851906:NTP851930 ODL851906:ODL851930 ONH851906:ONH851930 OXD851906:OXD851930 PGZ851906:PGZ851930 PQV851906:PQV851930 QAR851906:QAR851930 QKN851906:QKN851930 QUJ851906:QUJ851930 REF851906:REF851930 ROB851906:ROB851930 RXX851906:RXX851930 SHT851906:SHT851930 SRP851906:SRP851930 TBL851906:TBL851930 TLH851906:TLH851930 TVD851906:TVD851930 UEZ851906:UEZ851930 UOV851906:UOV851930 UYR851906:UYR851930 VIN851906:VIN851930 VSJ851906:VSJ851930 WCF851906:WCF851930 WMB851906:WMB851930 WVX851906:WVX851930 I917496:I917520 JL917442:JL917466 TH917442:TH917466 ADD917442:ADD917466 AMZ917442:AMZ917466 AWV917442:AWV917466 BGR917442:BGR917466 BQN917442:BQN917466 CAJ917442:CAJ917466 CKF917442:CKF917466 CUB917442:CUB917466 DDX917442:DDX917466 DNT917442:DNT917466 DXP917442:DXP917466 EHL917442:EHL917466 ERH917442:ERH917466 FBD917442:FBD917466 FKZ917442:FKZ917466 FUV917442:FUV917466 GER917442:GER917466 GON917442:GON917466 GYJ917442:GYJ917466 HIF917442:HIF917466 HSB917442:HSB917466 IBX917442:IBX917466 ILT917442:ILT917466 IVP917442:IVP917466 JFL917442:JFL917466 JPH917442:JPH917466 JZD917442:JZD917466 KIZ917442:KIZ917466 KSV917442:KSV917466 LCR917442:LCR917466 LMN917442:LMN917466 LWJ917442:LWJ917466 MGF917442:MGF917466 MQB917442:MQB917466 MZX917442:MZX917466 NJT917442:NJT917466 NTP917442:NTP917466 ODL917442:ODL917466 ONH917442:ONH917466 OXD917442:OXD917466 PGZ917442:PGZ917466 PQV917442:PQV917466 QAR917442:QAR917466 QKN917442:QKN917466 QUJ917442:QUJ917466 REF917442:REF917466 ROB917442:ROB917466 RXX917442:RXX917466 SHT917442:SHT917466 SRP917442:SRP917466 TBL917442:TBL917466 TLH917442:TLH917466 TVD917442:TVD917466 UEZ917442:UEZ917466 UOV917442:UOV917466 UYR917442:UYR917466 VIN917442:VIN917466 VSJ917442:VSJ917466 WCF917442:WCF917466 WMB917442:WMB917466 WVX917442:WVX917466 I983032:I983056 JL982978:JL983002 TH982978:TH983002 ADD982978:ADD983002 AMZ982978:AMZ983002 AWV982978:AWV983002 BGR982978:BGR983002 BQN982978:BQN983002 CAJ982978:CAJ983002 CKF982978:CKF983002 CUB982978:CUB983002 DDX982978:DDX983002 DNT982978:DNT983002 DXP982978:DXP983002 EHL982978:EHL983002 ERH982978:ERH983002 FBD982978:FBD983002 FKZ982978:FKZ983002 FUV982978:FUV983002 GER982978:GER983002 GON982978:GON983002 GYJ982978:GYJ983002 HIF982978:HIF983002 HSB982978:HSB983002 IBX982978:IBX983002 ILT982978:ILT983002 IVP982978:IVP983002 JFL982978:JFL983002 JPH982978:JPH983002 JZD982978:JZD983002 KIZ982978:KIZ983002 KSV982978:KSV983002 LCR982978:LCR983002 LMN982978:LMN983002 LWJ982978:LWJ983002 MGF982978:MGF983002 MQB982978:MQB983002 MZX982978:MZX983002 NJT982978:NJT983002 NTP982978:NTP983002 ODL982978:ODL983002 ONH982978:ONH983002 OXD982978:OXD983002 PGZ982978:PGZ983002 PQV982978:PQV983002 QAR982978:QAR983002 QKN982978:QKN983002 QUJ982978:QUJ983002 REF982978:REF983002 ROB982978:ROB983002 RXX982978:RXX983002 SHT982978:SHT983002 SRP982978:SRP983002 TBL982978:TBL983002 TLH982978:TLH983002 TVD982978:TVD983002 UEZ982978:UEZ983002 UOV982978:UOV983002 UYR982978:UYR983002 VIN982978:VIN983002 VSJ982978:VSJ983002 WCF982978:WCF983002 WMB982978:WMB983002 WVX982978:WVX983002 WVX5:WVX25 JL5:JL25 TH5:TH25 ADD5:ADD25 AMZ5:AMZ25 AWV5:AWV25 BGR5:BGR25 BQN5:BQN25 CAJ5:CAJ25 CKF5:CKF25 CUB5:CUB25 DDX5:DDX25 DNT5:DNT25 DXP5:DXP25 EHL5:EHL25 ERH5:ERH25 FBD5:FBD25 FKZ5:FKZ25 FUV5:FUV25 GER5:GER25 GON5:GON25 GYJ5:GYJ25 HIF5:HIF25 HSB5:HSB25 IBX5:IBX25 ILT5:ILT25 IVP5:IVP25 JFL5:JFL25 JPH5:JPH25 JZD5:JZD25 KIZ5:KIZ25 KSV5:KSV25 LCR5:LCR25 LMN5:LMN25 LWJ5:LWJ25 MGF5:MGF25 MQB5:MQB25 MZX5:MZX25 NJT5:NJT25 NTP5:NTP25 ODL5:ODL25 ONH5:ONH25 OXD5:OXD25 PGZ5:PGZ25 PQV5:PQV25 QAR5:QAR25 QKN5:QKN25 QUJ5:QUJ25 REF5:REF25 ROB5:ROB25 RXX5:RXX25 SHT5:SHT25 SRP5:SRP25 TBL5:TBL25 TLH5:TLH25 TVD5:TVD25 UEZ5:UEZ25 UOV5:UOV25 UYR5:UYR25 VIN5:VIN25 VSJ5:VSJ25 WCF5:WCF25 WMB5:WMB25" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I65528:I65552 JM65474:JM65498 TI65474:TI65498 ADE65474:ADE65498 ANA65474:ANA65498 AWW65474:AWW65498 BGS65474:BGS65498 BQO65474:BQO65498 CAK65474:CAK65498 CKG65474:CKG65498 CUC65474:CUC65498 DDY65474:DDY65498 DNU65474:DNU65498 DXQ65474:DXQ65498 EHM65474:EHM65498 ERI65474:ERI65498 FBE65474:FBE65498 FLA65474:FLA65498 FUW65474:FUW65498 GES65474:GES65498 GOO65474:GOO65498 GYK65474:GYK65498 HIG65474:HIG65498 HSC65474:HSC65498 IBY65474:IBY65498 ILU65474:ILU65498 IVQ65474:IVQ65498 JFM65474:JFM65498 JPI65474:JPI65498 JZE65474:JZE65498 KJA65474:KJA65498 KSW65474:KSW65498 LCS65474:LCS65498 LMO65474:LMO65498 LWK65474:LWK65498 MGG65474:MGG65498 MQC65474:MQC65498 MZY65474:MZY65498 NJU65474:NJU65498 NTQ65474:NTQ65498 ODM65474:ODM65498 ONI65474:ONI65498 OXE65474:OXE65498 PHA65474:PHA65498 PQW65474:PQW65498 QAS65474:QAS65498 QKO65474:QKO65498 QUK65474:QUK65498 REG65474:REG65498 ROC65474:ROC65498 RXY65474:RXY65498 SHU65474:SHU65498 SRQ65474:SRQ65498 TBM65474:TBM65498 TLI65474:TLI65498 TVE65474:TVE65498 UFA65474:UFA65498 UOW65474:UOW65498 UYS65474:UYS65498 VIO65474:VIO65498 VSK65474:VSK65498 WCG65474:WCG65498 WMC65474:WMC65498 WVY65474:WVY65498 I131064:I131088 JM131010:JM131034 TI131010:TI131034 ADE131010:ADE131034 ANA131010:ANA131034 AWW131010:AWW131034 BGS131010:BGS131034 BQO131010:BQO131034 CAK131010:CAK131034 CKG131010:CKG131034 CUC131010:CUC131034 DDY131010:DDY131034 DNU131010:DNU131034 DXQ131010:DXQ131034 EHM131010:EHM131034 ERI131010:ERI131034 FBE131010:FBE131034 FLA131010:FLA131034 FUW131010:FUW131034 GES131010:GES131034 GOO131010:GOO131034 GYK131010:GYK131034 HIG131010:HIG131034 HSC131010:HSC131034 IBY131010:IBY131034 ILU131010:ILU131034 IVQ131010:IVQ131034 JFM131010:JFM131034 JPI131010:JPI131034 JZE131010:JZE131034 KJA131010:KJA131034 KSW131010:KSW131034 LCS131010:LCS131034 LMO131010:LMO131034 LWK131010:LWK131034 MGG131010:MGG131034 MQC131010:MQC131034 MZY131010:MZY131034 NJU131010:NJU131034 NTQ131010:NTQ131034 ODM131010:ODM131034 ONI131010:ONI131034 OXE131010:OXE131034 PHA131010:PHA131034 PQW131010:PQW131034 QAS131010:QAS131034 QKO131010:QKO131034 QUK131010:QUK131034 REG131010:REG131034 ROC131010:ROC131034 RXY131010:RXY131034 SHU131010:SHU131034 SRQ131010:SRQ131034 TBM131010:TBM131034 TLI131010:TLI131034 TVE131010:TVE131034 UFA131010:UFA131034 UOW131010:UOW131034 UYS131010:UYS131034 VIO131010:VIO131034 VSK131010:VSK131034 WCG131010:WCG131034 WMC131010:WMC131034 WVY131010:WVY131034 I196600:I196624 JM196546:JM196570 TI196546:TI196570 ADE196546:ADE196570 ANA196546:ANA196570 AWW196546:AWW196570 BGS196546:BGS196570 BQO196546:BQO196570 CAK196546:CAK196570 CKG196546:CKG196570 CUC196546:CUC196570 DDY196546:DDY196570 DNU196546:DNU196570 DXQ196546:DXQ196570 EHM196546:EHM196570 ERI196546:ERI196570 FBE196546:FBE196570 FLA196546:FLA196570 FUW196546:FUW196570 GES196546:GES196570 GOO196546:GOO196570 GYK196546:GYK196570 HIG196546:HIG196570 HSC196546:HSC196570 IBY196546:IBY196570 ILU196546:ILU196570 IVQ196546:IVQ196570 JFM196546:JFM196570 JPI196546:JPI196570 JZE196546:JZE196570 KJA196546:KJA196570 KSW196546:KSW196570 LCS196546:LCS196570 LMO196546:LMO196570 LWK196546:LWK196570 MGG196546:MGG196570 MQC196546:MQC196570 MZY196546:MZY196570 NJU196546:NJU196570 NTQ196546:NTQ196570 ODM196546:ODM196570 ONI196546:ONI196570 OXE196546:OXE196570 PHA196546:PHA196570 PQW196546:PQW196570 QAS196546:QAS196570 QKO196546:QKO196570 QUK196546:QUK196570 REG196546:REG196570 ROC196546:ROC196570 RXY196546:RXY196570 SHU196546:SHU196570 SRQ196546:SRQ196570 TBM196546:TBM196570 TLI196546:TLI196570 TVE196546:TVE196570 UFA196546:UFA196570 UOW196546:UOW196570 UYS196546:UYS196570 VIO196546:VIO196570 VSK196546:VSK196570 WCG196546:WCG196570 WMC196546:WMC196570 WVY196546:WVY196570 I262136:I262160 JM262082:JM262106 TI262082:TI262106 ADE262082:ADE262106 ANA262082:ANA262106 AWW262082:AWW262106 BGS262082:BGS262106 BQO262082:BQO262106 CAK262082:CAK262106 CKG262082:CKG262106 CUC262082:CUC262106 DDY262082:DDY262106 DNU262082:DNU262106 DXQ262082:DXQ262106 EHM262082:EHM262106 ERI262082:ERI262106 FBE262082:FBE262106 FLA262082:FLA262106 FUW262082:FUW262106 GES262082:GES262106 GOO262082:GOO262106 GYK262082:GYK262106 HIG262082:HIG262106 HSC262082:HSC262106 IBY262082:IBY262106 ILU262082:ILU262106 IVQ262082:IVQ262106 JFM262082:JFM262106 JPI262082:JPI262106 JZE262082:JZE262106 KJA262082:KJA262106 KSW262082:KSW262106 LCS262082:LCS262106 LMO262082:LMO262106 LWK262082:LWK262106 MGG262082:MGG262106 MQC262082:MQC262106 MZY262082:MZY262106 NJU262082:NJU262106 NTQ262082:NTQ262106 ODM262082:ODM262106 ONI262082:ONI262106 OXE262082:OXE262106 PHA262082:PHA262106 PQW262082:PQW262106 QAS262082:QAS262106 QKO262082:QKO262106 QUK262082:QUK262106 REG262082:REG262106 ROC262082:ROC262106 RXY262082:RXY262106 SHU262082:SHU262106 SRQ262082:SRQ262106 TBM262082:TBM262106 TLI262082:TLI262106 TVE262082:TVE262106 UFA262082:UFA262106 UOW262082:UOW262106 UYS262082:UYS262106 VIO262082:VIO262106 VSK262082:VSK262106 WCG262082:WCG262106 WMC262082:WMC262106 WVY262082:WVY262106 I327672:I327696 JM327618:JM327642 TI327618:TI327642 ADE327618:ADE327642 ANA327618:ANA327642 AWW327618:AWW327642 BGS327618:BGS327642 BQO327618:BQO327642 CAK327618:CAK327642 CKG327618:CKG327642 CUC327618:CUC327642 DDY327618:DDY327642 DNU327618:DNU327642 DXQ327618:DXQ327642 EHM327618:EHM327642 ERI327618:ERI327642 FBE327618:FBE327642 FLA327618:FLA327642 FUW327618:FUW327642 GES327618:GES327642 GOO327618:GOO327642 GYK327618:GYK327642 HIG327618:HIG327642 HSC327618:HSC327642 IBY327618:IBY327642 ILU327618:ILU327642 IVQ327618:IVQ327642 JFM327618:JFM327642 JPI327618:JPI327642 JZE327618:JZE327642 KJA327618:KJA327642 KSW327618:KSW327642 LCS327618:LCS327642 LMO327618:LMO327642 LWK327618:LWK327642 MGG327618:MGG327642 MQC327618:MQC327642 MZY327618:MZY327642 NJU327618:NJU327642 NTQ327618:NTQ327642 ODM327618:ODM327642 ONI327618:ONI327642 OXE327618:OXE327642 PHA327618:PHA327642 PQW327618:PQW327642 QAS327618:QAS327642 QKO327618:QKO327642 QUK327618:QUK327642 REG327618:REG327642 ROC327618:ROC327642 RXY327618:RXY327642 SHU327618:SHU327642 SRQ327618:SRQ327642 TBM327618:TBM327642 TLI327618:TLI327642 TVE327618:TVE327642 UFA327618:UFA327642 UOW327618:UOW327642 UYS327618:UYS327642 VIO327618:VIO327642 VSK327618:VSK327642 WCG327618:WCG327642 WMC327618:WMC327642 WVY327618:WVY327642 I393208:I393232 JM393154:JM393178 TI393154:TI393178 ADE393154:ADE393178 ANA393154:ANA393178 AWW393154:AWW393178 BGS393154:BGS393178 BQO393154:BQO393178 CAK393154:CAK393178 CKG393154:CKG393178 CUC393154:CUC393178 DDY393154:DDY393178 DNU393154:DNU393178 DXQ393154:DXQ393178 EHM393154:EHM393178 ERI393154:ERI393178 FBE393154:FBE393178 FLA393154:FLA393178 FUW393154:FUW393178 GES393154:GES393178 GOO393154:GOO393178 GYK393154:GYK393178 HIG393154:HIG393178 HSC393154:HSC393178 IBY393154:IBY393178 ILU393154:ILU393178 IVQ393154:IVQ393178 JFM393154:JFM393178 JPI393154:JPI393178 JZE393154:JZE393178 KJA393154:KJA393178 KSW393154:KSW393178 LCS393154:LCS393178 LMO393154:LMO393178 LWK393154:LWK393178 MGG393154:MGG393178 MQC393154:MQC393178 MZY393154:MZY393178 NJU393154:NJU393178 NTQ393154:NTQ393178 ODM393154:ODM393178 ONI393154:ONI393178 OXE393154:OXE393178 PHA393154:PHA393178 PQW393154:PQW393178 QAS393154:QAS393178 QKO393154:QKO393178 QUK393154:QUK393178 REG393154:REG393178 ROC393154:ROC393178 RXY393154:RXY393178 SHU393154:SHU393178 SRQ393154:SRQ393178 TBM393154:TBM393178 TLI393154:TLI393178 TVE393154:TVE393178 UFA393154:UFA393178 UOW393154:UOW393178 UYS393154:UYS393178 VIO393154:VIO393178 VSK393154:VSK393178 WCG393154:WCG393178 WMC393154:WMC393178 WVY393154:WVY393178 I458744:I458768 JM458690:JM458714 TI458690:TI458714 ADE458690:ADE458714 ANA458690:ANA458714 AWW458690:AWW458714 BGS458690:BGS458714 BQO458690:BQO458714 CAK458690:CAK458714 CKG458690:CKG458714 CUC458690:CUC458714 DDY458690:DDY458714 DNU458690:DNU458714 DXQ458690:DXQ458714 EHM458690:EHM458714 ERI458690:ERI458714 FBE458690:FBE458714 FLA458690:FLA458714 FUW458690:FUW458714 GES458690:GES458714 GOO458690:GOO458714 GYK458690:GYK458714 HIG458690:HIG458714 HSC458690:HSC458714 IBY458690:IBY458714 ILU458690:ILU458714 IVQ458690:IVQ458714 JFM458690:JFM458714 JPI458690:JPI458714 JZE458690:JZE458714 KJA458690:KJA458714 KSW458690:KSW458714 LCS458690:LCS458714 LMO458690:LMO458714 LWK458690:LWK458714 MGG458690:MGG458714 MQC458690:MQC458714 MZY458690:MZY458714 NJU458690:NJU458714 NTQ458690:NTQ458714 ODM458690:ODM458714 ONI458690:ONI458714 OXE458690:OXE458714 PHA458690:PHA458714 PQW458690:PQW458714 QAS458690:QAS458714 QKO458690:QKO458714 QUK458690:QUK458714 REG458690:REG458714 ROC458690:ROC458714 RXY458690:RXY458714 SHU458690:SHU458714 SRQ458690:SRQ458714 TBM458690:TBM458714 TLI458690:TLI458714 TVE458690:TVE458714 UFA458690:UFA458714 UOW458690:UOW458714 UYS458690:UYS458714 VIO458690:VIO458714 VSK458690:VSK458714 WCG458690:WCG458714 WMC458690:WMC458714 WVY458690:WVY458714 I524280:I524304 JM524226:JM524250 TI524226:TI524250 ADE524226:ADE524250 ANA524226:ANA524250 AWW524226:AWW524250 BGS524226:BGS524250 BQO524226:BQO524250 CAK524226:CAK524250 CKG524226:CKG524250 CUC524226:CUC524250 DDY524226:DDY524250 DNU524226:DNU524250 DXQ524226:DXQ524250 EHM524226:EHM524250 ERI524226:ERI524250 FBE524226:FBE524250 FLA524226:FLA524250 FUW524226:FUW524250 GES524226:GES524250 GOO524226:GOO524250 GYK524226:GYK524250 HIG524226:HIG524250 HSC524226:HSC524250 IBY524226:IBY524250 ILU524226:ILU524250 IVQ524226:IVQ524250 JFM524226:JFM524250 JPI524226:JPI524250 JZE524226:JZE524250 KJA524226:KJA524250 KSW524226:KSW524250 LCS524226:LCS524250 LMO524226:LMO524250 LWK524226:LWK524250 MGG524226:MGG524250 MQC524226:MQC524250 MZY524226:MZY524250 NJU524226:NJU524250 NTQ524226:NTQ524250 ODM524226:ODM524250 ONI524226:ONI524250 OXE524226:OXE524250 PHA524226:PHA524250 PQW524226:PQW524250 QAS524226:QAS524250 QKO524226:QKO524250 QUK524226:QUK524250 REG524226:REG524250 ROC524226:ROC524250 RXY524226:RXY524250 SHU524226:SHU524250 SRQ524226:SRQ524250 TBM524226:TBM524250 TLI524226:TLI524250 TVE524226:TVE524250 UFA524226:UFA524250 UOW524226:UOW524250 UYS524226:UYS524250 VIO524226:VIO524250 VSK524226:VSK524250 WCG524226:WCG524250 WMC524226:WMC524250 WVY524226:WVY524250 I589816:I589840 JM589762:JM589786 TI589762:TI589786 ADE589762:ADE589786 ANA589762:ANA589786 AWW589762:AWW589786 BGS589762:BGS589786 BQO589762:BQO589786 CAK589762:CAK589786 CKG589762:CKG589786 CUC589762:CUC589786 DDY589762:DDY589786 DNU589762:DNU589786 DXQ589762:DXQ589786 EHM589762:EHM589786 ERI589762:ERI589786 FBE589762:FBE589786 FLA589762:FLA589786 FUW589762:FUW589786 GES589762:GES589786 GOO589762:GOO589786 GYK589762:GYK589786 HIG589762:HIG589786 HSC589762:HSC589786 IBY589762:IBY589786 ILU589762:ILU589786 IVQ589762:IVQ589786 JFM589762:JFM589786 JPI589762:JPI589786 JZE589762:JZE589786 KJA589762:KJA589786 KSW589762:KSW589786 LCS589762:LCS589786 LMO589762:LMO589786 LWK589762:LWK589786 MGG589762:MGG589786 MQC589762:MQC589786 MZY589762:MZY589786 NJU589762:NJU589786 NTQ589762:NTQ589786 ODM589762:ODM589786 ONI589762:ONI589786 OXE589762:OXE589786 PHA589762:PHA589786 PQW589762:PQW589786 QAS589762:QAS589786 QKO589762:QKO589786 QUK589762:QUK589786 REG589762:REG589786 ROC589762:ROC589786 RXY589762:RXY589786 SHU589762:SHU589786 SRQ589762:SRQ589786 TBM589762:TBM589786 TLI589762:TLI589786 TVE589762:TVE589786 UFA589762:UFA589786 UOW589762:UOW589786 UYS589762:UYS589786 VIO589762:VIO589786 VSK589762:VSK589786 WCG589762:WCG589786 WMC589762:WMC589786 WVY589762:WVY589786 I655352:I655376 JM655298:JM655322 TI655298:TI655322 ADE655298:ADE655322 ANA655298:ANA655322 AWW655298:AWW655322 BGS655298:BGS655322 BQO655298:BQO655322 CAK655298:CAK655322 CKG655298:CKG655322 CUC655298:CUC655322 DDY655298:DDY655322 DNU655298:DNU655322 DXQ655298:DXQ655322 EHM655298:EHM655322 ERI655298:ERI655322 FBE655298:FBE655322 FLA655298:FLA655322 FUW655298:FUW655322 GES655298:GES655322 GOO655298:GOO655322 GYK655298:GYK655322 HIG655298:HIG655322 HSC655298:HSC655322 IBY655298:IBY655322 ILU655298:ILU655322 IVQ655298:IVQ655322 JFM655298:JFM655322 JPI655298:JPI655322 JZE655298:JZE655322 KJA655298:KJA655322 KSW655298:KSW655322 LCS655298:LCS655322 LMO655298:LMO655322 LWK655298:LWK655322 MGG655298:MGG655322 MQC655298:MQC655322 MZY655298:MZY655322 NJU655298:NJU655322 NTQ655298:NTQ655322 ODM655298:ODM655322 ONI655298:ONI655322 OXE655298:OXE655322 PHA655298:PHA655322 PQW655298:PQW655322 QAS655298:QAS655322 QKO655298:QKO655322 QUK655298:QUK655322 REG655298:REG655322 ROC655298:ROC655322 RXY655298:RXY655322 SHU655298:SHU655322 SRQ655298:SRQ655322 TBM655298:TBM655322 TLI655298:TLI655322 TVE655298:TVE655322 UFA655298:UFA655322 UOW655298:UOW655322 UYS655298:UYS655322 VIO655298:VIO655322 VSK655298:VSK655322 WCG655298:WCG655322 WMC655298:WMC655322 WVY655298:WVY655322 I720888:I720912 JM720834:JM720858 TI720834:TI720858 ADE720834:ADE720858 ANA720834:ANA720858 AWW720834:AWW720858 BGS720834:BGS720858 BQO720834:BQO720858 CAK720834:CAK720858 CKG720834:CKG720858 CUC720834:CUC720858 DDY720834:DDY720858 DNU720834:DNU720858 DXQ720834:DXQ720858 EHM720834:EHM720858 ERI720834:ERI720858 FBE720834:FBE720858 FLA720834:FLA720858 FUW720834:FUW720858 GES720834:GES720858 GOO720834:GOO720858 GYK720834:GYK720858 HIG720834:HIG720858 HSC720834:HSC720858 IBY720834:IBY720858 ILU720834:ILU720858 IVQ720834:IVQ720858 JFM720834:JFM720858 JPI720834:JPI720858 JZE720834:JZE720858 KJA720834:KJA720858 KSW720834:KSW720858 LCS720834:LCS720858 LMO720834:LMO720858 LWK720834:LWK720858 MGG720834:MGG720858 MQC720834:MQC720858 MZY720834:MZY720858 NJU720834:NJU720858 NTQ720834:NTQ720858 ODM720834:ODM720858 ONI720834:ONI720858 OXE720834:OXE720858 PHA720834:PHA720858 PQW720834:PQW720858 QAS720834:QAS720858 QKO720834:QKO720858 QUK720834:QUK720858 REG720834:REG720858 ROC720834:ROC720858 RXY720834:RXY720858 SHU720834:SHU720858 SRQ720834:SRQ720858 TBM720834:TBM720858 TLI720834:TLI720858 TVE720834:TVE720858 UFA720834:UFA720858 UOW720834:UOW720858 UYS720834:UYS720858 VIO720834:VIO720858 VSK720834:VSK720858 WCG720834:WCG720858 WMC720834:WMC720858 WVY720834:WVY720858 I786424:I786448 JM786370:JM786394 TI786370:TI786394 ADE786370:ADE786394 ANA786370:ANA786394 AWW786370:AWW786394 BGS786370:BGS786394 BQO786370:BQO786394 CAK786370:CAK786394 CKG786370:CKG786394 CUC786370:CUC786394 DDY786370:DDY786394 DNU786370:DNU786394 DXQ786370:DXQ786394 EHM786370:EHM786394 ERI786370:ERI786394 FBE786370:FBE786394 FLA786370:FLA786394 FUW786370:FUW786394 GES786370:GES786394 GOO786370:GOO786394 GYK786370:GYK786394 HIG786370:HIG786394 HSC786370:HSC786394 IBY786370:IBY786394 ILU786370:ILU786394 IVQ786370:IVQ786394 JFM786370:JFM786394 JPI786370:JPI786394 JZE786370:JZE786394 KJA786370:KJA786394 KSW786370:KSW786394 LCS786370:LCS786394 LMO786370:LMO786394 LWK786370:LWK786394 MGG786370:MGG786394 MQC786370:MQC786394 MZY786370:MZY786394 NJU786370:NJU786394 NTQ786370:NTQ786394 ODM786370:ODM786394 ONI786370:ONI786394 OXE786370:OXE786394 PHA786370:PHA786394 PQW786370:PQW786394 QAS786370:QAS786394 QKO786370:QKO786394 QUK786370:QUK786394 REG786370:REG786394 ROC786370:ROC786394 RXY786370:RXY786394 SHU786370:SHU786394 SRQ786370:SRQ786394 TBM786370:TBM786394 TLI786370:TLI786394 TVE786370:TVE786394 UFA786370:UFA786394 UOW786370:UOW786394 UYS786370:UYS786394 VIO786370:VIO786394 VSK786370:VSK786394 WCG786370:WCG786394 WMC786370:WMC786394 WVY786370:WVY786394 I851960:I851984 JM851906:JM851930 TI851906:TI851930 ADE851906:ADE851930 ANA851906:ANA851930 AWW851906:AWW851930 BGS851906:BGS851930 BQO851906:BQO851930 CAK851906:CAK851930 CKG851906:CKG851930 CUC851906:CUC851930 DDY851906:DDY851930 DNU851906:DNU851930 DXQ851906:DXQ851930 EHM851906:EHM851930 ERI851906:ERI851930 FBE851906:FBE851930 FLA851906:FLA851930 FUW851906:FUW851930 GES851906:GES851930 GOO851906:GOO851930 GYK851906:GYK851930 HIG851906:HIG851930 HSC851906:HSC851930 IBY851906:IBY851930 ILU851906:ILU851930 IVQ851906:IVQ851930 JFM851906:JFM851930 JPI851906:JPI851930 JZE851906:JZE851930 KJA851906:KJA851930 KSW851906:KSW851930 LCS851906:LCS851930 LMO851906:LMO851930 LWK851906:LWK851930 MGG851906:MGG851930 MQC851906:MQC851930 MZY851906:MZY851930 NJU851906:NJU851930 NTQ851906:NTQ851930 ODM851906:ODM851930 ONI851906:ONI851930 OXE851906:OXE851930 PHA851906:PHA851930 PQW851906:PQW851930 QAS851906:QAS851930 QKO851906:QKO851930 QUK851906:QUK851930 REG851906:REG851930 ROC851906:ROC851930 RXY851906:RXY851930 SHU851906:SHU851930 SRQ851906:SRQ851930 TBM851906:TBM851930 TLI851906:TLI851930 TVE851906:TVE851930 UFA851906:UFA851930 UOW851906:UOW851930 UYS851906:UYS851930 VIO851906:VIO851930 VSK851906:VSK851930 WCG851906:WCG851930 WMC851906:WMC851930 WVY851906:WVY851930 I917496:I917520 JM917442:JM917466 TI917442:TI917466 ADE917442:ADE917466 ANA917442:ANA917466 AWW917442:AWW917466 BGS917442:BGS917466 BQO917442:BQO917466 CAK917442:CAK917466 CKG917442:CKG917466 CUC917442:CUC917466 DDY917442:DDY917466 DNU917442:DNU917466 DXQ917442:DXQ917466 EHM917442:EHM917466 ERI917442:ERI917466 FBE917442:FBE917466 FLA917442:FLA917466 FUW917442:FUW917466 GES917442:GES917466 GOO917442:GOO917466 GYK917442:GYK917466 HIG917442:HIG917466 HSC917442:HSC917466 IBY917442:IBY917466 ILU917442:ILU917466 IVQ917442:IVQ917466 JFM917442:JFM917466 JPI917442:JPI917466 JZE917442:JZE917466 KJA917442:KJA917466 KSW917442:KSW917466 LCS917442:LCS917466 LMO917442:LMO917466 LWK917442:LWK917466 MGG917442:MGG917466 MQC917442:MQC917466 MZY917442:MZY917466 NJU917442:NJU917466 NTQ917442:NTQ917466 ODM917442:ODM917466 ONI917442:ONI917466 OXE917442:OXE917466 PHA917442:PHA917466 PQW917442:PQW917466 QAS917442:QAS917466 QKO917442:QKO917466 QUK917442:QUK917466 REG917442:REG917466 ROC917442:ROC917466 RXY917442:RXY917466 SHU917442:SHU917466 SRQ917442:SRQ917466 TBM917442:TBM917466 TLI917442:TLI917466 TVE917442:TVE917466 UFA917442:UFA917466 UOW917442:UOW917466 UYS917442:UYS917466 VIO917442:VIO917466 VSK917442:VSK917466 WCG917442:WCG917466 WMC917442:WMC917466 WVY917442:WVY917466 I983032:I983056 JM982978:JM983002 TI982978:TI983002 ADE982978:ADE983002 ANA982978:ANA983002 AWW982978:AWW983002 BGS982978:BGS983002 BQO982978:BQO983002 CAK982978:CAK983002 CKG982978:CKG983002 CUC982978:CUC983002 DDY982978:DDY983002 DNU982978:DNU983002 DXQ982978:DXQ983002 EHM982978:EHM983002 ERI982978:ERI983002 FBE982978:FBE983002 FLA982978:FLA983002 FUW982978:FUW983002 GES982978:GES983002 GOO982978:GOO983002 GYK982978:GYK983002 HIG982978:HIG983002 HSC982978:HSC983002 IBY982978:IBY983002 ILU982978:ILU983002 IVQ982978:IVQ983002 JFM982978:JFM983002 JPI982978:JPI983002 JZE982978:JZE983002 KJA982978:KJA983002 KSW982978:KSW983002 LCS982978:LCS983002 LMO982978:LMO983002 LWK982978:LWK983002 MGG982978:MGG983002 MQC982978:MQC983002 MZY982978:MZY983002 NJU982978:NJU983002 NTQ982978:NTQ983002 ODM982978:ODM983002 ONI982978:ONI983002 OXE982978:OXE983002 PHA982978:PHA983002 PQW982978:PQW983002 QAS982978:QAS983002 QKO982978:QKO983002 QUK982978:QUK983002 REG982978:REG983002 ROC982978:ROC983002 RXY982978:RXY983002 SHU982978:SHU983002 SRQ982978:SRQ983002 TBM982978:TBM983002 TLI982978:TLI983002 TVE982978:TVE983002 UFA982978:UFA983002 UOW982978:UOW983002 UYS982978:UYS983002 VIO982978:VIO983002 VSK982978:VSK983002 WCG982978:WCG983002 WMC982978:WMC983002 WVY982978:WVY983002 WVY5:WVY25 JM5:JM25 TI5:TI25 ADE5:ADE25 ANA5:ANA25 AWW5:AWW25 BGS5:BGS25 BQO5:BQO25 CAK5:CAK25 CKG5:CKG25 CUC5:CUC25 DDY5:DDY25 DNU5:DNU25 DXQ5:DXQ25 EHM5:EHM25 ERI5:ERI25 FBE5:FBE25 FLA5:FLA25 FUW5:FUW25 GES5:GES25 GOO5:GOO25 GYK5:GYK25 HIG5:HIG25 HSC5:HSC25 IBY5:IBY25 ILU5:ILU25 IVQ5:IVQ25 JFM5:JFM25 JPI5:JPI25 JZE5:JZE25 KJA5:KJA25 KSW5:KSW25 LCS5:LCS25 LMO5:LMO25 LWK5:LWK25 MGG5:MGG25 MQC5:MQC25 MZY5:MZY25 NJU5:NJU25 NTQ5:NTQ25 ODM5:ODM25 ONI5:ONI25 OXE5:OXE25 PHA5:PHA25 PQW5:PQW25 QAS5:QAS25 QKO5:QKO25 QUK5:QUK25 REG5:REG25 ROC5:ROC25 RXY5:RXY25 SHU5:SHU25 SRQ5:SRQ25 TBM5:TBM25 TLI5:TLI25 TVE5:TVE25 UFA5:UFA25 UOW5:UOW25 UYS5:UYS25 VIO5:VIO25 VSK5:VSK25 WCG5:WCG25 WMC5:WMC25" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$K$5:$K$11</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="ادخل المصروفات من الجدول" error="الرجاء ادخال المصروفات من النطاقات المحددة" sqref="WVX983004:WVX983071 JL27:JL85 WMB983004:WMB983071 WCF983004:WCF983071 VSJ983004:VSJ983071 VIN983004:VIN983071 UYR983004:UYR983071 UOV983004:UOV983071 UEZ983004:UEZ983071 TVD983004:TVD983071 TLH983004:TLH983071 TBL983004:TBL983071 SRP983004:SRP983071 SHT983004:SHT983071 RXX983004:RXX983071 ROB983004:ROB983071 REF983004:REF983071 QUJ983004:QUJ983071 QKN983004:QKN983071 QAR983004:QAR983071 PQV983004:PQV983071 PGZ983004:PGZ983071 OXD983004:OXD983071 ONH983004:ONH983071 ODL983004:ODL983071 NTP983004:NTP983071 NJT983004:NJT983071 MZX983004:MZX983071 MQB983004:MQB983071 MGF983004:MGF983071 LWJ983004:LWJ983071 LMN983004:LMN983071 LCR983004:LCR983071 KSV983004:KSV983071 KIZ983004:KIZ983071 JZD983004:JZD983071 JPH983004:JPH983071 JFL983004:JFL983071 IVP983004:IVP983071 ILT983004:ILT983071 IBX983004:IBX983071 HSB983004:HSB983071 HIF983004:HIF983071 GYJ983004:GYJ983071 GON983004:GON983071 GER983004:GER983071 FUV983004:FUV983071 FKZ983004:FKZ983071 FBD983004:FBD983071 ERH983004:ERH983071 EHL983004:EHL983071 DXP983004:DXP983071 DNT983004:DNT983071 DDX983004:DDX983071 CUB983004:CUB983071 CKF983004:CKF983071 CAJ983004:CAJ983071 BQN983004:BQN983071 BGR983004:BGR983071 AWV983004:AWV983071 AMZ983004:AMZ983071 ADD983004:ADD983071 TH983004:TH983071 JL983004:JL983071 I983058:I983125 WVX917468:WVX917535 WMB917468:WMB917535 WCF917468:WCF917535 VSJ917468:VSJ917535 VIN917468:VIN917535 UYR917468:UYR917535 UOV917468:UOV917535 UEZ917468:UEZ917535 TVD917468:TVD917535 TLH917468:TLH917535 TBL917468:TBL917535 SRP917468:SRP917535 SHT917468:SHT917535 RXX917468:RXX917535 ROB917468:ROB917535 REF917468:REF917535 QUJ917468:QUJ917535 QKN917468:QKN917535 QAR917468:QAR917535 PQV917468:PQV917535 PGZ917468:PGZ917535 OXD917468:OXD917535 ONH917468:ONH917535 ODL917468:ODL917535 NTP917468:NTP917535 NJT917468:NJT917535 MZX917468:MZX917535 MQB917468:MQB917535 MGF917468:MGF917535 LWJ917468:LWJ917535 LMN917468:LMN917535 LCR917468:LCR917535 KSV917468:KSV917535 KIZ917468:KIZ917535 JZD917468:JZD917535 JPH917468:JPH917535 JFL917468:JFL917535 IVP917468:IVP917535 ILT917468:ILT917535 IBX917468:IBX917535 HSB917468:HSB917535 HIF917468:HIF917535 GYJ917468:GYJ917535 GON917468:GON917535 GER917468:GER917535 FUV917468:FUV917535 FKZ917468:FKZ917535 FBD917468:FBD917535 ERH917468:ERH917535 EHL917468:EHL917535 DXP917468:DXP917535 DNT917468:DNT917535 DDX917468:DDX917535 CUB917468:CUB917535 CKF917468:CKF917535 CAJ917468:CAJ917535 BQN917468:BQN917535 BGR917468:BGR917535 AWV917468:AWV917535 AMZ917468:AMZ917535 ADD917468:ADD917535 TH917468:TH917535 JL917468:JL917535 I917522:I917589 WVX851932:WVX851999 WMB851932:WMB851999 WCF851932:WCF851999 VSJ851932:VSJ851999 VIN851932:VIN851999 UYR851932:UYR851999 UOV851932:UOV851999 UEZ851932:UEZ851999 TVD851932:TVD851999 TLH851932:TLH851999 TBL851932:TBL851999 SRP851932:SRP851999 SHT851932:SHT851999 RXX851932:RXX851999 ROB851932:ROB851999 REF851932:REF851999 QUJ851932:QUJ851999 QKN851932:QKN851999 QAR851932:QAR851999 PQV851932:PQV851999 PGZ851932:PGZ851999 OXD851932:OXD851999 ONH851932:ONH851999 ODL851932:ODL851999 NTP851932:NTP851999 NJT851932:NJT851999 MZX851932:MZX851999 MQB851932:MQB851999 MGF851932:MGF851999 LWJ851932:LWJ851999 LMN851932:LMN851999 LCR851932:LCR851999 KSV851932:KSV851999 KIZ851932:KIZ851999 JZD851932:JZD851999 JPH851932:JPH851999 JFL851932:JFL851999 IVP851932:IVP851999 ILT851932:ILT851999 IBX851932:IBX851999 HSB851932:HSB851999 HIF851932:HIF851999 GYJ851932:GYJ851999 GON851932:GON851999 GER851932:GER851999 FUV851932:FUV851999 FKZ851932:FKZ851999 FBD851932:FBD851999 ERH851932:ERH851999 EHL851932:EHL851999 DXP851932:DXP851999 DNT851932:DNT851999 DDX851932:DDX851999 CUB851932:CUB851999 CKF851932:CKF851999 CAJ851932:CAJ851999 BQN851932:BQN851999 BGR851932:BGR851999 AWV851932:AWV851999 AMZ851932:AMZ851999 ADD851932:ADD851999 TH851932:TH851999 JL851932:JL851999 I851986:I852053 WVX786396:WVX786463 WMB786396:WMB786463 WCF786396:WCF786463 VSJ786396:VSJ786463 VIN786396:VIN786463 UYR786396:UYR786463 UOV786396:UOV786463 UEZ786396:UEZ786463 TVD786396:TVD786463 TLH786396:TLH786463 TBL786396:TBL786463 SRP786396:SRP786463 SHT786396:SHT786463 RXX786396:RXX786463 ROB786396:ROB786463 REF786396:REF786463 QUJ786396:QUJ786463 QKN786396:QKN786463 QAR786396:QAR786463 PQV786396:PQV786463 PGZ786396:PGZ786463 OXD786396:OXD786463 ONH786396:ONH786463 ODL786396:ODL786463 NTP786396:NTP786463 NJT786396:NJT786463 MZX786396:MZX786463 MQB786396:MQB786463 MGF786396:MGF786463 LWJ786396:LWJ786463 LMN786396:LMN786463 LCR786396:LCR786463 KSV786396:KSV786463 KIZ786396:KIZ786463 JZD786396:JZD786463 JPH786396:JPH786463 JFL786396:JFL786463 IVP786396:IVP786463 ILT786396:ILT786463 IBX786396:IBX786463 HSB786396:HSB786463 HIF786396:HIF786463 GYJ786396:GYJ786463 GON786396:GON786463 GER786396:GER786463 FUV786396:FUV786463 FKZ786396:FKZ786463 FBD786396:FBD786463 ERH786396:ERH786463 EHL786396:EHL786463 DXP786396:DXP786463 DNT786396:DNT786463 DDX786396:DDX786463 CUB786396:CUB786463 CKF786396:CKF786463 CAJ786396:CAJ786463 BQN786396:BQN786463 BGR786396:BGR786463 AWV786396:AWV786463 AMZ786396:AMZ786463 ADD786396:ADD786463 TH786396:TH786463 JL786396:JL786463 I786450:I786517 WVX720860:WVX720927 WMB720860:WMB720927 WCF720860:WCF720927 VSJ720860:VSJ720927 VIN720860:VIN720927 UYR720860:UYR720927 UOV720860:UOV720927 UEZ720860:UEZ720927 TVD720860:TVD720927 TLH720860:TLH720927 TBL720860:TBL720927 SRP720860:SRP720927 SHT720860:SHT720927 RXX720860:RXX720927 ROB720860:ROB720927 REF720860:REF720927 QUJ720860:QUJ720927 QKN720860:QKN720927 QAR720860:QAR720927 PQV720860:PQV720927 PGZ720860:PGZ720927 OXD720860:OXD720927 ONH720860:ONH720927 ODL720860:ODL720927 NTP720860:NTP720927 NJT720860:NJT720927 MZX720860:MZX720927 MQB720860:MQB720927 MGF720860:MGF720927 LWJ720860:LWJ720927 LMN720860:LMN720927 LCR720860:LCR720927 KSV720860:KSV720927 KIZ720860:KIZ720927 JZD720860:JZD720927 JPH720860:JPH720927 JFL720860:JFL720927 IVP720860:IVP720927 ILT720860:ILT720927 IBX720860:IBX720927 HSB720860:HSB720927 HIF720860:HIF720927 GYJ720860:GYJ720927 GON720860:GON720927 GER720860:GER720927 FUV720860:FUV720927 FKZ720860:FKZ720927 FBD720860:FBD720927 ERH720860:ERH720927 EHL720860:EHL720927 DXP720860:DXP720927 DNT720860:DNT720927 DDX720860:DDX720927 CUB720860:CUB720927 CKF720860:CKF720927 CAJ720860:CAJ720927 BQN720860:BQN720927 BGR720860:BGR720927 AWV720860:AWV720927 AMZ720860:AMZ720927 ADD720860:ADD720927 TH720860:TH720927 JL720860:JL720927 I720914:I720981 WVX655324:WVX655391 WMB655324:WMB655391 WCF655324:WCF655391 VSJ655324:VSJ655391 VIN655324:VIN655391 UYR655324:UYR655391 UOV655324:UOV655391 UEZ655324:UEZ655391 TVD655324:TVD655391 TLH655324:TLH655391 TBL655324:TBL655391 SRP655324:SRP655391 SHT655324:SHT655391 RXX655324:RXX655391 ROB655324:ROB655391 REF655324:REF655391 QUJ655324:QUJ655391 QKN655324:QKN655391 QAR655324:QAR655391 PQV655324:PQV655391 PGZ655324:PGZ655391 OXD655324:OXD655391 ONH655324:ONH655391 ODL655324:ODL655391 NTP655324:NTP655391 NJT655324:NJT655391 MZX655324:MZX655391 MQB655324:MQB655391 MGF655324:MGF655391 LWJ655324:LWJ655391 LMN655324:LMN655391 LCR655324:LCR655391 KSV655324:KSV655391 KIZ655324:KIZ655391 JZD655324:JZD655391 JPH655324:JPH655391 JFL655324:JFL655391 IVP655324:IVP655391 ILT655324:ILT655391 IBX655324:IBX655391 HSB655324:HSB655391 HIF655324:HIF655391 GYJ655324:GYJ655391 GON655324:GON655391 GER655324:GER655391 FUV655324:FUV655391 FKZ655324:FKZ655391 FBD655324:FBD655391 ERH655324:ERH655391 EHL655324:EHL655391 DXP655324:DXP655391 DNT655324:DNT655391 DDX655324:DDX655391 CUB655324:CUB655391 CKF655324:CKF655391 CAJ655324:CAJ655391 BQN655324:BQN655391 BGR655324:BGR655391 AWV655324:AWV655391 AMZ655324:AMZ655391 ADD655324:ADD655391 TH655324:TH655391 JL655324:JL655391 I655378:I655445 WVX589788:WVX589855 WMB589788:WMB589855 WCF589788:WCF589855 VSJ589788:VSJ589855 VIN589788:VIN589855 UYR589788:UYR589855 UOV589788:UOV589855 UEZ589788:UEZ589855 TVD589788:TVD589855 TLH589788:TLH589855 TBL589788:TBL589855 SRP589788:SRP589855 SHT589788:SHT589855 RXX589788:RXX589855 ROB589788:ROB589855 REF589788:REF589855 QUJ589788:QUJ589855 QKN589788:QKN589855 QAR589788:QAR589855 PQV589788:PQV589855 PGZ589788:PGZ589855 OXD589788:OXD589855 ONH589788:ONH589855 ODL589788:ODL589855 NTP589788:NTP589855 NJT589788:NJT589855 MZX589788:MZX589855 MQB589788:MQB589855 MGF589788:MGF589855 LWJ589788:LWJ589855 LMN589788:LMN589855 LCR589788:LCR589855 KSV589788:KSV589855 KIZ589788:KIZ589855 JZD589788:JZD589855 JPH589788:JPH589855 JFL589788:JFL589855 IVP589788:IVP589855 ILT589788:ILT589855 IBX589788:IBX589855 HSB589788:HSB589855 HIF589788:HIF589855 GYJ589788:GYJ589855 GON589788:GON589855 GER589788:GER589855 FUV589788:FUV589855 FKZ589788:FKZ589855 FBD589788:FBD589855 ERH589788:ERH589855 EHL589788:EHL589855 DXP589788:DXP589855 DNT589788:DNT589855 DDX589788:DDX589855 CUB589788:CUB589855 CKF589788:CKF589855 CAJ589788:CAJ589855 BQN589788:BQN589855 BGR589788:BGR589855 AWV589788:AWV589855 AMZ589788:AMZ589855 ADD589788:ADD589855 TH589788:TH589855 JL589788:JL589855 I589842:I589909 WVX524252:WVX524319 WMB524252:WMB524319 WCF524252:WCF524319 VSJ524252:VSJ524319 VIN524252:VIN524319 UYR524252:UYR524319 UOV524252:UOV524319 UEZ524252:UEZ524319 TVD524252:TVD524319 TLH524252:TLH524319 TBL524252:TBL524319 SRP524252:SRP524319 SHT524252:SHT524319 RXX524252:RXX524319 ROB524252:ROB524319 REF524252:REF524319 QUJ524252:QUJ524319 QKN524252:QKN524319 QAR524252:QAR524319 PQV524252:PQV524319 PGZ524252:PGZ524319 OXD524252:OXD524319 ONH524252:ONH524319 ODL524252:ODL524319 NTP524252:NTP524319 NJT524252:NJT524319 MZX524252:MZX524319 MQB524252:MQB524319 MGF524252:MGF524319 LWJ524252:LWJ524319 LMN524252:LMN524319 LCR524252:LCR524319 KSV524252:KSV524319 KIZ524252:KIZ524319 JZD524252:JZD524319 JPH524252:JPH524319 JFL524252:JFL524319 IVP524252:IVP524319 ILT524252:ILT524319 IBX524252:IBX524319 HSB524252:HSB524319 HIF524252:HIF524319 GYJ524252:GYJ524319 GON524252:GON524319 GER524252:GER524319 FUV524252:FUV524319 FKZ524252:FKZ524319 FBD524252:FBD524319 ERH524252:ERH524319 EHL524252:EHL524319 DXP524252:DXP524319 DNT524252:DNT524319 DDX524252:DDX524319 CUB524252:CUB524319 CKF524252:CKF524319 CAJ524252:CAJ524319 BQN524252:BQN524319 BGR524252:BGR524319 AWV524252:AWV524319 AMZ524252:AMZ524319 ADD524252:ADD524319 TH524252:TH524319 JL524252:JL524319 I524306:I524373 WVX458716:WVX458783 WMB458716:WMB458783 WCF458716:WCF458783 VSJ458716:VSJ458783 VIN458716:VIN458783 UYR458716:UYR458783 UOV458716:UOV458783 UEZ458716:UEZ458783 TVD458716:TVD458783 TLH458716:TLH458783 TBL458716:TBL458783 SRP458716:SRP458783 SHT458716:SHT458783 RXX458716:RXX458783 ROB458716:ROB458783 REF458716:REF458783 QUJ458716:QUJ458783 QKN458716:QKN458783 QAR458716:QAR458783 PQV458716:PQV458783 PGZ458716:PGZ458783 OXD458716:OXD458783 ONH458716:ONH458783 ODL458716:ODL458783 NTP458716:NTP458783 NJT458716:NJT458783 MZX458716:MZX458783 MQB458716:MQB458783 MGF458716:MGF458783 LWJ458716:LWJ458783 LMN458716:LMN458783 LCR458716:LCR458783 KSV458716:KSV458783 KIZ458716:KIZ458783 JZD458716:JZD458783 JPH458716:JPH458783 JFL458716:JFL458783 IVP458716:IVP458783 ILT458716:ILT458783 IBX458716:IBX458783 HSB458716:HSB458783 HIF458716:HIF458783 GYJ458716:GYJ458783 GON458716:GON458783 GER458716:GER458783 FUV458716:FUV458783 FKZ458716:FKZ458783 FBD458716:FBD458783 ERH458716:ERH458783 EHL458716:EHL458783 DXP458716:DXP458783 DNT458716:DNT458783 DDX458716:DDX458783 CUB458716:CUB458783 CKF458716:CKF458783 CAJ458716:CAJ458783 BQN458716:BQN458783 BGR458716:BGR458783 AWV458716:AWV458783 AMZ458716:AMZ458783 ADD458716:ADD458783 TH458716:TH458783 JL458716:JL458783 I458770:I458837 WVX393180:WVX393247 WMB393180:WMB393247 WCF393180:WCF393247 VSJ393180:VSJ393247 VIN393180:VIN393247 UYR393180:UYR393247 UOV393180:UOV393247 UEZ393180:UEZ393247 TVD393180:TVD393247 TLH393180:TLH393247 TBL393180:TBL393247 SRP393180:SRP393247 SHT393180:SHT393247 RXX393180:RXX393247 ROB393180:ROB393247 REF393180:REF393247 QUJ393180:QUJ393247 QKN393180:QKN393247 QAR393180:QAR393247 PQV393180:PQV393247 PGZ393180:PGZ393247 OXD393180:OXD393247 ONH393180:ONH393247 ODL393180:ODL393247 NTP393180:NTP393247 NJT393180:NJT393247 MZX393180:MZX393247 MQB393180:MQB393247 MGF393180:MGF393247 LWJ393180:LWJ393247 LMN393180:LMN393247 LCR393180:LCR393247 KSV393180:KSV393247 KIZ393180:KIZ393247 JZD393180:JZD393247 JPH393180:JPH393247 JFL393180:JFL393247 IVP393180:IVP393247 ILT393180:ILT393247 IBX393180:IBX393247 HSB393180:HSB393247 HIF393180:HIF393247 GYJ393180:GYJ393247 GON393180:GON393247 GER393180:GER393247 FUV393180:FUV393247 FKZ393180:FKZ393247 FBD393180:FBD393247 ERH393180:ERH393247 EHL393180:EHL393247 DXP393180:DXP393247 DNT393180:DNT393247 DDX393180:DDX393247 CUB393180:CUB393247 CKF393180:CKF393247 CAJ393180:CAJ393247 BQN393180:BQN393247 BGR393180:BGR393247 AWV393180:AWV393247 AMZ393180:AMZ393247 ADD393180:ADD393247 TH393180:TH393247 JL393180:JL393247 I393234:I393301 WVX327644:WVX327711 WMB327644:WMB327711 WCF327644:WCF327711 VSJ327644:VSJ327711 VIN327644:VIN327711 UYR327644:UYR327711 UOV327644:UOV327711 UEZ327644:UEZ327711 TVD327644:TVD327711 TLH327644:TLH327711 TBL327644:TBL327711 SRP327644:SRP327711 SHT327644:SHT327711 RXX327644:RXX327711 ROB327644:ROB327711 REF327644:REF327711 QUJ327644:QUJ327711 QKN327644:QKN327711 QAR327644:QAR327711 PQV327644:PQV327711 PGZ327644:PGZ327711 OXD327644:OXD327711 ONH327644:ONH327711 ODL327644:ODL327711 NTP327644:NTP327711 NJT327644:NJT327711 MZX327644:MZX327711 MQB327644:MQB327711 MGF327644:MGF327711 LWJ327644:LWJ327711 LMN327644:LMN327711 LCR327644:LCR327711 KSV327644:KSV327711 KIZ327644:KIZ327711 JZD327644:JZD327711 JPH327644:JPH327711 JFL327644:JFL327711 IVP327644:IVP327711 ILT327644:ILT327711 IBX327644:IBX327711 HSB327644:HSB327711 HIF327644:HIF327711 GYJ327644:GYJ327711 GON327644:GON327711 GER327644:GER327711 FUV327644:FUV327711 FKZ327644:FKZ327711 FBD327644:FBD327711 ERH327644:ERH327711 EHL327644:EHL327711 DXP327644:DXP327711 DNT327644:DNT327711 DDX327644:DDX327711 CUB327644:CUB327711 CKF327644:CKF327711 CAJ327644:CAJ327711 BQN327644:BQN327711 BGR327644:BGR327711 AWV327644:AWV327711 AMZ327644:AMZ327711 ADD327644:ADD327711 TH327644:TH327711 JL327644:JL327711 I327698:I327765 WVX262108:WVX262175 WMB262108:WMB262175 WCF262108:WCF262175 VSJ262108:VSJ262175 VIN262108:VIN262175 UYR262108:UYR262175 UOV262108:UOV262175 UEZ262108:UEZ262175 TVD262108:TVD262175 TLH262108:TLH262175 TBL262108:TBL262175 SRP262108:SRP262175 SHT262108:SHT262175 RXX262108:RXX262175 ROB262108:ROB262175 REF262108:REF262175 QUJ262108:QUJ262175 QKN262108:QKN262175 QAR262108:QAR262175 PQV262108:PQV262175 PGZ262108:PGZ262175 OXD262108:OXD262175 ONH262108:ONH262175 ODL262108:ODL262175 NTP262108:NTP262175 NJT262108:NJT262175 MZX262108:MZX262175 MQB262108:MQB262175 MGF262108:MGF262175 LWJ262108:LWJ262175 LMN262108:LMN262175 LCR262108:LCR262175 KSV262108:KSV262175 KIZ262108:KIZ262175 JZD262108:JZD262175 JPH262108:JPH262175 JFL262108:JFL262175 IVP262108:IVP262175 ILT262108:ILT262175 IBX262108:IBX262175 HSB262108:HSB262175 HIF262108:HIF262175 GYJ262108:GYJ262175 GON262108:GON262175 GER262108:GER262175 FUV262108:FUV262175 FKZ262108:FKZ262175 FBD262108:FBD262175 ERH262108:ERH262175 EHL262108:EHL262175 DXP262108:DXP262175 DNT262108:DNT262175 DDX262108:DDX262175 CUB262108:CUB262175 CKF262108:CKF262175 CAJ262108:CAJ262175 BQN262108:BQN262175 BGR262108:BGR262175 AWV262108:AWV262175 AMZ262108:AMZ262175 ADD262108:ADD262175 TH262108:TH262175 JL262108:JL262175 I262162:I262229 WVX196572:WVX196639 WMB196572:WMB196639 WCF196572:WCF196639 VSJ196572:VSJ196639 VIN196572:VIN196639 UYR196572:UYR196639 UOV196572:UOV196639 UEZ196572:UEZ196639 TVD196572:TVD196639 TLH196572:TLH196639 TBL196572:TBL196639 SRP196572:SRP196639 SHT196572:SHT196639 RXX196572:RXX196639 ROB196572:ROB196639 REF196572:REF196639 QUJ196572:QUJ196639 QKN196572:QKN196639 QAR196572:QAR196639 PQV196572:PQV196639 PGZ196572:PGZ196639 OXD196572:OXD196639 ONH196572:ONH196639 ODL196572:ODL196639 NTP196572:NTP196639 NJT196572:NJT196639 MZX196572:MZX196639 MQB196572:MQB196639 MGF196572:MGF196639 LWJ196572:LWJ196639 LMN196572:LMN196639 LCR196572:LCR196639 KSV196572:KSV196639 KIZ196572:KIZ196639 JZD196572:JZD196639 JPH196572:JPH196639 JFL196572:JFL196639 IVP196572:IVP196639 ILT196572:ILT196639 IBX196572:IBX196639 HSB196572:HSB196639 HIF196572:HIF196639 GYJ196572:GYJ196639 GON196572:GON196639 GER196572:GER196639 FUV196572:FUV196639 FKZ196572:FKZ196639 FBD196572:FBD196639 ERH196572:ERH196639 EHL196572:EHL196639 DXP196572:DXP196639 DNT196572:DNT196639 DDX196572:DDX196639 CUB196572:CUB196639 CKF196572:CKF196639 CAJ196572:CAJ196639 BQN196572:BQN196639 BGR196572:BGR196639 AWV196572:AWV196639 AMZ196572:AMZ196639 ADD196572:ADD196639 TH196572:TH196639 JL196572:JL196639 I196626:I196693 WVX131036:WVX131103 WMB131036:WMB131103 WCF131036:WCF131103 VSJ131036:VSJ131103 VIN131036:VIN131103 UYR131036:UYR131103 UOV131036:UOV131103 UEZ131036:UEZ131103 TVD131036:TVD131103 TLH131036:TLH131103 TBL131036:TBL131103 SRP131036:SRP131103 SHT131036:SHT131103 RXX131036:RXX131103 ROB131036:ROB131103 REF131036:REF131103 QUJ131036:QUJ131103 QKN131036:QKN131103 QAR131036:QAR131103 PQV131036:PQV131103 PGZ131036:PGZ131103 OXD131036:OXD131103 ONH131036:ONH131103 ODL131036:ODL131103 NTP131036:NTP131103 NJT131036:NJT131103 MZX131036:MZX131103 MQB131036:MQB131103 MGF131036:MGF131103 LWJ131036:LWJ131103 LMN131036:LMN131103 LCR131036:LCR131103 KSV131036:KSV131103 KIZ131036:KIZ131103 JZD131036:JZD131103 JPH131036:JPH131103 JFL131036:JFL131103 IVP131036:IVP131103 ILT131036:ILT131103 IBX131036:IBX131103 HSB131036:HSB131103 HIF131036:HIF131103 GYJ131036:GYJ131103 GON131036:GON131103 GER131036:GER131103 FUV131036:FUV131103 FKZ131036:FKZ131103 FBD131036:FBD131103 ERH131036:ERH131103 EHL131036:EHL131103 DXP131036:DXP131103 DNT131036:DNT131103 DDX131036:DDX131103 CUB131036:CUB131103 CKF131036:CKF131103 CAJ131036:CAJ131103 BQN131036:BQN131103 BGR131036:BGR131103 AWV131036:AWV131103 AMZ131036:AMZ131103 ADD131036:ADD131103 TH131036:TH131103 JL131036:JL131103 I131090:I131157 WVX65500:WVX65567 WMB65500:WMB65567 WCF65500:WCF65567 VSJ65500:VSJ65567 VIN65500:VIN65567 UYR65500:UYR65567 UOV65500:UOV65567 UEZ65500:UEZ65567 TVD65500:TVD65567 TLH65500:TLH65567 TBL65500:TBL65567 SRP65500:SRP65567 SHT65500:SHT65567 RXX65500:RXX65567 ROB65500:ROB65567 REF65500:REF65567 QUJ65500:QUJ65567 QKN65500:QKN65567 QAR65500:QAR65567 PQV65500:PQV65567 PGZ65500:PGZ65567 OXD65500:OXD65567 ONH65500:ONH65567 ODL65500:ODL65567 NTP65500:NTP65567 NJT65500:NJT65567 MZX65500:MZX65567 MQB65500:MQB65567 MGF65500:MGF65567 LWJ65500:LWJ65567 LMN65500:LMN65567 LCR65500:LCR65567 KSV65500:KSV65567 KIZ65500:KIZ65567 JZD65500:JZD65567 JPH65500:JPH65567 JFL65500:JFL65567 IVP65500:IVP65567 ILT65500:ILT65567 IBX65500:IBX65567 HSB65500:HSB65567 HIF65500:HIF65567 GYJ65500:GYJ65567 GON65500:GON65567 GER65500:GER65567 FUV65500:FUV65567 FKZ65500:FKZ65567 FBD65500:FBD65567 ERH65500:ERH65567 EHL65500:EHL65567 DXP65500:DXP65567 DNT65500:DNT65567 DDX65500:DDX65567 CUB65500:CUB65567 CKF65500:CKF65567 CAJ65500:CAJ65567 BQN65500:BQN65567 BGR65500:BGR65567 AWV65500:AWV65567 AMZ65500:AMZ65567 ADD65500:ADD65567 TH65500:TH65567 JL65500:JL65567 I65554:I65621 WVX27:WVX85 WMB27:WMB85 WCF27:WCF85 VSJ27:VSJ85 VIN27:VIN85 UYR27:UYR85 UOV27:UOV85 UEZ27:UEZ85 TVD27:TVD85 TLH27:TLH85 TBL27:TBL85 SRP27:SRP85 SHT27:SHT85 RXX27:RXX85 ROB27:ROB85 REF27:REF85 QUJ27:QUJ85 QKN27:QKN85 QAR27:QAR85 PQV27:PQV85 PGZ27:PGZ85 OXD27:OXD85 ONH27:ONH85 ODL27:ODL85 NTP27:NTP85 NJT27:NJT85 MZX27:MZX85 MQB27:MQB85 MGF27:MGF85 LWJ27:LWJ85 LMN27:LMN85 LCR27:LCR85 KSV27:KSV85 KIZ27:KIZ85 JZD27:JZD85 JPH27:JPH85 JFL27:JFL85 IVP27:IVP85 ILT27:ILT85 IBX27:IBX85 HSB27:HSB85 HIF27:HIF85 GYJ27:GYJ85 GON27:GON85 GER27:GER85 FUV27:FUV85 FKZ27:FKZ85 FBD27:FBD85 ERH27:ERH85 EHL27:EHL85 DXP27:DXP85 DNT27:DNT85 DDX27:DDX85 CUB27:CUB85 CKF27:CKF85 CAJ27:CAJ85 BQN27:BQN85 BGR27:BGR85 AWV27:AWV85 AMZ27:AMZ85 ADD27:ADD85 TH27:TH85" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="ادخل المصروفات من الجدول" error="الرجاء ادخال المصروفات من النطاقات المحددة" sqref="WVY983004:WVY983071 JM27:JM85 WMC983004:WMC983071 WCG983004:WCG983071 VSK983004:VSK983071 VIO983004:VIO983071 UYS983004:UYS983071 UOW983004:UOW983071 UFA983004:UFA983071 TVE983004:TVE983071 TLI983004:TLI983071 TBM983004:TBM983071 SRQ983004:SRQ983071 SHU983004:SHU983071 RXY983004:RXY983071 ROC983004:ROC983071 REG983004:REG983071 QUK983004:QUK983071 QKO983004:QKO983071 QAS983004:QAS983071 PQW983004:PQW983071 PHA983004:PHA983071 OXE983004:OXE983071 ONI983004:ONI983071 ODM983004:ODM983071 NTQ983004:NTQ983071 NJU983004:NJU983071 MZY983004:MZY983071 MQC983004:MQC983071 MGG983004:MGG983071 LWK983004:LWK983071 LMO983004:LMO983071 LCS983004:LCS983071 KSW983004:KSW983071 KJA983004:KJA983071 JZE983004:JZE983071 JPI983004:JPI983071 JFM983004:JFM983071 IVQ983004:IVQ983071 ILU983004:ILU983071 IBY983004:IBY983071 HSC983004:HSC983071 HIG983004:HIG983071 GYK983004:GYK983071 GOO983004:GOO983071 GES983004:GES983071 FUW983004:FUW983071 FLA983004:FLA983071 FBE983004:FBE983071 ERI983004:ERI983071 EHM983004:EHM983071 DXQ983004:DXQ983071 DNU983004:DNU983071 DDY983004:DDY983071 CUC983004:CUC983071 CKG983004:CKG983071 CAK983004:CAK983071 BQO983004:BQO983071 BGS983004:BGS983071 AWW983004:AWW983071 ANA983004:ANA983071 ADE983004:ADE983071 TI983004:TI983071 JM983004:JM983071 I983058:I983125 WVY917468:WVY917535 WMC917468:WMC917535 WCG917468:WCG917535 VSK917468:VSK917535 VIO917468:VIO917535 UYS917468:UYS917535 UOW917468:UOW917535 UFA917468:UFA917535 TVE917468:TVE917535 TLI917468:TLI917535 TBM917468:TBM917535 SRQ917468:SRQ917535 SHU917468:SHU917535 RXY917468:RXY917535 ROC917468:ROC917535 REG917468:REG917535 QUK917468:QUK917535 QKO917468:QKO917535 QAS917468:QAS917535 PQW917468:PQW917535 PHA917468:PHA917535 OXE917468:OXE917535 ONI917468:ONI917535 ODM917468:ODM917535 NTQ917468:NTQ917535 NJU917468:NJU917535 MZY917468:MZY917535 MQC917468:MQC917535 MGG917468:MGG917535 LWK917468:LWK917535 LMO917468:LMO917535 LCS917468:LCS917535 KSW917468:KSW917535 KJA917468:KJA917535 JZE917468:JZE917535 JPI917468:JPI917535 JFM917468:JFM917535 IVQ917468:IVQ917535 ILU917468:ILU917535 IBY917468:IBY917535 HSC917468:HSC917535 HIG917468:HIG917535 GYK917468:GYK917535 GOO917468:GOO917535 GES917468:GES917535 FUW917468:FUW917535 FLA917468:FLA917535 FBE917468:FBE917535 ERI917468:ERI917535 EHM917468:EHM917535 DXQ917468:DXQ917535 DNU917468:DNU917535 DDY917468:DDY917535 CUC917468:CUC917535 CKG917468:CKG917535 CAK917468:CAK917535 BQO917468:BQO917535 BGS917468:BGS917535 AWW917468:AWW917535 ANA917468:ANA917535 ADE917468:ADE917535 TI917468:TI917535 JM917468:JM917535 I917522:I917589 WVY851932:WVY851999 WMC851932:WMC851999 WCG851932:WCG851999 VSK851932:VSK851999 VIO851932:VIO851999 UYS851932:UYS851999 UOW851932:UOW851999 UFA851932:UFA851999 TVE851932:TVE851999 TLI851932:TLI851999 TBM851932:TBM851999 SRQ851932:SRQ851999 SHU851932:SHU851999 RXY851932:RXY851999 ROC851932:ROC851999 REG851932:REG851999 QUK851932:QUK851999 QKO851932:QKO851999 QAS851932:QAS851999 PQW851932:PQW851999 PHA851932:PHA851999 OXE851932:OXE851999 ONI851932:ONI851999 ODM851932:ODM851999 NTQ851932:NTQ851999 NJU851932:NJU851999 MZY851932:MZY851999 MQC851932:MQC851999 MGG851932:MGG851999 LWK851932:LWK851999 LMO851932:LMO851999 LCS851932:LCS851999 KSW851932:KSW851999 KJA851932:KJA851999 JZE851932:JZE851999 JPI851932:JPI851999 JFM851932:JFM851999 IVQ851932:IVQ851999 ILU851932:ILU851999 IBY851932:IBY851999 HSC851932:HSC851999 HIG851932:HIG851999 GYK851932:GYK851999 GOO851932:GOO851999 GES851932:GES851999 FUW851932:FUW851999 FLA851932:FLA851999 FBE851932:FBE851999 ERI851932:ERI851999 EHM851932:EHM851999 DXQ851932:DXQ851999 DNU851932:DNU851999 DDY851932:DDY851999 CUC851932:CUC851999 CKG851932:CKG851999 CAK851932:CAK851999 BQO851932:BQO851999 BGS851932:BGS851999 AWW851932:AWW851999 ANA851932:ANA851999 ADE851932:ADE851999 TI851932:TI851999 JM851932:JM851999 I851986:I852053 WVY786396:WVY786463 WMC786396:WMC786463 WCG786396:WCG786463 VSK786396:VSK786463 VIO786396:VIO786463 UYS786396:UYS786463 UOW786396:UOW786463 UFA786396:UFA786463 TVE786396:TVE786463 TLI786396:TLI786463 TBM786396:TBM786463 SRQ786396:SRQ786463 SHU786396:SHU786463 RXY786396:RXY786463 ROC786396:ROC786463 REG786396:REG786463 QUK786396:QUK786463 QKO786396:QKO786463 QAS786396:QAS786463 PQW786396:PQW786463 PHA786396:PHA786463 OXE786396:OXE786463 ONI786396:ONI786463 ODM786396:ODM786463 NTQ786396:NTQ786463 NJU786396:NJU786463 MZY786396:MZY786463 MQC786396:MQC786463 MGG786396:MGG786463 LWK786396:LWK786463 LMO786396:LMO786463 LCS786396:LCS786463 KSW786396:KSW786463 KJA786396:KJA786463 JZE786396:JZE786463 JPI786396:JPI786463 JFM786396:JFM786463 IVQ786396:IVQ786463 ILU786396:ILU786463 IBY786396:IBY786463 HSC786396:HSC786463 HIG786396:HIG786463 GYK786396:GYK786463 GOO786396:GOO786463 GES786396:GES786463 FUW786396:FUW786463 FLA786396:FLA786463 FBE786396:FBE786463 ERI786396:ERI786463 EHM786396:EHM786463 DXQ786396:DXQ786463 DNU786396:DNU786463 DDY786396:DDY786463 CUC786396:CUC786463 CKG786396:CKG786463 CAK786396:CAK786463 BQO786396:BQO786463 BGS786396:BGS786463 AWW786396:AWW786463 ANA786396:ANA786463 ADE786396:ADE786463 TI786396:TI786463 JM786396:JM786463 I786450:I786517 WVY720860:WVY720927 WMC720860:WMC720927 WCG720860:WCG720927 VSK720860:VSK720927 VIO720860:VIO720927 UYS720860:UYS720927 UOW720860:UOW720927 UFA720860:UFA720927 TVE720860:TVE720927 TLI720860:TLI720927 TBM720860:TBM720927 SRQ720860:SRQ720927 SHU720860:SHU720927 RXY720860:RXY720927 ROC720860:ROC720927 REG720860:REG720927 QUK720860:QUK720927 QKO720860:QKO720927 QAS720860:QAS720927 PQW720860:PQW720927 PHA720860:PHA720927 OXE720860:OXE720927 ONI720860:ONI720927 ODM720860:ODM720927 NTQ720860:NTQ720927 NJU720860:NJU720927 MZY720860:MZY720927 MQC720860:MQC720927 MGG720860:MGG720927 LWK720860:LWK720927 LMO720860:LMO720927 LCS720860:LCS720927 KSW720860:KSW720927 KJA720860:KJA720927 JZE720860:JZE720927 JPI720860:JPI720927 JFM720860:JFM720927 IVQ720860:IVQ720927 ILU720860:ILU720927 IBY720860:IBY720927 HSC720860:HSC720927 HIG720860:HIG720927 GYK720860:GYK720927 GOO720860:GOO720927 GES720860:GES720927 FUW720860:FUW720927 FLA720860:FLA720927 FBE720860:FBE720927 ERI720860:ERI720927 EHM720860:EHM720927 DXQ720860:DXQ720927 DNU720860:DNU720927 DDY720860:DDY720927 CUC720860:CUC720927 CKG720860:CKG720927 CAK720860:CAK720927 BQO720860:BQO720927 BGS720860:BGS720927 AWW720860:AWW720927 ANA720860:ANA720927 ADE720860:ADE720927 TI720860:TI720927 JM720860:JM720927 I720914:I720981 WVY655324:WVY655391 WMC655324:WMC655391 WCG655324:WCG655391 VSK655324:VSK655391 VIO655324:VIO655391 UYS655324:UYS655391 UOW655324:UOW655391 UFA655324:UFA655391 TVE655324:TVE655391 TLI655324:TLI655391 TBM655324:TBM655391 SRQ655324:SRQ655391 SHU655324:SHU655391 RXY655324:RXY655391 ROC655324:ROC655391 REG655324:REG655391 QUK655324:QUK655391 QKO655324:QKO655391 QAS655324:QAS655391 PQW655324:PQW655391 PHA655324:PHA655391 OXE655324:OXE655391 ONI655324:ONI655391 ODM655324:ODM655391 NTQ655324:NTQ655391 NJU655324:NJU655391 MZY655324:MZY655391 MQC655324:MQC655391 MGG655324:MGG655391 LWK655324:LWK655391 LMO655324:LMO655391 LCS655324:LCS655391 KSW655324:KSW655391 KJA655324:KJA655391 JZE655324:JZE655391 JPI655324:JPI655391 JFM655324:JFM655391 IVQ655324:IVQ655391 ILU655324:ILU655391 IBY655324:IBY655391 HSC655324:HSC655391 HIG655324:HIG655391 GYK655324:GYK655391 GOO655324:GOO655391 GES655324:GES655391 FUW655324:FUW655391 FLA655324:FLA655391 FBE655324:FBE655391 ERI655324:ERI655391 EHM655324:EHM655391 DXQ655324:DXQ655391 DNU655324:DNU655391 DDY655324:DDY655391 CUC655324:CUC655391 CKG655324:CKG655391 CAK655324:CAK655391 BQO655324:BQO655391 BGS655324:BGS655391 AWW655324:AWW655391 ANA655324:ANA655391 ADE655324:ADE655391 TI655324:TI655391 JM655324:JM655391 I655378:I655445 WVY589788:WVY589855 WMC589788:WMC589855 WCG589788:WCG589855 VSK589788:VSK589855 VIO589788:VIO589855 UYS589788:UYS589855 UOW589788:UOW589855 UFA589788:UFA589855 TVE589788:TVE589855 TLI589788:TLI589855 TBM589788:TBM589855 SRQ589788:SRQ589855 SHU589788:SHU589855 RXY589788:RXY589855 ROC589788:ROC589855 REG589788:REG589855 QUK589788:QUK589855 QKO589788:QKO589855 QAS589788:QAS589855 PQW589788:PQW589855 PHA589788:PHA589855 OXE589788:OXE589855 ONI589788:ONI589855 ODM589788:ODM589855 NTQ589788:NTQ589855 NJU589788:NJU589855 MZY589788:MZY589855 MQC589788:MQC589855 MGG589788:MGG589855 LWK589788:LWK589855 LMO589788:LMO589855 LCS589788:LCS589855 KSW589788:KSW589855 KJA589788:KJA589855 JZE589788:JZE589855 JPI589788:JPI589855 JFM589788:JFM589855 IVQ589788:IVQ589855 ILU589788:ILU589855 IBY589788:IBY589855 HSC589788:HSC589855 HIG589788:HIG589855 GYK589788:GYK589855 GOO589788:GOO589855 GES589788:GES589855 FUW589788:FUW589855 FLA589788:FLA589855 FBE589788:FBE589855 ERI589788:ERI589855 EHM589788:EHM589855 DXQ589788:DXQ589855 DNU589788:DNU589855 DDY589788:DDY589855 CUC589788:CUC589855 CKG589788:CKG589855 CAK589788:CAK589855 BQO589788:BQO589855 BGS589788:BGS589855 AWW589788:AWW589855 ANA589788:ANA589855 ADE589788:ADE589855 TI589788:TI589855 JM589788:JM589855 I589842:I589909 WVY524252:WVY524319 WMC524252:WMC524319 WCG524252:WCG524319 VSK524252:VSK524319 VIO524252:VIO524319 UYS524252:UYS524319 UOW524252:UOW524319 UFA524252:UFA524319 TVE524252:TVE524319 TLI524252:TLI524319 TBM524252:TBM524319 SRQ524252:SRQ524319 SHU524252:SHU524319 RXY524252:RXY524319 ROC524252:ROC524319 REG524252:REG524319 QUK524252:QUK524319 QKO524252:QKO524319 QAS524252:QAS524319 PQW524252:PQW524319 PHA524252:PHA524319 OXE524252:OXE524319 ONI524252:ONI524319 ODM524252:ODM524319 NTQ524252:NTQ524319 NJU524252:NJU524319 MZY524252:MZY524319 MQC524252:MQC524319 MGG524252:MGG524319 LWK524252:LWK524319 LMO524252:LMO524319 LCS524252:LCS524319 KSW524252:KSW524319 KJA524252:KJA524319 JZE524252:JZE524319 JPI524252:JPI524319 JFM524252:JFM524319 IVQ524252:IVQ524319 ILU524252:ILU524319 IBY524252:IBY524319 HSC524252:HSC524319 HIG524252:HIG524319 GYK524252:GYK524319 GOO524252:GOO524319 GES524252:GES524319 FUW524252:FUW524319 FLA524252:FLA524319 FBE524252:FBE524319 ERI524252:ERI524319 EHM524252:EHM524319 DXQ524252:DXQ524319 DNU524252:DNU524319 DDY524252:DDY524319 CUC524252:CUC524319 CKG524252:CKG524319 CAK524252:CAK524319 BQO524252:BQO524319 BGS524252:BGS524319 AWW524252:AWW524319 ANA524252:ANA524319 ADE524252:ADE524319 TI524252:TI524319 JM524252:JM524319 I524306:I524373 WVY458716:WVY458783 WMC458716:WMC458783 WCG458716:WCG458783 VSK458716:VSK458783 VIO458716:VIO458783 UYS458716:UYS458783 UOW458716:UOW458783 UFA458716:UFA458783 TVE458716:TVE458783 TLI458716:TLI458783 TBM458716:TBM458783 SRQ458716:SRQ458783 SHU458716:SHU458783 RXY458716:RXY458783 ROC458716:ROC458783 REG458716:REG458783 QUK458716:QUK458783 QKO458716:QKO458783 QAS458716:QAS458783 PQW458716:PQW458783 PHA458716:PHA458783 OXE458716:OXE458783 ONI458716:ONI458783 ODM458716:ODM458783 NTQ458716:NTQ458783 NJU458716:NJU458783 MZY458716:MZY458783 MQC458716:MQC458783 MGG458716:MGG458783 LWK458716:LWK458783 LMO458716:LMO458783 LCS458716:LCS458783 KSW458716:KSW458783 KJA458716:KJA458783 JZE458716:JZE458783 JPI458716:JPI458783 JFM458716:JFM458783 IVQ458716:IVQ458783 ILU458716:ILU458783 IBY458716:IBY458783 HSC458716:HSC458783 HIG458716:HIG458783 GYK458716:GYK458783 GOO458716:GOO458783 GES458716:GES458783 FUW458716:FUW458783 FLA458716:FLA458783 FBE458716:FBE458783 ERI458716:ERI458783 EHM458716:EHM458783 DXQ458716:DXQ458783 DNU458716:DNU458783 DDY458716:DDY458783 CUC458716:CUC458783 CKG458716:CKG458783 CAK458716:CAK458783 BQO458716:BQO458783 BGS458716:BGS458783 AWW458716:AWW458783 ANA458716:ANA458783 ADE458716:ADE458783 TI458716:TI458783 JM458716:JM458783 I458770:I458837 WVY393180:WVY393247 WMC393180:WMC393247 WCG393180:WCG393247 VSK393180:VSK393247 VIO393180:VIO393247 UYS393180:UYS393247 UOW393180:UOW393247 UFA393180:UFA393247 TVE393180:TVE393247 TLI393180:TLI393247 TBM393180:TBM393247 SRQ393180:SRQ393247 SHU393180:SHU393247 RXY393180:RXY393247 ROC393180:ROC393247 REG393180:REG393247 QUK393180:QUK393247 QKO393180:QKO393247 QAS393180:QAS393247 PQW393180:PQW393247 PHA393180:PHA393247 OXE393180:OXE393247 ONI393180:ONI393247 ODM393180:ODM393247 NTQ393180:NTQ393247 NJU393180:NJU393247 MZY393180:MZY393247 MQC393180:MQC393247 MGG393180:MGG393247 LWK393180:LWK393247 LMO393180:LMO393247 LCS393180:LCS393247 KSW393180:KSW393247 KJA393180:KJA393247 JZE393180:JZE393247 JPI393180:JPI393247 JFM393180:JFM393247 IVQ393180:IVQ393247 ILU393180:ILU393247 IBY393180:IBY393247 HSC393180:HSC393247 HIG393180:HIG393247 GYK393180:GYK393247 GOO393180:GOO393247 GES393180:GES393247 FUW393180:FUW393247 FLA393180:FLA393247 FBE393180:FBE393247 ERI393180:ERI393247 EHM393180:EHM393247 DXQ393180:DXQ393247 DNU393180:DNU393247 DDY393180:DDY393247 CUC393180:CUC393247 CKG393180:CKG393247 CAK393180:CAK393247 BQO393180:BQO393247 BGS393180:BGS393247 AWW393180:AWW393247 ANA393180:ANA393247 ADE393180:ADE393247 TI393180:TI393247 JM393180:JM393247 I393234:I393301 WVY327644:WVY327711 WMC327644:WMC327711 WCG327644:WCG327711 VSK327644:VSK327711 VIO327644:VIO327711 UYS327644:UYS327711 UOW327644:UOW327711 UFA327644:UFA327711 TVE327644:TVE327711 TLI327644:TLI327711 TBM327644:TBM327711 SRQ327644:SRQ327711 SHU327644:SHU327711 RXY327644:RXY327711 ROC327644:ROC327711 REG327644:REG327711 QUK327644:QUK327711 QKO327644:QKO327711 QAS327644:QAS327711 PQW327644:PQW327711 PHA327644:PHA327711 OXE327644:OXE327711 ONI327644:ONI327711 ODM327644:ODM327711 NTQ327644:NTQ327711 NJU327644:NJU327711 MZY327644:MZY327711 MQC327644:MQC327711 MGG327644:MGG327711 LWK327644:LWK327711 LMO327644:LMO327711 LCS327644:LCS327711 KSW327644:KSW327711 KJA327644:KJA327711 JZE327644:JZE327711 JPI327644:JPI327711 JFM327644:JFM327711 IVQ327644:IVQ327711 ILU327644:ILU327711 IBY327644:IBY327711 HSC327644:HSC327711 HIG327644:HIG327711 GYK327644:GYK327711 GOO327644:GOO327711 GES327644:GES327711 FUW327644:FUW327711 FLA327644:FLA327711 FBE327644:FBE327711 ERI327644:ERI327711 EHM327644:EHM327711 DXQ327644:DXQ327711 DNU327644:DNU327711 DDY327644:DDY327711 CUC327644:CUC327711 CKG327644:CKG327711 CAK327644:CAK327711 BQO327644:BQO327711 BGS327644:BGS327711 AWW327644:AWW327711 ANA327644:ANA327711 ADE327644:ADE327711 TI327644:TI327711 JM327644:JM327711 I327698:I327765 WVY262108:WVY262175 WMC262108:WMC262175 WCG262108:WCG262175 VSK262108:VSK262175 VIO262108:VIO262175 UYS262108:UYS262175 UOW262108:UOW262175 UFA262108:UFA262175 TVE262108:TVE262175 TLI262108:TLI262175 TBM262108:TBM262175 SRQ262108:SRQ262175 SHU262108:SHU262175 RXY262108:RXY262175 ROC262108:ROC262175 REG262108:REG262175 QUK262108:QUK262175 QKO262108:QKO262175 QAS262108:QAS262175 PQW262108:PQW262175 PHA262108:PHA262175 OXE262108:OXE262175 ONI262108:ONI262175 ODM262108:ODM262175 NTQ262108:NTQ262175 NJU262108:NJU262175 MZY262108:MZY262175 MQC262108:MQC262175 MGG262108:MGG262175 LWK262108:LWK262175 LMO262108:LMO262175 LCS262108:LCS262175 KSW262108:KSW262175 KJA262108:KJA262175 JZE262108:JZE262175 JPI262108:JPI262175 JFM262108:JFM262175 IVQ262108:IVQ262175 ILU262108:ILU262175 IBY262108:IBY262175 HSC262108:HSC262175 HIG262108:HIG262175 GYK262108:GYK262175 GOO262108:GOO262175 GES262108:GES262175 FUW262108:FUW262175 FLA262108:FLA262175 FBE262108:FBE262175 ERI262108:ERI262175 EHM262108:EHM262175 DXQ262108:DXQ262175 DNU262108:DNU262175 DDY262108:DDY262175 CUC262108:CUC262175 CKG262108:CKG262175 CAK262108:CAK262175 BQO262108:BQO262175 BGS262108:BGS262175 AWW262108:AWW262175 ANA262108:ANA262175 ADE262108:ADE262175 TI262108:TI262175 JM262108:JM262175 I262162:I262229 WVY196572:WVY196639 WMC196572:WMC196639 WCG196572:WCG196639 VSK196572:VSK196639 VIO196572:VIO196639 UYS196572:UYS196639 UOW196572:UOW196639 UFA196572:UFA196639 TVE196572:TVE196639 TLI196572:TLI196639 TBM196572:TBM196639 SRQ196572:SRQ196639 SHU196572:SHU196639 RXY196572:RXY196639 ROC196572:ROC196639 REG196572:REG196639 QUK196572:QUK196639 QKO196572:QKO196639 QAS196572:QAS196639 PQW196572:PQW196639 PHA196572:PHA196639 OXE196572:OXE196639 ONI196572:ONI196639 ODM196572:ODM196639 NTQ196572:NTQ196639 NJU196572:NJU196639 MZY196572:MZY196639 MQC196572:MQC196639 MGG196572:MGG196639 LWK196572:LWK196639 LMO196572:LMO196639 LCS196572:LCS196639 KSW196572:KSW196639 KJA196572:KJA196639 JZE196572:JZE196639 JPI196572:JPI196639 JFM196572:JFM196639 IVQ196572:IVQ196639 ILU196572:ILU196639 IBY196572:IBY196639 HSC196572:HSC196639 HIG196572:HIG196639 GYK196572:GYK196639 GOO196572:GOO196639 GES196572:GES196639 FUW196572:FUW196639 FLA196572:FLA196639 FBE196572:FBE196639 ERI196572:ERI196639 EHM196572:EHM196639 DXQ196572:DXQ196639 DNU196572:DNU196639 DDY196572:DDY196639 CUC196572:CUC196639 CKG196572:CKG196639 CAK196572:CAK196639 BQO196572:BQO196639 BGS196572:BGS196639 AWW196572:AWW196639 ANA196572:ANA196639 ADE196572:ADE196639 TI196572:TI196639 JM196572:JM196639 I196626:I196693 WVY131036:WVY131103 WMC131036:WMC131103 WCG131036:WCG131103 VSK131036:VSK131103 VIO131036:VIO131103 UYS131036:UYS131103 UOW131036:UOW131103 UFA131036:UFA131103 TVE131036:TVE131103 TLI131036:TLI131103 TBM131036:TBM131103 SRQ131036:SRQ131103 SHU131036:SHU131103 RXY131036:RXY131103 ROC131036:ROC131103 REG131036:REG131103 QUK131036:QUK131103 QKO131036:QKO131103 QAS131036:QAS131103 PQW131036:PQW131103 PHA131036:PHA131103 OXE131036:OXE131103 ONI131036:ONI131103 ODM131036:ODM131103 NTQ131036:NTQ131103 NJU131036:NJU131103 MZY131036:MZY131103 MQC131036:MQC131103 MGG131036:MGG131103 LWK131036:LWK131103 LMO131036:LMO131103 LCS131036:LCS131103 KSW131036:KSW131103 KJA131036:KJA131103 JZE131036:JZE131103 JPI131036:JPI131103 JFM131036:JFM131103 IVQ131036:IVQ131103 ILU131036:ILU131103 IBY131036:IBY131103 HSC131036:HSC131103 HIG131036:HIG131103 GYK131036:GYK131103 GOO131036:GOO131103 GES131036:GES131103 FUW131036:FUW131103 FLA131036:FLA131103 FBE131036:FBE131103 ERI131036:ERI131103 EHM131036:EHM131103 DXQ131036:DXQ131103 DNU131036:DNU131103 DDY131036:DDY131103 CUC131036:CUC131103 CKG131036:CKG131103 CAK131036:CAK131103 BQO131036:BQO131103 BGS131036:BGS131103 AWW131036:AWW131103 ANA131036:ANA131103 ADE131036:ADE131103 TI131036:TI131103 JM131036:JM131103 I131090:I131157 WVY65500:WVY65567 WMC65500:WMC65567 WCG65500:WCG65567 VSK65500:VSK65567 VIO65500:VIO65567 UYS65500:UYS65567 UOW65500:UOW65567 UFA65500:UFA65567 TVE65500:TVE65567 TLI65500:TLI65567 TBM65500:TBM65567 SRQ65500:SRQ65567 SHU65500:SHU65567 RXY65500:RXY65567 ROC65500:ROC65567 REG65500:REG65567 QUK65500:QUK65567 QKO65500:QKO65567 QAS65500:QAS65567 PQW65500:PQW65567 PHA65500:PHA65567 OXE65500:OXE65567 ONI65500:ONI65567 ODM65500:ODM65567 NTQ65500:NTQ65567 NJU65500:NJU65567 MZY65500:MZY65567 MQC65500:MQC65567 MGG65500:MGG65567 LWK65500:LWK65567 LMO65500:LMO65567 LCS65500:LCS65567 KSW65500:KSW65567 KJA65500:KJA65567 JZE65500:JZE65567 JPI65500:JPI65567 JFM65500:JFM65567 IVQ65500:IVQ65567 ILU65500:ILU65567 IBY65500:IBY65567 HSC65500:HSC65567 HIG65500:HIG65567 GYK65500:GYK65567 GOO65500:GOO65567 GES65500:GES65567 FUW65500:FUW65567 FLA65500:FLA65567 FBE65500:FBE65567 ERI65500:ERI65567 EHM65500:EHM65567 DXQ65500:DXQ65567 DNU65500:DNU65567 DDY65500:DDY65567 CUC65500:CUC65567 CKG65500:CKG65567 CAK65500:CAK65567 BQO65500:BQO65567 BGS65500:BGS65567 AWW65500:AWW65567 ANA65500:ANA65567 ADE65500:ADE65567 TI65500:TI65567 JM65500:JM65567 I65554:I65621 WVY27:WVY85 WMC27:WMC85 WCG27:WCG85 VSK27:VSK85 VIO27:VIO85 UYS27:UYS85 UOW27:UOW85 UFA27:UFA85 TVE27:TVE85 TLI27:TLI85 TBM27:TBM85 SRQ27:SRQ85 SHU27:SHU85 RXY27:RXY85 ROC27:ROC85 REG27:REG85 QUK27:QUK85 QKO27:QKO85 QAS27:QAS85 PQW27:PQW85 PHA27:PHA85 OXE27:OXE85 ONI27:ONI85 ODM27:ODM85 NTQ27:NTQ85 NJU27:NJU85 MZY27:MZY85 MQC27:MQC85 MGG27:MGG85 LWK27:LWK85 LMO27:LMO85 LCS27:LCS85 KSW27:KSW85 KJA27:KJA85 JZE27:JZE85 JPI27:JPI85 JFM27:JFM85 IVQ27:IVQ85 ILU27:ILU85 IBY27:IBY85 HSC27:HSC85 HIG27:HIG85 GYK27:GYK85 GOO27:GOO85 GES27:GES85 FUW27:FUW85 FLA27:FLA85 FBE27:FBE85 ERI27:ERI85 EHM27:EHM85 DXQ27:DXQ85 DNU27:DNU85 DDY27:DDY85 CUC27:CUC85 CKG27:CKG85 CAK27:CAK85 BQO27:BQO85 BGS27:BGS85 AWW27:AWW85 ANA27:ANA85 ADE27:ADE85 TI27:TI85" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$K$16:$K$59</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F91" xr:uid="{37DDCD74-110F-4B6E-8D64-C89F89A18D6D}">

--- a/AssetManagement/AssetManagement/bin/Debug/Finance forms/financial blank report.xlsx
+++ b/AssetManagement/AssetManagement/bin/Debug/Finance forms/financial blank report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803EF89E-D979-4D4B-B659-3BCCD43DF60F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B15553-F755-455D-8994-842475343C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1116,7 +1116,7 @@
   <dimension ref="B1:T1712"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.5"/>
@@ -3593,14 +3593,14 @@
       <c r="I31" s="8"/>
       <c r="J31" s="9"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="32"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
     </row>
     <row r="32" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B32" s="41"/>

--- a/AssetManagement/AssetManagement/bin/Debug/Finance forms/financial blank report.xlsx
+++ b/AssetManagement/AssetManagement/bin/Debug/Finance forms/financial blank report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B15553-F755-455D-8994-842475343C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA68E7D6-09F4-4214-B667-96B063A11B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1116,7 +1116,7 @@
   <dimension ref="B1:T1712"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.5"/>
@@ -23064,11 +23064,11 @@
     <row r="1706" spans="2:9" ht="21.6" x14ac:dyDescent="0.5">
       <c r="B1706" s="55"/>
       <c r="C1706" s="51">
-        <f>SUMIF(D6:D1700,B1706,B6:B1700)</f>
+        <f>SUMIF(D5:D1700,B1706,B5:B1700)</f>
         <v>0</v>
       </c>
       <c r="D1706" s="51">
-        <f>SUMIF(D6:D1700,B1706,C6:C1700)</f>
+        <f>SUMIF(D5:D1700,B1706,C5:C1700)</f>
         <v>0</v>
       </c>
       <c r="E1706" s="56">
@@ -23079,11 +23079,11 @@
     <row r="1707" spans="2:9" ht="21.6" x14ac:dyDescent="0.5">
       <c r="B1707" s="55"/>
       <c r="C1707" s="51">
-        <f>SUMIF(D7:D1700,B1707,B7:B1700)</f>
+        <f>SUMIF(D5:D1700,B1707,B5:B1700)</f>
         <v>0</v>
       </c>
       <c r="D1707" s="51">
-        <f>SUMIF(D7:D1700,B1707,C7:C1700)</f>
+        <f>SUMIF(D5:D1700,B1707,C5:C1700)</f>
         <v>0</v>
       </c>
       <c r="E1707" s="56">
@@ -23094,11 +23094,11 @@
     <row r="1708" spans="2:9" ht="21.6" x14ac:dyDescent="0.5">
       <c r="B1708" s="55"/>
       <c r="C1708" s="51">
-        <f>SUMIF(D8:D1700,B1708,B8:B1700)</f>
+        <f>SUMIF(D5:D1700,B1708,B5:B1700)</f>
         <v>0</v>
       </c>
       <c r="D1708" s="51">
-        <f>SUMIF(D8:D1700,B1708,C8:C1700)</f>
+        <f>SUMIF(D5:D1700,B1708,C5:C1700)</f>
         <v>0</v>
       </c>
       <c r="E1708" s="56">
@@ -23109,11 +23109,11 @@
     <row r="1709" spans="2:9" ht="21.6" x14ac:dyDescent="0.5">
       <c r="B1709" s="55"/>
       <c r="C1709" s="51">
-        <f>SUMIF(D20:D1700,B1709,B20:B1700)</f>
+        <f>SUMIF(D5:D1700,B1709,B5:B1700)</f>
         <v>0</v>
       </c>
       <c r="D1709" s="51">
-        <f>SUMIF(D20:D1700,B1709,C20:C1700)</f>
+        <f>SUMIF(D5:D1700,B1709,C5:C1700)</f>
         <v>0</v>
       </c>
       <c r="E1709" s="56">
@@ -23124,11 +23124,11 @@
     <row r="1710" spans="2:9" ht="21.6" x14ac:dyDescent="0.5">
       <c r="B1710" s="55"/>
       <c r="C1710" s="51">
-        <f>SUMIF(D21:D1700,B1710,B21:B1700)</f>
+        <f>SUMIF(D5:D1700,B1710,B5:B1700)</f>
         <v>0</v>
       </c>
       <c r="D1710" s="51">
-        <f>SUMIF(D21:D1700,B1710,C21:C1700)</f>
+        <f>SUMIF(D5:D1700,B1710,C5:C1700)</f>
         <v>0</v>
       </c>
       <c r="E1710" s="56">
@@ -23139,11 +23139,11 @@
     <row r="1711" spans="2:9" ht="21.6" x14ac:dyDescent="0.5">
       <c r="B1711" s="55"/>
       <c r="C1711" s="51">
-        <f>SUMIF(D22:D1700,B1711,B22:B1700)</f>
+        <f>SUMIF(D5:D1700,B1711,B5:B1700)</f>
         <v>0</v>
       </c>
       <c r="D1711" s="51">
-        <f>SUMIF(D22:D1700,B1711,C22:C1700)</f>
+        <f>SUMIF(D5:D1700,B1711,C5:C1700)</f>
         <v>0</v>
       </c>
       <c r="E1711" s="56">
@@ -23154,11 +23154,11 @@
     <row r="1712" spans="2:9" ht="22.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B1712" s="55"/>
       <c r="C1712" s="51">
-        <f>SUMIF(D23:D1700,B1712,B23:B1700)</f>
+        <f>SUMIF(D5:D1700,B1712,B5:B1700)</f>
         <v>0</v>
       </c>
       <c r="D1712" s="51">
-        <f>SUMIF(D23:D1700,B1712,C23:C1700)</f>
+        <f>SUMIF(D5:D1700,B1712,C5:C1700)</f>
         <v>0</v>
       </c>
       <c r="E1712" s="57">
@@ -23176,7 +23176,7 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="K1:S1"/>
   </mergeCells>
-  <dataValidations count="4">
+  <dataValidations disablePrompts="1" count="4">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I67117:I67141 WVI984567:WVI984591 WLM984567:WLM984591 WBQ984567:WBQ984591 VRU984567:VRU984591 VHY984567:VHY984591 UYC984567:UYC984591 UOG984567:UOG984591 UEK984567:UEK984591 TUO984567:TUO984591 TKS984567:TKS984591 TAW984567:TAW984591 SRA984567:SRA984591 SHE984567:SHE984591 RXI984567:RXI984591 RNM984567:RNM984591 RDQ984567:RDQ984591 QTU984567:QTU984591 QJY984567:QJY984591 QAC984567:QAC984591 PQG984567:PQG984591 PGK984567:PGK984591 OWO984567:OWO984591 OMS984567:OMS984591 OCW984567:OCW984591 NTA984567:NTA984591 NJE984567:NJE984591 MZI984567:MZI984591 MPM984567:MPM984591 MFQ984567:MFQ984591 LVU984567:LVU984591 LLY984567:LLY984591 LCC984567:LCC984591 KSG984567:KSG984591 KIK984567:KIK984591 JYO984567:JYO984591 JOS984567:JOS984591 JEW984567:JEW984591 IVA984567:IVA984591 ILE984567:ILE984591 IBI984567:IBI984591 HRM984567:HRM984591 HHQ984567:HHQ984591 GXU984567:GXU984591 GNY984567:GNY984591 GEC984567:GEC984591 FUG984567:FUG984591 FKK984567:FKK984591 FAO984567:FAO984591 EQS984567:EQS984591 EGW984567:EGW984591 DXA984567:DXA984591 DNE984567:DNE984591 DDI984567:DDI984591 CTM984567:CTM984591 CJQ984567:CJQ984591 BZU984567:BZU984591 BPY984567:BPY984591 BGC984567:BGC984591 AWG984567:AWG984591 AMK984567:AMK984591 ACO984567:ACO984591 SS984567:SS984591 IW984567:IW984591 I984621:I984645 WVI919031:WVI919055 WLM919031:WLM919055 WBQ919031:WBQ919055 VRU919031:VRU919055 VHY919031:VHY919055 UYC919031:UYC919055 UOG919031:UOG919055 UEK919031:UEK919055 TUO919031:TUO919055 TKS919031:TKS919055 TAW919031:TAW919055 SRA919031:SRA919055 SHE919031:SHE919055 RXI919031:RXI919055 RNM919031:RNM919055 RDQ919031:RDQ919055 QTU919031:QTU919055 QJY919031:QJY919055 QAC919031:QAC919055 PQG919031:PQG919055 PGK919031:PGK919055 OWO919031:OWO919055 OMS919031:OMS919055 OCW919031:OCW919055 NTA919031:NTA919055 NJE919031:NJE919055 MZI919031:MZI919055 MPM919031:MPM919055 MFQ919031:MFQ919055 LVU919031:LVU919055 LLY919031:LLY919055 LCC919031:LCC919055 KSG919031:KSG919055 KIK919031:KIK919055 JYO919031:JYO919055 JOS919031:JOS919055 JEW919031:JEW919055 IVA919031:IVA919055 ILE919031:ILE919055 IBI919031:IBI919055 HRM919031:HRM919055 HHQ919031:HHQ919055 GXU919031:GXU919055 GNY919031:GNY919055 GEC919031:GEC919055 FUG919031:FUG919055 FKK919031:FKK919055 FAO919031:FAO919055 EQS919031:EQS919055 EGW919031:EGW919055 DXA919031:DXA919055 DNE919031:DNE919055 DDI919031:DDI919055 CTM919031:CTM919055 CJQ919031:CJQ919055 BZU919031:BZU919055 BPY919031:BPY919055 BGC919031:BGC919055 AWG919031:AWG919055 AMK919031:AMK919055 ACO919031:ACO919055 SS919031:SS919055 IW919031:IW919055 I919085:I919109 WVI853495:WVI853519 WLM853495:WLM853519 WBQ853495:WBQ853519 VRU853495:VRU853519 VHY853495:VHY853519 UYC853495:UYC853519 UOG853495:UOG853519 UEK853495:UEK853519 TUO853495:TUO853519 TKS853495:TKS853519 TAW853495:TAW853519 SRA853495:SRA853519 SHE853495:SHE853519 RXI853495:RXI853519 RNM853495:RNM853519 RDQ853495:RDQ853519 QTU853495:QTU853519 QJY853495:QJY853519 QAC853495:QAC853519 PQG853495:PQG853519 PGK853495:PGK853519 OWO853495:OWO853519 OMS853495:OMS853519 OCW853495:OCW853519 NTA853495:NTA853519 NJE853495:NJE853519 MZI853495:MZI853519 MPM853495:MPM853519 MFQ853495:MFQ853519 LVU853495:LVU853519 LLY853495:LLY853519 LCC853495:LCC853519 KSG853495:KSG853519 KIK853495:KIK853519 JYO853495:JYO853519 JOS853495:JOS853519 JEW853495:JEW853519 IVA853495:IVA853519 ILE853495:ILE853519 IBI853495:IBI853519 HRM853495:HRM853519 HHQ853495:HHQ853519 GXU853495:GXU853519 GNY853495:GNY853519 GEC853495:GEC853519 FUG853495:FUG853519 FKK853495:FKK853519 FAO853495:FAO853519 EQS853495:EQS853519 EGW853495:EGW853519 DXA853495:DXA853519 DNE853495:DNE853519 DDI853495:DDI853519 CTM853495:CTM853519 CJQ853495:CJQ853519 BZU853495:BZU853519 BPY853495:BPY853519 BGC853495:BGC853519 AWG853495:AWG853519 AMK853495:AMK853519 ACO853495:ACO853519 SS853495:SS853519 IW853495:IW853519 I853549:I853573 WVI787959:WVI787983 WLM787959:WLM787983 WBQ787959:WBQ787983 VRU787959:VRU787983 VHY787959:VHY787983 UYC787959:UYC787983 UOG787959:UOG787983 UEK787959:UEK787983 TUO787959:TUO787983 TKS787959:TKS787983 TAW787959:TAW787983 SRA787959:SRA787983 SHE787959:SHE787983 RXI787959:RXI787983 RNM787959:RNM787983 RDQ787959:RDQ787983 QTU787959:QTU787983 QJY787959:QJY787983 QAC787959:QAC787983 PQG787959:PQG787983 PGK787959:PGK787983 OWO787959:OWO787983 OMS787959:OMS787983 OCW787959:OCW787983 NTA787959:NTA787983 NJE787959:NJE787983 MZI787959:MZI787983 MPM787959:MPM787983 MFQ787959:MFQ787983 LVU787959:LVU787983 LLY787959:LLY787983 LCC787959:LCC787983 KSG787959:KSG787983 KIK787959:KIK787983 JYO787959:JYO787983 JOS787959:JOS787983 JEW787959:JEW787983 IVA787959:IVA787983 ILE787959:ILE787983 IBI787959:IBI787983 HRM787959:HRM787983 HHQ787959:HHQ787983 GXU787959:GXU787983 GNY787959:GNY787983 GEC787959:GEC787983 FUG787959:FUG787983 FKK787959:FKK787983 FAO787959:FAO787983 EQS787959:EQS787983 EGW787959:EGW787983 DXA787959:DXA787983 DNE787959:DNE787983 DDI787959:DDI787983 CTM787959:CTM787983 CJQ787959:CJQ787983 BZU787959:BZU787983 BPY787959:BPY787983 BGC787959:BGC787983 AWG787959:AWG787983 AMK787959:AMK787983 ACO787959:ACO787983 SS787959:SS787983 IW787959:IW787983 I788013:I788037 WVI722423:WVI722447 WLM722423:WLM722447 WBQ722423:WBQ722447 VRU722423:VRU722447 VHY722423:VHY722447 UYC722423:UYC722447 UOG722423:UOG722447 UEK722423:UEK722447 TUO722423:TUO722447 TKS722423:TKS722447 TAW722423:TAW722447 SRA722423:SRA722447 SHE722423:SHE722447 RXI722423:RXI722447 RNM722423:RNM722447 RDQ722423:RDQ722447 QTU722423:QTU722447 QJY722423:QJY722447 QAC722423:QAC722447 PQG722423:PQG722447 PGK722423:PGK722447 OWO722423:OWO722447 OMS722423:OMS722447 OCW722423:OCW722447 NTA722423:NTA722447 NJE722423:NJE722447 MZI722423:MZI722447 MPM722423:MPM722447 MFQ722423:MFQ722447 LVU722423:LVU722447 LLY722423:LLY722447 LCC722423:LCC722447 KSG722423:KSG722447 KIK722423:KIK722447 JYO722423:JYO722447 JOS722423:JOS722447 JEW722423:JEW722447 IVA722423:IVA722447 ILE722423:ILE722447 IBI722423:IBI722447 HRM722423:HRM722447 HHQ722423:HHQ722447 GXU722423:GXU722447 GNY722423:GNY722447 GEC722423:GEC722447 FUG722423:FUG722447 FKK722423:FKK722447 FAO722423:FAO722447 EQS722423:EQS722447 EGW722423:EGW722447 DXA722423:DXA722447 DNE722423:DNE722447 DDI722423:DDI722447 CTM722423:CTM722447 CJQ722423:CJQ722447 BZU722423:BZU722447 BPY722423:BPY722447 BGC722423:BGC722447 AWG722423:AWG722447 AMK722423:AMK722447 ACO722423:ACO722447 SS722423:SS722447 IW722423:IW722447 I722477:I722501 WVI656887:WVI656911 WLM656887:WLM656911 WBQ656887:WBQ656911 VRU656887:VRU656911 VHY656887:VHY656911 UYC656887:UYC656911 UOG656887:UOG656911 UEK656887:UEK656911 TUO656887:TUO656911 TKS656887:TKS656911 TAW656887:TAW656911 SRA656887:SRA656911 SHE656887:SHE656911 RXI656887:RXI656911 RNM656887:RNM656911 RDQ656887:RDQ656911 QTU656887:QTU656911 QJY656887:QJY656911 QAC656887:QAC656911 PQG656887:PQG656911 PGK656887:PGK656911 OWO656887:OWO656911 OMS656887:OMS656911 OCW656887:OCW656911 NTA656887:NTA656911 NJE656887:NJE656911 MZI656887:MZI656911 MPM656887:MPM656911 MFQ656887:MFQ656911 LVU656887:LVU656911 LLY656887:LLY656911 LCC656887:LCC656911 KSG656887:KSG656911 KIK656887:KIK656911 JYO656887:JYO656911 JOS656887:JOS656911 JEW656887:JEW656911 IVA656887:IVA656911 ILE656887:ILE656911 IBI656887:IBI656911 HRM656887:HRM656911 HHQ656887:HHQ656911 GXU656887:GXU656911 GNY656887:GNY656911 GEC656887:GEC656911 FUG656887:FUG656911 FKK656887:FKK656911 FAO656887:FAO656911 EQS656887:EQS656911 EGW656887:EGW656911 DXA656887:DXA656911 DNE656887:DNE656911 DDI656887:DDI656911 CTM656887:CTM656911 CJQ656887:CJQ656911 BZU656887:BZU656911 BPY656887:BPY656911 BGC656887:BGC656911 AWG656887:AWG656911 AMK656887:AMK656911 ACO656887:ACO656911 SS656887:SS656911 IW656887:IW656911 I656941:I656965 WVI591351:WVI591375 WLM591351:WLM591375 WBQ591351:WBQ591375 VRU591351:VRU591375 VHY591351:VHY591375 UYC591351:UYC591375 UOG591351:UOG591375 UEK591351:UEK591375 TUO591351:TUO591375 TKS591351:TKS591375 TAW591351:TAW591375 SRA591351:SRA591375 SHE591351:SHE591375 RXI591351:RXI591375 RNM591351:RNM591375 RDQ591351:RDQ591375 QTU591351:QTU591375 QJY591351:QJY591375 QAC591351:QAC591375 PQG591351:PQG591375 PGK591351:PGK591375 OWO591351:OWO591375 OMS591351:OMS591375 OCW591351:OCW591375 NTA591351:NTA591375 NJE591351:NJE591375 MZI591351:MZI591375 MPM591351:MPM591375 MFQ591351:MFQ591375 LVU591351:LVU591375 LLY591351:LLY591375 LCC591351:LCC591375 KSG591351:KSG591375 KIK591351:KIK591375 JYO591351:JYO591375 JOS591351:JOS591375 JEW591351:JEW591375 IVA591351:IVA591375 ILE591351:ILE591375 IBI591351:IBI591375 HRM591351:HRM591375 HHQ591351:HHQ591375 GXU591351:GXU591375 GNY591351:GNY591375 GEC591351:GEC591375 FUG591351:FUG591375 FKK591351:FKK591375 FAO591351:FAO591375 EQS591351:EQS591375 EGW591351:EGW591375 DXA591351:DXA591375 DNE591351:DNE591375 DDI591351:DDI591375 CTM591351:CTM591375 CJQ591351:CJQ591375 BZU591351:BZU591375 BPY591351:BPY591375 BGC591351:BGC591375 AWG591351:AWG591375 AMK591351:AMK591375 ACO591351:ACO591375 SS591351:SS591375 IW591351:IW591375 I591405:I591429 WVI525815:WVI525839 WLM525815:WLM525839 WBQ525815:WBQ525839 VRU525815:VRU525839 VHY525815:VHY525839 UYC525815:UYC525839 UOG525815:UOG525839 UEK525815:UEK525839 TUO525815:TUO525839 TKS525815:TKS525839 TAW525815:TAW525839 SRA525815:SRA525839 SHE525815:SHE525839 RXI525815:RXI525839 RNM525815:RNM525839 RDQ525815:RDQ525839 QTU525815:QTU525839 QJY525815:QJY525839 QAC525815:QAC525839 PQG525815:PQG525839 PGK525815:PGK525839 OWO525815:OWO525839 OMS525815:OMS525839 OCW525815:OCW525839 NTA525815:NTA525839 NJE525815:NJE525839 MZI525815:MZI525839 MPM525815:MPM525839 MFQ525815:MFQ525839 LVU525815:LVU525839 LLY525815:LLY525839 LCC525815:LCC525839 KSG525815:KSG525839 KIK525815:KIK525839 JYO525815:JYO525839 JOS525815:JOS525839 JEW525815:JEW525839 IVA525815:IVA525839 ILE525815:ILE525839 IBI525815:IBI525839 HRM525815:HRM525839 HHQ525815:HHQ525839 GXU525815:GXU525839 GNY525815:GNY525839 GEC525815:GEC525839 FUG525815:FUG525839 FKK525815:FKK525839 FAO525815:FAO525839 EQS525815:EQS525839 EGW525815:EGW525839 DXA525815:DXA525839 DNE525815:DNE525839 DDI525815:DDI525839 CTM525815:CTM525839 CJQ525815:CJQ525839 BZU525815:BZU525839 BPY525815:BPY525839 BGC525815:BGC525839 AWG525815:AWG525839 AMK525815:AMK525839 ACO525815:ACO525839 SS525815:SS525839 IW525815:IW525839 I525869:I525893 WVI460279:WVI460303 WLM460279:WLM460303 WBQ460279:WBQ460303 VRU460279:VRU460303 VHY460279:VHY460303 UYC460279:UYC460303 UOG460279:UOG460303 UEK460279:UEK460303 TUO460279:TUO460303 TKS460279:TKS460303 TAW460279:TAW460303 SRA460279:SRA460303 SHE460279:SHE460303 RXI460279:RXI460303 RNM460279:RNM460303 RDQ460279:RDQ460303 QTU460279:QTU460303 QJY460279:QJY460303 QAC460279:QAC460303 PQG460279:PQG460303 PGK460279:PGK460303 OWO460279:OWO460303 OMS460279:OMS460303 OCW460279:OCW460303 NTA460279:NTA460303 NJE460279:NJE460303 MZI460279:MZI460303 MPM460279:MPM460303 MFQ460279:MFQ460303 LVU460279:LVU460303 LLY460279:LLY460303 LCC460279:LCC460303 KSG460279:KSG460303 KIK460279:KIK460303 JYO460279:JYO460303 JOS460279:JOS460303 JEW460279:JEW460303 IVA460279:IVA460303 ILE460279:ILE460303 IBI460279:IBI460303 HRM460279:HRM460303 HHQ460279:HHQ460303 GXU460279:GXU460303 GNY460279:GNY460303 GEC460279:GEC460303 FUG460279:FUG460303 FKK460279:FKK460303 FAO460279:FAO460303 EQS460279:EQS460303 EGW460279:EGW460303 DXA460279:DXA460303 DNE460279:DNE460303 DDI460279:DDI460303 CTM460279:CTM460303 CJQ460279:CJQ460303 BZU460279:BZU460303 BPY460279:BPY460303 BGC460279:BGC460303 AWG460279:AWG460303 AMK460279:AMK460303 ACO460279:ACO460303 SS460279:SS460303 IW460279:IW460303 I460333:I460357 WVI394743:WVI394767 WLM394743:WLM394767 WBQ394743:WBQ394767 VRU394743:VRU394767 VHY394743:VHY394767 UYC394743:UYC394767 UOG394743:UOG394767 UEK394743:UEK394767 TUO394743:TUO394767 TKS394743:TKS394767 TAW394743:TAW394767 SRA394743:SRA394767 SHE394743:SHE394767 RXI394743:RXI394767 RNM394743:RNM394767 RDQ394743:RDQ394767 QTU394743:QTU394767 QJY394743:QJY394767 QAC394743:QAC394767 PQG394743:PQG394767 PGK394743:PGK394767 OWO394743:OWO394767 OMS394743:OMS394767 OCW394743:OCW394767 NTA394743:NTA394767 NJE394743:NJE394767 MZI394743:MZI394767 MPM394743:MPM394767 MFQ394743:MFQ394767 LVU394743:LVU394767 LLY394743:LLY394767 LCC394743:LCC394767 KSG394743:KSG394767 KIK394743:KIK394767 JYO394743:JYO394767 JOS394743:JOS394767 JEW394743:JEW394767 IVA394743:IVA394767 ILE394743:ILE394767 IBI394743:IBI394767 HRM394743:HRM394767 HHQ394743:HHQ394767 GXU394743:GXU394767 GNY394743:GNY394767 GEC394743:GEC394767 FUG394743:FUG394767 FKK394743:FKK394767 FAO394743:FAO394767 EQS394743:EQS394767 EGW394743:EGW394767 DXA394743:DXA394767 DNE394743:DNE394767 DDI394743:DDI394767 CTM394743:CTM394767 CJQ394743:CJQ394767 BZU394743:BZU394767 BPY394743:BPY394767 BGC394743:BGC394767 AWG394743:AWG394767 AMK394743:AMK394767 ACO394743:ACO394767 SS394743:SS394767 IW394743:IW394767 I394797:I394821 WVI329207:WVI329231 WLM329207:WLM329231 WBQ329207:WBQ329231 VRU329207:VRU329231 VHY329207:VHY329231 UYC329207:UYC329231 UOG329207:UOG329231 UEK329207:UEK329231 TUO329207:TUO329231 TKS329207:TKS329231 TAW329207:TAW329231 SRA329207:SRA329231 SHE329207:SHE329231 RXI329207:RXI329231 RNM329207:RNM329231 RDQ329207:RDQ329231 QTU329207:QTU329231 QJY329207:QJY329231 QAC329207:QAC329231 PQG329207:PQG329231 PGK329207:PGK329231 OWO329207:OWO329231 OMS329207:OMS329231 OCW329207:OCW329231 NTA329207:NTA329231 NJE329207:NJE329231 MZI329207:MZI329231 MPM329207:MPM329231 MFQ329207:MFQ329231 LVU329207:LVU329231 LLY329207:LLY329231 LCC329207:LCC329231 KSG329207:KSG329231 KIK329207:KIK329231 JYO329207:JYO329231 JOS329207:JOS329231 JEW329207:JEW329231 IVA329207:IVA329231 ILE329207:ILE329231 IBI329207:IBI329231 HRM329207:HRM329231 HHQ329207:HHQ329231 GXU329207:GXU329231 GNY329207:GNY329231 GEC329207:GEC329231 FUG329207:FUG329231 FKK329207:FKK329231 FAO329207:FAO329231 EQS329207:EQS329231 EGW329207:EGW329231 DXA329207:DXA329231 DNE329207:DNE329231 DDI329207:DDI329231 CTM329207:CTM329231 CJQ329207:CJQ329231 BZU329207:BZU329231 BPY329207:BPY329231 BGC329207:BGC329231 AWG329207:AWG329231 AMK329207:AMK329231 ACO329207:ACO329231 SS329207:SS329231 IW329207:IW329231 I329261:I329285 WVI263671:WVI263695 WLM263671:WLM263695 WBQ263671:WBQ263695 VRU263671:VRU263695 VHY263671:VHY263695 UYC263671:UYC263695 UOG263671:UOG263695 UEK263671:UEK263695 TUO263671:TUO263695 TKS263671:TKS263695 TAW263671:TAW263695 SRA263671:SRA263695 SHE263671:SHE263695 RXI263671:RXI263695 RNM263671:RNM263695 RDQ263671:RDQ263695 QTU263671:QTU263695 QJY263671:QJY263695 QAC263671:QAC263695 PQG263671:PQG263695 PGK263671:PGK263695 OWO263671:OWO263695 OMS263671:OMS263695 OCW263671:OCW263695 NTA263671:NTA263695 NJE263671:NJE263695 MZI263671:MZI263695 MPM263671:MPM263695 MFQ263671:MFQ263695 LVU263671:LVU263695 LLY263671:LLY263695 LCC263671:LCC263695 KSG263671:KSG263695 KIK263671:KIK263695 JYO263671:JYO263695 JOS263671:JOS263695 JEW263671:JEW263695 IVA263671:IVA263695 ILE263671:ILE263695 IBI263671:IBI263695 HRM263671:HRM263695 HHQ263671:HHQ263695 GXU263671:GXU263695 GNY263671:GNY263695 GEC263671:GEC263695 FUG263671:FUG263695 FKK263671:FKK263695 FAO263671:FAO263695 EQS263671:EQS263695 EGW263671:EGW263695 DXA263671:DXA263695 DNE263671:DNE263695 DDI263671:DDI263695 CTM263671:CTM263695 CJQ263671:CJQ263695 BZU263671:BZU263695 BPY263671:BPY263695 BGC263671:BGC263695 AWG263671:AWG263695 AMK263671:AMK263695 ACO263671:ACO263695 SS263671:SS263695 IW263671:IW263695 I263725:I263749 WVI198135:WVI198159 WLM198135:WLM198159 WBQ198135:WBQ198159 VRU198135:VRU198159 VHY198135:VHY198159 UYC198135:UYC198159 UOG198135:UOG198159 UEK198135:UEK198159 TUO198135:TUO198159 TKS198135:TKS198159 TAW198135:TAW198159 SRA198135:SRA198159 SHE198135:SHE198159 RXI198135:RXI198159 RNM198135:RNM198159 RDQ198135:RDQ198159 QTU198135:QTU198159 QJY198135:QJY198159 QAC198135:QAC198159 PQG198135:PQG198159 PGK198135:PGK198159 OWO198135:OWO198159 OMS198135:OMS198159 OCW198135:OCW198159 NTA198135:NTA198159 NJE198135:NJE198159 MZI198135:MZI198159 MPM198135:MPM198159 MFQ198135:MFQ198159 LVU198135:LVU198159 LLY198135:LLY198159 LCC198135:LCC198159 KSG198135:KSG198159 KIK198135:KIK198159 JYO198135:JYO198159 JOS198135:JOS198159 JEW198135:JEW198159 IVA198135:IVA198159 ILE198135:ILE198159 IBI198135:IBI198159 HRM198135:HRM198159 HHQ198135:HHQ198159 GXU198135:GXU198159 GNY198135:GNY198159 GEC198135:GEC198159 FUG198135:FUG198159 FKK198135:FKK198159 FAO198135:FAO198159 EQS198135:EQS198159 EGW198135:EGW198159 DXA198135:DXA198159 DNE198135:DNE198159 DDI198135:DDI198159 CTM198135:CTM198159 CJQ198135:CJQ198159 BZU198135:BZU198159 BPY198135:BPY198159 BGC198135:BGC198159 AWG198135:AWG198159 AMK198135:AMK198159 ACO198135:ACO198159 SS198135:SS198159 IW198135:IW198159 I198189:I198213 WVI132599:WVI132623 WLM132599:WLM132623 WBQ132599:WBQ132623 VRU132599:VRU132623 VHY132599:VHY132623 UYC132599:UYC132623 UOG132599:UOG132623 UEK132599:UEK132623 TUO132599:TUO132623 TKS132599:TKS132623 TAW132599:TAW132623 SRA132599:SRA132623 SHE132599:SHE132623 RXI132599:RXI132623 RNM132599:RNM132623 RDQ132599:RDQ132623 QTU132599:QTU132623 QJY132599:QJY132623 QAC132599:QAC132623 PQG132599:PQG132623 PGK132599:PGK132623 OWO132599:OWO132623 OMS132599:OMS132623 OCW132599:OCW132623 NTA132599:NTA132623 NJE132599:NJE132623 MZI132599:MZI132623 MPM132599:MPM132623 MFQ132599:MFQ132623 LVU132599:LVU132623 LLY132599:LLY132623 LCC132599:LCC132623 KSG132599:KSG132623 KIK132599:KIK132623 JYO132599:JYO132623 JOS132599:JOS132623 JEW132599:JEW132623 IVA132599:IVA132623 ILE132599:ILE132623 IBI132599:IBI132623 HRM132599:HRM132623 HHQ132599:HHQ132623 GXU132599:GXU132623 GNY132599:GNY132623 GEC132599:GEC132623 FUG132599:FUG132623 FKK132599:FKK132623 FAO132599:FAO132623 EQS132599:EQS132623 EGW132599:EGW132623 DXA132599:DXA132623 DNE132599:DNE132623 DDI132599:DDI132623 CTM132599:CTM132623 CJQ132599:CJQ132623 BZU132599:BZU132623 BPY132599:BPY132623 BGC132599:BGC132623 AWG132599:AWG132623 AMK132599:AMK132623 ACO132599:ACO132623 SS132599:SS132623 IW132599:IW132623 I132653:I132677 WVI67063:WVI67087 WLM67063:WLM67087 WBQ67063:WBQ67087 VRU67063:VRU67087 VHY67063:VHY67087 UYC67063:UYC67087 UOG67063:UOG67087 UEK67063:UEK67087 TUO67063:TUO67087 TKS67063:TKS67087 TAW67063:TAW67087 SRA67063:SRA67087 SHE67063:SHE67087 RXI67063:RXI67087 RNM67063:RNM67087 RDQ67063:RDQ67087 QTU67063:QTU67087 QJY67063:QJY67087 QAC67063:QAC67087 PQG67063:PQG67087 PGK67063:PGK67087 OWO67063:OWO67087 OMS67063:OMS67087 OCW67063:OCW67087 NTA67063:NTA67087 NJE67063:NJE67087 MZI67063:MZI67087 MPM67063:MPM67087 MFQ67063:MFQ67087 LVU67063:LVU67087 LLY67063:LLY67087 LCC67063:LCC67087 KSG67063:KSG67087 KIK67063:KIK67087 JYO67063:JYO67087 JOS67063:JOS67087 JEW67063:JEW67087 IVA67063:IVA67087 ILE67063:ILE67087 IBI67063:IBI67087 HRM67063:HRM67087 HHQ67063:HHQ67087 GXU67063:GXU67087 GNY67063:GNY67087 GEC67063:GEC67087 FUG67063:FUG67087 FKK67063:FKK67087 FAO67063:FAO67087 EQS67063:EQS67087 EGW67063:EGW67087 DXA67063:DXA67087 DNE67063:DNE67087 DDI67063:DDI67087 CTM67063:CTM67087 CJQ67063:CJQ67087 BZU67063:BZU67087 BPY67063:BPY67087 BGC67063:BGC67087 AWG67063:AWG67087 AMK67063:AMK67087 ACO67063:ACO67087 SS67063:SS67087 IW67063:IW67087 WVI5:WVI42 IW5:IW42 SS5:SS42 ACO5:ACO42 AMK5:AMK42 AWG5:AWG42 BGC5:BGC42 BPY5:BPY42 BZU5:BZU42 CJQ5:CJQ42 CTM5:CTM42 DDI5:DDI42 DNE5:DNE42 DXA5:DXA42 EGW5:EGW42 EQS5:EQS42 FAO5:FAO42 FKK5:FKK42 FUG5:FUG42 GEC5:GEC42 GNY5:GNY42 GXU5:GXU42 HHQ5:HHQ42 HRM5:HRM42 IBI5:IBI42 ILE5:ILE42 IVA5:IVA42 JEW5:JEW42 JOS5:JOS42 JYO5:JYO42 KIK5:KIK42 KSG5:KSG42 LCC5:LCC42 LLY5:LLY42 LVU5:LVU42 MFQ5:MFQ42 MPM5:MPM42 MZI5:MZI42 NJE5:NJE42 NTA5:NTA42 OCW5:OCW42 OMS5:OMS42 OWO5:OWO42 PGK5:PGK42 PQG5:PQG42 QAC5:QAC42 QJY5:QJY42 QTU5:QTU42 RDQ5:RDQ42 RNM5:RNM42 RXI5:RXI42 SHE5:SHE42 SRA5:SRA42 TAW5:TAW42 TKS5:TKS42 TUO5:TUO42 UEK5:UEK42 UOG5:UOG42 UYC5:UYC42 VHY5:VHY42 VRU5:VRU42 WBQ5:WBQ42 WLM5:WLM42" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$K$5:$K$22</formula1>
     </dataValidation>
@@ -23194,7 +23194,7 @@
   <pageSetup orientation="landscape" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B0A71AE8-8979-4381-AE63-0CA5DB03260B}">
           <x14:formula1>
             <xm:f>OFFSET(Lists!$C$3,0,0,COUNTA(Lists!$C:$C)-1,1)</xm:f>
